--- a/template/買取決済.xlsx
+++ b/template/買取決済.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\work\00_Wavesync\24_不動産管理システム\03_帳票\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayane\wavesync\メトロス開発\データコンバート20200125\kbs_backend\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572C7FB7-DD8D-44CB-BEE0-6123F499939C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C1B260-F0AC-49E7-9ADC-CD0A18E363C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1995" yWindow="60" windowWidth="19905" windowHeight="9450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="地権者振込一覧" sheetId="15" r:id="rId1"/>
@@ -59,7 +59,7 @@
     <definedName name="分析" localSheetId="0">{"Client Name or Project Name"}</definedName>
     <definedName name="分析">{"Client Name or Project Name"}</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -67,9 +67,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -78,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="161">
   <si>
     <t>地　番
 家屋番号</t>
@@ -919,10 +917,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>$residence$</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>$sellerName$</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -984,10 +978,6 @@
   </si>
   <si>
     <t>(物件番号：$contractBukkenNo$）</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>$blockOrBuildingNumber$</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1390,6 +1380,18 @@
       <t>ヨシヒロ</t>
     </rPh>
     <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>$l_address$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$_blockOrBuildingNumber$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$_contractorName$</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -3056,6 +3058,12 @@
     <xf numFmtId="58" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="28" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3424,6 +3432,52 @@
     <xf numFmtId="182" fontId="40" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="194" fontId="14" fillId="0" borderId="53" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="54" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="51" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="27" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="14" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3447,51 +3501,17 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="194" fontId="14" fillId="0" borderId="53" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="54" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="51" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="27" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3506,24 +3526,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="28" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -5204,91 +5206,93 @@
   </sheetPr>
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="32" customWidth="1"/>
+    <col min="1" max="1" width="12.875" style="32" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="27.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="21.375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="27.375" style="6" customWidth="1"/>
     <col min="6" max="6" width="12" style="6" customWidth="1"/>
-    <col min="7" max="7" width="12.58203125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="10.58203125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.625" style="6" customWidth="1"/>
     <col min="9" max="9" width="12.75" style="6" customWidth="1"/>
-    <col min="10" max="10" width="12.08203125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="14.83203125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="12.125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="14.875" style="6" customWidth="1"/>
     <col min="12" max="12" width="14" style="6" customWidth="1"/>
     <col min="13" max="13" width="15.75" style="6" customWidth="1"/>
     <col min="14" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5" t="s">
         <v>76</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G1" s="7"/>
       <c r="H1" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>77</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="210" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="212" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="211" t="s">
+      <c r="B2" s="213" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="212" t="s">
+      <c r="C2" s="214" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="210" t="s">
+      <c r="D2" s="212" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="210" t="s">
+      <c r="E2" s="212" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
-      <c r="H2" s="210"/>
-      <c r="I2" s="210"/>
-    </row>
-    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="210"/>
-      <c r="B3" s="210"/>
-      <c r="C3" s="213"/>
-      <c r="D3" s="210"/>
+      <c r="F2" s="212"/>
+      <c r="G2" s="212"/>
+      <c r="H2" s="212"/>
+      <c r="I2" s="212"/>
+    </row>
+    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="212"/>
+      <c r="B3" s="212"/>
+      <c r="C3" s="215"/>
+      <c r="D3" s="212"/>
       <c r="E3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>108</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>110</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>82</v>
@@ -5303,33 +5307,33 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="D4" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="F4" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="G4" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="H4" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="I4" s="15" t="s">
         <v>96</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>97</v>
       </c>
       <c r="J4" s="16" t="str">
         <f>決済案内!D23</f>
@@ -5345,7 +5349,7 @@
       </c>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:13" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="12"/>
       <c r="B5" s="9"/>
       <c r="C5" s="18"/>
@@ -5360,7 +5364,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="22"/>
     </row>
-    <row r="6" spans="1:13" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="12"/>
       <c r="B6" s="9"/>
       <c r="C6" s="23"/>
@@ -5375,7 +5379,7 @@
       <c r="L6" s="1"/>
       <c r="M6" s="24"/>
     </row>
-    <row r="7" spans="1:13" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="25"/>
       <c r="B7" s="9"/>
       <c r="C7" s="23"/>
@@ -5390,7 +5394,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="24"/>
     </row>
-    <row r="8" spans="1:13" s="31" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:13" s="31" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="26"/>
       <c r="B8" s="27"/>
       <c r="C8" s="28"/>
@@ -5435,84 +5439,86 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.08203125" style="33" customWidth="1"/>
+    <col min="1" max="1" width="6.125" style="33" customWidth="1"/>
     <col min="2" max="2" width="11" style="33" customWidth="1"/>
     <col min="3" max="3" width="9" style="33"/>
     <col min="4" max="4" width="11.5" style="33" customWidth="1"/>
     <col min="5" max="16384" width="9" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="H1" s="214" t="s">
-        <v>114</v>
-      </c>
-      <c r="I1" s="214"/>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="223" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="223"/>
-      <c r="D2" s="223"/>
+    <row r="1" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H1" s="216" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" s="216"/>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B2" s="225" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="225"/>
+      <c r="D2" s="225"/>
       <c r="E2" s="33" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G3" s="34" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="F4" s="34"/>
-      <c r="G4" s="214" t="s">
+      <c r="G4" s="216" t="s">
         <v>88</v>
       </c>
-      <c r="H4" s="214"/>
-      <c r="I4" s="214"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="G5" s="214" t="s">
+      <c r="H4" s="216"/>
+      <c r="I4" s="216"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="G5" s="216" t="s">
         <v>71</v>
       </c>
-      <c r="H5" s="214"/>
-      <c r="I5" s="214"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="H5" s="216"/>
+      <c r="I5" s="216"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="G6" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="224" t="s">
+      <c r="H6" s="226" t="s">
         <v>72</v>
       </c>
-      <c r="I6" s="224"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="G7" s="214" t="s">
-        <v>112</v>
-      </c>
-      <c r="H7" s="214"/>
-      <c r="I7" s="214"/>
-    </row>
-    <row r="8" spans="2:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="219" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="220"/>
-      <c r="E9" s="220"/>
-      <c r="F9" s="221" t="s">
+      <c r="I6" s="226"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="G7" s="216" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" s="216"/>
+      <c r="I7" s="216"/>
+    </row>
+    <row r="8" spans="2:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C9" s="221" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="222"/>
+      <c r="E9" s="222"/>
+      <c r="F9" s="223" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="221"/>
-      <c r="H9" s="221"/>
-    </row>
-    <row r="10" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="G9" s="223"/>
+      <c r="H9" s="223"/>
+    </row>
+    <row r="10" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C11" s="36" t="s">
         <v>23</v>
       </c>
@@ -5522,7 +5528,7 @@
       <c r="G11" s="36"/>
       <c r="H11" s="36"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C12" s="36" t="s">
         <v>21</v>
       </c>
@@ -5532,7 +5538,7 @@
       <c r="G12" s="36"/>
       <c r="H12" s="36"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C13" s="36" t="s">
         <v>22</v>
       </c>
@@ -5542,7 +5548,7 @@
       <c r="G13" s="36"/>
       <c r="H13" s="36"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C14" s="36"/>
       <c r="D14" s="36"/>
       <c r="E14" s="36"/>
@@ -5552,157 +5558,157 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B16" s="37" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="222" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17" s="222"/>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B17" s="224" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="224"/>
       <c r="D17" s="38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E17" s="33" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="37" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="39"/>
     </row>
-    <row r="21" spans="2:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="37" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="217" t="s">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B23" s="219" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="217"/>
-      <c r="D23" s="218" t="s">
-        <v>99</v>
-      </c>
-      <c r="E23" s="218"/>
-      <c r="F23" s="218"/>
+      <c r="C23" s="219"/>
+      <c r="D23" s="220" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="220"/>
+      <c r="F23" s="220"/>
       <c r="G23" s="40" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="214" t="s">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B24" s="216" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="214"/>
-      <c r="D24" s="218" t="e">
+      <c r="C24" s="216"/>
+      <c r="D24" s="220" t="e">
         <f>固都税精算!I21</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E24" s="218"/>
-      <c r="F24" s="218"/>
+      <c r="E24" s="220"/>
+      <c r="F24" s="220"/>
       <c r="G24" s="40" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="214" t="s">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B25" s="216" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="214"/>
-      <c r="D25" s="218" t="s">
+      <c r="C25" s="216"/>
+      <c r="D25" s="220" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="218"/>
-      <c r="F25" s="218"/>
+      <c r="E25" s="220"/>
+      <c r="F25" s="220"/>
       <c r="G25" s="40" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="214" t="s">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B26" s="216" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="214"/>
-      <c r="D26" s="218" t="s">
+      <c r="C26" s="216"/>
+      <c r="D26" s="220" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="218"/>
-      <c r="F26" s="218"/>
+      <c r="E26" s="220"/>
+      <c r="F26" s="220"/>
       <c r="G26" s="40" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G27" s="40"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="214" t="s">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B28" s="216" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="214"/>
-      <c r="D28" s="215" t="e">
+      <c r="C28" s="216"/>
+      <c r="D28" s="217" t="e">
         <f>D23+D24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E28" s="215"/>
-      <c r="F28" s="215"/>
+      <c r="E28" s="217"/>
+      <c r="F28" s="217"/>
       <c r="G28" s="40" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B30" s="37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="214" t="s">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B31" s="216" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="216"/>
+      <c r="D31" s="216" t="s">
         <v>94</v>
       </c>
-      <c r="C31" s="214"/>
-      <c r="D31" s="214" t="s">
+      <c r="E31" s="216"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B32" s="216" t="s">
         <v>95</v>
       </c>
-      <c r="E31" s="214"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="214" t="s">
+      <c r="C32" s="216"/>
+      <c r="D32" s="216" t="s">
         <v>96</v>
       </c>
-      <c r="C32" s="214"/>
-      <c r="D32" s="214" t="s">
-        <v>97</v>
-      </c>
-      <c r="E32" s="214"/>
-    </row>
-    <row r="33" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="216" t="s">
-        <v>93</v>
-      </c>
-      <c r="C33" s="214"/>
-      <c r="D33" s="214"/>
+      <c r="E32" s="216"/>
+    </row>
+    <row r="33" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="218" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="216"/>
+      <c r="D33" s="216"/>
       <c r="E33" s="33" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B35" s="37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="35" t="s">
         <v>37</v>
       </c>
@@ -5710,7 +5716,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="35" t="s">
         <v>37</v>
       </c>
@@ -5718,7 +5724,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="35" t="s">
         <v>37</v>
       </c>
@@ -5726,7 +5732,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="35" t="s">
         <v>37</v>
       </c>
@@ -5734,7 +5740,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="35" t="s">
         <v>37</v>
       </c>
@@ -5742,7 +5748,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="35" t="s">
         <v>37</v>
       </c>
@@ -5750,7 +5756,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="35" t="s">
         <v>37</v>
       </c>
@@ -5758,7 +5764,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="35" t="s">
         <v>37</v>
       </c>
@@ -5815,81 +5821,83 @@
   </sheetPr>
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:F4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.25" style="43" customWidth="1"/>
-    <col min="2" max="2" width="4.58203125" style="43" customWidth="1"/>
-    <col min="3" max="3" width="6.58203125" style="43" customWidth="1"/>
-    <col min="4" max="4" width="7.08203125" style="43" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" style="43" customWidth="1"/>
+    <col min="2" max="2" width="4.625" style="43" customWidth="1"/>
+    <col min="3" max="3" width="6.625" style="43" customWidth="1"/>
+    <col min="4" max="4" width="7.125" style="43" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="43" customWidth="1"/>
     <col min="6" max="6" width="5" style="43" customWidth="1"/>
     <col min="7" max="7" width="11.75" style="43" customWidth="1"/>
-    <col min="8" max="8" width="9.08203125" style="43" customWidth="1"/>
+    <col min="8" max="8" width="9.125" style="43" customWidth="1"/>
     <col min="9" max="9" width="7" style="43" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.83203125" style="43" customWidth="1"/>
-    <col min="11" max="11" width="2.58203125" style="43" customWidth="1"/>
-    <col min="12" max="16384" width="8.6640625" style="43"/>
+    <col min="10" max="10" width="6.875" style="43" customWidth="1"/>
+    <col min="11" max="11" width="2.625" style="43" customWidth="1"/>
+    <col min="12" max="16384" width="8.625" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="41"/>
-      <c r="B1" s="229" t="s">
+      <c r="B1" s="231" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="229"/>
-      <c r="D1" s="229"/>
-      <c r="E1" s="229"/>
-      <c r="F1" s="229"/>
-      <c r="G1" s="229"/>
-      <c r="H1" s="229"/>
-      <c r="I1" s="229"/>
+      <c r="C1" s="231"/>
+      <c r="D1" s="231"/>
+      <c r="E1" s="231"/>
+      <c r="F1" s="231"/>
+      <c r="G1" s="231"/>
+      <c r="H1" s="231"/>
+      <c r="I1" s="231"/>
       <c r="J1" s="42"/>
       <c r="K1" s="42"/>
     </row>
-    <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="3" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="230" t="s">
+    <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="232" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="231"/>
-      <c r="D3" s="232" t="s">
-        <v>100</v>
-      </c>
-      <c r="E3" s="233"/>
-      <c r="F3" s="234"/>
+      <c r="C3" s="233"/>
+      <c r="D3" s="234" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="235"/>
+      <c r="F3" s="236"/>
       <c r="G3" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="235" t="s">
-        <v>116</v>
-      </c>
-      <c r="I3" s="236"/>
-      <c r="J3" s="237"/>
+      <c r="H3" s="237" t="s">
+        <v>114</v>
+      </c>
+      <c r="I3" s="238"/>
+      <c r="J3" s="239"/>
       <c r="K3" s="45"/>
     </row>
-    <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="238" t="s">
+    <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="240" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="239"/>
-      <c r="D4" s="240" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="241"/>
-      <c r="F4" s="242"/>
+      <c r="C4" s="241"/>
+      <c r="D4" s="242" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="243"/>
+      <c r="F4" s="244"/>
       <c r="G4" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="243" t="s">
-        <v>101</v>
-      </c>
-      <c r="I4" s="244"/>
-      <c r="J4" s="245"/>
+      <c r="H4" s="245" t="s">
+        <v>100</v>
+      </c>
+      <c r="I4" s="246"/>
+      <c r="J4" s="247"/>
       <c r="K4" s="47"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="48"/>
       <c r="C5" s="48"/>
       <c r="D5" s="48"/>
@@ -5899,98 +5907,98 @@
       <c r="H5" s="48"/>
       <c r="I5" s="48"/>
     </row>
-    <row r="6" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="264" t="s">
+    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="266" t="s">
         <v>48</v>
       </c>
       <c r="C6" s="44"/>
-      <c r="D6" s="267" t="s">
+      <c r="D6" s="269" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="268"/>
-      <c r="F6" s="267" t="s">
+      <c r="E6" s="270"/>
+      <c r="F6" s="269" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="269"/>
-      <c r="H6" s="267" t="s">
+      <c r="G6" s="271"/>
+      <c r="H6" s="269" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="269"/>
-      <c r="J6" s="270"/>
+      <c r="I6" s="271"/>
+      <c r="J6" s="272"/>
       <c r="K6" s="49"/>
     </row>
-    <row r="7" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="265"/>
+    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="267"/>
       <c r="C7" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="225" t="s">
-        <v>117</v>
-      </c>
-      <c r="E7" s="227"/>
-      <c r="F7" s="225" t="s">
-        <v>118</v>
-      </c>
-      <c r="G7" s="227"/>
+      <c r="D7" s="227" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="229"/>
+      <c r="F7" s="227" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" s="229"/>
       <c r="H7" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="225" t="e">
+      <c r="I7" s="227" t="e">
         <f>D7+F7</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J7" s="226"/>
+      <c r="J7" s="228"/>
       <c r="K7" s="52"/>
     </row>
-    <row r="8" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="265"/>
+    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="267"/>
       <c r="C8" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="225" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8" s="227"/>
-      <c r="F8" s="225" t="s">
-        <v>124</v>
-      </c>
-      <c r="G8" s="228"/>
+      <c r="D8" s="227" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" s="229"/>
+      <c r="F8" s="227" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" s="230"/>
       <c r="H8" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="225" t="e">
+      <c r="I8" s="227" t="e">
         <f>D8+F8</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J8" s="226"/>
+      <c r="J8" s="228"/>
       <c r="K8" s="52"/>
     </row>
-    <row r="9" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="266"/>
+    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="268"/>
       <c r="C9" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="246">
+      <c r="D9" s="248">
         <f>SUM(D7:E8)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="247"/>
-      <c r="F9" s="246">
+      <c r="E9" s="249"/>
+      <c r="F9" s="248">
         <f>SUM(F7:G8)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="248"/>
+      <c r="G9" s="250"/>
       <c r="H9" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="246">
+      <c r="I9" s="248">
         <f>D9+F9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="249"/>
+      <c r="J9" s="251"/>
       <c r="K9" s="52"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="48"/>
       <c r="C10" s="48"/>
       <c r="D10" s="48"/>
@@ -6000,53 +6008,53 @@
       <c r="H10" s="48"/>
       <c r="I10" s="48"/>
     </row>
-    <row r="11" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="250" t="s">
+    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="252" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="251"/>
+      <c r="C11" s="253"/>
       <c r="D11" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="254" t="s">
-        <v>119</v>
-      </c>
-      <c r="F11" s="255"/>
-      <c r="G11" s="256" t="s">
-        <v>120</v>
-      </c>
-      <c r="H11" s="256"/>
-      <c r="I11" s="257" t="e">
+      <c r="E11" s="256" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" s="257"/>
+      <c r="G11" s="258" t="s">
+        <v>118</v>
+      </c>
+      <c r="H11" s="258"/>
+      <c r="I11" s="259" t="e">
         <f>G11-E11+1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J11" s="258"/>
+      <c r="J11" s="260"/>
       <c r="K11" s="56"/>
     </row>
-    <row r="12" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="252"/>
-      <c r="C12" s="253"/>
+    <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="254"/>
+      <c r="C12" s="255"/>
       <c r="D12" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="259" t="s">
-        <v>121</v>
-      </c>
-      <c r="F12" s="260"/>
-      <c r="G12" s="261" t="s">
-        <v>122</v>
-      </c>
-      <c r="H12" s="261"/>
-      <c r="I12" s="262" t="e">
+      <c r="E12" s="261" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" s="262"/>
+      <c r="G12" s="263" t="s">
+        <v>120</v>
+      </c>
+      <c r="H12" s="263"/>
+      <c r="I12" s="264" t="e">
         <f>G12-E12+1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J12" s="263"/>
+      <c r="J12" s="265"/>
       <c r="K12" s="56"/>
     </row>
-    <row r="13" spans="1:11" ht="10" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="14" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="276" t="s">
+    <row r="13" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="278" t="s">
         <v>60</v>
       </c>
       <c r="C14" s="58"/>
@@ -6064,15 +6072,15 @@
         <f>I$11+I$12</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H14" s="279" t="s">
-        <v>102</v>
-      </c>
-      <c r="I14" s="279"/>
-      <c r="J14" s="280"/>
+      <c r="H14" s="281" t="s">
+        <v>101</v>
+      </c>
+      <c r="I14" s="281"/>
+      <c r="J14" s="282"/>
       <c r="K14" s="63"/>
     </row>
-    <row r="15" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="277"/>
+    <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="279"/>
       <c r="C15" s="64" t="s">
         <v>62</v>
       </c>
@@ -6090,15 +6098,15 @@
         <f>I$11+I$12</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H15" s="281" t="s">
-        <v>103</v>
-      </c>
-      <c r="I15" s="281"/>
-      <c r="J15" s="282"/>
+      <c r="H15" s="283" t="s">
+        <v>102</v>
+      </c>
+      <c r="I15" s="283"/>
+      <c r="J15" s="284"/>
       <c r="K15" s="63"/>
     </row>
-    <row r="16" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="277"/>
+    <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="279"/>
       <c r="C16" s="69"/>
       <c r="D16" s="70" t="s">
         <v>51</v>
@@ -6109,15 +6117,15 @@
       <c r="H16" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="I16" s="283" t="e">
+      <c r="I16" s="285" t="e">
         <f>H14+H15</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J16" s="284"/>
+      <c r="J16" s="286"/>
       <c r="K16" s="63"/>
     </row>
-    <row r="17" spans="2:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="278"/>
+    <row r="17" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="280"/>
       <c r="C17" s="74" t="s">
         <v>65</v>
       </c>
@@ -6134,61 +6142,61 @@
         <v>（Ｄ）</v>
       </c>
       <c r="H17" s="79"/>
-      <c r="I17" s="285" t="e">
+      <c r="I17" s="287" t="e">
         <f>I9-I16</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J17" s="286"/>
+      <c r="J17" s="288"/>
       <c r="K17" s="63"/>
     </row>
-    <row r="18" spans="2:11" ht="8.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:11" ht="8.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H18" s="80"/>
       <c r="I18" s="80"/>
     </row>
-    <row r="19" spans="2:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="287" t="s">
+    <row r="19" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="289" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="288"/>
-      <c r="D19" s="289"/>
+      <c r="C19" s="290"/>
+      <c r="D19" s="291"/>
       <c r="E19" s="81"/>
       <c r="F19" s="81"/>
       <c r="G19" s="81"/>
       <c r="H19" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="I19" s="290" t="s">
-        <v>104</v>
-      </c>
-      <c r="J19" s="291"/>
+      <c r="I19" s="292" t="s">
+        <v>103</v>
+      </c>
+      <c r="J19" s="293"/>
       <c r="K19" s="63"/>
     </row>
-    <row r="20" spans="2:11" ht="8.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:11" ht="8.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="83"/>
       <c r="C20" s="83"/>
       <c r="H20" s="84"/>
       <c r="I20" s="84"/>
     </row>
-    <row r="21" spans="2:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="271" t="s">
+    <row r="21" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="273" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="272"/>
-      <c r="D21" s="273"/>
+      <c r="C21" s="274"/>
+      <c r="D21" s="275"/>
       <c r="E21" s="81"/>
       <c r="F21" s="81"/>
       <c r="G21" s="81"/>
       <c r="H21" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="I21" s="274" t="e">
+      <c r="I21" s="276" t="e">
         <f>I16+I19</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J21" s="275"/>
+      <c r="J21" s="277"/>
       <c r="K21" s="85"/>
     </row>
-    <row r="22" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="83"/>
       <c r="C22" s="83"/>
       <c r="D22" s="86"/>
@@ -6245,40 +6253,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.58203125" style="43" customWidth="1"/>
-    <col min="2" max="3" width="6.58203125" style="43" customWidth="1"/>
+    <col min="1" max="1" width="2.625" style="43" customWidth="1"/>
+    <col min="2" max="3" width="6.625" style="43" customWidth="1"/>
     <col min="4" max="4" width="13.75" style="43" customWidth="1"/>
     <col min="5" max="5" width="3.5" style="43" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.58203125" style="43" customWidth="1"/>
-    <col min="7" max="8" width="6.58203125" style="43" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="43" customWidth="1"/>
+    <col min="7" max="8" width="6.625" style="43" customWidth="1"/>
     <col min="9" max="9" width="7" style="43" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.58203125" style="43" customWidth="1"/>
-    <col min="11" max="16384" width="8.6640625" style="43"/>
+    <col min="10" max="10" width="2.625" style="43" customWidth="1"/>
+    <col min="11" max="16384" width="8.625" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="87"/>
     </row>
-    <row r="2" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="41"/>
-      <c r="B2" s="304" t="s">
+      <c r="B2" s="306" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="304"/>
-      <c r="D2" s="304"/>
-      <c r="E2" s="304"/>
-      <c r="F2" s="304"/>
-      <c r="G2" s="304"/>
-      <c r="H2" s="304"/>
-      <c r="I2" s="304"/>
+      <c r="C2" s="306"/>
+      <c r="D2" s="306"/>
+      <c r="E2" s="306"/>
+      <c r="F2" s="306"/>
+      <c r="G2" s="306"/>
+      <c r="H2" s="306"/>
+      <c r="I2" s="306"/>
       <c r="J2" s="42"/>
     </row>
-    <row r="3" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="4" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="88"/>
       <c r="C4" s="88"/>
       <c r="D4" s="88"/>
@@ -6288,32 +6298,32 @@
       <c r="H4" s="88"/>
       <c r="I4" s="102"/>
     </row>
-    <row r="5" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="305" t="s">
+    <row r="5" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="307" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="305"/>
-      <c r="D5" s="305"/>
-      <c r="E5" s="305"/>
+      <c r="C5" s="307"/>
+      <c r="D5" s="307"/>
+      <c r="E5" s="307"/>
       <c r="F5" s="89" t="s">
         <v>8</v>
       </c>
       <c r="I5" s="103"/>
     </row>
-    <row r="6" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" s="306" t="e">
+    <row r="6" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D7" s="308" t="e">
         <f>G13+G14</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E7" s="307"/>
-      <c r="F7" s="307"/>
-      <c r="G7" s="307"/>
-      <c r="H7" s="308"/>
+      <c r="E7" s="309"/>
+      <c r="F7" s="309"/>
+      <c r="G7" s="309"/>
+      <c r="H7" s="310"/>
       <c r="I7" s="49"/>
       <c r="J7" s="90"/>
     </row>
-    <row r="8" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E8" s="91"/>
       <c r="F8" s="92"/>
       <c r="G8" s="93"/>
@@ -6321,7 +6331,7 @@
       <c r="I8" s="90"/>
       <c r="J8" s="90"/>
     </row>
-    <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E9" s="91"/>
       <c r="F9" s="92"/>
       <c r="G9" s="93"/>
@@ -6329,87 +6339,87 @@
       <c r="I9" s="90"/>
       <c r="J9" s="90"/>
     </row>
-    <row r="10" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="309" t="s">
+    <row r="10" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="311" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="310"/>
-      <c r="D10" s="311" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="312"/>
-      <c r="F10" s="312"/>
-      <c r="G10" s="312"/>
-      <c r="H10" s="312"/>
-      <c r="I10" s="313"/>
+      <c r="C10" s="312"/>
+      <c r="D10" s="313" t="s">
+        <v>158</v>
+      </c>
+      <c r="E10" s="314"/>
+      <c r="F10" s="314"/>
+      <c r="G10" s="314"/>
+      <c r="H10" s="314"/>
+      <c r="I10" s="315"/>
       <c r="J10" s="90"/>
     </row>
-    <row r="11" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="J11" s="94"/>
     </row>
-    <row r="12" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="292" t="s">
+    <row r="12" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="294" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="293"/>
-      <c r="D12" s="293"/>
-      <c r="E12" s="293"/>
-      <c r="F12" s="293"/>
-      <c r="G12" s="293" t="s">
+      <c r="C12" s="295"/>
+      <c r="D12" s="295"/>
+      <c r="E12" s="295"/>
+      <c r="F12" s="295"/>
+      <c r="G12" s="295" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="293"/>
-      <c r="I12" s="294"/>
+      <c r="H12" s="295"/>
+      <c r="I12" s="296"/>
       <c r="J12" s="94"/>
     </row>
-    <row r="13" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="295" t="s">
-        <v>125</v>
-      </c>
-      <c r="C13" s="296"/>
-      <c r="D13" s="296"/>
-      <c r="E13" s="296"/>
-      <c r="F13" s="297"/>
-      <c r="G13" s="298" t="str">
+    <row r="13" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="297" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="298"/>
+      <c r="D13" s="298"/>
+      <c r="E13" s="298"/>
+      <c r="F13" s="299"/>
+      <c r="G13" s="300" t="str">
         <f>決済案内!D23</f>
         <v>$tradingPrice$</v>
       </c>
-      <c r="H13" s="299"/>
-      <c r="I13" s="300"/>
+      <c r="H13" s="301"/>
+      <c r="I13" s="302"/>
       <c r="J13" s="94"/>
     </row>
-    <row r="14" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="301" t="s">
-        <v>126</v>
-      </c>
-      <c r="C14" s="302"/>
-      <c r="D14" s="302"/>
-      <c r="E14" s="302"/>
-      <c r="F14" s="303"/>
-      <c r="G14" s="298" t="e">
+    <row r="14" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="303" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="304"/>
+      <c r="D14" s="304"/>
+      <c r="E14" s="304"/>
+      <c r="F14" s="305"/>
+      <c r="G14" s="300" t="e">
         <f>固都税精算!I21</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H14" s="299"/>
-      <c r="I14" s="300"/>
+      <c r="H14" s="301"/>
+      <c r="I14" s="302"/>
       <c r="J14" s="94"/>
     </row>
-    <row r="15" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="322" t="s">
+    <row r="15" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="324" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="323"/>
-      <c r="D15" s="323"/>
-      <c r="E15" s="323"/>
-      <c r="F15" s="324"/>
-      <c r="G15" s="314"/>
-      <c r="H15" s="315"/>
-      <c r="I15" s="316"/>
+      <c r="C15" s="325"/>
+      <c r="D15" s="325"/>
+      <c r="E15" s="325"/>
+      <c r="F15" s="326"/>
+      <c r="G15" s="316"/>
+      <c r="H15" s="317"/>
+      <c r="I15" s="318"/>
       <c r="K15" s="43" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="95"/>
       <c r="C16" s="95"/>
       <c r="D16" s="95"/>
@@ -6419,14 +6429,14 @@
       <c r="H16" s="97"/>
       <c r="I16" s="97"/>
       <c r="K16" s="43" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="321" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" s="321"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="323" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="323"/>
       <c r="D17" s="104" t="s">
         <v>17</v>
       </c>
@@ -6436,10 +6446,10 @@
       <c r="H17" s="90"/>
       <c r="I17" s="90"/>
       <c r="K17" s="43" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="105"/>
       <c r="C18" s="105"/>
       <c r="D18" s="105"/>
@@ -6449,45 +6459,45 @@
       <c r="H18" s="105"/>
       <c r="I18" s="105"/>
       <c r="K18" s="43" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C19" s="317" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C19" s="319" t="s">
         <v>85</v>
       </c>
       <c r="D19" s="98"/>
       <c r="E19" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="253"/>
-      <c r="G19" s="253"/>
-      <c r="H19" s="253"/>
-      <c r="I19" s="253"/>
-      <c r="J19" s="253"/>
-    </row>
-    <row r="20" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C20" s="318"/>
+      <c r="F19" s="255"/>
+      <c r="G19" s="255"/>
+      <c r="H19" s="255"/>
+      <c r="I19" s="255"/>
+      <c r="J19" s="255"/>
+    </row>
+    <row r="20" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C20" s="320"/>
       <c r="D20" s="98"/>
       <c r="E20" s="99"/>
-      <c r="F20" s="319"/>
-      <c r="G20" s="319"/>
-      <c r="H20" s="319"/>
-      <c r="I20" s="319"/>
-    </row>
-    <row r="21" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F20" s="321"/>
+      <c r="G20" s="321"/>
+      <c r="H20" s="321"/>
+      <c r="I20" s="321"/>
+    </row>
+    <row r="21" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E21" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="320" t="s">
+      <c r="F21" s="322" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="320"/>
-      <c r="H21" s="320"/>
-      <c r="I21" s="320"/>
-      <c r="J21" s="320"/>
-    </row>
-    <row r="22" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G21" s="322"/>
+      <c r="H21" s="322"/>
+      <c r="I21" s="322"/>
+      <c r="J21" s="322"/>
+    </row>
+    <row r="22" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E22" s="99"/>
       <c r="F22" s="106"/>
       <c r="G22" s="106"/>
@@ -6495,7 +6505,7 @@
       <c r="I22" s="106"/>
       <c r="J22" s="106"/>
     </row>
-    <row r="23" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E23" s="99"/>
       <c r="F23" s="107"/>
       <c r="G23" s="107"/>
@@ -6503,7 +6513,7 @@
       <c r="I23" s="107"/>
       <c r="J23" s="107"/>
     </row>
-    <row r="24" spans="2:11" ht="12" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:11" ht="12" x14ac:dyDescent="0.4">
       <c r="F24" s="107"/>
       <c r="G24" s="107"/>
       <c r="H24" s="107"/>
@@ -6551,51 +6561,51 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.75" style="109" customWidth="1"/>
     <col min="2" max="2" width="17" style="109" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="109" customWidth="1"/>
+    <col min="3" max="3" width="7.375" style="109" customWidth="1"/>
     <col min="4" max="4" width="15" style="109" customWidth="1"/>
     <col min="5" max="5" width="4.25" style="109" customWidth="1"/>
-    <col min="6" max="6" width="12.08203125" style="109" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="109" customWidth="1"/>
     <col min="7" max="7" width="6.25" style="109" customWidth="1"/>
     <col min="8" max="8" width="6.5" style="109" customWidth="1"/>
     <col min="9" max="9" width="7.25" style="109" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.25" style="109" customWidth="1"/>
     <col min="11" max="11" width="13.5" style="109" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.83203125" style="109" customWidth="1"/>
-    <col min="13" max="14" width="15.33203125" style="109" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.875" style="109" customWidth="1"/>
+    <col min="13" max="14" width="15.375" style="109" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="4.75" style="109" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.6640625" style="109"/>
+    <col min="16" max="16384" width="8.625" style="109"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="6.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="108"/>
-      <c r="M1" s="369"/>
-      <c r="N1" s="369"/>
-      <c r="O1" s="369"/>
-    </row>
-    <row r="2" spans="1:15" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="M1" s="211"/>
+      <c r="N1" s="211"/>
+      <c r="O1" s="211"/>
+    </row>
+    <row r="2" spans="1:15" ht="24" x14ac:dyDescent="0.4">
       <c r="A2" s="110"/>
-      <c r="B2" s="358" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" s="358"/>
-      <c r="D2" s="358"/>
-      <c r="E2" s="358"/>
-      <c r="F2" s="358"/>
-      <c r="G2" s="358"/>
-      <c r="H2" s="358"/>
-      <c r="I2" s="358"/>
+      <c r="B2" s="364" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="364"/>
+      <c r="D2" s="364"/>
+      <c r="E2" s="364"/>
+      <c r="F2" s="364"/>
+      <c r="G2" s="364"/>
+      <c r="H2" s="364"/>
+      <c r="I2" s="364"/>
       <c r="J2" s="111"/>
       <c r="K2" s="111"/>
       <c r="L2" s="111"/>
-      <c r="M2" s="368"/>
-      <c r="N2" s="368"/>
-      <c r="O2" s="368"/>
-    </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="M2" s="210"/>
+      <c r="N2" s="210"/>
+      <c r="O2" s="210"/>
+    </row>
+    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="112"/>
       <c r="C3" s="112"/>
       <c r="D3" s="112"/>
@@ -6606,21 +6616,21 @@
       <c r="I3" s="112"/>
       <c r="J3" s="112"/>
     </row>
-    <row r="4" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="114" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="359"/>
-      <c r="D4" s="360"/>
-      <c r="E4" s="361"/>
+      <c r="C4" s="365"/>
+      <c r="D4" s="366"/>
+      <c r="E4" s="367"/>
       <c r="F4" s="115" t="s">
-        <v>132</v>
-      </c>
-      <c r="G4" s="362">
+        <v>130</v>
+      </c>
+      <c r="G4" s="368">
         <v>43983</v>
       </c>
-      <c r="H4" s="362"/>
-      <c r="I4" s="363"/>
+      <c r="H4" s="368"/>
+      <c r="I4" s="369"/>
       <c r="J4" s="116"/>
       <c r="K4" s="117"/>
       <c r="L4" s="117"/>
@@ -6628,27 +6638,27 @@
         <v>44</v>
       </c>
       <c r="N4" s="118" t="s">
+        <v>131</v>
+      </c>
+      <c r="O4" s="118" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="119" t="s">
         <v>133</v>
       </c>
-      <c r="O4" s="118" t="s">
+      <c r="C5" s="360"/>
+      <c r="D5" s="361"/>
+      <c r="E5" s="361"/>
+      <c r="F5" s="120" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="119" t="s">
+      <c r="G5" s="362" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="364"/>
-      <c r="D5" s="365"/>
-      <c r="E5" s="365"/>
-      <c r="F5" s="120" t="s">
-        <v>136</v>
-      </c>
-      <c r="G5" s="366" t="s">
-        <v>137</v>
-      </c>
-      <c r="H5" s="366"/>
-      <c r="I5" s="367"/>
+      <c r="H5" s="362"/>
+      <c r="I5" s="363"/>
       <c r="J5" s="116"/>
       <c r="M5" s="121">
         <v>43516</v>
@@ -6660,9 +6670,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="125" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C6" s="126"/>
       <c r="D6" s="116"/>
@@ -6676,7 +6686,7 @@
       <c r="N6" s="128"/>
       <c r="O6" s="129"/>
     </row>
-    <row r="7" spans="1:15" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="130"/>
       <c r="C7" s="126"/>
       <c r="D7" s="116"/>
@@ -6690,7 +6700,7 @@
       <c r="N7" s="128"/>
       <c r="O7" s="129"/>
     </row>
-    <row r="8" spans="1:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="127"/>
       <c r="C8" s="126"/>
       <c r="D8" s="116"/>
@@ -6704,7 +6714,7 @@
       <c r="N8" s="128"/>
       <c r="O8" s="129"/>
     </row>
-    <row r="9" spans="1:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="127"/>
       <c r="C9" s="126"/>
       <c r="D9" s="116"/>
@@ -6718,7 +6728,7 @@
       <c r="N9" s="128"/>
       <c r="O9" s="129"/>
     </row>
-    <row r="10" spans="1:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="127"/>
       <c r="C10" s="126"/>
       <c r="D10" s="116"/>
@@ -6732,29 +6742,29 @@
       <c r="N10" s="128"/>
       <c r="O10" s="129"/>
     </row>
-    <row r="11" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="131" t="s">
-        <v>139</v>
-      </c>
-      <c r="C11" s="344"/>
-      <c r="D11" s="344"/>
-      <c r="E11" s="344"/>
+        <v>137</v>
+      </c>
+      <c r="C11" s="337"/>
+      <c r="D11" s="337"/>
+      <c r="E11" s="337"/>
       <c r="F11" s="127" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G11" s="112"/>
       <c r="H11" s="112"/>
       <c r="I11" s="112"/>
       <c r="J11" s="112"/>
       <c r="M11" s="118" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N11" s="132"/>
       <c r="O11" s="132"/>
     </row>
-    <row r="12" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="112" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C12" s="112"/>
       <c r="D12" s="112"/>
@@ -6765,24 +6775,24 @@
       <c r="I12" s="112"/>
       <c r="J12" s="112"/>
       <c r="M12" s="118" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N12" s="132"/>
       <c r="O12" s="132"/>
     </row>
-    <row r="13" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="131" t="s">
-        <v>143</v>
-      </c>
-      <c r="C13" s="345" t="s">
-        <v>144</v>
-      </c>
-      <c r="D13" s="346"/>
-      <c r="E13" s="347" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="338" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" s="339"/>
+      <c r="E13" s="340" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="348"/>
-      <c r="G13" s="349"/>
+      <c r="F13" s="341"/>
+      <c r="G13" s="342"/>
       <c r="H13" s="112"/>
       <c r="I13" s="112"/>
       <c r="J13" s="112"/>
@@ -6794,18 +6804,18 @@
       <c r="N13" s="133"/>
       <c r="O13" s="134"/>
     </row>
-    <row r="14" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="136" t="s">
-        <v>145</v>
-      </c>
-      <c r="C14" s="350"/>
-      <c r="D14" s="351"/>
-      <c r="E14" s="352">
+        <v>143</v>
+      </c>
+      <c r="C14" s="343"/>
+      <c r="D14" s="344"/>
+      <c r="E14" s="345">
         <f>SUM(C14:D14)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="353"/>
-      <c r="G14" s="354"/>
+      <c r="F14" s="346"/>
+      <c r="G14" s="347"/>
       <c r="H14" s="127"/>
       <c r="I14" s="127"/>
       <c r="J14" s="127"/>
@@ -6813,28 +6823,28 @@
       <c r="L14" s="138"/>
       <c r="M14" s="138"/>
     </row>
-    <row r="15" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="131" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C15" s="139"/>
       <c r="D15" s="140">
         <f>SUM(C14:D14)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="355">
+      <c r="E15" s="348">
         <f>SUM(C15:D15)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="356"/>
-      <c r="G15" s="357"/>
+      <c r="F15" s="349"/>
+      <c r="G15" s="350"/>
       <c r="H15" s="127"/>
       <c r="I15" s="127"/>
       <c r="J15" s="127"/>
       <c r="K15" s="141"/>
       <c r="L15" s="142"/>
     </row>
-    <row r="16" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="143" t="str">
         <f>""&amp;K13&amp;"月分賃料"</f>
         <v>6月分賃料</v>
@@ -6852,20 +6862,20 @@
       <c r="N16" s="149"/>
       <c r="O16" s="137"/>
     </row>
-    <row r="17" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="150" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C17" s="151"/>
-      <c r="D17" s="333">
+      <c r="D17" s="351">
         <v>43983</v>
       </c>
-      <c r="E17" s="333"/>
-      <c r="F17" s="334">
+      <c r="E17" s="351"/>
+      <c r="F17" s="352">
         <v>43983</v>
       </c>
-      <c r="G17" s="334"/>
-      <c r="H17" s="334"/>
+      <c r="G17" s="352"/>
+      <c r="H17" s="352"/>
       <c r="I17" s="152"/>
       <c r="J17" s="153"/>
       <c r="K17" s="142"/>
@@ -6873,9 +6883,9 @@
       <c r="N17" s="138"/>
       <c r="O17" s="138"/>
     </row>
-    <row r="18" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="154" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C18" s="155"/>
       <c r="D18" s="156">
@@ -6888,15 +6898,15 @@
         <v>30</v>
       </c>
       <c r="G18" s="159"/>
-      <c r="H18" s="335"/>
-      <c r="I18" s="336"/>
+      <c r="H18" s="353"/>
+      <c r="I18" s="354"/>
       <c r="L18" s="142"/>
       <c r="N18" s="160"/>
       <c r="O18" s="160"/>
     </row>
-    <row r="19" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="161" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C19" s="162"/>
       <c r="D19" s="163">
@@ -6909,16 +6919,16 @@
         <v>30</v>
       </c>
       <c r="G19" s="166"/>
-      <c r="H19" s="337"/>
-      <c r="I19" s="338"/>
+      <c r="H19" s="355"/>
+      <c r="I19" s="356"/>
       <c r="J19" s="127" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L19" s="142"/>
       <c r="N19" s="160"/>
       <c r="O19" s="160"/>
     </row>
-    <row r="20" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="125"/>
       <c r="C20" s="167"/>
       <c r="D20" s="168"/>
@@ -6933,46 +6943,46 @@
       <c r="N20" s="173"/>
       <c r="O20" s="173"/>
     </row>
-    <row r="21" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="339" t="s">
-        <v>151</v>
-      </c>
-      <c r="C21" s="340"/>
-      <c r="D21" s="340"/>
-      <c r="E21" s="340"/>
-      <c r="F21" s="340"/>
-      <c r="G21" s="340"/>
-      <c r="H21" s="340"/>
-      <c r="I21" s="341"/>
+    <row r="21" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="357" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" s="358"/>
+      <c r="D21" s="358"/>
+      <c r="E21" s="358"/>
+      <c r="F21" s="358"/>
+      <c r="G21" s="358"/>
+      <c r="H21" s="358"/>
+      <c r="I21" s="359"/>
       <c r="J21" s="174"/>
       <c r="K21" s="175"/>
       <c r="L21" s="142"/>
       <c r="N21" s="173"/>
       <c r="O21" s="173"/>
     </row>
-    <row r="22" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="154" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C22" s="155"/>
       <c r="D22" s="176" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E22" s="157"/>
       <c r="F22" s="177"/>
       <c r="G22" s="178"/>
-      <c r="H22" s="342">
+      <c r="H22" s="335">
         <f>C11+H19</f>
         <v>0</v>
       </c>
-      <c r="I22" s="343"/>
+      <c r="I22" s="336"/>
       <c r="J22" s="171"/>
       <c r="K22" s="175"/>
       <c r="L22" s="142"/>
       <c r="N22" s="173"/>
       <c r="O22" s="173"/>
     </row>
-    <row r="23" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="179"/>
       <c r="C23" s="180"/>
       <c r="D23" s="181"/>
@@ -6988,7 +6998,7 @@
       <c r="N23" s="173"/>
       <c r="O23" s="173"/>
     </row>
-    <row r="24" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="187"/>
       <c r="C24" s="167"/>
       <c r="D24" s="168"/>
@@ -7004,7 +7014,7 @@
       <c r="N24" s="173"/>
       <c r="O24" s="173"/>
     </row>
-    <row r="25" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="127"/>
       <c r="C25" s="112"/>
       <c r="D25" s="112"/>
@@ -7020,56 +7030,56 @@
       <c r="N25" s="173"/>
       <c r="O25" s="173"/>
     </row>
-    <row r="26" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="327" t="s">
+    <row r="26" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="329" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="327"/>
-      <c r="D26" s="327"/>
-      <c r="E26" s="327"/>
-      <c r="F26" s="327"/>
-      <c r="G26" s="327"/>
-      <c r="H26" s="327"/>
-      <c r="I26" s="327"/>
-      <c r="J26" s="327"/>
+      <c r="C26" s="329"/>
+      <c r="D26" s="329"/>
+      <c r="E26" s="329"/>
+      <c r="F26" s="329"/>
+      <c r="G26" s="329"/>
+      <c r="H26" s="329"/>
+      <c r="I26" s="329"/>
+      <c r="J26" s="329"/>
       <c r="K26" s="175"/>
       <c r="N26" s="173"/>
       <c r="O26" s="173"/>
     </row>
-    <row r="27" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="175"/>
-      <c r="B27" s="328"/>
-      <c r="C27" s="328"/>
+      <c r="B27" s="330"/>
+      <c r="C27" s="330"/>
       <c r="D27" s="189"/>
       <c r="E27" s="190"/>
       <c r="F27" s="190"/>
       <c r="G27" s="190"/>
       <c r="H27" s="191"/>
-      <c r="I27" s="329"/>
+      <c r="I27" s="331"/>
       <c r="J27" s="192"/>
       <c r="K27" s="175"/>
       <c r="N27" s="173"/>
       <c r="O27" s="173"/>
     </row>
-    <row r="28" spans="1:15" s="175" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" s="175" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="175" t="s">
-        <v>154</v>
-      </c>
-      <c r="B28" s="331"/>
-      <c r="C28" s="331"/>
+        <v>152</v>
+      </c>
+      <c r="B28" s="333"/>
+      <c r="C28" s="333"/>
       <c r="D28" s="189" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E28" s="193"/>
       <c r="F28" s="112"/>
       <c r="G28" s="112"/>
       <c r="H28" s="112"/>
-      <c r="I28" s="330"/>
+      <c r="I28" s="332"/>
       <c r="J28" s="194"/>
       <c r="L28" s="109"/>
       <c r="M28" s="109"/>
     </row>
-    <row r="29" spans="1:15" s="175" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" s="175" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="112"/>
       <c r="C29" s="112"/>
       <c r="D29" s="112"/>
@@ -7083,15 +7093,15 @@
       <c r="L29" s="109"/>
       <c r="M29" s="109"/>
     </row>
-    <row r="30" spans="1:15" s="175" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" s="175" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="112"/>
       <c r="C30" s="112"/>
-      <c r="D30" s="332">
+      <c r="D30" s="334">
         <f>H22</f>
         <v>0</v>
       </c>
-      <c r="E30" s="332"/>
-      <c r="F30" s="332"/>
+      <c r="E30" s="334"/>
+      <c r="F30" s="334"/>
       <c r="G30" s="196"/>
       <c r="H30" s="112"/>
       <c r="I30" s="112"/>
@@ -7100,7 +7110,7 @@
       <c r="L30" s="198"/>
       <c r="M30" s="109"/>
     </row>
-    <row r="31" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="175"/>
       <c r="B31" s="112"/>
       <c r="C31" s="112"/>
@@ -7114,7 +7124,7 @@
       <c r="K31" s="197"/>
       <c r="L31" s="198"/>
     </row>
-    <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="175"/>
       <c r="B32" s="200"/>
       <c r="C32" s="201"/>
@@ -7129,7 +7139,7 @@
       <c r="L32" s="195"/>
       <c r="M32" s="195"/>
     </row>
-    <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="175"/>
       <c r="B33" s="200" t="str">
         <f>"但し、上記所在物件の6月分日割り賃料及び承継保証金として"</f>
@@ -7147,34 +7157,34 @@
       <c r="L33" s="195"/>
       <c r="M33" s="195"/>
     </row>
-    <row r="34" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="112"/>
       <c r="C34" s="112"/>
       <c r="D34" s="112"/>
       <c r="E34" s="112"/>
       <c r="F34" s="202"/>
-      <c r="G34" s="325"/>
-      <c r="H34" s="325"/>
-      <c r="I34" s="325"/>
+      <c r="G34" s="327"/>
+      <c r="H34" s="327"/>
+      <c r="I34" s="327"/>
       <c r="J34" s="203"/>
       <c r="L34" s="197"/>
       <c r="M34" s="197"/>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="112"/>
       <c r="C35" s="112"/>
       <c r="D35" s="112"/>
       <c r="E35" s="112"/>
       <c r="F35" s="202"/>
-      <c r="G35" s="325">
+      <c r="G35" s="327">
         <v>43983</v>
       </c>
-      <c r="H35" s="325"/>
-      <c r="I35" s="325"/>
+      <c r="H35" s="327"/>
+      <c r="I35" s="327"/>
       <c r="J35" s="203"/>
       <c r="M35" s="204"/>
     </row>
-    <row r="36" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="112"/>
       <c r="C36" s="112"/>
       <c r="D36" s="112"/>
@@ -7185,26 +7195,26 @@
       <c r="I36" s="208"/>
       <c r="J36" s="208"/>
     </row>
-    <row r="37" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="112"/>
       <c r="C37" s="112"/>
       <c r="D37" s="112"/>
       <c r="E37" s="112"/>
       <c r="F37" s="112"/>
-      <c r="G37" s="325"/>
-      <c r="H37" s="325"/>
-      <c r="I37" s="325"/>
+      <c r="G37" s="327"/>
+      <c r="H37" s="327"/>
+      <c r="I37" s="327"/>
       <c r="J37" s="209"/>
       <c r="L37" s="197"/>
       <c r="M37" s="197"/>
     </row>
-    <row r="38" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="202"/>
       <c r="C38" s="112"/>
       <c r="D38" s="112"/>
       <c r="E38" s="112"/>
       <c r="F38" s="202" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G38" s="202"/>
       <c r="H38" s="203"/>
@@ -7213,16 +7223,16 @@
       <c r="L38" s="197"/>
       <c r="M38" s="197"/>
       <c r="N38" s="109" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="202"/>
       <c r="C39" s="112"/>
       <c r="D39" s="112"/>
       <c r="E39" s="112"/>
       <c r="F39" s="202" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G39" s="112"/>
       <c r="H39" s="202"/>
@@ -7230,33 +7240,33 @@
       <c r="J39" s="203"/>
       <c r="M39" s="204"/>
     </row>
-    <row r="40" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="206"/>
       <c r="C40" s="112"/>
       <c r="D40" s="112"/>
       <c r="E40" s="205"/>
       <c r="F40" s="206" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G40" s="207"/>
       <c r="H40" s="208"/>
       <c r="I40" s="208"/>
       <c r="J40" s="208"/>
     </row>
-    <row r="41" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="O41" s="113"/>
     </row>
-    <row r="42" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="326" t="s">
+    <row r="42" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="328" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="326"/>
-      <c r="D42" s="326"/>
-      <c r="E42" s="326"/>
-      <c r="F42" s="326"/>
-      <c r="G42" s="326"/>
-      <c r="H42" s="326"/>
-      <c r="I42" s="326"/>
+      <c r="C42" s="328"/>
+      <c r="D42" s="328"/>
+      <c r="E42" s="328"/>
+      <c r="F42" s="328"/>
+      <c r="G42" s="328"/>
+      <c r="H42" s="328"/>
+      <c r="I42" s="328"/>
       <c r="O42" s="124"/>
     </row>
   </sheetData>

--- a/template/買取決済.xlsx
+++ b/template/買取決済.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayane\wavesync\メトロス開発\データコンバート20200125\kbs_backend\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\work\00_Wavesync\24_不動産管理システム\00_source\backend\kbs_backend\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C1B260-F0AC-49E7-9ADC-CD0A18E363C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03814C22-FA5E-4EE1-9D25-4347C353A3E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1995" yWindow="60" windowWidth="19905" windowHeight="9450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="地権者振込一覧" sheetId="15" r:id="rId1"/>
@@ -59,7 +59,7 @@
     <definedName name="分析" localSheetId="0">{"Client Name or Project Name"}</definedName>
     <definedName name="分析">{"Client Name or Project Name"}</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -67,7 +67,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -1382,15 +1384,15 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>$l_address$</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>$_blockOrBuildingNumber$</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>$_contractorName$</t>
+    <t>$list_contractorName$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$list_blockOrBuildingNumber$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$addressAndBlockOrBuildingNumber$</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -5206,29 +5208,27 @@
   </sheetPr>
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="32" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" style="32" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="21.375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="27.375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" style="6" customWidth="1"/>
     <col min="6" max="6" width="12" style="6" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="10.625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="12.58203125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.58203125" style="6" customWidth="1"/>
     <col min="9" max="9" width="12.75" style="6" customWidth="1"/>
-    <col min="10" max="10" width="12.125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="14.875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="12.08203125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" style="6" customWidth="1"/>
     <col min="12" max="12" width="14" style="6" customWidth="1"/>
     <col min="13" max="13" width="15.75" style="6" customWidth="1"/>
     <col min="14" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>99</v>
       </c>
@@ -5253,7 +5253,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="212" t="s">
         <v>74</v>
       </c>
@@ -5274,7 +5274,7 @@
       <c r="H2" s="212"/>
       <c r="I2" s="212"/>
     </row>
-    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="212"/>
       <c r="B3" s="212"/>
       <c r="C3" s="215"/>
@@ -5307,7 +5307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="12" t="s">
         <v>109</v>
       </c>
@@ -5318,7 +5318,7 @@
         <v>159</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>92</v>
@@ -5349,7 +5349,7 @@
       </c>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="12"/>
       <c r="B5" s="9"/>
       <c r="C5" s="18"/>
@@ -5364,7 +5364,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="22"/>
     </row>
-    <row r="6" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="12"/>
       <c r="B6" s="9"/>
       <c r="C6" s="23"/>
@@ -5379,7 +5379,7 @@
       <c r="L6" s="1"/>
       <c r="M6" s="24"/>
     </row>
-    <row r="7" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="25"/>
       <c r="B7" s="9"/>
       <c r="C7" s="23"/>
@@ -5394,7 +5394,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="24"/>
     </row>
-    <row r="8" spans="1:13" s="31" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" s="31" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="26"/>
       <c r="B8" s="27"/>
       <c r="C8" s="28"/>
@@ -5439,26 +5439,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
-    </sheetView>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="6.125" style="33" customWidth="1"/>
+    <col min="1" max="1" width="6.08203125" style="33" customWidth="1"/>
     <col min="2" max="2" width="11" style="33" customWidth="1"/>
     <col min="3" max="3" width="9" style="33"/>
     <col min="4" max="4" width="11.5" style="33" customWidth="1"/>
     <col min="5" max="16384" width="9" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="H1" s="216" t="s">
         <v>112</v>
       </c>
       <c r="I1" s="216"/>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="225" t="s">
         <v>91</v>
       </c>
@@ -5468,12 +5466,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G3" s="34" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="F4" s="34"/>
       <c r="G4" s="216" t="s">
         <v>88</v>
@@ -5481,14 +5479,14 @@
       <c r="H4" s="216"/>
       <c r="I4" s="216"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="G5" s="216" t="s">
         <v>71</v>
       </c>
       <c r="H5" s="216"/>
       <c r="I5" s="216"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="G6" s="35" t="s">
         <v>19</v>
       </c>
@@ -5497,15 +5495,15 @@
       </c>
       <c r="I6" s="226"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="G7" s="216" t="s">
         <v>110</v>
       </c>
       <c r="H7" s="216"/>
       <c r="I7" s="216"/>
     </row>
-    <row r="8" spans="2:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" s="221" t="s">
         <v>99</v>
       </c>
@@ -5517,8 +5515,8 @@
       <c r="G9" s="223"/>
       <c r="H9" s="223"/>
     </row>
-    <row r="10" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" s="36" t="s">
         <v>23</v>
       </c>
@@ -5528,7 +5526,7 @@
       <c r="G11" s="36"/>
       <c r="H11" s="36"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" s="36" t="s">
         <v>21</v>
       </c>
@@ -5538,7 +5536,7 @@
       <c r="G12" s="36"/>
       <c r="H12" s="36"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" s="36" t="s">
         <v>22</v>
       </c>
@@ -5548,7 +5546,7 @@
       <c r="G13" s="36"/>
       <c r="H13" s="36"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="C14" s="36"/>
       <c r="D14" s="36"/>
       <c r="E14" s="36"/>
@@ -5558,13 +5556,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="37" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="224" t="s">
         <v>111</v>
       </c>
@@ -5576,22 +5574,22 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="37" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="39"/>
     </row>
-    <row r="21" spans="2:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="37" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="219" t="s">
         <v>79</v>
       </c>
@@ -5605,7 +5603,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="216" t="s">
         <v>29</v>
       </c>
@@ -5620,7 +5618,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="216" t="s">
         <v>30</v>
       </c>
@@ -5634,7 +5632,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="216" t="s">
         <v>31</v>
       </c>
@@ -5648,10 +5646,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G27" s="40"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="216" t="s">
         <v>34</v>
       </c>
@@ -5666,13 +5664,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="216" t="s">
         <v>93</v>
       </c>
@@ -5682,7 +5680,7 @@
       </c>
       <c r="E31" s="216"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="216" t="s">
         <v>95</v>
       </c>
@@ -5692,7 +5690,7 @@
       </c>
       <c r="E32" s="216"/>
     </row>
-    <row r="33" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="218" t="s">
         <v>92</v>
       </c>
@@ -5702,13 +5700,13 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="35" t="s">
         <v>37</v>
       </c>
@@ -5716,7 +5714,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="35" t="s">
         <v>37</v>
       </c>
@@ -5724,7 +5722,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="35" t="s">
         <v>37</v>
       </c>
@@ -5732,7 +5730,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="35" t="s">
         <v>37</v>
       </c>
@@ -5740,7 +5738,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="35" t="s">
         <v>37</v>
       </c>
@@ -5748,7 +5746,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="35" t="s">
         <v>37</v>
       </c>
@@ -5756,7 +5754,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="35" t="s">
         <v>37</v>
       </c>
@@ -5764,7 +5762,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="35" t="s">
         <v>37</v>
       </c>
@@ -5821,27 +5819,25 @@
   </sheetPr>
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:F4"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="2.25" style="43" customWidth="1"/>
-    <col min="2" max="2" width="4.625" style="43" customWidth="1"/>
-    <col min="3" max="3" width="6.625" style="43" customWidth="1"/>
-    <col min="4" max="4" width="7.125" style="43" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="43" customWidth="1"/>
+    <col min="2" max="2" width="4.58203125" style="43" customWidth="1"/>
+    <col min="3" max="3" width="6.58203125" style="43" customWidth="1"/>
+    <col min="4" max="4" width="7.08203125" style="43" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" style="43" customWidth="1"/>
     <col min="6" max="6" width="5" style="43" customWidth="1"/>
     <col min="7" max="7" width="11.75" style="43" customWidth="1"/>
-    <col min="8" max="8" width="9.125" style="43" customWidth="1"/>
+    <col min="8" max="8" width="9.08203125" style="43" customWidth="1"/>
     <col min="9" max="9" width="7" style="43" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.875" style="43" customWidth="1"/>
-    <col min="11" max="11" width="2.625" style="43" customWidth="1"/>
-    <col min="12" max="16384" width="8.625" style="43"/>
+    <col min="10" max="10" width="6.83203125" style="43" customWidth="1"/>
+    <col min="11" max="11" width="2.58203125" style="43" customWidth="1"/>
+    <col min="12" max="16384" width="8.58203125" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="41"/>
       <c r="B1" s="231" t="s">
         <v>43</v>
@@ -5856,8 +5852,8 @@
       <c r="J1" s="42"/>
       <c r="K1" s="42"/>
     </row>
-    <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="3" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="232" t="s">
         <v>45</v>
       </c>
@@ -5877,7 +5873,7 @@
       <c r="J3" s="239"/>
       <c r="K3" s="45"/>
     </row>
-    <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="240" t="s">
         <v>46</v>
       </c>
@@ -5897,7 +5893,7 @@
       <c r="J4" s="247"/>
       <c r="K4" s="47"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="48"/>
       <c r="C5" s="48"/>
       <c r="D5" s="48"/>
@@ -5907,7 +5903,7 @@
       <c r="H5" s="48"/>
       <c r="I5" s="48"/>
     </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="266" t="s">
         <v>48</v>
       </c>
@@ -5927,7 +5923,7 @@
       <c r="J6" s="272"/>
       <c r="K6" s="49"/>
     </row>
-    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="267"/>
       <c r="C7" s="50" t="s">
         <v>52</v>
@@ -5950,7 +5946,7 @@
       <c r="J7" s="228"/>
       <c r="K7" s="52"/>
     </row>
-    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="267"/>
       <c r="C8" s="50" t="s">
         <v>54</v>
@@ -5973,7 +5969,7 @@
       <c r="J8" s="228"/>
       <c r="K8" s="52"/>
     </row>
-    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="268"/>
       <c r="C9" s="46" t="s">
         <v>51</v>
@@ -5998,7 +5994,7 @@
       <c r="J9" s="251"/>
       <c r="K9" s="52"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="48"/>
       <c r="C10" s="48"/>
       <c r="D10" s="48"/>
@@ -6008,7 +6004,7 @@
       <c r="H10" s="48"/>
       <c r="I10" s="48"/>
     </row>
-    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="252" t="s">
         <v>57</v>
       </c>
@@ -6031,7 +6027,7 @@
       <c r="J11" s="260"/>
       <c r="K11" s="56"/>
     </row>
-    <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="254"/>
       <c r="C12" s="255"/>
       <c r="D12" s="57" t="s">
@@ -6052,8 +6048,8 @@
       <c r="J12" s="265"/>
       <c r="K12" s="56"/>
     </row>
-    <row r="13" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="10" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="14" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="278" t="s">
         <v>60</v>
       </c>
@@ -6079,7 +6075,7 @@
       <c r="J14" s="282"/>
       <c r="K14" s="63"/>
     </row>
-    <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="279"/>
       <c r="C15" s="64" t="s">
         <v>62</v>
@@ -6105,7 +6101,7 @@
       <c r="J15" s="284"/>
       <c r="K15" s="63"/>
     </row>
-    <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="279"/>
       <c r="C16" s="69"/>
       <c r="D16" s="70" t="s">
@@ -6124,7 +6120,7 @@
       <c r="J16" s="286"/>
       <c r="K16" s="63"/>
     </row>
-    <row r="17" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="280"/>
       <c r="C17" s="74" t="s">
         <v>65</v>
@@ -6149,11 +6145,11 @@
       <c r="J17" s="288"/>
       <c r="K17" s="63"/>
     </row>
-    <row r="18" spans="2:11" ht="8.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:11" ht="8.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="H18" s="80"/>
       <c r="I18" s="80"/>
     </row>
-    <row r="19" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="289" t="s">
         <v>67</v>
       </c>
@@ -6171,13 +6167,13 @@
       <c r="J19" s="293"/>
       <c r="K19" s="63"/>
     </row>
-    <row r="20" spans="2:11" ht="8.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:11" ht="8.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="83"/>
       <c r="C20" s="83"/>
       <c r="H20" s="84"/>
       <c r="I20" s="84"/>
     </row>
-    <row r="21" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="273" t="s">
         <v>69</v>
       </c>
@@ -6196,7 +6192,7 @@
       <c r="J21" s="277"/>
       <c r="K21" s="85"/>
     </row>
-    <row r="22" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="83"/>
       <c r="C22" s="83"/>
       <c r="D22" s="86"/>
@@ -6253,27 +6249,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="43" customWidth="1"/>
-    <col min="2" max="3" width="6.625" style="43" customWidth="1"/>
+    <col min="1" max="1" width="2.58203125" style="43" customWidth="1"/>
+    <col min="2" max="3" width="6.58203125" style="43" customWidth="1"/>
     <col min="4" max="4" width="13.75" style="43" customWidth="1"/>
     <col min="5" max="5" width="3.5" style="43" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.625" style="43" customWidth="1"/>
-    <col min="7" max="8" width="6.625" style="43" customWidth="1"/>
+    <col min="6" max="6" width="10.58203125" style="43" customWidth="1"/>
+    <col min="7" max="8" width="6.58203125" style="43" customWidth="1"/>
     <col min="9" max="9" width="7" style="43" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.625" style="43" customWidth="1"/>
-    <col min="11" max="16384" width="8.625" style="43"/>
+    <col min="10" max="10" width="2.58203125" style="43" customWidth="1"/>
+    <col min="11" max="16384" width="8.58203125" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="87"/>
     </row>
-    <row r="2" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="41"/>
       <c r="B2" s="306" t="s">
         <v>7</v>
@@ -6287,8 +6281,8 @@
       <c r="I2" s="306"/>
       <c r="J2" s="42"/>
     </row>
-    <row r="3" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="4" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="88"/>
       <c r="C4" s="88"/>
       <c r="D4" s="88"/>
@@ -6298,7 +6292,7 @@
       <c r="H4" s="88"/>
       <c r="I4" s="102"/>
     </row>
-    <row r="5" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="307" t="s">
         <v>16</v>
       </c>
@@ -6310,8 +6304,8 @@
       </c>
       <c r="I5" s="103"/>
     </row>
-    <row r="6" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D7" s="308" t="e">
         <f>G13+G14</f>
         <v>#VALUE!</v>
@@ -6323,7 +6317,7 @@
       <c r="I7" s="49"/>
       <c r="J7" s="90"/>
     </row>
-    <row r="8" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E8" s="91"/>
       <c r="F8" s="92"/>
       <c r="G8" s="93"/>
@@ -6331,7 +6325,7 @@
       <c r="I8" s="90"/>
       <c r="J8" s="90"/>
     </row>
-    <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E9" s="91"/>
       <c r="F9" s="92"/>
       <c r="G9" s="93"/>
@@ -6339,13 +6333,13 @@
       <c r="I9" s="90"/>
       <c r="J9" s="90"/>
     </row>
-    <row r="10" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="311" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="312"/>
       <c r="D10" s="313" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E10" s="314"/>
       <c r="F10" s="314"/>
@@ -6354,10 +6348,10 @@
       <c r="I10" s="315"/>
       <c r="J10" s="90"/>
     </row>
-    <row r="11" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J11" s="94"/>
     </row>
-    <row r="12" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="294" t="s">
         <v>10</v>
       </c>
@@ -6372,7 +6366,7 @@
       <c r="I12" s="296"/>
       <c r="J12" s="94"/>
     </row>
-    <row r="13" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="297" t="s">
         <v>123</v>
       </c>
@@ -6388,7 +6382,7 @@
       <c r="I13" s="302"/>
       <c r="J13" s="94"/>
     </row>
-    <row r="14" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="303" t="s">
         <v>124</v>
       </c>
@@ -6404,7 +6398,7 @@
       <c r="I14" s="302"/>
       <c r="J14" s="94"/>
     </row>
-    <row r="15" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="324" t="s">
         <v>12</v>
       </c>
@@ -6419,7 +6413,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="95"/>
       <c r="C16" s="95"/>
       <c r="D16" s="95"/>
@@ -6432,7 +6426,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="323" t="s">
         <v>114</v>
       </c>
@@ -6449,7 +6443,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="105"/>
       <c r="C18" s="105"/>
       <c r="D18" s="105"/>
@@ -6462,7 +6456,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C19" s="319" t="s">
         <v>85</v>
       </c>
@@ -6476,7 +6470,7 @@
       <c r="I19" s="255"/>
       <c r="J19" s="255"/>
     </row>
-    <row r="20" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C20" s="320"/>
       <c r="D20" s="98"/>
       <c r="E20" s="99"/>
@@ -6485,7 +6479,7 @@
       <c r="H20" s="321"/>
       <c r="I20" s="321"/>
     </row>
-    <row r="21" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" s="99" t="s">
         <v>14</v>
       </c>
@@ -6497,7 +6491,7 @@
       <c r="I21" s="322"/>
       <c r="J21" s="322"/>
     </row>
-    <row r="22" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E22" s="99"/>
       <c r="F22" s="106"/>
       <c r="G22" s="106"/>
@@ -6505,7 +6499,7 @@
       <c r="I22" s="106"/>
       <c r="J22" s="106"/>
     </row>
-    <row r="23" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E23" s="99"/>
       <c r="F23" s="107"/>
       <c r="G23" s="107"/>
@@ -6513,7 +6507,7 @@
       <c r="I23" s="107"/>
       <c r="J23" s="107"/>
     </row>
-    <row r="24" spans="2:11" ht="12" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:11" ht="12" x14ac:dyDescent="0.55000000000000004">
       <c r="F24" s="107"/>
       <c r="G24" s="107"/>
       <c r="H24" s="107"/>
@@ -6561,32 +6555,32 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="1.75" style="109" customWidth="1"/>
     <col min="2" max="2" width="17" style="109" customWidth="1"/>
-    <col min="3" max="3" width="7.375" style="109" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="109" customWidth="1"/>
     <col min="4" max="4" width="15" style="109" customWidth="1"/>
     <col min="5" max="5" width="4.25" style="109" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="109" customWidth="1"/>
+    <col min="6" max="6" width="12.08203125" style="109" customWidth="1"/>
     <col min="7" max="7" width="6.25" style="109" customWidth="1"/>
     <col min="8" max="8" width="6.5" style="109" customWidth="1"/>
     <col min="9" max="9" width="7.25" style="109" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.25" style="109" customWidth="1"/>
     <col min="11" max="11" width="13.5" style="109" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.875" style="109" customWidth="1"/>
-    <col min="13" max="14" width="15.375" style="109" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.83203125" style="109" customWidth="1"/>
+    <col min="13" max="14" width="15.33203125" style="109" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="4.75" style="109" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.625" style="109"/>
+    <col min="16" max="16384" width="8.58203125" style="109"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" ht="6.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="108"/>
       <c r="M1" s="211"/>
       <c r="N1" s="211"/>
       <c r="O1" s="211"/>
     </row>
-    <row r="2" spans="1:15" ht="24" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="110"/>
       <c r="B2" s="364" t="s">
         <v>129</v>
@@ -6605,7 +6599,7 @@
       <c r="N2" s="210"/>
       <c r="O2" s="210"/>
     </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="112"/>
       <c r="C3" s="112"/>
       <c r="D3" s="112"/>
@@ -6616,7 +6610,7 @@
       <c r="I3" s="112"/>
       <c r="J3" s="112"/>
     </row>
-    <row r="4" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="114" t="s">
         <v>45</v>
       </c>
@@ -6644,7 +6638,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="119" t="s">
         <v>133</v>
       </c>
@@ -6670,7 +6664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="125" t="s">
         <v>136</v>
       </c>
@@ -6686,7 +6680,7 @@
       <c r="N6" s="128"/>
       <c r="O6" s="129"/>
     </row>
-    <row r="7" spans="1:15" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="130"/>
       <c r="C7" s="126"/>
       <c r="D7" s="116"/>
@@ -6700,7 +6694,7 @@
       <c r="N7" s="128"/>
       <c r="O7" s="129"/>
     </row>
-    <row r="8" spans="1:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="127"/>
       <c r="C8" s="126"/>
       <c r="D8" s="116"/>
@@ -6714,7 +6708,7 @@
       <c r="N8" s="128"/>
       <c r="O8" s="129"/>
     </row>
-    <row r="9" spans="1:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="127"/>
       <c r="C9" s="126"/>
       <c r="D9" s="116"/>
@@ -6728,7 +6722,7 @@
       <c r="N9" s="128"/>
       <c r="O9" s="129"/>
     </row>
-    <row r="10" spans="1:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="127"/>
       <c r="C10" s="126"/>
       <c r="D10" s="116"/>
@@ -6742,7 +6736,7 @@
       <c r="N10" s="128"/>
       <c r="O10" s="129"/>
     </row>
-    <row r="11" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="131" t="s">
         <v>137</v>
       </c>
@@ -6762,7 +6756,7 @@
       <c r="N11" s="132"/>
       <c r="O11" s="132"/>
     </row>
-    <row r="12" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="112" t="s">
         <v>140</v>
       </c>
@@ -6780,7 +6774,7 @@
       <c r="N12" s="132"/>
       <c r="O12" s="132"/>
     </row>
-    <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="131" t="s">
         <v>141</v>
       </c>
@@ -6804,7 +6798,7 @@
       <c r="N13" s="133"/>
       <c r="O13" s="134"/>
     </row>
-    <row r="14" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="136" t="s">
         <v>143</v>
       </c>
@@ -6823,7 +6817,7 @@
       <c r="L14" s="138"/>
       <c r="M14" s="138"/>
     </row>
-    <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="131" t="s">
         <v>144</v>
       </c>
@@ -6844,7 +6838,7 @@
       <c r="K15" s="141"/>
       <c r="L15" s="142"/>
     </row>
-    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="143" t="str">
         <f>""&amp;K13&amp;"月分賃料"</f>
         <v>6月分賃料</v>
@@ -6862,7 +6856,7 @@
       <c r="N16" s="149"/>
       <c r="O16" s="137"/>
     </row>
-    <row r="17" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="150" t="s">
         <v>145</v>
       </c>
@@ -6883,7 +6877,7 @@
       <c r="N17" s="138"/>
       <c r="O17" s="138"/>
     </row>
-    <row r="18" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="154" t="s">
         <v>146</v>
       </c>
@@ -6904,7 +6898,7 @@
       <c r="N18" s="160"/>
       <c r="O18" s="160"/>
     </row>
-    <row r="19" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="161" t="s">
         <v>147</v>
       </c>
@@ -6928,7 +6922,7 @@
       <c r="N19" s="160"/>
       <c r="O19" s="160"/>
     </row>
-    <row r="20" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="125"/>
       <c r="C20" s="167"/>
       <c r="D20" s="168"/>
@@ -6943,7 +6937,7 @@
       <c r="N20" s="173"/>
       <c r="O20" s="173"/>
     </row>
-    <row r="21" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="357" t="s">
         <v>149</v>
       </c>
@@ -6960,7 +6954,7 @@
       <c r="N21" s="173"/>
       <c r="O21" s="173"/>
     </row>
-    <row r="22" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="154" t="s">
         <v>150</v>
       </c>
@@ -6982,7 +6976,7 @@
       <c r="N22" s="173"/>
       <c r="O22" s="173"/>
     </row>
-    <row r="23" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="179"/>
       <c r="C23" s="180"/>
       <c r="D23" s="181"/>
@@ -6998,7 +6992,7 @@
       <c r="N23" s="173"/>
       <c r="O23" s="173"/>
     </row>
-    <row r="24" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="187"/>
       <c r="C24" s="167"/>
       <c r="D24" s="168"/>
@@ -7014,7 +7008,7 @@
       <c r="N24" s="173"/>
       <c r="O24" s="173"/>
     </row>
-    <row r="25" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="127"/>
       <c r="C25" s="112"/>
       <c r="D25" s="112"/>
@@ -7030,7 +7024,7 @@
       <c r="N25" s="173"/>
       <c r="O25" s="173"/>
     </row>
-    <row r="26" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="329" t="s">
         <v>7</v>
       </c>
@@ -7046,7 +7040,7 @@
       <c r="N26" s="173"/>
       <c r="O26" s="173"/>
     </row>
-    <row r="27" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="175"/>
       <c r="B27" s="330"/>
       <c r="C27" s="330"/>
@@ -7061,7 +7055,7 @@
       <c r="N27" s="173"/>
       <c r="O27" s="173"/>
     </row>
-    <row r="28" spans="1:15" s="175" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" s="175" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="175" t="s">
         <v>152</v>
       </c>
@@ -7079,7 +7073,7 @@
       <c r="L28" s="109"/>
       <c r="M28" s="109"/>
     </row>
-    <row r="29" spans="1:15" s="175" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:15" s="175" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="112"/>
       <c r="C29" s="112"/>
       <c r="D29" s="112"/>
@@ -7093,7 +7087,7 @@
       <c r="L29" s="109"/>
       <c r="M29" s="109"/>
     </row>
-    <row r="30" spans="1:15" s="175" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15" s="175" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="112"/>
       <c r="C30" s="112"/>
       <c r="D30" s="334">
@@ -7110,7 +7104,7 @@
       <c r="L30" s="198"/>
       <c r="M30" s="109"/>
     </row>
-    <row r="31" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="175"/>
       <c r="B31" s="112"/>
       <c r="C31" s="112"/>
@@ -7124,7 +7118,7 @@
       <c r="K31" s="197"/>
       <c r="L31" s="198"/>
     </row>
-    <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="175"/>
       <c r="B32" s="200"/>
       <c r="C32" s="201"/>
@@ -7139,7 +7133,7 @@
       <c r="L32" s="195"/>
       <c r="M32" s="195"/>
     </row>
-    <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="175"/>
       <c r="B33" s="200" t="str">
         <f>"但し、上記所在物件の6月分日割り賃料及び承継保証金として"</f>
@@ -7157,7 +7151,7 @@
       <c r="L33" s="195"/>
       <c r="M33" s="195"/>
     </row>
-    <row r="34" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="112"/>
       <c r="C34" s="112"/>
       <c r="D34" s="112"/>
@@ -7170,7 +7164,7 @@
       <c r="L34" s="197"/>
       <c r="M34" s="197"/>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="112"/>
       <c r="C35" s="112"/>
       <c r="D35" s="112"/>
@@ -7184,7 +7178,7 @@
       <c r="J35" s="203"/>
       <c r="M35" s="204"/>
     </row>
-    <row r="36" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="112"/>
       <c r="C36" s="112"/>
       <c r="D36" s="112"/>
@@ -7195,7 +7189,7 @@
       <c r="I36" s="208"/>
       <c r="J36" s="208"/>
     </row>
-    <row r="37" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="112"/>
       <c r="C37" s="112"/>
       <c r="D37" s="112"/>
@@ -7208,7 +7202,7 @@
       <c r="L37" s="197"/>
       <c r="M37" s="197"/>
     </row>
-    <row r="38" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="202"/>
       <c r="C38" s="112"/>
       <c r="D38" s="112"/>
@@ -7226,7 +7220,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="202"/>
       <c r="C39" s="112"/>
       <c r="D39" s="112"/>
@@ -7240,7 +7234,7 @@
       <c r="J39" s="203"/>
       <c r="M39" s="204"/>
     </row>
-    <row r="40" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="206"/>
       <c r="C40" s="112"/>
       <c r="D40" s="112"/>
@@ -7253,10 +7247,10 @@
       <c r="I40" s="208"/>
       <c r="J40" s="208"/>
     </row>
-    <row r="41" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="O41" s="113"/>
     </row>
-    <row r="42" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="328" t="s">
         <v>15</v>
       </c>

--- a/template/買取決済.xlsx
+++ b/template/買取決済.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\work\00_Wavesync\24_不動産管理システム\00_source\backend\kbs_backend\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\work\00_Wavesync\24_不動産管理システム\03_帳票\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03814C22-FA5E-4EE1-9D25-4347C353A3E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64299D38-D43D-47AF-A471-99BAE7EECD94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
     <definedName name="分析" localSheetId="0">{"Client Name or Project Name"}</definedName>
     <definedName name="分析">{"Client Name or Project Name"}</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1344,19 +1344,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>住所　東京都港区虎ノ門1-4-5文芸ビル4Ｆ</t>
-    <rPh sb="3" eb="9">
-      <t>トウキョウトミナトクトラ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>モン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ブンゲイ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>　</t>
     <phoneticPr fontId="11"/>
   </si>
@@ -1394,6 +1381,19 @@
   <si>
     <t>$addressAndBlockOrBuildingNumber$</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>住所　東京都中央区銀座4-10-10</t>
+    <rPh sb="3" eb="6">
+      <t>トウキョウト</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>チュウオウク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ギンザ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
   </si>
 </sst>
 </file>
@@ -3081,6 +3081,24 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3093,31 +3111,151 @@
     <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="44" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="15" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="15" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="15" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="15" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="6" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="6" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="6" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="6" fillId="0" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="188" fontId="15" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="188" fontId="15" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="188" fontId="15" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="15" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="188" fontId="15" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3170,178 +3308,37 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="188" fontId="15" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="15" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="15" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="15" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="15" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="15" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="17" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="17" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="6" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="6" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="6" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="6" fillId="0" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="44" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="14" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="14" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="14" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3377,130 +3374,40 @@
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="15" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="15" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="17" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="17" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="14" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="14" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="14" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="58" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="38" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="38" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="40" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="14" fillId="0" borderId="53" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="54" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="51" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="27" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="14" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="32" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="32" fillId="0" borderId="53" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="54" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="194" fontId="32" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="32" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3528,6 +3435,99 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="194" fontId="14" fillId="0" borderId="53" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="54" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="51" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="27" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="14" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="32" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="32" fillId="0" borderId="53" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="54" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="194" fontId="32" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="32" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="38" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="38" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="40" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -5315,10 +5315,10 @@
         <v>90</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>92</v>
@@ -5457,11 +5457,11 @@
       <c r="I1" s="216"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="225" t="s">
+      <c r="B2" s="221" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="225"/>
-      <c r="D2" s="225"/>
+      <c r="C2" s="221"/>
+      <c r="D2" s="221"/>
       <c r="E2" s="33" t="s">
         <v>84</v>
       </c>
@@ -5490,10 +5490,10 @@
       <c r="G6" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="226" t="s">
+      <c r="H6" s="222" t="s">
         <v>72</v>
       </c>
-      <c r="I6" s="226"/>
+      <c r="I6" s="222"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="G7" s="216" t="s">
@@ -5504,16 +5504,16 @@
     </row>
     <row r="8" spans="2:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="9" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="221" t="s">
+      <c r="C9" s="217" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="222"/>
-      <c r="E9" s="222"/>
-      <c r="F9" s="223" t="s">
+      <c r="D9" s="218"/>
+      <c r="E9" s="218"/>
+      <c r="F9" s="219" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="223"/>
-      <c r="H9" s="223"/>
+      <c r="G9" s="219"/>
+      <c r="H9" s="219"/>
     </row>
     <row r="10" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="11" spans="2:9" x14ac:dyDescent="0.55000000000000004">
@@ -5563,10 +5563,10 @@
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="224" t="s">
+      <c r="B17" s="220" t="s">
         <v>111</v>
       </c>
-      <c r="C17" s="224"/>
+      <c r="C17" s="220"/>
       <c r="D17" s="38" t="s">
         <v>97</v>
       </c>
@@ -5590,15 +5590,15 @@
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="219" t="s">
+      <c r="B23" s="225" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="219"/>
-      <c r="D23" s="220" t="s">
+      <c r="C23" s="225"/>
+      <c r="D23" s="226" t="s">
         <v>98</v>
       </c>
-      <c r="E23" s="220"/>
-      <c r="F23" s="220"/>
+      <c r="E23" s="226"/>
+      <c r="F23" s="226"/>
       <c r="G23" s="40" t="s">
         <v>32</v>
       </c>
@@ -5608,12 +5608,12 @@
         <v>29</v>
       </c>
       <c r="C24" s="216"/>
-      <c r="D24" s="220" t="e">
+      <c r="D24" s="226" t="e">
         <f>固都税精算!I21</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E24" s="220"/>
-      <c r="F24" s="220"/>
+      <c r="E24" s="226"/>
+      <c r="F24" s="226"/>
       <c r="G24" s="40" t="s">
         <v>33</v>
       </c>
@@ -5623,11 +5623,11 @@
         <v>30</v>
       </c>
       <c r="C25" s="216"/>
-      <c r="D25" s="220" t="s">
+      <c r="D25" s="226" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="220"/>
-      <c r="F25" s="220"/>
+      <c r="E25" s="226"/>
+      <c r="F25" s="226"/>
       <c r="G25" s="40" t="s">
         <v>33</v>
       </c>
@@ -5637,11 +5637,11 @@
         <v>31</v>
       </c>
       <c r="C26" s="216"/>
-      <c r="D26" s="220" t="s">
+      <c r="D26" s="226" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="220"/>
-      <c r="F26" s="220"/>
+      <c r="E26" s="226"/>
+      <c r="F26" s="226"/>
       <c r="G26" s="40" t="s">
         <v>33</v>
       </c>
@@ -5654,12 +5654,12 @@
         <v>34</v>
       </c>
       <c r="C28" s="216"/>
-      <c r="D28" s="217" t="e">
+      <c r="D28" s="223" t="e">
         <f>D23+D24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E28" s="217"/>
-      <c r="F28" s="217"/>
+      <c r="E28" s="223"/>
+      <c r="F28" s="223"/>
       <c r="G28" s="40" t="s">
         <v>32</v>
       </c>
@@ -5691,7 +5691,7 @@
       <c r="E32" s="216"/>
     </row>
     <row r="33" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="218" t="s">
+      <c r="B33" s="224" t="s">
         <v>92</v>
       </c>
       <c r="C33" s="216"/>
@@ -5772,15 +5772,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="H6:I6"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="D32:E32"/>
@@ -5796,6 +5787,15 @@
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="H6:I6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
@@ -5839,58 +5839,58 @@
   <sheetData>
     <row r="1" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="41"/>
-      <c r="B1" s="231" t="s">
+      <c r="B1" s="277" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="231"/>
-      <c r="D1" s="231"/>
-      <c r="E1" s="231"/>
-      <c r="F1" s="231"/>
-      <c r="G1" s="231"/>
-      <c r="H1" s="231"/>
-      <c r="I1" s="231"/>
+      <c r="C1" s="277"/>
+      <c r="D1" s="277"/>
+      <c r="E1" s="277"/>
+      <c r="F1" s="277"/>
+      <c r="G1" s="277"/>
+      <c r="H1" s="277"/>
+      <c r="I1" s="277"/>
       <c r="J1" s="42"/>
       <c r="K1" s="42"/>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="3" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="232" t="s">
+      <c r="B3" s="278" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="233"/>
-      <c r="D3" s="234" t="s">
+      <c r="C3" s="279"/>
+      <c r="D3" s="280" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="235"/>
-      <c r="F3" s="236"/>
+      <c r="E3" s="281"/>
+      <c r="F3" s="282"/>
       <c r="G3" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="237" t="s">
+      <c r="H3" s="283" t="s">
         <v>114</v>
       </c>
-      <c r="I3" s="238"/>
-      <c r="J3" s="239"/>
+      <c r="I3" s="284"/>
+      <c r="J3" s="285"/>
       <c r="K3" s="45"/>
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="240" t="s">
+      <c r="B4" s="286" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="241"/>
-      <c r="D4" s="242" t="s">
+      <c r="C4" s="287"/>
+      <c r="D4" s="288" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="243"/>
-      <c r="F4" s="244"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="290"/>
       <c r="G4" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="245" t="s">
+      <c r="H4" s="291" t="s">
         <v>100</v>
       </c>
-      <c r="I4" s="246"/>
-      <c r="J4" s="247"/>
+      <c r="I4" s="292"/>
+      <c r="J4" s="293"/>
       <c r="K4" s="47"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5928,22 +5928,22 @@
       <c r="C7" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="227" t="s">
+      <c r="D7" s="273" t="s">
         <v>115</v>
       </c>
-      <c r="E7" s="229"/>
-      <c r="F7" s="227" t="s">
+      <c r="E7" s="274"/>
+      <c r="F7" s="273" t="s">
         <v>116</v>
       </c>
-      <c r="G7" s="229"/>
+      <c r="G7" s="274"/>
       <c r="H7" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="227" t="e">
+      <c r="I7" s="273" t="e">
         <f>D7+F7</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J7" s="228"/>
+      <c r="J7" s="275"/>
       <c r="K7" s="52"/>
     </row>
     <row r="8" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5951,22 +5951,22 @@
       <c r="C8" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="227" t="s">
+      <c r="D8" s="273" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="229"/>
-      <c r="F8" s="227" t="s">
+      <c r="E8" s="274"/>
+      <c r="F8" s="273" t="s">
         <v>122</v>
       </c>
-      <c r="G8" s="230"/>
+      <c r="G8" s="276"/>
       <c r="H8" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="227" t="e">
+      <c r="I8" s="273" t="e">
         <f>D8+F8</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J8" s="228"/>
+      <c r="J8" s="275"/>
       <c r="K8" s="52"/>
     </row>
     <row r="9" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -6050,7 +6050,7 @@
     </row>
     <row r="13" spans="1:11" ht="10" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="14" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="278" t="s">
+      <c r="B14" s="232" t="s">
         <v>60</v>
       </c>
       <c r="C14" s="58"/>
@@ -6068,15 +6068,15 @@
         <f>I$11+I$12</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H14" s="281" t="s">
+      <c r="H14" s="235" t="s">
         <v>101</v>
       </c>
-      <c r="I14" s="281"/>
-      <c r="J14" s="282"/>
+      <c r="I14" s="235"/>
+      <c r="J14" s="236"/>
       <c r="K14" s="63"/>
     </row>
     <row r="15" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="279"/>
+      <c r="B15" s="233"/>
       <c r="C15" s="64" t="s">
         <v>62</v>
       </c>
@@ -6094,15 +6094,15 @@
         <f>I$11+I$12</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H15" s="283" t="s">
+      <c r="H15" s="237" t="s">
         <v>102</v>
       </c>
-      <c r="I15" s="283"/>
-      <c r="J15" s="284"/>
+      <c r="I15" s="237"/>
+      <c r="J15" s="238"/>
       <c r="K15" s="63"/>
     </row>
     <row r="16" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="279"/>
+      <c r="B16" s="233"/>
       <c r="C16" s="69"/>
       <c r="D16" s="70" t="s">
         <v>51</v>
@@ -6113,15 +6113,15 @@
       <c r="H16" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="I16" s="285" t="e">
+      <c r="I16" s="239" t="e">
         <f>H14+H15</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J16" s="286"/>
+      <c r="J16" s="240"/>
       <c r="K16" s="63"/>
     </row>
     <row r="17" spans="2:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="280"/>
+      <c r="B17" s="234"/>
       <c r="C17" s="74" t="s">
         <v>65</v>
       </c>
@@ -6138,11 +6138,11 @@
         <v>（Ｄ）</v>
       </c>
       <c r="H17" s="79"/>
-      <c r="I17" s="287" t="e">
+      <c r="I17" s="241" t="e">
         <f>I9-I16</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J17" s="288"/>
+      <c r="J17" s="242"/>
       <c r="K17" s="63"/>
     </row>
     <row r="18" spans="2:11" ht="8.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -6150,21 +6150,21 @@
       <c r="I18" s="80"/>
     </row>
     <row r="19" spans="2:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="289" t="s">
+      <c r="B19" s="243" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="290"/>
-      <c r="D19" s="291"/>
+      <c r="C19" s="244"/>
+      <c r="D19" s="245"/>
       <c r="E19" s="81"/>
       <c r="F19" s="81"/>
       <c r="G19" s="81"/>
       <c r="H19" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="I19" s="292" t="s">
+      <c r="I19" s="246" t="s">
         <v>103</v>
       </c>
-      <c r="J19" s="293"/>
+      <c r="J19" s="247"/>
       <c r="K19" s="63"/>
     </row>
     <row r="20" spans="2:11" ht="8.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -6174,22 +6174,22 @@
       <c r="I20" s="84"/>
     </row>
     <row r="21" spans="2:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="273" t="s">
+      <c r="B21" s="227" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="274"/>
-      <c r="D21" s="275"/>
+      <c r="C21" s="228"/>
+      <c r="D21" s="229"/>
       <c r="E21" s="81"/>
       <c r="F21" s="81"/>
       <c r="G21" s="81"/>
       <c r="H21" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="I21" s="276" t="e">
+      <c r="I21" s="230" t="e">
         <f>I16+I19</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J21" s="277"/>
+      <c r="J21" s="231"/>
       <c r="K21" s="85"/>
     </row>
     <row r="22" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -6200,15 +6200,17 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="H4:J4"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="I9:J9"/>
@@ -6225,17 +6227,15 @@
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="I19:J19"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -6269,16 +6269,16 @@
     </row>
     <row r="2" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="41"/>
-      <c r="B2" s="306" t="s">
+      <c r="B2" s="305" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="306"/>
-      <c r="D2" s="306"/>
-      <c r="E2" s="306"/>
-      <c r="F2" s="306"/>
-      <c r="G2" s="306"/>
-      <c r="H2" s="306"/>
-      <c r="I2" s="306"/>
+      <c r="C2" s="305"/>
+      <c r="D2" s="305"/>
+      <c r="E2" s="305"/>
+      <c r="F2" s="305"/>
+      <c r="G2" s="305"/>
+      <c r="H2" s="305"/>
+      <c r="I2" s="305"/>
       <c r="J2" s="42"/>
     </row>
     <row r="3" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -6293,12 +6293,12 @@
       <c r="I4" s="102"/>
     </row>
     <row r="5" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="307" t="s">
+      <c r="B5" s="306" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="307"/>
-      <c r="D5" s="307"/>
-      <c r="E5" s="307"/>
+      <c r="C5" s="306"/>
+      <c r="D5" s="306"/>
+      <c r="E5" s="306"/>
       <c r="F5" s="89" t="s">
         <v>8</v>
       </c>
@@ -6306,14 +6306,14 @@
     </row>
     <row r="6" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" s="308" t="e">
+      <c r="D7" s="307" t="e">
         <f>G13+G14</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E7" s="309"/>
-      <c r="F7" s="309"/>
-      <c r="G7" s="309"/>
-      <c r="H7" s="310"/>
+      <c r="E7" s="308"/>
+      <c r="F7" s="308"/>
+      <c r="G7" s="308"/>
+      <c r="H7" s="309"/>
       <c r="I7" s="49"/>
       <c r="J7" s="90"/>
     </row>
@@ -6334,81 +6334,81 @@
       <c r="J9" s="90"/>
     </row>
     <row r="10" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="311" t="s">
+      <c r="B10" s="310" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="312"/>
-      <c r="D10" s="313" t="s">
-        <v>160</v>
-      </c>
-      <c r="E10" s="314"/>
-      <c r="F10" s="314"/>
-      <c r="G10" s="314"/>
-      <c r="H10" s="314"/>
-      <c r="I10" s="315"/>
+      <c r="C10" s="311"/>
+      <c r="D10" s="312" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10" s="313"/>
+      <c r="F10" s="313"/>
+      <c r="G10" s="313"/>
+      <c r="H10" s="313"/>
+      <c r="I10" s="314"/>
       <c r="J10" s="90"/>
     </row>
     <row r="11" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J11" s="94"/>
     </row>
     <row r="12" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="294" t="s">
+      <c r="B12" s="315" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="295"/>
-      <c r="D12" s="295"/>
-      <c r="E12" s="295"/>
-      <c r="F12" s="295"/>
-      <c r="G12" s="295" t="s">
+      <c r="C12" s="316"/>
+      <c r="D12" s="316"/>
+      <c r="E12" s="316"/>
+      <c r="F12" s="316"/>
+      <c r="G12" s="316" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="295"/>
-      <c r="I12" s="296"/>
+      <c r="H12" s="316"/>
+      <c r="I12" s="317"/>
       <c r="J12" s="94"/>
     </row>
     <row r="13" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="297" t="s">
+      <c r="B13" s="318" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="298"/>
-      <c r="D13" s="298"/>
-      <c r="E13" s="298"/>
-      <c r="F13" s="299"/>
-      <c r="G13" s="300" t="str">
+      <c r="C13" s="319"/>
+      <c r="D13" s="319"/>
+      <c r="E13" s="319"/>
+      <c r="F13" s="320"/>
+      <c r="G13" s="321" t="str">
         <f>決済案内!D23</f>
         <v>$tradingPrice$</v>
       </c>
-      <c r="H13" s="301"/>
-      <c r="I13" s="302"/>
+      <c r="H13" s="322"/>
+      <c r="I13" s="323"/>
       <c r="J13" s="94"/>
     </row>
     <row r="14" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="303" t="s">
+      <c r="B14" s="324" t="s">
         <v>124</v>
       </c>
-      <c r="C14" s="304"/>
-      <c r="D14" s="304"/>
-      <c r="E14" s="304"/>
-      <c r="F14" s="305"/>
-      <c r="G14" s="300" t="e">
+      <c r="C14" s="325"/>
+      <c r="D14" s="325"/>
+      <c r="E14" s="325"/>
+      <c r="F14" s="326"/>
+      <c r="G14" s="321" t="e">
         <f>固都税精算!I21</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H14" s="301"/>
-      <c r="I14" s="302"/>
+      <c r="H14" s="322"/>
+      <c r="I14" s="323"/>
       <c r="J14" s="94"/>
     </row>
     <row r="15" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="324" t="s">
+      <c r="B15" s="302" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="325"/>
-      <c r="D15" s="325"/>
-      <c r="E15" s="325"/>
-      <c r="F15" s="326"/>
-      <c r="G15" s="316"/>
-      <c r="H15" s="317"/>
-      <c r="I15" s="318"/>
+      <c r="C15" s="303"/>
+      <c r="D15" s="303"/>
+      <c r="E15" s="303"/>
+      <c r="F15" s="304"/>
+      <c r="G15" s="294"/>
+      <c r="H15" s="295"/>
+      <c r="I15" s="296"/>
       <c r="K15" s="43" t="s">
         <v>125</v>
       </c>
@@ -6427,10 +6427,10 @@
       </c>
     </row>
     <row r="17" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="323" t="s">
+      <c r="B17" s="301" t="s">
         <v>114</v>
       </c>
-      <c r="C17" s="323"/>
+      <c r="C17" s="301"/>
       <c r="D17" s="104" t="s">
         <v>17</v>
       </c>
@@ -6457,7 +6457,7 @@
       </c>
     </row>
     <row r="19" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C19" s="319" t="s">
+      <c r="C19" s="297" t="s">
         <v>85</v>
       </c>
       <c r="D19" s="98"/>
@@ -6471,25 +6471,25 @@
       <c r="J19" s="255"/>
     </row>
     <row r="20" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C20" s="320"/>
+      <c r="C20" s="298"/>
       <c r="D20" s="98"/>
       <c r="E20" s="99"/>
-      <c r="F20" s="321"/>
-      <c r="G20" s="321"/>
-      <c r="H20" s="321"/>
-      <c r="I20" s="321"/>
+      <c r="F20" s="299"/>
+      <c r="G20" s="299"/>
+      <c r="H20" s="299"/>
+      <c r="I20" s="299"/>
     </row>
     <row r="21" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="322" t="s">
+      <c r="F21" s="300" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="322"/>
-      <c r="H21" s="322"/>
-      <c r="I21" s="322"/>
-      <c r="J21" s="322"/>
+      <c r="G21" s="300"/>
+      <c r="H21" s="300"/>
+      <c r="I21" s="300"/>
+      <c r="J21" s="300"/>
     </row>
     <row r="22" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E22" s="99"/>
@@ -6522,6 +6522,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:I10"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="F19:J19"/>
@@ -6529,17 +6540,6 @@
     <mergeCell ref="F21:J21"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="G14:I14"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -6582,16 +6582,16 @@
     </row>
     <row r="2" spans="1:15" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="110"/>
-      <c r="B2" s="364" t="s">
+      <c r="B2" s="331" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="364"/>
-      <c r="D2" s="364"/>
-      <c r="E2" s="364"/>
-      <c r="F2" s="364"/>
-      <c r="G2" s="364"/>
-      <c r="H2" s="364"/>
-      <c r="I2" s="364"/>
+      <c r="C2" s="331"/>
+      <c r="D2" s="331"/>
+      <c r="E2" s="331"/>
+      <c r="F2" s="331"/>
+      <c r="G2" s="331"/>
+      <c r="H2" s="331"/>
+      <c r="I2" s="331"/>
       <c r="J2" s="111"/>
       <c r="K2" s="111"/>
       <c r="L2" s="111"/>
@@ -6614,17 +6614,17 @@
       <c r="B4" s="114" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="365"/>
-      <c r="D4" s="366"/>
-      <c r="E4" s="367"/>
+      <c r="C4" s="332"/>
+      <c r="D4" s="333"/>
+      <c r="E4" s="334"/>
       <c r="F4" s="115" t="s">
         <v>130</v>
       </c>
-      <c r="G4" s="368">
+      <c r="G4" s="335">
         <v>43983</v>
       </c>
-      <c r="H4" s="368"/>
-      <c r="I4" s="369"/>
+      <c r="H4" s="335"/>
+      <c r="I4" s="336"/>
       <c r="J4" s="116"/>
       <c r="K4" s="117"/>
       <c r="L4" s="117"/>
@@ -6642,17 +6642,17 @@
       <c r="B5" s="119" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="360"/>
-      <c r="D5" s="361"/>
-      <c r="E5" s="361"/>
+      <c r="C5" s="327"/>
+      <c r="D5" s="328"/>
+      <c r="E5" s="328"/>
       <c r="F5" s="120" t="s">
         <v>134</v>
       </c>
-      <c r="G5" s="362" t="s">
+      <c r="G5" s="329" t="s">
         <v>135</v>
       </c>
-      <c r="H5" s="362"/>
-      <c r="I5" s="363"/>
+      <c r="H5" s="329"/>
+      <c r="I5" s="330"/>
       <c r="J5" s="116"/>
       <c r="M5" s="121">
         <v>43516</v>
@@ -6740,9 +6740,9 @@
       <c r="B11" s="131" t="s">
         <v>137</v>
       </c>
-      <c r="C11" s="337"/>
-      <c r="D11" s="337"/>
-      <c r="E11" s="337"/>
+      <c r="C11" s="339"/>
+      <c r="D11" s="339"/>
+      <c r="E11" s="339"/>
       <c r="F11" s="127" t="s">
         <v>138</v>
       </c>
@@ -6778,15 +6778,15 @@
       <c r="B13" s="131" t="s">
         <v>141</v>
       </c>
-      <c r="C13" s="338" t="s">
+      <c r="C13" s="340" t="s">
         <v>142</v>
       </c>
-      <c r="D13" s="339"/>
-      <c r="E13" s="340" t="s">
+      <c r="D13" s="341"/>
+      <c r="E13" s="342" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="341"/>
-      <c r="G13" s="342"/>
+      <c r="F13" s="343"/>
+      <c r="G13" s="344"/>
       <c r="H13" s="112"/>
       <c r="I13" s="112"/>
       <c r="J13" s="112"/>
@@ -6802,14 +6802,14 @@
       <c r="B14" s="136" t="s">
         <v>143</v>
       </c>
-      <c r="C14" s="343"/>
-      <c r="D14" s="344"/>
-      <c r="E14" s="345">
+      <c r="C14" s="345"/>
+      <c r="D14" s="346"/>
+      <c r="E14" s="347">
         <f>SUM(C14:D14)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="346"/>
-      <c r="G14" s="347"/>
+      <c r="F14" s="348"/>
+      <c r="G14" s="349"/>
       <c r="H14" s="127"/>
       <c r="I14" s="127"/>
       <c r="J14" s="127"/>
@@ -6826,12 +6826,12 @@
         <f>SUM(C14:D14)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="348">
+      <c r="E15" s="350">
         <f>SUM(C15:D15)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="349"/>
-      <c r="G15" s="350"/>
+      <c r="F15" s="351"/>
+      <c r="G15" s="352"/>
       <c r="H15" s="127"/>
       <c r="I15" s="127"/>
       <c r="J15" s="127"/>
@@ -6861,15 +6861,15 @@
         <v>145</v>
       </c>
       <c r="C17" s="151"/>
-      <c r="D17" s="351">
+      <c r="D17" s="353">
         <v>43983</v>
       </c>
-      <c r="E17" s="351"/>
-      <c r="F17" s="352">
+      <c r="E17" s="353"/>
+      <c r="F17" s="354">
         <v>43983</v>
       </c>
-      <c r="G17" s="352"/>
-      <c r="H17" s="352"/>
+      <c r="G17" s="354"/>
+      <c r="H17" s="354"/>
       <c r="I17" s="152"/>
       <c r="J17" s="153"/>
       <c r="K17" s="142"/>
@@ -6892,8 +6892,8 @@
         <v>30</v>
       </c>
       <c r="G18" s="159"/>
-      <c r="H18" s="353"/>
-      <c r="I18" s="354"/>
+      <c r="H18" s="355"/>
+      <c r="I18" s="356"/>
       <c r="L18" s="142"/>
       <c r="N18" s="160"/>
       <c r="O18" s="160"/>
@@ -6913,8 +6913,8 @@
         <v>30</v>
       </c>
       <c r="G19" s="166"/>
-      <c r="H19" s="355"/>
-      <c r="I19" s="356"/>
+      <c r="H19" s="357"/>
+      <c r="I19" s="358"/>
       <c r="J19" s="127" t="s">
         <v>148</v>
       </c>
@@ -6938,16 +6938,16 @@
       <c r="O20" s="173"/>
     </row>
     <row r="21" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="357" t="s">
+      <c r="B21" s="359" t="s">
         <v>149</v>
       </c>
-      <c r="C21" s="358"/>
-      <c r="D21" s="358"/>
-      <c r="E21" s="358"/>
-      <c r="F21" s="358"/>
-      <c r="G21" s="358"/>
-      <c r="H21" s="358"/>
-      <c r="I21" s="359"/>
+      <c r="C21" s="360"/>
+      <c r="D21" s="360"/>
+      <c r="E21" s="360"/>
+      <c r="F21" s="360"/>
+      <c r="G21" s="360"/>
+      <c r="H21" s="360"/>
+      <c r="I21" s="361"/>
       <c r="J21" s="174"/>
       <c r="K21" s="175"/>
       <c r="L21" s="142"/>
@@ -6965,11 +6965,11 @@
       <c r="E22" s="157"/>
       <c r="F22" s="177"/>
       <c r="G22" s="178"/>
-      <c r="H22" s="335">
+      <c r="H22" s="337">
         <f>C11+H19</f>
         <v>0</v>
       </c>
-      <c r="I22" s="336"/>
+      <c r="I22" s="338"/>
       <c r="J22" s="171"/>
       <c r="K22" s="175"/>
       <c r="L22" s="142"/>
@@ -7025,31 +7025,31 @@
       <c r="O25" s="173"/>
     </row>
     <row r="26" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="329" t="s">
+      <c r="B26" s="364" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="329"/>
-      <c r="D26" s="329"/>
-      <c r="E26" s="329"/>
-      <c r="F26" s="329"/>
-      <c r="G26" s="329"/>
-      <c r="H26" s="329"/>
-      <c r="I26" s="329"/>
-      <c r="J26" s="329"/>
+      <c r="C26" s="364"/>
+      <c r="D26" s="364"/>
+      <c r="E26" s="364"/>
+      <c r="F26" s="364"/>
+      <c r="G26" s="364"/>
+      <c r="H26" s="364"/>
+      <c r="I26" s="364"/>
+      <c r="J26" s="364"/>
       <c r="K26" s="175"/>
       <c r="N26" s="173"/>
       <c r="O26" s="173"/>
     </row>
     <row r="27" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="175"/>
-      <c r="B27" s="330"/>
-      <c r="C27" s="330"/>
+      <c r="B27" s="365"/>
+      <c r="C27" s="365"/>
       <c r="D27" s="189"/>
       <c r="E27" s="190"/>
       <c r="F27" s="190"/>
       <c r="G27" s="190"/>
       <c r="H27" s="191"/>
-      <c r="I27" s="331"/>
+      <c r="I27" s="366"/>
       <c r="J27" s="192"/>
       <c r="K27" s="175"/>
       <c r="N27" s="173"/>
@@ -7059,8 +7059,8 @@
       <c r="A28" s="175" t="s">
         <v>152</v>
       </c>
-      <c r="B28" s="333"/>
-      <c r="C28" s="333"/>
+      <c r="B28" s="368"/>
+      <c r="C28" s="368"/>
       <c r="D28" s="189" t="s">
         <v>153</v>
       </c>
@@ -7068,7 +7068,7 @@
       <c r="F28" s="112"/>
       <c r="G28" s="112"/>
       <c r="H28" s="112"/>
-      <c r="I28" s="332"/>
+      <c r="I28" s="367"/>
       <c r="J28" s="194"/>
       <c r="L28" s="109"/>
       <c r="M28" s="109"/>
@@ -7090,12 +7090,12 @@
     <row r="30" spans="1:15" s="175" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="112"/>
       <c r="C30" s="112"/>
-      <c r="D30" s="334">
+      <c r="D30" s="369">
         <f>H22</f>
         <v>0</v>
       </c>
-      <c r="E30" s="334"/>
-      <c r="F30" s="334"/>
+      <c r="E30" s="369"/>
+      <c r="F30" s="369"/>
       <c r="G30" s="196"/>
       <c r="H30" s="112"/>
       <c r="I30" s="112"/>
@@ -7157,9 +7157,9 @@
       <c r="D34" s="112"/>
       <c r="E34" s="112"/>
       <c r="F34" s="202"/>
-      <c r="G34" s="327"/>
-      <c r="H34" s="327"/>
-      <c r="I34" s="327"/>
+      <c r="G34" s="362"/>
+      <c r="H34" s="362"/>
+      <c r="I34" s="362"/>
       <c r="J34" s="203"/>
       <c r="L34" s="197"/>
       <c r="M34" s="197"/>
@@ -7170,11 +7170,11 @@
       <c r="D35" s="112"/>
       <c r="E35" s="112"/>
       <c r="F35" s="202"/>
-      <c r="G35" s="327">
+      <c r="G35" s="362">
         <v>43983</v>
       </c>
-      <c r="H35" s="327"/>
-      <c r="I35" s="327"/>
+      <c r="H35" s="362"/>
+      <c r="I35" s="362"/>
       <c r="J35" s="203"/>
       <c r="M35" s="204"/>
     </row>
@@ -7195,9 +7195,9 @@
       <c r="D37" s="112"/>
       <c r="E37" s="112"/>
       <c r="F37" s="112"/>
-      <c r="G37" s="327"/>
-      <c r="H37" s="327"/>
-      <c r="I37" s="327"/>
+      <c r="G37" s="362"/>
+      <c r="H37" s="362"/>
+      <c r="I37" s="362"/>
       <c r="J37" s="209"/>
       <c r="L37" s="197"/>
       <c r="M37" s="197"/>
@@ -7208,7 +7208,7 @@
       <c r="D38" s="112"/>
       <c r="E38" s="112"/>
       <c r="F38" s="202" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="G38" s="202"/>
       <c r="H38" s="203"/>
@@ -7217,7 +7217,7 @@
       <c r="L38" s="197"/>
       <c r="M38" s="197"/>
       <c r="N38" s="109" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -7226,7 +7226,7 @@
       <c r="D39" s="112"/>
       <c r="E39" s="112"/>
       <c r="F39" s="202" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G39" s="112"/>
       <c r="H39" s="202"/>
@@ -7240,7 +7240,7 @@
       <c r="D40" s="112"/>
       <c r="E40" s="205"/>
       <c r="F40" s="206" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G40" s="207"/>
       <c r="H40" s="208"/>
@@ -7251,25 +7251,29 @@
       <c r="O41" s="113"/>
     </row>
     <row r="42" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="328" t="s">
+      <c r="B42" s="363" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="328"/>
-      <c r="D42" s="328"/>
-      <c r="E42" s="328"/>
-      <c r="F42" s="328"/>
-      <c r="G42" s="328"/>
-      <c r="H42" s="328"/>
-      <c r="I42" s="328"/>
+      <c r="C42" s="363"/>
+      <c r="D42" s="363"/>
+      <c r="E42" s="363"/>
+      <c r="F42" s="363"/>
+      <c r="G42" s="363"/>
+      <c r="H42" s="363"/>
+      <c r="I42" s="363"/>
       <c r="O42" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="B42:I42"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G34:I34"/>
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C13:D13"/>
@@ -7282,15 +7286,11 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="B21:I21"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="B42:I42"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:I4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/template/買取決済.xlsx
+++ b/template/買取決済.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\work\00_Wavesync\24_不動産管理システム\03_帳票\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\work\00_Wavesync\24_不動産管理システム\00_source\backend\kbs_backend\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64299D38-D43D-47AF-A471-99BAE7EECD94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4115CA7C-CFBE-4149-BD07-57F0CA878377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -955,10 +955,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>$tradingPrice$</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>$address$</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1394,6 +1390,10 @@
       <t>ギンザ</t>
     </rPh>
     <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>$payPriceTax$</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -3081,6 +3081,18 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3099,163 +3111,13 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="44" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="15" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="15" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="15" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="15" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="6" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="6" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="6" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="6" fillId="0" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="188" fontId="15" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="188" fontId="15" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="188" fontId="15" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="15" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="188" fontId="15" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3308,37 +3170,178 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="15" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="15" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="15" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="15" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="6" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="6" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="6" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="6" fillId="0" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="15" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="15" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="17" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="17" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="44" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="14" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="14" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="14" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3374,40 +3377,130 @@
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="15" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="15" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="17" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="17" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="184" fontId="14" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="38" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="38" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="40" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="14" fillId="0" borderId="53" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="14" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="54" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="51" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="14" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="27" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="14" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="32" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="32" fillId="0" borderId="53" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="54" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="194" fontId="32" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="32" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3435,99 +3528,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="194" fontId="14" fillId="0" borderId="53" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="54" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="51" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="27" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="14" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="32" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="32" fillId="0" borderId="53" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="54" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="194" fontId="32" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="32" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="38" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="38" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="40" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -5230,18 +5230,18 @@
   <sheetData>
     <row r="1" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5" t="s">
         <v>76</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G1" s="7"/>
       <c r="H1" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>77</v>
@@ -5250,7 +5250,7 @@
         <v>89</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5283,16 +5283,16 @@
         <v>1</v>
       </c>
       <c r="F3" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="I3" s="9" t="s">
         <v>107</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>108</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>82</v>
@@ -5309,16 +5309,16 @@
     </row>
     <row r="4" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>90</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>92</v>
@@ -5337,7 +5337,7 @@
       </c>
       <c r="J4" s="16" t="str">
         <f>決済案内!D23</f>
-        <v>$tradingPrice$</v>
+        <v>$payPriceTax$</v>
       </c>
       <c r="K4" s="17" t="e">
         <f>決済案内!D24</f>
@@ -5452,16 +5452,16 @@
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="H1" s="216" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I1" s="216"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="221" t="s">
+      <c r="B2" s="225" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="221"/>
-      <c r="D2" s="221"/>
+      <c r="C2" s="225"/>
+      <c r="D2" s="225"/>
       <c r="E2" s="33" t="s">
         <v>84</v>
       </c>
@@ -5490,30 +5490,30 @@
       <c r="G6" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="222" t="s">
+      <c r="H6" s="226" t="s">
         <v>72</v>
       </c>
-      <c r="I6" s="222"/>
+      <c r="I6" s="226"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="G7" s="216" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H7" s="216"/>
       <c r="I7" s="216"/>
     </row>
     <row r="8" spans="2:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="9" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="217" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="218"/>
-      <c r="E9" s="218"/>
-      <c r="F9" s="219" t="s">
+      <c r="C9" s="221" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="222"/>
+      <c r="E9" s="222"/>
+      <c r="F9" s="223" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="219"/>
-      <c r="H9" s="219"/>
+      <c r="G9" s="223"/>
+      <c r="H9" s="223"/>
     </row>
     <row r="10" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="11" spans="2:9" x14ac:dyDescent="0.55000000000000004">
@@ -5563,10 +5563,10 @@
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="220" t="s">
-        <v>111</v>
-      </c>
-      <c r="C17" s="220"/>
+      <c r="B17" s="224" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="224"/>
       <c r="D17" s="38" t="s">
         <v>97</v>
       </c>
@@ -5590,15 +5590,15 @@
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="225" t="s">
+      <c r="B23" s="219" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="225"/>
-      <c r="D23" s="226" t="s">
-        <v>98</v>
-      </c>
-      <c r="E23" s="226"/>
-      <c r="F23" s="226"/>
+      <c r="C23" s="219"/>
+      <c r="D23" s="220" t="s">
+        <v>160</v>
+      </c>
+      <c r="E23" s="220"/>
+      <c r="F23" s="220"/>
       <c r="G23" s="40" t="s">
         <v>32</v>
       </c>
@@ -5608,12 +5608,12 @@
         <v>29</v>
       </c>
       <c r="C24" s="216"/>
-      <c r="D24" s="226" t="e">
+      <c r="D24" s="220" t="e">
         <f>固都税精算!I21</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E24" s="226"/>
-      <c r="F24" s="226"/>
+      <c r="E24" s="220"/>
+      <c r="F24" s="220"/>
       <c r="G24" s="40" t="s">
         <v>33</v>
       </c>
@@ -5623,11 +5623,11 @@
         <v>30</v>
       </c>
       <c r="C25" s="216"/>
-      <c r="D25" s="226" t="s">
+      <c r="D25" s="220" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="226"/>
-      <c r="F25" s="226"/>
+      <c r="E25" s="220"/>
+      <c r="F25" s="220"/>
       <c r="G25" s="40" t="s">
         <v>33</v>
       </c>
@@ -5637,11 +5637,11 @@
         <v>31</v>
       </c>
       <c r="C26" s="216"/>
-      <c r="D26" s="226" t="s">
+      <c r="D26" s="220" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="226"/>
-      <c r="F26" s="226"/>
+      <c r="E26" s="220"/>
+      <c r="F26" s="220"/>
       <c r="G26" s="40" t="s">
         <v>33</v>
       </c>
@@ -5654,12 +5654,12 @@
         <v>34</v>
       </c>
       <c r="C28" s="216"/>
-      <c r="D28" s="223" t="e">
+      <c r="D28" s="217" t="e">
         <f>D23+D24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E28" s="223"/>
-      <c r="F28" s="223"/>
+      <c r="E28" s="217"/>
+      <c r="F28" s="217"/>
       <c r="G28" s="40" t="s">
         <v>32</v>
       </c>
@@ -5691,7 +5691,7 @@
       <c r="E32" s="216"/>
     </row>
     <row r="33" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="224" t="s">
+      <c r="B33" s="218" t="s">
         <v>92</v>
       </c>
       <c r="C33" s="216"/>
@@ -5772,6 +5772,15 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="H6:I6"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="D32:E32"/>
@@ -5787,15 +5796,6 @@
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="H6:I6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
@@ -5839,58 +5839,58 @@
   <sheetData>
     <row r="1" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="41"/>
-      <c r="B1" s="277" t="s">
+      <c r="B1" s="231" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="277"/>
-      <c r="D1" s="277"/>
-      <c r="E1" s="277"/>
-      <c r="F1" s="277"/>
-      <c r="G1" s="277"/>
-      <c r="H1" s="277"/>
-      <c r="I1" s="277"/>
+      <c r="C1" s="231"/>
+      <c r="D1" s="231"/>
+      <c r="E1" s="231"/>
+      <c r="F1" s="231"/>
+      <c r="G1" s="231"/>
+      <c r="H1" s="231"/>
+      <c r="I1" s="231"/>
       <c r="J1" s="42"/>
       <c r="K1" s="42"/>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="3" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="278" t="s">
+      <c r="B3" s="232" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="279"/>
-      <c r="D3" s="280" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" s="281"/>
-      <c r="F3" s="282"/>
+      <c r="C3" s="233"/>
+      <c r="D3" s="234" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="235"/>
+      <c r="F3" s="236"/>
       <c r="G3" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="283" t="s">
-        <v>114</v>
-      </c>
-      <c r="I3" s="284"/>
-      <c r="J3" s="285"/>
+      <c r="H3" s="237" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3" s="238"/>
+      <c r="J3" s="239"/>
       <c r="K3" s="45"/>
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="286" t="s">
+      <c r="B4" s="240" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="287"/>
-      <c r="D4" s="288" t="s">
+      <c r="C4" s="241"/>
+      <c r="D4" s="242" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="289"/>
-      <c r="F4" s="290"/>
+      <c r="E4" s="243"/>
+      <c r="F4" s="244"/>
       <c r="G4" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="291" t="s">
-        <v>100</v>
-      </c>
-      <c r="I4" s="292"/>
-      <c r="J4" s="293"/>
+      <c r="H4" s="245" t="s">
+        <v>99</v>
+      </c>
+      <c r="I4" s="246"/>
+      <c r="J4" s="247"/>
       <c r="K4" s="47"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5928,22 +5928,22 @@
       <c r="C7" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="273" t="s">
+      <c r="D7" s="227" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="229"/>
+      <c r="F7" s="227" t="s">
         <v>115</v>
       </c>
-      <c r="E7" s="274"/>
-      <c r="F7" s="273" t="s">
-        <v>116</v>
-      </c>
-      <c r="G7" s="274"/>
+      <c r="G7" s="229"/>
       <c r="H7" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="273" t="e">
+      <c r="I7" s="227" t="e">
         <f>D7+F7</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J7" s="275"/>
+      <c r="J7" s="228"/>
       <c r="K7" s="52"/>
     </row>
     <row r="8" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5951,22 +5951,22 @@
       <c r="C8" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="273" t="s">
+      <c r="D8" s="227" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="229"/>
+      <c r="F8" s="227" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="274"/>
-      <c r="F8" s="273" t="s">
-        <v>122</v>
-      </c>
-      <c r="G8" s="276"/>
+      <c r="G8" s="230"/>
       <c r="H8" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="273" t="e">
+      <c r="I8" s="227" t="e">
         <f>D8+F8</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J8" s="275"/>
+      <c r="J8" s="228"/>
       <c r="K8" s="52"/>
     </row>
     <row r="9" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -6013,11 +6013,11 @@
         <v>58</v>
       </c>
       <c r="E11" s="256" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F11" s="257"/>
       <c r="G11" s="258" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H11" s="258"/>
       <c r="I11" s="259" t="e">
@@ -6034,11 +6034,11 @@
         <v>59</v>
       </c>
       <c r="E12" s="261" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F12" s="262"/>
       <c r="G12" s="263" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H12" s="263"/>
       <c r="I12" s="264" t="e">
@@ -6050,7 +6050,7 @@
     </row>
     <row r="13" spans="1:11" ht="10" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="14" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="232" t="s">
+      <c r="B14" s="278" t="s">
         <v>60</v>
       </c>
       <c r="C14" s="58"/>
@@ -6068,15 +6068,15 @@
         <f>I$11+I$12</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H14" s="235" t="s">
-        <v>101</v>
-      </c>
-      <c r="I14" s="235"/>
-      <c r="J14" s="236"/>
+      <c r="H14" s="281" t="s">
+        <v>100</v>
+      </c>
+      <c r="I14" s="281"/>
+      <c r="J14" s="282"/>
       <c r="K14" s="63"/>
     </row>
     <row r="15" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="233"/>
+      <c r="B15" s="279"/>
       <c r="C15" s="64" t="s">
         <v>62</v>
       </c>
@@ -6094,15 +6094,15 @@
         <f>I$11+I$12</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H15" s="237" t="s">
-        <v>102</v>
-      </c>
-      <c r="I15" s="237"/>
-      <c r="J15" s="238"/>
+      <c r="H15" s="283" t="s">
+        <v>101</v>
+      </c>
+      <c r="I15" s="283"/>
+      <c r="J15" s="284"/>
       <c r="K15" s="63"/>
     </row>
     <row r="16" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="233"/>
+      <c r="B16" s="279"/>
       <c r="C16" s="69"/>
       <c r="D16" s="70" t="s">
         <v>51</v>
@@ -6113,15 +6113,15 @@
       <c r="H16" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="I16" s="239" t="e">
+      <c r="I16" s="285" t="e">
         <f>H14+H15</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J16" s="240"/>
+      <c r="J16" s="286"/>
       <c r="K16" s="63"/>
     </row>
     <row r="17" spans="2:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="234"/>
+      <c r="B17" s="280"/>
       <c r="C17" s="74" t="s">
         <v>65</v>
       </c>
@@ -6138,11 +6138,11 @@
         <v>（Ｄ）</v>
       </c>
       <c r="H17" s="79"/>
-      <c r="I17" s="241" t="e">
+      <c r="I17" s="287" t="e">
         <f>I9-I16</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J17" s="242"/>
+      <c r="J17" s="288"/>
       <c r="K17" s="63"/>
     </row>
     <row r="18" spans="2:11" ht="8.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -6150,21 +6150,21 @@
       <c r="I18" s="80"/>
     </row>
     <row r="19" spans="2:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="243" t="s">
+      <c r="B19" s="289" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="244"/>
-      <c r="D19" s="245"/>
+      <c r="C19" s="290"/>
+      <c r="D19" s="291"/>
       <c r="E19" s="81"/>
       <c r="F19" s="81"/>
       <c r="G19" s="81"/>
       <c r="H19" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="I19" s="246" t="s">
-        <v>103</v>
-      </c>
-      <c r="J19" s="247"/>
+      <c r="I19" s="292" t="s">
+        <v>102</v>
+      </c>
+      <c r="J19" s="293"/>
       <c r="K19" s="63"/>
     </row>
     <row r="20" spans="2:11" ht="8.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -6174,22 +6174,22 @@
       <c r="I20" s="84"/>
     </row>
     <row r="21" spans="2:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="227" t="s">
+      <c r="B21" s="273" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="228"/>
-      <c r="D21" s="229"/>
+      <c r="C21" s="274"/>
+      <c r="D21" s="275"/>
       <c r="E21" s="81"/>
       <c r="F21" s="81"/>
       <c r="G21" s="81"/>
       <c r="H21" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="I21" s="230" t="e">
+      <c r="I21" s="276" t="e">
         <f>I16+I19</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J21" s="231"/>
+      <c r="J21" s="277"/>
       <c r="K21" s="85"/>
     </row>
     <row r="22" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -6200,17 +6200,15 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="I19:J19"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="I9:J9"/>
@@ -6227,15 +6225,17 @@
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="H4:J4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -6269,16 +6269,16 @@
     </row>
     <row r="2" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="41"/>
-      <c r="B2" s="305" t="s">
+      <c r="B2" s="306" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="305"/>
-      <c r="D2" s="305"/>
-      <c r="E2" s="305"/>
-      <c r="F2" s="305"/>
-      <c r="G2" s="305"/>
-      <c r="H2" s="305"/>
-      <c r="I2" s="305"/>
+      <c r="C2" s="306"/>
+      <c r="D2" s="306"/>
+      <c r="E2" s="306"/>
+      <c r="F2" s="306"/>
+      <c r="G2" s="306"/>
+      <c r="H2" s="306"/>
+      <c r="I2" s="306"/>
       <c r="J2" s="42"/>
     </row>
     <row r="3" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -6293,12 +6293,12 @@
       <c r="I4" s="102"/>
     </row>
     <row r="5" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="306" t="s">
+      <c r="B5" s="307" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="306"/>
-      <c r="D5" s="306"/>
-      <c r="E5" s="306"/>
+      <c r="C5" s="307"/>
+      <c r="D5" s="307"/>
+      <c r="E5" s="307"/>
       <c r="F5" s="89" t="s">
         <v>8</v>
       </c>
@@ -6306,14 +6306,14 @@
     </row>
     <row r="6" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" s="307" t="e">
+      <c r="D7" s="308" t="e">
         <f>G13+G14</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E7" s="308"/>
-      <c r="F7" s="308"/>
-      <c r="G7" s="308"/>
-      <c r="H7" s="309"/>
+      <c r="E7" s="309"/>
+      <c r="F7" s="309"/>
+      <c r="G7" s="309"/>
+      <c r="H7" s="310"/>
       <c r="I7" s="49"/>
       <c r="J7" s="90"/>
     </row>
@@ -6334,83 +6334,83 @@
       <c r="J9" s="90"/>
     </row>
     <row r="10" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="310" t="s">
+      <c r="B10" s="311" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="311"/>
-      <c r="D10" s="312" t="s">
-        <v>159</v>
-      </c>
-      <c r="E10" s="313"/>
-      <c r="F10" s="313"/>
-      <c r="G10" s="313"/>
-      <c r="H10" s="313"/>
-      <c r="I10" s="314"/>
+      <c r="C10" s="312"/>
+      <c r="D10" s="313" t="s">
+        <v>158</v>
+      </c>
+      <c r="E10" s="314"/>
+      <c r="F10" s="314"/>
+      <c r="G10" s="314"/>
+      <c r="H10" s="314"/>
+      <c r="I10" s="315"/>
       <c r="J10" s="90"/>
     </row>
     <row r="11" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J11" s="94"/>
     </row>
     <row r="12" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="315" t="s">
+      <c r="B12" s="294" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="316"/>
-      <c r="D12" s="316"/>
-      <c r="E12" s="316"/>
-      <c r="F12" s="316"/>
-      <c r="G12" s="316" t="s">
+      <c r="C12" s="295"/>
+      <c r="D12" s="295"/>
+      <c r="E12" s="295"/>
+      <c r="F12" s="295"/>
+      <c r="G12" s="295" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="316"/>
-      <c r="I12" s="317"/>
+      <c r="H12" s="295"/>
+      <c r="I12" s="296"/>
       <c r="J12" s="94"/>
     </row>
     <row r="13" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="318" t="s">
+      <c r="B13" s="297" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="298"/>
+      <c r="D13" s="298"/>
+      <c r="E13" s="298"/>
+      <c r="F13" s="299"/>
+      <c r="G13" s="300" t="str">
+        <f>決済案内!D23</f>
+        <v>$payPriceTax$</v>
+      </c>
+      <c r="H13" s="301"/>
+      <c r="I13" s="302"/>
+      <c r="J13" s="94"/>
+    </row>
+    <row r="14" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="303" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="319"/>
-      <c r="D13" s="319"/>
-      <c r="E13" s="319"/>
-      <c r="F13" s="320"/>
-      <c r="G13" s="321" t="str">
-        <f>決済案内!D23</f>
-        <v>$tradingPrice$</v>
-      </c>
-      <c r="H13" s="322"/>
-      <c r="I13" s="323"/>
-      <c r="J13" s="94"/>
-    </row>
-    <row r="14" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="324" t="s">
-        <v>124</v>
-      </c>
-      <c r="C14" s="325"/>
-      <c r="D14" s="325"/>
-      <c r="E14" s="325"/>
-      <c r="F14" s="326"/>
-      <c r="G14" s="321" t="e">
+      <c r="C14" s="304"/>
+      <c r="D14" s="304"/>
+      <c r="E14" s="304"/>
+      <c r="F14" s="305"/>
+      <c r="G14" s="300" t="e">
         <f>固都税精算!I21</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H14" s="322"/>
-      <c r="I14" s="323"/>
+      <c r="H14" s="301"/>
+      <c r="I14" s="302"/>
       <c r="J14" s="94"/>
     </row>
     <row r="15" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="302" t="s">
+      <c r="B15" s="324" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="303"/>
-      <c r="D15" s="303"/>
-      <c r="E15" s="303"/>
-      <c r="F15" s="304"/>
-      <c r="G15" s="294"/>
-      <c r="H15" s="295"/>
-      <c r="I15" s="296"/>
+      <c r="C15" s="325"/>
+      <c r="D15" s="325"/>
+      <c r="E15" s="325"/>
+      <c r="F15" s="326"/>
+      <c r="G15" s="316"/>
+      <c r="H15" s="317"/>
+      <c r="I15" s="318"/>
       <c r="K15" s="43" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -6423,14 +6423,14 @@
       <c r="H16" s="97"/>
       <c r="I16" s="97"/>
       <c r="K16" s="43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="301" t="s">
-        <v>114</v>
-      </c>
-      <c r="C17" s="301"/>
+      <c r="B17" s="323" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="323"/>
       <c r="D17" s="104" t="s">
         <v>17</v>
       </c>
@@ -6440,7 +6440,7 @@
       <c r="H17" s="90"/>
       <c r="I17" s="90"/>
       <c r="K17" s="43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -6453,11 +6453,11 @@
       <c r="H18" s="105"/>
       <c r="I18" s="105"/>
       <c r="K18" s="43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C19" s="297" t="s">
+      <c r="C19" s="319" t="s">
         <v>85</v>
       </c>
       <c r="D19" s="98"/>
@@ -6471,25 +6471,25 @@
       <c r="J19" s="255"/>
     </row>
     <row r="20" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C20" s="298"/>
+      <c r="C20" s="320"/>
       <c r="D20" s="98"/>
       <c r="E20" s="99"/>
-      <c r="F20" s="299"/>
-      <c r="G20" s="299"/>
-      <c r="H20" s="299"/>
-      <c r="I20" s="299"/>
+      <c r="F20" s="321"/>
+      <c r="G20" s="321"/>
+      <c r="H20" s="321"/>
+      <c r="I20" s="321"/>
     </row>
     <row r="21" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="300" t="s">
+      <c r="F21" s="322" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="300"/>
-      <c r="H21" s="300"/>
-      <c r="I21" s="300"/>
-      <c r="J21" s="300"/>
+      <c r="G21" s="322"/>
+      <c r="H21" s="322"/>
+      <c r="I21" s="322"/>
+      <c r="J21" s="322"/>
     </row>
     <row r="22" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E22" s="99"/>
@@ -6522,17 +6522,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:I10"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="F19:J19"/>
@@ -6540,6 +6529,17 @@
     <mergeCell ref="F21:J21"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="G14:I14"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -6582,16 +6582,16 @@
     </row>
     <row r="2" spans="1:15" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="110"/>
-      <c r="B2" s="331" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" s="331"/>
-      <c r="D2" s="331"/>
-      <c r="E2" s="331"/>
-      <c r="F2" s="331"/>
-      <c r="G2" s="331"/>
-      <c r="H2" s="331"/>
-      <c r="I2" s="331"/>
+      <c r="B2" s="364" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="364"/>
+      <c r="D2" s="364"/>
+      <c r="E2" s="364"/>
+      <c r="F2" s="364"/>
+      <c r="G2" s="364"/>
+      <c r="H2" s="364"/>
+      <c r="I2" s="364"/>
       <c r="J2" s="111"/>
       <c r="K2" s="111"/>
       <c r="L2" s="111"/>
@@ -6614,17 +6614,17 @@
       <c r="B4" s="114" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="332"/>
-      <c r="D4" s="333"/>
-      <c r="E4" s="334"/>
+      <c r="C4" s="365"/>
+      <c r="D4" s="366"/>
+      <c r="E4" s="367"/>
       <c r="F4" s="115" t="s">
-        <v>130</v>
-      </c>
-      <c r="G4" s="335">
+        <v>129</v>
+      </c>
+      <c r="G4" s="368">
         <v>43983</v>
       </c>
-      <c r="H4" s="335"/>
-      <c r="I4" s="336"/>
+      <c r="H4" s="368"/>
+      <c r="I4" s="369"/>
       <c r="J4" s="116"/>
       <c r="K4" s="117"/>
       <c r="L4" s="117"/>
@@ -6632,27 +6632,27 @@
         <v>44</v>
       </c>
       <c r="N4" s="118" t="s">
+        <v>130</v>
+      </c>
+      <c r="O4" s="118" t="s">
         <v>131</v>
-      </c>
-      <c r="O4" s="118" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="119" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="360"/>
+      <c r="D5" s="361"/>
+      <c r="E5" s="361"/>
+      <c r="F5" s="120" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="327"/>
-      <c r="D5" s="328"/>
-      <c r="E5" s="328"/>
-      <c r="F5" s="120" t="s">
+      <c r="G5" s="362" t="s">
         <v>134</v>
       </c>
-      <c r="G5" s="329" t="s">
-        <v>135</v>
-      </c>
-      <c r="H5" s="329"/>
-      <c r="I5" s="330"/>
+      <c r="H5" s="362"/>
+      <c r="I5" s="363"/>
       <c r="J5" s="116"/>
       <c r="M5" s="121">
         <v>43516</v>
@@ -6666,7 +6666,7 @@
     </row>
     <row r="6" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="125" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C6" s="126"/>
       <c r="D6" s="116"/>
@@ -6738,27 +6738,27 @@
     </row>
     <row r="11" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="131" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="337"/>
+      <c r="D11" s="337"/>
+      <c r="E11" s="337"/>
+      <c r="F11" s="127" t="s">
         <v>137</v>
-      </c>
-      <c r="C11" s="339"/>
-      <c r="D11" s="339"/>
-      <c r="E11" s="339"/>
-      <c r="F11" s="127" t="s">
-        <v>138</v>
       </c>
       <c r="G11" s="112"/>
       <c r="H11" s="112"/>
       <c r="I11" s="112"/>
       <c r="J11" s="112"/>
       <c r="M11" s="118" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N11" s="132"/>
       <c r="O11" s="132"/>
     </row>
     <row r="12" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="112" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C12" s="112"/>
       <c r="D12" s="112"/>
@@ -6769,24 +6769,24 @@
       <c r="I12" s="112"/>
       <c r="J12" s="112"/>
       <c r="M12" s="118" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N12" s="132"/>
       <c r="O12" s="132"/>
     </row>
     <row r="13" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="131" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="338" t="s">
         <v>141</v>
       </c>
-      <c r="C13" s="340" t="s">
-        <v>142</v>
-      </c>
-      <c r="D13" s="341"/>
-      <c r="E13" s="342" t="s">
+      <c r="D13" s="339"/>
+      <c r="E13" s="340" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="343"/>
-      <c r="G13" s="344"/>
+      <c r="F13" s="341"/>
+      <c r="G13" s="342"/>
       <c r="H13" s="112"/>
       <c r="I13" s="112"/>
       <c r="J13" s="112"/>
@@ -6800,16 +6800,16 @@
     </row>
     <row r="14" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="136" t="s">
-        <v>143</v>
-      </c>
-      <c r="C14" s="345"/>
-      <c r="D14" s="346"/>
-      <c r="E14" s="347">
+        <v>142</v>
+      </c>
+      <c r="C14" s="343"/>
+      <c r="D14" s="344"/>
+      <c r="E14" s="345">
         <f>SUM(C14:D14)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="348"/>
-      <c r="G14" s="349"/>
+      <c r="F14" s="346"/>
+      <c r="G14" s="347"/>
       <c r="H14" s="127"/>
       <c r="I14" s="127"/>
       <c r="J14" s="127"/>
@@ -6819,19 +6819,19 @@
     </row>
     <row r="15" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="131" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C15" s="139"/>
       <c r="D15" s="140">
         <f>SUM(C14:D14)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="350">
+      <c r="E15" s="348">
         <f>SUM(C15:D15)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="351"/>
-      <c r="G15" s="352"/>
+      <c r="F15" s="349"/>
+      <c r="G15" s="350"/>
       <c r="H15" s="127"/>
       <c r="I15" s="127"/>
       <c r="J15" s="127"/>
@@ -6858,18 +6858,18 @@
     </row>
     <row r="17" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="150" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C17" s="151"/>
-      <c r="D17" s="353">
+      <c r="D17" s="351">
         <v>43983</v>
       </c>
-      <c r="E17" s="353"/>
-      <c r="F17" s="354">
+      <c r="E17" s="351"/>
+      <c r="F17" s="352">
         <v>43983</v>
       </c>
-      <c r="G17" s="354"/>
-      <c r="H17" s="354"/>
+      <c r="G17" s="352"/>
+      <c r="H17" s="352"/>
       <c r="I17" s="152"/>
       <c r="J17" s="153"/>
       <c r="K17" s="142"/>
@@ -6879,7 +6879,7 @@
     </row>
     <row r="18" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="154" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C18" s="155"/>
       <c r="D18" s="156">
@@ -6892,15 +6892,15 @@
         <v>30</v>
       </c>
       <c r="G18" s="159"/>
-      <c r="H18" s="355"/>
-      <c r="I18" s="356"/>
+      <c r="H18" s="353"/>
+      <c r="I18" s="354"/>
       <c r="L18" s="142"/>
       <c r="N18" s="160"/>
       <c r="O18" s="160"/>
     </row>
     <row r="19" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="161" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C19" s="162"/>
       <c r="D19" s="163">
@@ -6913,10 +6913,10 @@
         <v>30</v>
       </c>
       <c r="G19" s="166"/>
-      <c r="H19" s="357"/>
-      <c r="I19" s="358"/>
+      <c r="H19" s="355"/>
+      <c r="I19" s="356"/>
       <c r="J19" s="127" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L19" s="142"/>
       <c r="N19" s="160"/>
@@ -6938,16 +6938,16 @@
       <c r="O20" s="173"/>
     </row>
     <row r="21" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="359" t="s">
-        <v>149</v>
-      </c>
-      <c r="C21" s="360"/>
-      <c r="D21" s="360"/>
-      <c r="E21" s="360"/>
-      <c r="F21" s="360"/>
-      <c r="G21" s="360"/>
-      <c r="H21" s="360"/>
-      <c r="I21" s="361"/>
+      <c r="B21" s="357" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21" s="358"/>
+      <c r="D21" s="358"/>
+      <c r="E21" s="358"/>
+      <c r="F21" s="358"/>
+      <c r="G21" s="358"/>
+      <c r="H21" s="358"/>
+      <c r="I21" s="359"/>
       <c r="J21" s="174"/>
       <c r="K21" s="175"/>
       <c r="L21" s="142"/>
@@ -6956,20 +6956,20 @@
     </row>
     <row r="22" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="154" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C22" s="155"/>
       <c r="D22" s="176" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E22" s="157"/>
       <c r="F22" s="177"/>
       <c r="G22" s="178"/>
-      <c r="H22" s="337">
+      <c r="H22" s="335">
         <f>C11+H19</f>
         <v>0</v>
       </c>
-      <c r="I22" s="338"/>
+      <c r="I22" s="336"/>
       <c r="J22" s="171"/>
       <c r="K22" s="175"/>
       <c r="L22" s="142"/>
@@ -7025,31 +7025,31 @@
       <c r="O25" s="173"/>
     </row>
     <row r="26" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="364" t="s">
+      <c r="B26" s="329" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="364"/>
-      <c r="D26" s="364"/>
-      <c r="E26" s="364"/>
-      <c r="F26" s="364"/>
-      <c r="G26" s="364"/>
-      <c r="H26" s="364"/>
-      <c r="I26" s="364"/>
-      <c r="J26" s="364"/>
+      <c r="C26" s="329"/>
+      <c r="D26" s="329"/>
+      <c r="E26" s="329"/>
+      <c r="F26" s="329"/>
+      <c r="G26" s="329"/>
+      <c r="H26" s="329"/>
+      <c r="I26" s="329"/>
+      <c r="J26" s="329"/>
       <c r="K26" s="175"/>
       <c r="N26" s="173"/>
       <c r="O26" s="173"/>
     </row>
     <row r="27" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="175"/>
-      <c r="B27" s="365"/>
-      <c r="C27" s="365"/>
+      <c r="B27" s="330"/>
+      <c r="C27" s="330"/>
       <c r="D27" s="189"/>
       <c r="E27" s="190"/>
       <c r="F27" s="190"/>
       <c r="G27" s="190"/>
       <c r="H27" s="191"/>
-      <c r="I27" s="366"/>
+      <c r="I27" s="331"/>
       <c r="J27" s="192"/>
       <c r="K27" s="175"/>
       <c r="N27" s="173"/>
@@ -7057,18 +7057,18 @@
     </row>
     <row r="28" spans="1:15" s="175" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="175" t="s">
+        <v>151</v>
+      </c>
+      <c r="B28" s="333"/>
+      <c r="C28" s="333"/>
+      <c r="D28" s="189" t="s">
         <v>152</v>
-      </c>
-      <c r="B28" s="368"/>
-      <c r="C28" s="368"/>
-      <c r="D28" s="189" t="s">
-        <v>153</v>
       </c>
       <c r="E28" s="193"/>
       <c r="F28" s="112"/>
       <c r="G28" s="112"/>
       <c r="H28" s="112"/>
-      <c r="I28" s="367"/>
+      <c r="I28" s="332"/>
       <c r="J28" s="194"/>
       <c r="L28" s="109"/>
       <c r="M28" s="109"/>
@@ -7090,12 +7090,12 @@
     <row r="30" spans="1:15" s="175" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="112"/>
       <c r="C30" s="112"/>
-      <c r="D30" s="369">
+      <c r="D30" s="334">
         <f>H22</f>
         <v>0</v>
       </c>
-      <c r="E30" s="369"/>
-      <c r="F30" s="369"/>
+      <c r="E30" s="334"/>
+      <c r="F30" s="334"/>
       <c r="G30" s="196"/>
       <c r="H30" s="112"/>
       <c r="I30" s="112"/>
@@ -7157,9 +7157,9 @@
       <c r="D34" s="112"/>
       <c r="E34" s="112"/>
       <c r="F34" s="202"/>
-      <c r="G34" s="362"/>
-      <c r="H34" s="362"/>
-      <c r="I34" s="362"/>
+      <c r="G34" s="327"/>
+      <c r="H34" s="327"/>
+      <c r="I34" s="327"/>
       <c r="J34" s="203"/>
       <c r="L34" s="197"/>
       <c r="M34" s="197"/>
@@ -7170,11 +7170,11 @@
       <c r="D35" s="112"/>
       <c r="E35" s="112"/>
       <c r="F35" s="202"/>
-      <c r="G35" s="362">
+      <c r="G35" s="327">
         <v>43983</v>
       </c>
-      <c r="H35" s="362"/>
-      <c r="I35" s="362"/>
+      <c r="H35" s="327"/>
+      <c r="I35" s="327"/>
       <c r="J35" s="203"/>
       <c r="M35" s="204"/>
     </row>
@@ -7195,9 +7195,9 @@
       <c r="D37" s="112"/>
       <c r="E37" s="112"/>
       <c r="F37" s="112"/>
-      <c r="G37" s="362"/>
-      <c r="H37" s="362"/>
-      <c r="I37" s="362"/>
+      <c r="G37" s="327"/>
+      <c r="H37" s="327"/>
+      <c r="I37" s="327"/>
       <c r="J37" s="209"/>
       <c r="L37" s="197"/>
       <c r="M37" s="197"/>
@@ -7208,7 +7208,7 @@
       <c r="D38" s="112"/>
       <c r="E38" s="112"/>
       <c r="F38" s="202" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G38" s="202"/>
       <c r="H38" s="203"/>
@@ -7217,7 +7217,7 @@
       <c r="L38" s="197"/>
       <c r="M38" s="197"/>
       <c r="N38" s="109" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -7226,7 +7226,7 @@
       <c r="D39" s="112"/>
       <c r="E39" s="112"/>
       <c r="F39" s="202" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G39" s="112"/>
       <c r="H39" s="202"/>
@@ -7240,7 +7240,7 @@
       <c r="D40" s="112"/>
       <c r="E40" s="205"/>
       <c r="F40" s="206" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G40" s="207"/>
       <c r="H40" s="208"/>
@@ -7251,29 +7251,25 @@
       <c r="O41" s="113"/>
     </row>
     <row r="42" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="363" t="s">
+      <c r="B42" s="328" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="363"/>
-      <c r="D42" s="363"/>
-      <c r="E42" s="363"/>
-      <c r="F42" s="363"/>
-      <c r="G42" s="363"/>
-      <c r="H42" s="363"/>
-      <c r="I42" s="363"/>
+      <c r="C42" s="328"/>
+      <c r="D42" s="328"/>
+      <c r="E42" s="328"/>
+      <c r="F42" s="328"/>
+      <c r="G42" s="328"/>
+      <c r="H42" s="328"/>
+      <c r="I42" s="328"/>
       <c r="O42" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="B42:I42"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:I4"/>
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C13:D13"/>
@@ -7286,11 +7282,15 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="B21:I21"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="B42:I42"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G34:I34"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/template/買取決済.xlsx
+++ b/template/買取決済.xlsx
@@ -8,58 +8,68 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\work\00_Wavesync\24_不動産管理システム\00_source\backend\kbs_backend\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4115CA7C-CFBE-4149-BD07-57F0CA878377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAACC394-D32E-414D-8038-E29EA9DA9A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="地権者振込一覧" sheetId="15" r:id="rId1"/>
-    <sheet name="決済案内" sheetId="4" r:id="rId2"/>
-    <sheet name="固都税精算" sheetId="5" r:id="rId3"/>
-    <sheet name="受領書" sheetId="3" r:id="rId4"/>
-    <sheet name="R-A　PK精算" sheetId="16" r:id="rId5"/>
+    <sheet name="支払依頼書帳票" sheetId="17" r:id="rId2"/>
+    <sheet name="決済案内" sheetId="4" r:id="rId3"/>
+    <sheet name="固都税精算" sheetId="5" r:id="rId4"/>
+    <sheet name="受領書" sheetId="3" r:id="rId5"/>
+    <sheet name="領収証" sheetId="18" r:id="rId6"/>
+    <sheet name="R-A　PK精算" sheetId="16" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="____ALL3">[1]仲介業者ﾘｽﾄ!$1:$1048576</definedName>
     <definedName name="___ALL3">[1]仲介業者ﾘｽﾄ!$1:$1048576</definedName>
     <definedName name="__ALL3">[1]仲介業者ﾘｽﾄ!$1:$1048576</definedName>
     <definedName name="_ALL3">[1]仲介業者ﾘｽﾄ!$1:$1048576</definedName>
+    <definedName name="ALL" localSheetId="6">[1]台帳!$1:$1048576</definedName>
+    <definedName name="ALL" localSheetId="3">[1]台帳!$1:$1048576</definedName>
     <definedName name="ALL" localSheetId="4">[1]台帳!$1:$1048576</definedName>
-    <definedName name="ALL" localSheetId="2">[1]台帳!$1:$1048576</definedName>
-    <definedName name="ALL" localSheetId="3">[1]台帳!$1:$1048576</definedName>
+    <definedName name="ALL" localSheetId="5">[1]台帳!$1:$1048576</definedName>
     <definedName name="ALL">[1]台帳!$1:$1048576</definedName>
-    <definedName name="Data" localSheetId="4">#REF!</definedName>
-    <definedName name="Data" localSheetId="2">#REF!</definedName>
+    <definedName name="Data" localSheetId="6">#REF!</definedName>
+    <definedName name="Data" localSheetId="3">#REF!</definedName>
     <definedName name="Data">#REF!</definedName>
-    <definedName name="DB" localSheetId="4">#REF!</definedName>
-    <definedName name="DB" localSheetId="2">#REF!</definedName>
+    <definedName name="DB" localSheetId="6">#REF!</definedName>
+    <definedName name="DB" localSheetId="3">#REF!</definedName>
     <definedName name="DB">#REF!</definedName>
-    <definedName name="japan" localSheetId="4">#REF!</definedName>
-    <definedName name="japan" localSheetId="2">#REF!</definedName>
+    <definedName name="japan" localSheetId="6">#REF!</definedName>
+    <definedName name="japan" localSheetId="3">#REF!</definedName>
     <definedName name="japan">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'R-A　PK精算'!$A$1:$J$43</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">固都税精算!$A$1:$K$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">受領書!$A$1:$J$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'R-A　PK精算'!$A$1:$J$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">固都税精算!$A$1:$K$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">受領書!$A$1:$J$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">領収証!$A$1:$J$25</definedName>
+    <definedName name="ProjectName" localSheetId="6">{"Client Name or Project Name"}</definedName>
+    <definedName name="ProjectName" localSheetId="3">{"Client Name or Project Name"}</definedName>
+    <definedName name="ProjectName" localSheetId="1">{"Client Name or Project Name"}</definedName>
     <definedName name="ProjectName" localSheetId="4">{"Client Name or Project Name"}</definedName>
-    <definedName name="ProjectName" localSheetId="2">{"Client Name or Project Name"}</definedName>
-    <definedName name="ProjectName" localSheetId="3">{"Client Name or Project Name"}</definedName>
     <definedName name="ProjectName" localSheetId="0">{"Client Name or Project Name"}</definedName>
+    <definedName name="ProjectName" localSheetId="5">{"Client Name or Project Name"}</definedName>
     <definedName name="ProjectName">{"Client Name or Project Name"}</definedName>
+    <definedName name="富永リクエスト" localSheetId="6">{"Client Name or Project Name"}</definedName>
+    <definedName name="富永リクエスト" localSheetId="3">{"Client Name or Project Name"}</definedName>
+    <definedName name="富永リクエスト" localSheetId="1">{"Client Name or Project Name"}</definedName>
     <definedName name="富永リクエスト" localSheetId="4">{"Client Name or Project Name"}</definedName>
-    <definedName name="富永リクエスト" localSheetId="2">{"Client Name or Project Name"}</definedName>
-    <definedName name="富永リクエスト" localSheetId="3">{"Client Name or Project Name"}</definedName>
     <definedName name="富永リクエスト" localSheetId="0">{"Client Name or Project Name"}</definedName>
+    <definedName name="富永リクエスト" localSheetId="5">{"Client Name or Project Name"}</definedName>
     <definedName name="富永リクエスト">{"Client Name or Project Name"}</definedName>
+    <definedName name="分析" localSheetId="6">{"Client Name or Project Name"}</definedName>
+    <definedName name="分析" localSheetId="3">{"Client Name or Project Name"}</definedName>
+    <definedName name="分析" localSheetId="1">{"Client Name or Project Name"}</definedName>
     <definedName name="分析" localSheetId="4">{"Client Name or Project Name"}</definedName>
-    <definedName name="分析" localSheetId="2">{"Client Name or Project Name"}</definedName>
-    <definedName name="分析" localSheetId="3">{"Client Name or Project Name"}</definedName>
     <definedName name="分析" localSheetId="0">{"Client Name or Project Name"}</definedName>
+    <definedName name="分析" localSheetId="5">{"Client Name or Project Name"}</definedName>
     <definedName name="分析">{"Client Name or Project Name"}</definedName>
   </definedNames>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -78,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="189">
   <si>
     <t>地　番
 家屋番号</t>
@@ -1393,6 +1403,171 @@
   </si>
   <si>
     <t>$payPriceTax$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>買主： 株式会社メトロス開発</t>
+  </si>
+  <si>
+    <t>$contractFixDateTime_intermediary$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$bankName_intermediary$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$bank_intermediary$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$branchName_intermediary$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$accountTypeName_intermediary$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$accountName_intermediary$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$payPriceTax_intermediary$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$paymentName_intermediary$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$contractFixDateTime_outsourcing$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$bankName_outsourcing$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$bank_outsourcing$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$branchName_outsourcing$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$accountTypeName_outsourcing$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$accountName_outsourcing$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$payPriceTax_outsourcing$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$paymentName_outsourcing$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$contractFixDay_dt_kanji_intermediary$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>上記所在物件の業務委託契約書に基づく業務委託料として</t>
+    <rPh sb="0" eb="6">
+      <t>ジョウキショザイブッケン</t>
+    </rPh>
+    <rPh sb="7" eb="14">
+      <t>ギョウムイタクケイヤクショ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="18" eb="23">
+      <t>ギョウムイタクリョウ</t>
+    </rPh>
+    <phoneticPr fontId="42"/>
+  </si>
+  <si>
+    <t>以下余白</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>上記所在物件の合意書に基づく立退料残金として</t>
+    <rPh sb="7" eb="10">
+      <t>ゴウイショ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>タチノキリョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ザンキン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>テキン</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>上記所在物件の不動産売買契約に基づく印紙代として</t>
+    <rPh sb="18" eb="20">
+      <t>インシ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>上記所在物件の不動産売買契約書第4条に基づく売買代金（内金）として</t>
+    <rPh sb="15" eb="16">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ウチ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>キン</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>上記所在物件の不動産売買契約書第3条に基づく売買代金として</t>
+    <rPh sb="22" eb="24">
+      <t>バイバイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>支払先</t>
+    <rPh sb="0" eb="2">
+      <t>シハライ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$supplierName_intermediary$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$supplierName_outsourcing$</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1400,7 +1575,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="30">
+  <numFmts count="31">
     <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="[$-411]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
@@ -1431,8 +1606,9 @@
     <numFmt numFmtId="202" formatCode="##&quot;月&quot;&quot;分&quot;"/>
     <numFmt numFmtId="203" formatCode="&quot;（Ａ）&quot;&quot;×&quot;0&quot;日&quot;"/>
     <numFmt numFmtId="204" formatCode="&quot;（D）&quot;&quot;×&quot;0&quot;日&quot;"/>
+    <numFmt numFmtId="205" formatCode="\(&quot;消&quot;&quot;費&quot;&quot;税&quot;&quot;お&quot;&quot;よ&quot;&quot;び&quot;&quot;地&quot;&quot;方&quot;&quot;消&quot;&quot;費&quot;&quot;税&quot;\ &quot;金&quot;###,###,###,###&quot;円&quot;&quot;を&quot;&quot;含&quot;&quot;む&quot;\)"/>
   </numFmts>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1713,13 +1889,28 @@
       <family val="1"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="56">
@@ -2437,11 +2628,8 @@
     <xf numFmtId="38" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="370">
+  <cellXfs count="377">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3064,6 +3252,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="28" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3409,6 +3618,9 @@
     </xf>
     <xf numFmtId="185" fontId="6" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="205" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -5212,213 +5424,213 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="32" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="27.33203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="12" style="6" customWidth="1"/>
-    <col min="7" max="7" width="12.58203125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="10.58203125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="12.75" style="6" customWidth="1"/>
-    <col min="10" max="10" width="12.08203125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="14.83203125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="14" style="6" customWidth="1"/>
-    <col min="13" max="13" width="15.75" style="6" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="12.83203125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.58203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="10.58203125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="5" customWidth="1"/>
+    <col min="10" max="10" width="12.08203125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="14" style="5" customWidth="1"/>
+    <col min="13" max="13" width="15.75" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="8" t="s">
+      <c r="G1" s="6"/>
+      <c r="H1" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="212" t="s">
+      <c r="A2" s="218" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="213" t="s">
+      <c r="B2" s="219" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="214" t="s">
+      <c r="C2" s="220" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="212" t="s">
+      <c r="D2" s="218" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="212" t="s">
+      <c r="E2" s="218" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="212"/>
-      <c r="G2" s="212"/>
-      <c r="H2" s="212"/>
-      <c r="I2" s="212"/>
+      <c r="F2" s="218"/>
+      <c r="G2" s="218"/>
+      <c r="H2" s="218"/>
+      <c r="I2" s="218"/>
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="212"/>
-      <c r="B3" s="212"/>
-      <c r="C3" s="215"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="9" t="s">
+      <c r="A3" s="218"/>
+      <c r="B3" s="218"/>
+      <c r="C3" s="221"/>
+      <c r="D3" s="218"/>
+      <c r="E3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="216" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="J4" s="16" t="str">
+      <c r="J4" s="15" t="str">
         <f>決済案内!D23</f>
         <v>$payPriceTax$</v>
       </c>
-      <c r="K4" s="17" t="e">
+      <c r="K4" s="16" t="e">
         <f>決済案内!D24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L4" s="1" t="e">
+      <c r="L4" s="217" t="e">
         <f>J4+K4</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M4" s="2"/>
+      <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="12"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="22"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="217"/>
+      <c r="M5" s="21"/>
     </row>
     <row r="6" spans="1:13" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="12"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="24"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="217"/>
+      <c r="M6" s="23"/>
     </row>
     <row r="7" spans="1:13" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="25"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="24"/>
-    </row>
-    <row r="8" spans="1:13" s="31" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="26"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="3" t="s">
+      <c r="A7" s="24"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="217"/>
+      <c r="M7" s="23"/>
+    </row>
+    <row r="8" spans="1:13" s="30" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="25"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="20">
         <f>SUM(J4:J7)</f>
         <v>0</v>
       </c>
-      <c r="K8" s="21" t="e">
+      <c r="K8" s="20" t="e">
         <f>SUM(K4:K7)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L8" s="1" t="e">
+      <c r="L8" s="217" t="e">
         <f>SUM(L4:L7)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M8" s="30"/>
+      <c r="M8" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5436,6 +5648,261 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C954CC3-2B0D-4040-BB15-531346743F8F}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M8"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="12.83203125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.58203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="10.58203125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="5" customWidth="1"/>
+    <col min="10" max="10" width="12.08203125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="14" style="5" customWidth="1"/>
+    <col min="13" max="13" width="15.75" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="6"/>
+      <c r="H1" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="218" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="219" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="220" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="218" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2" s="218" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="218"/>
+      <c r="G2" s="218"/>
+      <c r="H2" s="218"/>
+      <c r="I2" s="218"/>
+    </row>
+    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="218"/>
+      <c r="B3" s="218"/>
+      <c r="C3" s="221"/>
+      <c r="D3" s="218"/>
+      <c r="E3" s="211" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="211" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I3" s="211" t="s">
+        <v>107</v>
+      </c>
+      <c r="J3" s="211" t="s">
+        <v>82</v>
+      </c>
+      <c r="K3" s="211"/>
+      <c r="L3" s="216" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="211" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="211" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="E4" s="212" t="s">
+        <v>163</v>
+      </c>
+      <c r="F4" s="212" t="s">
+        <v>164</v>
+      </c>
+      <c r="G4" s="212" t="s">
+        <v>165</v>
+      </c>
+      <c r="H4" s="212" t="s">
+        <v>166</v>
+      </c>
+      <c r="I4" s="212" t="s">
+        <v>167</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="K4" s="16"/>
+      <c r="L4" s="217" t="e">
+        <f>J4+K4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" s="211" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E5" s="212" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" s="212" t="s">
+        <v>172</v>
+      </c>
+      <c r="G5" s="212" t="s">
+        <v>173</v>
+      </c>
+      <c r="H5" s="212" t="s">
+        <v>174</v>
+      </c>
+      <c r="I5" s="212" t="s">
+        <v>175</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="K5" s="16"/>
+      <c r="L5" s="217" t="e">
+        <f>J5+K5</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="11"/>
+      <c r="B6" s="211"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="211"/>
+      <c r="E6" s="212"/>
+      <c r="F6" s="211"/>
+      <c r="G6" s="211"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="217"/>
+      <c r="M6" s="23"/>
+    </row>
+    <row r="7" spans="1:13" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="24"/>
+      <c r="B7" s="211"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="211"/>
+      <c r="E7" s="212"/>
+      <c r="F7" s="211"/>
+      <c r="G7" s="211"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="217"/>
+      <c r="M7" s="23"/>
+    </row>
+    <row r="8" spans="1:13" s="30" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="25"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="20">
+        <f>SUM(J4:J7)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="20">
+        <f>SUM(K4:K7)</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="217" t="e">
+        <f>SUM(L4:L7)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M8" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="1.1417322834645669" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I43"/>
   <sheetViews>
@@ -5443,330 +5910,330 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="6.08203125" style="33" customWidth="1"/>
-    <col min="2" max="2" width="11" style="33" customWidth="1"/>
-    <col min="3" max="3" width="9" style="33"/>
-    <col min="4" max="4" width="11.5" style="33" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="33"/>
+    <col min="1" max="1" width="6.08203125" style="32" customWidth="1"/>
+    <col min="2" max="2" width="11" style="32" customWidth="1"/>
+    <col min="3" max="3" width="9" style="32"/>
+    <col min="4" max="4" width="11.5" style="32" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="H1" s="216" t="s">
+      <c r="H1" s="222" t="s">
         <v>111</v>
       </c>
-      <c r="I1" s="216"/>
+      <c r="I1" s="222"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="225" t="s">
+      <c r="B2" s="231" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="225"/>
-      <c r="D2" s="225"/>
-      <c r="E2" s="33" t="s">
+      <c r="C2" s="231"/>
+      <c r="D2" s="231"/>
+      <c r="E2" s="32" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="33" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="F4" s="34"/>
-      <c r="G4" s="216" t="s">
+      <c r="F4" s="33"/>
+      <c r="G4" s="222" t="s">
         <v>88</v>
       </c>
-      <c r="H4" s="216"/>
-      <c r="I4" s="216"/>
+      <c r="H4" s="222"/>
+      <c r="I4" s="222"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="G5" s="216" t="s">
+      <c r="G5" s="222" t="s">
         <v>71</v>
       </c>
-      <c r="H5" s="216"/>
-      <c r="I5" s="216"/>
+      <c r="H5" s="222"/>
+      <c r="I5" s="222"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="226" t="s">
+      <c r="H6" s="232" t="s">
         <v>72</v>
       </c>
-      <c r="I6" s="226"/>
+      <c r="I6" s="232"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="G7" s="216" t="s">
+      <c r="G7" s="222" t="s">
         <v>109</v>
       </c>
-      <c r="H7" s="216"/>
-      <c r="I7" s="216"/>
+      <c r="H7" s="222"/>
+      <c r="I7" s="222"/>
     </row>
     <row r="8" spans="2:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="9" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="221" t="s">
+      <c r="C9" s="227" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="222"/>
-      <c r="E9" s="222"/>
-      <c r="F9" s="223" t="s">
+      <c r="D9" s="228"/>
+      <c r="E9" s="228"/>
+      <c r="F9" s="229" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="223"/>
-      <c r="H9" s="223"/>
+      <c r="G9" s="229"/>
+      <c r="H9" s="229"/>
     </row>
     <row r="10" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="11" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36" t="s">
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="16" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="36" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="224" t="s">
+      <c r="B17" s="230" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="224"/>
-      <c r="D17" s="38" t="s">
+      <c r="C17" s="230"/>
+      <c r="D17" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="32" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="36" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="39"/>
+      <c r="B20" s="38"/>
     </row>
     <row r="21" spans="2:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="36" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="219" t="s">
+      <c r="B23" s="225" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="219"/>
-      <c r="D23" s="220" t="s">
+      <c r="C23" s="225"/>
+      <c r="D23" s="226" t="s">
         <v>160</v>
       </c>
-      <c r="E23" s="220"/>
-      <c r="F23" s="220"/>
-      <c r="G23" s="40" t="s">
+      <c r="E23" s="226"/>
+      <c r="F23" s="226"/>
+      <c r="G23" s="39" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="216" t="s">
+      <c r="B24" s="222" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="216"/>
-      <c r="D24" s="220" t="e">
+      <c r="C24" s="222"/>
+      <c r="D24" s="226" t="e">
         <f>固都税精算!I21</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E24" s="220"/>
-      <c r="F24" s="220"/>
-      <c r="G24" s="40" t="s">
+      <c r="E24" s="226"/>
+      <c r="F24" s="226"/>
+      <c r="G24" s="39" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="216" t="s">
+      <c r="B25" s="222" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="216"/>
-      <c r="D25" s="220" t="s">
+      <c r="C25" s="222"/>
+      <c r="D25" s="226" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="220"/>
-      <c r="F25" s="220"/>
-      <c r="G25" s="40" t="s">
+      <c r="E25" s="226"/>
+      <c r="F25" s="226"/>
+      <c r="G25" s="39" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="216" t="s">
+      <c r="B26" s="222" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="216"/>
-      <c r="D26" s="220" t="s">
+      <c r="C26" s="222"/>
+      <c r="D26" s="226" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="220"/>
-      <c r="F26" s="220"/>
-      <c r="G26" s="40" t="s">
+      <c r="E26" s="226"/>
+      <c r="F26" s="226"/>
+      <c r="G26" s="39" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="G27" s="40"/>
+      <c r="G27" s="39"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="216" t="s">
+      <c r="B28" s="222" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="216"/>
-      <c r="D28" s="217" t="e">
+      <c r="C28" s="222"/>
+      <c r="D28" s="223" t="e">
         <f>D23+D24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E28" s="217"/>
-      <c r="F28" s="217"/>
-      <c r="G28" s="40" t="s">
+      <c r="E28" s="223"/>
+      <c r="F28" s="223"/>
+      <c r="G28" s="39" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="36" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="216" t="s">
+      <c r="B31" s="222" t="s">
         <v>93</v>
       </c>
-      <c r="C31" s="216"/>
-      <c r="D31" s="216" t="s">
+      <c r="C31" s="222"/>
+      <c r="D31" s="222" t="s">
         <v>94</v>
       </c>
-      <c r="E31" s="216"/>
+      <c r="E31" s="222"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="216" t="s">
+      <c r="B32" s="222" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="216"/>
-      <c r="D32" s="216" t="s">
+      <c r="C32" s="222"/>
+      <c r="D32" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="E32" s="216"/>
+      <c r="E32" s="222"/>
     </row>
     <row r="33" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="218" t="s">
+      <c r="B33" s="224" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="216"/>
-      <c r="D33" s="216"/>
-      <c r="E33" s="33" t="s">
+      <c r="C33" s="222"/>
+      <c r="D33" s="222"/>
+      <c r="E33" s="32" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="36" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="35" t="s">
+      <c r="A36" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="32" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="32" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="35" t="s">
+      <c r="A38" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="33" t="s">
+      <c r="B38" s="32" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="35" t="s">
+      <c r="A39" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="33" t="s">
+      <c r="B39" s="32" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="35" t="s">
+      <c r="A40" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="32" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="35" t="s">
+      <c r="A41" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="33" t="s">
+      <c r="B41" s="32" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="35" t="s">
+      <c r="A42" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="33" t="s">
+      <c r="B42" s="32" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="35" t="s">
+      <c r="A43" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B43" s="33" t="s">
+      <c r="B43" s="32" t="s">
         <v>41</v>
       </c>
     </row>
@@ -5812,7 +6279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -5823,380 +6290,380 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="2.25" style="43" customWidth="1"/>
-    <col min="2" max="2" width="4.58203125" style="43" customWidth="1"/>
-    <col min="3" max="3" width="6.58203125" style="43" customWidth="1"/>
-    <col min="4" max="4" width="7.08203125" style="43" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" style="43" customWidth="1"/>
-    <col min="6" max="6" width="5" style="43" customWidth="1"/>
-    <col min="7" max="7" width="11.75" style="43" customWidth="1"/>
-    <col min="8" max="8" width="9.08203125" style="43" customWidth="1"/>
-    <col min="9" max="9" width="7" style="43" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.83203125" style="43" customWidth="1"/>
-    <col min="11" max="11" width="2.58203125" style="43" customWidth="1"/>
-    <col min="12" max="16384" width="8.58203125" style="43"/>
+    <col min="1" max="1" width="2.25" style="42" customWidth="1"/>
+    <col min="2" max="2" width="4.58203125" style="42" customWidth="1"/>
+    <col min="3" max="3" width="6.58203125" style="42" customWidth="1"/>
+    <col min="4" max="4" width="7.08203125" style="42" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" style="42" customWidth="1"/>
+    <col min="6" max="6" width="5" style="42" customWidth="1"/>
+    <col min="7" max="7" width="11.75" style="42" customWidth="1"/>
+    <col min="8" max="8" width="9.08203125" style="42" customWidth="1"/>
+    <col min="9" max="9" width="7" style="42" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.83203125" style="42" customWidth="1"/>
+    <col min="11" max="11" width="2.58203125" style="42" customWidth="1"/>
+    <col min="12" max="16384" width="8.58203125" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="41"/>
-      <c r="B1" s="231" t="s">
+      <c r="A1" s="40"/>
+      <c r="B1" s="237" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="231"/>
-      <c r="D1" s="231"/>
-      <c r="E1" s="231"/>
-      <c r="F1" s="231"/>
-      <c r="G1" s="231"/>
-      <c r="H1" s="231"/>
-      <c r="I1" s="231"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
+      <c r="C1" s="237"/>
+      <c r="D1" s="237"/>
+      <c r="E1" s="237"/>
+      <c r="F1" s="237"/>
+      <c r="G1" s="237"/>
+      <c r="H1" s="237"/>
+      <c r="I1" s="237"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="3" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="232" t="s">
+      <c r="B3" s="238" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="233"/>
-      <c r="D3" s="234" t="s">
+      <c r="C3" s="239"/>
+      <c r="D3" s="240" t="s">
         <v>98</v>
       </c>
-      <c r="E3" s="235"/>
-      <c r="F3" s="236"/>
-      <c r="G3" s="44" t="s">
+      <c r="E3" s="241"/>
+      <c r="F3" s="242"/>
+      <c r="G3" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="237" t="s">
+      <c r="H3" s="243" t="s">
         <v>113</v>
       </c>
-      <c r="I3" s="238"/>
-      <c r="J3" s="239"/>
-      <c r="K3" s="45"/>
+      <c r="I3" s="244"/>
+      <c r="J3" s="245"/>
+      <c r="K3" s="44"/>
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="240" t="s">
+      <c r="B4" s="246" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="241"/>
-      <c r="D4" s="242" t="s">
+      <c r="C4" s="247"/>
+      <c r="D4" s="248" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="243"/>
-      <c r="F4" s="244"/>
-      <c r="G4" s="46" t="s">
+      <c r="E4" s="249"/>
+      <c r="F4" s="250"/>
+      <c r="G4" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="245" t="s">
+      <c r="H4" s="251" t="s">
         <v>99</v>
       </c>
-      <c r="I4" s="246"/>
-      <c r="J4" s="247"/>
-      <c r="K4" s="47"/>
+      <c r="I4" s="252"/>
+      <c r="J4" s="253"/>
+      <c r="K4" s="46"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
     </row>
     <row r="6" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="266" t="s">
+      <c r="B6" s="272" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="269" t="s">
+      <c r="C6" s="43"/>
+      <c r="D6" s="275" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="270"/>
-      <c r="F6" s="269" t="s">
+      <c r="E6" s="276"/>
+      <c r="F6" s="275" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="271"/>
-      <c r="H6" s="269" t="s">
+      <c r="G6" s="277"/>
+      <c r="H6" s="275" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="271"/>
-      <c r="J6" s="272"/>
-      <c r="K6" s="49"/>
+      <c r="I6" s="277"/>
+      <c r="J6" s="278"/>
+      <c r="K6" s="48"/>
     </row>
     <row r="7" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="267"/>
-      <c r="C7" s="50" t="s">
+      <c r="B7" s="273"/>
+      <c r="C7" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="227" t="s">
+      <c r="D7" s="233" t="s">
         <v>114</v>
       </c>
-      <c r="E7" s="229"/>
-      <c r="F7" s="227" t="s">
+      <c r="E7" s="235"/>
+      <c r="F7" s="233" t="s">
         <v>115</v>
       </c>
-      <c r="G7" s="229"/>
-      <c r="H7" s="51" t="s">
+      <c r="G7" s="235"/>
+      <c r="H7" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="227" t="e">
+      <c r="I7" s="233" t="e">
         <f>D7+F7</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J7" s="228"/>
-      <c r="K7" s="52"/>
+      <c r="J7" s="234"/>
+      <c r="K7" s="51"/>
     </row>
     <row r="8" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="267"/>
-      <c r="C8" s="50" t="s">
+      <c r="B8" s="273"/>
+      <c r="C8" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="227" t="s">
+      <c r="D8" s="233" t="s">
         <v>120</v>
       </c>
-      <c r="E8" s="229"/>
-      <c r="F8" s="227" t="s">
+      <c r="E8" s="235"/>
+      <c r="F8" s="233" t="s">
         <v>121</v>
       </c>
-      <c r="G8" s="230"/>
-      <c r="H8" s="53" t="s">
+      <c r="G8" s="236"/>
+      <c r="H8" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="227" t="e">
+      <c r="I8" s="233" t="e">
         <f>D8+F8</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J8" s="228"/>
-      <c r="K8" s="52"/>
+      <c r="J8" s="234"/>
+      <c r="K8" s="51"/>
     </row>
     <row r="9" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="268"/>
-      <c r="C9" s="46" t="s">
+      <c r="B9" s="274"/>
+      <c r="C9" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="248">
+      <c r="D9" s="254">
         <f>SUM(D7:E8)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="249"/>
-      <c r="F9" s="248">
+      <c r="E9" s="255"/>
+      <c r="F9" s="254">
         <f>SUM(F7:G8)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="250"/>
-      <c r="H9" s="54" t="s">
+      <c r="G9" s="256"/>
+      <c r="H9" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="248">
+      <c r="I9" s="254">
         <f>D9+F9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="251"/>
-      <c r="K9" s="52"/>
+      <c r="J9" s="257"/>
+      <c r="K9" s="51"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
     </row>
     <row r="11" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="252" t="s">
+      <c r="B11" s="258" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="253"/>
-      <c r="D11" s="55" t="s">
+      <c r="C11" s="259"/>
+      <c r="D11" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="256" t="s">
+      <c r="E11" s="262" t="s">
         <v>116</v>
       </c>
-      <c r="F11" s="257"/>
-      <c r="G11" s="258" t="s">
+      <c r="F11" s="263"/>
+      <c r="G11" s="264" t="s">
         <v>117</v>
       </c>
-      <c r="H11" s="258"/>
-      <c r="I11" s="259" t="e">
+      <c r="H11" s="264"/>
+      <c r="I11" s="265" t="e">
         <f>G11-E11+1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J11" s="260"/>
-      <c r="K11" s="56"/>
+      <c r="J11" s="266"/>
+      <c r="K11" s="55"/>
     </row>
     <row r="12" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="254"/>
-      <c r="C12" s="255"/>
-      <c r="D12" s="57" t="s">
+      <c r="B12" s="260"/>
+      <c r="C12" s="261"/>
+      <c r="D12" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="261" t="s">
+      <c r="E12" s="267" t="s">
         <v>118</v>
       </c>
-      <c r="F12" s="262"/>
-      <c r="G12" s="263" t="s">
+      <c r="F12" s="268"/>
+      <c r="G12" s="269" t="s">
         <v>119</v>
       </c>
-      <c r="H12" s="263"/>
-      <c r="I12" s="264" t="e">
+      <c r="H12" s="269"/>
+      <c r="I12" s="270" t="e">
         <f>G12-E12+1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J12" s="265"/>
-      <c r="K12" s="56"/>
+      <c r="J12" s="271"/>
+      <c r="K12" s="55"/>
     </row>
     <row r="13" spans="1:11" ht="10" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="14" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="278" t="s">
+      <c r="B14" s="284" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="59" t="s">
+      <c r="C14" s="57"/>
+      <c r="D14" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="60" t="e">
+      <c r="E14" s="59" t="e">
         <f>I12</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F14" s="61" t="s">
+      <c r="F14" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="62" t="e">
+      <c r="G14" s="61" t="e">
         <f>I$11+I$12</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H14" s="281" t="s">
+      <c r="H14" s="287" t="s">
         <v>100</v>
       </c>
-      <c r="I14" s="281"/>
-      <c r="J14" s="282"/>
-      <c r="K14" s="63"/>
+      <c r="I14" s="287"/>
+      <c r="J14" s="288"/>
+      <c r="K14" s="62"/>
     </row>
     <row r="15" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="279"/>
-      <c r="C15" s="64" t="s">
+      <c r="B15" s="285"/>
+      <c r="C15" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="65" t="s">
+      <c r="D15" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="66" t="e">
+      <c r="E15" s="65" t="e">
         <f>I12</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F15" s="67" t="s">
+      <c r="F15" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="68" t="e">
+      <c r="G15" s="67" t="e">
         <f>I$11+I$12</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H15" s="283" t="s">
+      <c r="H15" s="289" t="s">
         <v>101</v>
       </c>
-      <c r="I15" s="283"/>
-      <c r="J15" s="284"/>
-      <c r="K15" s="63"/>
+      <c r="I15" s="289"/>
+      <c r="J15" s="290"/>
+      <c r="K15" s="62"/>
     </row>
     <row r="16" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="279"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="70" t="s">
+      <c r="B16" s="285"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="71"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="73" t="s">
+      <c r="E16" s="70"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="I16" s="285" t="e">
+      <c r="I16" s="291" t="e">
         <f>H14+H15</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J16" s="286"/>
-      <c r="K16" s="63"/>
+      <c r="J16" s="292"/>
+      <c r="K16" s="62"/>
     </row>
     <row r="17" spans="2:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="280"/>
-      <c r="C17" s="74" t="s">
+      <c r="B17" s="286"/>
+      <c r="C17" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="75"/>
-      <c r="E17" s="76" t="str">
+      <c r="D17" s="74"/>
+      <c r="E17" s="75" t="str">
         <f>H9</f>
         <v>（C）</v>
       </c>
-      <c r="F17" s="77" t="s">
+      <c r="F17" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="78" t="str">
+      <c r="G17" s="77" t="str">
         <f>H16</f>
         <v>（Ｄ）</v>
       </c>
-      <c r="H17" s="79"/>
-      <c r="I17" s="287" t="e">
+      <c r="H17" s="78"/>
+      <c r="I17" s="293" t="e">
         <f>I9-I16</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J17" s="288"/>
-      <c r="K17" s="63"/>
+      <c r="J17" s="294"/>
+      <c r="K17" s="62"/>
     </row>
     <row r="18" spans="2:11" ht="8.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="H18" s="80"/>
-      <c r="I18" s="80"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
     </row>
     <row r="19" spans="2:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="289" t="s">
+      <c r="B19" s="295" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="290"/>
-      <c r="D19" s="291"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="82" t="s">
+      <c r="C19" s="296"/>
+      <c r="D19" s="297"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="I19" s="292" t="s">
+      <c r="I19" s="298" t="s">
         <v>102</v>
       </c>
-      <c r="J19" s="293"/>
-      <c r="K19" s="63"/>
+      <c r="J19" s="299"/>
+      <c r="K19" s="62"/>
     </row>
     <row r="20" spans="2:11" ht="8.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="83"/>
-      <c r="C20" s="83"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="84"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="82"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="83"/>
     </row>
     <row r="21" spans="2:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="273" t="s">
+      <c r="B21" s="279" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="274"/>
-      <c r="D21" s="275"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="82" t="s">
+      <c r="C21" s="280"/>
+      <c r="D21" s="281"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="I21" s="276" t="e">
+      <c r="I21" s="282" t="e">
         <f>I16+I19</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J21" s="277"/>
-      <c r="K21" s="85"/>
+      <c r="J21" s="283"/>
+      <c r="K21" s="84"/>
     </row>
     <row r="22" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="83"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="36">
@@ -6245,7 +6712,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K25"/>
   <sheetViews>
@@ -6253,272 +6720,272 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="2.58203125" style="43" customWidth="1"/>
-    <col min="2" max="3" width="6.58203125" style="43" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="43" customWidth="1"/>
-    <col min="5" max="5" width="3.5" style="43" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.58203125" style="43" customWidth="1"/>
-    <col min="7" max="8" width="6.58203125" style="43" customWidth="1"/>
-    <col min="9" max="9" width="7" style="43" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.58203125" style="43" customWidth="1"/>
-    <col min="11" max="16384" width="8.58203125" style="43"/>
+    <col min="1" max="1" width="2.58203125" style="42" customWidth="1"/>
+    <col min="2" max="3" width="6.58203125" style="42" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="42" customWidth="1"/>
+    <col min="5" max="5" width="3.5" style="42" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.58203125" style="42" customWidth="1"/>
+    <col min="7" max="8" width="6.58203125" style="42" customWidth="1"/>
+    <col min="9" max="9" width="7" style="42" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.58203125" style="42" customWidth="1"/>
+    <col min="11" max="16384" width="8.58203125" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="87"/>
+      <c r="A1" s="86"/>
     </row>
     <row r="2" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="41"/>
-      <c r="B2" s="306" t="s">
+      <c r="A2" s="40"/>
+      <c r="B2" s="312" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="306"/>
-      <c r="D2" s="306"/>
-      <c r="E2" s="306"/>
-      <c r="F2" s="306"/>
-      <c r="G2" s="306"/>
-      <c r="H2" s="306"/>
-      <c r="I2" s="306"/>
-      <c r="J2" s="42"/>
+      <c r="C2" s="312"/>
+      <c r="D2" s="312"/>
+      <c r="E2" s="312"/>
+      <c r="F2" s="312"/>
+      <c r="G2" s="312"/>
+      <c r="H2" s="312"/>
+      <c r="I2" s="312"/>
+      <c r="J2" s="41"/>
     </row>
     <row r="3" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="4" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="102"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="101"/>
     </row>
     <row r="5" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="307" t="s">
+      <c r="B5" s="313" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="307"/>
-      <c r="D5" s="307"/>
-      <c r="E5" s="307"/>
-      <c r="F5" s="89" t="s">
+      <c r="C5" s="313"/>
+      <c r="D5" s="313"/>
+      <c r="E5" s="313"/>
+      <c r="F5" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="103"/>
+      <c r="I5" s="102"/>
     </row>
     <row r="6" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" s="308" t="e">
+      <c r="D7" s="314" t="e">
         <f>G13+G14</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E7" s="309"/>
-      <c r="F7" s="309"/>
-      <c r="G7" s="309"/>
-      <c r="H7" s="310"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="90"/>
+      <c r="E7" s="315"/>
+      <c r="F7" s="315"/>
+      <c r="G7" s="315"/>
+      <c r="H7" s="316"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="89"/>
     </row>
     <row r="8" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E8" s="91"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="90"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E9" s="91"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="89"/>
     </row>
     <row r="10" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="311" t="s">
+      <c r="B10" s="317" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="312"/>
-      <c r="D10" s="313" t="s">
+      <c r="C10" s="318"/>
+      <c r="D10" s="319" t="s">
         <v>158</v>
       </c>
-      <c r="E10" s="314"/>
-      <c r="F10" s="314"/>
-      <c r="G10" s="314"/>
-      <c r="H10" s="314"/>
-      <c r="I10" s="315"/>
-      <c r="J10" s="90"/>
+      <c r="E10" s="320"/>
+      <c r="F10" s="320"/>
+      <c r="G10" s="320"/>
+      <c r="H10" s="320"/>
+      <c r="I10" s="321"/>
+      <c r="J10" s="89"/>
     </row>
     <row r="11" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="J11" s="94"/>
+      <c r="J11" s="93"/>
     </row>
     <row r="12" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="294" t="s">
+      <c r="B12" s="300" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="295"/>
-      <c r="D12" s="295"/>
-      <c r="E12" s="295"/>
-      <c r="F12" s="295"/>
-      <c r="G12" s="295" t="s">
+      <c r="C12" s="301"/>
+      <c r="D12" s="301"/>
+      <c r="E12" s="301"/>
+      <c r="F12" s="301"/>
+      <c r="G12" s="301" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="295"/>
-      <c r="I12" s="296"/>
-      <c r="J12" s="94"/>
+      <c r="H12" s="301"/>
+      <c r="I12" s="302"/>
+      <c r="J12" s="93"/>
     </row>
     <row r="13" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="297" t="s">
+      <c r="B13" s="303" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="298"/>
-      <c r="D13" s="298"/>
-      <c r="E13" s="298"/>
-      <c r="F13" s="299"/>
-      <c r="G13" s="300" t="str">
+      <c r="C13" s="304"/>
+      <c r="D13" s="304"/>
+      <c r="E13" s="304"/>
+      <c r="F13" s="305"/>
+      <c r="G13" s="306" t="str">
         <f>決済案内!D23</f>
         <v>$payPriceTax$</v>
       </c>
-      <c r="H13" s="301"/>
-      <c r="I13" s="302"/>
-      <c r="J13" s="94"/>
+      <c r="H13" s="307"/>
+      <c r="I13" s="308"/>
+      <c r="J13" s="93"/>
     </row>
     <row r="14" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="303" t="s">
+      <c r="B14" s="309" t="s">
         <v>123</v>
       </c>
-      <c r="C14" s="304"/>
-      <c r="D14" s="304"/>
-      <c r="E14" s="304"/>
-      <c r="F14" s="305"/>
-      <c r="G14" s="300" t="e">
+      <c r="C14" s="310"/>
+      <c r="D14" s="310"/>
+      <c r="E14" s="310"/>
+      <c r="F14" s="311"/>
+      <c r="G14" s="306" t="e">
         <f>固都税精算!I21</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H14" s="301"/>
-      <c r="I14" s="302"/>
-      <c r="J14" s="94"/>
+      <c r="H14" s="307"/>
+      <c r="I14" s="308"/>
+      <c r="J14" s="93"/>
     </row>
     <row r="15" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="324" t="s">
+      <c r="B15" s="330" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="325"/>
-      <c r="D15" s="325"/>
-      <c r="E15" s="325"/>
-      <c r="F15" s="326"/>
-      <c r="G15" s="316"/>
-      <c r="H15" s="317"/>
-      <c r="I15" s="318"/>
-      <c r="K15" s="43" t="s">
+      <c r="C15" s="331"/>
+      <c r="D15" s="331"/>
+      <c r="E15" s="331"/>
+      <c r="F15" s="332"/>
+      <c r="G15" s="322"/>
+      <c r="H15" s="323"/>
+      <c r="I15" s="324"/>
+      <c r="K15" s="42" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="95"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="97"/>
-      <c r="K16" s="43" t="s">
+      <c r="B16" s="94"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="96"/>
+      <c r="K16" s="42" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="323" t="s">
+      <c r="B17" s="329" t="s">
         <v>113</v>
       </c>
-      <c r="C17" s="323"/>
-      <c r="D17" s="104" t="s">
+      <c r="C17" s="329"/>
+      <c r="D17" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="90"/>
-      <c r="K17" s="43" t="s">
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="89"/>
+      <c r="K17" s="42" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="18" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="105"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="105"/>
-      <c r="K18" s="43" t="s">
+      <c r="B18" s="104"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="104"/>
+      <c r="K18" s="42" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C19" s="319" t="s">
+      <c r="C19" s="325" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="98"/>
-      <c r="E19" s="99" t="s">
+      <c r="D19" s="97"/>
+      <c r="E19" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="255"/>
-      <c r="G19" s="255"/>
-      <c r="H19" s="255"/>
-      <c r="I19" s="255"/>
-      <c r="J19" s="255"/>
+      <c r="F19" s="261"/>
+      <c r="G19" s="261"/>
+      <c r="H19" s="261"/>
+      <c r="I19" s="261"/>
+      <c r="J19" s="261"/>
     </row>
     <row r="20" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C20" s="320"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="321"/>
-      <c r="G20" s="321"/>
-      <c r="H20" s="321"/>
-      <c r="I20" s="321"/>
+      <c r="C20" s="326"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="327"/>
+      <c r="G20" s="327"/>
+      <c r="H20" s="327"/>
+      <c r="I20" s="327"/>
     </row>
     <row r="21" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E21" s="99" t="s">
+      <c r="E21" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="322" t="s">
+      <c r="F21" s="328" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="322"/>
-      <c r="H21" s="322"/>
-      <c r="I21" s="322"/>
-      <c r="J21" s="322"/>
+      <c r="G21" s="328"/>
+      <c r="H21" s="328"/>
+      <c r="I21" s="328"/>
+      <c r="J21" s="328"/>
     </row>
     <row r="22" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E22" s="99"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="106"/>
-      <c r="J22" s="106"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="105"/>
+      <c r="J22" s="105"/>
     </row>
     <row r="23" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E23" s="99"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="107"/>
-      <c r="H23" s="107"/>
-      <c r="I23" s="107"/>
-      <c r="J23" s="107"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="106"/>
+      <c r="I23" s="106"/>
+      <c r="J23" s="106"/>
     </row>
     <row r="24" spans="2:11" ht="12" x14ac:dyDescent="0.55000000000000004">
-      <c r="F24" s="107"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="107"/>
-      <c r="I24" s="107"/>
-      <c r="J24" s="107"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="106"/>
+      <c r="H24" s="106"/>
+      <c r="I24" s="106"/>
+      <c r="J24" s="106"/>
     </row>
     <row r="25" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="100" t="s">
+      <c r="B25" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="101"/>
+      <c r="F25" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -6549,7 +7016,320 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA614EDA-8493-4D8E-A4D3-9A7748D9A46A}">
+  <dimension ref="A1:P25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="2.58203125" style="42" customWidth="1"/>
+    <col min="2" max="3" width="6.58203125" style="42" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="42" customWidth="1"/>
+    <col min="5" max="5" width="3.5" style="42" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.58203125" style="42" customWidth="1"/>
+    <col min="7" max="8" width="6.58203125" style="42" customWidth="1"/>
+    <col min="9" max="9" width="7" style="42" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.58203125" style="42" customWidth="1"/>
+    <col min="11" max="11" width="8.58203125" style="42"/>
+    <col min="12" max="12" width="8.58203125" style="42" customWidth="1"/>
+    <col min="13" max="16384" width="8.58203125" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="86"/>
+    </row>
+    <row r="2" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="40"/>
+      <c r="B2" s="312" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="312"/>
+      <c r="D2" s="312"/>
+      <c r="E2" s="312"/>
+      <c r="F2" s="312"/>
+      <c r="G2" s="312"/>
+      <c r="H2" s="312"/>
+      <c r="I2" s="312"/>
+      <c r="J2" s="213"/>
+    </row>
+    <row r="3" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="4" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="101"/>
+    </row>
+    <row r="5" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="313" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="313"/>
+      <c r="D5" s="313"/>
+      <c r="E5" s="313"/>
+      <c r="F5" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="102"/>
+    </row>
+    <row r="6" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" s="314" t="e">
+        <f>G13+G14</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E7" s="315"/>
+      <c r="F7" s="315"/>
+      <c r="G7" s="315"/>
+      <c r="H7" s="316"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="89"/>
+    </row>
+    <row r="8" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E8" s="90"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+    </row>
+    <row r="9" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E9" s="90"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="89"/>
+    </row>
+    <row r="10" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="317" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="318"/>
+      <c r="D10" s="319" t="s">
+        <v>158</v>
+      </c>
+      <c r="E10" s="320"/>
+      <c r="F10" s="320"/>
+      <c r="G10" s="320"/>
+      <c r="H10" s="320"/>
+      <c r="I10" s="321"/>
+      <c r="J10" s="89"/>
+    </row>
+    <row r="11" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J11" s="93"/>
+    </row>
+    <row r="12" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="300" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="301"/>
+      <c r="D12" s="301"/>
+      <c r="E12" s="301"/>
+      <c r="F12" s="301"/>
+      <c r="G12" s="301" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="301"/>
+      <c r="I12" s="302"/>
+      <c r="J12" s="93"/>
+    </row>
+    <row r="13" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="303" t="s">
+        <v>179</v>
+      </c>
+      <c r="C13" s="304"/>
+      <c r="D13" s="304"/>
+      <c r="E13" s="304"/>
+      <c r="F13" s="305"/>
+      <c r="G13" s="306" t="str">
+        <f>支払依頼書帳票!J5</f>
+        <v>$payPriceTax_outsourcing$</v>
+      </c>
+      <c r="H13" s="307"/>
+      <c r="I13" s="308"/>
+      <c r="J13" s="93"/>
+    </row>
+    <row r="14" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="309" t="s">
+        <v>180</v>
+      </c>
+      <c r="C14" s="310"/>
+      <c r="D14" s="310"/>
+      <c r="E14" s="310"/>
+      <c r="F14" s="311"/>
+      <c r="G14" s="306"/>
+      <c r="H14" s="307"/>
+      <c r="I14" s="308"/>
+      <c r="J14" s="93"/>
+      <c r="L14" s="333">
+        <v>8250000</v>
+      </c>
+      <c r="M14" s="333"/>
+      <c r="N14" s="333"/>
+      <c r="O14" s="333"/>
+      <c r="P14" s="333"/>
+    </row>
+    <row r="15" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="330"/>
+      <c r="C15" s="331"/>
+      <c r="D15" s="331"/>
+      <c r="E15" s="331"/>
+      <c r="F15" s="332"/>
+      <c r="G15" s="322"/>
+      <c r="H15" s="323"/>
+      <c r="I15" s="324"/>
+      <c r="L15" s="215" t="s">
+        <v>181</v>
+      </c>
+      <c r="M15" s="215"/>
+      <c r="N15" s="215"/>
+    </row>
+    <row r="16" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="214"/>
+      <c r="C16" s="214"/>
+      <c r="D16" s="214"/>
+      <c r="E16" s="214"/>
+      <c r="F16" s="214"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="96"/>
+      <c r="L16" s="215" t="s">
+        <v>182</v>
+      </c>
+      <c r="M16" s="215"/>
+      <c r="N16" s="215"/>
+    </row>
+    <row r="17" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="329" t="str">
+        <f>支払依頼書帳票!H1</f>
+        <v>$contractFixDay_dt_kanji_intermediary$</v>
+      </c>
+      <c r="C17" s="329"/>
+      <c r="D17" s="103" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="89"/>
+      <c r="L17" s="215" t="s">
+        <v>183</v>
+      </c>
+      <c r="M17" s="215"/>
+      <c r="N17" s="215"/>
+    </row>
+    <row r="18" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="104"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="104"/>
+      <c r="L18" s="215" t="s">
+        <v>184</v>
+      </c>
+      <c r="M18" s="215"/>
+      <c r="N18" s="215"/>
+    </row>
+    <row r="19" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D19" s="97"/>
+      <c r="E19" s="98" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="261"/>
+      <c r="G19" s="261"/>
+      <c r="H19" s="261"/>
+      <c r="I19" s="261"/>
+      <c r="J19" s="261"/>
+    </row>
+    <row r="20" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D20" s="97"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="327"/>
+      <c r="G20" s="327"/>
+      <c r="H20" s="327"/>
+      <c r="I20" s="327"/>
+    </row>
+    <row r="21" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E21" s="98" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="328" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="328"/>
+      <c r="H21" s="328"/>
+      <c r="I21" s="328"/>
+      <c r="J21" s="328"/>
+    </row>
+    <row r="22" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E22" s="98"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="105"/>
+      <c r="J22" s="105"/>
+    </row>
+    <row r="23" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E23" s="98"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="106"/>
+      <c r="I23" s="106"/>
+      <c r="J23" s="106"/>
+    </row>
+    <row r="24" spans="2:14" ht="12" x14ac:dyDescent="0.55000000000000004">
+      <c r="F24" s="106"/>
+      <c r="G24" s="106"/>
+      <c r="H24" s="106"/>
+      <c r="I24" s="106"/>
+      <c r="J24" s="106"/>
+    </row>
+    <row r="25" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="99" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="100"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="L14:P14"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.78740157480314965" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="110" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C237738-5F1B-4E48-B767-B31D9052324F}">
   <dimension ref="A1:O42"/>
   <sheetViews>
@@ -6557,711 +7337,711 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="1.75" style="109" customWidth="1"/>
-    <col min="2" max="2" width="17" style="109" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="109" customWidth="1"/>
-    <col min="4" max="4" width="15" style="109" customWidth="1"/>
-    <col min="5" max="5" width="4.25" style="109" customWidth="1"/>
-    <col min="6" max="6" width="12.08203125" style="109" customWidth="1"/>
-    <col min="7" max="7" width="6.25" style="109" customWidth="1"/>
-    <col min="8" max="8" width="6.5" style="109" customWidth="1"/>
-    <col min="9" max="9" width="7.25" style="109" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.25" style="109" customWidth="1"/>
-    <col min="11" max="11" width="13.5" style="109" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.83203125" style="109" customWidth="1"/>
-    <col min="13" max="14" width="15.33203125" style="109" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.75" style="109" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.58203125" style="109"/>
+    <col min="1" max="1" width="1.75" style="108" customWidth="1"/>
+    <col min="2" max="2" width="17" style="108" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="108" customWidth="1"/>
+    <col min="4" max="4" width="15" style="108" customWidth="1"/>
+    <col min="5" max="5" width="4.25" style="108" customWidth="1"/>
+    <col min="6" max="6" width="12.08203125" style="108" customWidth="1"/>
+    <col min="7" max="7" width="6.25" style="108" customWidth="1"/>
+    <col min="8" max="8" width="6.5" style="108" customWidth="1"/>
+    <col min="9" max="9" width="7.25" style="108" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.25" style="108" customWidth="1"/>
+    <col min="11" max="11" width="13.5" style="108" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.83203125" style="108" customWidth="1"/>
+    <col min="13" max="14" width="15.33203125" style="108" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.75" style="108" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.58203125" style="108"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="6.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="108"/>
-      <c r="M1" s="211"/>
-      <c r="N1" s="211"/>
-      <c r="O1" s="211"/>
+      <c r="A1" s="107"/>
+      <c r="M1" s="210"/>
+      <c r="N1" s="210"/>
+      <c r="O1" s="210"/>
     </row>
     <row r="2" spans="1:15" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="110"/>
-      <c r="B2" s="364" t="s">
+      <c r="A2" s="109"/>
+      <c r="B2" s="371" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="364"/>
-      <c r="D2" s="364"/>
-      <c r="E2" s="364"/>
-      <c r="F2" s="364"/>
-      <c r="G2" s="364"/>
-      <c r="H2" s="364"/>
-      <c r="I2" s="364"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="210"/>
-      <c r="N2" s="210"/>
-      <c r="O2" s="210"/>
+      <c r="C2" s="371"/>
+      <c r="D2" s="371"/>
+      <c r="E2" s="371"/>
+      <c r="F2" s="371"/>
+      <c r="G2" s="371"/>
+      <c r="H2" s="371"/>
+      <c r="I2" s="371"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="209"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="209"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
     </row>
     <row r="4" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="114" t="s">
+      <c r="B4" s="113" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="365"/>
-      <c r="D4" s="366"/>
-      <c r="E4" s="367"/>
-      <c r="F4" s="115" t="s">
+      <c r="C4" s="372"/>
+      <c r="D4" s="373"/>
+      <c r="E4" s="374"/>
+      <c r="F4" s="114" t="s">
         <v>129</v>
       </c>
-      <c r="G4" s="368">
+      <c r="G4" s="375">
         <v>43983</v>
       </c>
-      <c r="H4" s="368"/>
-      <c r="I4" s="369"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="117"/>
-      <c r="L4" s="117"/>
-      <c r="M4" s="118" t="s">
+      <c r="H4" s="375"/>
+      <c r="I4" s="376"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="118" t="s">
+      <c r="N4" s="117" t="s">
         <v>130</v>
       </c>
-      <c r="O4" s="118" t="s">
+      <c r="O4" s="117" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="119" t="s">
+      <c r="B5" s="118" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="360"/>
-      <c r="D5" s="361"/>
-      <c r="E5" s="361"/>
-      <c r="F5" s="120" t="s">
+      <c r="C5" s="367"/>
+      <c r="D5" s="368"/>
+      <c r="E5" s="368"/>
+      <c r="F5" s="119" t="s">
         <v>133</v>
       </c>
-      <c r="G5" s="362" t="s">
+      <c r="G5" s="369" t="s">
         <v>134</v>
       </c>
-      <c r="H5" s="362"/>
-      <c r="I5" s="363"/>
-      <c r="J5" s="116"/>
-      <c r="M5" s="121">
+      <c r="H5" s="369"/>
+      <c r="I5" s="370"/>
+      <c r="J5" s="115"/>
+      <c r="M5" s="120">
         <v>43516</v>
       </c>
-      <c r="N5" s="122">
+      <c r="N5" s="121">
         <v>43890</v>
       </c>
-      <c r="O5" s="123">
+      <c r="O5" s="122">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="125" t="s">
+      <c r="B6" s="124" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="126"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="127"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="116"/>
-      <c r="M6" s="121"/>
-      <c r="N6" s="128"/>
-      <c r="O6" s="129"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="M6" s="120"/>
+      <c r="N6" s="127"/>
+      <c r="O6" s="128"/>
     </row>
     <row r="7" spans="1:15" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="130"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="127"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="116"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="116"/>
-      <c r="M7" s="121"/>
-      <c r="N7" s="128"/>
-      <c r="O7" s="129"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="M7" s="120"/>
+      <c r="N7" s="127"/>
+      <c r="O7" s="128"/>
     </row>
     <row r="8" spans="1:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="127"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="127"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="116"/>
-      <c r="M8" s="121"/>
-      <c r="N8" s="128"/>
-      <c r="O8" s="129"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="M8" s="120"/>
+      <c r="N8" s="127"/>
+      <c r="O8" s="128"/>
     </row>
     <row r="9" spans="1:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="127"/>
-      <c r="C9" s="126"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="127"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="M9" s="121"/>
-      <c r="N9" s="128"/>
-      <c r="O9" s="129"/>
+      <c r="B9" s="126"/>
+      <c r="C9" s="125"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="115"/>
+      <c r="M9" s="120"/>
+      <c r="N9" s="127"/>
+      <c r="O9" s="128"/>
     </row>
     <row r="10" spans="1:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="127"/>
-      <c r="C10" s="126"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
-      <c r="M10" s="121"/>
-      <c r="N10" s="128"/>
-      <c r="O10" s="129"/>
+      <c r="B10" s="126"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="115"/>
+      <c r="M10" s="120"/>
+      <c r="N10" s="127"/>
+      <c r="O10" s="128"/>
     </row>
     <row r="11" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="131" t="s">
+      <c r="B11" s="130" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="337"/>
-      <c r="D11" s="337"/>
-      <c r="E11" s="337"/>
-      <c r="F11" s="127" t="s">
+      <c r="C11" s="344"/>
+      <c r="D11" s="344"/>
+      <c r="E11" s="344"/>
+      <c r="F11" s="126" t="s">
         <v>137</v>
       </c>
-      <c r="G11" s="112"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="112"/>
-      <c r="M11" s="118" t="s">
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="111"/>
+      <c r="M11" s="117" t="s">
         <v>138</v>
       </c>
-      <c r="N11" s="132"/>
-      <c r="O11" s="132"/>
+      <c r="N11" s="131"/>
+      <c r="O11" s="131"/>
     </row>
     <row r="12" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="112" t="s">
+      <c r="B12" s="111" t="s">
         <v>139</v>
       </c>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="112"/>
-      <c r="H12" s="112"/>
-      <c r="I12" s="112"/>
-      <c r="J12" s="112"/>
-      <c r="M12" s="118" t="s">
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
+      <c r="M12" s="117" t="s">
         <v>138</v>
       </c>
-      <c r="N12" s="132"/>
-      <c r="O12" s="132"/>
+      <c r="N12" s="131"/>
+      <c r="O12" s="131"/>
     </row>
     <row r="13" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="131" t="s">
+      <c r="B13" s="130" t="s">
         <v>140</v>
       </c>
-      <c r="C13" s="338" t="s">
+      <c r="C13" s="345" t="s">
         <v>141</v>
       </c>
-      <c r="D13" s="339"/>
-      <c r="E13" s="340" t="s">
+      <c r="D13" s="346"/>
+      <c r="E13" s="347" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="341"/>
-      <c r="G13" s="342"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="112"/>
-      <c r="K13" s="135">
+      <c r="F13" s="348"/>
+      <c r="G13" s="349"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="134">
         <v>6</v>
       </c>
-      <c r="L13" s="132"/>
-      <c r="M13" s="132"/>
-      <c r="N13" s="133"/>
-      <c r="O13" s="134"/>
+      <c r="L13" s="131"/>
+      <c r="M13" s="131"/>
+      <c r="N13" s="132"/>
+      <c r="O13" s="133"/>
     </row>
     <row r="14" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="136" t="s">
+      <c r="B14" s="135" t="s">
         <v>142</v>
       </c>
-      <c r="C14" s="343"/>
-      <c r="D14" s="344"/>
-      <c r="E14" s="345">
+      <c r="C14" s="350"/>
+      <c r="D14" s="351"/>
+      <c r="E14" s="352">
         <f>SUM(C14:D14)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="346"/>
-      <c r="G14" s="347"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="127"/>
-      <c r="J14" s="127"/>
-      <c r="K14" s="137"/>
-      <c r="L14" s="138"/>
-      <c r="M14" s="138"/>
+      <c r="F14" s="353"/>
+      <c r="G14" s="354"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="126"/>
+      <c r="J14" s="126"/>
+      <c r="K14" s="136"/>
+      <c r="L14" s="137"/>
+      <c r="M14" s="137"/>
     </row>
     <row r="15" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="131" t="s">
+      <c r="B15" s="130" t="s">
         <v>143</v>
       </c>
-      <c r="C15" s="139"/>
-      <c r="D15" s="140">
+      <c r="C15" s="138"/>
+      <c r="D15" s="139">
         <f>SUM(C14:D14)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="348">
+      <c r="E15" s="355">
         <f>SUM(C15:D15)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="349"/>
-      <c r="G15" s="350"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="127"/>
-      <c r="J15" s="127"/>
-      <c r="K15" s="141"/>
-      <c r="L15" s="142"/>
+      <c r="F15" s="356"/>
+      <c r="G15" s="357"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="126"/>
+      <c r="J15" s="126"/>
+      <c r="K15" s="140"/>
+      <c r="L15" s="141"/>
     </row>
     <row r="16" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="143" t="str">
+      <c r="B16" s="142" t="str">
         <f>""&amp;K13&amp;"月分賃料"</f>
         <v>6月分賃料</v>
       </c>
-      <c r="C16" s="144"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="145"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="147"/>
-      <c r="I16" s="147"/>
-      <c r="J16" s="148"/>
-      <c r="K16" s="142"/>
-      <c r="L16" s="142"/>
-      <c r="N16" s="149"/>
-      <c r="O16" s="137"/>
+      <c r="C16" s="143"/>
+      <c r="D16" s="143"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="145"/>
+      <c r="G16" s="145"/>
+      <c r="H16" s="146"/>
+      <c r="I16" s="146"/>
+      <c r="J16" s="147"/>
+      <c r="K16" s="141"/>
+      <c r="L16" s="141"/>
+      <c r="N16" s="148"/>
+      <c r="O16" s="136"/>
     </row>
     <row r="17" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="150" t="s">
+      <c r="B17" s="149" t="s">
         <v>144</v>
       </c>
-      <c r="C17" s="151"/>
-      <c r="D17" s="351">
+      <c r="C17" s="150"/>
+      <c r="D17" s="358">
         <v>43983</v>
       </c>
-      <c r="E17" s="351"/>
-      <c r="F17" s="352">
+      <c r="E17" s="358"/>
+      <c r="F17" s="359">
         <v>43983</v>
       </c>
-      <c r="G17" s="352"/>
-      <c r="H17" s="352"/>
-      <c r="I17" s="152"/>
-      <c r="J17" s="153"/>
-      <c r="K17" s="142"/>
-      <c r="L17" s="142"/>
-      <c r="N17" s="138"/>
-      <c r="O17" s="138"/>
+      <c r="G17" s="359"/>
+      <c r="H17" s="359"/>
+      <c r="I17" s="151"/>
+      <c r="J17" s="152"/>
+      <c r="K17" s="141"/>
+      <c r="L17" s="141"/>
+      <c r="N17" s="137"/>
+      <c r="O17" s="137"/>
     </row>
     <row r="18" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="154" t="s">
+      <c r="B18" s="153" t="s">
         <v>145</v>
       </c>
-      <c r="C18" s="155"/>
-      <c r="D18" s="156">
+      <c r="C18" s="154"/>
+      <c r="D18" s="155">
         <v>1</v>
       </c>
-      <c r="E18" s="157" t="s">
+      <c r="E18" s="156" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="158">
+      <c r="F18" s="157">
         <v>30</v>
       </c>
-      <c r="G18" s="159"/>
-      <c r="H18" s="353"/>
-      <c r="I18" s="354"/>
-      <c r="L18" s="142"/>
-      <c r="N18" s="160"/>
-      <c r="O18" s="160"/>
+      <c r="G18" s="158"/>
+      <c r="H18" s="360"/>
+      <c r="I18" s="361"/>
+      <c r="L18" s="141"/>
+      <c r="N18" s="159"/>
+      <c r="O18" s="159"/>
     </row>
     <row r="19" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="161" t="s">
+      <c r="B19" s="160" t="s">
         <v>146</v>
       </c>
-      <c r="C19" s="162"/>
-      <c r="D19" s="163">
+      <c r="C19" s="161"/>
+      <c r="D19" s="162">
         <v>29</v>
       </c>
-      <c r="E19" s="164" t="s">
+      <c r="E19" s="163" t="s">
         <v>61</v>
       </c>
-      <c r="F19" s="165">
+      <c r="F19" s="164">
         <v>30</v>
       </c>
-      <c r="G19" s="166"/>
-      <c r="H19" s="355"/>
-      <c r="I19" s="356"/>
-      <c r="J19" s="127" t="s">
+      <c r="G19" s="165"/>
+      <c r="H19" s="362"/>
+      <c r="I19" s="363"/>
+      <c r="J19" s="126" t="s">
         <v>147</v>
       </c>
-      <c r="L19" s="142"/>
-      <c r="N19" s="160"/>
-      <c r="O19" s="160"/>
+      <c r="L19" s="141"/>
+      <c r="N19" s="159"/>
+      <c r="O19" s="159"/>
     </row>
     <row r="20" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="125"/>
-      <c r="C20" s="167"/>
-      <c r="D20" s="168"/>
-      <c r="E20" s="127"/>
-      <c r="F20" s="169"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="170"/>
-      <c r="I20" s="171"/>
-      <c r="J20" s="171"/>
-      <c r="K20" s="172"/>
-      <c r="L20" s="142"/>
-      <c r="N20" s="173"/>
-      <c r="O20" s="173"/>
+      <c r="B20" s="124"/>
+      <c r="C20" s="166"/>
+      <c r="D20" s="167"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="168"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="169"/>
+      <c r="I20" s="170"/>
+      <c r="J20" s="170"/>
+      <c r="K20" s="171"/>
+      <c r="L20" s="141"/>
+      <c r="N20" s="172"/>
+      <c r="O20" s="172"/>
     </row>
     <row r="21" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="357" t="s">
+      <c r="B21" s="364" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="358"/>
-      <c r="D21" s="358"/>
-      <c r="E21" s="358"/>
-      <c r="F21" s="358"/>
-      <c r="G21" s="358"/>
-      <c r="H21" s="358"/>
-      <c r="I21" s="359"/>
-      <c r="J21" s="174"/>
-      <c r="K21" s="175"/>
-      <c r="L21" s="142"/>
-      <c r="N21" s="173"/>
-      <c r="O21" s="173"/>
+      <c r="C21" s="365"/>
+      <c r="D21" s="365"/>
+      <c r="E21" s="365"/>
+      <c r="F21" s="365"/>
+      <c r="G21" s="365"/>
+      <c r="H21" s="365"/>
+      <c r="I21" s="366"/>
+      <c r="J21" s="173"/>
+      <c r="K21" s="174"/>
+      <c r="L21" s="141"/>
+      <c r="N21" s="172"/>
+      <c r="O21" s="172"/>
     </row>
     <row r="22" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="154" t="s">
+      <c r="B22" s="153" t="s">
         <v>149</v>
       </c>
-      <c r="C22" s="155"/>
-      <c r="D22" s="176" t="s">
+      <c r="C22" s="154"/>
+      <c r="D22" s="175" t="s">
         <v>150</v>
       </c>
-      <c r="E22" s="157"/>
-      <c r="F22" s="177"/>
-      <c r="G22" s="178"/>
-      <c r="H22" s="335">
+      <c r="E22" s="156"/>
+      <c r="F22" s="176"/>
+      <c r="G22" s="177"/>
+      <c r="H22" s="342">
         <f>C11+H19</f>
         <v>0</v>
       </c>
-      <c r="I22" s="336"/>
-      <c r="J22" s="171"/>
-      <c r="K22" s="175"/>
-      <c r="L22" s="142"/>
-      <c r="N22" s="173"/>
-      <c r="O22" s="173"/>
+      <c r="I22" s="343"/>
+      <c r="J22" s="170"/>
+      <c r="K22" s="174"/>
+      <c r="L22" s="141"/>
+      <c r="N22" s="172"/>
+      <c r="O22" s="172"/>
     </row>
     <row r="23" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="179"/>
-      <c r="C23" s="180"/>
-      <c r="D23" s="181"/>
-      <c r="E23" s="182"/>
-      <c r="F23" s="183"/>
-      <c r="G23" s="184"/>
-      <c r="H23" s="185"/>
-      <c r="I23" s="186"/>
-      <c r="J23" s="171"/>
-      <c r="K23" s="175"/>
-      <c r="L23" s="175"/>
-      <c r="M23" s="175"/>
-      <c r="N23" s="173"/>
-      <c r="O23" s="173"/>
+      <c r="B23" s="178"/>
+      <c r="C23" s="179"/>
+      <c r="D23" s="180"/>
+      <c r="E23" s="181"/>
+      <c r="F23" s="182"/>
+      <c r="G23" s="183"/>
+      <c r="H23" s="184"/>
+      <c r="I23" s="185"/>
+      <c r="J23" s="170"/>
+      <c r="K23" s="174"/>
+      <c r="L23" s="174"/>
+      <c r="M23" s="174"/>
+      <c r="N23" s="172"/>
+      <c r="O23" s="172"/>
     </row>
     <row r="24" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="187"/>
-      <c r="C24" s="167"/>
-      <c r="D24" s="168"/>
-      <c r="E24" s="127"/>
-      <c r="F24" s="169"/>
-      <c r="G24" s="148"/>
-      <c r="H24" s="170"/>
-      <c r="I24" s="171"/>
-      <c r="J24" s="171"/>
-      <c r="K24" s="175"/>
-      <c r="L24" s="175"/>
-      <c r="M24" s="175"/>
-      <c r="N24" s="173"/>
-      <c r="O24" s="173"/>
+      <c r="B24" s="186"/>
+      <c r="C24" s="166"/>
+      <c r="D24" s="167"/>
+      <c r="E24" s="126"/>
+      <c r="F24" s="168"/>
+      <c r="G24" s="147"/>
+      <c r="H24" s="169"/>
+      <c r="I24" s="170"/>
+      <c r="J24" s="170"/>
+      <c r="K24" s="174"/>
+      <c r="L24" s="174"/>
+      <c r="M24" s="174"/>
+      <c r="N24" s="172"/>
+      <c r="O24" s="172"/>
     </row>
     <row r="25" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="127"/>
-      <c r="C25" s="112"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="127"/>
-      <c r="F25" s="127"/>
-      <c r="G25" s="127"/>
-      <c r="H25" s="188"/>
-      <c r="I25" s="188"/>
-      <c r="J25" s="188"/>
-      <c r="K25" s="175"/>
-      <c r="L25" s="175"/>
-      <c r="M25" s="175"/>
-      <c r="N25" s="173"/>
-      <c r="O25" s="173"/>
+      <c r="B25" s="126"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="126"/>
+      <c r="G25" s="126"/>
+      <c r="H25" s="187"/>
+      <c r="I25" s="187"/>
+      <c r="J25" s="187"/>
+      <c r="K25" s="174"/>
+      <c r="L25" s="174"/>
+      <c r="M25" s="174"/>
+      <c r="N25" s="172"/>
+      <c r="O25" s="172"/>
     </row>
     <row r="26" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="329" t="s">
+      <c r="B26" s="336" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="329"/>
-      <c r="D26" s="329"/>
-      <c r="E26" s="329"/>
-      <c r="F26" s="329"/>
-      <c r="G26" s="329"/>
-      <c r="H26" s="329"/>
-      <c r="I26" s="329"/>
-      <c r="J26" s="329"/>
-      <c r="K26" s="175"/>
-      <c r="N26" s="173"/>
-      <c r="O26" s="173"/>
+      <c r="C26" s="336"/>
+      <c r="D26" s="336"/>
+      <c r="E26" s="336"/>
+      <c r="F26" s="336"/>
+      <c r="G26" s="336"/>
+      <c r="H26" s="336"/>
+      <c r="I26" s="336"/>
+      <c r="J26" s="336"/>
+      <c r="K26" s="174"/>
+      <c r="N26" s="172"/>
+      <c r="O26" s="172"/>
     </row>
     <row r="27" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="175"/>
-      <c r="B27" s="330"/>
-      <c r="C27" s="330"/>
-      <c r="D27" s="189"/>
-      <c r="E27" s="190"/>
-      <c r="F27" s="190"/>
-      <c r="G27" s="190"/>
-      <c r="H27" s="191"/>
-      <c r="I27" s="331"/>
-      <c r="J27" s="192"/>
-      <c r="K27" s="175"/>
-      <c r="N27" s="173"/>
-      <c r="O27" s="173"/>
-    </row>
-    <row r="28" spans="1:15" s="175" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="175" t="s">
+      <c r="A27" s="174"/>
+      <c r="B27" s="337"/>
+      <c r="C27" s="337"/>
+      <c r="D27" s="188"/>
+      <c r="E27" s="189"/>
+      <c r="F27" s="189"/>
+      <c r="G27" s="189"/>
+      <c r="H27" s="190"/>
+      <c r="I27" s="338"/>
+      <c r="J27" s="191"/>
+      <c r="K27" s="174"/>
+      <c r="N27" s="172"/>
+      <c r="O27" s="172"/>
+    </row>
+    <row r="28" spans="1:15" s="174" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="174" t="s">
         <v>151</v>
       </c>
-      <c r="B28" s="333"/>
-      <c r="C28" s="333"/>
-      <c r="D28" s="189" t="s">
+      <c r="B28" s="340"/>
+      <c r="C28" s="340"/>
+      <c r="D28" s="188" t="s">
         <v>152</v>
       </c>
-      <c r="E28" s="193"/>
-      <c r="F28" s="112"/>
-      <c r="G28" s="112"/>
-      <c r="H28" s="112"/>
-      <c r="I28" s="332"/>
-      <c r="J28" s="194"/>
-      <c r="L28" s="109"/>
-      <c r="M28" s="109"/>
-    </row>
-    <row r="29" spans="1:15" s="175" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="112"/>
-      <c r="C29" s="112"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="112"/>
-      <c r="G29" s="112"/>
-      <c r="H29" s="112"/>
-      <c r="I29" s="112"/>
-      <c r="J29" s="112"/>
-      <c r="K29" s="195"/>
-      <c r="L29" s="109"/>
-      <c r="M29" s="109"/>
-    </row>
-    <row r="30" spans="1:15" s="175" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="112"/>
-      <c r="C30" s="112"/>
-      <c r="D30" s="334">
+      <c r="E28" s="192"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="111"/>
+      <c r="H28" s="111"/>
+      <c r="I28" s="339"/>
+      <c r="J28" s="193"/>
+      <c r="L28" s="108"/>
+      <c r="M28" s="108"/>
+    </row>
+    <row r="29" spans="1:15" s="174" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="111"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="111"/>
+      <c r="E29" s="111"/>
+      <c r="F29" s="111"/>
+      <c r="G29" s="111"/>
+      <c r="H29" s="111"/>
+      <c r="I29" s="111"/>
+      <c r="J29" s="111"/>
+      <c r="K29" s="194"/>
+      <c r="L29" s="108"/>
+      <c r="M29" s="108"/>
+    </row>
+    <row r="30" spans="1:15" s="174" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="111"/>
+      <c r="C30" s="111"/>
+      <c r="D30" s="341">
         <f>H22</f>
         <v>0</v>
       </c>
-      <c r="E30" s="334"/>
-      <c r="F30" s="334"/>
-      <c r="G30" s="196"/>
-      <c r="H30" s="112"/>
-      <c r="I30" s="112"/>
-      <c r="J30" s="112"/>
-      <c r="K30" s="197"/>
-      <c r="L30" s="198"/>
-      <c r="M30" s="109"/>
+      <c r="E30" s="341"/>
+      <c r="F30" s="341"/>
+      <c r="G30" s="195"/>
+      <c r="H30" s="111"/>
+      <c r="I30" s="111"/>
+      <c r="J30" s="111"/>
+      <c r="K30" s="196"/>
+      <c r="L30" s="197"/>
+      <c r="M30" s="108"/>
     </row>
     <row r="31" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="175"/>
-      <c r="B31" s="112"/>
-      <c r="C31" s="112"/>
-      <c r="D31" s="199"/>
-      <c r="E31" s="199"/>
-      <c r="F31" s="199"/>
-      <c r="G31" s="196"/>
-      <c r="H31" s="112"/>
-      <c r="I31" s="112"/>
-      <c r="J31" s="112"/>
-      <c r="K31" s="197"/>
-      <c r="L31" s="198"/>
+      <c r="A31" s="174"/>
+      <c r="B31" s="111"/>
+      <c r="C31" s="111"/>
+      <c r="D31" s="198"/>
+      <c r="E31" s="198"/>
+      <c r="F31" s="198"/>
+      <c r="G31" s="195"/>
+      <c r="H31" s="111"/>
+      <c r="I31" s="111"/>
+      <c r="J31" s="111"/>
+      <c r="K31" s="196"/>
+      <c r="L31" s="197"/>
     </row>
     <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="175"/>
-      <c r="B32" s="200"/>
-      <c r="C32" s="201"/>
-      <c r="D32" s="201"/>
-      <c r="E32" s="201"/>
-      <c r="F32" s="201"/>
-      <c r="G32" s="201"/>
-      <c r="H32" s="201"/>
-      <c r="I32" s="201"/>
-      <c r="J32" s="201"/>
-      <c r="K32" s="197"/>
-      <c r="L32" s="195"/>
-      <c r="M32" s="195"/>
+      <c r="A32" s="174"/>
+      <c r="B32" s="199"/>
+      <c r="C32" s="200"/>
+      <c r="D32" s="200"/>
+      <c r="E32" s="200"/>
+      <c r="F32" s="200"/>
+      <c r="G32" s="200"/>
+      <c r="H32" s="200"/>
+      <c r="I32" s="200"/>
+      <c r="J32" s="200"/>
+      <c r="K32" s="196"/>
+      <c r="L32" s="194"/>
+      <c r="M32" s="194"/>
     </row>
     <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="175"/>
-      <c r="B33" s="200" t="str">
+      <c r="A33" s="174"/>
+      <c r="B33" s="199" t="str">
         <f>"但し、上記所在物件の6月分日割り賃料及び承継保証金として"</f>
         <v>但し、上記所在物件の6月分日割り賃料及び承継保証金として</v>
       </c>
-      <c r="C33" s="201"/>
-      <c r="D33" s="201"/>
-      <c r="E33" s="201"/>
-      <c r="F33" s="201"/>
-      <c r="G33" s="201"/>
-      <c r="H33" s="201"/>
-      <c r="I33" s="201"/>
-      <c r="J33" s="201"/>
-      <c r="K33" s="197"/>
-      <c r="L33" s="195"/>
-      <c r="M33" s="195"/>
+      <c r="C33" s="200"/>
+      <c r="D33" s="200"/>
+      <c r="E33" s="200"/>
+      <c r="F33" s="200"/>
+      <c r="G33" s="200"/>
+      <c r="H33" s="200"/>
+      <c r="I33" s="200"/>
+      <c r="J33" s="200"/>
+      <c r="K33" s="196"/>
+      <c r="L33" s="194"/>
+      <c r="M33" s="194"/>
     </row>
     <row r="34" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="112"/>
-      <c r="C34" s="112"/>
-      <c r="D34" s="112"/>
-      <c r="E34" s="112"/>
-      <c r="F34" s="202"/>
-      <c r="G34" s="327"/>
-      <c r="H34" s="327"/>
-      <c r="I34" s="327"/>
-      <c r="J34" s="203"/>
-      <c r="L34" s="197"/>
-      <c r="M34" s="197"/>
+      <c r="B34" s="111"/>
+      <c r="C34" s="111"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="111"/>
+      <c r="F34" s="201"/>
+      <c r="G34" s="334"/>
+      <c r="H34" s="334"/>
+      <c r="I34" s="334"/>
+      <c r="J34" s="202"/>
+      <c r="L34" s="196"/>
+      <c r="M34" s="196"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="112"/>
-      <c r="C35" s="112"/>
-      <c r="D35" s="112"/>
-      <c r="E35" s="112"/>
-      <c r="F35" s="202"/>
-      <c r="G35" s="327">
+      <c r="B35" s="111"/>
+      <c r="C35" s="111"/>
+      <c r="D35" s="111"/>
+      <c r="E35" s="111"/>
+      <c r="F35" s="201"/>
+      <c r="G35" s="334">
         <v>43983</v>
       </c>
-      <c r="H35" s="327"/>
-      <c r="I35" s="327"/>
-      <c r="J35" s="203"/>
-      <c r="M35" s="204"/>
+      <c r="H35" s="334"/>
+      <c r="I35" s="334"/>
+      <c r="J35" s="202"/>
+      <c r="M35" s="203"/>
     </row>
     <row r="36" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="112"/>
-      <c r="C36" s="112"/>
-      <c r="D36" s="112"/>
-      <c r="E36" s="205"/>
-      <c r="F36" s="206"/>
-      <c r="G36" s="207"/>
-      <c r="H36" s="208"/>
-      <c r="I36" s="208"/>
-      <c r="J36" s="208"/>
+      <c r="B36" s="111"/>
+      <c r="C36" s="111"/>
+      <c r="D36" s="111"/>
+      <c r="E36" s="204"/>
+      <c r="F36" s="205"/>
+      <c r="G36" s="206"/>
+      <c r="H36" s="207"/>
+      <c r="I36" s="207"/>
+      <c r="J36" s="207"/>
     </row>
     <row r="37" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="112"/>
-      <c r="C37" s="112"/>
-      <c r="D37" s="112"/>
-      <c r="E37" s="112"/>
-      <c r="F37" s="112"/>
-      <c r="G37" s="327"/>
-      <c r="H37" s="327"/>
-      <c r="I37" s="327"/>
-      <c r="J37" s="209"/>
-      <c r="L37" s="197"/>
-      <c r="M37" s="197"/>
+      <c r="B37" s="111"/>
+      <c r="C37" s="111"/>
+      <c r="D37" s="111"/>
+      <c r="E37" s="111"/>
+      <c r="F37" s="111"/>
+      <c r="G37" s="334"/>
+      <c r="H37" s="334"/>
+      <c r="I37" s="334"/>
+      <c r="J37" s="208"/>
+      <c r="L37" s="196"/>
+      <c r="M37" s="196"/>
     </row>
     <row r="38" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="202"/>
-      <c r="C38" s="112"/>
-      <c r="D38" s="112"/>
-      <c r="E38" s="112"/>
-      <c r="F38" s="202" t="s">
+      <c r="B38" s="201"/>
+      <c r="C38" s="111"/>
+      <c r="D38" s="111"/>
+      <c r="E38" s="111"/>
+      <c r="F38" s="201" t="s">
         <v>159</v>
       </c>
-      <c r="G38" s="202"/>
-      <c r="H38" s="203"/>
-      <c r="I38" s="203"/>
-      <c r="J38" s="203"/>
-      <c r="L38" s="197"/>
-      <c r="M38" s="197"/>
-      <c r="N38" s="109" t="s">
+      <c r="G38" s="201"/>
+      <c r="H38" s="202"/>
+      <c r="I38" s="202"/>
+      <c r="J38" s="202"/>
+      <c r="L38" s="196"/>
+      <c r="M38" s="196"/>
+      <c r="N38" s="108" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="202"/>
-      <c r="C39" s="112"/>
-      <c r="D39" s="112"/>
-      <c r="E39" s="112"/>
-      <c r="F39" s="202" t="s">
+      <c r="B39" s="201"/>
+      <c r="C39" s="111"/>
+      <c r="D39" s="111"/>
+      <c r="E39" s="111"/>
+      <c r="F39" s="201" t="s">
         <v>154</v>
       </c>
-      <c r="G39" s="112"/>
-      <c r="H39" s="202"/>
-      <c r="I39" s="203"/>
-      <c r="J39" s="203"/>
-      <c r="M39" s="204"/>
+      <c r="G39" s="111"/>
+      <c r="H39" s="201"/>
+      <c r="I39" s="202"/>
+      <c r="J39" s="202"/>
+      <c r="M39" s="203"/>
     </row>
     <row r="40" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="206"/>
-      <c r="C40" s="112"/>
-      <c r="D40" s="112"/>
-      <c r="E40" s="205"/>
-      <c r="F40" s="206" t="s">
+      <c r="B40" s="205"/>
+      <c r="C40" s="111"/>
+      <c r="D40" s="111"/>
+      <c r="E40" s="204"/>
+      <c r="F40" s="205" t="s">
         <v>155</v>
       </c>
-      <c r="G40" s="207"/>
-      <c r="H40" s="208"/>
-      <c r="I40" s="208"/>
-      <c r="J40" s="208"/>
+      <c r="G40" s="206"/>
+      <c r="H40" s="207"/>
+      <c r="I40" s="207"/>
+      <c r="J40" s="207"/>
     </row>
     <row r="41" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="O41" s="113"/>
+      <c r="O41" s="112"/>
     </row>
     <row r="42" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="328" t="s">
+      <c r="B42" s="335" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="328"/>
-      <c r="D42" s="328"/>
-      <c r="E42" s="328"/>
-      <c r="F42" s="328"/>
-      <c r="G42" s="328"/>
-      <c r="H42" s="328"/>
-      <c r="I42" s="328"/>
-      <c r="O42" s="124"/>
+      <c r="C42" s="335"/>
+      <c r="D42" s="335"/>
+      <c r="E42" s="335"/>
+      <c r="F42" s="335"/>
+      <c r="G42" s="335"/>
+      <c r="H42" s="335"/>
+      <c r="I42" s="335"/>
+      <c r="O42" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="26">

--- a/template/買取決済.xlsx
+++ b/template/買取決済.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\work\00_Wavesync\24_不動産管理システム\00_source\backend\kbs_backend\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAACC394-D32E-414D-8038-E29EA9DA9A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD49B650-75E8-4448-8FB5-47DCF7E14CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,6 +44,7 @@
     <definedName name="japan" localSheetId="3">#REF!</definedName>
     <definedName name="japan">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'R-A　PK精算'!$A$1:$J$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">決済案内!$A$1:$I$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">固都税精算!$A$1:$K$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">受領書!$A$1:$J$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">領収証!$A$1:$J$25</definedName>
@@ -88,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="198">
   <si>
     <t>地　番
 家屋番号</t>
@@ -870,48 +871,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>収入印紙
-2万円</t>
-    <rPh sb="0" eb="4">
-      <t>シュウニュウインシ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>マンエン</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>契約書印紙代　￥15,000-、受領書印紙代　￥20,000-　　現金でご用意ください。</t>
-    <rPh sb="0" eb="2">
-      <t>ケイヤク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ショ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>インシ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="16" eb="19">
-      <t>ジュリョウショ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>インシ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ゲンキン</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ヨウイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>〒104-0061</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -937,10 +896,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>$contractorName$</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>$bankName$</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1067,10 +1022,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>上記所在物件の不動産売買契約書第3条に基づく売買代金として</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>上記所在物件の不動産売買契約書第12条に基づく固定資産税・都市計画税精算金として</t>
     <rPh sb="14" eb="15">
       <t>ショ</t>
@@ -1099,9 +1050,6 @@
     <t>上記所在物件の不動産売買契約書第４条に基づく手付金として</t>
   </si>
   <si>
-    <t>上記所在物件の不動産売買契約書第2条に基づく売買代金として</t>
-  </si>
-  <si>
     <t>上記所在物件の不動産売買契約書第4条に基づく売買代金（残代金）として</t>
   </si>
   <si>
@@ -1568,6 +1516,125 @@
   </si>
   <si>
     <t>$supplierName_outsourcing$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$contractFixDay_dt_kanji_intermediary$</t>
+  </si>
+  <si>
+    <t>$payPriceTax_outsourcing$</t>
+  </si>
+  <si>
+    <t>$payPriceTax$</t>
+  </si>
+  <si>
+    <t>$fixedTax$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>送金金額</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$payPriceTaxPlusFixedTax$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$fixedTax$</t>
+  </si>
+  <si>
+    <t>様</t>
+    <rPh sb="0" eb="1">
+      <t>サマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>契約書印紙代　￥-、受領書印紙代　￥-　　現金でご用意ください。</t>
+    <rPh sb="0" eb="2">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>インシ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ジュリョウショ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>インシ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ゲンキン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>上記所在物件の令和　年　月　日締結覚書に基づく売買代金（残代金）として</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>ショザイブッケン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>レイワ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>テイケツ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>オボエガキ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t>バイバイダイキン</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>ザンダイキン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>収入印紙
+万円</t>
+    <rPh sb="0" eb="4">
+      <t>シュウニュウインシ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>$list_contractorNameDot$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$description$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>上記所在物件の不動産売買契約書第2条に基づく売買代金として</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1608,7 +1675,7 @@
     <numFmt numFmtId="204" formatCode="&quot;（D）&quot;&quot;×&quot;0&quot;日&quot;"/>
     <numFmt numFmtId="205" formatCode="\(&quot;消&quot;&quot;費&quot;&quot;税&quot;&quot;お&quot;&quot;よ&quot;&quot;び&quot;&quot;地&quot;&quot;方&quot;&quot;消&quot;&quot;費&quot;&quot;税&quot;\ &quot;金&quot;###,###,###,###&quot;円&quot;&quot;を&quot;&quot;含&quot;&quot;む&quot;\)"/>
   </numFmts>
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1898,6 +1965,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2617,7 +2691,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2627,8 +2701,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="38" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="377">
+  <cellXfs count="373">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2680,20 +2755,11 @@
     <xf numFmtId="177" fontId="19" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3274,6 +3340,9 @@
     </xf>
     <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3464,10 +3533,10 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="194" fontId="6" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="194" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -3510,48 +3579,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="14" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="14" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="14" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3586,6 +3613,66 @@
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="186" fontId="17" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="17" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="14" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="14" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="14" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="184" fontId="6" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3594,30 +3681,6 @@
     </xf>
     <xf numFmtId="184" fontId="15" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="17" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="17" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="205" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3742,11 +3805,12 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="桁区切り 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="標準 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準 4" xfId="5" xr:uid="{1F671C00-0509-4DC5-9936-F7DFE3367C9D}"/>
     <cellStyle name="標準_【六甲3物件bulk精算明細書】07.08.17" xfId="4" xr:uid="{7CEE74E9-A271-4514-BF97-6A1A3CDEF000}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5418,13 +5482,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="31" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" style="28" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.83203125" style="5" customWidth="1"/>
     <col min="4" max="4" width="21.33203125" style="5" customWidth="1"/>
@@ -5442,69 +5506,69 @@
   <sheetData>
     <row r="1" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G1" s="6"/>
       <c r="H1" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>77</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="218" t="s">
+      <c r="A2" s="216" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="219" t="s">
+      <c r="B2" s="217" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="220" t="s">
+      <c r="C2" s="218" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="218" t="s">
+      <c r="D2" s="216" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="218" t="s">
+      <c r="E2" s="216" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="218"/>
-      <c r="G2" s="218"/>
-      <c r="H2" s="218"/>
-      <c r="I2" s="218"/>
+      <c r="F2" s="216"/>
+      <c r="G2" s="216"/>
+      <c r="H2" s="216"/>
+      <c r="I2" s="216"/>
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="218"/>
-      <c r="B3" s="218"/>
-      <c r="C3" s="221"/>
-      <c r="D3" s="218"/>
+      <c r="A3" s="216"/>
+      <c r="B3" s="216"/>
+      <c r="C3" s="219"/>
+      <c r="D3" s="216"/>
       <c r="E3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>104</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>107</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>82</v>
@@ -5512,8 +5576,8 @@
       <c r="K3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="216" t="s">
-        <v>3</v>
+      <c r="L3" s="213" t="s">
+        <v>188</v>
       </c>
       <c r="M3" s="8" t="s">
         <v>4</v>
@@ -5521,116 +5585,68 @@
     </row>
     <row r="4" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="E4" s="14" t="s">
+      <c r="G4" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="I4" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="J4" s="15" t="str">
-        <f>決済案内!D23</f>
-        <v>$payPriceTax$</v>
-      </c>
-      <c r="K4" s="16" t="e">
-        <f>決済案内!D24</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L4" s="217" t="e">
-        <f>J4+K4</f>
-        <v>#VALUE!</v>
+      <c r="J4" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="K4" s="215" t="s">
+        <v>187</v>
+      </c>
+      <c r="L4" s="214" t="s">
+        <v>189</v>
       </c>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="11"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="217"/>
-      <c r="M5" s="21"/>
-    </row>
-    <row r="6" spans="1:13" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="11"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="217"/>
-      <c r="M6" s="23"/>
-    </row>
-    <row r="7" spans="1:13" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="24"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="217"/>
-      <c r="M7" s="23"/>
-    </row>
-    <row r="8" spans="1:13" s="30" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="25"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="2" t="s">
+    <row r="5" spans="1:13" s="27" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="22"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="20">
-        <f>SUM(J4:J7)</f>
+      <c r="J5" s="18">
+        <f>SUM(J4:J4)</f>
         <v>0</v>
       </c>
-      <c r="K8" s="20" t="e">
-        <f>SUM(K4:K7)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L8" s="217" t="e">
-        <f>SUM(L4:L7)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M8" s="29"/>
+      <c r="K5" s="18">
+        <f>SUM(K4:K4)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="214">
+        <f>SUM(L4:L4)</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5658,7 +5674,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="31" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" style="28" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.83203125" style="5" customWidth="1"/>
     <col min="4" max="4" width="21.33203125" style="5" customWidth="1"/>
@@ -5676,216 +5692,216 @@
   <sheetData>
     <row r="1" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G1" s="6"/>
       <c r="H1" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>77</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="218" t="s">
+      <c r="A2" s="216" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="219" t="s">
+      <c r="B2" s="217" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="220" t="s">
+      <c r="C2" s="218" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="218" t="s">
-        <v>185</v>
-      </c>
-      <c r="E2" s="218" t="s">
+      <c r="D2" s="216" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="216" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="218"/>
-      <c r="G2" s="218"/>
-      <c r="H2" s="218"/>
-      <c r="I2" s="218"/>
+      <c r="F2" s="216"/>
+      <c r="G2" s="216"/>
+      <c r="H2" s="216"/>
+      <c r="I2" s="216"/>
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="218"/>
-      <c r="B3" s="218"/>
-      <c r="C3" s="221"/>
-      <c r="D3" s="218"/>
-      <c r="E3" s="211" t="s">
+      <c r="A3" s="216"/>
+      <c r="B3" s="216"/>
+      <c r="C3" s="219"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="208" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="208" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I3" s="208" t="s">
         <v>104</v>
       </c>
-      <c r="G3" s="211" t="s">
-        <v>105</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="I3" s="211" t="s">
-        <v>107</v>
-      </c>
-      <c r="J3" s="211" t="s">
+      <c r="J3" s="208" t="s">
         <v>82</v>
       </c>
-      <c r="K3" s="211"/>
-      <c r="L3" s="216" t="s">
+      <c r="K3" s="208"/>
+      <c r="L3" s="213" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="211" t="s">
-        <v>186</v>
+      <c r="M3" s="208" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="208" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="E4" s="209" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="209" t="s">
+        <v>159</v>
+      </c>
+      <c r="G4" s="209" t="s">
+        <v>160</v>
+      </c>
+      <c r="H4" s="209" t="s">
+        <v>161</v>
+      </c>
+      <c r="I4" s="209" t="s">
         <v>162</v>
       </c>
-      <c r="B4" s="211" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="E4" s="212" t="s">
+      <c r="J4" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="F4" s="212" t="s">
-        <v>164</v>
-      </c>
-      <c r="G4" s="212" t="s">
-        <v>165</v>
-      </c>
-      <c r="H4" s="212" t="s">
-        <v>166</v>
-      </c>
-      <c r="I4" s="212" t="s">
-        <v>167</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>168</v>
-      </c>
       <c r="K4" s="16"/>
-      <c r="L4" s="217" t="e">
+      <c r="L4" s="214" t="e">
         <f>J4+K4</f>
         <v>#VALUE!</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="208" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="E5" s="209" t="s">
+        <v>166</v>
+      </c>
+      <c r="F5" s="209" t="s">
+        <v>167</v>
+      </c>
+      <c r="G5" s="209" t="s">
+        <v>168</v>
+      </c>
+      <c r="H5" s="209" t="s">
+        <v>169</v>
+      </c>
+      <c r="I5" s="209" t="s">
         <v>170</v>
       </c>
-      <c r="B5" s="211" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="E5" s="212" t="s">
+      <c r="J5" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="F5" s="212" t="s">
-        <v>172</v>
-      </c>
-      <c r="G5" s="212" t="s">
-        <v>173</v>
-      </c>
-      <c r="H5" s="212" t="s">
-        <v>174</v>
-      </c>
-      <c r="I5" s="212" t="s">
-        <v>175</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>176</v>
-      </c>
       <c r="K5" s="16"/>
-      <c r="L5" s="217" t="e">
+      <c r="L5" s="214" t="e">
         <f>J5+K5</f>
         <v>#VALUE!</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="11"/>
-      <c r="B6" s="211"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="211"/>
-      <c r="E6" s="212"/>
-      <c r="F6" s="211"/>
-      <c r="G6" s="211"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="217"/>
-      <c r="M6" s="23"/>
+      <c r="B6" s="208"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="208"/>
+      <c r="E6" s="209"/>
+      <c r="F6" s="208"/>
+      <c r="G6" s="208"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="214"/>
+      <c r="M6" s="20"/>
     </row>
     <row r="7" spans="1:13" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="24"/>
-      <c r="B7" s="211"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="211"/>
-      <c r="E7" s="212"/>
-      <c r="F7" s="211"/>
-      <c r="G7" s="211"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="217"/>
-      <c r="M7" s="23"/>
-    </row>
-    <row r="8" spans="1:13" s="30" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="25"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="208"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="208"/>
+      <c r="E7" s="209"/>
+      <c r="F7" s="208"/>
+      <c r="G7" s="208"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="214"/>
+      <c r="M7" s="20"/>
+    </row>
+    <row r="8" spans="1:13" s="27" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
       <c r="I8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="18">
         <f>SUM(J4:J7)</f>
         <v>0</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="18">
         <f>SUM(K4:K7)</f>
         <v>0</v>
       </c>
-      <c r="L8" s="217" t="e">
+      <c r="L8" s="214" t="e">
         <f>SUM(L4:L7)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M8" s="29"/>
+      <c r="M8" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5904,336 +5920,341 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="6.08203125" style="32" customWidth="1"/>
-    <col min="2" max="2" width="11" style="32" customWidth="1"/>
-    <col min="3" max="3" width="9" style="32"/>
-    <col min="4" max="4" width="11.5" style="32" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="32"/>
+    <col min="1" max="1" width="6.08203125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="11" style="29" customWidth="1"/>
+    <col min="3" max="3" width="9" style="29"/>
+    <col min="4" max="4" width="11.5" style="29" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="H1" s="222" t="s">
-        <v>111</v>
-      </c>
-      <c r="I1" s="222"/>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="231" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="231"/>
-      <c r="D2" s="231"/>
-      <c r="E2" s="32" t="s">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="H1" s="220" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" s="220"/>
+      <c r="K1" s="29" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="G3" s="33" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="F4" s="33"/>
-      <c r="G4" s="222" t="s">
-        <v>88</v>
-      </c>
-      <c r="H4" s="222"/>
-      <c r="I4" s="222"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="G5" s="222" t="s">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="229" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" s="229"/>
+      <c r="D2" s="229"/>
+      <c r="E2" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G3" s="30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="F4" s="30"/>
+      <c r="G4" s="220" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" s="220"/>
+      <c r="I4" s="220"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G5" s="220" t="s">
         <v>71</v>
       </c>
-      <c r="H5" s="222"/>
-      <c r="I5" s="222"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="G6" s="34" t="s">
+      <c r="H5" s="220"/>
+      <c r="I5" s="220"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G6" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="232" t="s">
+      <c r="H6" s="230" t="s">
         <v>72</v>
       </c>
-      <c r="I6" s="232"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="G7" s="222" t="s">
-        <v>109</v>
-      </c>
-      <c r="H7" s="222"/>
-      <c r="I7" s="222"/>
-    </row>
-    <row r="8" spans="2:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="227" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9" s="228"/>
-      <c r="E9" s="228"/>
-      <c r="F9" s="229" t="s">
+      <c r="I6" s="230"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G7" s="220" t="s">
+        <v>106</v>
+      </c>
+      <c r="H7" s="220"/>
+      <c r="I7" s="220"/>
+    </row>
+    <row r="8" spans="2:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="C9" s="225" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="226"/>
+      <c r="E9" s="226"/>
+      <c r="F9" s="227" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="229"/>
-      <c r="H9" s="229"/>
-    </row>
-    <row r="10" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C11" s="35" t="s">
+      <c r="G9" s="227"/>
+      <c r="H9" s="227"/>
+    </row>
+    <row r="10" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C12" s="35" t="s">
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C13" s="35" t="s">
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="C13" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35" t="s">
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="36" t="s">
+    <row r="15" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="33" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="230" t="s">
-        <v>110</v>
-      </c>
-      <c r="C17" s="230"/>
-      <c r="D17" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" s="32" t="s">
+      <c r="B17" s="228" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="228"/>
+      <c r="D17" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="29" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="33" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="38"/>
+      <c r="B20" s="35"/>
     </row>
     <row r="21" spans="2:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="33" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="225" t="s">
+      <c r="B23" s="223" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="225"/>
-      <c r="D23" s="226" t="s">
-        <v>160</v>
-      </c>
-      <c r="E23" s="226"/>
-      <c r="F23" s="226"/>
-      <c r="G23" s="39" t="s">
+      <c r="C23" s="223"/>
+      <c r="D23" s="224" t="s">
+        <v>155</v>
+      </c>
+      <c r="E23" s="224"/>
+      <c r="F23" s="224"/>
+      <c r="G23" s="36" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="222" t="s">
+      <c r="B24" s="220" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="222"/>
-      <c r="D24" s="226" t="e">
-        <f>固都税精算!I21</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E24" s="226"/>
-      <c r="F24" s="226"/>
-      <c r="G24" s="39" t="s">
+      <c r="C24" s="220"/>
+      <c r="D24" s="224" t="s">
+        <v>187</v>
+      </c>
+      <c r="E24" s="224"/>
+      <c r="F24" s="224"/>
+      <c r="G24" s="36" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="222" t="s">
+      <c r="B25" s="220" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="222"/>
-      <c r="D25" s="226" t="s">
+      <c r="C25" s="220"/>
+      <c r="D25" s="224" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="226"/>
-      <c r="F25" s="226"/>
-      <c r="G25" s="39" t="s">
+      <c r="E25" s="224"/>
+      <c r="F25" s="224"/>
+      <c r="G25" s="36" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="222" t="s">
+      <c r="B26" s="220" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="222"/>
-      <c r="D26" s="226" t="s">
+      <c r="C26" s="220"/>
+      <c r="D26" s="224" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="226"/>
-      <c r="F26" s="226"/>
-      <c r="G26" s="39" t="s">
+      <c r="E26" s="224"/>
+      <c r="F26" s="224"/>
+      <c r="G26" s="36" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="G27" s="39"/>
+      <c r="G27" s="36"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="222" t="s">
+      <c r="B28" s="220" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="222"/>
-      <c r="D28" s="223" t="e">
+      <c r="C28" s="220"/>
+      <c r="D28" s="221" t="e">
         <f>D23+D24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E28" s="223"/>
-      <c r="F28" s="223"/>
-      <c r="G28" s="39" t="s">
+      <c r="E28" s="221"/>
+      <c r="F28" s="221"/>
+      <c r="G28" s="36" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="33" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="222" t="s">
+      <c r="B31" s="220" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="220"/>
+      <c r="D31" s="220" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="220"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="220" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="220"/>
+      <c r="D32" s="220" t="s">
         <v>93</v>
       </c>
-      <c r="C31" s="222"/>
-      <c r="D31" s="222" t="s">
-        <v>94</v>
-      </c>
-      <c r="E31" s="222"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="222" t="s">
-        <v>95</v>
-      </c>
-      <c r="C32" s="222"/>
-      <c r="D32" s="222" t="s">
-        <v>96</v>
-      </c>
-      <c r="E32" s="222"/>
+      <c r="E32" s="220"/>
     </row>
     <row r="33" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="224" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" s="222"/>
-      <c r="D33" s="222"/>
-      <c r="E33" s="32" t="s">
+      <c r="B33" s="222" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="220"/>
+      <c r="D33" s="220"/>
+      <c r="E33" s="29" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="33" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="29" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="29" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="29" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="34" t="s">
+      <c r="A39" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="32" t="s">
+      <c r="B39" s="29" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="34" t="s">
+      <c r="A40" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="32" t="s">
+      <c r="B40" s="29" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="34" t="s">
+      <c r="A41" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="32" t="s">
+      <c r="B41" s="29" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="34" t="s">
+      <c r="A42" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="32" t="s">
-        <v>86</v>
+      <c r="B42" s="29" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="34" t="s">
+      <c r="A43" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B43" s="32" t="s">
+      <c r="B43" s="29" t="s">
         <v>41</v>
       </c>
     </row>
@@ -6265,12 +6286,15 @@
     <mergeCell ref="B32:C32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:I5" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"株式会社メトロス開発,Royal House株式会社,"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:I6" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"03-6457-9420,03-6205-4090,"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{F37F607D-A73D-4AE5-83BF-7C69A79FF3F5}">
+      <formula1>$K$1:$K$2</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
@@ -6290,380 +6314,379 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="2.25" style="42" customWidth="1"/>
-    <col min="2" max="2" width="4.58203125" style="42" customWidth="1"/>
-    <col min="3" max="3" width="6.58203125" style="42" customWidth="1"/>
-    <col min="4" max="4" width="7.08203125" style="42" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" style="42" customWidth="1"/>
-    <col min="6" max="6" width="5" style="42" customWidth="1"/>
-    <col min="7" max="7" width="11.75" style="42" customWidth="1"/>
-    <col min="8" max="8" width="9.08203125" style="42" customWidth="1"/>
-    <col min="9" max="9" width="7" style="42" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.83203125" style="42" customWidth="1"/>
-    <col min="11" max="11" width="2.58203125" style="42" customWidth="1"/>
-    <col min="12" max="16384" width="8.58203125" style="42"/>
+    <col min="1" max="1" width="2.25" style="39" customWidth="1"/>
+    <col min="2" max="2" width="4.58203125" style="39" customWidth="1"/>
+    <col min="3" max="3" width="6.58203125" style="39" customWidth="1"/>
+    <col min="4" max="4" width="7.08203125" style="39" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" style="39" customWidth="1"/>
+    <col min="6" max="6" width="5" style="39" customWidth="1"/>
+    <col min="7" max="7" width="11.75" style="39" customWidth="1"/>
+    <col min="8" max="8" width="9.08203125" style="39" customWidth="1"/>
+    <col min="9" max="9" width="7" style="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.83203125" style="39" customWidth="1"/>
+    <col min="11" max="11" width="2.58203125" style="39" customWidth="1"/>
+    <col min="12" max="16384" width="8.58203125" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="40"/>
-      <c r="B1" s="237" t="s">
+      <c r="A1" s="37"/>
+      <c r="B1" s="235" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="237"/>
-      <c r="D1" s="237"/>
-      <c r="E1" s="237"/>
-      <c r="F1" s="237"/>
-      <c r="G1" s="237"/>
-      <c r="H1" s="237"/>
-      <c r="I1" s="237"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
+      <c r="C1" s="235"/>
+      <c r="D1" s="235"/>
+      <c r="E1" s="235"/>
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
+      <c r="H1" s="235"/>
+      <c r="I1" s="235"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="3" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="238" t="s">
+      <c r="B3" s="236" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="239"/>
-      <c r="D3" s="240" t="s">
-        <v>98</v>
-      </c>
-      <c r="E3" s="241"/>
-      <c r="F3" s="242"/>
-      <c r="G3" s="43" t="s">
+      <c r="C3" s="237"/>
+      <c r="D3" s="238" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="239"/>
+      <c r="F3" s="240"/>
+      <c r="G3" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="243" t="s">
-        <v>113</v>
-      </c>
-      <c r="I3" s="244"/>
-      <c r="J3" s="245"/>
-      <c r="K3" s="44"/>
+      <c r="H3" s="241" t="s">
+        <v>110</v>
+      </c>
+      <c r="I3" s="242"/>
+      <c r="J3" s="243"/>
+      <c r="K3" s="41"/>
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="246" t="s">
+      <c r="B4" s="244" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="247"/>
-      <c r="D4" s="248" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" s="249"/>
-      <c r="F4" s="250"/>
-      <c r="G4" s="45" t="s">
+      <c r="C4" s="245"/>
+      <c r="D4" s="246" t="s">
+        <v>195</v>
+      </c>
+      <c r="E4" s="247"/>
+      <c r="F4" s="248"/>
+      <c r="G4" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="251" t="s">
-        <v>99</v>
-      </c>
-      <c r="I4" s="252"/>
-      <c r="J4" s="253"/>
-      <c r="K4" s="46"/>
+      <c r="H4" s="249" t="s">
+        <v>96</v>
+      </c>
+      <c r="I4" s="250"/>
+      <c r="J4" s="251"/>
+      <c r="K4" s="43"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
     </row>
     <row r="6" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="272" t="s">
+      <c r="B6" s="270" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="275" t="s">
+      <c r="C6" s="40"/>
+      <c r="D6" s="273" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="276"/>
-      <c r="F6" s="275" t="s">
+      <c r="E6" s="274"/>
+      <c r="F6" s="273" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="277"/>
-      <c r="H6" s="275" t="s">
+      <c r="G6" s="275"/>
+      <c r="H6" s="273" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="277"/>
-      <c r="J6" s="278"/>
-      <c r="K6" s="48"/>
+      <c r="I6" s="275"/>
+      <c r="J6" s="276"/>
+      <c r="K6" s="45"/>
     </row>
     <row r="7" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="273"/>
-      <c r="C7" s="49" t="s">
+      <c r="B7" s="271"/>
+      <c r="C7" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="233" t="s">
-        <v>114</v>
-      </c>
-      <c r="E7" s="235"/>
-      <c r="F7" s="233" t="s">
-        <v>115</v>
-      </c>
-      <c r="G7" s="235"/>
-      <c r="H7" s="50" t="s">
+      <c r="D7" s="231" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="233"/>
+      <c r="F7" s="231" t="s">
+        <v>112</v>
+      </c>
+      <c r="G7" s="233"/>
+      <c r="H7" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="233" t="e">
+      <c r="I7" s="231" t="e">
         <f>D7+F7</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J7" s="234"/>
-      <c r="K7" s="51"/>
+      <c r="J7" s="232"/>
+      <c r="K7" s="48"/>
     </row>
     <row r="8" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="273"/>
-      <c r="C8" s="49" t="s">
+      <c r="B8" s="271"/>
+      <c r="C8" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="233" t="s">
-        <v>120</v>
-      </c>
-      <c r="E8" s="235"/>
-      <c r="F8" s="233" t="s">
-        <v>121</v>
-      </c>
-      <c r="G8" s="236"/>
-      <c r="H8" s="52" t="s">
+      <c r="D8" s="231" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="233"/>
+      <c r="F8" s="231" t="s">
+        <v>118</v>
+      </c>
+      <c r="G8" s="234"/>
+      <c r="H8" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="233" t="e">
+      <c r="I8" s="231" t="e">
         <f>D8+F8</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J8" s="234"/>
-      <c r="K8" s="51"/>
+      <c r="J8" s="232"/>
+      <c r="K8" s="48"/>
     </row>
     <row r="9" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="274"/>
-      <c r="C9" s="45" t="s">
+      <c r="B9" s="272"/>
+      <c r="C9" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="254">
+      <c r="D9" s="252">
         <f>SUM(D7:E8)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="255"/>
-      <c r="F9" s="254">
+      <c r="E9" s="253"/>
+      <c r="F9" s="252">
         <f>SUM(F7:G8)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="256"/>
-      <c r="H9" s="53" t="s">
+      <c r="G9" s="254"/>
+      <c r="H9" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="254">
+      <c r="I9" s="252">
         <f>D9+F9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="257"/>
-      <c r="K9" s="51"/>
+      <c r="J9" s="255"/>
+      <c r="K9" s="48"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
     </row>
     <row r="11" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="258" t="s">
+      <c r="B11" s="256" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="259"/>
-      <c r="D11" s="54" t="s">
+      <c r="C11" s="257"/>
+      <c r="D11" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="262" t="s">
-        <v>116</v>
-      </c>
-      <c r="F11" s="263"/>
-      <c r="G11" s="264" t="s">
-        <v>117</v>
-      </c>
-      <c r="H11" s="264"/>
-      <c r="I11" s="265" t="e">
+      <c r="E11" s="260" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" s="261"/>
+      <c r="G11" s="262" t="s">
+        <v>114</v>
+      </c>
+      <c r="H11" s="262"/>
+      <c r="I11" s="263" t="e">
         <f>G11-E11+1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J11" s="266"/>
-      <c r="K11" s="55"/>
+      <c r="J11" s="264"/>
+      <c r="K11" s="52"/>
     </row>
     <row r="12" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="260"/>
-      <c r="C12" s="261"/>
-      <c r="D12" s="56" t="s">
+      <c r="B12" s="258"/>
+      <c r="C12" s="259"/>
+      <c r="D12" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="267" t="s">
-        <v>118</v>
-      </c>
-      <c r="F12" s="268"/>
-      <c r="G12" s="269" t="s">
-        <v>119</v>
-      </c>
-      <c r="H12" s="269"/>
-      <c r="I12" s="270" t="e">
+      <c r="E12" s="265" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" s="266"/>
+      <c r="G12" s="267" t="s">
+        <v>116</v>
+      </c>
+      <c r="H12" s="267"/>
+      <c r="I12" s="268" t="e">
         <f>G12-E12+1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J12" s="271"/>
-      <c r="K12" s="55"/>
+      <c r="J12" s="269"/>
+      <c r="K12" s="52"/>
     </row>
     <row r="13" spans="1:11" ht="10" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="14" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="284" t="s">
+      <c r="B14" s="282" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="58" t="s">
+      <c r="C14" s="54"/>
+      <c r="D14" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="59" t="e">
+      <c r="E14" s="56" t="e">
         <f>I12</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F14" s="60" t="s">
+      <c r="F14" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="61" t="e">
+      <c r="G14" s="58" t="e">
         <f>I$11+I$12</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H14" s="287" t="s">
-        <v>100</v>
-      </c>
-      <c r="I14" s="287"/>
-      <c r="J14" s="288"/>
-      <c r="K14" s="62"/>
+      <c r="H14" s="285" t="s">
+        <v>97</v>
+      </c>
+      <c r="I14" s="285"/>
+      <c r="J14" s="286"/>
+      <c r="K14" s="59"/>
     </row>
     <row r="15" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="285"/>
-      <c r="C15" s="63" t="s">
+      <c r="B15" s="283"/>
+      <c r="C15" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="64" t="s">
+      <c r="D15" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="65" t="e">
+      <c r="E15" s="62" t="e">
         <f>I12</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F15" s="66" t="s">
+      <c r="F15" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="67" t="e">
+      <c r="G15" s="64" t="e">
         <f>I$11+I$12</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H15" s="289" t="s">
-        <v>101</v>
-      </c>
-      <c r="I15" s="289"/>
-      <c r="J15" s="290"/>
-      <c r="K15" s="62"/>
+      <c r="H15" s="287" t="s">
+        <v>98</v>
+      </c>
+      <c r="I15" s="287"/>
+      <c r="J15" s="288"/>
+      <c r="K15" s="59"/>
     </row>
     <row r="16" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="285"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="69" t="s">
+      <c r="B16" s="283"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="70"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="72" t="s">
+      <c r="E16" s="67"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="I16" s="291" t="e">
+      <c r="I16" s="289" t="e">
         <f>H14+H15</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J16" s="292"/>
-      <c r="K16" s="62"/>
+      <c r="J16" s="290"/>
+      <c r="K16" s="59"/>
     </row>
     <row r="17" spans="2:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="286"/>
-      <c r="C17" s="73" t="s">
+      <c r="B17" s="284"/>
+      <c r="C17" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="74"/>
-      <c r="E17" s="75" t="str">
+      <c r="D17" s="71"/>
+      <c r="E17" s="72" t="str">
         <f>H9</f>
         <v>（C）</v>
       </c>
-      <c r="F17" s="76" t="s">
+      <c r="F17" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="77" t="str">
+      <c r="G17" s="74" t="str">
         <f>H16</f>
         <v>（Ｄ）</v>
       </c>
-      <c r="H17" s="78"/>
-      <c r="I17" s="293" t="e">
+      <c r="H17" s="75"/>
+      <c r="I17" s="291" t="e">
         <f>I9-I16</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J17" s="294"/>
-      <c r="K17" s="62"/>
+      <c r="J17" s="292"/>
+      <c r="K17" s="59"/>
     </row>
     <row r="18" spans="2:11" ht="8.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
     </row>
     <row r="19" spans="2:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="295" t="s">
+      <c r="B19" s="293" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="296"/>
-      <c r="D19" s="297"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="81" t="s">
+      <c r="C19" s="294"/>
+      <c r="D19" s="295"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="I19" s="298" t="s">
-        <v>102</v>
-      </c>
-      <c r="J19" s="299"/>
-      <c r="K19" s="62"/>
+      <c r="I19" s="280" t="s">
+        <v>99</v>
+      </c>
+      <c r="J19" s="281"/>
+      <c r="K19" s="59"/>
     </row>
     <row r="20" spans="2:11" ht="8.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="82"/>
-      <c r="C20" s="82"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="83"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
     </row>
     <row r="21" spans="2:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="279" t="s">
+      <c r="B21" s="277" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="280"/>
-      <c r="D21" s="281"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="81" t="s">
+      <c r="C21" s="278"/>
+      <c r="D21" s="279"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="I21" s="282" t="e">
-        <f>I16+I19</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J21" s="283"/>
-      <c r="K21" s="84"/>
+      <c r="I21" s="280" t="s">
+        <v>187</v>
+      </c>
+      <c r="J21" s="281"/>
+      <c r="K21" s="81"/>
     </row>
     <row r="22" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="82"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="36">
@@ -6714,299 +6737,301 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="2.58203125" style="42" customWidth="1"/>
-    <col min="2" max="3" width="6.58203125" style="42" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="42" customWidth="1"/>
-    <col min="5" max="5" width="3.5" style="42" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.58203125" style="42" customWidth="1"/>
-    <col min="7" max="8" width="6.58203125" style="42" customWidth="1"/>
-    <col min="9" max="9" width="7" style="42" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.58203125" style="42" customWidth="1"/>
-    <col min="11" max="16384" width="8.58203125" style="42"/>
+    <col min="1" max="1" width="2.58203125" style="39" customWidth="1"/>
+    <col min="2" max="3" width="6.58203125" style="39" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="39" customWidth="1"/>
+    <col min="5" max="5" width="3.5" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.58203125" style="39" customWidth="1"/>
+    <col min="7" max="8" width="6.58203125" style="39" customWidth="1"/>
+    <col min="9" max="9" width="7" style="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.58203125" style="39" customWidth="1"/>
+    <col min="11" max="16384" width="8.58203125" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="86"/>
-    </row>
-    <row r="2" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="40"/>
-      <c r="B2" s="312" t="s">
+    <row r="1" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="83"/>
+    </row>
+    <row r="2" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="37"/>
+      <c r="B2" s="296" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="312"/>
-      <c r="D2" s="312"/>
-      <c r="E2" s="312"/>
-      <c r="F2" s="312"/>
-      <c r="G2" s="312"/>
-      <c r="H2" s="312"/>
-      <c r="I2" s="312"/>
-      <c r="J2" s="41"/>
-    </row>
-    <row r="3" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="4" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="101"/>
-    </row>
-    <row r="5" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="313" t="s">
+      <c r="C2" s="296"/>
+      <c r="D2" s="296"/>
+      <c r="E2" s="296"/>
+      <c r="F2" s="296"/>
+      <c r="G2" s="296"/>
+      <c r="H2" s="296"/>
+      <c r="I2" s="296"/>
+      <c r="J2" s="38"/>
+    </row>
+    <row r="3" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="4" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="98"/>
+    </row>
+    <row r="5" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="297" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="313"/>
-      <c r="D5" s="313"/>
-      <c r="E5" s="313"/>
-      <c r="F5" s="88" t="s">
+      <c r="C5" s="297"/>
+      <c r="D5" s="297"/>
+      <c r="E5" s="297"/>
+      <c r="F5" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="102"/>
-    </row>
-    <row r="6" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" s="314" t="e">
+      <c r="I5" s="99"/>
+      <c r="L5" s="306" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="L6" s="307"/>
+    </row>
+    <row r="7" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" s="298" t="e">
         <f>G13+G14</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E7" s="315"/>
-      <c r="F7" s="315"/>
-      <c r="G7" s="315"/>
-      <c r="H7" s="316"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="89"/>
-    </row>
-    <row r="8" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E8" s="90"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
-    </row>
-    <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E9" s="90"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="89"/>
-    </row>
-    <row r="10" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="317" t="s">
+      <c r="E7" s="299"/>
+      <c r="F7" s="299"/>
+      <c r="G7" s="299"/>
+      <c r="H7" s="300"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="86"/>
+    </row>
+    <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E8" s="87"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+    </row>
+    <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E9" s="87"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+    </row>
+    <row r="10" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="301" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="318"/>
-      <c r="D10" s="319" t="s">
-        <v>158</v>
-      </c>
-      <c r="E10" s="320"/>
-      <c r="F10" s="320"/>
-      <c r="G10" s="320"/>
-      <c r="H10" s="320"/>
-      <c r="I10" s="321"/>
-      <c r="J10" s="89"/>
-    </row>
-    <row r="11" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="J11" s="93"/>
-    </row>
-    <row r="12" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="300" t="s">
+      <c r="C10" s="302"/>
+      <c r="D10" s="303" t="s">
+        <v>153</v>
+      </c>
+      <c r="E10" s="304"/>
+      <c r="F10" s="304"/>
+      <c r="G10" s="304"/>
+      <c r="H10" s="304"/>
+      <c r="I10" s="305"/>
+      <c r="J10" s="86"/>
+      <c r="L10" s="39" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J11" s="90"/>
+      <c r="L11" s="39" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="314" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="301"/>
-      <c r="D12" s="301"/>
-      <c r="E12" s="301"/>
-      <c r="F12" s="301"/>
-      <c r="G12" s="301" t="s">
+      <c r="C12" s="315"/>
+      <c r="D12" s="315"/>
+      <c r="E12" s="315"/>
+      <c r="F12" s="315"/>
+      <c r="G12" s="315" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="301"/>
-      <c r="I12" s="302"/>
-      <c r="J12" s="93"/>
-    </row>
-    <row r="13" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="303" t="s">
+      <c r="H12" s="315"/>
+      <c r="I12" s="316"/>
+      <c r="J12" s="90"/>
+      <c r="L12" s="39" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="317" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" s="318"/>
+      <c r="D13" s="318"/>
+      <c r="E13" s="318"/>
+      <c r="F13" s="319"/>
+      <c r="G13" s="320" t="s">
+        <v>186</v>
+      </c>
+      <c r="H13" s="321"/>
+      <c r="I13" s="322"/>
+      <c r="J13" s="90"/>
+      <c r="L13" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="304"/>
-      <c r="D13" s="304"/>
-      <c r="E13" s="304"/>
-      <c r="F13" s="305"/>
-      <c r="G13" s="306" t="str">
-        <f>決済案内!D23</f>
-        <v>$payPriceTax$</v>
-      </c>
-      <c r="H13" s="307"/>
-      <c r="I13" s="308"/>
-      <c r="J13" s="93"/>
-    </row>
-    <row r="14" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="309" t="s">
-        <v>123</v>
-      </c>
-      <c r="C14" s="310"/>
-      <c r="D14" s="310"/>
-      <c r="E14" s="310"/>
-      <c r="F14" s="311"/>
-      <c r="G14" s="306" t="e">
-        <f>固都税精算!I21</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H14" s="307"/>
-      <c r="I14" s="308"/>
-      <c r="J14" s="93"/>
-    </row>
-    <row r="15" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="330" t="s">
+    </row>
+    <row r="14" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="323" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="324"/>
+      <c r="D14" s="324"/>
+      <c r="E14" s="324"/>
+      <c r="F14" s="325"/>
+      <c r="G14" s="320" t="s">
+        <v>190</v>
+      </c>
+      <c r="H14" s="321"/>
+      <c r="I14" s="322"/>
+      <c r="J14" s="90"/>
+      <c r="L14" s="39" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="311" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="331"/>
-      <c r="D15" s="331"/>
-      <c r="E15" s="331"/>
-      <c r="F15" s="332"/>
-      <c r="G15" s="322"/>
-      <c r="H15" s="323"/>
-      <c r="I15" s="324"/>
-      <c r="K15" s="42" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="94"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="96"/>
-      <c r="K16" s="42" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="329" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17" s="329"/>
-      <c r="D17" s="103" t="s">
+      <c r="C15" s="312"/>
+      <c r="D15" s="312"/>
+      <c r="E15" s="312"/>
+      <c r="F15" s="313"/>
+      <c r="G15" s="326"/>
+      <c r="H15" s="327"/>
+      <c r="I15" s="328"/>
+    </row>
+    <row r="16" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="91"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="93"/>
+    </row>
+    <row r="17" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="310" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="310"/>
+      <c r="D17" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="89"/>
-      <c r="K17" s="42" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="104"/>
-      <c r="C18" s="104"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="104"/>
-      <c r="H18" s="104"/>
-      <c r="I18" s="104"/>
-      <c r="K18" s="42" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C19" s="325" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" s="97"/>
-      <c r="E19" s="98" t="s">
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+    </row>
+    <row r="18" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="101"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="101"/>
+    </row>
+    <row r="19" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D19" s="94"/>
+      <c r="E19" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="261"/>
-      <c r="G19" s="261"/>
-      <c r="H19" s="261"/>
-      <c r="I19" s="261"/>
-      <c r="J19" s="261"/>
-    </row>
-    <row r="20" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C20" s="326"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="327"/>
-      <c r="G20" s="327"/>
-      <c r="H20" s="327"/>
-      <c r="I20" s="327"/>
-    </row>
-    <row r="21" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E21" s="98" t="s">
+      <c r="F19" s="259"/>
+      <c r="G19" s="259"/>
+      <c r="H19" s="259"/>
+      <c r="I19" s="259"/>
+      <c r="J19" s="259"/>
+    </row>
+    <row r="20" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D20" s="94"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="308"/>
+      <c r="G20" s="308"/>
+      <c r="H20" s="308"/>
+      <c r="I20" s="308"/>
+    </row>
+    <row r="21" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E21" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="328" t="s">
+      <c r="F21" s="309" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="328"/>
-      <c r="H21" s="328"/>
-      <c r="I21" s="328"/>
-      <c r="J21" s="328"/>
-    </row>
-    <row r="22" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E22" s="98"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="105"/>
-      <c r="I22" s="105"/>
-      <c r="J22" s="105"/>
-    </row>
-    <row r="23" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E23" s="98"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="106"/>
-      <c r="I23" s="106"/>
-      <c r="J23" s="106"/>
-    </row>
-    <row r="24" spans="2:11" ht="12" x14ac:dyDescent="0.55000000000000004">
-      <c r="F24" s="106"/>
-      <c r="G24" s="106"/>
-      <c r="H24" s="106"/>
-      <c r="I24" s="106"/>
-      <c r="J24" s="106"/>
-    </row>
-    <row r="25" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="99" t="s">
+      <c r="G21" s="309"/>
+      <c r="H21" s="309"/>
+      <c r="I21" s="309"/>
+      <c r="J21" s="309"/>
+    </row>
+    <row r="22" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E22" s="95"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="102"/>
+      <c r="I22" s="102"/>
+      <c r="J22" s="102"/>
+    </row>
+    <row r="23" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E23" s="95"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="103"/>
+      <c r="I23" s="103"/>
+      <c r="J23" s="103"/>
+    </row>
+    <row r="24" spans="2:10" ht="12" x14ac:dyDescent="0.55000000000000004">
+      <c r="F24" s="103"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="103"/>
+      <c r="J24" s="103"/>
+    </row>
+    <row r="25" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="100"/>
+      <c r="F25" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="L5:L6"/>
     <mergeCell ref="F19:J19"/>
     <mergeCell ref="F20:I20"/>
     <mergeCell ref="F21:J21"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:I10"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:I10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -7024,302 +7049,300 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="2.58203125" style="42" customWidth="1"/>
-    <col min="2" max="3" width="6.58203125" style="42" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="42" customWidth="1"/>
-    <col min="5" max="5" width="3.5" style="42" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.58203125" style="42" customWidth="1"/>
-    <col min="7" max="8" width="6.58203125" style="42" customWidth="1"/>
-    <col min="9" max="9" width="7" style="42" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.58203125" style="42" customWidth="1"/>
-    <col min="11" max="11" width="8.58203125" style="42"/>
-    <col min="12" max="12" width="8.58203125" style="42" customWidth="1"/>
-    <col min="13" max="16384" width="8.58203125" style="42"/>
+    <col min="1" max="1" width="2.58203125" style="39" customWidth="1"/>
+    <col min="2" max="3" width="6.58203125" style="39" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="39" customWidth="1"/>
+    <col min="5" max="5" width="3.5" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.58203125" style="39" customWidth="1"/>
+    <col min="7" max="8" width="6.58203125" style="39" customWidth="1"/>
+    <col min="9" max="9" width="7" style="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.58203125" style="39" customWidth="1"/>
+    <col min="11" max="11" width="8.58203125" style="39"/>
+    <col min="12" max="12" width="8.58203125" style="39" customWidth="1"/>
+    <col min="13" max="16384" width="8.58203125" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="86"/>
+      <c r="A1" s="83"/>
     </row>
     <row r="2" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="40"/>
-      <c r="B2" s="312" t="s">
+      <c r="A2" s="37"/>
+      <c r="B2" s="296" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="312"/>
-      <c r="D2" s="312"/>
-      <c r="E2" s="312"/>
-      <c r="F2" s="312"/>
-      <c r="G2" s="312"/>
-      <c r="H2" s="312"/>
-      <c r="I2" s="312"/>
-      <c r="J2" s="213"/>
+      <c r="C2" s="296"/>
+      <c r="D2" s="296"/>
+      <c r="E2" s="296"/>
+      <c r="F2" s="296"/>
+      <c r="G2" s="296"/>
+      <c r="H2" s="296"/>
+      <c r="I2" s="296"/>
+      <c r="J2" s="210"/>
     </row>
     <row r="3" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="4" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="101"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="98"/>
     </row>
     <row r="5" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="313" t="s">
+      <c r="B5" s="297" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="313"/>
-      <c r="D5" s="313"/>
-      <c r="E5" s="313"/>
-      <c r="F5" s="88" t="s">
+      <c r="C5" s="297"/>
+      <c r="D5" s="297"/>
+      <c r="E5" s="297"/>
+      <c r="F5" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="102"/>
+      <c r="I5" s="99"/>
     </row>
     <row r="6" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" s="314" t="e">
+      <c r="D7" s="298" t="e">
         <f>G13+G14</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E7" s="315"/>
-      <c r="F7" s="315"/>
-      <c r="G7" s="315"/>
-      <c r="H7" s="316"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="89"/>
+      <c r="E7" s="299"/>
+      <c r="F7" s="299"/>
+      <c r="G7" s="299"/>
+      <c r="H7" s="300"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="86"/>
     </row>
     <row r="8" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E8" s="90"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
     </row>
     <row r="9" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E9" s="90"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="89"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
     </row>
     <row r="10" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="317" t="s">
+      <c r="B10" s="301" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="318"/>
-      <c r="D10" s="319" t="s">
-        <v>158</v>
-      </c>
-      <c r="E10" s="320"/>
-      <c r="F10" s="320"/>
-      <c r="G10" s="320"/>
-      <c r="H10" s="320"/>
-      <c r="I10" s="321"/>
-      <c r="J10" s="89"/>
+      <c r="C10" s="302"/>
+      <c r="D10" s="303" t="s">
+        <v>153</v>
+      </c>
+      <c r="E10" s="304"/>
+      <c r="F10" s="304"/>
+      <c r="G10" s="304"/>
+      <c r="H10" s="304"/>
+      <c r="I10" s="305"/>
+      <c r="J10" s="86"/>
+      <c r="L10" s="329">
+        <v>8250000</v>
+      </c>
+      <c r="M10" s="329"/>
+      <c r="N10" s="329"/>
+      <c r="O10" s="329"/>
+      <c r="P10" s="329"/>
     </row>
     <row r="11" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="J11" s="93"/>
+      <c r="J11" s="90"/>
+      <c r="L11" s="212" t="s">
+        <v>176</v>
+      </c>
+      <c r="M11" s="212"/>
+      <c r="N11" s="212"/>
     </row>
     <row r="12" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="300" t="s">
+      <c r="B12" s="314" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="301"/>
-      <c r="D12" s="301"/>
-      <c r="E12" s="301"/>
-      <c r="F12" s="301"/>
-      <c r="G12" s="301" t="s">
+      <c r="C12" s="315"/>
+      <c r="D12" s="315"/>
+      <c r="E12" s="315"/>
+      <c r="F12" s="315"/>
+      <c r="G12" s="315" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="301"/>
-      <c r="I12" s="302"/>
-      <c r="J12" s="93"/>
+      <c r="H12" s="315"/>
+      <c r="I12" s="316"/>
+      <c r="J12" s="90"/>
+      <c r="L12" s="212" t="s">
+        <v>177</v>
+      </c>
+      <c r="M12" s="212"/>
+      <c r="N12" s="212"/>
     </row>
     <row r="13" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="303" t="s">
+      <c r="B13" s="317" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" s="318"/>
+      <c r="D13" s="318"/>
+      <c r="E13" s="318"/>
+      <c r="F13" s="319"/>
+      <c r="G13" s="320" t="s">
+        <v>185</v>
+      </c>
+      <c r="H13" s="321"/>
+      <c r="I13" s="322"/>
+      <c r="J13" s="90"/>
+      <c r="L13" s="212" t="s">
+        <v>178</v>
+      </c>
+      <c r="M13" s="212"/>
+      <c r="N13" s="212"/>
+    </row>
+    <row r="14" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="323" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" s="324"/>
+      <c r="D14" s="324"/>
+      <c r="E14" s="324"/>
+      <c r="F14" s="325"/>
+      <c r="G14" s="320"/>
+      <c r="H14" s="321"/>
+      <c r="I14" s="322"/>
+      <c r="J14" s="90"/>
+      <c r="L14" s="212" t="s">
         <v>179</v>
       </c>
-      <c r="C13" s="304"/>
-      <c r="D13" s="304"/>
-      <c r="E13" s="304"/>
-      <c r="F13" s="305"/>
-      <c r="G13" s="306" t="str">
-        <f>支払依頼書帳票!J5</f>
-        <v>$payPriceTax_outsourcing$</v>
-      </c>
-      <c r="H13" s="307"/>
-      <c r="I13" s="308"/>
-      <c r="J13" s="93"/>
-    </row>
-    <row r="14" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="309" t="s">
-        <v>180</v>
-      </c>
-      <c r="C14" s="310"/>
-      <c r="D14" s="310"/>
-      <c r="E14" s="310"/>
-      <c r="F14" s="311"/>
-      <c r="G14" s="306"/>
-      <c r="H14" s="307"/>
-      <c r="I14" s="308"/>
-      <c r="J14" s="93"/>
-      <c r="L14" s="333">
-        <v>8250000</v>
-      </c>
-      <c r="M14" s="333"/>
-      <c r="N14" s="333"/>
-      <c r="O14" s="333"/>
-      <c r="P14" s="333"/>
+      <c r="M14" s="212"/>
+      <c r="N14" s="212"/>
     </row>
     <row r="15" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="330"/>
-      <c r="C15" s="331"/>
-      <c r="D15" s="331"/>
-      <c r="E15" s="331"/>
-      <c r="F15" s="332"/>
-      <c r="G15" s="322"/>
-      <c r="H15" s="323"/>
-      <c r="I15" s="324"/>
-      <c r="L15" s="215" t="s">
-        <v>181</v>
-      </c>
-      <c r="M15" s="215"/>
-      <c r="N15" s="215"/>
+      <c r="B15" s="311"/>
+      <c r="C15" s="312"/>
+      <c r="D15" s="312"/>
+      <c r="E15" s="312"/>
+      <c r="F15" s="313"/>
+      <c r="G15" s="326"/>
+      <c r="H15" s="327"/>
+      <c r="I15" s="328"/>
     </row>
     <row r="16" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="214"/>
-      <c r="C16" s="214"/>
-      <c r="D16" s="214"/>
-      <c r="E16" s="214"/>
-      <c r="F16" s="214"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="96"/>
-      <c r="L16" s="215" t="s">
-        <v>182</v>
-      </c>
-      <c r="M16" s="215"/>
-      <c r="N16" s="215"/>
-    </row>
-    <row r="17" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="329" t="str">
-        <f>支払依頼書帳票!H1</f>
-        <v>$contractFixDay_dt_kanji_intermediary$</v>
-      </c>
-      <c r="C17" s="329"/>
-      <c r="D17" s="103" t="s">
+      <c r="B16" s="211"/>
+      <c r="C16" s="211"/>
+      <c r="D16" s="211"/>
+      <c r="E16" s="211"/>
+      <c r="F16" s="211"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="93"/>
+    </row>
+    <row r="17" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="310" t="s">
+        <v>184</v>
+      </c>
+      <c r="C17" s="310"/>
+      <c r="D17" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="89"/>
-      <c r="L17" s="215" t="s">
-        <v>183</v>
-      </c>
-      <c r="M17" s="215"/>
-      <c r="N17" s="215"/>
-    </row>
-    <row r="18" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="104"/>
-      <c r="C18" s="104"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="104"/>
-      <c r="H18" s="104"/>
-      <c r="I18" s="104"/>
-      <c r="L18" s="215" t="s">
-        <v>184</v>
-      </c>
-      <c r="M18" s="215"/>
-      <c r="N18" s="215"/>
-    </row>
-    <row r="19" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D19" s="97"/>
-      <c r="E19" s="98" t="s">
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+    </row>
+    <row r="18" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="101"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="101"/>
+    </row>
+    <row r="19" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D19" s="94"/>
+      <c r="E19" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="261"/>
-      <c r="G19" s="261"/>
-      <c r="H19" s="261"/>
-      <c r="I19" s="261"/>
-      <c r="J19" s="261"/>
-    </row>
-    <row r="20" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D20" s="97"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="327"/>
-      <c r="G20" s="327"/>
-      <c r="H20" s="327"/>
-      <c r="I20" s="327"/>
-    </row>
-    <row r="21" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E21" s="98" t="s">
+      <c r="F19" s="259"/>
+      <c r="G19" s="259"/>
+      <c r="H19" s="259"/>
+      <c r="I19" s="259"/>
+      <c r="J19" s="259"/>
+    </row>
+    <row r="20" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D20" s="94"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="308"/>
+      <c r="G20" s="308"/>
+      <c r="H20" s="308"/>
+      <c r="I20" s="308"/>
+    </row>
+    <row r="21" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E21" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="328" t="s">
+      <c r="F21" s="309" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="328"/>
-      <c r="H21" s="328"/>
-      <c r="I21" s="328"/>
-      <c r="J21" s="328"/>
-    </row>
-    <row r="22" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E22" s="98"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="105"/>
-      <c r="I22" s="105"/>
-      <c r="J22" s="105"/>
-    </row>
-    <row r="23" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E23" s="98"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="106"/>
-      <c r="I23" s="106"/>
-      <c r="J23" s="106"/>
-    </row>
-    <row r="24" spans="2:14" ht="12" x14ac:dyDescent="0.55000000000000004">
-      <c r="F24" s="106"/>
-      <c r="G24" s="106"/>
-      <c r="H24" s="106"/>
-      <c r="I24" s="106"/>
-      <c r="J24" s="106"/>
-    </row>
-    <row r="25" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="99" t="s">
+      <c r="G21" s="309"/>
+      <c r="H21" s="309"/>
+      <c r="I21" s="309"/>
+      <c r="J21" s="309"/>
+    </row>
+    <row r="22" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E22" s="95"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="102"/>
+      <c r="I22" s="102"/>
+      <c r="J22" s="102"/>
+    </row>
+    <row r="23" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E23" s="95"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="103"/>
+      <c r="I23" s="103"/>
+      <c r="J23" s="103"/>
+    </row>
+    <row r="24" spans="2:10" ht="12" x14ac:dyDescent="0.55000000000000004">
+      <c r="F24" s="103"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="103"/>
+      <c r="J24" s="103"/>
+    </row>
+    <row r="25" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="100"/>
+      <c r="F25" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:I10"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:J21"/>
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G12:I12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -7337,711 +7360,711 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="1.75" style="108" customWidth="1"/>
-    <col min="2" max="2" width="17" style="108" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="108" customWidth="1"/>
-    <col min="4" max="4" width="15" style="108" customWidth="1"/>
-    <col min="5" max="5" width="4.25" style="108" customWidth="1"/>
-    <col min="6" max="6" width="12.08203125" style="108" customWidth="1"/>
-    <col min="7" max="7" width="6.25" style="108" customWidth="1"/>
-    <col min="8" max="8" width="6.5" style="108" customWidth="1"/>
-    <col min="9" max="9" width="7.25" style="108" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.25" style="108" customWidth="1"/>
-    <col min="11" max="11" width="13.5" style="108" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.83203125" style="108" customWidth="1"/>
-    <col min="13" max="14" width="15.33203125" style="108" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.75" style="108" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.58203125" style="108"/>
+    <col min="1" max="1" width="1.75" style="105" customWidth="1"/>
+    <col min="2" max="2" width="17" style="105" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="105" customWidth="1"/>
+    <col min="4" max="4" width="15" style="105" customWidth="1"/>
+    <col min="5" max="5" width="4.25" style="105" customWidth="1"/>
+    <col min="6" max="6" width="12.08203125" style="105" customWidth="1"/>
+    <col min="7" max="7" width="6.25" style="105" customWidth="1"/>
+    <col min="8" max="8" width="6.5" style="105" customWidth="1"/>
+    <col min="9" max="9" width="7.25" style="105" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.25" style="105" customWidth="1"/>
+    <col min="11" max="11" width="13.5" style="105" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.83203125" style="105" customWidth="1"/>
+    <col min="13" max="14" width="15.33203125" style="105" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.75" style="105" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.58203125" style="105"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="6.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="107"/>
-      <c r="M1" s="210"/>
-      <c r="N1" s="210"/>
-      <c r="O1" s="210"/>
+      <c r="A1" s="104"/>
+      <c r="M1" s="207"/>
+      <c r="N1" s="207"/>
+      <c r="O1" s="207"/>
     </row>
     <row r="2" spans="1:15" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="109"/>
-      <c r="B2" s="371" t="s">
+      <c r="A2" s="106"/>
+      <c r="B2" s="367" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="367"/>
+      <c r="D2" s="367"/>
+      <c r="E2" s="367"/>
+      <c r="F2" s="367"/>
+      <c r="G2" s="367"/>
+      <c r="H2" s="367"/>
+      <c r="I2" s="367"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="206"/>
+      <c r="N2" s="206"/>
+      <c r="O2" s="206"/>
+    </row>
+    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+    </row>
+    <row r="4" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="110" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="368"/>
+      <c r="D4" s="369"/>
+      <c r="E4" s="370"/>
+      <c r="F4" s="111" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="371">
+        <v>43983</v>
+      </c>
+      <c r="H4" s="371"/>
+      <c r="I4" s="372"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="113"/>
+      <c r="L4" s="113"/>
+      <c r="M4" s="114" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="114" t="s">
+        <v>125</v>
+      </c>
+      <c r="O4" s="114" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="115" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="363"/>
+      <c r="D5" s="364"/>
+      <c r="E5" s="364"/>
+      <c r="F5" s="116" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="371"/>
-      <c r="D2" s="371"/>
-      <c r="E2" s="371"/>
-      <c r="F2" s="371"/>
-      <c r="G2" s="371"/>
-      <c r="H2" s="371"/>
-      <c r="I2" s="371"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="209"/>
-      <c r="N2" s="209"/>
-      <c r="O2" s="209"/>
-    </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-    </row>
-    <row r="4" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="113" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="372"/>
-      <c r="D4" s="373"/>
-      <c r="E4" s="374"/>
-      <c r="F4" s="114" t="s">
+      <c r="G5" s="365" t="s">
         <v>129</v>
       </c>
-      <c r="G4" s="375">
-        <v>43983</v>
-      </c>
-      <c r="H4" s="375"/>
-      <c r="I4" s="376"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="117" t="s">
-        <v>44</v>
-      </c>
-      <c r="N4" s="117" t="s">
+      <c r="H5" s="365"/>
+      <c r="I5" s="366"/>
+      <c r="J5" s="112"/>
+      <c r="M5" s="117">
+        <v>43516</v>
+      </c>
+      <c r="N5" s="118">
+        <v>43890</v>
+      </c>
+      <c r="O5" s="119">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="121" t="s">
         <v>130</v>
       </c>
-      <c r="O4" s="117" t="s">
+      <c r="C6" s="122"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="124"/>
+      <c r="O6" s="125"/>
+    </row>
+    <row r="7" spans="1:15" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="126"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="M7" s="117"/>
+      <c r="N7" s="124"/>
+      <c r="O7" s="125"/>
+    </row>
+    <row r="8" spans="1:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="123"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="123"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="112"/>
+      <c r="M8" s="117"/>
+      <c r="N8" s="124"/>
+      <c r="O8" s="125"/>
+    </row>
+    <row r="9" spans="1:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="123"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="123"/>
+      <c r="G9" s="112"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="112"/>
+      <c r="M9" s="117"/>
+      <c r="N9" s="124"/>
+      <c r="O9" s="125"/>
+    </row>
+    <row r="10" spans="1:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="123"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="112"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="112"/>
+      <c r="M10" s="117"/>
+      <c r="N10" s="124"/>
+      <c r="O10" s="125"/>
+    </row>
+    <row r="11" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="127" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="118" t="s">
+      <c r="C11" s="340"/>
+      <c r="D11" s="340"/>
+      <c r="E11" s="340"/>
+      <c r="F11" s="123" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="367"/>
-      <c r="D5" s="368"/>
-      <c r="E5" s="368"/>
-      <c r="F5" s="119" t="s">
+      <c r="G11" s="108"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="108"/>
+      <c r="M11" s="114" t="s">
         <v>133</v>
       </c>
-      <c r="G5" s="369" t="s">
+      <c r="N11" s="128"/>
+      <c r="O11" s="128"/>
+    </row>
+    <row r="12" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="108" t="s">
         <v>134</v>
       </c>
-      <c r="H5" s="369"/>
-      <c r="I5" s="370"/>
-      <c r="J5" s="115"/>
-      <c r="M5" s="120">
-        <v>43516</v>
-      </c>
-      <c r="N5" s="121">
-        <v>43890</v>
-      </c>
-      <c r="O5" s="122">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="124" t="s">
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="108"/>
+      <c r="J12" s="108"/>
+      <c r="M12" s="114" t="s">
+        <v>133</v>
+      </c>
+      <c r="N12" s="128"/>
+      <c r="O12" s="128"/>
+    </row>
+    <row r="13" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="127" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="125"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-      <c r="M6" s="120"/>
-      <c r="N6" s="127"/>
-      <c r="O6" s="128"/>
-    </row>
-    <row r="7" spans="1:15" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="129"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="M7" s="120"/>
-      <c r="N7" s="127"/>
-      <c r="O7" s="128"/>
-    </row>
-    <row r="8" spans="1:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="126"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="126"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="M8" s="120"/>
-      <c r="N8" s="127"/>
-      <c r="O8" s="128"/>
-    </row>
-    <row r="9" spans="1:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="126"/>
-      <c r="C9" s="125"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="126"/>
-      <c r="G9" s="115"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="115"/>
-      <c r="M9" s="120"/>
-      <c r="N9" s="127"/>
-      <c r="O9" s="128"/>
-    </row>
-    <row r="10" spans="1:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="126"/>
-      <c r="C10" s="125"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="126"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="115"/>
-      <c r="M10" s="120"/>
-      <c r="N10" s="127"/>
-      <c r="O10" s="128"/>
-    </row>
-    <row r="11" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="130" t="s">
+      <c r="C13" s="341" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="344"/>
-      <c r="D11" s="344"/>
-      <c r="E11" s="344"/>
-      <c r="F11" s="126" t="s">
+      <c r="D13" s="342"/>
+      <c r="E13" s="343" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="344"/>
+      <c r="G13" s="345"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="131">
+        <v>6</v>
+      </c>
+      <c r="L13" s="128"/>
+      <c r="M13" s="128"/>
+      <c r="N13" s="129"/>
+      <c r="O13" s="130"/>
+    </row>
+    <row r="14" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="132" t="s">
         <v>137</v>
       </c>
-      <c r="G11" s="111"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="111"/>
-      <c r="M11" s="117" t="s">
-        <v>138</v>
-      </c>
-      <c r="N11" s="131"/>
-      <c r="O11" s="131"/>
-    </row>
-    <row r="12" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="111" t="s">
-        <v>139</v>
-      </c>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
-      <c r="M12" s="117" t="s">
-        <v>138</v>
-      </c>
-      <c r="N12" s="131"/>
-      <c r="O12" s="131"/>
-    </row>
-    <row r="13" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="130" t="s">
-        <v>140</v>
-      </c>
-      <c r="C13" s="345" t="s">
-        <v>141</v>
-      </c>
-      <c r="D13" s="346"/>
-      <c r="E13" s="347" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="348"/>
-      <c r="G13" s="349"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="111"/>
-      <c r="K13" s="134">
-        <v>6</v>
-      </c>
-      <c r="L13" s="131"/>
-      <c r="M13" s="131"/>
-      <c r="N13" s="132"/>
-      <c r="O13" s="133"/>
-    </row>
-    <row r="14" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="135" t="s">
-        <v>142</v>
-      </c>
-      <c r="C14" s="350"/>
-      <c r="D14" s="351"/>
-      <c r="E14" s="352">
+      <c r="C14" s="346"/>
+      <c r="D14" s="347"/>
+      <c r="E14" s="348">
         <f>SUM(C14:D14)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="353"/>
-      <c r="G14" s="354"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="126"/>
-      <c r="J14" s="126"/>
-      <c r="K14" s="136"/>
-      <c r="L14" s="137"/>
-      <c r="M14" s="137"/>
+      <c r="F14" s="349"/>
+      <c r="G14" s="350"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="123"/>
+      <c r="K14" s="133"/>
+      <c r="L14" s="134"/>
+      <c r="M14" s="134"/>
     </row>
     <row r="15" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="130" t="s">
-        <v>143</v>
-      </c>
-      <c r="C15" s="138"/>
-      <c r="D15" s="139">
+      <c r="B15" s="127" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="135"/>
+      <c r="D15" s="136">
         <f>SUM(C14:D14)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="355">
+      <c r="E15" s="351">
         <f>SUM(C15:D15)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="356"/>
-      <c r="G15" s="357"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="126"/>
-      <c r="J15" s="126"/>
-      <c r="K15" s="140"/>
-      <c r="L15" s="141"/>
+      <c r="F15" s="352"/>
+      <c r="G15" s="353"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="123"/>
+      <c r="J15" s="123"/>
+      <c r="K15" s="137"/>
+      <c r="L15" s="138"/>
     </row>
     <row r="16" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="142" t="str">
+      <c r="B16" s="139" t="str">
         <f>""&amp;K13&amp;"月分賃料"</f>
         <v>6月分賃料</v>
       </c>
-      <c r="C16" s="143"/>
-      <c r="D16" s="143"/>
-      <c r="E16" s="144"/>
-      <c r="F16" s="145"/>
-      <c r="G16" s="145"/>
-      <c r="H16" s="146"/>
-      <c r="I16" s="146"/>
-      <c r="J16" s="147"/>
-      <c r="K16" s="141"/>
-      <c r="L16" s="141"/>
-      <c r="N16" s="148"/>
-      <c r="O16" s="136"/>
+      <c r="C16" s="140"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="141"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="143"/>
+      <c r="I16" s="143"/>
+      <c r="J16" s="144"/>
+      <c r="K16" s="138"/>
+      <c r="L16" s="138"/>
+      <c r="N16" s="145"/>
+      <c r="O16" s="133"/>
     </row>
     <row r="17" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="149" t="s">
+      <c r="B17" s="146" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="147"/>
+      <c r="D17" s="354">
+        <v>43983</v>
+      </c>
+      <c r="E17" s="354"/>
+      <c r="F17" s="355">
+        <v>43983</v>
+      </c>
+      <c r="G17" s="355"/>
+      <c r="H17" s="355"/>
+      <c r="I17" s="148"/>
+      <c r="J17" s="149"/>
+      <c r="K17" s="138"/>
+      <c r="L17" s="138"/>
+      <c r="N17" s="134"/>
+      <c r="O17" s="134"/>
+    </row>
+    <row r="18" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="150" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" s="151"/>
+      <c r="D18" s="152">
+        <v>1</v>
+      </c>
+      <c r="E18" s="153" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="154">
+        <v>30</v>
+      </c>
+      <c r="G18" s="155"/>
+      <c r="H18" s="356"/>
+      <c r="I18" s="357"/>
+      <c r="L18" s="138"/>
+      <c r="N18" s="156"/>
+      <c r="O18" s="156"/>
+    </row>
+    <row r="19" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="157" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="158"/>
+      <c r="D19" s="159">
+        <v>29</v>
+      </c>
+      <c r="E19" s="160" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="161">
+        <v>30</v>
+      </c>
+      <c r="G19" s="162"/>
+      <c r="H19" s="358"/>
+      <c r="I19" s="359"/>
+      <c r="J19" s="123" t="s">
+        <v>142</v>
+      </c>
+      <c r="L19" s="138"/>
+      <c r="N19" s="156"/>
+      <c r="O19" s="156"/>
+    </row>
+    <row r="20" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="121"/>
+      <c r="C20" s="163"/>
+      <c r="D20" s="164"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="165"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="166"/>
+      <c r="I20" s="167"/>
+      <c r="J20" s="167"/>
+      <c r="K20" s="168"/>
+      <c r="L20" s="138"/>
+      <c r="N20" s="169"/>
+      <c r="O20" s="169"/>
+    </row>
+    <row r="21" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="360" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="361"/>
+      <c r="D21" s="361"/>
+      <c r="E21" s="361"/>
+      <c r="F21" s="361"/>
+      <c r="G21" s="361"/>
+      <c r="H21" s="361"/>
+      <c r="I21" s="362"/>
+      <c r="J21" s="170"/>
+      <c r="K21" s="171"/>
+      <c r="L21" s="138"/>
+      <c r="N21" s="169"/>
+      <c r="O21" s="169"/>
+    </row>
+    <row r="22" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="150" t="s">
         <v>144</v>
       </c>
-      <c r="C17" s="150"/>
-      <c r="D17" s="358">
-        <v>43983</v>
-      </c>
-      <c r="E17" s="358"/>
-      <c r="F17" s="359">
-        <v>43983</v>
-      </c>
-      <c r="G17" s="359"/>
-      <c r="H17" s="359"/>
-      <c r="I17" s="151"/>
-      <c r="J17" s="152"/>
-      <c r="K17" s="141"/>
-      <c r="L17" s="141"/>
-      <c r="N17" s="137"/>
-      <c r="O17" s="137"/>
-    </row>
-    <row r="18" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="153" t="s">
+      <c r="C22" s="151"/>
+      <c r="D22" s="172" t="s">
         <v>145</v>
       </c>
-      <c r="C18" s="154"/>
-      <c r="D18" s="155">
-        <v>1</v>
-      </c>
-      <c r="E18" s="156" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" s="157">
-        <v>30</v>
-      </c>
-      <c r="G18" s="158"/>
-      <c r="H18" s="360"/>
-      <c r="I18" s="361"/>
-      <c r="L18" s="141"/>
-      <c r="N18" s="159"/>
-      <c r="O18" s="159"/>
-    </row>
-    <row r="19" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="160" t="s">
-        <v>146</v>
-      </c>
-      <c r="C19" s="161"/>
-      <c r="D19" s="162">
-        <v>29</v>
-      </c>
-      <c r="E19" s="163" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="164">
-        <v>30</v>
-      </c>
-      <c r="G19" s="165"/>
-      <c r="H19" s="362"/>
-      <c r="I19" s="363"/>
-      <c r="J19" s="126" t="s">
-        <v>147</v>
-      </c>
-      <c r="L19" s="141"/>
-      <c r="N19" s="159"/>
-      <c r="O19" s="159"/>
-    </row>
-    <row r="20" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="124"/>
-      <c r="C20" s="166"/>
-      <c r="D20" s="167"/>
-      <c r="E20" s="126"/>
-      <c r="F20" s="168"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="169"/>
-      <c r="I20" s="170"/>
-      <c r="J20" s="170"/>
-      <c r="K20" s="171"/>
-      <c r="L20" s="141"/>
-      <c r="N20" s="172"/>
-      <c r="O20" s="172"/>
-    </row>
-    <row r="21" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="364" t="s">
-        <v>148</v>
-      </c>
-      <c r="C21" s="365"/>
-      <c r="D21" s="365"/>
-      <c r="E21" s="365"/>
-      <c r="F21" s="365"/>
-      <c r="G21" s="365"/>
-      <c r="H21" s="365"/>
-      <c r="I21" s="366"/>
-      <c r="J21" s="173"/>
-      <c r="K21" s="174"/>
-      <c r="L21" s="141"/>
-      <c r="N21" s="172"/>
-      <c r="O21" s="172"/>
-    </row>
-    <row r="22" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="153" t="s">
-        <v>149</v>
-      </c>
-      <c r="C22" s="154"/>
-      <c r="D22" s="175" t="s">
-        <v>150</v>
-      </c>
-      <c r="E22" s="156"/>
-      <c r="F22" s="176"/>
-      <c r="G22" s="177"/>
-      <c r="H22" s="342">
+      <c r="E22" s="153"/>
+      <c r="F22" s="173"/>
+      <c r="G22" s="174"/>
+      <c r="H22" s="338">
         <f>C11+H19</f>
         <v>0</v>
       </c>
-      <c r="I22" s="343"/>
-      <c r="J22" s="170"/>
-      <c r="K22" s="174"/>
-      <c r="L22" s="141"/>
-      <c r="N22" s="172"/>
-      <c r="O22" s="172"/>
+      <c r="I22" s="339"/>
+      <c r="J22" s="167"/>
+      <c r="K22" s="171"/>
+      <c r="L22" s="138"/>
+      <c r="N22" s="169"/>
+      <c r="O22" s="169"/>
     </row>
     <row r="23" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="178"/>
-      <c r="C23" s="179"/>
-      <c r="D23" s="180"/>
-      <c r="E23" s="181"/>
-      <c r="F23" s="182"/>
-      <c r="G23" s="183"/>
-      <c r="H23" s="184"/>
-      <c r="I23" s="185"/>
-      <c r="J23" s="170"/>
-      <c r="K23" s="174"/>
-      <c r="L23" s="174"/>
-      <c r="M23" s="174"/>
-      <c r="N23" s="172"/>
-      <c r="O23" s="172"/>
+      <c r="B23" s="175"/>
+      <c r="C23" s="176"/>
+      <c r="D23" s="177"/>
+      <c r="E23" s="178"/>
+      <c r="F23" s="179"/>
+      <c r="G23" s="180"/>
+      <c r="H23" s="181"/>
+      <c r="I23" s="182"/>
+      <c r="J23" s="167"/>
+      <c r="K23" s="171"/>
+      <c r="L23" s="171"/>
+      <c r="M23" s="171"/>
+      <c r="N23" s="169"/>
+      <c r="O23" s="169"/>
     </row>
     <row r="24" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="186"/>
-      <c r="C24" s="166"/>
-      <c r="D24" s="167"/>
-      <c r="E24" s="126"/>
-      <c r="F24" s="168"/>
-      <c r="G24" s="147"/>
-      <c r="H24" s="169"/>
-      <c r="I24" s="170"/>
-      <c r="J24" s="170"/>
-      <c r="K24" s="174"/>
-      <c r="L24" s="174"/>
-      <c r="M24" s="174"/>
-      <c r="N24" s="172"/>
-      <c r="O24" s="172"/>
+      <c r="B24" s="183"/>
+      <c r="C24" s="163"/>
+      <c r="D24" s="164"/>
+      <c r="E24" s="123"/>
+      <c r="F24" s="165"/>
+      <c r="G24" s="144"/>
+      <c r="H24" s="166"/>
+      <c r="I24" s="167"/>
+      <c r="J24" s="167"/>
+      <c r="K24" s="171"/>
+      <c r="L24" s="171"/>
+      <c r="M24" s="171"/>
+      <c r="N24" s="169"/>
+      <c r="O24" s="169"/>
     </row>
     <row r="25" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="126"/>
-      <c r="C25" s="111"/>
-      <c r="D25" s="111"/>
-      <c r="E25" s="126"/>
-      <c r="F25" s="126"/>
-      <c r="G25" s="126"/>
-      <c r="H25" s="187"/>
-      <c r="I25" s="187"/>
-      <c r="J25" s="187"/>
-      <c r="K25" s="174"/>
-      <c r="L25" s="174"/>
-      <c r="M25" s="174"/>
-      <c r="N25" s="172"/>
-      <c r="O25" s="172"/>
+      <c r="B25" s="123"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="123"/>
+      <c r="F25" s="123"/>
+      <c r="G25" s="123"/>
+      <c r="H25" s="184"/>
+      <c r="I25" s="184"/>
+      <c r="J25" s="184"/>
+      <c r="K25" s="171"/>
+      <c r="L25" s="171"/>
+      <c r="M25" s="171"/>
+      <c r="N25" s="169"/>
+      <c r="O25" s="169"/>
     </row>
     <row r="26" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="336" t="s">
+      <c r="B26" s="332" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="336"/>
-      <c r="D26" s="336"/>
-      <c r="E26" s="336"/>
-      <c r="F26" s="336"/>
-      <c r="G26" s="336"/>
-      <c r="H26" s="336"/>
-      <c r="I26" s="336"/>
-      <c r="J26" s="336"/>
-      <c r="K26" s="174"/>
-      <c r="N26" s="172"/>
-      <c r="O26" s="172"/>
+      <c r="C26" s="332"/>
+      <c r="D26" s="332"/>
+      <c r="E26" s="332"/>
+      <c r="F26" s="332"/>
+      <c r="G26" s="332"/>
+      <c r="H26" s="332"/>
+      <c r="I26" s="332"/>
+      <c r="J26" s="332"/>
+      <c r="K26" s="171"/>
+      <c r="N26" s="169"/>
+      <c r="O26" s="169"/>
     </row>
     <row r="27" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="174"/>
-      <c r="B27" s="337"/>
-      <c r="C27" s="337"/>
-      <c r="D27" s="188"/>
-      <c r="E27" s="189"/>
-      <c r="F27" s="189"/>
-      <c r="G27" s="189"/>
-      <c r="H27" s="190"/>
-      <c r="I27" s="338"/>
-      <c r="J27" s="191"/>
-      <c r="K27" s="174"/>
-      <c r="N27" s="172"/>
-      <c r="O27" s="172"/>
-    </row>
-    <row r="28" spans="1:15" s="174" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="174" t="s">
-        <v>151</v>
-      </c>
-      <c r="B28" s="340"/>
-      <c r="C28" s="340"/>
-      <c r="D28" s="188" t="s">
-        <v>152</v>
-      </c>
-      <c r="E28" s="192"/>
-      <c r="F28" s="111"/>
-      <c r="G28" s="111"/>
-      <c r="H28" s="111"/>
-      <c r="I28" s="339"/>
-      <c r="J28" s="193"/>
-      <c r="L28" s="108"/>
-      <c r="M28" s="108"/>
-    </row>
-    <row r="29" spans="1:15" s="174" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="111"/>
-      <c r="C29" s="111"/>
-      <c r="D29" s="111"/>
-      <c r="E29" s="111"/>
-      <c r="F29" s="111"/>
-      <c r="G29" s="111"/>
-      <c r="H29" s="111"/>
-      <c r="I29" s="111"/>
-      <c r="J29" s="111"/>
-      <c r="K29" s="194"/>
-      <c r="L29" s="108"/>
-      <c r="M29" s="108"/>
-    </row>
-    <row r="30" spans="1:15" s="174" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="111"/>
-      <c r="C30" s="111"/>
-      <c r="D30" s="341">
+      <c r="A27" s="171"/>
+      <c r="B27" s="333"/>
+      <c r="C27" s="333"/>
+      <c r="D27" s="185"/>
+      <c r="E27" s="186"/>
+      <c r="F27" s="186"/>
+      <c r="G27" s="186"/>
+      <c r="H27" s="187"/>
+      <c r="I27" s="334"/>
+      <c r="J27" s="188"/>
+      <c r="K27" s="171"/>
+      <c r="N27" s="169"/>
+      <c r="O27" s="169"/>
+    </row>
+    <row r="28" spans="1:15" s="171" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="171" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" s="336"/>
+      <c r="C28" s="336"/>
+      <c r="D28" s="185" t="s">
+        <v>147</v>
+      </c>
+      <c r="E28" s="189"/>
+      <c r="F28" s="108"/>
+      <c r="G28" s="108"/>
+      <c r="H28" s="108"/>
+      <c r="I28" s="335"/>
+      <c r="J28" s="190"/>
+      <c r="L28" s="105"/>
+      <c r="M28" s="105"/>
+    </row>
+    <row r="29" spans="1:15" s="171" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="108"/>
+      <c r="C29" s="108"/>
+      <c r="D29" s="108"/>
+      <c r="E29" s="108"/>
+      <c r="F29" s="108"/>
+      <c r="G29" s="108"/>
+      <c r="H29" s="108"/>
+      <c r="I29" s="108"/>
+      <c r="J29" s="108"/>
+      <c r="K29" s="191"/>
+      <c r="L29" s="105"/>
+      <c r="M29" s="105"/>
+    </row>
+    <row r="30" spans="1:15" s="171" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="108"/>
+      <c r="C30" s="108"/>
+      <c r="D30" s="337">
         <f>H22</f>
         <v>0</v>
       </c>
-      <c r="E30" s="341"/>
-      <c r="F30" s="341"/>
-      <c r="G30" s="195"/>
-      <c r="H30" s="111"/>
-      <c r="I30" s="111"/>
-      <c r="J30" s="111"/>
-      <c r="K30" s="196"/>
-      <c r="L30" s="197"/>
-      <c r="M30" s="108"/>
+      <c r="E30" s="337"/>
+      <c r="F30" s="337"/>
+      <c r="G30" s="192"/>
+      <c r="H30" s="108"/>
+      <c r="I30" s="108"/>
+      <c r="J30" s="108"/>
+      <c r="K30" s="193"/>
+      <c r="L30" s="194"/>
+      <c r="M30" s="105"/>
     </row>
     <row r="31" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="174"/>
-      <c r="B31" s="111"/>
-      <c r="C31" s="111"/>
-      <c r="D31" s="198"/>
-      <c r="E31" s="198"/>
-      <c r="F31" s="198"/>
-      <c r="G31" s="195"/>
-      <c r="H31" s="111"/>
-      <c r="I31" s="111"/>
-      <c r="J31" s="111"/>
-      <c r="K31" s="196"/>
-      <c r="L31" s="197"/>
+      <c r="A31" s="171"/>
+      <c r="B31" s="108"/>
+      <c r="C31" s="108"/>
+      <c r="D31" s="195"/>
+      <c r="E31" s="195"/>
+      <c r="F31" s="195"/>
+      <c r="G31" s="192"/>
+      <c r="H31" s="108"/>
+      <c r="I31" s="108"/>
+      <c r="J31" s="108"/>
+      <c r="K31" s="193"/>
+      <c r="L31" s="194"/>
     </row>
     <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="174"/>
-      <c r="B32" s="199"/>
-      <c r="C32" s="200"/>
-      <c r="D32" s="200"/>
-      <c r="E32" s="200"/>
-      <c r="F32" s="200"/>
-      <c r="G32" s="200"/>
-      <c r="H32" s="200"/>
-      <c r="I32" s="200"/>
-      <c r="J32" s="200"/>
-      <c r="K32" s="196"/>
-      <c r="L32" s="194"/>
-      <c r="M32" s="194"/>
+      <c r="A32" s="171"/>
+      <c r="B32" s="196"/>
+      <c r="C32" s="197"/>
+      <c r="D32" s="197"/>
+      <c r="E32" s="197"/>
+      <c r="F32" s="197"/>
+      <c r="G32" s="197"/>
+      <c r="H32" s="197"/>
+      <c r="I32" s="197"/>
+      <c r="J32" s="197"/>
+      <c r="K32" s="193"/>
+      <c r="L32" s="191"/>
+      <c r="M32" s="191"/>
     </row>
     <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="174"/>
-      <c r="B33" s="199" t="str">
+      <c r="A33" s="171"/>
+      <c r="B33" s="196" t="str">
         <f>"但し、上記所在物件の6月分日割り賃料及び承継保証金として"</f>
         <v>但し、上記所在物件の6月分日割り賃料及び承継保証金として</v>
       </c>
-      <c r="C33" s="200"/>
-      <c r="D33" s="200"/>
-      <c r="E33" s="200"/>
-      <c r="F33" s="200"/>
-      <c r="G33" s="200"/>
-      <c r="H33" s="200"/>
-      <c r="I33" s="200"/>
-      <c r="J33" s="200"/>
-      <c r="K33" s="196"/>
-      <c r="L33" s="194"/>
-      <c r="M33" s="194"/>
+      <c r="C33" s="197"/>
+      <c r="D33" s="197"/>
+      <c r="E33" s="197"/>
+      <c r="F33" s="197"/>
+      <c r="G33" s="197"/>
+      <c r="H33" s="197"/>
+      <c r="I33" s="197"/>
+      <c r="J33" s="197"/>
+      <c r="K33" s="193"/>
+      <c r="L33" s="191"/>
+      <c r="M33" s="191"/>
     </row>
     <row r="34" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="111"/>
-      <c r="C34" s="111"/>
-      <c r="D34" s="111"/>
-      <c r="E34" s="111"/>
-      <c r="F34" s="201"/>
-      <c r="G34" s="334"/>
-      <c r="H34" s="334"/>
-      <c r="I34" s="334"/>
-      <c r="J34" s="202"/>
-      <c r="L34" s="196"/>
-      <c r="M34" s="196"/>
+      <c r="B34" s="108"/>
+      <c r="C34" s="108"/>
+      <c r="D34" s="108"/>
+      <c r="E34" s="108"/>
+      <c r="F34" s="198"/>
+      <c r="G34" s="330"/>
+      <c r="H34" s="330"/>
+      <c r="I34" s="330"/>
+      <c r="J34" s="199"/>
+      <c r="L34" s="193"/>
+      <c r="M34" s="193"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="111"/>
-      <c r="C35" s="111"/>
-      <c r="D35" s="111"/>
-      <c r="E35" s="111"/>
-      <c r="F35" s="201"/>
-      <c r="G35" s="334">
+      <c r="B35" s="108"/>
+      <c r="C35" s="108"/>
+      <c r="D35" s="108"/>
+      <c r="E35" s="108"/>
+      <c r="F35" s="198"/>
+      <c r="G35" s="330">
         <v>43983</v>
       </c>
-      <c r="H35" s="334"/>
-      <c r="I35" s="334"/>
-      <c r="J35" s="202"/>
-      <c r="M35" s="203"/>
+      <c r="H35" s="330"/>
+      <c r="I35" s="330"/>
+      <c r="J35" s="199"/>
+      <c r="M35" s="200"/>
     </row>
     <row r="36" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="111"/>
-      <c r="C36" s="111"/>
-      <c r="D36" s="111"/>
-      <c r="E36" s="204"/>
-      <c r="F36" s="205"/>
-      <c r="G36" s="206"/>
-      <c r="H36" s="207"/>
-      <c r="I36" s="207"/>
-      <c r="J36" s="207"/>
+      <c r="B36" s="108"/>
+      <c r="C36" s="108"/>
+      <c r="D36" s="108"/>
+      <c r="E36" s="201"/>
+      <c r="F36" s="202"/>
+      <c r="G36" s="203"/>
+      <c r="H36" s="204"/>
+      <c r="I36" s="204"/>
+      <c r="J36" s="204"/>
     </row>
     <row r="37" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="111"/>
-      <c r="C37" s="111"/>
-      <c r="D37" s="111"/>
-      <c r="E37" s="111"/>
-      <c r="F37" s="111"/>
-      <c r="G37" s="334"/>
-      <c r="H37" s="334"/>
-      <c r="I37" s="334"/>
-      <c r="J37" s="208"/>
-      <c r="L37" s="196"/>
-      <c r="M37" s="196"/>
+      <c r="B37" s="108"/>
+      <c r="C37" s="108"/>
+      <c r="D37" s="108"/>
+      <c r="E37" s="108"/>
+      <c r="F37" s="108"/>
+      <c r="G37" s="330"/>
+      <c r="H37" s="330"/>
+      <c r="I37" s="330"/>
+      <c r="J37" s="205"/>
+      <c r="L37" s="193"/>
+      <c r="M37" s="193"/>
     </row>
     <row r="38" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="201"/>
-      <c r="C38" s="111"/>
-      <c r="D38" s="111"/>
-      <c r="E38" s="111"/>
-      <c r="F38" s="201" t="s">
-        <v>159</v>
-      </c>
-      <c r="G38" s="201"/>
-      <c r="H38" s="202"/>
-      <c r="I38" s="202"/>
-      <c r="J38" s="202"/>
-      <c r="L38" s="196"/>
-      <c r="M38" s="196"/>
-      <c r="N38" s="108" t="s">
-        <v>153</v>
+      <c r="B38" s="198"/>
+      <c r="C38" s="108"/>
+      <c r="D38" s="108"/>
+      <c r="E38" s="108"/>
+      <c r="F38" s="198" t="s">
+        <v>154</v>
+      </c>
+      <c r="G38" s="198"/>
+      <c r="H38" s="199"/>
+      <c r="I38" s="199"/>
+      <c r="J38" s="199"/>
+      <c r="L38" s="193"/>
+      <c r="M38" s="193"/>
+      <c r="N38" s="105" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="201"/>
-      <c r="C39" s="111"/>
-      <c r="D39" s="111"/>
-      <c r="E39" s="111"/>
-      <c r="F39" s="201" t="s">
-        <v>154</v>
-      </c>
-      <c r="G39" s="111"/>
-      <c r="H39" s="201"/>
-      <c r="I39" s="202"/>
-      <c r="J39" s="202"/>
-      <c r="M39" s="203"/>
+      <c r="B39" s="198"/>
+      <c r="C39" s="108"/>
+      <c r="D39" s="108"/>
+      <c r="E39" s="108"/>
+      <c r="F39" s="198" t="s">
+        <v>149</v>
+      </c>
+      <c r="G39" s="108"/>
+      <c r="H39" s="198"/>
+      <c r="I39" s="199"/>
+      <c r="J39" s="199"/>
+      <c r="M39" s="200"/>
     </row>
     <row r="40" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="205"/>
-      <c r="C40" s="111"/>
-      <c r="D40" s="111"/>
-      <c r="E40" s="204"/>
-      <c r="F40" s="205" t="s">
-        <v>155</v>
-      </c>
-      <c r="G40" s="206"/>
-      <c r="H40" s="207"/>
-      <c r="I40" s="207"/>
-      <c r="J40" s="207"/>
+      <c r="B40" s="202"/>
+      <c r="C40" s="108"/>
+      <c r="D40" s="108"/>
+      <c r="E40" s="201"/>
+      <c r="F40" s="202" t="s">
+        <v>150</v>
+      </c>
+      <c r="G40" s="203"/>
+      <c r="H40" s="204"/>
+      <c r="I40" s="204"/>
+      <c r="J40" s="204"/>
     </row>
     <row r="41" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="O41" s="112"/>
+      <c r="O41" s="109"/>
     </row>
     <row r="42" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="335" t="s">
+      <c r="B42" s="331" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="335"/>
-      <c r="D42" s="335"/>
-      <c r="E42" s="335"/>
-      <c r="F42" s="335"/>
-      <c r="G42" s="335"/>
-      <c r="H42" s="335"/>
-      <c r="I42" s="335"/>
-      <c r="O42" s="123"/>
+      <c r="C42" s="331"/>
+      <c r="D42" s="331"/>
+      <c r="E42" s="331"/>
+      <c r="F42" s="331"/>
+      <c r="G42" s="331"/>
+      <c r="H42" s="331"/>
+      <c r="I42" s="331"/>
+      <c r="O42" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="26">

--- a/template/買取決済.xlsx
+++ b/template/買取決済.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\work\00_Wavesync\24_不動産管理システム\00_source\backend\kbs_backend\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD49B650-75E8-4448-8FB5-47DCF7E14CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478948AF-2C38-4D14-A9B7-C021D86B6353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -808,16 +808,6 @@
     <t>振込先</t>
   </si>
   <si>
-    <t>売買代金</t>
-    <rPh sb="0" eb="2">
-      <t>バイバイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ダイキン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>鍵等</t>
     <rPh sb="0" eb="1">
       <t>カギ</t>
@@ -1635,6 +1625,10 @@
   </si>
   <si>
     <t>上記所在物件の不動産売買契約書第2条に基づく売買代金として</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$payPriceTaxTitle$</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3359,6 +3353,24 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3371,31 +3383,145 @@
     <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="44" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="15" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="15" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="15" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="15" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="6" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="6" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="6" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="6" fillId="0" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="188" fontId="15" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="188" fontId="15" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="188" fontId="15" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="15" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="188" fontId="15" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3448,137 +3574,74 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="188" fontId="15" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="17" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="17" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="14" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="15" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="14" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="15" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="14" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="15" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="6" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="6" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="6" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="6" fillId="0" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="44" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="15" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="15" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3613,170 +3676,8 @@
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="186" fontId="17" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="17" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="14" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="14" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="14" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="15" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="15" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="205" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="38" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="38" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="40" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="14" fillId="0" borderId="53" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="54" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="51" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="27" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="14" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="32" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="32" fillId="0" borderId="53" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="54" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="194" fontId="32" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="32" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3803,6 +3704,99 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="194" fontId="14" fillId="0" borderId="53" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="54" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="51" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="27" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="14" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="32" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="32" fillId="0" borderId="53" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="54" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="194" fontId="32" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="32" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="38" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="38" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="40" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -5506,27 +5500,27 @@
   <sheetData>
     <row r="1" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G1" s="6"/>
       <c r="H1" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>77</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5540,7 +5534,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="216" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E2" s="216" t="s">
         <v>78</v>
@@ -5559,25 +5553,25 @@
         <v>1</v>
       </c>
       <c r="F3" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="I3" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>104</v>
-      </c>
       <c r="J3" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>2</v>
       </c>
       <c r="L3" s="213" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M3" s="8" t="s">
         <v>4</v>
@@ -5585,40 +5579,40 @@
     </row>
     <row r="4" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="E4" s="14" t="s">
+      <c r="F4" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="G4" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="H4" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="I4" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="I4" s="14" t="s">
-        <v>93</v>
-      </c>
       <c r="J4" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K4" s="215" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L4" s="214" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M4" s="1"/>
     </row>
@@ -5692,27 +5686,27 @@
   <sheetData>
     <row r="1" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G1" s="6"/>
       <c r="H1" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>77</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5726,7 +5720,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="216" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E2" s="216" t="s">
         <v>78</v>
@@ -5745,58 +5739,58 @@
         <v>1</v>
       </c>
       <c r="F3" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" s="208" t="s">
         <v>101</v>
       </c>
-      <c r="G3" s="208" t="s">
+      <c r="H3" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="I3" s="208" t="s">
         <v>103</v>
       </c>
-      <c r="I3" s="208" t="s">
-        <v>104</v>
-      </c>
       <c r="J3" s="208" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K3" s="208"/>
       <c r="L3" s="213" t="s">
         <v>3</v>
       </c>
       <c r="M3" s="208" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="208" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" s="209" t="s">
         <v>157</v>
       </c>
-      <c r="B4" s="208" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="E4" s="209" t="s">
+      <c r="F4" s="209" t="s">
         <v>158</v>
       </c>
-      <c r="F4" s="209" t="s">
+      <c r="G4" s="209" t="s">
         <v>159</v>
       </c>
-      <c r="G4" s="209" t="s">
+      <c r="H4" s="209" t="s">
         <v>160</v>
       </c>
-      <c r="H4" s="209" t="s">
+      <c r="I4" s="209" t="s">
         <v>161</v>
       </c>
-      <c r="I4" s="209" t="s">
+      <c r="J4" s="15" t="s">
         <v>162</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>163</v>
       </c>
       <c r="K4" s="16"/>
       <c r="L4" s="214" t="e">
@@ -5804,39 +5798,39 @@
         <v>#VALUE!</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="208" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="E5" s="209" t="s">
         <v>165</v>
       </c>
-      <c r="B5" s="208" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="E5" s="209" t="s">
+      <c r="F5" s="209" t="s">
         <v>166</v>
       </c>
-      <c r="F5" s="209" t="s">
+      <c r="G5" s="209" t="s">
         <v>167</v>
       </c>
-      <c r="G5" s="209" t="s">
+      <c r="H5" s="209" t="s">
         <v>168</v>
       </c>
-      <c r="H5" s="209" t="s">
+      <c r="I5" s="209" t="s">
         <v>169</v>
       </c>
-      <c r="I5" s="209" t="s">
+      <c r="J5" s="15" t="s">
         <v>170</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>171</v>
       </c>
       <c r="K5" s="16"/>
       <c r="L5" s="214" t="e">
@@ -5844,7 +5838,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5935,35 +5929,35 @@
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="H1" s="220" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I1" s="220"/>
       <c r="K1" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="229" t="s">
-        <v>195</v>
-      </c>
-      <c r="C2" s="229"/>
-      <c r="D2" s="229"/>
+      <c r="B2" s="225" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="225"/>
+      <c r="D2" s="225"/>
       <c r="E2" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G3" s="30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F4" s="30"/>
       <c r="G4" s="220" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H4" s="220"/>
       <c r="I4" s="220"/>
@@ -5979,30 +5973,30 @@
       <c r="G6" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="230" t="s">
+      <c r="H6" s="226" t="s">
         <v>72</v>
       </c>
-      <c r="I6" s="230"/>
+      <c r="I6" s="226"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G7" s="220" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H7" s="220"/>
       <c r="I7" s="220"/>
     </row>
     <row r="8" spans="2:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="9" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="225" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="226"/>
-      <c r="E9" s="226"/>
-      <c r="F9" s="227" t="s">
+      <c r="C9" s="221" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="222"/>
+      <c r="E9" s="222"/>
+      <c r="F9" s="223" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="227"/>
-      <c r="H9" s="227"/>
+      <c r="G9" s="223"/>
+      <c r="H9" s="223"/>
     </row>
     <row r="10" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="11" spans="2:11" x14ac:dyDescent="0.55000000000000004">
@@ -6052,12 +6046,12 @@
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="228" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17" s="228"/>
+      <c r="B17" s="224" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="224"/>
       <c r="D17" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E17" s="29" t="s">
         <v>26</v>
@@ -6079,15 +6073,15 @@
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="223" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" s="223"/>
-      <c r="D23" s="224" t="s">
-        <v>155</v>
-      </c>
-      <c r="E23" s="224"/>
-      <c r="F23" s="224"/>
+      <c r="B23" s="229" t="s">
+        <v>197</v>
+      </c>
+      <c r="C23" s="229"/>
+      <c r="D23" s="230" t="s">
+        <v>154</v>
+      </c>
+      <c r="E23" s="230"/>
+      <c r="F23" s="230"/>
       <c r="G23" s="36" t="s">
         <v>32</v>
       </c>
@@ -6097,11 +6091,11 @@
         <v>29</v>
       </c>
       <c r="C24" s="220"/>
-      <c r="D24" s="224" t="s">
-        <v>187</v>
-      </c>
-      <c r="E24" s="224"/>
-      <c r="F24" s="224"/>
+      <c r="D24" s="230" t="s">
+        <v>186</v>
+      </c>
+      <c r="E24" s="230"/>
+      <c r="F24" s="230"/>
       <c r="G24" s="36" t="s">
         <v>33</v>
       </c>
@@ -6111,11 +6105,11 @@
         <v>30</v>
       </c>
       <c r="C25" s="220"/>
-      <c r="D25" s="224" t="s">
+      <c r="D25" s="230" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="224"/>
-      <c r="F25" s="224"/>
+      <c r="E25" s="230"/>
+      <c r="F25" s="230"/>
       <c r="G25" s="36" t="s">
         <v>33</v>
       </c>
@@ -6125,11 +6119,11 @@
         <v>31</v>
       </c>
       <c r="C26" s="220"/>
-      <c r="D26" s="224" t="s">
+      <c r="D26" s="230" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="224"/>
-      <c r="F26" s="224"/>
+      <c r="E26" s="230"/>
+      <c r="F26" s="230"/>
       <c r="G26" s="36" t="s">
         <v>33</v>
       </c>
@@ -6142,12 +6136,12 @@
         <v>34</v>
       </c>
       <c r="C28" s="220"/>
-      <c r="D28" s="221" t="e">
+      <c r="D28" s="227" t="e">
         <f>D23+D24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E28" s="221"/>
-      <c r="F28" s="221"/>
+      <c r="E28" s="227"/>
+      <c r="F28" s="227"/>
       <c r="G28" s="36" t="s">
         <v>32</v>
       </c>
@@ -6160,27 +6154,27 @@
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="220" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C31" s="220"/>
       <c r="D31" s="220" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E31" s="220"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="220" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C32" s="220"/>
       <c r="D32" s="220" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E32" s="220"/>
     </row>
     <row r="33" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="222" t="s">
-        <v>89</v>
+      <c r="B33" s="228" t="s">
+        <v>88</v>
       </c>
       <c r="C33" s="220"/>
       <c r="D33" s="220"/>
@@ -6231,7 +6225,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -6239,7 +6233,7 @@
         <v>37</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -6247,7 +6241,7 @@
         <v>37</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -6260,15 +6254,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="H6:I6"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="D32:E32"/>
@@ -6284,6 +6269,15 @@
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="H6:I6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -6330,58 +6324,58 @@
   <sheetData>
     <row r="1" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="37"/>
-      <c r="B1" s="235" t="s">
+      <c r="B1" s="279" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
-      <c r="E1" s="235"/>
-      <c r="F1" s="235"/>
-      <c r="G1" s="235"/>
-      <c r="H1" s="235"/>
-      <c r="I1" s="235"/>
+      <c r="C1" s="279"/>
+      <c r="D1" s="279"/>
+      <c r="E1" s="279"/>
+      <c r="F1" s="279"/>
+      <c r="G1" s="279"/>
+      <c r="H1" s="279"/>
+      <c r="I1" s="279"/>
       <c r="J1" s="38"/>
       <c r="K1" s="38"/>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="3" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="236" t="s">
+      <c r="B3" s="280" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="237"/>
-      <c r="D3" s="238" t="s">
-        <v>95</v>
-      </c>
-      <c r="E3" s="239"/>
-      <c r="F3" s="240"/>
+      <c r="C3" s="281"/>
+      <c r="D3" s="282" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="283"/>
+      <c r="F3" s="284"/>
       <c r="G3" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="241" t="s">
-        <v>110</v>
-      </c>
-      <c r="I3" s="242"/>
-      <c r="J3" s="243"/>
+      <c r="H3" s="285" t="s">
+        <v>109</v>
+      </c>
+      <c r="I3" s="286"/>
+      <c r="J3" s="287"/>
       <c r="K3" s="41"/>
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="244" t="s">
+      <c r="B4" s="288" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="245"/>
-      <c r="D4" s="246" t="s">
-        <v>195</v>
-      </c>
-      <c r="E4" s="247"/>
-      <c r="F4" s="248"/>
+      <c r="C4" s="289"/>
+      <c r="D4" s="290" t="s">
+        <v>194</v>
+      </c>
+      <c r="E4" s="291"/>
+      <c r="F4" s="292"/>
       <c r="G4" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="249" t="s">
-        <v>96</v>
-      </c>
-      <c r="I4" s="250"/>
-      <c r="J4" s="251"/>
+      <c r="H4" s="293" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4" s="294"/>
+      <c r="J4" s="295"/>
       <c r="K4" s="43"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -6395,94 +6389,94 @@
       <c r="I5" s="44"/>
     </row>
     <row r="6" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="270" t="s">
+      <c r="B6" s="268" t="s">
         <v>48</v>
       </c>
       <c r="C6" s="40"/>
-      <c r="D6" s="273" t="s">
+      <c r="D6" s="271" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="274"/>
-      <c r="F6" s="273" t="s">
+      <c r="E6" s="272"/>
+      <c r="F6" s="271" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="275"/>
-      <c r="H6" s="273" t="s">
+      <c r="G6" s="273"/>
+      <c r="H6" s="271" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="275"/>
-      <c r="J6" s="276"/>
+      <c r="I6" s="273"/>
+      <c r="J6" s="274"/>
       <c r="K6" s="45"/>
     </row>
     <row r="7" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="271"/>
+      <c r="B7" s="269"/>
       <c r="C7" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="231" t="s">
+      <c r="D7" s="275" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="276"/>
+      <c r="F7" s="275" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="233"/>
-      <c r="F7" s="231" t="s">
-        <v>112</v>
-      </c>
-      <c r="G7" s="233"/>
+      <c r="G7" s="276"/>
       <c r="H7" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="231" t="e">
+      <c r="I7" s="275" t="e">
         <f>D7+F7</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J7" s="232"/>
+      <c r="J7" s="277"/>
       <c r="K7" s="48"/>
     </row>
     <row r="8" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="271"/>
+      <c r="B8" s="269"/>
       <c r="C8" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="231" t="s">
+      <c r="D8" s="275" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="276"/>
+      <c r="F8" s="275" t="s">
         <v>117</v>
       </c>
-      <c r="E8" s="233"/>
-      <c r="F8" s="231" t="s">
-        <v>118</v>
-      </c>
-      <c r="G8" s="234"/>
+      <c r="G8" s="278"/>
       <c r="H8" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="231" t="e">
+      <c r="I8" s="275" t="e">
         <f>D8+F8</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J8" s="232"/>
+      <c r="J8" s="277"/>
       <c r="K8" s="48"/>
     </row>
     <row r="9" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="272"/>
+      <c r="B9" s="270"/>
       <c r="C9" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="252">
+      <c r="D9" s="250">
         <f>SUM(D7:E8)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="253"/>
-      <c r="F9" s="252">
+      <c r="E9" s="251"/>
+      <c r="F9" s="250">
         <f>SUM(F7:G8)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="254"/>
+      <c r="G9" s="252"/>
       <c r="H9" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="252">
+      <c r="I9" s="250">
         <f>D9+F9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="255"/>
+      <c r="J9" s="253"/>
       <c r="K9" s="48"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -6496,52 +6490,52 @@
       <c r="I10" s="44"/>
     </row>
     <row r="11" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="256" t="s">
+      <c r="B11" s="254" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="257"/>
+      <c r="C11" s="255"/>
       <c r="D11" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="260" t="s">
+      <c r="E11" s="258" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" s="259"/>
+      <c r="G11" s="260" t="s">
         <v>113</v>
       </c>
-      <c r="F11" s="261"/>
-      <c r="G11" s="262" t="s">
-        <v>114</v>
-      </c>
-      <c r="H11" s="262"/>
-      <c r="I11" s="263" t="e">
+      <c r="H11" s="260"/>
+      <c r="I11" s="261" t="e">
         <f>G11-E11+1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J11" s="264"/>
+      <c r="J11" s="262"/>
       <c r="K11" s="52"/>
     </row>
     <row r="12" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="258"/>
-      <c r="C12" s="259"/>
+      <c r="B12" s="256"/>
+      <c r="C12" s="257"/>
       <c r="D12" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="265" t="s">
+      <c r="E12" s="263" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" s="264"/>
+      <c r="G12" s="265" t="s">
         <v>115</v>
       </c>
-      <c r="F12" s="266"/>
-      <c r="G12" s="267" t="s">
-        <v>116</v>
-      </c>
-      <c r="H12" s="267"/>
-      <c r="I12" s="268" t="e">
+      <c r="H12" s="265"/>
+      <c r="I12" s="266" t="e">
         <f>G12-E12+1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J12" s="269"/>
+      <c r="J12" s="267"/>
       <c r="K12" s="52"/>
     </row>
     <row r="13" spans="1:11" ht="10" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="14" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="282" t="s">
+      <c r="B14" s="236" t="s">
         <v>60</v>
       </c>
       <c r="C14" s="54"/>
@@ -6559,15 +6553,15 @@
         <f>I$11+I$12</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H14" s="285" t="s">
-        <v>97</v>
-      </c>
-      <c r="I14" s="285"/>
-      <c r="J14" s="286"/>
+      <c r="H14" s="239" t="s">
+        <v>96</v>
+      </c>
+      <c r="I14" s="239"/>
+      <c r="J14" s="240"/>
       <c r="K14" s="59"/>
     </row>
     <row r="15" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="283"/>
+      <c r="B15" s="237"/>
       <c r="C15" s="60" t="s">
         <v>62</v>
       </c>
@@ -6585,15 +6579,15 @@
         <f>I$11+I$12</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H15" s="287" t="s">
-        <v>98</v>
-      </c>
-      <c r="I15" s="287"/>
-      <c r="J15" s="288"/>
+      <c r="H15" s="241" t="s">
+        <v>97</v>
+      </c>
+      <c r="I15" s="241"/>
+      <c r="J15" s="242"/>
       <c r="K15" s="59"/>
     </row>
     <row r="16" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="283"/>
+      <c r="B16" s="237"/>
       <c r="C16" s="65"/>
       <c r="D16" s="66" t="s">
         <v>51</v>
@@ -6604,15 +6598,15 @@
       <c r="H16" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="I16" s="289" t="e">
+      <c r="I16" s="243" t="e">
         <f>H14+H15</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J16" s="290"/>
+      <c r="J16" s="244"/>
       <c r="K16" s="59"/>
     </row>
     <row r="17" spans="2:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="284"/>
+      <c r="B17" s="238"/>
       <c r="C17" s="70" t="s">
         <v>65</v>
       </c>
@@ -6629,11 +6623,11 @@
         <v>（Ｄ）</v>
       </c>
       <c r="H17" s="75"/>
-      <c r="I17" s="291" t="e">
+      <c r="I17" s="245" t="e">
         <f>I9-I16</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J17" s="292"/>
+      <c r="J17" s="246"/>
       <c r="K17" s="59"/>
     </row>
     <row r="18" spans="2:11" ht="8.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -6641,21 +6635,21 @@
       <c r="I18" s="76"/>
     </row>
     <row r="19" spans="2:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="293" t="s">
+      <c r="B19" s="247" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="294"/>
-      <c r="D19" s="295"/>
+      <c r="C19" s="248"/>
+      <c r="D19" s="249"/>
       <c r="E19" s="77"/>
       <c r="F19" s="77"/>
       <c r="G19" s="77"/>
       <c r="H19" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="I19" s="280" t="s">
-        <v>99</v>
-      </c>
-      <c r="J19" s="281"/>
+      <c r="I19" s="234" t="s">
+        <v>98</v>
+      </c>
+      <c r="J19" s="235"/>
       <c r="K19" s="59"/>
     </row>
     <row r="20" spans="2:11" ht="8.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -6665,21 +6659,21 @@
       <c r="I20" s="80"/>
     </row>
     <row r="21" spans="2:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="277" t="s">
+      <c r="B21" s="231" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="278"/>
-      <c r="D21" s="279"/>
+      <c r="C21" s="232"/>
+      <c r="D21" s="233"/>
       <c r="E21" s="77"/>
       <c r="F21" s="77"/>
       <c r="G21" s="77"/>
       <c r="H21" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="I21" s="280" t="s">
-        <v>187</v>
-      </c>
-      <c r="J21" s="281"/>
+      <c r="I21" s="234" t="s">
+        <v>186</v>
+      </c>
+      <c r="J21" s="235"/>
       <c r="K21" s="81"/>
     </row>
     <row r="22" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -6690,15 +6684,17 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="H4:J4"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="I9:J9"/>
@@ -6715,17 +6711,15 @@
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="I19:J19"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -6759,16 +6753,16 @@
     </row>
     <row r="2" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="37"/>
-      <c r="B2" s="296" t="s">
+      <c r="B2" s="319" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="296"/>
-      <c r="D2" s="296"/>
-      <c r="E2" s="296"/>
-      <c r="F2" s="296"/>
-      <c r="G2" s="296"/>
-      <c r="H2" s="296"/>
-      <c r="I2" s="296"/>
+      <c r="C2" s="319"/>
+      <c r="D2" s="319"/>
+      <c r="E2" s="319"/>
+      <c r="F2" s="319"/>
+      <c r="G2" s="319"/>
+      <c r="H2" s="319"/>
+      <c r="I2" s="319"/>
       <c r="J2" s="38"/>
     </row>
     <row r="3" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -6783,32 +6777,32 @@
       <c r="I4" s="98"/>
     </row>
     <row r="5" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="297" t="s">
+      <c r="B5" s="320" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="297"/>
-      <c r="D5" s="297"/>
-      <c r="E5" s="297"/>
+      <c r="C5" s="320"/>
+      <c r="D5" s="320"/>
+      <c r="E5" s="320"/>
       <c r="F5" s="85" t="s">
         <v>8</v>
       </c>
       <c r="I5" s="99"/>
-      <c r="L5" s="306" t="s">
-        <v>194</v>
+      <c r="L5" s="296" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L6" s="307"/>
+      <c r="L6" s="297"/>
     </row>
     <row r="7" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" s="298" t="e">
+      <c r="D7" s="321" t="e">
         <f>G13+G14</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E7" s="299"/>
-      <c r="F7" s="299"/>
-      <c r="G7" s="299"/>
-      <c r="H7" s="300"/>
+      <c r="E7" s="322"/>
+      <c r="F7" s="322"/>
+      <c r="G7" s="322"/>
+      <c r="H7" s="323"/>
       <c r="I7" s="45"/>
       <c r="J7" s="86"/>
     </row>
@@ -6829,94 +6823,94 @@
       <c r="J9" s="86"/>
     </row>
     <row r="10" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="301" t="s">
+      <c r="B10" s="324" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="302"/>
-      <c r="D10" s="303" t="s">
-        <v>153</v>
-      </c>
-      <c r="E10" s="304"/>
-      <c r="F10" s="304"/>
-      <c r="G10" s="304"/>
-      <c r="H10" s="304"/>
-      <c r="I10" s="305"/>
+      <c r="C10" s="325"/>
+      <c r="D10" s="326" t="s">
+        <v>152</v>
+      </c>
+      <c r="E10" s="327"/>
+      <c r="F10" s="327"/>
+      <c r="G10" s="327"/>
+      <c r="H10" s="327"/>
+      <c r="I10" s="328"/>
       <c r="J10" s="86"/>
       <c r="L10" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J11" s="90"/>
       <c r="L11" s="39" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="314" t="s">
+      <c r="B12" s="304" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="315"/>
-      <c r="D12" s="315"/>
-      <c r="E12" s="315"/>
-      <c r="F12" s="315"/>
-      <c r="G12" s="315" t="s">
+      <c r="C12" s="305"/>
+      <c r="D12" s="305"/>
+      <c r="E12" s="305"/>
+      <c r="F12" s="305"/>
+      <c r="G12" s="305" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="315"/>
-      <c r="I12" s="316"/>
+      <c r="H12" s="305"/>
+      <c r="I12" s="306"/>
       <c r="J12" s="90"/>
       <c r="L12" s="39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="317" t="s">
-        <v>196</v>
-      </c>
-      <c r="C13" s="318"/>
-      <c r="D13" s="318"/>
-      <c r="E13" s="318"/>
-      <c r="F13" s="319"/>
-      <c r="G13" s="320" t="s">
-        <v>186</v>
-      </c>
-      <c r="H13" s="321"/>
-      <c r="I13" s="322"/>
+      <c r="B13" s="307" t="s">
+        <v>195</v>
+      </c>
+      <c r="C13" s="308"/>
+      <c r="D13" s="308"/>
+      <c r="E13" s="308"/>
+      <c r="F13" s="309"/>
+      <c r="G13" s="310" t="s">
+        <v>185</v>
+      </c>
+      <c r="H13" s="311"/>
+      <c r="I13" s="312"/>
       <c r="J13" s="90"/>
       <c r="L13" s="39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="323" t="s">
-        <v>119</v>
-      </c>
-      <c r="C14" s="324"/>
-      <c r="D14" s="324"/>
-      <c r="E14" s="324"/>
-      <c r="F14" s="325"/>
-      <c r="G14" s="320" t="s">
-        <v>190</v>
-      </c>
-      <c r="H14" s="321"/>
-      <c r="I14" s="322"/>
+      <c r="B14" s="313" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="314"/>
+      <c r="D14" s="314"/>
+      <c r="E14" s="314"/>
+      <c r="F14" s="315"/>
+      <c r="G14" s="310" t="s">
+        <v>189</v>
+      </c>
+      <c r="H14" s="311"/>
+      <c r="I14" s="312"/>
       <c r="J14" s="90"/>
       <c r="L14" s="39" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="311" t="s">
+      <c r="B15" s="301" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="312"/>
-      <c r="D15" s="312"/>
-      <c r="E15" s="312"/>
-      <c r="F15" s="313"/>
-      <c r="G15" s="326"/>
-      <c r="H15" s="327"/>
-      <c r="I15" s="328"/>
+      <c r="C15" s="302"/>
+      <c r="D15" s="302"/>
+      <c r="E15" s="302"/>
+      <c r="F15" s="303"/>
+      <c r="G15" s="316"/>
+      <c r="H15" s="317"/>
+      <c r="I15" s="318"/>
     </row>
     <row r="16" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="91"/>
@@ -6929,10 +6923,10 @@
       <c r="I16" s="93"/>
     </row>
     <row r="17" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="310" t="s">
-        <v>110</v>
-      </c>
-      <c r="C17" s="310"/>
+      <c r="B17" s="300" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="300"/>
       <c r="D17" s="100" t="s">
         <v>17</v>
       </c>
@@ -6957,31 +6951,31 @@
       <c r="E19" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="259"/>
-      <c r="G19" s="259"/>
-      <c r="H19" s="259"/>
-      <c r="I19" s="259"/>
-      <c r="J19" s="259"/>
+      <c r="F19" s="257"/>
+      <c r="G19" s="257"/>
+      <c r="H19" s="257"/>
+      <c r="I19" s="257"/>
+      <c r="J19" s="257"/>
     </row>
     <row r="20" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" s="94"/>
       <c r="E20" s="95"/>
-      <c r="F20" s="308"/>
-      <c r="G20" s="308"/>
-      <c r="H20" s="308"/>
-      <c r="I20" s="308"/>
+      <c r="F20" s="298"/>
+      <c r="G20" s="298"/>
+      <c r="H20" s="298"/>
+      <c r="I20" s="298"/>
     </row>
     <row r="21" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="309" t="s">
+      <c r="F21" s="299" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="309"/>
-      <c r="H21" s="309"/>
-      <c r="I21" s="309"/>
-      <c r="J21" s="309"/>
+      <c r="G21" s="299"/>
+      <c r="H21" s="299"/>
+      <c r="I21" s="299"/>
+      <c r="J21" s="299"/>
     </row>
     <row r="22" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E22" s="95"/>
@@ -7014,6 +7008,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:I10"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="F19:J19"/>
     <mergeCell ref="F20:I20"/>
@@ -7027,11 +7026,6 @@
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:I10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -7067,16 +7061,16 @@
     </row>
     <row r="2" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="37"/>
-      <c r="B2" s="296" t="s">
+      <c r="B2" s="319" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="296"/>
-      <c r="D2" s="296"/>
-      <c r="E2" s="296"/>
-      <c r="F2" s="296"/>
-      <c r="G2" s="296"/>
-      <c r="H2" s="296"/>
-      <c r="I2" s="296"/>
+      <c r="C2" s="319"/>
+      <c r="D2" s="319"/>
+      <c r="E2" s="319"/>
+      <c r="F2" s="319"/>
+      <c r="G2" s="319"/>
+      <c r="H2" s="319"/>
+      <c r="I2" s="319"/>
       <c r="J2" s="210"/>
     </row>
     <row r="3" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -7091,12 +7085,12 @@
       <c r="I4" s="98"/>
     </row>
     <row r="5" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="297" t="s">
+      <c r="B5" s="320" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="297"/>
-      <c r="D5" s="297"/>
-      <c r="E5" s="297"/>
+      <c r="C5" s="320"/>
+      <c r="D5" s="320"/>
+      <c r="E5" s="320"/>
       <c r="F5" s="85" t="s">
         <v>8</v>
       </c>
@@ -7104,14 +7098,14 @@
     </row>
     <row r="6" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" s="298" t="e">
+      <c r="D7" s="321" t="e">
         <f>G13+G14</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E7" s="299"/>
-      <c r="F7" s="299"/>
-      <c r="G7" s="299"/>
-      <c r="H7" s="300"/>
+      <c r="E7" s="322"/>
+      <c r="F7" s="322"/>
+      <c r="G7" s="322"/>
+      <c r="H7" s="323"/>
       <c r="I7" s="45"/>
       <c r="J7" s="86"/>
     </row>
@@ -7132,18 +7126,18 @@
       <c r="J9" s="86"/>
     </row>
     <row r="10" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="301" t="s">
+      <c r="B10" s="324" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="302"/>
-      <c r="D10" s="303" t="s">
-        <v>153</v>
-      </c>
-      <c r="E10" s="304"/>
-      <c r="F10" s="304"/>
-      <c r="G10" s="304"/>
-      <c r="H10" s="304"/>
-      <c r="I10" s="305"/>
+      <c r="C10" s="325"/>
+      <c r="D10" s="326" t="s">
+        <v>152</v>
+      </c>
+      <c r="E10" s="327"/>
+      <c r="F10" s="327"/>
+      <c r="G10" s="327"/>
+      <c r="H10" s="327"/>
+      <c r="I10" s="328"/>
       <c r="J10" s="86"/>
       <c r="L10" s="329">
         <v>8250000</v>
@@ -7156,78 +7150,78 @@
     <row r="11" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J11" s="90"/>
       <c r="L11" s="212" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M11" s="212"/>
       <c r="N11" s="212"/>
     </row>
     <row r="12" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="314" t="s">
+      <c r="B12" s="304" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="315"/>
-      <c r="D12" s="315"/>
-      <c r="E12" s="315"/>
-      <c r="F12" s="315"/>
-      <c r="G12" s="315" t="s">
+      <c r="C12" s="305"/>
+      <c r="D12" s="305"/>
+      <c r="E12" s="305"/>
+      <c r="F12" s="305"/>
+      <c r="G12" s="305" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="315"/>
-      <c r="I12" s="316"/>
+      <c r="H12" s="305"/>
+      <c r="I12" s="306"/>
       <c r="J12" s="90"/>
       <c r="L12" s="212" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M12" s="212"/>
       <c r="N12" s="212"/>
     </row>
     <row r="13" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="317" t="s">
-        <v>174</v>
-      </c>
-      <c r="C13" s="318"/>
-      <c r="D13" s="318"/>
-      <c r="E13" s="318"/>
-      <c r="F13" s="319"/>
-      <c r="G13" s="320" t="s">
-        <v>185</v>
-      </c>
-      <c r="H13" s="321"/>
-      <c r="I13" s="322"/>
+      <c r="B13" s="307" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="308"/>
+      <c r="D13" s="308"/>
+      <c r="E13" s="308"/>
+      <c r="F13" s="309"/>
+      <c r="G13" s="310" t="s">
+        <v>184</v>
+      </c>
+      <c r="H13" s="311"/>
+      <c r="I13" s="312"/>
       <c r="J13" s="90"/>
       <c r="L13" s="212" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M13" s="212"/>
       <c r="N13" s="212"/>
     </row>
     <row r="14" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="323" t="s">
-        <v>175</v>
-      </c>
-      <c r="C14" s="324"/>
-      <c r="D14" s="324"/>
-      <c r="E14" s="324"/>
-      <c r="F14" s="325"/>
-      <c r="G14" s="320"/>
-      <c r="H14" s="321"/>
-      <c r="I14" s="322"/>
+      <c r="B14" s="313" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="314"/>
+      <c r="D14" s="314"/>
+      <c r="E14" s="314"/>
+      <c r="F14" s="315"/>
+      <c r="G14" s="310"/>
+      <c r="H14" s="311"/>
+      <c r="I14" s="312"/>
       <c r="J14" s="90"/>
       <c r="L14" s="212" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M14" s="212"/>
       <c r="N14" s="212"/>
     </row>
     <row r="15" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="311"/>
-      <c r="C15" s="312"/>
-      <c r="D15" s="312"/>
-      <c r="E15" s="312"/>
-      <c r="F15" s="313"/>
-      <c r="G15" s="326"/>
-      <c r="H15" s="327"/>
-      <c r="I15" s="328"/>
+      <c r="B15" s="301"/>
+      <c r="C15" s="302"/>
+      <c r="D15" s="302"/>
+      <c r="E15" s="302"/>
+      <c r="F15" s="303"/>
+      <c r="G15" s="316"/>
+      <c r="H15" s="317"/>
+      <c r="I15" s="318"/>
     </row>
     <row r="16" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="211"/>
@@ -7240,10 +7234,10 @@
       <c r="I16" s="93"/>
     </row>
     <row r="17" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="310" t="s">
-        <v>184</v>
-      </c>
-      <c r="C17" s="310"/>
+      <c r="B17" s="300" t="s">
+        <v>183</v>
+      </c>
+      <c r="C17" s="300"/>
       <c r="D17" s="100" t="s">
         <v>17</v>
       </c>
@@ -7268,31 +7262,31 @@
       <c r="E19" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="259"/>
-      <c r="G19" s="259"/>
-      <c r="H19" s="259"/>
-      <c r="I19" s="259"/>
-      <c r="J19" s="259"/>
+      <c r="F19" s="257"/>
+      <c r="G19" s="257"/>
+      <c r="H19" s="257"/>
+      <c r="I19" s="257"/>
+      <c r="J19" s="257"/>
     </row>
     <row r="20" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" s="94"/>
       <c r="E20" s="95"/>
-      <c r="F20" s="308"/>
-      <c r="G20" s="308"/>
-      <c r="H20" s="308"/>
-      <c r="I20" s="308"/>
+      <c r="F20" s="298"/>
+      <c r="G20" s="298"/>
+      <c r="H20" s="298"/>
+      <c r="I20" s="298"/>
     </row>
     <row r="21" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="309" t="s">
+      <c r="F21" s="299" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="309"/>
-      <c r="H21" s="309"/>
-      <c r="I21" s="309"/>
-      <c r="J21" s="309"/>
+      <c r="G21" s="299"/>
+      <c r="H21" s="299"/>
+      <c r="I21" s="299"/>
+      <c r="J21" s="299"/>
     </row>
     <row r="22" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E22" s="95"/>
@@ -7325,11 +7319,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:I10"/>
     <mergeCell ref="L10:P10"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="F19:J19"/>
@@ -7343,6 +7332,11 @@
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:I10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -7385,16 +7379,16 @@
     </row>
     <row r="2" spans="1:15" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="106"/>
-      <c r="B2" s="367" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="367"/>
-      <c r="D2" s="367"/>
-      <c r="E2" s="367"/>
-      <c r="F2" s="367"/>
-      <c r="G2" s="367"/>
-      <c r="H2" s="367"/>
-      <c r="I2" s="367"/>
+      <c r="B2" s="334" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="334"/>
+      <c r="D2" s="334"/>
+      <c r="E2" s="334"/>
+      <c r="F2" s="334"/>
+      <c r="G2" s="334"/>
+      <c r="H2" s="334"/>
+      <c r="I2" s="334"/>
       <c r="J2" s="107"/>
       <c r="K2" s="107"/>
       <c r="L2" s="107"/>
@@ -7417,17 +7411,17 @@
       <c r="B4" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="368"/>
-      <c r="D4" s="369"/>
-      <c r="E4" s="370"/>
+      <c r="C4" s="335"/>
+      <c r="D4" s="336"/>
+      <c r="E4" s="337"/>
       <c r="F4" s="111" t="s">
-        <v>124</v>
-      </c>
-      <c r="G4" s="371">
+        <v>123</v>
+      </c>
+      <c r="G4" s="338">
         <v>43983</v>
       </c>
-      <c r="H4" s="371"/>
-      <c r="I4" s="372"/>
+      <c r="H4" s="338"/>
+      <c r="I4" s="339"/>
       <c r="J4" s="112"/>
       <c r="K4" s="113"/>
       <c r="L4" s="113"/>
@@ -7435,27 +7429,27 @@
         <v>44</v>
       </c>
       <c r="N4" s="114" t="s">
+        <v>124</v>
+      </c>
+      <c r="O4" s="114" t="s">
         <v>125</v>
-      </c>
-      <c r="O4" s="114" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="115" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="330"/>
+      <c r="D5" s="331"/>
+      <c r="E5" s="331"/>
+      <c r="F5" s="116" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="363"/>
-      <c r="D5" s="364"/>
-      <c r="E5" s="364"/>
-      <c r="F5" s="116" t="s">
+      <c r="G5" s="332" t="s">
         <v>128</v>
       </c>
-      <c r="G5" s="365" t="s">
-        <v>129</v>
-      </c>
-      <c r="H5" s="365"/>
-      <c r="I5" s="366"/>
+      <c r="H5" s="332"/>
+      <c r="I5" s="333"/>
       <c r="J5" s="112"/>
       <c r="M5" s="117">
         <v>43516</v>
@@ -7469,7 +7463,7 @@
     </row>
     <row r="6" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="121" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C6" s="122"/>
       <c r="D6" s="112"/>
@@ -7541,27 +7535,27 @@
     </row>
     <row r="11" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="127" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="342"/>
+      <c r="D11" s="342"/>
+      <c r="E11" s="342"/>
+      <c r="F11" s="123" t="s">
         <v>131</v>
-      </c>
-      <c r="C11" s="340"/>
-      <c r="D11" s="340"/>
-      <c r="E11" s="340"/>
-      <c r="F11" s="123" t="s">
-        <v>132</v>
       </c>
       <c r="G11" s="108"/>
       <c r="H11" s="108"/>
       <c r="I11" s="108"/>
       <c r="J11" s="108"/>
       <c r="M11" s="114" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N11" s="128"/>
       <c r="O11" s="128"/>
     </row>
     <row r="12" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="108" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C12" s="108"/>
       <c r="D12" s="108"/>
@@ -7572,24 +7566,24 @@
       <c r="I12" s="108"/>
       <c r="J12" s="108"/>
       <c r="M12" s="114" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N12" s="128"/>
       <c r="O12" s="128"/>
     </row>
     <row r="13" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="127" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="343" t="s">
         <v>135</v>
       </c>
-      <c r="C13" s="341" t="s">
-        <v>136</v>
-      </c>
-      <c r="D13" s="342"/>
-      <c r="E13" s="343" t="s">
+      <c r="D13" s="344"/>
+      <c r="E13" s="345" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="344"/>
-      <c r="G13" s="345"/>
+      <c r="F13" s="346"/>
+      <c r="G13" s="347"/>
       <c r="H13" s="108"/>
       <c r="I13" s="108"/>
       <c r="J13" s="108"/>
@@ -7603,16 +7597,16 @@
     </row>
     <row r="14" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="132" t="s">
-        <v>137</v>
-      </c>
-      <c r="C14" s="346"/>
-      <c r="D14" s="347"/>
-      <c r="E14" s="348">
+        <v>136</v>
+      </c>
+      <c r="C14" s="348"/>
+      <c r="D14" s="349"/>
+      <c r="E14" s="350">
         <f>SUM(C14:D14)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="349"/>
-      <c r="G14" s="350"/>
+      <c r="F14" s="351"/>
+      <c r="G14" s="352"/>
       <c r="H14" s="123"/>
       <c r="I14" s="123"/>
       <c r="J14" s="123"/>
@@ -7622,19 +7616,19 @@
     </row>
     <row r="15" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="127" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C15" s="135"/>
       <c r="D15" s="136">
         <f>SUM(C14:D14)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="351">
+      <c r="E15" s="353">
         <f>SUM(C15:D15)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="352"/>
-      <c r="G15" s="353"/>
+      <c r="F15" s="354"/>
+      <c r="G15" s="355"/>
       <c r="H15" s="123"/>
       <c r="I15" s="123"/>
       <c r="J15" s="123"/>
@@ -7661,18 +7655,18 @@
     </row>
     <row r="17" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="146" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C17" s="147"/>
-      <c r="D17" s="354">
+      <c r="D17" s="356">
         <v>43983</v>
       </c>
-      <c r="E17" s="354"/>
-      <c r="F17" s="355">
+      <c r="E17" s="356"/>
+      <c r="F17" s="357">
         <v>43983</v>
       </c>
-      <c r="G17" s="355"/>
-      <c r="H17" s="355"/>
+      <c r="G17" s="357"/>
+      <c r="H17" s="357"/>
       <c r="I17" s="148"/>
       <c r="J17" s="149"/>
       <c r="K17" s="138"/>
@@ -7682,7 +7676,7 @@
     </row>
     <row r="18" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="150" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C18" s="151"/>
       <c r="D18" s="152">
@@ -7695,15 +7689,15 @@
         <v>30</v>
       </c>
       <c r="G18" s="155"/>
-      <c r="H18" s="356"/>
-      <c r="I18" s="357"/>
+      <c r="H18" s="358"/>
+      <c r="I18" s="359"/>
       <c r="L18" s="138"/>
       <c r="N18" s="156"/>
       <c r="O18" s="156"/>
     </row>
     <row r="19" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="157" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C19" s="158"/>
       <c r="D19" s="159">
@@ -7716,10 +7710,10 @@
         <v>30</v>
       </c>
       <c r="G19" s="162"/>
-      <c r="H19" s="358"/>
-      <c r="I19" s="359"/>
+      <c r="H19" s="360"/>
+      <c r="I19" s="361"/>
       <c r="J19" s="123" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L19" s="138"/>
       <c r="N19" s="156"/>
@@ -7741,16 +7735,16 @@
       <c r="O20" s="169"/>
     </row>
     <row r="21" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="360" t="s">
-        <v>143</v>
-      </c>
-      <c r="C21" s="361"/>
-      <c r="D21" s="361"/>
-      <c r="E21" s="361"/>
-      <c r="F21" s="361"/>
-      <c r="G21" s="361"/>
-      <c r="H21" s="361"/>
-      <c r="I21" s="362"/>
+      <c r="B21" s="362" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" s="363"/>
+      <c r="D21" s="363"/>
+      <c r="E21" s="363"/>
+      <c r="F21" s="363"/>
+      <c r="G21" s="363"/>
+      <c r="H21" s="363"/>
+      <c r="I21" s="364"/>
       <c r="J21" s="170"/>
       <c r="K21" s="171"/>
       <c r="L21" s="138"/>
@@ -7759,20 +7753,20 @@
     </row>
     <row r="22" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="150" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C22" s="151"/>
       <c r="D22" s="172" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E22" s="153"/>
       <c r="F22" s="173"/>
       <c r="G22" s="174"/>
-      <c r="H22" s="338">
+      <c r="H22" s="340">
         <f>C11+H19</f>
         <v>0</v>
       </c>
-      <c r="I22" s="339"/>
+      <c r="I22" s="341"/>
       <c r="J22" s="167"/>
       <c r="K22" s="171"/>
       <c r="L22" s="138"/>
@@ -7828,31 +7822,31 @@
       <c r="O25" s="169"/>
     </row>
     <row r="26" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="332" t="s">
+      <c r="B26" s="367" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="332"/>
-      <c r="D26" s="332"/>
-      <c r="E26" s="332"/>
-      <c r="F26" s="332"/>
-      <c r="G26" s="332"/>
-      <c r="H26" s="332"/>
-      <c r="I26" s="332"/>
-      <c r="J26" s="332"/>
+      <c r="C26" s="367"/>
+      <c r="D26" s="367"/>
+      <c r="E26" s="367"/>
+      <c r="F26" s="367"/>
+      <c r="G26" s="367"/>
+      <c r="H26" s="367"/>
+      <c r="I26" s="367"/>
+      <c r="J26" s="367"/>
       <c r="K26" s="171"/>
       <c r="N26" s="169"/>
       <c r="O26" s="169"/>
     </row>
     <row r="27" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="171"/>
-      <c r="B27" s="333"/>
-      <c r="C27" s="333"/>
+      <c r="B27" s="368"/>
+      <c r="C27" s="368"/>
       <c r="D27" s="185"/>
       <c r="E27" s="186"/>
       <c r="F27" s="186"/>
       <c r="G27" s="186"/>
       <c r="H27" s="187"/>
-      <c r="I27" s="334"/>
+      <c r="I27" s="369"/>
       <c r="J27" s="188"/>
       <c r="K27" s="171"/>
       <c r="N27" s="169"/>
@@ -7860,18 +7854,18 @@
     </row>
     <row r="28" spans="1:15" s="171" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="171" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28" s="371"/>
+      <c r="C28" s="371"/>
+      <c r="D28" s="185" t="s">
         <v>146</v>
-      </c>
-      <c r="B28" s="336"/>
-      <c r="C28" s="336"/>
-      <c r="D28" s="185" t="s">
-        <v>147</v>
       </c>
       <c r="E28" s="189"/>
       <c r="F28" s="108"/>
       <c r="G28" s="108"/>
       <c r="H28" s="108"/>
-      <c r="I28" s="335"/>
+      <c r="I28" s="370"/>
       <c r="J28" s="190"/>
       <c r="L28" s="105"/>
       <c r="M28" s="105"/>
@@ -7893,12 +7887,12 @@
     <row r="30" spans="1:15" s="171" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="108"/>
       <c r="C30" s="108"/>
-      <c r="D30" s="337">
+      <c r="D30" s="372">
         <f>H22</f>
         <v>0</v>
       </c>
-      <c r="E30" s="337"/>
-      <c r="F30" s="337"/>
+      <c r="E30" s="372"/>
+      <c r="F30" s="372"/>
       <c r="G30" s="192"/>
       <c r="H30" s="108"/>
       <c r="I30" s="108"/>
@@ -7960,9 +7954,9 @@
       <c r="D34" s="108"/>
       <c r="E34" s="108"/>
       <c r="F34" s="198"/>
-      <c r="G34" s="330"/>
-      <c r="H34" s="330"/>
-      <c r="I34" s="330"/>
+      <c r="G34" s="365"/>
+      <c r="H34" s="365"/>
+      <c r="I34" s="365"/>
       <c r="J34" s="199"/>
       <c r="L34" s="193"/>
       <c r="M34" s="193"/>
@@ -7973,11 +7967,11 @@
       <c r="D35" s="108"/>
       <c r="E35" s="108"/>
       <c r="F35" s="198"/>
-      <c r="G35" s="330">
+      <c r="G35" s="365">
         <v>43983</v>
       </c>
-      <c r="H35" s="330"/>
-      <c r="I35" s="330"/>
+      <c r="H35" s="365"/>
+      <c r="I35" s="365"/>
       <c r="J35" s="199"/>
       <c r="M35" s="200"/>
     </row>
@@ -7998,9 +7992,9 @@
       <c r="D37" s="108"/>
       <c r="E37" s="108"/>
       <c r="F37" s="108"/>
-      <c r="G37" s="330"/>
-      <c r="H37" s="330"/>
-      <c r="I37" s="330"/>
+      <c r="G37" s="365"/>
+      <c r="H37" s="365"/>
+      <c r="I37" s="365"/>
       <c r="J37" s="205"/>
       <c r="L37" s="193"/>
       <c r="M37" s="193"/>
@@ -8011,7 +8005,7 @@
       <c r="D38" s="108"/>
       <c r="E38" s="108"/>
       <c r="F38" s="198" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G38" s="198"/>
       <c r="H38" s="199"/>
@@ -8020,7 +8014,7 @@
       <c r="L38" s="193"/>
       <c r="M38" s="193"/>
       <c r="N38" s="105" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -8029,7 +8023,7 @@
       <c r="D39" s="108"/>
       <c r="E39" s="108"/>
       <c r="F39" s="198" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G39" s="108"/>
       <c r="H39" s="198"/>
@@ -8043,7 +8037,7 @@
       <c r="D40" s="108"/>
       <c r="E40" s="201"/>
       <c r="F40" s="202" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G40" s="203"/>
       <c r="H40" s="204"/>
@@ -8054,25 +8048,29 @@
       <c r="O41" s="109"/>
     </row>
     <row r="42" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="331" t="s">
+      <c r="B42" s="366" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="331"/>
-      <c r="D42" s="331"/>
-      <c r="E42" s="331"/>
-      <c r="F42" s="331"/>
-      <c r="G42" s="331"/>
-      <c r="H42" s="331"/>
-      <c r="I42" s="331"/>
+      <c r="C42" s="366"/>
+      <c r="D42" s="366"/>
+      <c r="E42" s="366"/>
+      <c r="F42" s="366"/>
+      <c r="G42" s="366"/>
+      <c r="H42" s="366"/>
+      <c r="I42" s="366"/>
       <c r="O42" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="B42:I42"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G34:I34"/>
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C13:D13"/>
@@ -8085,15 +8083,11 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="B21:I21"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="B42:I42"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:I4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/template/買取決済.xlsx
+++ b/template/買取決済.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\work\00_Wavesync\24_不動産管理システム\00_source\backend\kbs_backend\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478948AF-2C38-4D14-A9B7-C021D86B6353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF70703-2A92-4421-9547-A7BA37DE3A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -992,15 +992,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>$sharingEndDay_dt_kanji$</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>$sharingStartDayBuyer_dt_kanji$</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>$sharingEndDayBuyer_dt_kanji$</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1629,6 +1621,14 @@
   </si>
   <si>
     <t>$payPriceTaxTitle$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>～$sharingEndDay_dt_kanji$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>～$sharingEndDayBuyer_dt_kanji$</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3353,6 +3353,18 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3371,157 +3383,13 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="44" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="15" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="15" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="15" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="15" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="6" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="6" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="6" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="6" fillId="0" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="188" fontId="15" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="188" fontId="15" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="188" fontId="15" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="15" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="188" fontId="15" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3574,74 +3442,137 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="186" fontId="17" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="17" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="15" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="15" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="15" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="15" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="6" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="6" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="6" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="6" fillId="0" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="14" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="14" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="14" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="15" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="15" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="44" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3676,8 +3607,170 @@
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="186" fontId="17" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="17" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="14" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="14" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="14" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="15" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="15" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="205" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="38" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="38" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="40" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="14" fillId="0" borderId="53" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="54" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="51" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="27" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="14" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="32" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="32" fillId="0" borderId="53" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="54" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="194" fontId="32" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="32" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3704,99 +3797,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="194" fontId="14" fillId="0" borderId="53" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="54" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="51" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="27" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="14" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="32" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="32" fillId="0" borderId="53" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="54" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="194" fontId="32" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="32" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="38" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="38" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="40" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -5571,7 +5571,7 @@
         <v>2</v>
       </c>
       <c r="L3" s="213" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M3" s="8" t="s">
         <v>4</v>
@@ -5585,10 +5585,10 @@
         <v>87</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>88</v>
@@ -5606,13 +5606,13 @@
         <v>92</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K4" s="215" t="s">
+        <v>184</v>
+      </c>
+      <c r="L4" s="214" t="s">
         <v>186</v>
-      </c>
-      <c r="L4" s="214" t="s">
-        <v>188</v>
       </c>
       <c r="M4" s="1"/>
     </row>
@@ -5697,13 +5697,13 @@
       </c>
       <c r="G1" s="6"/>
       <c r="H1" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>77</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>105</v>
@@ -5720,7 +5720,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="216" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E2" s="216" t="s">
         <v>78</v>
@@ -5758,39 +5758,39 @@
         <v>3</v>
       </c>
       <c r="M3" s="208" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B4" s="208" t="s">
         <v>87</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E4" s="209" t="s">
+        <v>155</v>
+      </c>
+      <c r="F4" s="209" t="s">
+        <v>156</v>
+      </c>
+      <c r="G4" s="209" t="s">
         <v>157</v>
       </c>
-      <c r="F4" s="209" t="s">
+      <c r="H4" s="209" t="s">
         <v>158</v>
       </c>
-      <c r="G4" s="209" t="s">
+      <c r="I4" s="209" t="s">
         <v>159</v>
       </c>
-      <c r="H4" s="209" t="s">
+      <c r="J4" s="15" t="s">
         <v>160</v>
-      </c>
-      <c r="I4" s="209" t="s">
-        <v>161</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>162</v>
       </c>
       <c r="K4" s="16"/>
       <c r="L4" s="214" t="e">
@@ -5798,39 +5798,39 @@
         <v>#VALUE!</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B5" s="208" t="s">
         <v>87</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E5" s="209" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" s="209" t="s">
+        <v>164</v>
+      </c>
+      <c r="G5" s="209" t="s">
         <v>165</v>
       </c>
-      <c r="F5" s="209" t="s">
+      <c r="H5" s="209" t="s">
         <v>166</v>
       </c>
-      <c r="G5" s="209" t="s">
+      <c r="I5" s="209" t="s">
         <v>167</v>
       </c>
-      <c r="H5" s="209" t="s">
+      <c r="J5" s="15" t="s">
         <v>168</v>
-      </c>
-      <c r="I5" s="209" t="s">
-        <v>169</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>170</v>
       </c>
       <c r="K5" s="16"/>
       <c r="L5" s="214" t="e">
@@ -5838,7 +5838,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5937,16 +5937,16 @@
       </c>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="225" t="s">
-        <v>194</v>
-      </c>
-      <c r="C2" s="225"/>
-      <c r="D2" s="225"/>
+      <c r="B2" s="229" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" s="229"/>
+      <c r="D2" s="229"/>
       <c r="E2" s="29" t="s">
         <v>83</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5973,10 +5973,10 @@
       <c r="G6" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="226" t="s">
+      <c r="H6" s="230" t="s">
         <v>72</v>
       </c>
-      <c r="I6" s="226"/>
+      <c r="I6" s="230"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G7" s="220" t="s">
@@ -5987,16 +5987,16 @@
     </row>
     <row r="8" spans="2:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="9" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="221" t="s">
+      <c r="C9" s="225" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="222"/>
-      <c r="E9" s="222"/>
-      <c r="F9" s="223" t="s">
+      <c r="D9" s="226"/>
+      <c r="E9" s="226"/>
+      <c r="F9" s="227" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="223"/>
-      <c r="H9" s="223"/>
+      <c r="G9" s="227"/>
+      <c r="H9" s="227"/>
     </row>
     <row r="10" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="11" spans="2:11" x14ac:dyDescent="0.55000000000000004">
@@ -6046,10 +6046,10 @@
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="224" t="s">
+      <c r="B17" s="228" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="224"/>
+      <c r="C17" s="228"/>
       <c r="D17" s="34" t="s">
         <v>93</v>
       </c>
@@ -6073,15 +6073,15 @@
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="229" t="s">
-        <v>197</v>
-      </c>
-      <c r="C23" s="229"/>
-      <c r="D23" s="230" t="s">
-        <v>154</v>
-      </c>
-      <c r="E23" s="230"/>
-      <c r="F23" s="230"/>
+      <c r="B23" s="223" t="s">
+        <v>195</v>
+      </c>
+      <c r="C23" s="223"/>
+      <c r="D23" s="224" t="s">
+        <v>152</v>
+      </c>
+      <c r="E23" s="224"/>
+      <c r="F23" s="224"/>
       <c r="G23" s="36" t="s">
         <v>32</v>
       </c>
@@ -6091,11 +6091,11 @@
         <v>29</v>
       </c>
       <c r="C24" s="220"/>
-      <c r="D24" s="230" t="s">
-        <v>186</v>
-      </c>
-      <c r="E24" s="230"/>
-      <c r="F24" s="230"/>
+      <c r="D24" s="224" t="s">
+        <v>184</v>
+      </c>
+      <c r="E24" s="224"/>
+      <c r="F24" s="224"/>
       <c r="G24" s="36" t="s">
         <v>33</v>
       </c>
@@ -6105,11 +6105,11 @@
         <v>30</v>
       </c>
       <c r="C25" s="220"/>
-      <c r="D25" s="230" t="s">
+      <c r="D25" s="224" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="230"/>
-      <c r="F25" s="230"/>
+      <c r="E25" s="224"/>
+      <c r="F25" s="224"/>
       <c r="G25" s="36" t="s">
         <v>33</v>
       </c>
@@ -6119,11 +6119,11 @@
         <v>31</v>
       </c>
       <c r="C26" s="220"/>
-      <c r="D26" s="230" t="s">
+      <c r="D26" s="224" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="230"/>
-      <c r="F26" s="230"/>
+      <c r="E26" s="224"/>
+      <c r="F26" s="224"/>
       <c r="G26" s="36" t="s">
         <v>33</v>
       </c>
@@ -6136,12 +6136,12 @@
         <v>34</v>
       </c>
       <c r="C28" s="220"/>
-      <c r="D28" s="227" t="e">
+      <c r="D28" s="221" t="e">
         <f>D23+D24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E28" s="227"/>
-      <c r="F28" s="227"/>
+      <c r="E28" s="221"/>
+      <c r="F28" s="221"/>
       <c r="G28" s="36" t="s">
         <v>32</v>
       </c>
@@ -6173,7 +6173,7 @@
       <c r="E32" s="220"/>
     </row>
     <row r="33" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="228" t="s">
+      <c r="B33" s="222" t="s">
         <v>88</v>
       </c>
       <c r="C33" s="220"/>
@@ -6241,7 +6241,7 @@
         <v>37</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -6254,6 +6254,15 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="H6:I6"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="D32:E32"/>
@@ -6269,15 +6278,6 @@
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="H6:I6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -6324,58 +6324,58 @@
   <sheetData>
     <row r="1" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="37"/>
-      <c r="B1" s="279" t="s">
+      <c r="B1" s="235" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="279"/>
-      <c r="D1" s="279"/>
-      <c r="E1" s="279"/>
-      <c r="F1" s="279"/>
-      <c r="G1" s="279"/>
-      <c r="H1" s="279"/>
-      <c r="I1" s="279"/>
+      <c r="C1" s="235"/>
+      <c r="D1" s="235"/>
+      <c r="E1" s="235"/>
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
+      <c r="H1" s="235"/>
+      <c r="I1" s="235"/>
       <c r="J1" s="38"/>
       <c r="K1" s="38"/>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="3" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="280" t="s">
+      <c r="B3" s="236" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="281"/>
-      <c r="D3" s="282" t="s">
+      <c r="C3" s="237"/>
+      <c r="D3" s="238" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="283"/>
-      <c r="F3" s="284"/>
+      <c r="E3" s="239"/>
+      <c r="F3" s="240"/>
       <c r="G3" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="285" t="s">
+      <c r="H3" s="241" t="s">
         <v>109</v>
       </c>
-      <c r="I3" s="286"/>
-      <c r="J3" s="287"/>
+      <c r="I3" s="242"/>
+      <c r="J3" s="243"/>
       <c r="K3" s="41"/>
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="288" t="s">
+      <c r="B4" s="244" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="289"/>
-      <c r="D4" s="290" t="s">
-        <v>194</v>
-      </c>
-      <c r="E4" s="291"/>
-      <c r="F4" s="292"/>
+      <c r="C4" s="245"/>
+      <c r="D4" s="246" t="s">
+        <v>192</v>
+      </c>
+      <c r="E4" s="247"/>
+      <c r="F4" s="248"/>
       <c r="G4" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="293" t="s">
+      <c r="H4" s="249" t="s">
         <v>95</v>
       </c>
-      <c r="I4" s="294"/>
-      <c r="J4" s="295"/>
+      <c r="I4" s="250"/>
+      <c r="J4" s="251"/>
       <c r="K4" s="43"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -6389,94 +6389,94 @@
       <c r="I5" s="44"/>
     </row>
     <row r="6" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="268" t="s">
+      <c r="B6" s="270" t="s">
         <v>48</v>
       </c>
       <c r="C6" s="40"/>
-      <c r="D6" s="271" t="s">
+      <c r="D6" s="273" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="272"/>
-      <c r="F6" s="271" t="s">
+      <c r="E6" s="274"/>
+      <c r="F6" s="273" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="273"/>
-      <c r="H6" s="271" t="s">
+      <c r="G6" s="275"/>
+      <c r="H6" s="273" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="273"/>
-      <c r="J6" s="274"/>
+      <c r="I6" s="275"/>
+      <c r="J6" s="276"/>
       <c r="K6" s="45"/>
     </row>
     <row r="7" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="269"/>
+      <c r="B7" s="271"/>
       <c r="C7" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="275" t="s">
+      <c r="D7" s="231" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="276"/>
-      <c r="F7" s="275" t="s">
+      <c r="E7" s="233"/>
+      <c r="F7" s="231" t="s">
         <v>111</v>
       </c>
-      <c r="G7" s="276"/>
+      <c r="G7" s="233"/>
       <c r="H7" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="275" t="e">
+      <c r="I7" s="231" t="e">
         <f>D7+F7</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J7" s="277"/>
+      <c r="J7" s="232"/>
       <c r="K7" s="48"/>
     </row>
     <row r="8" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="269"/>
+      <c r="B8" s="271"/>
       <c r="C8" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="275" t="s">
-        <v>116</v>
-      </c>
-      <c r="E8" s="276"/>
-      <c r="F8" s="275" t="s">
-        <v>117</v>
-      </c>
-      <c r="G8" s="278"/>
+      <c r="D8" s="231" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" s="233"/>
+      <c r="F8" s="231" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="234"/>
       <c r="H8" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="275" t="e">
+      <c r="I8" s="231" t="e">
         <f>D8+F8</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J8" s="277"/>
+      <c r="J8" s="232"/>
       <c r="K8" s="48"/>
     </row>
     <row r="9" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="270"/>
+      <c r="B9" s="272"/>
       <c r="C9" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="250">
+      <c r="D9" s="252">
         <f>SUM(D7:E8)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="251"/>
-      <c r="F9" s="250">
+      <c r="E9" s="253"/>
+      <c r="F9" s="252">
         <f>SUM(F7:G8)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="252"/>
+      <c r="G9" s="254"/>
       <c r="H9" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="250">
+      <c r="I9" s="252">
         <f>D9+F9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="253"/>
+      <c r="J9" s="255"/>
       <c r="K9" s="48"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -6490,52 +6490,52 @@
       <c r="I10" s="44"/>
     </row>
     <row r="11" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="254" t="s">
+      <c r="B11" s="256" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="255"/>
+      <c r="C11" s="257"/>
       <c r="D11" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="258" t="s">
+      <c r="E11" s="260" t="s">
         <v>112</v>
       </c>
-      <c r="F11" s="259"/>
-      <c r="G11" s="260" t="s">
-        <v>113</v>
-      </c>
-      <c r="H11" s="260"/>
-      <c r="I11" s="261" t="e">
+      <c r="F11" s="261"/>
+      <c r="G11" s="262" t="s">
+        <v>196</v>
+      </c>
+      <c r="H11" s="262"/>
+      <c r="I11" s="263" t="e">
         <f>G11-E11+1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J11" s="262"/>
+      <c r="J11" s="264"/>
       <c r="K11" s="52"/>
     </row>
     <row r="12" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="256"/>
-      <c r="C12" s="257"/>
+      <c r="B12" s="258"/>
+      <c r="C12" s="259"/>
       <c r="D12" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="263" t="s">
-        <v>114</v>
-      </c>
-      <c r="F12" s="264"/>
-      <c r="G12" s="265" t="s">
-        <v>115</v>
-      </c>
-      <c r="H12" s="265"/>
-      <c r="I12" s="266" t="e">
+      <c r="E12" s="265" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" s="266"/>
+      <c r="G12" s="267" t="s">
+        <v>197</v>
+      </c>
+      <c r="H12" s="267"/>
+      <c r="I12" s="268" t="e">
         <f>G12-E12+1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J12" s="267"/>
+      <c r="J12" s="269"/>
       <c r="K12" s="52"/>
     </row>
     <row r="13" spans="1:11" ht="10" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="14" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="236" t="s">
+      <c r="B14" s="282" t="s">
         <v>60</v>
       </c>
       <c r="C14" s="54"/>
@@ -6553,15 +6553,15 @@
         <f>I$11+I$12</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H14" s="239" t="s">
+      <c r="H14" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="I14" s="239"/>
-      <c r="J14" s="240"/>
+      <c r="I14" s="285"/>
+      <c r="J14" s="286"/>
       <c r="K14" s="59"/>
     </row>
     <row r="15" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="237"/>
+      <c r="B15" s="283"/>
       <c r="C15" s="60" t="s">
         <v>62</v>
       </c>
@@ -6579,15 +6579,15 @@
         <f>I$11+I$12</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H15" s="241" t="s">
+      <c r="H15" s="287" t="s">
         <v>97</v>
       </c>
-      <c r="I15" s="241"/>
-      <c r="J15" s="242"/>
+      <c r="I15" s="287"/>
+      <c r="J15" s="288"/>
       <c r="K15" s="59"/>
     </row>
     <row r="16" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="237"/>
+      <c r="B16" s="283"/>
       <c r="C16" s="65"/>
       <c r="D16" s="66" t="s">
         <v>51</v>
@@ -6598,15 +6598,15 @@
       <c r="H16" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="I16" s="243" t="e">
+      <c r="I16" s="289" t="e">
         <f>H14+H15</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J16" s="244"/>
+      <c r="J16" s="290"/>
       <c r="K16" s="59"/>
     </row>
     <row r="17" spans="2:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="238"/>
+      <c r="B17" s="284"/>
       <c r="C17" s="70" t="s">
         <v>65</v>
       </c>
@@ -6623,11 +6623,11 @@
         <v>（Ｄ）</v>
       </c>
       <c r="H17" s="75"/>
-      <c r="I17" s="245" t="e">
+      <c r="I17" s="291" t="e">
         <f>I9-I16</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J17" s="246"/>
+      <c r="J17" s="292"/>
       <c r="K17" s="59"/>
     </row>
     <row r="18" spans="2:11" ht="8.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -6635,21 +6635,21 @@
       <c r="I18" s="76"/>
     </row>
     <row r="19" spans="2:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="247" t="s">
+      <c r="B19" s="293" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="248"/>
-      <c r="D19" s="249"/>
+      <c r="C19" s="294"/>
+      <c r="D19" s="295"/>
       <c r="E19" s="77"/>
       <c r="F19" s="77"/>
       <c r="G19" s="77"/>
       <c r="H19" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="I19" s="234" t="s">
+      <c r="I19" s="280" t="s">
         <v>98</v>
       </c>
-      <c r="J19" s="235"/>
+      <c r="J19" s="281"/>
       <c r="K19" s="59"/>
     </row>
     <row r="20" spans="2:11" ht="8.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -6659,21 +6659,21 @@
       <c r="I20" s="80"/>
     </row>
     <row r="21" spans="2:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="231" t="s">
+      <c r="B21" s="277" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="232"/>
-      <c r="D21" s="233"/>
+      <c r="C21" s="278"/>
+      <c r="D21" s="279"/>
       <c r="E21" s="77"/>
       <c r="F21" s="77"/>
       <c r="G21" s="77"/>
       <c r="H21" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="I21" s="234" t="s">
-        <v>186</v>
-      </c>
-      <c r="J21" s="235"/>
+      <c r="I21" s="280" t="s">
+        <v>184</v>
+      </c>
+      <c r="J21" s="281"/>
       <c r="K21" s="81"/>
     </row>
     <row r="22" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -6684,17 +6684,15 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="I19:J19"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="I9:J9"/>
@@ -6711,15 +6709,17 @@
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="H4:J4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -6753,16 +6753,16 @@
     </row>
     <row r="2" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="37"/>
-      <c r="B2" s="319" t="s">
+      <c r="B2" s="296" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="319"/>
-      <c r="D2" s="319"/>
-      <c r="E2" s="319"/>
-      <c r="F2" s="319"/>
-      <c r="G2" s="319"/>
-      <c r="H2" s="319"/>
-      <c r="I2" s="319"/>
+      <c r="C2" s="296"/>
+      <c r="D2" s="296"/>
+      <c r="E2" s="296"/>
+      <c r="F2" s="296"/>
+      <c r="G2" s="296"/>
+      <c r="H2" s="296"/>
+      <c r="I2" s="296"/>
       <c r="J2" s="38"/>
     </row>
     <row r="3" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -6777,32 +6777,32 @@
       <c r="I4" s="98"/>
     </row>
     <row r="5" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="320" t="s">
+      <c r="B5" s="297" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="320"/>
-      <c r="D5" s="320"/>
-      <c r="E5" s="320"/>
+      <c r="C5" s="297"/>
+      <c r="D5" s="297"/>
+      <c r="E5" s="297"/>
       <c r="F5" s="85" t="s">
         <v>8</v>
       </c>
       <c r="I5" s="99"/>
-      <c r="L5" s="296" t="s">
-        <v>193</v>
+      <c r="L5" s="306" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L6" s="297"/>
+      <c r="L6" s="307"/>
     </row>
     <row r="7" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" s="321" t="e">
+      <c r="D7" s="298" t="e">
         <f>G13+G14</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E7" s="322"/>
-      <c r="F7" s="322"/>
-      <c r="G7" s="322"/>
-      <c r="H7" s="323"/>
+      <c r="E7" s="299"/>
+      <c r="F7" s="299"/>
+      <c r="G7" s="299"/>
+      <c r="H7" s="300"/>
       <c r="I7" s="45"/>
       <c r="J7" s="86"/>
     </row>
@@ -6823,94 +6823,94 @@
       <c r="J9" s="86"/>
     </row>
     <row r="10" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="324" t="s">
+      <c r="B10" s="301" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="325"/>
-      <c r="D10" s="326" t="s">
-        <v>152</v>
-      </c>
-      <c r="E10" s="327"/>
-      <c r="F10" s="327"/>
-      <c r="G10" s="327"/>
-      <c r="H10" s="327"/>
-      <c r="I10" s="328"/>
+      <c r="C10" s="302"/>
+      <c r="D10" s="303" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" s="304"/>
+      <c r="F10" s="304"/>
+      <c r="G10" s="304"/>
+      <c r="H10" s="304"/>
+      <c r="I10" s="305"/>
       <c r="J10" s="86"/>
       <c r="L10" s="39" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J11" s="90"/>
       <c r="L11" s="39" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="304" t="s">
+      <c r="B12" s="314" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="305"/>
-      <c r="D12" s="305"/>
-      <c r="E12" s="305"/>
-      <c r="F12" s="305"/>
-      <c r="G12" s="305" t="s">
+      <c r="C12" s="315"/>
+      <c r="D12" s="315"/>
+      <c r="E12" s="315"/>
+      <c r="F12" s="315"/>
+      <c r="G12" s="315" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="305"/>
-      <c r="I12" s="306"/>
+      <c r="H12" s="315"/>
+      <c r="I12" s="316"/>
       <c r="J12" s="90"/>
       <c r="L12" s="39" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="307" t="s">
-        <v>195</v>
-      </c>
-      <c r="C13" s="308"/>
-      <c r="D13" s="308"/>
-      <c r="E13" s="308"/>
-      <c r="F13" s="309"/>
-      <c r="G13" s="310" t="s">
-        <v>185</v>
-      </c>
-      <c r="H13" s="311"/>
-      <c r="I13" s="312"/>
+      <c r="B13" s="317" t="s">
+        <v>193</v>
+      </c>
+      <c r="C13" s="318"/>
+      <c r="D13" s="318"/>
+      <c r="E13" s="318"/>
+      <c r="F13" s="319"/>
+      <c r="G13" s="320" t="s">
+        <v>183</v>
+      </c>
+      <c r="H13" s="321"/>
+      <c r="I13" s="322"/>
       <c r="J13" s="90"/>
       <c r="L13" s="39" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="313" t="s">
-        <v>118</v>
-      </c>
-      <c r="C14" s="314"/>
-      <c r="D14" s="314"/>
-      <c r="E14" s="314"/>
-      <c r="F14" s="315"/>
-      <c r="G14" s="310" t="s">
-        <v>189</v>
-      </c>
-      <c r="H14" s="311"/>
-      <c r="I14" s="312"/>
+      <c r="B14" s="323" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="324"/>
+      <c r="D14" s="324"/>
+      <c r="E14" s="324"/>
+      <c r="F14" s="325"/>
+      <c r="G14" s="320" t="s">
+        <v>187</v>
+      </c>
+      <c r="H14" s="321"/>
+      <c r="I14" s="322"/>
       <c r="J14" s="90"/>
       <c r="L14" s="39" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="301" t="s">
+      <c r="B15" s="311" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="302"/>
-      <c r="D15" s="302"/>
-      <c r="E15" s="302"/>
-      <c r="F15" s="303"/>
-      <c r="G15" s="316"/>
-      <c r="H15" s="317"/>
-      <c r="I15" s="318"/>
+      <c r="C15" s="312"/>
+      <c r="D15" s="312"/>
+      <c r="E15" s="312"/>
+      <c r="F15" s="313"/>
+      <c r="G15" s="326"/>
+      <c r="H15" s="327"/>
+      <c r="I15" s="328"/>
     </row>
     <row r="16" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="91"/>
@@ -6923,10 +6923,10 @@
       <c r="I16" s="93"/>
     </row>
     <row r="17" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="300" t="s">
+      <c r="B17" s="310" t="s">
         <v>109</v>
       </c>
-      <c r="C17" s="300"/>
+      <c r="C17" s="310"/>
       <c r="D17" s="100" t="s">
         <v>17</v>
       </c>
@@ -6951,31 +6951,31 @@
       <c r="E19" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="257"/>
-      <c r="G19" s="257"/>
-      <c r="H19" s="257"/>
-      <c r="I19" s="257"/>
-      <c r="J19" s="257"/>
+      <c r="F19" s="259"/>
+      <c r="G19" s="259"/>
+      <c r="H19" s="259"/>
+      <c r="I19" s="259"/>
+      <c r="J19" s="259"/>
     </row>
     <row r="20" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" s="94"/>
       <c r="E20" s="95"/>
-      <c r="F20" s="298"/>
-      <c r="G20" s="298"/>
-      <c r="H20" s="298"/>
-      <c r="I20" s="298"/>
+      <c r="F20" s="308"/>
+      <c r="G20" s="308"/>
+      <c r="H20" s="308"/>
+      <c r="I20" s="308"/>
     </row>
     <row r="21" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="299" t="s">
+      <c r="F21" s="309" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="299"/>
-      <c r="H21" s="299"/>
-      <c r="I21" s="299"/>
-      <c r="J21" s="299"/>
+      <c r="G21" s="309"/>
+      <c r="H21" s="309"/>
+      <c r="I21" s="309"/>
+      <c r="J21" s="309"/>
     </row>
     <row r="22" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E22" s="95"/>
@@ -7008,11 +7008,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:I10"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="F19:J19"/>
     <mergeCell ref="F20:I20"/>
@@ -7026,6 +7021,11 @@
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:I10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -7061,16 +7061,16 @@
     </row>
     <row r="2" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="37"/>
-      <c r="B2" s="319" t="s">
+      <c r="B2" s="296" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="319"/>
-      <c r="D2" s="319"/>
-      <c r="E2" s="319"/>
-      <c r="F2" s="319"/>
-      <c r="G2" s="319"/>
-      <c r="H2" s="319"/>
-      <c r="I2" s="319"/>
+      <c r="C2" s="296"/>
+      <c r="D2" s="296"/>
+      <c r="E2" s="296"/>
+      <c r="F2" s="296"/>
+      <c r="G2" s="296"/>
+      <c r="H2" s="296"/>
+      <c r="I2" s="296"/>
       <c r="J2" s="210"/>
     </row>
     <row r="3" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -7085,12 +7085,12 @@
       <c r="I4" s="98"/>
     </row>
     <row r="5" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="320" t="s">
+      <c r="B5" s="297" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="320"/>
-      <c r="D5" s="320"/>
-      <c r="E5" s="320"/>
+      <c r="C5" s="297"/>
+      <c r="D5" s="297"/>
+      <c r="E5" s="297"/>
       <c r="F5" s="85" t="s">
         <v>8</v>
       </c>
@@ -7098,14 +7098,14 @@
     </row>
     <row r="6" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" s="321" t="e">
+      <c r="D7" s="298" t="e">
         <f>G13+G14</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E7" s="322"/>
-      <c r="F7" s="322"/>
-      <c r="G7" s="322"/>
-      <c r="H7" s="323"/>
+      <c r="E7" s="299"/>
+      <c r="F7" s="299"/>
+      <c r="G7" s="299"/>
+      <c r="H7" s="300"/>
       <c r="I7" s="45"/>
       <c r="J7" s="86"/>
     </row>
@@ -7126,18 +7126,18 @@
       <c r="J9" s="86"/>
     </row>
     <row r="10" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="324" t="s">
+      <c r="B10" s="301" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="325"/>
-      <c r="D10" s="326" t="s">
-        <v>152</v>
-      </c>
-      <c r="E10" s="327"/>
-      <c r="F10" s="327"/>
-      <c r="G10" s="327"/>
-      <c r="H10" s="327"/>
-      <c r="I10" s="328"/>
+      <c r="C10" s="302"/>
+      <c r="D10" s="303" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" s="304"/>
+      <c r="F10" s="304"/>
+      <c r="G10" s="304"/>
+      <c r="H10" s="304"/>
+      <c r="I10" s="305"/>
       <c r="J10" s="86"/>
       <c r="L10" s="329">
         <v>8250000</v>
@@ -7150,78 +7150,78 @@
     <row r="11" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J11" s="90"/>
       <c r="L11" s="212" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M11" s="212"/>
       <c r="N11" s="212"/>
     </row>
     <row r="12" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="304" t="s">
+      <c r="B12" s="314" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="305"/>
-      <c r="D12" s="305"/>
-      <c r="E12" s="305"/>
-      <c r="F12" s="305"/>
-      <c r="G12" s="305" t="s">
+      <c r="C12" s="315"/>
+      <c r="D12" s="315"/>
+      <c r="E12" s="315"/>
+      <c r="F12" s="315"/>
+      <c r="G12" s="315" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="305"/>
-      <c r="I12" s="306"/>
+      <c r="H12" s="315"/>
+      <c r="I12" s="316"/>
       <c r="J12" s="90"/>
       <c r="L12" s="212" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M12" s="212"/>
       <c r="N12" s="212"/>
     </row>
     <row r="13" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="307" t="s">
-        <v>173</v>
-      </c>
-      <c r="C13" s="308"/>
-      <c r="D13" s="308"/>
-      <c r="E13" s="308"/>
-      <c r="F13" s="309"/>
-      <c r="G13" s="310" t="s">
-        <v>184</v>
-      </c>
-      <c r="H13" s="311"/>
-      <c r="I13" s="312"/>
+      <c r="B13" s="317" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="318"/>
+      <c r="D13" s="318"/>
+      <c r="E13" s="318"/>
+      <c r="F13" s="319"/>
+      <c r="G13" s="320" t="s">
+        <v>182</v>
+      </c>
+      <c r="H13" s="321"/>
+      <c r="I13" s="322"/>
       <c r="J13" s="90"/>
       <c r="L13" s="212" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M13" s="212"/>
       <c r="N13" s="212"/>
     </row>
     <row r="14" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="313" t="s">
-        <v>174</v>
-      </c>
-      <c r="C14" s="314"/>
-      <c r="D14" s="314"/>
-      <c r="E14" s="314"/>
-      <c r="F14" s="315"/>
-      <c r="G14" s="310"/>
-      <c r="H14" s="311"/>
-      <c r="I14" s="312"/>
+      <c r="B14" s="323" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="324"/>
+      <c r="D14" s="324"/>
+      <c r="E14" s="324"/>
+      <c r="F14" s="325"/>
+      <c r="G14" s="320"/>
+      <c r="H14" s="321"/>
+      <c r="I14" s="322"/>
       <c r="J14" s="90"/>
       <c r="L14" s="212" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M14" s="212"/>
       <c r="N14" s="212"/>
     </row>
     <row r="15" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="301"/>
-      <c r="C15" s="302"/>
-      <c r="D15" s="302"/>
-      <c r="E15" s="302"/>
-      <c r="F15" s="303"/>
-      <c r="G15" s="316"/>
-      <c r="H15" s="317"/>
-      <c r="I15" s="318"/>
+      <c r="B15" s="311"/>
+      <c r="C15" s="312"/>
+      <c r="D15" s="312"/>
+      <c r="E15" s="312"/>
+      <c r="F15" s="313"/>
+      <c r="G15" s="326"/>
+      <c r="H15" s="327"/>
+      <c r="I15" s="328"/>
     </row>
     <row r="16" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="211"/>
@@ -7234,10 +7234,10 @@
       <c r="I16" s="93"/>
     </row>
     <row r="17" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="300" t="s">
-        <v>183</v>
-      </c>
-      <c r="C17" s="300"/>
+      <c r="B17" s="310" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" s="310"/>
       <c r="D17" s="100" t="s">
         <v>17</v>
       </c>
@@ -7262,31 +7262,31 @@
       <c r="E19" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="257"/>
-      <c r="G19" s="257"/>
-      <c r="H19" s="257"/>
-      <c r="I19" s="257"/>
-      <c r="J19" s="257"/>
+      <c r="F19" s="259"/>
+      <c r="G19" s="259"/>
+      <c r="H19" s="259"/>
+      <c r="I19" s="259"/>
+      <c r="J19" s="259"/>
     </row>
     <row r="20" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" s="94"/>
       <c r="E20" s="95"/>
-      <c r="F20" s="298"/>
-      <c r="G20" s="298"/>
-      <c r="H20" s="298"/>
-      <c r="I20" s="298"/>
+      <c r="F20" s="308"/>
+      <c r="G20" s="308"/>
+      <c r="H20" s="308"/>
+      <c r="I20" s="308"/>
     </row>
     <row r="21" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="299" t="s">
+      <c r="F21" s="309" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="299"/>
-      <c r="H21" s="299"/>
-      <c r="I21" s="299"/>
-      <c r="J21" s="299"/>
+      <c r="G21" s="309"/>
+      <c r="H21" s="309"/>
+      <c r="I21" s="309"/>
+      <c r="J21" s="309"/>
     </row>
     <row r="22" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E22" s="95"/>
@@ -7319,6 +7319,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:I10"/>
     <mergeCell ref="L10:P10"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="F19:J19"/>
@@ -7332,11 +7337,6 @@
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:I10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -7379,16 +7379,16 @@
     </row>
     <row r="2" spans="1:15" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="106"/>
-      <c r="B2" s="334" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="334"/>
-      <c r="D2" s="334"/>
-      <c r="E2" s="334"/>
-      <c r="F2" s="334"/>
-      <c r="G2" s="334"/>
-      <c r="H2" s="334"/>
-      <c r="I2" s="334"/>
+      <c r="B2" s="367" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="367"/>
+      <c r="D2" s="367"/>
+      <c r="E2" s="367"/>
+      <c r="F2" s="367"/>
+      <c r="G2" s="367"/>
+      <c r="H2" s="367"/>
+      <c r="I2" s="367"/>
       <c r="J2" s="107"/>
       <c r="K2" s="107"/>
       <c r="L2" s="107"/>
@@ -7411,17 +7411,17 @@
       <c r="B4" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="335"/>
-      <c r="D4" s="336"/>
-      <c r="E4" s="337"/>
+      <c r="C4" s="368"/>
+      <c r="D4" s="369"/>
+      <c r="E4" s="370"/>
       <c r="F4" s="111" t="s">
-        <v>123</v>
-      </c>
-      <c r="G4" s="338">
+        <v>121</v>
+      </c>
+      <c r="G4" s="371">
         <v>43983</v>
       </c>
-      <c r="H4" s="338"/>
-      <c r="I4" s="339"/>
+      <c r="H4" s="371"/>
+      <c r="I4" s="372"/>
       <c r="J4" s="112"/>
       <c r="K4" s="113"/>
       <c r="L4" s="113"/>
@@ -7429,27 +7429,27 @@
         <v>44</v>
       </c>
       <c r="N4" s="114" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O4" s="114" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="115" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="363"/>
+      <c r="D5" s="364"/>
+      <c r="E5" s="364"/>
+      <c r="F5" s="116" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5" s="365" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="330"/>
-      <c r="D5" s="331"/>
-      <c r="E5" s="331"/>
-      <c r="F5" s="116" t="s">
-        <v>127</v>
-      </c>
-      <c r="G5" s="332" t="s">
-        <v>128</v>
-      </c>
-      <c r="H5" s="332"/>
-      <c r="I5" s="333"/>
+      <c r="H5" s="365"/>
+      <c r="I5" s="366"/>
       <c r="J5" s="112"/>
       <c r="M5" s="117">
         <v>43516</v>
@@ -7463,7 +7463,7 @@
     </row>
     <row r="6" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="121" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C6" s="122"/>
       <c r="D6" s="112"/>
@@ -7535,27 +7535,27 @@
     </row>
     <row r="11" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="127" t="s">
-        <v>130</v>
-      </c>
-      <c r="C11" s="342"/>
-      <c r="D11" s="342"/>
-      <c r="E11" s="342"/>
+        <v>128</v>
+      </c>
+      <c r="C11" s="340"/>
+      <c r="D11" s="340"/>
+      <c r="E11" s="340"/>
       <c r="F11" s="123" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G11" s="108"/>
       <c r="H11" s="108"/>
       <c r="I11" s="108"/>
       <c r="J11" s="108"/>
       <c r="M11" s="114" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N11" s="128"/>
       <c r="O11" s="128"/>
     </row>
     <row r="12" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="108" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C12" s="108"/>
       <c r="D12" s="108"/>
@@ -7566,24 +7566,24 @@
       <c r="I12" s="108"/>
       <c r="J12" s="108"/>
       <c r="M12" s="114" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N12" s="128"/>
       <c r="O12" s="128"/>
     </row>
     <row r="13" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="127" t="s">
-        <v>134</v>
-      </c>
-      <c r="C13" s="343" t="s">
-        <v>135</v>
-      </c>
-      <c r="D13" s="344"/>
-      <c r="E13" s="345" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="341" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" s="342"/>
+      <c r="E13" s="343" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="346"/>
-      <c r="G13" s="347"/>
+      <c r="F13" s="344"/>
+      <c r="G13" s="345"/>
       <c r="H13" s="108"/>
       <c r="I13" s="108"/>
       <c r="J13" s="108"/>
@@ -7597,16 +7597,16 @@
     </row>
     <row r="14" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="132" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" s="348"/>
-      <c r="D14" s="349"/>
-      <c r="E14" s="350">
+        <v>134</v>
+      </c>
+      <c r="C14" s="346"/>
+      <c r="D14" s="347"/>
+      <c r="E14" s="348">
         <f>SUM(C14:D14)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="351"/>
-      <c r="G14" s="352"/>
+      <c r="F14" s="349"/>
+      <c r="G14" s="350"/>
       <c r="H14" s="123"/>
       <c r="I14" s="123"/>
       <c r="J14" s="123"/>
@@ -7616,19 +7616,19 @@
     </row>
     <row r="15" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="127" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C15" s="135"/>
       <c r="D15" s="136">
         <f>SUM(C14:D14)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="353">
+      <c r="E15" s="351">
         <f>SUM(C15:D15)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="354"/>
-      <c r="G15" s="355"/>
+      <c r="F15" s="352"/>
+      <c r="G15" s="353"/>
       <c r="H15" s="123"/>
       <c r="I15" s="123"/>
       <c r="J15" s="123"/>
@@ -7655,18 +7655,18 @@
     </row>
     <row r="17" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="146" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C17" s="147"/>
-      <c r="D17" s="356">
+      <c r="D17" s="354">
         <v>43983</v>
       </c>
-      <c r="E17" s="356"/>
-      <c r="F17" s="357">
+      <c r="E17" s="354"/>
+      <c r="F17" s="355">
         <v>43983</v>
       </c>
-      <c r="G17" s="357"/>
-      <c r="H17" s="357"/>
+      <c r="G17" s="355"/>
+      <c r="H17" s="355"/>
       <c r="I17" s="148"/>
       <c r="J17" s="149"/>
       <c r="K17" s="138"/>
@@ -7676,7 +7676,7 @@
     </row>
     <row r="18" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="150" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C18" s="151"/>
       <c r="D18" s="152">
@@ -7689,15 +7689,15 @@
         <v>30</v>
       </c>
       <c r="G18" s="155"/>
-      <c r="H18" s="358"/>
-      <c r="I18" s="359"/>
+      <c r="H18" s="356"/>
+      <c r="I18" s="357"/>
       <c r="L18" s="138"/>
       <c r="N18" s="156"/>
       <c r="O18" s="156"/>
     </row>
     <row r="19" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="157" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C19" s="158"/>
       <c r="D19" s="159">
@@ -7710,10 +7710,10 @@
         <v>30</v>
       </c>
       <c r="G19" s="162"/>
-      <c r="H19" s="360"/>
-      <c r="I19" s="361"/>
+      <c r="H19" s="358"/>
+      <c r="I19" s="359"/>
       <c r="J19" s="123" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L19" s="138"/>
       <c r="N19" s="156"/>
@@ -7735,16 +7735,16 @@
       <c r="O20" s="169"/>
     </row>
     <row r="21" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="362" t="s">
-        <v>142</v>
-      </c>
-      <c r="C21" s="363"/>
-      <c r="D21" s="363"/>
-      <c r="E21" s="363"/>
-      <c r="F21" s="363"/>
-      <c r="G21" s="363"/>
-      <c r="H21" s="363"/>
-      <c r="I21" s="364"/>
+      <c r="B21" s="360" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" s="361"/>
+      <c r="D21" s="361"/>
+      <c r="E21" s="361"/>
+      <c r="F21" s="361"/>
+      <c r="G21" s="361"/>
+      <c r="H21" s="361"/>
+      <c r="I21" s="362"/>
       <c r="J21" s="170"/>
       <c r="K21" s="171"/>
       <c r="L21" s="138"/>
@@ -7753,20 +7753,20 @@
     </row>
     <row r="22" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="150" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C22" s="151"/>
       <c r="D22" s="172" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E22" s="153"/>
       <c r="F22" s="173"/>
       <c r="G22" s="174"/>
-      <c r="H22" s="340">
+      <c r="H22" s="338">
         <f>C11+H19</f>
         <v>0</v>
       </c>
-      <c r="I22" s="341"/>
+      <c r="I22" s="339"/>
       <c r="J22" s="167"/>
       <c r="K22" s="171"/>
       <c r="L22" s="138"/>
@@ -7822,31 +7822,31 @@
       <c r="O25" s="169"/>
     </row>
     <row r="26" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="367" t="s">
+      <c r="B26" s="332" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="367"/>
-      <c r="D26" s="367"/>
-      <c r="E26" s="367"/>
-      <c r="F26" s="367"/>
-      <c r="G26" s="367"/>
-      <c r="H26" s="367"/>
-      <c r="I26" s="367"/>
-      <c r="J26" s="367"/>
+      <c r="C26" s="332"/>
+      <c r="D26" s="332"/>
+      <c r="E26" s="332"/>
+      <c r="F26" s="332"/>
+      <c r="G26" s="332"/>
+      <c r="H26" s="332"/>
+      <c r="I26" s="332"/>
+      <c r="J26" s="332"/>
       <c r="K26" s="171"/>
       <c r="N26" s="169"/>
       <c r="O26" s="169"/>
     </row>
     <row r="27" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="171"/>
-      <c r="B27" s="368"/>
-      <c r="C27" s="368"/>
+      <c r="B27" s="333"/>
+      <c r="C27" s="333"/>
       <c r="D27" s="185"/>
       <c r="E27" s="186"/>
       <c r="F27" s="186"/>
       <c r="G27" s="186"/>
       <c r="H27" s="187"/>
-      <c r="I27" s="369"/>
+      <c r="I27" s="334"/>
       <c r="J27" s="188"/>
       <c r="K27" s="171"/>
       <c r="N27" s="169"/>
@@ -7854,18 +7854,18 @@
     </row>
     <row r="28" spans="1:15" s="171" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="171" t="s">
-        <v>145</v>
-      </c>
-      <c r="B28" s="371"/>
-      <c r="C28" s="371"/>
+        <v>143</v>
+      </c>
+      <c r="B28" s="336"/>
+      <c r="C28" s="336"/>
       <c r="D28" s="185" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E28" s="189"/>
       <c r="F28" s="108"/>
       <c r="G28" s="108"/>
       <c r="H28" s="108"/>
-      <c r="I28" s="370"/>
+      <c r="I28" s="335"/>
       <c r="J28" s="190"/>
       <c r="L28" s="105"/>
       <c r="M28" s="105"/>
@@ -7887,12 +7887,12 @@
     <row r="30" spans="1:15" s="171" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="108"/>
       <c r="C30" s="108"/>
-      <c r="D30" s="372">
+      <c r="D30" s="337">
         <f>H22</f>
         <v>0</v>
       </c>
-      <c r="E30" s="372"/>
-      <c r="F30" s="372"/>
+      <c r="E30" s="337"/>
+      <c r="F30" s="337"/>
       <c r="G30" s="192"/>
       <c r="H30" s="108"/>
       <c r="I30" s="108"/>
@@ -7954,9 +7954,9 @@
       <c r="D34" s="108"/>
       <c r="E34" s="108"/>
       <c r="F34" s="198"/>
-      <c r="G34" s="365"/>
-      <c r="H34" s="365"/>
-      <c r="I34" s="365"/>
+      <c r="G34" s="330"/>
+      <c r="H34" s="330"/>
+      <c r="I34" s="330"/>
       <c r="J34" s="199"/>
       <c r="L34" s="193"/>
       <c r="M34" s="193"/>
@@ -7967,11 +7967,11 @@
       <c r="D35" s="108"/>
       <c r="E35" s="108"/>
       <c r="F35" s="198"/>
-      <c r="G35" s="365">
+      <c r="G35" s="330">
         <v>43983</v>
       </c>
-      <c r="H35" s="365"/>
-      <c r="I35" s="365"/>
+      <c r="H35" s="330"/>
+      <c r="I35" s="330"/>
       <c r="J35" s="199"/>
       <c r="M35" s="200"/>
     </row>
@@ -7992,9 +7992,9 @@
       <c r="D37" s="108"/>
       <c r="E37" s="108"/>
       <c r="F37" s="108"/>
-      <c r="G37" s="365"/>
-      <c r="H37" s="365"/>
-      <c r="I37" s="365"/>
+      <c r="G37" s="330"/>
+      <c r="H37" s="330"/>
+      <c r="I37" s="330"/>
       <c r="J37" s="205"/>
       <c r="L37" s="193"/>
       <c r="M37" s="193"/>
@@ -8005,7 +8005,7 @@
       <c r="D38" s="108"/>
       <c r="E38" s="108"/>
       <c r="F38" s="198" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G38" s="198"/>
       <c r="H38" s="199"/>
@@ -8014,7 +8014,7 @@
       <c r="L38" s="193"/>
       <c r="M38" s="193"/>
       <c r="N38" s="105" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -8023,7 +8023,7 @@
       <c r="D39" s="108"/>
       <c r="E39" s="108"/>
       <c r="F39" s="198" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G39" s="108"/>
       <c r="H39" s="198"/>
@@ -8037,7 +8037,7 @@
       <c r="D40" s="108"/>
       <c r="E40" s="201"/>
       <c r="F40" s="202" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G40" s="203"/>
       <c r="H40" s="204"/>
@@ -8048,29 +8048,25 @@
       <c r="O41" s="109"/>
     </row>
     <row r="42" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="366" t="s">
+      <c r="B42" s="331" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="366"/>
-      <c r="D42" s="366"/>
-      <c r="E42" s="366"/>
-      <c r="F42" s="366"/>
-      <c r="G42" s="366"/>
-      <c r="H42" s="366"/>
-      <c r="I42" s="366"/>
+      <c r="C42" s="331"/>
+      <c r="D42" s="331"/>
+      <c r="E42" s="331"/>
+      <c r="F42" s="331"/>
+      <c r="G42" s="331"/>
+      <c r="H42" s="331"/>
+      <c r="I42" s="331"/>
       <c r="O42" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="B42:I42"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:I4"/>
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C13:D13"/>
@@ -8083,11 +8079,15 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="B21:I21"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="B42:I42"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G34:I34"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/template/買取決済.xlsx
+++ b/template/買取決済.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\work\00_Wavesync\24_不動産管理システム\00_source\backend\kbs_backend\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF70703-2A92-4421-9547-A7BA37DE3A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCA5FA4-D8AF-4714-9126-8BC557BA8431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,8 +45,9 @@
     <definedName name="japan">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'R-A　PK精算'!$A$1:$J$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">決済案内!$A$1:$I$43</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">固都税精算!$A$1:$K$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">固都税精算!$A$1:$L$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">受領書!$A$1:$J$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">地権者振込一覧!$A$1:$M$5</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">領収証!$A$1:$J$25</definedName>
     <definedName name="ProjectName" localSheetId="6">{"Client Name or Project Name"}</definedName>
     <definedName name="ProjectName" localSheetId="3">{"Client Name or Project Name"}</definedName>
@@ -89,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="202">
   <si>
     <t>地　番
 家屋番号</t>
@@ -1501,12 +1502,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>$contractFixDay_dt_kanji_intermediary$</t>
-  </si>
-  <si>
-    <t>$payPriceTax_outsourcing$</t>
-  </si>
-  <si>
     <t>$payPriceTax$</t>
   </si>
   <si>
@@ -1624,11 +1619,34 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>～$sharingEndDay_dt_kanji$</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>～$sharingEndDayBuyer_dt_kanji$</t>
+    <t>買い決済</t>
+  </si>
+  <si>
+    <t>買い決済</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>決済</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>支払い</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$contractFixDay_dt_kanji_outsourcing$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$sharingEndDay_dt_kanji$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>～</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$sharingEndDayBuyer_dt_kanji$</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2697,7 +2715,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="373">
+  <cellXfs count="378">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2872,9 +2890,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="193" fontId="6" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="194" fontId="15" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2890,9 +2905,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="193" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2919,9 +2931,6 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3338,6 +3347,9 @@
     <xf numFmtId="177" fontId="19" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3353,6 +3365,24 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3365,34 +3395,163 @@
     <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="44" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="193" fontId="6" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="193" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="15" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="15" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="15" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="15" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="6" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="6" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="6" fillId="0" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="188" fontId="15" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="15" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="188" fontId="15" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="188" fontId="15" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="15" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3442,137 +3601,80 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="188" fontId="15" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="17" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="17" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="14" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="15" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="14" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="15" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="14" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="15" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="6" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="6" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="6" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="6" fillId="0" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="44" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="15" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="15" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3607,170 +3709,8 @@
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="186" fontId="17" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="17" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="14" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="14" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="14" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="15" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="15" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="205" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="38" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="38" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="40" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="14" fillId="0" borderId="53" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="54" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="51" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="27" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="14" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="32" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="32" fillId="0" borderId="53" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="54" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="194" fontId="32" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="32" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3797,6 +3737,99 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="194" fontId="14" fillId="0" borderId="53" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="54" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="51" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="27" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="14" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="32" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="32" fillId="0" borderId="53" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="54" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="194" fontId="32" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="32" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="38" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="38" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="40" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -5476,7 +5509,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -5498,7 +5531,7 @@
     <col min="14" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>94</v>
       </c>
@@ -5514,7 +5547,7 @@
         <v>108</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>86</v>
@@ -5522,33 +5555,39 @@
       <c r="L1" s="5" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="216" t="s">
+      <c r="O1" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="214" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="217" t="s">
+      <c r="B2" s="215" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="218" t="s">
+      <c r="C2" s="216" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="216" t="s">
+      <c r="D2" s="214" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="216" t="s">
+      <c r="E2" s="214" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="216"/>
-      <c r="G2" s="216"/>
-      <c r="H2" s="216"/>
-      <c r="I2" s="216"/>
-    </row>
-    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="216"/>
-      <c r="B3" s="216"/>
-      <c r="C3" s="219"/>
-      <c r="D3" s="216"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="214"/>
+      <c r="H2" s="214"/>
+      <c r="I2" s="214"/>
+      <c r="O2" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="214"/>
+      <c r="B3" s="214"/>
+      <c r="C3" s="217"/>
+      <c r="D3" s="214"/>
       <c r="E3" s="8" t="s">
         <v>1</v>
       </c>
@@ -5570,14 +5609,17 @@
       <c r="K3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="213" t="s">
-        <v>185</v>
+      <c r="L3" s="210" t="s">
+        <v>183</v>
       </c>
       <c r="M3" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O3" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="11" t="s">
         <v>104</v>
       </c>
@@ -5608,15 +5650,15 @@
       <c r="J4" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="K4" s="215" t="s">
+      <c r="K4" s="212" t="s">
+        <v>182</v>
+      </c>
+      <c r="L4" s="211" t="s">
         <v>184</v>
       </c>
-      <c r="L4" s="214" t="s">
-        <v>186</v>
-      </c>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" s="27" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" s="27" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="22"/>
       <c r="B5" s="23"/>
       <c r="C5" s="24"/>
@@ -5636,7 +5678,7 @@
         <f>SUM(K4:K4)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="214">
+      <c r="L5" s="211">
         <f>SUM(L4:L4)</f>
         <v>0</v>
       </c>
@@ -5651,6 +5693,11 @@
     <mergeCell ref="E2:I2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1" xr:uid="{13505BCE-956D-48C6-A9F6-084A4BF87619}">
+      <formula1>$O$1:$O$3</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="1.1417322834645669" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -5710,54 +5757,54 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="216" t="s">
+      <c r="A2" s="214" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="217" t="s">
+      <c r="B2" s="215" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="218" t="s">
+      <c r="C2" s="216" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="216" t="s">
+      <c r="D2" s="214" t="s">
         <v>177</v>
       </c>
-      <c r="E2" s="216" t="s">
+      <c r="E2" s="214" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="216"/>
-      <c r="G2" s="216"/>
-      <c r="H2" s="216"/>
-      <c r="I2" s="216"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="214"/>
+      <c r="H2" s="214"/>
+      <c r="I2" s="214"/>
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="216"/>
-      <c r="B3" s="216"/>
-      <c r="C3" s="219"/>
-      <c r="D3" s="216"/>
-      <c r="E3" s="208" t="s">
+      <c r="A3" s="214"/>
+      <c r="B3" s="214"/>
+      <c r="C3" s="217"/>
+      <c r="D3" s="214"/>
+      <c r="E3" s="205" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="208" t="s">
+      <c r="G3" s="205" t="s">
         <v>101</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="I3" s="208" t="s">
+      <c r="I3" s="205" t="s">
         <v>103</v>
       </c>
-      <c r="J3" s="208" t="s">
+      <c r="J3" s="205" t="s">
         <v>81</v>
       </c>
-      <c r="K3" s="208"/>
-      <c r="L3" s="213" t="s">
+      <c r="K3" s="205"/>
+      <c r="L3" s="210" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="208" t="s">
+      <c r="M3" s="205" t="s">
         <v>178</v>
       </c>
     </row>
@@ -5765,7 +5812,7 @@
       <c r="A4" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="B4" s="208" t="s">
+      <c r="B4" s="205" t="s">
         <v>87</v>
       </c>
       <c r="C4" s="12" t="s">
@@ -5774,26 +5821,26 @@
       <c r="D4" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="E4" s="209" t="s">
+      <c r="E4" s="206" t="s">
         <v>155</v>
       </c>
-      <c r="F4" s="209" t="s">
+      <c r="F4" s="206" t="s">
         <v>156</v>
       </c>
-      <c r="G4" s="209" t="s">
+      <c r="G4" s="206" t="s">
         <v>157</v>
       </c>
-      <c r="H4" s="209" t="s">
+      <c r="H4" s="206" t="s">
         <v>158</v>
       </c>
-      <c r="I4" s="209" t="s">
+      <c r="I4" s="206" t="s">
         <v>159</v>
       </c>
       <c r="J4" s="15" t="s">
         <v>160</v>
       </c>
       <c r="K4" s="16"/>
-      <c r="L4" s="214" t="e">
+      <c r="L4" s="211" t="e">
         <f>J4+K4</f>
         <v>#VALUE!</v>
       </c>
@@ -5805,7 +5852,7 @@
       <c r="A5" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="B5" s="208" t="s">
+      <c r="B5" s="205" t="s">
         <v>87</v>
       </c>
       <c r="C5" s="12" t="s">
@@ -5814,26 +5861,26 @@
       <c r="D5" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="E5" s="209" t="s">
+      <c r="E5" s="206" t="s">
         <v>163</v>
       </c>
-      <c r="F5" s="209" t="s">
+      <c r="F5" s="206" t="s">
         <v>164</v>
       </c>
-      <c r="G5" s="209" t="s">
+      <c r="G5" s="206" t="s">
         <v>165</v>
       </c>
-      <c r="H5" s="209" t="s">
+      <c r="H5" s="206" t="s">
         <v>166</v>
       </c>
-      <c r="I5" s="209" t="s">
+      <c r="I5" s="206" t="s">
         <v>167</v>
       </c>
       <c r="J5" s="15" t="s">
         <v>168</v>
       </c>
       <c r="K5" s="16"/>
-      <c r="L5" s="214" t="e">
+      <c r="L5" s="211" t="e">
         <f>J5+K5</f>
         <v>#VALUE!</v>
       </c>
@@ -5843,32 +5890,32 @@
     </row>
     <row r="6" spans="1:13" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="11"/>
-      <c r="B6" s="208"/>
+      <c r="B6" s="205"/>
       <c r="C6" s="19"/>
-      <c r="D6" s="208"/>
-      <c r="E6" s="209"/>
-      <c r="F6" s="208"/>
-      <c r="G6" s="208"/>
+      <c r="D6" s="205"/>
+      <c r="E6" s="206"/>
+      <c r="F6" s="205"/>
+      <c r="G6" s="205"/>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
       <c r="J6" s="18"/>
       <c r="K6" s="18"/>
-      <c r="L6" s="214"/>
+      <c r="L6" s="211"/>
       <c r="M6" s="20"/>
     </row>
     <row r="7" spans="1:13" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="21"/>
-      <c r="B7" s="208"/>
+      <c r="B7" s="205"/>
       <c r="C7" s="19"/>
-      <c r="D7" s="208"/>
-      <c r="E7" s="209"/>
-      <c r="F7" s="208"/>
-      <c r="G7" s="208"/>
+      <c r="D7" s="205"/>
+      <c r="E7" s="206"/>
+      <c r="F7" s="205"/>
+      <c r="G7" s="205"/>
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
-      <c r="L7" s="214"/>
+      <c r="L7" s="211"/>
       <c r="M7" s="20"/>
     </row>
     <row r="8" spans="1:13" s="27" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5891,7 +5938,7 @@
         <f>SUM(K4:K7)</f>
         <v>0</v>
       </c>
-      <c r="L8" s="214" t="e">
+      <c r="L8" s="211" t="e">
         <f>SUM(L4:L7)</f>
         <v>#VALUE!</v>
       </c>
@@ -5928,25 +5975,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="H1" s="220" t="s">
+      <c r="H1" s="218" t="s">
         <v>107</v>
       </c>
-      <c r="I1" s="220"/>
+      <c r="I1" s="218"/>
       <c r="K1" s="29" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="229" t="s">
-        <v>192</v>
-      </c>
-      <c r="C2" s="229"/>
-      <c r="D2" s="229"/>
+      <c r="B2" s="223" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="223"/>
+      <c r="D2" s="223"/>
       <c r="E2" s="29" t="s">
         <v>83</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5956,47 +6003,47 @@
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F4" s="30"/>
-      <c r="G4" s="220" t="s">
+      <c r="G4" s="218" t="s">
         <v>85</v>
       </c>
-      <c r="H4" s="220"/>
-      <c r="I4" s="220"/>
+      <c r="H4" s="218"/>
+      <c r="I4" s="218"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G5" s="220" t="s">
+      <c r="G5" s="218" t="s">
         <v>71</v>
       </c>
-      <c r="H5" s="220"/>
-      <c r="I5" s="220"/>
+      <c r="H5" s="218"/>
+      <c r="I5" s="218"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G6" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="230" t="s">
+      <c r="H6" s="224" t="s">
         <v>72</v>
       </c>
-      <c r="I6" s="230"/>
+      <c r="I6" s="224"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G7" s="220" t="s">
+      <c r="G7" s="218" t="s">
         <v>105</v>
       </c>
-      <c r="H7" s="220"/>
-      <c r="I7" s="220"/>
+      <c r="H7" s="218"/>
+      <c r="I7" s="218"/>
     </row>
     <row r="8" spans="2:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="9" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="225" t="s">
+      <c r="C9" s="219" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="226"/>
-      <c r="E9" s="226"/>
-      <c r="F9" s="227" t="s">
+      <c r="D9" s="220"/>
+      <c r="E9" s="220"/>
+      <c r="F9" s="221" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="227"/>
-      <c r="H9" s="227"/>
+      <c r="G9" s="221"/>
+      <c r="H9" s="221"/>
     </row>
     <row r="10" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="11" spans="2:11" x14ac:dyDescent="0.55000000000000004">
@@ -6046,10 +6093,10 @@
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="228" t="s">
+      <c r="B17" s="222" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="228"/>
+      <c r="C17" s="222"/>
       <c r="D17" s="34" t="s">
         <v>93</v>
       </c>
@@ -6073,57 +6120,57 @@
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="223" t="s">
-        <v>195</v>
-      </c>
-      <c r="C23" s="223"/>
-      <c r="D23" s="224" t="s">
+      <c r="B23" s="227" t="s">
+        <v>193</v>
+      </c>
+      <c r="C23" s="227"/>
+      <c r="D23" s="228" t="s">
         <v>152</v>
       </c>
-      <c r="E23" s="224"/>
-      <c r="F23" s="224"/>
+      <c r="E23" s="228"/>
+      <c r="F23" s="228"/>
       <c r="G23" s="36" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="220" t="s">
+      <c r="B24" s="218" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="220"/>
-      <c r="D24" s="224" t="s">
-        <v>184</v>
-      </c>
-      <c r="E24" s="224"/>
-      <c r="F24" s="224"/>
+      <c r="C24" s="218"/>
+      <c r="D24" s="228" t="s">
+        <v>182</v>
+      </c>
+      <c r="E24" s="228"/>
+      <c r="F24" s="228"/>
       <c r="G24" s="36" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="220" t="s">
+      <c r="B25" s="218" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="220"/>
-      <c r="D25" s="224" t="s">
+      <c r="C25" s="218"/>
+      <c r="D25" s="228" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="224"/>
-      <c r="F25" s="224"/>
+      <c r="E25" s="228"/>
+      <c r="F25" s="228"/>
       <c r="G25" s="36" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="220" t="s">
+      <c r="B26" s="218" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="220"/>
-      <c r="D26" s="224" t="s">
+      <c r="C26" s="218"/>
+      <c r="D26" s="228" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="224"/>
-      <c r="F26" s="224"/>
+      <c r="E26" s="228"/>
+      <c r="F26" s="228"/>
       <c r="G26" s="36" t="s">
         <v>33</v>
       </c>
@@ -6132,16 +6179,16 @@
       <c r="G27" s="36"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="220" t="s">
+      <c r="B28" s="218" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="220"/>
-      <c r="D28" s="221" t="e">
+      <c r="C28" s="218"/>
+      <c r="D28" s="225" t="e">
         <f>D23+D24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E28" s="221"/>
-      <c r="F28" s="221"/>
+      <c r="E28" s="225"/>
+      <c r="F28" s="225"/>
       <c r="G28" s="36" t="s">
         <v>32</v>
       </c>
@@ -6153,31 +6200,31 @@
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="220" t="s">
+      <c r="B31" s="218" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="220"/>
-      <c r="D31" s="220" t="s">
+      <c r="C31" s="218"/>
+      <c r="D31" s="218" t="s">
         <v>90</v>
       </c>
-      <c r="E31" s="220"/>
+      <c r="E31" s="218"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="220" t="s">
+      <c r="B32" s="218" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="220"/>
-      <c r="D32" s="220" t="s">
+      <c r="C32" s="218"/>
+      <c r="D32" s="218" t="s">
         <v>92</v>
       </c>
-      <c r="E32" s="220"/>
+      <c r="E32" s="218"/>
     </row>
     <row r="33" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="222" t="s">
+      <c r="B33" s="226" t="s">
         <v>88</v>
       </c>
-      <c r="C33" s="220"/>
-      <c r="D33" s="220"/>
+      <c r="C33" s="218"/>
+      <c r="D33" s="218"/>
       <c r="E33" s="29" t="s">
         <v>73</v>
       </c>
@@ -6241,7 +6288,7 @@
         <v>37</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -6254,15 +6301,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="H6:I6"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="D32:E32"/>
@@ -6278,6 +6316,15 @@
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="H6:I6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -6302,7 +6349,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -6314,228 +6361,242 @@
     <col min="4" max="4" width="7.08203125" style="39" customWidth="1"/>
     <col min="5" max="5" width="11.83203125" style="39" customWidth="1"/>
     <col min="6" max="6" width="5" style="39" customWidth="1"/>
-    <col min="7" max="7" width="11.75" style="39" customWidth="1"/>
-    <col min="8" max="8" width="9.08203125" style="39" customWidth="1"/>
-    <col min="9" max="9" width="7" style="39" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.83203125" style="39" customWidth="1"/>
-    <col min="11" max="11" width="2.58203125" style="39" customWidth="1"/>
-    <col min="12" max="16384" width="8.58203125" style="39"/>
+    <col min="7" max="7" width="2.58203125" style="39" customWidth="1"/>
+    <col min="8" max="8" width="9.75" style="39" customWidth="1"/>
+    <col min="9" max="9" width="9.08203125" style="39" customWidth="1"/>
+    <col min="10" max="10" width="7" style="39" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.83203125" style="39" customWidth="1"/>
+    <col min="12" max="12" width="2.58203125" style="39" customWidth="1"/>
+    <col min="13" max="16384" width="8.58203125" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="37"/>
-      <c r="B1" s="235" t="s">
+      <c r="B1" s="282" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
-      <c r="E1" s="235"/>
-      <c r="F1" s="235"/>
-      <c r="G1" s="235"/>
-      <c r="H1" s="235"/>
-      <c r="I1" s="235"/>
-      <c r="J1" s="38"/>
+      <c r="C1" s="282"/>
+      <c r="D1" s="282"/>
+      <c r="E1" s="282"/>
+      <c r="F1" s="282"/>
+      <c r="G1" s="282"/>
+      <c r="H1" s="282"/>
+      <c r="I1" s="282"/>
+      <c r="J1" s="282"/>
       <c r="K1" s="38"/>
-    </row>
-    <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="3" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="236" t="s">
+      <c r="L1" s="38"/>
+    </row>
+    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="3" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="283" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="237"/>
-      <c r="D3" s="238" t="s">
+      <c r="C3" s="284"/>
+      <c r="D3" s="285" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="239"/>
-      <c r="F3" s="240"/>
-      <c r="G3" s="40" t="s">
+      <c r="E3" s="286"/>
+      <c r="F3" s="287"/>
+      <c r="G3" s="274" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="241" t="s">
+      <c r="H3" s="275"/>
+      <c r="I3" s="288" t="s">
         <v>109</v>
       </c>
-      <c r="I3" s="242"/>
-      <c r="J3" s="243"/>
-      <c r="K3" s="41"/>
-    </row>
-    <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="244" t="s">
+      <c r="J3" s="289"/>
+      <c r="K3" s="290"/>
+      <c r="L3" s="41"/>
+    </row>
+    <row r="4" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="291" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="245"/>
-      <c r="D4" s="246" t="s">
-        <v>192</v>
-      </c>
-      <c r="E4" s="247"/>
-      <c r="F4" s="248"/>
-      <c r="G4" s="42" t="s">
+      <c r="C4" s="292"/>
+      <c r="D4" s="293" t="s">
+        <v>190</v>
+      </c>
+      <c r="E4" s="294"/>
+      <c r="F4" s="295"/>
+      <c r="G4" s="299" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="249" t="s">
+      <c r="H4" s="300"/>
+      <c r="I4" s="296" t="s">
         <v>95</v>
       </c>
-      <c r="I4" s="250"/>
-      <c r="J4" s="251"/>
-      <c r="K4" s="43"/>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J4" s="297"/>
+      <c r="K4" s="298"/>
+      <c r="L4" s="43"/>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
       <c r="D5" s="44"/>
       <c r="E5" s="44"/>
       <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
       <c r="H5" s="44"/>
       <c r="I5" s="44"/>
-    </row>
-    <row r="6" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="270" t="s">
+      <c r="J5" s="44"/>
+    </row>
+    <row r="6" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="271" t="s">
         <v>48</v>
       </c>
       <c r="C6" s="40"/>
-      <c r="D6" s="273" t="s">
+      <c r="D6" s="274" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="274"/>
-      <c r="F6" s="273" t="s">
+      <c r="E6" s="275"/>
+      <c r="F6" s="274" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="275"/>
-      <c r="H6" s="273" t="s">
+      <c r="G6" s="276"/>
+      <c r="H6" s="276"/>
+      <c r="I6" s="274" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="275"/>
       <c r="J6" s="276"/>
-      <c r="K6" s="45"/>
-    </row>
-    <row r="7" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="271"/>
+      <c r="K6" s="277"/>
+      <c r="L6" s="45"/>
+    </row>
+    <row r="7" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="272"/>
       <c r="C7" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="231" t="s">
+      <c r="D7" s="278" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="233"/>
-      <c r="F7" s="231" t="s">
+      <c r="E7" s="279"/>
+      <c r="F7" s="278" t="s">
         <v>111</v>
       </c>
-      <c r="G7" s="233"/>
-      <c r="H7" s="47" t="s">
+      <c r="G7" s="280"/>
+      <c r="H7" s="279"/>
+      <c r="I7" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="231" t="e">
+      <c r="J7" s="278" t="e">
         <f>D7+F7</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J7" s="232"/>
-      <c r="K7" s="48"/>
-    </row>
-    <row r="8" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="271"/>
+      <c r="K7" s="281"/>
+      <c r="L7" s="48"/>
+    </row>
+    <row r="8" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="272"/>
       <c r="C8" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="231" t="s">
+      <c r="D8" s="278" t="s">
         <v>114</v>
       </c>
-      <c r="E8" s="233"/>
-      <c r="F8" s="231" t="s">
+      <c r="E8" s="279"/>
+      <c r="F8" s="278" t="s">
         <v>115</v>
       </c>
-      <c r="G8" s="234"/>
-      <c r="H8" s="49" t="s">
+      <c r="G8" s="280"/>
+      <c r="H8" s="280"/>
+      <c r="I8" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="231" t="e">
+      <c r="J8" s="278" t="e">
         <f>D8+F8</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J8" s="232"/>
-      <c r="K8" s="48"/>
-    </row>
-    <row r="9" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="272"/>
+      <c r="K8" s="281"/>
+      <c r="L8" s="48"/>
+    </row>
+    <row r="9" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="273"/>
       <c r="C9" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="252">
+      <c r="D9" s="253">
         <f>SUM(D7:E8)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="253"/>
-      <c r="F9" s="252">
-        <f>SUM(F7:G8)</f>
+      <c r="E9" s="254"/>
+      <c r="F9" s="253">
+        <f>SUM(F7:H8)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="254"/>
-      <c r="H9" s="50" t="s">
+      <c r="G9" s="255"/>
+      <c r="H9" s="255"/>
+      <c r="I9" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="252">
+      <c r="J9" s="253">
         <f>D9+F9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="255"/>
-      <c r="K9" s="48"/>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K9" s="256"/>
+      <c r="L9" s="48"/>
+    </row>
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="44"/>
       <c r="C10" s="44"/>
       <c r="D10" s="44"/>
       <c r="E10" s="44"/>
       <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
       <c r="H10" s="44"/>
       <c r="I10" s="44"/>
-    </row>
-    <row r="11" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="256" t="s">
+      <c r="J10" s="44"/>
+    </row>
+    <row r="11" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="257" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="257"/>
+      <c r="C11" s="258"/>
       <c r="D11" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="260" t="s">
+      <c r="E11" s="261" t="s">
         <v>112</v>
       </c>
-      <c r="F11" s="261"/>
-      <c r="G11" s="262" t="s">
-        <v>196</v>
-      </c>
-      <c r="H11" s="262"/>
-      <c r="I11" s="263" t="e">
-        <f>G11-E11+1</f>
+      <c r="F11" s="262"/>
+      <c r="G11" s="57" t="s">
+        <v>200</v>
+      </c>
+      <c r="H11" s="263" t="s">
+        <v>199</v>
+      </c>
+      <c r="I11" s="263"/>
+      <c r="J11" s="264" t="e">
+        <f>H11-E11+1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J11" s="264"/>
-      <c r="K11" s="52"/>
-    </row>
-    <row r="12" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="258"/>
-      <c r="C12" s="259"/>
+      <c r="K11" s="265"/>
+      <c r="L11" s="52"/>
+    </row>
+    <row r="12" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="259"/>
+      <c r="C12" s="260"/>
       <c r="D12" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="265" t="s">
+      <c r="E12" s="266" t="s">
         <v>113</v>
       </c>
-      <c r="F12" s="266"/>
-      <c r="G12" s="267" t="s">
-        <v>197</v>
-      </c>
-      <c r="H12" s="267"/>
-      <c r="I12" s="268" t="e">
-        <f>G12-E12+1</f>
+      <c r="F12" s="267"/>
+      <c r="G12" s="213" t="s">
+        <v>200</v>
+      </c>
+      <c r="H12" s="268" t="s">
+        <v>201</v>
+      </c>
+      <c r="I12" s="268"/>
+      <c r="J12" s="269" t="e">
+        <f>H12-E12+1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J12" s="269"/>
-      <c r="K12" s="52"/>
-    </row>
-    <row r="13" spans="1:11" ht="10" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="14" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="282" t="s">
+      <c r="K12" s="270"/>
+      <c r="L12" s="52"/>
+    </row>
+    <row r="13" spans="1:12" ht="10" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="14" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="234" t="s">
         <v>60</v>
       </c>
       <c r="C14" s="54"/>
@@ -6543,183 +6604,197 @@
         <v>52</v>
       </c>
       <c r="E14" s="56" t="e">
-        <f>I12</f>
+        <f>J12</f>
         <v>#VALUE!</v>
       </c>
       <c r="F14" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="58" t="e">
+      <c r="G14" s="248">
         <f>I$11+I$12</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="248"/>
+      <c r="I14" s="237" t="s">
+        <v>96</v>
+      </c>
+      <c r="J14" s="237"/>
+      <c r="K14" s="238"/>
+      <c r="L14" s="58"/>
+    </row>
+    <row r="15" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="235"/>
+      <c r="C15" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="61" t="e">
+        <f>J12</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H14" s="285" t="s">
-        <v>96</v>
-      </c>
-      <c r="I14" s="285"/>
-      <c r="J14" s="286"/>
-      <c r="K14" s="59"/>
-    </row>
-    <row r="15" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="283"/>
-      <c r="C15" s="60" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="62" t="e">
-        <f>I12</f>
+      <c r="F15" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="249">
+        <f>I$11+I$12</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="249"/>
+      <c r="I15" s="239" t="s">
+        <v>97</v>
+      </c>
+      <c r="J15" s="239"/>
+      <c r="K15" s="240"/>
+      <c r="L15" s="58"/>
+    </row>
+    <row r="16" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="235"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="65"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="250"/>
+      <c r="H16" s="250"/>
+      <c r="I16" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="J16" s="241" t="e">
+        <f>I14+I15</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F15" s="63" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="64" t="e">
-        <f>I$11+I$12</f>
+      <c r="K16" s="242"/>
+      <c r="L16" s="58"/>
+    </row>
+    <row r="17" spans="2:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="236"/>
+      <c r="C17" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="69"/>
+      <c r="E17" s="70" t="str">
+        <f>I9</f>
+        <v>（C）</v>
+      </c>
+      <c r="F17" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="251">
+        <f>H16</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="251"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="243" t="e">
+        <f>J9-J16</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H15" s="287" t="s">
-        <v>97</v>
-      </c>
-      <c r="I15" s="287"/>
-      <c r="J15" s="288"/>
-      <c r="K15" s="59"/>
-    </row>
-    <row r="16" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="283"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="66" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="67"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="69" t="s">
-        <v>64</v>
-      </c>
-      <c r="I16" s="289" t="e">
-        <f>H14+H15</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J16" s="290"/>
-      <c r="K16" s="59"/>
-    </row>
-    <row r="17" spans="2:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="284"/>
-      <c r="C17" s="70" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="71"/>
-      <c r="E17" s="72" t="str">
-        <f>H9</f>
-        <v>（C）</v>
-      </c>
-      <c r="F17" s="73" t="s">
-        <v>66</v>
-      </c>
-      <c r="G17" s="74" t="str">
-        <f>H16</f>
-        <v>（Ｄ）</v>
-      </c>
-      <c r="H17" s="75"/>
-      <c r="I17" s="291" t="e">
-        <f>I9-I16</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J17" s="292"/>
-      <c r="K17" s="59"/>
-    </row>
-    <row r="18" spans="2:11" ht="8.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-    </row>
-    <row r="19" spans="2:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="293" t="s">
+      <c r="K17" s="244"/>
+      <c r="L17" s="58"/>
+    </row>
+    <row r="18" spans="2:12" ht="8.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+    </row>
+    <row r="19" spans="2:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="245" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="294"/>
-      <c r="D19" s="295"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="78" t="s">
+      <c r="C19" s="246"/>
+      <c r="D19" s="247"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="252"/>
+      <c r="H19" s="252"/>
+      <c r="I19" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="I19" s="280" t="s">
+      <c r="J19" s="232" t="s">
         <v>98</v>
       </c>
-      <c r="J19" s="281"/>
-      <c r="K19" s="59"/>
-    </row>
-    <row r="20" spans="2:11" ht="8.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="80"/>
-    </row>
-    <row r="21" spans="2:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="277" t="s">
+      <c r="K19" s="233"/>
+      <c r="L19" s="58"/>
+    </row>
+    <row r="20" spans="2:12" ht="8.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="76"/>
+      <c r="C20" s="76"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+    </row>
+    <row r="21" spans="2:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="229" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="278"/>
-      <c r="D21" s="279"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="78" t="s">
+      <c r="C21" s="230"/>
+      <c r="D21" s="231"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="252"/>
+      <c r="H21" s="252"/>
+      <c r="I21" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="I21" s="280" t="s">
-        <v>184</v>
-      </c>
-      <c r="J21" s="281"/>
-      <c r="K21" s="81"/>
-    </row>
-    <row r="22" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="82"/>
+      <c r="J21" s="232" t="s">
+        <v>182</v>
+      </c>
+      <c r="K21" s="233"/>
+      <c r="L21" s="78"/>
+    </row>
+    <row r="22" spans="2:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="76"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="I19:J19"/>
+  <mergeCells count="44">
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="J9:K9"/>
     <mergeCell ref="B11:C12"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
     <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:K6"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G21:H21"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -6749,265 +6824,270 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="83"/>
+      <c r="A1" s="80"/>
     </row>
     <row r="2" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="37"/>
-      <c r="B2" s="296" t="s">
+      <c r="B2" s="324" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="296"/>
-      <c r="D2" s="296"/>
-      <c r="E2" s="296"/>
-      <c r="F2" s="296"/>
-      <c r="G2" s="296"/>
-      <c r="H2" s="296"/>
-      <c r="I2" s="296"/>
+      <c r="C2" s="324"/>
+      <c r="D2" s="324"/>
+      <c r="E2" s="324"/>
+      <c r="F2" s="324"/>
+      <c r="G2" s="324"/>
+      <c r="H2" s="324"/>
+      <c r="I2" s="324"/>
       <c r="J2" s="38"/>
     </row>
     <row r="3" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="4" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="98"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="95"/>
     </row>
     <row r="5" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="297" t="s">
+      <c r="B5" s="325" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="297"/>
-      <c r="D5" s="297"/>
-      <c r="E5" s="297"/>
-      <c r="F5" s="85" t="s">
+      <c r="C5" s="325"/>
+      <c r="D5" s="325"/>
+      <c r="E5" s="325"/>
+      <c r="F5" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="99"/>
-      <c r="L5" s="306" t="s">
-        <v>191</v>
+      <c r="I5" s="96"/>
+      <c r="L5" s="301" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L6" s="307"/>
+      <c r="L6" s="302"/>
     </row>
     <row r="7" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" s="298" t="e">
+      <c r="D7" s="326" t="e">
         <f>G13+G14</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E7" s="299"/>
-      <c r="F7" s="299"/>
-      <c r="G7" s="299"/>
-      <c r="H7" s="300"/>
+      <c r="E7" s="327"/>
+      <c r="F7" s="327"/>
+      <c r="G7" s="327"/>
+      <c r="H7" s="328"/>
       <c r="I7" s="45"/>
-      <c r="J7" s="86"/>
+      <c r="J7" s="83"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E8" s="87"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="83"/>
     </row>
     <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E9" s="87"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
     </row>
     <row r="10" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="301" t="s">
+      <c r="B10" s="329" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="302"/>
-      <c r="D10" s="303" t="s">
+      <c r="C10" s="330"/>
+      <c r="D10" s="331" t="s">
         <v>150</v>
       </c>
-      <c r="E10" s="304"/>
-      <c r="F10" s="304"/>
-      <c r="G10" s="304"/>
-      <c r="H10" s="304"/>
-      <c r="I10" s="305"/>
-      <c r="J10" s="86"/>
+      <c r="E10" s="332"/>
+      <c r="F10" s="332"/>
+      <c r="G10" s="332"/>
+      <c r="H10" s="332"/>
+      <c r="I10" s="333"/>
+      <c r="J10" s="83"/>
       <c r="L10" s="39" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="J11" s="90"/>
+      <c r="J11" s="87"/>
       <c r="L11" s="39" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="314" t="s">
+      <c r="B12" s="309" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="315"/>
-      <c r="D12" s="315"/>
-      <c r="E12" s="315"/>
-      <c r="F12" s="315"/>
-      <c r="G12" s="315" t="s">
+      <c r="C12" s="310"/>
+      <c r="D12" s="310"/>
+      <c r="E12" s="310"/>
+      <c r="F12" s="310"/>
+      <c r="G12" s="310" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="315"/>
-      <c r="I12" s="316"/>
-      <c r="J12" s="90"/>
+      <c r="H12" s="310"/>
+      <c r="I12" s="311"/>
+      <c r="J12" s="87"/>
       <c r="L12" s="39" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="317" t="s">
-        <v>193</v>
-      </c>
-      <c r="C13" s="318"/>
-      <c r="D13" s="318"/>
-      <c r="E13" s="318"/>
-      <c r="F13" s="319"/>
-      <c r="G13" s="320" t="s">
-        <v>183</v>
-      </c>
-      <c r="H13" s="321"/>
-      <c r="I13" s="322"/>
-      <c r="J13" s="90"/>
+      <c r="B13" s="312" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" s="313"/>
+      <c r="D13" s="313"/>
+      <c r="E13" s="313"/>
+      <c r="F13" s="314"/>
+      <c r="G13" s="315" t="s">
+        <v>181</v>
+      </c>
+      <c r="H13" s="316"/>
+      <c r="I13" s="317"/>
+      <c r="J13" s="87"/>
       <c r="L13" s="39" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="323" t="s">
+      <c r="B14" s="318" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="324"/>
-      <c r="D14" s="324"/>
-      <c r="E14" s="324"/>
-      <c r="F14" s="325"/>
-      <c r="G14" s="320" t="s">
-        <v>187</v>
-      </c>
-      <c r="H14" s="321"/>
-      <c r="I14" s="322"/>
-      <c r="J14" s="90"/>
+      <c r="C14" s="319"/>
+      <c r="D14" s="319"/>
+      <c r="E14" s="319"/>
+      <c r="F14" s="320"/>
+      <c r="G14" s="315" t="s">
+        <v>185</v>
+      </c>
+      <c r="H14" s="316"/>
+      <c r="I14" s="317"/>
+      <c r="J14" s="87"/>
       <c r="L14" s="39" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="311" t="s">
+      <c r="B15" s="306" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="312"/>
-      <c r="D15" s="312"/>
-      <c r="E15" s="312"/>
-      <c r="F15" s="313"/>
-      <c r="G15" s="326"/>
-      <c r="H15" s="327"/>
-      <c r="I15" s="328"/>
+      <c r="C15" s="307"/>
+      <c r="D15" s="307"/>
+      <c r="E15" s="307"/>
+      <c r="F15" s="308"/>
+      <c r="G15" s="321"/>
+      <c r="H15" s="322"/>
+      <c r="I15" s="323"/>
     </row>
     <row r="16" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="91"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="93"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="90"/>
     </row>
     <row r="17" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="310" t="s">
+      <c r="B17" s="305" t="s">
         <v>109</v>
       </c>
-      <c r="C17" s="310"/>
-      <c r="D17" s="100" t="s">
+      <c r="C17" s="305"/>
+      <c r="D17" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="86"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="83"/>
     </row>
     <row r="18" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="101"/>
-      <c r="C18" s="101"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="101"/>
-      <c r="G18" s="101"/>
-      <c r="H18" s="101"/>
-      <c r="I18" s="101"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="98"/>
     </row>
     <row r="19" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D19" s="94"/>
-      <c r="E19" s="95" t="s">
+      <c r="D19" s="91"/>
+      <c r="E19" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="259"/>
-      <c r="G19" s="259"/>
-      <c r="H19" s="259"/>
-      <c r="I19" s="259"/>
-      <c r="J19" s="259"/>
+      <c r="F19" s="260"/>
+      <c r="G19" s="260"/>
+      <c r="H19" s="260"/>
+      <c r="I19" s="260"/>
+      <c r="J19" s="260"/>
     </row>
     <row r="20" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D20" s="94"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="308"/>
-      <c r="G20" s="308"/>
-      <c r="H20" s="308"/>
-      <c r="I20" s="308"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="303"/>
+      <c r="G20" s="303"/>
+      <c r="H20" s="303"/>
+      <c r="I20" s="303"/>
     </row>
     <row r="21" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E21" s="95" t="s">
+      <c r="E21" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="309" t="s">
+      <c r="F21" s="304" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="309"/>
-      <c r="H21" s="309"/>
-      <c r="I21" s="309"/>
-      <c r="J21" s="309"/>
+      <c r="G21" s="304"/>
+      <c r="H21" s="304"/>
+      <c r="I21" s="304"/>
+      <c r="J21" s="304"/>
     </row>
     <row r="22" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E22" s="95"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="102"/>
-      <c r="I22" s="102"/>
-      <c r="J22" s="102"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="99"/>
+      <c r="J22" s="99"/>
     </row>
     <row r="23" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E23" s="95"/>
-      <c r="F23" s="103"/>
-      <c r="G23" s="103"/>
-      <c r="H23" s="103"/>
-      <c r="I23" s="103"/>
-      <c r="J23" s="103"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
     </row>
     <row r="24" spans="2:10" ht="12" x14ac:dyDescent="0.55000000000000004">
-      <c r="F24" s="103"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="103"/>
-      <c r="I24" s="103"/>
-      <c r="J24" s="103"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="100"/>
+      <c r="J24" s="100"/>
     </row>
     <row r="25" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="96" t="s">
+      <c r="B25" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="97"/>
+      <c r="F25" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:I10"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="F19:J19"/>
     <mergeCell ref="F20:I20"/>
@@ -7021,11 +7101,6 @@
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:I10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -7057,273 +7132,268 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="83"/>
+      <c r="A1" s="80"/>
     </row>
     <row r="2" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="37"/>
-      <c r="B2" s="296" t="s">
+      <c r="B2" s="324" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="296"/>
-      <c r="D2" s="296"/>
-      <c r="E2" s="296"/>
-      <c r="F2" s="296"/>
-      <c r="G2" s="296"/>
-      <c r="H2" s="296"/>
-      <c r="I2" s="296"/>
-      <c r="J2" s="210"/>
+      <c r="C2" s="324"/>
+      <c r="D2" s="324"/>
+      <c r="E2" s="324"/>
+      <c r="F2" s="324"/>
+      <c r="G2" s="324"/>
+      <c r="H2" s="324"/>
+      <c r="I2" s="324"/>
+      <c r="J2" s="207"/>
     </row>
     <row r="3" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="4" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="98"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="95"/>
     </row>
     <row r="5" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="297" t="s">
+      <c r="B5" s="325" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="297"/>
-      <c r="D5" s="297"/>
-      <c r="E5" s="297"/>
-      <c r="F5" s="85" t="s">
+      <c r="C5" s="325"/>
+      <c r="D5" s="325"/>
+      <c r="E5" s="325"/>
+      <c r="F5" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="99"/>
+      <c r="I5" s="96"/>
     </row>
     <row r="6" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" s="298" t="e">
+      <c r="D7" s="326" t="e">
         <f>G13+G14</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E7" s="299"/>
-      <c r="F7" s="299"/>
-      <c r="G7" s="299"/>
-      <c r="H7" s="300"/>
+      <c r="E7" s="327"/>
+      <c r="F7" s="327"/>
+      <c r="G7" s="327"/>
+      <c r="H7" s="328"/>
       <c r="I7" s="45"/>
-      <c r="J7" s="86"/>
+      <c r="J7" s="83"/>
     </row>
     <row r="8" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E8" s="87"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="83"/>
     </row>
     <row r="9" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E9" s="87"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
     </row>
     <row r="10" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="301" t="s">
+      <c r="B10" s="329" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="302"/>
-      <c r="D10" s="303" t="s">
+      <c r="C10" s="330"/>
+      <c r="D10" s="331" t="s">
         <v>150</v>
       </c>
-      <c r="E10" s="304"/>
-      <c r="F10" s="304"/>
-      <c r="G10" s="304"/>
-      <c r="H10" s="304"/>
-      <c r="I10" s="305"/>
-      <c r="J10" s="86"/>
-      <c r="L10" s="329">
+      <c r="E10" s="332"/>
+      <c r="F10" s="332"/>
+      <c r="G10" s="332"/>
+      <c r="H10" s="332"/>
+      <c r="I10" s="333"/>
+      <c r="J10" s="83"/>
+      <c r="L10" s="334">
         <v>8250000</v>
       </c>
-      <c r="M10" s="329"/>
-      <c r="N10" s="329"/>
-      <c r="O10" s="329"/>
-      <c r="P10" s="329"/>
+      <c r="M10" s="334"/>
+      <c r="N10" s="334"/>
+      <c r="O10" s="334"/>
+      <c r="P10" s="334"/>
     </row>
     <row r="11" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="J11" s="90"/>
-      <c r="L11" s="212" t="s">
+      <c r="J11" s="87"/>
+      <c r="L11" s="209" t="s">
         <v>173</v>
       </c>
-      <c r="M11" s="212"/>
-      <c r="N11" s="212"/>
+      <c r="M11" s="209"/>
+      <c r="N11" s="209"/>
     </row>
     <row r="12" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="314" t="s">
+      <c r="B12" s="309" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="315"/>
-      <c r="D12" s="315"/>
-      <c r="E12" s="315"/>
-      <c r="F12" s="315"/>
-      <c r="G12" s="315" t="s">
+      <c r="C12" s="310"/>
+      <c r="D12" s="310"/>
+      <c r="E12" s="310"/>
+      <c r="F12" s="310"/>
+      <c r="G12" s="310" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="315"/>
-      <c r="I12" s="316"/>
-      <c r="J12" s="90"/>
-      <c r="L12" s="212" t="s">
+      <c r="H12" s="310"/>
+      <c r="I12" s="311"/>
+      <c r="J12" s="87"/>
+      <c r="L12" s="209" t="s">
         <v>174</v>
       </c>
-      <c r="M12" s="212"/>
-      <c r="N12" s="212"/>
+      <c r="M12" s="209"/>
+      <c r="N12" s="209"/>
     </row>
     <row r="13" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="317" t="s">
+      <c r="B13" s="312" t="s">
         <v>171</v>
       </c>
-      <c r="C13" s="318"/>
-      <c r="D13" s="318"/>
-      <c r="E13" s="318"/>
-      <c r="F13" s="319"/>
-      <c r="G13" s="320" t="s">
-        <v>182</v>
-      </c>
-      <c r="H13" s="321"/>
-      <c r="I13" s="322"/>
-      <c r="J13" s="90"/>
-      <c r="L13" s="212" t="s">
+      <c r="C13" s="313"/>
+      <c r="D13" s="313"/>
+      <c r="E13" s="313"/>
+      <c r="F13" s="314"/>
+      <c r="G13" s="315" t="s">
+        <v>168</v>
+      </c>
+      <c r="H13" s="316"/>
+      <c r="I13" s="317"/>
+      <c r="J13" s="87"/>
+      <c r="L13" s="209" t="s">
         <v>175</v>
       </c>
-      <c r="M13" s="212"/>
-      <c r="N13" s="212"/>
+      <c r="M13" s="209"/>
+      <c r="N13" s="209"/>
     </row>
     <row r="14" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="323" t="s">
+      <c r="B14" s="318" t="s">
         <v>172</v>
       </c>
-      <c r="C14" s="324"/>
-      <c r="D14" s="324"/>
-      <c r="E14" s="324"/>
-      <c r="F14" s="325"/>
-      <c r="G14" s="320"/>
-      <c r="H14" s="321"/>
-      <c r="I14" s="322"/>
-      <c r="J14" s="90"/>
-      <c r="L14" s="212" t="s">
+      <c r="C14" s="319"/>
+      <c r="D14" s="319"/>
+      <c r="E14" s="319"/>
+      <c r="F14" s="320"/>
+      <c r="G14" s="315"/>
+      <c r="H14" s="316"/>
+      <c r="I14" s="317"/>
+      <c r="J14" s="87"/>
+      <c r="L14" s="209" t="s">
         <v>176</v>
       </c>
-      <c r="M14" s="212"/>
-      <c r="N14" s="212"/>
+      <c r="M14" s="209"/>
+      <c r="N14" s="209"/>
     </row>
     <row r="15" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="311"/>
-      <c r="C15" s="312"/>
-      <c r="D15" s="312"/>
-      <c r="E15" s="312"/>
-      <c r="F15" s="313"/>
-      <c r="G15" s="326"/>
-      <c r="H15" s="327"/>
-      <c r="I15" s="328"/>
+      <c r="B15" s="306"/>
+      <c r="C15" s="307"/>
+      <c r="D15" s="307"/>
+      <c r="E15" s="307"/>
+      <c r="F15" s="308"/>
+      <c r="G15" s="321"/>
+      <c r="H15" s="322"/>
+      <c r="I15" s="323"/>
     </row>
     <row r="16" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="211"/>
-      <c r="C16" s="211"/>
-      <c r="D16" s="211"/>
-      <c r="E16" s="211"/>
-      <c r="F16" s="211"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="93"/>
+      <c r="B16" s="208"/>
+      <c r="C16" s="208"/>
+      <c r="D16" s="208"/>
+      <c r="E16" s="208"/>
+      <c r="F16" s="208"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="90"/>
     </row>
     <row r="17" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="310" t="s">
-        <v>181</v>
-      </c>
-      <c r="C17" s="310"/>
-      <c r="D17" s="100" t="s">
+      <c r="B17" s="305" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17" s="305"/>
+      <c r="D17" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="86"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="83"/>
     </row>
     <row r="18" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="101"/>
-      <c r="C18" s="101"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="101"/>
-      <c r="G18" s="101"/>
-      <c r="H18" s="101"/>
-      <c r="I18" s="101"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="98"/>
     </row>
     <row r="19" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D19" s="94"/>
-      <c r="E19" s="95" t="s">
+      <c r="D19" s="91"/>
+      <c r="E19" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="259"/>
-      <c r="G19" s="259"/>
-      <c r="H19" s="259"/>
-      <c r="I19" s="259"/>
-      <c r="J19" s="259"/>
+      <c r="F19" s="260"/>
+      <c r="G19" s="260"/>
+      <c r="H19" s="260"/>
+      <c r="I19" s="260"/>
+      <c r="J19" s="260"/>
     </row>
     <row r="20" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D20" s="94"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="308"/>
-      <c r="G20" s="308"/>
-      <c r="H20" s="308"/>
-      <c r="I20" s="308"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="303"/>
+      <c r="G20" s="303"/>
+      <c r="H20" s="303"/>
+      <c r="I20" s="303"/>
     </row>
     <row r="21" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E21" s="95" t="s">
+      <c r="E21" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="309" t="s">
+      <c r="F21" s="304" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="309"/>
-      <c r="H21" s="309"/>
-      <c r="I21" s="309"/>
-      <c r="J21" s="309"/>
+      <c r="G21" s="304"/>
+      <c r="H21" s="304"/>
+      <c r="I21" s="304"/>
+      <c r="J21" s="304"/>
     </row>
     <row r="22" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E22" s="95"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="102"/>
-      <c r="I22" s="102"/>
-      <c r="J22" s="102"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="99"/>
+      <c r="J22" s="99"/>
     </row>
     <row r="23" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E23" s="95"/>
-      <c r="F23" s="103"/>
-      <c r="G23" s="103"/>
-      <c r="H23" s="103"/>
-      <c r="I23" s="103"/>
-      <c r="J23" s="103"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
     </row>
     <row r="24" spans="2:10" ht="12" x14ac:dyDescent="0.55000000000000004">
-      <c r="F24" s="103"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="103"/>
-      <c r="I24" s="103"/>
-      <c r="J24" s="103"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="100"/>
+      <c r="J24" s="100"/>
     </row>
     <row r="25" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="96" t="s">
+      <c r="B25" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="97"/>
+      <c r="F25" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:I10"/>
     <mergeCell ref="L10:P10"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="F19:J19"/>
@@ -7337,6 +7407,11 @@
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:I10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -7354,719 +7429,723 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="1.75" style="105" customWidth="1"/>
-    <col min="2" max="2" width="17" style="105" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="105" customWidth="1"/>
-    <col min="4" max="4" width="15" style="105" customWidth="1"/>
-    <col min="5" max="5" width="4.25" style="105" customWidth="1"/>
-    <col min="6" max="6" width="12.08203125" style="105" customWidth="1"/>
-    <col min="7" max="7" width="6.25" style="105" customWidth="1"/>
-    <col min="8" max="8" width="6.5" style="105" customWidth="1"/>
-    <col min="9" max="9" width="7.25" style="105" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.25" style="105" customWidth="1"/>
-    <col min="11" max="11" width="13.5" style="105" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.83203125" style="105" customWidth="1"/>
-    <col min="13" max="14" width="15.33203125" style="105" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.75" style="105" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.58203125" style="105"/>
+    <col min="1" max="1" width="1.75" style="102" customWidth="1"/>
+    <col min="2" max="2" width="17" style="102" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="102" customWidth="1"/>
+    <col min="4" max="4" width="15" style="102" customWidth="1"/>
+    <col min="5" max="5" width="4.25" style="102" customWidth="1"/>
+    <col min="6" max="6" width="12.08203125" style="102" customWidth="1"/>
+    <col min="7" max="7" width="6.25" style="102" customWidth="1"/>
+    <col min="8" max="8" width="6.5" style="102" customWidth="1"/>
+    <col min="9" max="9" width="7.25" style="102" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.25" style="102" customWidth="1"/>
+    <col min="11" max="11" width="13.5" style="102" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.83203125" style="102" customWidth="1"/>
+    <col min="13" max="14" width="15.33203125" style="102" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.75" style="102" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.58203125" style="102"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="6.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="104"/>
-      <c r="M1" s="207"/>
-      <c r="N1" s="207"/>
-      <c r="O1" s="207"/>
+      <c r="A1" s="101"/>
+      <c r="M1" s="204"/>
+      <c r="N1" s="204"/>
+      <c r="O1" s="204"/>
     </row>
     <row r="2" spans="1:15" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="106"/>
-      <c r="B2" s="367" t="s">
+      <c r="A2" s="103"/>
+      <c r="B2" s="339" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="367"/>
-      <c r="D2" s="367"/>
-      <c r="E2" s="367"/>
-      <c r="F2" s="367"/>
-      <c r="G2" s="367"/>
-      <c r="H2" s="367"/>
-      <c r="I2" s="367"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="206"/>
-      <c r="N2" s="206"/>
-      <c r="O2" s="206"/>
+      <c r="C2" s="339"/>
+      <c r="D2" s="339"/>
+      <c r="E2" s="339"/>
+      <c r="F2" s="339"/>
+      <c r="G2" s="339"/>
+      <c r="H2" s="339"/>
+      <c r="I2" s="339"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="203"/>
+      <c r="N2" s="203"/>
+      <c r="O2" s="203"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
     </row>
     <row r="4" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="368"/>
-      <c r="D4" s="369"/>
-      <c r="E4" s="370"/>
-      <c r="F4" s="111" t="s">
+      <c r="C4" s="340"/>
+      <c r="D4" s="341"/>
+      <c r="E4" s="342"/>
+      <c r="F4" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="G4" s="371">
+      <c r="G4" s="343">
         <v>43983</v>
       </c>
-      <c r="H4" s="371"/>
-      <c r="I4" s="372"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="113"/>
-      <c r="L4" s="113"/>
-      <c r="M4" s="114" t="s">
+      <c r="H4" s="343"/>
+      <c r="I4" s="344"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="114" t="s">
+      <c r="N4" s="111" t="s">
         <v>122</v>
       </c>
-      <c r="O4" s="114" t="s">
+      <c r="O4" s="111" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="112" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="363"/>
-      <c r="D5" s="364"/>
-      <c r="E5" s="364"/>
-      <c r="F5" s="116" t="s">
+      <c r="C5" s="335"/>
+      <c r="D5" s="336"/>
+      <c r="E5" s="336"/>
+      <c r="F5" s="113" t="s">
         <v>125</v>
       </c>
-      <c r="G5" s="365" t="s">
+      <c r="G5" s="337" t="s">
         <v>126</v>
       </c>
-      <c r="H5" s="365"/>
-      <c r="I5" s="366"/>
-      <c r="J5" s="112"/>
-      <c r="M5" s="117">
+      <c r="H5" s="337"/>
+      <c r="I5" s="338"/>
+      <c r="J5" s="109"/>
+      <c r="M5" s="114">
         <v>43516</v>
       </c>
-      <c r="N5" s="118">
+      <c r="N5" s="115">
         <v>43890</v>
       </c>
-      <c r="O5" s="119">
+      <c r="O5" s="116">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="121" t="s">
+      <c r="B6" s="118" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="122"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="123"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="112"/>
-      <c r="J6" s="112"/>
-      <c r="M6" s="117"/>
-      <c r="N6" s="124"/>
-      <c r="O6" s="125"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
+      <c r="M6" s="114"/>
+      <c r="N6" s="121"/>
+      <c r="O6" s="122"/>
     </row>
     <row r="7" spans="1:15" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="126"/>
-      <c r="C7" s="122"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112"/>
-      <c r="M7" s="117"/>
-      <c r="N7" s="124"/>
-      <c r="O7" s="125"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="109"/>
+      <c r="M7" s="114"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="122"/>
     </row>
     <row r="8" spans="1:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="123"/>
-      <c r="C8" s="122"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="112"/>
-      <c r="M8" s="117"/>
-      <c r="N8" s="124"/>
-      <c r="O8" s="125"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="M8" s="114"/>
+      <c r="N8" s="121"/>
+      <c r="O8" s="122"/>
     </row>
     <row r="9" spans="1:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="123"/>
-      <c r="C9" s="122"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="123"/>
-      <c r="G9" s="112"/>
-      <c r="H9" s="112"/>
-      <c r="I9" s="112"/>
-      <c r="J9" s="112"/>
-      <c r="M9" s="117"/>
-      <c r="N9" s="124"/>
-      <c r="O9" s="125"/>
+      <c r="B9" s="120"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="109"/>
+      <c r="J9" s="109"/>
+      <c r="M9" s="114"/>
+      <c r="N9" s="121"/>
+      <c r="O9" s="122"/>
     </row>
     <row r="10" spans="1:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="123"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="123"/>
-      <c r="G10" s="112"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="112"/>
-      <c r="M10" s="117"/>
-      <c r="N10" s="124"/>
-      <c r="O10" s="125"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
+      <c r="M10" s="114"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="122"/>
     </row>
     <row r="11" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="127" t="s">
+      <c r="B11" s="124" t="s">
         <v>128</v>
       </c>
-      <c r="C11" s="340"/>
-      <c r="D11" s="340"/>
-      <c r="E11" s="340"/>
-      <c r="F11" s="123" t="s">
+      <c r="C11" s="347"/>
+      <c r="D11" s="347"/>
+      <c r="E11" s="347"/>
+      <c r="F11" s="120" t="s">
         <v>129</v>
       </c>
-      <c r="G11" s="108"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="108"/>
-      <c r="M11" s="114" t="s">
+      <c r="G11" s="105"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="105"/>
+      <c r="M11" s="111" t="s">
         <v>130</v>
       </c>
-      <c r="N11" s="128"/>
-      <c r="O11" s="128"/>
+      <c r="N11" s="125"/>
+      <c r="O11" s="125"/>
     </row>
     <row r="12" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="108" t="s">
+      <c r="B12" s="105" t="s">
         <v>131</v>
       </c>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="108"/>
-      <c r="J12" s="108"/>
-      <c r="M12" s="114" t="s">
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="105"/>
+      <c r="M12" s="111" t="s">
         <v>130</v>
       </c>
-      <c r="N12" s="128"/>
-      <c r="O12" s="128"/>
+      <c r="N12" s="125"/>
+      <c r="O12" s="125"/>
     </row>
     <row r="13" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="127" t="s">
+      <c r="B13" s="124" t="s">
         <v>132</v>
       </c>
-      <c r="C13" s="341" t="s">
+      <c r="C13" s="348" t="s">
         <v>133</v>
       </c>
-      <c r="D13" s="342"/>
-      <c r="E13" s="343" t="s">
+      <c r="D13" s="349"/>
+      <c r="E13" s="350" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="344"/>
-      <c r="G13" s="345"/>
-      <c r="H13" s="108"/>
-      <c r="I13" s="108"/>
-      <c r="J13" s="108"/>
-      <c r="K13" s="131">
+      <c r="F13" s="351"/>
+      <c r="G13" s="352"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="105"/>
+      <c r="K13" s="128">
         <v>6</v>
       </c>
-      <c r="L13" s="128"/>
-      <c r="M13" s="128"/>
-      <c r="N13" s="129"/>
-      <c r="O13" s="130"/>
+      <c r="L13" s="125"/>
+      <c r="M13" s="125"/>
+      <c r="N13" s="126"/>
+      <c r="O13" s="127"/>
     </row>
     <row r="14" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="132" t="s">
+      <c r="B14" s="129" t="s">
         <v>134</v>
       </c>
-      <c r="C14" s="346"/>
-      <c r="D14" s="347"/>
-      <c r="E14" s="348">
+      <c r="C14" s="353"/>
+      <c r="D14" s="354"/>
+      <c r="E14" s="355">
         <f>SUM(C14:D14)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="349"/>
-      <c r="G14" s="350"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="123"/>
-      <c r="K14" s="133"/>
-      <c r="L14" s="134"/>
-      <c r="M14" s="134"/>
+      <c r="F14" s="356"/>
+      <c r="G14" s="357"/>
+      <c r="H14" s="120"/>
+      <c r="I14" s="120"/>
+      <c r="J14" s="120"/>
+      <c r="K14" s="130"/>
+      <c r="L14" s="131"/>
+      <c r="M14" s="131"/>
     </row>
     <row r="15" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="127" t="s">
+      <c r="B15" s="124" t="s">
         <v>135</v>
       </c>
-      <c r="C15" s="135"/>
-      <c r="D15" s="136">
+      <c r="C15" s="132"/>
+      <c r="D15" s="133">
         <f>SUM(C14:D14)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="351">
+      <c r="E15" s="358">
         <f>SUM(C15:D15)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="352"/>
-      <c r="G15" s="353"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="123"/>
-      <c r="J15" s="123"/>
-      <c r="K15" s="137"/>
-      <c r="L15" s="138"/>
+      <c r="F15" s="359"/>
+      <c r="G15" s="360"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="120"/>
+      <c r="K15" s="134"/>
+      <c r="L15" s="135"/>
     </row>
     <row r="16" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="139" t="str">
+      <c r="B16" s="136" t="str">
         <f>""&amp;K13&amp;"月分賃料"</f>
         <v>6月分賃料</v>
       </c>
-      <c r="C16" s="140"/>
-      <c r="D16" s="140"/>
-      <c r="E16" s="141"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="143"/>
-      <c r="I16" s="143"/>
-      <c r="J16" s="144"/>
-      <c r="K16" s="138"/>
-      <c r="L16" s="138"/>
-      <c r="N16" s="145"/>
-      <c r="O16" s="133"/>
+      <c r="C16" s="137"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="139"/>
+      <c r="G16" s="139"/>
+      <c r="H16" s="140"/>
+      <c r="I16" s="140"/>
+      <c r="J16" s="141"/>
+      <c r="K16" s="135"/>
+      <c r="L16" s="135"/>
+      <c r="N16" s="142"/>
+      <c r="O16" s="130"/>
     </row>
     <row r="17" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="146" t="s">
+      <c r="B17" s="143" t="s">
         <v>136</v>
       </c>
-      <c r="C17" s="147"/>
-      <c r="D17" s="354">
+      <c r="C17" s="144"/>
+      <c r="D17" s="361">
         <v>43983</v>
       </c>
-      <c r="E17" s="354"/>
-      <c r="F17" s="355">
+      <c r="E17" s="361"/>
+      <c r="F17" s="362">
         <v>43983</v>
       </c>
-      <c r="G17" s="355"/>
-      <c r="H17" s="355"/>
-      <c r="I17" s="148"/>
-      <c r="J17" s="149"/>
-      <c r="K17" s="138"/>
-      <c r="L17" s="138"/>
-      <c r="N17" s="134"/>
-      <c r="O17" s="134"/>
+      <c r="G17" s="362"/>
+      <c r="H17" s="362"/>
+      <c r="I17" s="145"/>
+      <c r="J17" s="146"/>
+      <c r="K17" s="135"/>
+      <c r="L17" s="135"/>
+      <c r="N17" s="131"/>
+      <c r="O17" s="131"/>
     </row>
     <row r="18" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="150" t="s">
+      <c r="B18" s="147" t="s">
         <v>137</v>
       </c>
-      <c r="C18" s="151"/>
-      <c r="D18" s="152">
+      <c r="C18" s="148"/>
+      <c r="D18" s="149">
         <v>1</v>
       </c>
-      <c r="E18" s="153" t="s">
+      <c r="E18" s="150" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="154">
+      <c r="F18" s="151">
         <v>30</v>
       </c>
-      <c r="G18" s="155"/>
-      <c r="H18" s="356"/>
-      <c r="I18" s="357"/>
-      <c r="L18" s="138"/>
-      <c r="N18" s="156"/>
-      <c r="O18" s="156"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="363"/>
+      <c r="I18" s="364"/>
+      <c r="L18" s="135"/>
+      <c r="N18" s="153"/>
+      <c r="O18" s="153"/>
     </row>
     <row r="19" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="157" t="s">
+      <c r="B19" s="154" t="s">
         <v>138</v>
       </c>
-      <c r="C19" s="158"/>
-      <c r="D19" s="159">
+      <c r="C19" s="155"/>
+      <c r="D19" s="156">
         <v>29</v>
       </c>
-      <c r="E19" s="160" t="s">
+      <c r="E19" s="157" t="s">
         <v>61</v>
       </c>
-      <c r="F19" s="161">
+      <c r="F19" s="158">
         <v>30</v>
       </c>
-      <c r="G19" s="162"/>
-      <c r="H19" s="358"/>
-      <c r="I19" s="359"/>
-      <c r="J19" s="123" t="s">
+      <c r="G19" s="159"/>
+      <c r="H19" s="365"/>
+      <c r="I19" s="366"/>
+      <c r="J19" s="120" t="s">
         <v>139</v>
       </c>
-      <c r="L19" s="138"/>
-      <c r="N19" s="156"/>
-      <c r="O19" s="156"/>
+      <c r="L19" s="135"/>
+      <c r="N19" s="153"/>
+      <c r="O19" s="153"/>
     </row>
     <row r="20" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="121"/>
-      <c r="C20" s="163"/>
-      <c r="D20" s="164"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="165"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="166"/>
-      <c r="I20" s="167"/>
-      <c r="J20" s="167"/>
-      <c r="K20" s="168"/>
-      <c r="L20" s="138"/>
-      <c r="N20" s="169"/>
-      <c r="O20" s="169"/>
+      <c r="B20" s="118"/>
+      <c r="C20" s="160"/>
+      <c r="D20" s="161"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="162"/>
+      <c r="G20" s="141"/>
+      <c r="H20" s="163"/>
+      <c r="I20" s="164"/>
+      <c r="J20" s="164"/>
+      <c r="K20" s="165"/>
+      <c r="L20" s="135"/>
+      <c r="N20" s="166"/>
+      <c r="O20" s="166"/>
     </row>
     <row r="21" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="360" t="s">
+      <c r="B21" s="367" t="s">
         <v>140</v>
       </c>
-      <c r="C21" s="361"/>
-      <c r="D21" s="361"/>
-      <c r="E21" s="361"/>
-      <c r="F21" s="361"/>
-      <c r="G21" s="361"/>
-      <c r="H21" s="361"/>
-      <c r="I21" s="362"/>
-      <c r="J21" s="170"/>
-      <c r="K21" s="171"/>
-      <c r="L21" s="138"/>
-      <c r="N21" s="169"/>
-      <c r="O21" s="169"/>
+      <c r="C21" s="368"/>
+      <c r="D21" s="368"/>
+      <c r="E21" s="368"/>
+      <c r="F21" s="368"/>
+      <c r="G21" s="368"/>
+      <c r="H21" s="368"/>
+      <c r="I21" s="369"/>
+      <c r="J21" s="167"/>
+      <c r="K21" s="168"/>
+      <c r="L21" s="135"/>
+      <c r="N21" s="166"/>
+      <c r="O21" s="166"/>
     </row>
     <row r="22" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="150" t="s">
+      <c r="B22" s="147" t="s">
         <v>141</v>
       </c>
-      <c r="C22" s="151"/>
-      <c r="D22" s="172" t="s">
+      <c r="C22" s="148"/>
+      <c r="D22" s="169" t="s">
         <v>142</v>
       </c>
-      <c r="E22" s="153"/>
-      <c r="F22" s="173"/>
-      <c r="G22" s="174"/>
-      <c r="H22" s="338">
+      <c r="E22" s="150"/>
+      <c r="F22" s="170"/>
+      <c r="G22" s="171"/>
+      <c r="H22" s="345">
         <f>C11+H19</f>
         <v>0</v>
       </c>
-      <c r="I22" s="339"/>
-      <c r="J22" s="167"/>
-      <c r="K22" s="171"/>
-      <c r="L22" s="138"/>
-      <c r="N22" s="169"/>
-      <c r="O22" s="169"/>
+      <c r="I22" s="346"/>
+      <c r="J22" s="164"/>
+      <c r="K22" s="168"/>
+      <c r="L22" s="135"/>
+      <c r="N22" s="166"/>
+      <c r="O22" s="166"/>
     </row>
     <row r="23" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="175"/>
-      <c r="C23" s="176"/>
-      <c r="D23" s="177"/>
-      <c r="E23" s="178"/>
-      <c r="F23" s="179"/>
-      <c r="G23" s="180"/>
-      <c r="H23" s="181"/>
-      <c r="I23" s="182"/>
-      <c r="J23" s="167"/>
-      <c r="K23" s="171"/>
-      <c r="L23" s="171"/>
-      <c r="M23" s="171"/>
-      <c r="N23" s="169"/>
-      <c r="O23" s="169"/>
+      <c r="B23" s="172"/>
+      <c r="C23" s="173"/>
+      <c r="D23" s="174"/>
+      <c r="E23" s="175"/>
+      <c r="F23" s="176"/>
+      <c r="G23" s="177"/>
+      <c r="H23" s="178"/>
+      <c r="I23" s="179"/>
+      <c r="J23" s="164"/>
+      <c r="K23" s="168"/>
+      <c r="L23" s="168"/>
+      <c r="M23" s="168"/>
+      <c r="N23" s="166"/>
+      <c r="O23" s="166"/>
     </row>
     <row r="24" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="183"/>
-      <c r="C24" s="163"/>
-      <c r="D24" s="164"/>
-      <c r="E24" s="123"/>
-      <c r="F24" s="165"/>
-      <c r="G24" s="144"/>
-      <c r="H24" s="166"/>
-      <c r="I24" s="167"/>
-      <c r="J24" s="167"/>
-      <c r="K24" s="171"/>
-      <c r="L24" s="171"/>
-      <c r="M24" s="171"/>
-      <c r="N24" s="169"/>
-      <c r="O24" s="169"/>
+      <c r="B24" s="180"/>
+      <c r="C24" s="160"/>
+      <c r="D24" s="161"/>
+      <c r="E24" s="120"/>
+      <c r="F24" s="162"/>
+      <c r="G24" s="141"/>
+      <c r="H24" s="163"/>
+      <c r="I24" s="164"/>
+      <c r="J24" s="164"/>
+      <c r="K24" s="168"/>
+      <c r="L24" s="168"/>
+      <c r="M24" s="168"/>
+      <c r="N24" s="166"/>
+      <c r="O24" s="166"/>
     </row>
     <row r="25" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="123"/>
-      <c r="C25" s="108"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="123"/>
-      <c r="F25" s="123"/>
-      <c r="G25" s="123"/>
-      <c r="H25" s="184"/>
-      <c r="I25" s="184"/>
-      <c r="J25" s="184"/>
-      <c r="K25" s="171"/>
-      <c r="L25" s="171"/>
-      <c r="M25" s="171"/>
-      <c r="N25" s="169"/>
-      <c r="O25" s="169"/>
+      <c r="B25" s="120"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="120"/>
+      <c r="F25" s="120"/>
+      <c r="G25" s="120"/>
+      <c r="H25" s="181"/>
+      <c r="I25" s="181"/>
+      <c r="J25" s="181"/>
+      <c r="K25" s="168"/>
+      <c r="L25" s="168"/>
+      <c r="M25" s="168"/>
+      <c r="N25" s="166"/>
+      <c r="O25" s="166"/>
     </row>
     <row r="26" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="332" t="s">
+      <c r="B26" s="372" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="332"/>
-      <c r="D26" s="332"/>
-      <c r="E26" s="332"/>
-      <c r="F26" s="332"/>
-      <c r="G26" s="332"/>
-      <c r="H26" s="332"/>
-      <c r="I26" s="332"/>
-      <c r="J26" s="332"/>
-      <c r="K26" s="171"/>
-      <c r="N26" s="169"/>
-      <c r="O26" s="169"/>
+      <c r="C26" s="372"/>
+      <c r="D26" s="372"/>
+      <c r="E26" s="372"/>
+      <c r="F26" s="372"/>
+      <c r="G26" s="372"/>
+      <c r="H26" s="372"/>
+      <c r="I26" s="372"/>
+      <c r="J26" s="372"/>
+      <c r="K26" s="168"/>
+      <c r="N26" s="166"/>
+      <c r="O26" s="166"/>
     </row>
     <row r="27" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="171"/>
-      <c r="B27" s="333"/>
-      <c r="C27" s="333"/>
-      <c r="D27" s="185"/>
-      <c r="E27" s="186"/>
-      <c r="F27" s="186"/>
-      <c r="G27" s="186"/>
-      <c r="H27" s="187"/>
-      <c r="I27" s="334"/>
-      <c r="J27" s="188"/>
-      <c r="K27" s="171"/>
-      <c r="N27" s="169"/>
-      <c r="O27" s="169"/>
-    </row>
-    <row r="28" spans="1:15" s="171" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="171" t="s">
+      <c r="A27" s="168"/>
+      <c r="B27" s="373"/>
+      <c r="C27" s="373"/>
+      <c r="D27" s="182"/>
+      <c r="E27" s="183"/>
+      <c r="F27" s="183"/>
+      <c r="G27" s="183"/>
+      <c r="H27" s="184"/>
+      <c r="I27" s="374"/>
+      <c r="J27" s="185"/>
+      <c r="K27" s="168"/>
+      <c r="N27" s="166"/>
+      <c r="O27" s="166"/>
+    </row>
+    <row r="28" spans="1:15" s="168" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="168" t="s">
         <v>143</v>
       </c>
-      <c r="B28" s="336"/>
-      <c r="C28" s="336"/>
-      <c r="D28" s="185" t="s">
+      <c r="B28" s="376"/>
+      <c r="C28" s="376"/>
+      <c r="D28" s="182" t="s">
         <v>144</v>
       </c>
-      <c r="E28" s="189"/>
-      <c r="F28" s="108"/>
-      <c r="G28" s="108"/>
-      <c r="H28" s="108"/>
-      <c r="I28" s="335"/>
-      <c r="J28" s="190"/>
-      <c r="L28" s="105"/>
-      <c r="M28" s="105"/>
-    </row>
-    <row r="29" spans="1:15" s="171" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="108"/>
-      <c r="C29" s="108"/>
-      <c r="D29" s="108"/>
-      <c r="E29" s="108"/>
-      <c r="F29" s="108"/>
-      <c r="G29" s="108"/>
-      <c r="H29" s="108"/>
-      <c r="I29" s="108"/>
-      <c r="J29" s="108"/>
-      <c r="K29" s="191"/>
-      <c r="L29" s="105"/>
-      <c r="M29" s="105"/>
-    </row>
-    <row r="30" spans="1:15" s="171" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="108"/>
-      <c r="C30" s="108"/>
-      <c r="D30" s="337">
+      <c r="E28" s="186"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="105"/>
+      <c r="H28" s="105"/>
+      <c r="I28" s="375"/>
+      <c r="J28" s="187"/>
+      <c r="L28" s="102"/>
+      <c r="M28" s="102"/>
+    </row>
+    <row r="29" spans="1:15" s="168" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="105"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="105"/>
+      <c r="I29" s="105"/>
+      <c r="J29" s="105"/>
+      <c r="K29" s="188"/>
+      <c r="L29" s="102"/>
+      <c r="M29" s="102"/>
+    </row>
+    <row r="30" spans="1:15" s="168" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="105"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="377">
         <f>H22</f>
         <v>0</v>
       </c>
-      <c r="E30" s="337"/>
-      <c r="F30" s="337"/>
-      <c r="G30" s="192"/>
-      <c r="H30" s="108"/>
-      <c r="I30" s="108"/>
-      <c r="J30" s="108"/>
-      <c r="K30" s="193"/>
-      <c r="L30" s="194"/>
-      <c r="M30" s="105"/>
+      <c r="E30" s="377"/>
+      <c r="F30" s="377"/>
+      <c r="G30" s="189"/>
+      <c r="H30" s="105"/>
+      <c r="I30" s="105"/>
+      <c r="J30" s="105"/>
+      <c r="K30" s="190"/>
+      <c r="L30" s="191"/>
+      <c r="M30" s="102"/>
     </row>
     <row r="31" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="171"/>
-      <c r="B31" s="108"/>
-      <c r="C31" s="108"/>
-      <c r="D31" s="195"/>
-      <c r="E31" s="195"/>
-      <c r="F31" s="195"/>
-      <c r="G31" s="192"/>
-      <c r="H31" s="108"/>
-      <c r="I31" s="108"/>
-      <c r="J31" s="108"/>
-      <c r="K31" s="193"/>
-      <c r="L31" s="194"/>
+      <c r="A31" s="168"/>
+      <c r="B31" s="105"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="192"/>
+      <c r="E31" s="192"/>
+      <c r="F31" s="192"/>
+      <c r="G31" s="189"/>
+      <c r="H31" s="105"/>
+      <c r="I31" s="105"/>
+      <c r="J31" s="105"/>
+      <c r="K31" s="190"/>
+      <c r="L31" s="191"/>
     </row>
     <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="171"/>
-      <c r="B32" s="196"/>
-      <c r="C32" s="197"/>
-      <c r="D32" s="197"/>
-      <c r="E32" s="197"/>
-      <c r="F32" s="197"/>
-      <c r="G32" s="197"/>
-      <c r="H32" s="197"/>
-      <c r="I32" s="197"/>
-      <c r="J32" s="197"/>
-      <c r="K32" s="193"/>
-      <c r="L32" s="191"/>
-      <c r="M32" s="191"/>
+      <c r="A32" s="168"/>
+      <c r="B32" s="193"/>
+      <c r="C32" s="194"/>
+      <c r="D32" s="194"/>
+      <c r="E32" s="194"/>
+      <c r="F32" s="194"/>
+      <c r="G32" s="194"/>
+      <c r="H32" s="194"/>
+      <c r="I32" s="194"/>
+      <c r="J32" s="194"/>
+      <c r="K32" s="190"/>
+      <c r="L32" s="188"/>
+      <c r="M32" s="188"/>
     </row>
     <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="171"/>
-      <c r="B33" s="196" t="str">
+      <c r="A33" s="168"/>
+      <c r="B33" s="193" t="str">
         <f>"但し、上記所在物件の6月分日割り賃料及び承継保証金として"</f>
         <v>但し、上記所在物件の6月分日割り賃料及び承継保証金として</v>
       </c>
-      <c r="C33" s="197"/>
-      <c r="D33" s="197"/>
-      <c r="E33" s="197"/>
-      <c r="F33" s="197"/>
-      <c r="G33" s="197"/>
-      <c r="H33" s="197"/>
-      <c r="I33" s="197"/>
-      <c r="J33" s="197"/>
-      <c r="K33" s="193"/>
-      <c r="L33" s="191"/>
-      <c r="M33" s="191"/>
+      <c r="C33" s="194"/>
+      <c r="D33" s="194"/>
+      <c r="E33" s="194"/>
+      <c r="F33" s="194"/>
+      <c r="G33" s="194"/>
+      <c r="H33" s="194"/>
+      <c r="I33" s="194"/>
+      <c r="J33" s="194"/>
+      <c r="K33" s="190"/>
+      <c r="L33" s="188"/>
+      <c r="M33" s="188"/>
     </row>
     <row r="34" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="108"/>
-      <c r="C34" s="108"/>
-      <c r="D34" s="108"/>
-      <c r="E34" s="108"/>
-      <c r="F34" s="198"/>
-      <c r="G34" s="330"/>
-      <c r="H34" s="330"/>
-      <c r="I34" s="330"/>
-      <c r="J34" s="199"/>
-      <c r="L34" s="193"/>
-      <c r="M34" s="193"/>
+      <c r="B34" s="105"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="195"/>
+      <c r="G34" s="370"/>
+      <c r="H34" s="370"/>
+      <c r="I34" s="370"/>
+      <c r="J34" s="196"/>
+      <c r="L34" s="190"/>
+      <c r="M34" s="190"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="108"/>
-      <c r="C35" s="108"/>
-      <c r="D35" s="108"/>
-      <c r="E35" s="108"/>
-      <c r="F35" s="198"/>
-      <c r="G35" s="330">
+      <c r="B35" s="105"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="195"/>
+      <c r="G35" s="370">
         <v>43983</v>
       </c>
-      <c r="H35" s="330"/>
-      <c r="I35" s="330"/>
-      <c r="J35" s="199"/>
-      <c r="M35" s="200"/>
+      <c r="H35" s="370"/>
+      <c r="I35" s="370"/>
+      <c r="J35" s="196"/>
+      <c r="M35" s="197"/>
     </row>
     <row r="36" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="108"/>
-      <c r="C36" s="108"/>
-      <c r="D36" s="108"/>
-      <c r="E36" s="201"/>
-      <c r="F36" s="202"/>
-      <c r="G36" s="203"/>
-      <c r="H36" s="204"/>
-      <c r="I36" s="204"/>
-      <c r="J36" s="204"/>
+      <c r="B36" s="105"/>
+      <c r="C36" s="105"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="198"/>
+      <c r="F36" s="199"/>
+      <c r="G36" s="200"/>
+      <c r="H36" s="201"/>
+      <c r="I36" s="201"/>
+      <c r="J36" s="201"/>
     </row>
     <row r="37" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="108"/>
-      <c r="C37" s="108"/>
-      <c r="D37" s="108"/>
-      <c r="E37" s="108"/>
-      <c r="F37" s="108"/>
-      <c r="G37" s="330"/>
-      <c r="H37" s="330"/>
-      <c r="I37" s="330"/>
-      <c r="J37" s="205"/>
-      <c r="L37" s="193"/>
-      <c r="M37" s="193"/>
+      <c r="B37" s="105"/>
+      <c r="C37" s="105"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="105"/>
+      <c r="F37" s="105"/>
+      <c r="G37" s="370"/>
+      <c r="H37" s="370"/>
+      <c r="I37" s="370"/>
+      <c r="J37" s="202"/>
+      <c r="L37" s="190"/>
+      <c r="M37" s="190"/>
     </row>
     <row r="38" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="198"/>
-      <c r="C38" s="108"/>
-      <c r="D38" s="108"/>
-      <c r="E38" s="108"/>
-      <c r="F38" s="198" t="s">
+      <c r="B38" s="195"/>
+      <c r="C38" s="105"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="105"/>
+      <c r="F38" s="195" t="s">
         <v>151</v>
       </c>
-      <c r="G38" s="198"/>
-      <c r="H38" s="199"/>
-      <c r="I38" s="199"/>
-      <c r="J38" s="199"/>
-      <c r="L38" s="193"/>
-      <c r="M38" s="193"/>
-      <c r="N38" s="105" t="s">
+      <c r="G38" s="195"/>
+      <c r="H38" s="196"/>
+      <c r="I38" s="196"/>
+      <c r="J38" s="196"/>
+      <c r="L38" s="190"/>
+      <c r="M38" s="190"/>
+      <c r="N38" s="102" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="198"/>
-      <c r="C39" s="108"/>
-      <c r="D39" s="108"/>
-      <c r="E39" s="108"/>
-      <c r="F39" s="198" t="s">
+      <c r="B39" s="195"/>
+      <c r="C39" s="105"/>
+      <c r="D39" s="105"/>
+      <c r="E39" s="105"/>
+      <c r="F39" s="195" t="s">
         <v>146</v>
       </c>
-      <c r="G39" s="108"/>
-      <c r="H39" s="198"/>
-      <c r="I39" s="199"/>
-      <c r="J39" s="199"/>
-      <c r="M39" s="200"/>
+      <c r="G39" s="105"/>
+      <c r="H39" s="195"/>
+      <c r="I39" s="196"/>
+      <c r="J39" s="196"/>
+      <c r="M39" s="197"/>
     </row>
     <row r="40" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="202"/>
-      <c r="C40" s="108"/>
-      <c r="D40" s="108"/>
-      <c r="E40" s="201"/>
-      <c r="F40" s="202" t="s">
+      <c r="B40" s="199"/>
+      <c r="C40" s="105"/>
+      <c r="D40" s="105"/>
+      <c r="E40" s="198"/>
+      <c r="F40" s="199" t="s">
         <v>147</v>
       </c>
-      <c r="G40" s="203"/>
-      <c r="H40" s="204"/>
-      <c r="I40" s="204"/>
-      <c r="J40" s="204"/>
+      <c r="G40" s="200"/>
+      <c r="H40" s="201"/>
+      <c r="I40" s="201"/>
+      <c r="J40" s="201"/>
     </row>
     <row r="41" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="O41" s="109"/>
+      <c r="O41" s="106"/>
     </row>
     <row r="42" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="331" t="s">
+      <c r="B42" s="371" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="331"/>
-      <c r="D42" s="331"/>
-      <c r="E42" s="331"/>
-      <c r="F42" s="331"/>
-      <c r="G42" s="331"/>
-      <c r="H42" s="331"/>
-      <c r="I42" s="331"/>
-      <c r="O42" s="120"/>
+      <c r="C42" s="371"/>
+      <c r="D42" s="371"/>
+      <c r="E42" s="371"/>
+      <c r="F42" s="371"/>
+      <c r="G42" s="371"/>
+      <c r="H42" s="371"/>
+      <c r="I42" s="371"/>
+      <c r="O42" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="B42:I42"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G34:I34"/>
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C13:D13"/>
@@ -8079,15 +8158,11 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="B21:I21"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="B42:I42"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:I4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/template/買取決済.xlsx
+++ b/template/買取決済.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\work\00_Wavesync\24_不動産管理システム\00_source\backend\kbs_backend\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCA5FA4-D8AF-4714-9126-8BC557BA8431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C709AB1-75E3-46BF-9130-2D3554F3AA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3365,6 +3365,18 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3383,175 +3395,16 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="44" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="193" fontId="6" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="193" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="15" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="15" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="15" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="15" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="6" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="6" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="6" fillId="0" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="188" fontId="15" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="188" fontId="15" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="188" fontId="15" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="188" fontId="15" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="15" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3601,79 +3454,157 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="17" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="17" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="15" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="15" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="15" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="15" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="6" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="6" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="6" fillId="0" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="44" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="193" fontId="6" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="193" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="14" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="14" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="14" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="15" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="15" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3709,8 +3640,170 @@
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="186" fontId="17" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="17" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="14" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="14" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="14" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="15" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="15" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="205" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="38" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="38" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="40" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="14" fillId="0" borderId="53" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="54" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="51" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="27" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="14" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="32" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="32" fillId="0" borderId="53" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="54" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="194" fontId="32" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="32" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3737,99 +3830,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="194" fontId="14" fillId="0" borderId="53" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="54" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="51" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="27" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="14" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="32" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="32" fillId="0" borderId="53" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="54" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="194" fontId="32" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="32" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="38" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="38" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="40" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -5984,11 +5984,11 @@
       </c>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="223" t="s">
+      <c r="B2" s="227" t="s">
         <v>190</v>
       </c>
-      <c r="C2" s="223"/>
-      <c r="D2" s="223"/>
+      <c r="C2" s="227"/>
+      <c r="D2" s="227"/>
       <c r="E2" s="29" t="s">
         <v>83</v>
       </c>
@@ -6020,10 +6020,10 @@
       <c r="G6" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="224" t="s">
+      <c r="H6" s="228" t="s">
         <v>72</v>
       </c>
-      <c r="I6" s="224"/>
+      <c r="I6" s="228"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G7" s="218" t="s">
@@ -6034,16 +6034,16 @@
     </row>
     <row r="8" spans="2:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="9" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="219" t="s">
+      <c r="C9" s="223" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="220"/>
-      <c r="E9" s="220"/>
-      <c r="F9" s="221" t="s">
+      <c r="D9" s="224"/>
+      <c r="E9" s="224"/>
+      <c r="F9" s="225" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="221"/>
-      <c r="H9" s="221"/>
+      <c r="G9" s="225"/>
+      <c r="H9" s="225"/>
     </row>
     <row r="10" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="11" spans="2:11" x14ac:dyDescent="0.55000000000000004">
@@ -6093,10 +6093,10 @@
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="222" t="s">
+      <c r="B17" s="226" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="222"/>
+      <c r="C17" s="226"/>
       <c r="D17" s="34" t="s">
         <v>93</v>
       </c>
@@ -6120,15 +6120,15 @@
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="227" t="s">
+      <c r="B23" s="221" t="s">
         <v>193</v>
       </c>
-      <c r="C23" s="227"/>
-      <c r="D23" s="228" t="s">
+      <c r="C23" s="221"/>
+      <c r="D23" s="222" t="s">
         <v>152</v>
       </c>
-      <c r="E23" s="228"/>
-      <c r="F23" s="228"/>
+      <c r="E23" s="222"/>
+      <c r="F23" s="222"/>
       <c r="G23" s="36" t="s">
         <v>32</v>
       </c>
@@ -6138,11 +6138,11 @@
         <v>29</v>
       </c>
       <c r="C24" s="218"/>
-      <c r="D24" s="228" t="s">
+      <c r="D24" s="222" t="s">
         <v>182</v>
       </c>
-      <c r="E24" s="228"/>
-      <c r="F24" s="228"/>
+      <c r="E24" s="222"/>
+      <c r="F24" s="222"/>
       <c r="G24" s="36" t="s">
         <v>33</v>
       </c>
@@ -6152,11 +6152,11 @@
         <v>30</v>
       </c>
       <c r="C25" s="218"/>
-      <c r="D25" s="228" t="s">
+      <c r="D25" s="222" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="228"/>
-      <c r="F25" s="228"/>
+      <c r="E25" s="222"/>
+      <c r="F25" s="222"/>
       <c r="G25" s="36" t="s">
         <v>33</v>
       </c>
@@ -6166,11 +6166,11 @@
         <v>31</v>
       </c>
       <c r="C26" s="218"/>
-      <c r="D26" s="228" t="s">
+      <c r="D26" s="222" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="228"/>
-      <c r="F26" s="228"/>
+      <c r="E26" s="222"/>
+      <c r="F26" s="222"/>
       <c r="G26" s="36" t="s">
         <v>33</v>
       </c>
@@ -6183,12 +6183,12 @@
         <v>34</v>
       </c>
       <c r="C28" s="218"/>
-      <c r="D28" s="225" t="e">
+      <c r="D28" s="219" t="e">
         <f>D23+D24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E28" s="225"/>
-      <c r="F28" s="225"/>
+      <c r="E28" s="219"/>
+      <c r="F28" s="219"/>
       <c r="G28" s="36" t="s">
         <v>32</v>
       </c>
@@ -6220,7 +6220,7 @@
       <c r="E32" s="218"/>
     </row>
     <row r="33" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="226" t="s">
+      <c r="B33" s="220" t="s">
         <v>88</v>
       </c>
       <c r="C33" s="218"/>
@@ -6301,6 +6301,15 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="H6:I6"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="D32:E32"/>
@@ -6316,15 +6325,6 @@
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="H6:I6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -6372,61 +6372,61 @@
   <sheetData>
     <row r="1" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="37"/>
-      <c r="B1" s="282" t="s">
+      <c r="B1" s="233" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="282"/>
-      <c r="D1" s="282"/>
-      <c r="E1" s="282"/>
-      <c r="F1" s="282"/>
-      <c r="G1" s="282"/>
-      <c r="H1" s="282"/>
-      <c r="I1" s="282"/>
-      <c r="J1" s="282"/>
+      <c r="C1" s="233"/>
+      <c r="D1" s="233"/>
+      <c r="E1" s="233"/>
+      <c r="F1" s="233"/>
+      <c r="G1" s="233"/>
+      <c r="H1" s="233"/>
+      <c r="I1" s="233"/>
+      <c r="J1" s="233"/>
       <c r="K1" s="38"/>
       <c r="L1" s="38"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="3" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="283" t="s">
+      <c r="B3" s="234" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="284"/>
-      <c r="D3" s="285" t="s">
+      <c r="C3" s="235"/>
+      <c r="D3" s="236" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="286"/>
-      <c r="F3" s="287"/>
-      <c r="G3" s="274" t="s">
+      <c r="E3" s="237"/>
+      <c r="F3" s="238"/>
+      <c r="G3" s="250" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="275"/>
-      <c r="I3" s="288" t="s">
+      <c r="H3" s="251"/>
+      <c r="I3" s="239" t="s">
         <v>109</v>
       </c>
-      <c r="J3" s="289"/>
-      <c r="K3" s="290"/>
+      <c r="J3" s="240"/>
+      <c r="K3" s="241"/>
       <c r="L3" s="41"/>
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="291" t="s">
+      <c r="B4" s="242" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="292"/>
-      <c r="D4" s="293" t="s">
+      <c r="C4" s="243"/>
+      <c r="D4" s="244" t="s">
         <v>190</v>
       </c>
-      <c r="E4" s="294"/>
-      <c r="F4" s="295"/>
-      <c r="G4" s="299" t="s">
+      <c r="E4" s="245"/>
+      <c r="F4" s="246"/>
+      <c r="G4" s="252" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="300"/>
-      <c r="I4" s="296" t="s">
+      <c r="H4" s="253"/>
+      <c r="I4" s="247" t="s">
         <v>95</v>
       </c>
-      <c r="J4" s="297"/>
-      <c r="K4" s="298"/>
+      <c r="J4" s="248"/>
+      <c r="K4" s="249"/>
       <c r="L4" s="43"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -6440,98 +6440,98 @@
       <c r="J5" s="44"/>
     </row>
     <row r="6" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="271" t="s">
+      <c r="B6" s="272" t="s">
         <v>48</v>
       </c>
       <c r="C6" s="40"/>
-      <c r="D6" s="274" t="s">
+      <c r="D6" s="250" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="275"/>
-      <c r="F6" s="274" t="s">
+      <c r="E6" s="251"/>
+      <c r="F6" s="250" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="276"/>
-      <c r="H6" s="276"/>
-      <c r="I6" s="274" t="s">
+      <c r="G6" s="275"/>
+      <c r="H6" s="275"/>
+      <c r="I6" s="250" t="s">
         <v>51</v>
       </c>
-      <c r="J6" s="276"/>
-      <c r="K6" s="277"/>
+      <c r="J6" s="275"/>
+      <c r="K6" s="276"/>
       <c r="L6" s="45"/>
     </row>
     <row r="7" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="272"/>
+      <c r="B7" s="273"/>
       <c r="C7" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="278" t="s">
+      <c r="D7" s="229" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="279"/>
-      <c r="F7" s="278" t="s">
+      <c r="E7" s="231"/>
+      <c r="F7" s="229" t="s">
         <v>111</v>
       </c>
-      <c r="G7" s="280"/>
-      <c r="H7" s="279"/>
+      <c r="G7" s="232"/>
+      <c r="H7" s="231"/>
       <c r="I7" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="J7" s="278" t="e">
+      <c r="J7" s="229" t="e">
         <f>D7+F7</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K7" s="281"/>
+      <c r="K7" s="230"/>
       <c r="L7" s="48"/>
     </row>
     <row r="8" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="272"/>
+      <c r="B8" s="273"/>
       <c r="C8" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="278" t="s">
+      <c r="D8" s="229" t="s">
         <v>114</v>
       </c>
-      <c r="E8" s="279"/>
-      <c r="F8" s="278" t="s">
+      <c r="E8" s="231"/>
+      <c r="F8" s="229" t="s">
         <v>115</v>
       </c>
-      <c r="G8" s="280"/>
-      <c r="H8" s="280"/>
+      <c r="G8" s="232"/>
+      <c r="H8" s="232"/>
       <c r="I8" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="J8" s="278" t="e">
+      <c r="J8" s="229" t="e">
         <f>D8+F8</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K8" s="281"/>
+      <c r="K8" s="230"/>
       <c r="L8" s="48"/>
     </row>
     <row r="9" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="273"/>
+      <c r="B9" s="274"/>
       <c r="C9" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="253">
+      <c r="D9" s="254">
         <f>SUM(D7:E8)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="254"/>
-      <c r="F9" s="253">
+      <c r="E9" s="255"/>
+      <c r="F9" s="254">
         <f>SUM(F7:H8)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="255"/>
-      <c r="H9" s="255"/>
+      <c r="G9" s="256"/>
+      <c r="H9" s="256"/>
       <c r="I9" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="J9" s="253">
+      <c r="J9" s="254">
         <f>D9+F9</f>
         <v>0</v>
       </c>
-      <c r="K9" s="256"/>
+      <c r="K9" s="257"/>
       <c r="L9" s="48"/>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -6545,58 +6545,58 @@
       <c r="J10" s="44"/>
     </row>
     <row r="11" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="257" t="s">
+      <c r="B11" s="258" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="258"/>
+      <c r="C11" s="259"/>
       <c r="D11" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="261" t="s">
+      <c r="E11" s="262" t="s">
         <v>112</v>
       </c>
-      <c r="F11" s="262"/>
+      <c r="F11" s="263"/>
       <c r="G11" s="57" t="s">
         <v>200</v>
       </c>
-      <c r="H11" s="263" t="s">
+      <c r="H11" s="264" t="s">
         <v>199</v>
       </c>
-      <c r="I11" s="263"/>
-      <c r="J11" s="264" t="e">
+      <c r="I11" s="264"/>
+      <c r="J11" s="265" t="e">
         <f>H11-E11+1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K11" s="265"/>
+      <c r="K11" s="266"/>
       <c r="L11" s="52"/>
     </row>
     <row r="12" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="259"/>
-      <c r="C12" s="260"/>
+      <c r="B12" s="260"/>
+      <c r="C12" s="261"/>
       <c r="D12" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="266" t="s">
+      <c r="E12" s="267" t="s">
         <v>113</v>
       </c>
-      <c r="F12" s="267"/>
+      <c r="F12" s="268"/>
       <c r="G12" s="213" t="s">
         <v>200</v>
       </c>
-      <c r="H12" s="268" t="s">
+      <c r="H12" s="269" t="s">
         <v>201</v>
       </c>
-      <c r="I12" s="268"/>
-      <c r="J12" s="269" t="e">
+      <c r="I12" s="269"/>
+      <c r="J12" s="270" t="e">
         <f>H12-E12+1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K12" s="270"/>
+      <c r="K12" s="271"/>
       <c r="L12" s="52"/>
     </row>
     <row r="13" spans="1:12" ht="10" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="14" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="234" t="s">
+      <c r="B14" s="282" t="s">
         <v>60</v>
       </c>
       <c r="C14" s="54"/>
@@ -6610,20 +6610,20 @@
       <c r="F14" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="248">
-        <f>I$11+I$12</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="248"/>
-      <c r="I14" s="237" t="s">
+      <c r="G14" s="296" t="e">
+        <f>J$11+J$12</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H14" s="296"/>
+      <c r="I14" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="237"/>
-      <c r="K14" s="238"/>
+      <c r="J14" s="285"/>
+      <c r="K14" s="286"/>
       <c r="L14" s="58"/>
     </row>
     <row r="15" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="235"/>
+      <c r="B15" s="283"/>
       <c r="C15" s="59" t="s">
         <v>62</v>
       </c>
@@ -6637,40 +6637,40 @@
       <c r="F15" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="249">
-        <f>I$11+I$12</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="249"/>
-      <c r="I15" s="239" t="s">
+      <c r="G15" s="297" t="e">
+        <f>J$11+J$12</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H15" s="297"/>
+      <c r="I15" s="287" t="s">
         <v>97</v>
       </c>
-      <c r="J15" s="239"/>
-      <c r="K15" s="240"/>
+      <c r="J15" s="287"/>
+      <c r="K15" s="288"/>
       <c r="L15" s="58"/>
     </row>
     <row r="16" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="235"/>
+      <c r="B16" s="283"/>
       <c r="C16" s="63"/>
       <c r="D16" s="64" t="s">
         <v>51</v>
       </c>
       <c r="E16" s="65"/>
       <c r="F16" s="66"/>
-      <c r="G16" s="250"/>
-      <c r="H16" s="250"/>
+      <c r="G16" s="298"/>
+      <c r="H16" s="298"/>
       <c r="I16" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="J16" s="241" t="e">
+      <c r="J16" s="289" t="e">
         <f>I14+I15</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K16" s="242"/>
+      <c r="K16" s="290"/>
       <c r="L16" s="58"/>
     </row>
     <row r="17" spans="2:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="236"/>
+      <c r="B17" s="284"/>
       <c r="C17" s="68" t="s">
         <v>65</v>
       </c>
@@ -6682,17 +6682,17 @@
       <c r="F17" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="251">
+      <c r="G17" s="299">
         <f>H16</f>
         <v>0</v>
       </c>
-      <c r="H17" s="251"/>
+      <c r="H17" s="299"/>
       <c r="I17" s="72"/>
-      <c r="J17" s="243" t="e">
+      <c r="J17" s="291" t="e">
         <f>J9-J16</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K17" s="244"/>
+      <c r="K17" s="292"/>
       <c r="L17" s="58"/>
     </row>
     <row r="18" spans="2:12" ht="8.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -6700,22 +6700,22 @@
       <c r="J18" s="73"/>
     </row>
     <row r="19" spans="2:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="245" t="s">
+      <c r="B19" s="293" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="246"/>
-      <c r="D19" s="247"/>
+      <c r="C19" s="294"/>
+      <c r="D19" s="295"/>
       <c r="E19" s="74"/>
       <c r="F19" s="74"/>
-      <c r="G19" s="252"/>
-      <c r="H19" s="252"/>
+      <c r="G19" s="300"/>
+      <c r="H19" s="300"/>
       <c r="I19" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="J19" s="232" t="s">
+      <c r="J19" s="280" t="s">
         <v>98</v>
       </c>
-      <c r="K19" s="233"/>
+      <c r="K19" s="281"/>
       <c r="L19" s="58"/>
     </row>
     <row r="20" spans="2:12" ht="8.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -6725,22 +6725,22 @@
       <c r="J20" s="77"/>
     </row>
     <row r="21" spans="2:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="229" t="s">
+      <c r="B21" s="277" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="230"/>
-      <c r="D21" s="231"/>
+      <c r="C21" s="278"/>
+      <c r="D21" s="279"/>
       <c r="E21" s="74"/>
       <c r="F21" s="74"/>
-      <c r="G21" s="252"/>
-      <c r="H21" s="252"/>
+      <c r="G21" s="300"/>
+      <c r="H21" s="300"/>
       <c r="I21" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="J21" s="232" t="s">
+      <c r="J21" s="280" t="s">
         <v>182</v>
       </c>
-      <c r="K21" s="233"/>
+      <c r="K21" s="281"/>
       <c r="L21" s="78"/>
     </row>
     <row r="22" spans="2:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -6751,19 +6751,21 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G21:H21"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="J9:K9"/>
@@ -6780,21 +6782,19 @@
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -6828,16 +6828,16 @@
     </row>
     <row r="2" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="37"/>
-      <c r="B2" s="324" t="s">
+      <c r="B2" s="301" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="324"/>
-      <c r="D2" s="324"/>
-      <c r="E2" s="324"/>
-      <c r="F2" s="324"/>
-      <c r="G2" s="324"/>
-      <c r="H2" s="324"/>
-      <c r="I2" s="324"/>
+      <c r="C2" s="301"/>
+      <c r="D2" s="301"/>
+      <c r="E2" s="301"/>
+      <c r="F2" s="301"/>
+      <c r="G2" s="301"/>
+      <c r="H2" s="301"/>
+      <c r="I2" s="301"/>
       <c r="J2" s="38"/>
     </row>
     <row r="3" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -6852,32 +6852,32 @@
       <c r="I4" s="95"/>
     </row>
     <row r="5" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="325" t="s">
+      <c r="B5" s="302" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="325"/>
-      <c r="D5" s="325"/>
-      <c r="E5" s="325"/>
+      <c r="C5" s="302"/>
+      <c r="D5" s="302"/>
+      <c r="E5" s="302"/>
       <c r="F5" s="82" t="s">
         <v>8</v>
       </c>
       <c r="I5" s="96"/>
-      <c r="L5" s="301" t="s">
+      <c r="L5" s="311" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L6" s="302"/>
+      <c r="L6" s="312"/>
     </row>
     <row r="7" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" s="326" t="e">
+      <c r="D7" s="303" t="e">
         <f>G13+G14</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E7" s="327"/>
-      <c r="F7" s="327"/>
-      <c r="G7" s="327"/>
-      <c r="H7" s="328"/>
+      <c r="E7" s="304"/>
+      <c r="F7" s="304"/>
+      <c r="G7" s="304"/>
+      <c r="H7" s="305"/>
       <c r="I7" s="45"/>
       <c r="J7" s="83"/>
     </row>
@@ -6898,18 +6898,18 @@
       <c r="J9" s="83"/>
     </row>
     <row r="10" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="329" t="s">
+      <c r="B10" s="306" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="330"/>
-      <c r="D10" s="331" t="s">
+      <c r="C10" s="307"/>
+      <c r="D10" s="308" t="s">
         <v>150</v>
       </c>
-      <c r="E10" s="332"/>
-      <c r="F10" s="332"/>
-      <c r="G10" s="332"/>
-      <c r="H10" s="332"/>
-      <c r="I10" s="333"/>
+      <c r="E10" s="309"/>
+      <c r="F10" s="309"/>
+      <c r="G10" s="309"/>
+      <c r="H10" s="309"/>
+      <c r="I10" s="310"/>
       <c r="J10" s="83"/>
       <c r="L10" s="39" t="s">
         <v>117</v>
@@ -6922,70 +6922,70 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="309" t="s">
+      <c r="B12" s="319" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="310"/>
-      <c r="D12" s="310"/>
-      <c r="E12" s="310"/>
-      <c r="F12" s="310"/>
-      <c r="G12" s="310" t="s">
+      <c r="C12" s="320"/>
+      <c r="D12" s="320"/>
+      <c r="E12" s="320"/>
+      <c r="F12" s="320"/>
+      <c r="G12" s="320" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="310"/>
-      <c r="I12" s="311"/>
+      <c r="H12" s="320"/>
+      <c r="I12" s="321"/>
       <c r="J12" s="87"/>
       <c r="L12" s="39" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="312" t="s">
+      <c r="B13" s="322" t="s">
         <v>191</v>
       </c>
-      <c r="C13" s="313"/>
-      <c r="D13" s="313"/>
-      <c r="E13" s="313"/>
-      <c r="F13" s="314"/>
-      <c r="G13" s="315" t="s">
+      <c r="C13" s="323"/>
+      <c r="D13" s="323"/>
+      <c r="E13" s="323"/>
+      <c r="F13" s="324"/>
+      <c r="G13" s="325" t="s">
         <v>181</v>
       </c>
-      <c r="H13" s="316"/>
-      <c r="I13" s="317"/>
+      <c r="H13" s="326"/>
+      <c r="I13" s="327"/>
       <c r="J13" s="87"/>
       <c r="L13" s="39" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="318" t="s">
+      <c r="B14" s="328" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="319"/>
-      <c r="D14" s="319"/>
-      <c r="E14" s="319"/>
-      <c r="F14" s="320"/>
-      <c r="G14" s="315" t="s">
+      <c r="C14" s="329"/>
+      <c r="D14" s="329"/>
+      <c r="E14" s="329"/>
+      <c r="F14" s="330"/>
+      <c r="G14" s="325" t="s">
         <v>185</v>
       </c>
-      <c r="H14" s="316"/>
-      <c r="I14" s="317"/>
+      <c r="H14" s="326"/>
+      <c r="I14" s="327"/>
       <c r="J14" s="87"/>
       <c r="L14" s="39" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="306" t="s">
+      <c r="B15" s="316" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="307"/>
-      <c r="D15" s="307"/>
-      <c r="E15" s="307"/>
-      <c r="F15" s="308"/>
-      <c r="G15" s="321"/>
-      <c r="H15" s="322"/>
-      <c r="I15" s="323"/>
+      <c r="C15" s="317"/>
+      <c r="D15" s="317"/>
+      <c r="E15" s="317"/>
+      <c r="F15" s="318"/>
+      <c r="G15" s="331"/>
+      <c r="H15" s="332"/>
+      <c r="I15" s="333"/>
     </row>
     <row r="16" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="88"/>
@@ -6998,10 +6998,10 @@
       <c r="I16" s="90"/>
     </row>
     <row r="17" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="305" t="s">
+      <c r="B17" s="315" t="s">
         <v>109</v>
       </c>
-      <c r="C17" s="305"/>
+      <c r="C17" s="315"/>
       <c r="D17" s="97" t="s">
         <v>17</v>
       </c>
@@ -7026,31 +7026,31 @@
       <c r="E19" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="260"/>
-      <c r="G19" s="260"/>
-      <c r="H19" s="260"/>
-      <c r="I19" s="260"/>
-      <c r="J19" s="260"/>
+      <c r="F19" s="261"/>
+      <c r="G19" s="261"/>
+      <c r="H19" s="261"/>
+      <c r="I19" s="261"/>
+      <c r="J19" s="261"/>
     </row>
     <row r="20" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" s="91"/>
       <c r="E20" s="92"/>
-      <c r="F20" s="303"/>
-      <c r="G20" s="303"/>
-      <c r="H20" s="303"/>
-      <c r="I20" s="303"/>
+      <c r="F20" s="313"/>
+      <c r="G20" s="313"/>
+      <c r="H20" s="313"/>
+      <c r="I20" s="313"/>
     </row>
     <row r="21" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="304" t="s">
+      <c r="F21" s="314" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="304"/>
-      <c r="H21" s="304"/>
-      <c r="I21" s="304"/>
-      <c r="J21" s="304"/>
+      <c r="G21" s="314"/>
+      <c r="H21" s="314"/>
+      <c r="I21" s="314"/>
+      <c r="J21" s="314"/>
     </row>
     <row r="22" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E22" s="92"/>
@@ -7083,11 +7083,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:I10"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="F19:J19"/>
     <mergeCell ref="F20:I20"/>
@@ -7101,6 +7096,11 @@
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:I10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -7136,16 +7136,16 @@
     </row>
     <row r="2" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="37"/>
-      <c r="B2" s="324" t="s">
+      <c r="B2" s="301" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="324"/>
-      <c r="D2" s="324"/>
-      <c r="E2" s="324"/>
-      <c r="F2" s="324"/>
-      <c r="G2" s="324"/>
-      <c r="H2" s="324"/>
-      <c r="I2" s="324"/>
+      <c r="C2" s="301"/>
+      <c r="D2" s="301"/>
+      <c r="E2" s="301"/>
+      <c r="F2" s="301"/>
+      <c r="G2" s="301"/>
+      <c r="H2" s="301"/>
+      <c r="I2" s="301"/>
       <c r="J2" s="207"/>
     </row>
     <row r="3" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -7160,12 +7160,12 @@
       <c r="I4" s="95"/>
     </row>
     <row r="5" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="325" t="s">
+      <c r="B5" s="302" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="325"/>
-      <c r="D5" s="325"/>
-      <c r="E5" s="325"/>
+      <c r="C5" s="302"/>
+      <c r="D5" s="302"/>
+      <c r="E5" s="302"/>
       <c r="F5" s="82" t="s">
         <v>8</v>
       </c>
@@ -7173,14 +7173,14 @@
     </row>
     <row r="6" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" s="326" t="e">
+      <c r="D7" s="303" t="e">
         <f>G13+G14</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E7" s="327"/>
-      <c r="F7" s="327"/>
-      <c r="G7" s="327"/>
-      <c r="H7" s="328"/>
+      <c r="E7" s="304"/>
+      <c r="F7" s="304"/>
+      <c r="G7" s="304"/>
+      <c r="H7" s="305"/>
       <c r="I7" s="45"/>
       <c r="J7" s="83"/>
     </row>
@@ -7201,18 +7201,18 @@
       <c r="J9" s="83"/>
     </row>
     <row r="10" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="329" t="s">
+      <c r="B10" s="306" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="330"/>
-      <c r="D10" s="331" t="s">
+      <c r="C10" s="307"/>
+      <c r="D10" s="308" t="s">
         <v>150</v>
       </c>
-      <c r="E10" s="332"/>
-      <c r="F10" s="332"/>
-      <c r="G10" s="332"/>
-      <c r="H10" s="332"/>
-      <c r="I10" s="333"/>
+      <c r="E10" s="309"/>
+      <c r="F10" s="309"/>
+      <c r="G10" s="309"/>
+      <c r="H10" s="309"/>
+      <c r="I10" s="310"/>
       <c r="J10" s="83"/>
       <c r="L10" s="334">
         <v>8250000</v>
@@ -7231,18 +7231,18 @@
       <c r="N11" s="209"/>
     </row>
     <row r="12" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="309" t="s">
+      <c r="B12" s="319" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="310"/>
-      <c r="D12" s="310"/>
-      <c r="E12" s="310"/>
-      <c r="F12" s="310"/>
-      <c r="G12" s="310" t="s">
+      <c r="C12" s="320"/>
+      <c r="D12" s="320"/>
+      <c r="E12" s="320"/>
+      <c r="F12" s="320"/>
+      <c r="G12" s="320" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="310"/>
-      <c r="I12" s="311"/>
+      <c r="H12" s="320"/>
+      <c r="I12" s="321"/>
       <c r="J12" s="87"/>
       <c r="L12" s="209" t="s">
         <v>174</v>
@@ -7251,18 +7251,18 @@
       <c r="N12" s="209"/>
     </row>
     <row r="13" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="312" t="s">
+      <c r="B13" s="322" t="s">
         <v>171</v>
       </c>
-      <c r="C13" s="313"/>
-      <c r="D13" s="313"/>
-      <c r="E13" s="313"/>
-      <c r="F13" s="314"/>
-      <c r="G13" s="315" t="s">
+      <c r="C13" s="323"/>
+      <c r="D13" s="323"/>
+      <c r="E13" s="323"/>
+      <c r="F13" s="324"/>
+      <c r="G13" s="325" t="s">
         <v>168</v>
       </c>
-      <c r="H13" s="316"/>
-      <c r="I13" s="317"/>
+      <c r="H13" s="326"/>
+      <c r="I13" s="327"/>
       <c r="J13" s="87"/>
       <c r="L13" s="209" t="s">
         <v>175</v>
@@ -7271,16 +7271,16 @@
       <c r="N13" s="209"/>
     </row>
     <row r="14" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="318" t="s">
+      <c r="B14" s="328" t="s">
         <v>172</v>
       </c>
-      <c r="C14" s="319"/>
-      <c r="D14" s="319"/>
-      <c r="E14" s="319"/>
-      <c r="F14" s="320"/>
-      <c r="G14" s="315"/>
-      <c r="H14" s="316"/>
-      <c r="I14" s="317"/>
+      <c r="C14" s="329"/>
+      <c r="D14" s="329"/>
+      <c r="E14" s="329"/>
+      <c r="F14" s="330"/>
+      <c r="G14" s="325"/>
+      <c r="H14" s="326"/>
+      <c r="I14" s="327"/>
       <c r="J14" s="87"/>
       <c r="L14" s="209" t="s">
         <v>176</v>
@@ -7289,14 +7289,14 @@
       <c r="N14" s="209"/>
     </row>
     <row r="15" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="306"/>
-      <c r="C15" s="307"/>
-      <c r="D15" s="307"/>
-      <c r="E15" s="307"/>
-      <c r="F15" s="308"/>
-      <c r="G15" s="321"/>
-      <c r="H15" s="322"/>
-      <c r="I15" s="323"/>
+      <c r="B15" s="316"/>
+      <c r="C15" s="317"/>
+      <c r="D15" s="317"/>
+      <c r="E15" s="317"/>
+      <c r="F15" s="318"/>
+      <c r="G15" s="331"/>
+      <c r="H15" s="332"/>
+      <c r="I15" s="333"/>
     </row>
     <row r="16" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="208"/>
@@ -7309,10 +7309,10 @@
       <c r="I16" s="90"/>
     </row>
     <row r="17" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="305" t="s">
+      <c r="B17" s="315" t="s">
         <v>198</v>
       </c>
-      <c r="C17" s="305"/>
+      <c r="C17" s="315"/>
       <c r="D17" s="97" t="s">
         <v>17</v>
       </c>
@@ -7337,31 +7337,31 @@
       <c r="E19" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="260"/>
-      <c r="G19" s="260"/>
-      <c r="H19" s="260"/>
-      <c r="I19" s="260"/>
-      <c r="J19" s="260"/>
+      <c r="F19" s="261"/>
+      <c r="G19" s="261"/>
+      <c r="H19" s="261"/>
+      <c r="I19" s="261"/>
+      <c r="J19" s="261"/>
     </row>
     <row r="20" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" s="91"/>
       <c r="E20" s="92"/>
-      <c r="F20" s="303"/>
-      <c r="G20" s="303"/>
-      <c r="H20" s="303"/>
-      <c r="I20" s="303"/>
+      <c r="F20" s="313"/>
+      <c r="G20" s="313"/>
+      <c r="H20" s="313"/>
+      <c r="I20" s="313"/>
     </row>
     <row r="21" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="304" t="s">
+      <c r="F21" s="314" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="304"/>
-      <c r="H21" s="304"/>
-      <c r="I21" s="304"/>
-      <c r="J21" s="304"/>
+      <c r="G21" s="314"/>
+      <c r="H21" s="314"/>
+      <c r="I21" s="314"/>
+      <c r="J21" s="314"/>
     </row>
     <row r="22" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E22" s="92"/>
@@ -7394,6 +7394,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:I10"/>
     <mergeCell ref="L10:P10"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="F19:J19"/>
@@ -7407,11 +7412,6 @@
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:I10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -7454,16 +7454,16 @@
     </row>
     <row r="2" spans="1:15" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="103"/>
-      <c r="B2" s="339" t="s">
+      <c r="B2" s="372" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="339"/>
-      <c r="D2" s="339"/>
-      <c r="E2" s="339"/>
-      <c r="F2" s="339"/>
-      <c r="G2" s="339"/>
-      <c r="H2" s="339"/>
-      <c r="I2" s="339"/>
+      <c r="C2" s="372"/>
+      <c r="D2" s="372"/>
+      <c r="E2" s="372"/>
+      <c r="F2" s="372"/>
+      <c r="G2" s="372"/>
+      <c r="H2" s="372"/>
+      <c r="I2" s="372"/>
       <c r="J2" s="104"/>
       <c r="K2" s="104"/>
       <c r="L2" s="104"/>
@@ -7486,17 +7486,17 @@
       <c r="B4" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="340"/>
-      <c r="D4" s="341"/>
-      <c r="E4" s="342"/>
+      <c r="C4" s="373"/>
+      <c r="D4" s="374"/>
+      <c r="E4" s="375"/>
       <c r="F4" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="G4" s="343">
+      <c r="G4" s="376">
         <v>43983</v>
       </c>
-      <c r="H4" s="343"/>
-      <c r="I4" s="344"/>
+      <c r="H4" s="376"/>
+      <c r="I4" s="377"/>
       <c r="J4" s="109"/>
       <c r="K4" s="110"/>
       <c r="L4" s="110"/>
@@ -7514,17 +7514,17 @@
       <c r="B5" s="112" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="335"/>
-      <c r="D5" s="336"/>
-      <c r="E5" s="336"/>
+      <c r="C5" s="368"/>
+      <c r="D5" s="369"/>
+      <c r="E5" s="369"/>
       <c r="F5" s="113" t="s">
         <v>125</v>
       </c>
-      <c r="G5" s="337" t="s">
+      <c r="G5" s="370" t="s">
         <v>126</v>
       </c>
-      <c r="H5" s="337"/>
-      <c r="I5" s="338"/>
+      <c r="H5" s="370"/>
+      <c r="I5" s="371"/>
       <c r="J5" s="109"/>
       <c r="M5" s="114">
         <v>43516</v>
@@ -7612,9 +7612,9 @@
       <c r="B11" s="124" t="s">
         <v>128</v>
       </c>
-      <c r="C11" s="347"/>
-      <c r="D11" s="347"/>
-      <c r="E11" s="347"/>
+      <c r="C11" s="345"/>
+      <c r="D11" s="345"/>
+      <c r="E11" s="345"/>
       <c r="F11" s="120" t="s">
         <v>129</v>
       </c>
@@ -7650,15 +7650,15 @@
       <c r="B13" s="124" t="s">
         <v>132</v>
       </c>
-      <c r="C13" s="348" t="s">
+      <c r="C13" s="346" t="s">
         <v>133</v>
       </c>
-      <c r="D13" s="349"/>
-      <c r="E13" s="350" t="s">
+      <c r="D13" s="347"/>
+      <c r="E13" s="348" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="351"/>
-      <c r="G13" s="352"/>
+      <c r="F13" s="349"/>
+      <c r="G13" s="350"/>
       <c r="H13" s="105"/>
       <c r="I13" s="105"/>
       <c r="J13" s="105"/>
@@ -7674,14 +7674,14 @@
       <c r="B14" s="129" t="s">
         <v>134</v>
       </c>
-      <c r="C14" s="353"/>
-      <c r="D14" s="354"/>
-      <c r="E14" s="355">
+      <c r="C14" s="351"/>
+      <c r="D14" s="352"/>
+      <c r="E14" s="353">
         <f>SUM(C14:D14)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="356"/>
-      <c r="G14" s="357"/>
+      <c r="F14" s="354"/>
+      <c r="G14" s="355"/>
       <c r="H14" s="120"/>
       <c r="I14" s="120"/>
       <c r="J14" s="120"/>
@@ -7698,12 +7698,12 @@
         <f>SUM(C14:D14)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="358">
+      <c r="E15" s="356">
         <f>SUM(C15:D15)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="359"/>
-      <c r="G15" s="360"/>
+      <c r="F15" s="357"/>
+      <c r="G15" s="358"/>
       <c r="H15" s="120"/>
       <c r="I15" s="120"/>
       <c r="J15" s="120"/>
@@ -7733,15 +7733,15 @@
         <v>136</v>
       </c>
       <c r="C17" s="144"/>
-      <c r="D17" s="361">
+      <c r="D17" s="359">
         <v>43983</v>
       </c>
-      <c r="E17" s="361"/>
-      <c r="F17" s="362">
+      <c r="E17" s="359"/>
+      <c r="F17" s="360">
         <v>43983</v>
       </c>
-      <c r="G17" s="362"/>
-      <c r="H17" s="362"/>
+      <c r="G17" s="360"/>
+      <c r="H17" s="360"/>
       <c r="I17" s="145"/>
       <c r="J17" s="146"/>
       <c r="K17" s="135"/>
@@ -7764,8 +7764,8 @@
         <v>30</v>
       </c>
       <c r="G18" s="152"/>
-      <c r="H18" s="363"/>
-      <c r="I18" s="364"/>
+      <c r="H18" s="361"/>
+      <c r="I18" s="362"/>
       <c r="L18" s="135"/>
       <c r="N18" s="153"/>
       <c r="O18" s="153"/>
@@ -7785,8 +7785,8 @@
         <v>30</v>
       </c>
       <c r="G19" s="159"/>
-      <c r="H19" s="365"/>
-      <c r="I19" s="366"/>
+      <c r="H19" s="363"/>
+      <c r="I19" s="364"/>
       <c r="J19" s="120" t="s">
         <v>139</v>
       </c>
@@ -7810,16 +7810,16 @@
       <c r="O20" s="166"/>
     </row>
     <row r="21" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="367" t="s">
+      <c r="B21" s="365" t="s">
         <v>140</v>
       </c>
-      <c r="C21" s="368"/>
-      <c r="D21" s="368"/>
-      <c r="E21" s="368"/>
-      <c r="F21" s="368"/>
-      <c r="G21" s="368"/>
-      <c r="H21" s="368"/>
-      <c r="I21" s="369"/>
+      <c r="C21" s="366"/>
+      <c r="D21" s="366"/>
+      <c r="E21" s="366"/>
+      <c r="F21" s="366"/>
+      <c r="G21" s="366"/>
+      <c r="H21" s="366"/>
+      <c r="I21" s="367"/>
       <c r="J21" s="167"/>
       <c r="K21" s="168"/>
       <c r="L21" s="135"/>
@@ -7837,11 +7837,11 @@
       <c r="E22" s="150"/>
       <c r="F22" s="170"/>
       <c r="G22" s="171"/>
-      <c r="H22" s="345">
+      <c r="H22" s="343">
         <f>C11+H19</f>
         <v>0</v>
       </c>
-      <c r="I22" s="346"/>
+      <c r="I22" s="344"/>
       <c r="J22" s="164"/>
       <c r="K22" s="168"/>
       <c r="L22" s="135"/>
@@ -7897,31 +7897,31 @@
       <c r="O25" s="166"/>
     </row>
     <row r="26" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="372" t="s">
+      <c r="B26" s="337" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="372"/>
-      <c r="D26" s="372"/>
-      <c r="E26" s="372"/>
-      <c r="F26" s="372"/>
-      <c r="G26" s="372"/>
-      <c r="H26" s="372"/>
-      <c r="I26" s="372"/>
-      <c r="J26" s="372"/>
+      <c r="C26" s="337"/>
+      <c r="D26" s="337"/>
+      <c r="E26" s="337"/>
+      <c r="F26" s="337"/>
+      <c r="G26" s="337"/>
+      <c r="H26" s="337"/>
+      <c r="I26" s="337"/>
+      <c r="J26" s="337"/>
       <c r="K26" s="168"/>
       <c r="N26" s="166"/>
       <c r="O26" s="166"/>
     </row>
     <row r="27" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="168"/>
-      <c r="B27" s="373"/>
-      <c r="C27" s="373"/>
+      <c r="B27" s="338"/>
+      <c r="C27" s="338"/>
       <c r="D27" s="182"/>
       <c r="E27" s="183"/>
       <c r="F27" s="183"/>
       <c r="G27" s="183"/>
       <c r="H27" s="184"/>
-      <c r="I27" s="374"/>
+      <c r="I27" s="339"/>
       <c r="J27" s="185"/>
       <c r="K27" s="168"/>
       <c r="N27" s="166"/>
@@ -7931,8 +7931,8 @@
       <c r="A28" s="168" t="s">
         <v>143</v>
       </c>
-      <c r="B28" s="376"/>
-      <c r="C28" s="376"/>
+      <c r="B28" s="341"/>
+      <c r="C28" s="341"/>
       <c r="D28" s="182" t="s">
         <v>144</v>
       </c>
@@ -7940,7 +7940,7 @@
       <c r="F28" s="105"/>
       <c r="G28" s="105"/>
       <c r="H28" s="105"/>
-      <c r="I28" s="375"/>
+      <c r="I28" s="340"/>
       <c r="J28" s="187"/>
       <c r="L28" s="102"/>
       <c r="M28" s="102"/>
@@ -7962,12 +7962,12 @@
     <row r="30" spans="1:15" s="168" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="105"/>
       <c r="C30" s="105"/>
-      <c r="D30" s="377">
+      <c r="D30" s="342">
         <f>H22</f>
         <v>0</v>
       </c>
-      <c r="E30" s="377"/>
-      <c r="F30" s="377"/>
+      <c r="E30" s="342"/>
+      <c r="F30" s="342"/>
       <c r="G30" s="189"/>
       <c r="H30" s="105"/>
       <c r="I30" s="105"/>
@@ -8029,9 +8029,9 @@
       <c r="D34" s="105"/>
       <c r="E34" s="105"/>
       <c r="F34" s="195"/>
-      <c r="G34" s="370"/>
-      <c r="H34" s="370"/>
-      <c r="I34" s="370"/>
+      <c r="G34" s="335"/>
+      <c r="H34" s="335"/>
+      <c r="I34" s="335"/>
       <c r="J34" s="196"/>
       <c r="L34" s="190"/>
       <c r="M34" s="190"/>
@@ -8042,11 +8042,11 @@
       <c r="D35" s="105"/>
       <c r="E35" s="105"/>
       <c r="F35" s="195"/>
-      <c r="G35" s="370">
+      <c r="G35" s="335">
         <v>43983</v>
       </c>
-      <c r="H35" s="370"/>
-      <c r="I35" s="370"/>
+      <c r="H35" s="335"/>
+      <c r="I35" s="335"/>
       <c r="J35" s="196"/>
       <c r="M35" s="197"/>
     </row>
@@ -8067,9 +8067,9 @@
       <c r="D37" s="105"/>
       <c r="E37" s="105"/>
       <c r="F37" s="105"/>
-      <c r="G37" s="370"/>
-      <c r="H37" s="370"/>
-      <c r="I37" s="370"/>
+      <c r="G37" s="335"/>
+      <c r="H37" s="335"/>
+      <c r="I37" s="335"/>
       <c r="J37" s="202"/>
       <c r="L37" s="190"/>
       <c r="M37" s="190"/>
@@ -8123,29 +8123,25 @@
       <c r="O41" s="106"/>
     </row>
     <row r="42" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="371" t="s">
+      <c r="B42" s="336" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="371"/>
-      <c r="D42" s="371"/>
-      <c r="E42" s="371"/>
-      <c r="F42" s="371"/>
-      <c r="G42" s="371"/>
-      <c r="H42" s="371"/>
-      <c r="I42" s="371"/>
+      <c r="C42" s="336"/>
+      <c r="D42" s="336"/>
+      <c r="E42" s="336"/>
+      <c r="F42" s="336"/>
+      <c r="G42" s="336"/>
+      <c r="H42" s="336"/>
+      <c r="I42" s="336"/>
       <c r="O42" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="B42:I42"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:I4"/>
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C13:D13"/>
@@ -8158,11 +8154,15 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="B21:I21"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="B42:I42"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G34:I34"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/template/買取決済.xlsx
+++ b/template/買取決済.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\work\00_Wavesync\24_不動産管理システム\00_source\backend\kbs_backend\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C709AB1-75E3-46BF-9130-2D3554F3AA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDE78EF-93F4-4158-85D4-E5B9D59216D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,8 +46,9 @@
     <definedName name="_xlnm.Print_Area" localSheetId="6">'R-A　PK精算'!$A$1:$J$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">決済案内!$A$1:$I$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">固都税精算!$A$1:$L$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">支払依頼書帳票!$A$1:$P$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">受領書!$A$1:$J$25</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">地権者振込一覧!$A$1:$M$5</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">地権者振込一覧!$A$1:$P$13</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">領収証!$A$1:$J$25</definedName>
     <definedName name="ProjectName" localSheetId="6">{"Client Name or Project Name"}</definedName>
     <definedName name="ProjectName" localSheetId="3">{"Client Name or Project Name"}</definedName>
@@ -90,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="204">
   <si>
     <t>地　番
 家屋番号</t>
@@ -1005,31 +1006,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>上記所在物件の不動産売買契約書第12条に基づく固定資産税・都市計画税精算金として</t>
-    <rPh sb="14" eb="15">
-      <t>ショ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="23" eb="28">
-      <t>コテイシサンゼイ</t>
-    </rPh>
-    <rPh sb="29" eb="34">
-      <t>トシケイカクゼイ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>キン</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>上記所在物件の不動産売買契約書第４条に基づく手付金として</t>
   </si>
   <si>
@@ -1647,6 +1623,39 @@
   </si>
   <si>
     <t>$sharingEndDayBuyer_dt_kanji$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>上記所在物件の不動産売買契約書に基づく固定資産税・都市計画税精算金として</t>
+    <rPh sb="14" eb="15">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="19" eb="24">
+      <t>コテイシサンゼイ</t>
+    </rPh>
+    <rPh sb="25" eb="30">
+      <t>トシケイカクゼイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>キン</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>社長</t>
+    <rPh sb="0" eb="2">
+      <t>シャチョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作成者</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイシャ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1999,7 +2008,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="56">
+  <borders count="68">
     <border>
       <left/>
       <right/>
@@ -2702,6 +2711,152 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2715,13 +2870,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="378">
+  <cellXfs count="391">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2764,9 +2916,6 @@
     <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2776,9 +2925,6 @@
     <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="180" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2793,9 +2939,6 @@
     </xf>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="22" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="178" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -3337,15 +3480,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3830,6 +3964,66 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="22" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -5509,183 +5703,242 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="27.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.58203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="10.58203125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="12.75" style="5" customWidth="1"/>
-    <col min="10" max="10" width="12.08203125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="14.83203125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="14" style="5" customWidth="1"/>
-    <col min="13" max="13" width="15.75" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="12.83203125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.58203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.58203125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.08203125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="6.1640625" style="4" customWidth="1"/>
+    <col min="12" max="13" width="8.6640625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="5.33203125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="3.33203125" style="4" customWidth="1"/>
+    <col min="16" max="16" width="12.4140625" style="4" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="7" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="R1" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="O1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="207" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="208" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="209" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="207" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="207" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
+      <c r="R2" s="4" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="214" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="215" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="216" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="214" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" s="214" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="214"/>
-      <c r="G2" s="214"/>
-      <c r="H2" s="214"/>
-      <c r="I2" s="214"/>
-      <c r="O2" s="5" t="s">
+    <row r="3" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="207"/>
+      <c r="B3" s="207"/>
+      <c r="C3" s="210"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K3" s="207" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="207"/>
+      <c r="M3" s="377" t="s">
+        <v>182</v>
+      </c>
+      <c r="N3" s="377"/>
+      <c r="O3" s="207" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="207"/>
+      <c r="R3" s="4" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="214"/>
-      <c r="B3" s="214"/>
-      <c r="C3" s="217"/>
-      <c r="D3" s="214"/>
-      <c r="E3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="210" t="s">
+    <row r="4" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="K4" s="371" t="s">
+        <v>181</v>
+      </c>
+      <c r="L4" s="371"/>
+      <c r="M4" s="378" t="s">
         <v>183</v>
       </c>
-      <c r="M3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="K4" s="212" t="s">
-        <v>182</v>
-      </c>
-      <c r="L4" s="211" t="s">
-        <v>184</v>
-      </c>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" s="27" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="22"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="2" t="s">
+      <c r="N4" s="378"/>
+      <c r="O4" s="379"/>
+      <c r="P4" s="379"/>
+    </row>
+    <row r="5" spans="1:18" s="23" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="19"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="16">
         <f>SUM(J4:J4)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="18">
+      <c r="K5" s="372">
         <f>SUM(K4:K4)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="211">
-        <f>SUM(L4:L4)</f>
+      <c r="L5" s="372"/>
+      <c r="M5" s="378">
+        <f>SUM(M4:M4)</f>
         <v>0</v>
       </c>
-      <c r="M5" s="26"/>
+      <c r="N5" s="378"/>
+      <c r="O5" s="380"/>
+      <c r="P5" s="380"/>
+    </row>
+    <row r="7" spans="1:18" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="8" spans="1:18" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="L8" s="373" t="s">
+        <v>202</v>
+      </c>
+      <c r="M8" s="373" t="s">
+        <v>203</v>
+      </c>
+      <c r="N8" s="382"/>
+      <c r="O8" s="383"/>
+    </row>
+    <row r="9" spans="1:18" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="L9" s="374"/>
+      <c r="M9" s="374"/>
+      <c r="N9" s="384"/>
+      <c r="O9" s="385"/>
+    </row>
+    <row r="10" spans="1:18" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="L10" s="375"/>
+      <c r="M10" s="375"/>
+      <c r="N10" s="381"/>
+      <c r="O10" s="386"/>
+    </row>
+    <row r="11" spans="1:18" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="L11" s="375"/>
+      <c r="M11" s="375"/>
+      <c r="N11" s="381"/>
+      <c r="O11" s="386"/>
+    </row>
+    <row r="12" spans="1:18" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="L12" s="376"/>
+      <c r="M12" s="376"/>
+      <c r="N12" s="387"/>
+      <c r="O12" s="388"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="18">
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O12"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="L9:L12"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M9:M12"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -5695,7 +5948,7 @@
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1" xr:uid="{13505BCE-956D-48C6-A9F6-084A4BF87619}">
-      <formula1>$O$1:$O$3</formula1>
+      <formula1>$R$1:$R$3</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="1.1417322834645669" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5709,243 +5962,322 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="27.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.58203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="10.58203125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="12.75" style="5" customWidth="1"/>
-    <col min="10" max="10" width="12.08203125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="14.83203125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="14" style="5" customWidth="1"/>
-    <col min="13" max="13" width="15.75" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="12.83203125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.58203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.58203125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.08203125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="6.1640625" style="4" customWidth="1"/>
+    <col min="12" max="13" width="8.6640625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="5.33203125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="3.33203125" style="4" customWidth="1"/>
+    <col min="16" max="16" width="12.4140625" style="4" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="I1" s="5" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="207" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="208" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="209" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="207" t="s">
+        <v>176</v>
+      </c>
+      <c r="E2" s="207" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
+    </row>
+    <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="207"/>
+      <c r="B3" s="207"/>
+      <c r="C3" s="210"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" s="201" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="I3" s="201" t="s">
+        <v>103</v>
+      </c>
+      <c r="J3" s="201" t="s">
+        <v>81</v>
+      </c>
+      <c r="K3" s="207"/>
+      <c r="L3" s="207"/>
+      <c r="M3" s="377" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="377"/>
+      <c r="O3" s="207" t="s">
+        <v>177</v>
+      </c>
+      <c r="P3" s="207"/>
+    </row>
+    <row r="4" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="214" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="215" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="216" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="214" t="s">
-        <v>177</v>
-      </c>
-      <c r="E2" s="214" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="214"/>
-      <c r="G2" s="214"/>
-      <c r="H2" s="214"/>
-      <c r="I2" s="214"/>
-    </row>
-    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="214"/>
-      <c r="B3" s="214"/>
-      <c r="C3" s="217"/>
-      <c r="D3" s="214"/>
-      <c r="E3" s="205" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="G3" s="205" t="s">
-        <v>101</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="I3" s="205" t="s">
-        <v>103</v>
-      </c>
-      <c r="J3" s="205" t="s">
-        <v>81</v>
-      </c>
-      <c r="K3" s="205"/>
-      <c r="L3" s="210" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="205" t="s">
+      <c r="B4" s="201" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="11" t="s">
+      <c r="E4" s="202" t="s">
         <v>154</v>
       </c>
-      <c r="B4" s="205" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="E4" s="206" t="s">
+      <c r="F4" s="202" t="s">
         <v>155</v>
       </c>
-      <c r="F4" s="206" t="s">
+      <c r="G4" s="202" t="s">
         <v>156</v>
       </c>
-      <c r="G4" s="206" t="s">
+      <c r="H4" s="202" t="s">
         <v>157</v>
       </c>
-      <c r="H4" s="206" t="s">
+      <c r="I4" s="202" t="s">
         <v>158</v>
       </c>
-      <c r="I4" s="206" t="s">
+      <c r="J4" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="J4" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="K4" s="16"/>
-      <c r="L4" s="211" t="e">
+      <c r="K4" s="389"/>
+      <c r="L4" s="389"/>
+      <c r="M4" s="378" t="e">
         <f>J4+K4</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="378"/>
+      <c r="O4" s="379" t="s">
+        <v>160</v>
+      </c>
+      <c r="P4" s="379"/>
+    </row>
+    <row r="5" spans="1:16" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="10" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="11" t="s">
+      <c r="B5" s="201" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5" s="202" t="s">
         <v>162</v>
       </c>
-      <c r="B5" s="205" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="E5" s="206" t="s">
+      <c r="F5" s="202" t="s">
         <v>163</v>
       </c>
-      <c r="F5" s="206" t="s">
+      <c r="G5" s="202" t="s">
         <v>164</v>
       </c>
-      <c r="G5" s="206" t="s">
+      <c r="H5" s="202" t="s">
         <v>165</v>
       </c>
-      <c r="H5" s="206" t="s">
+      <c r="I5" s="202" t="s">
         <v>166</v>
       </c>
-      <c r="I5" s="206" t="s">
+      <c r="J5" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="J5" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="K5" s="16"/>
-      <c r="L5" s="211" t="e">
+      <c r="K5" s="389"/>
+      <c r="L5" s="389"/>
+      <c r="M5" s="378" t="e">
         <f>J5+K5</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="11"/>
-      <c r="B6" s="205"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="205"/>
-      <c r="E6" s="206"/>
-      <c r="F6" s="205"/>
-      <c r="G6" s="205"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="211"/>
-      <c r="M6" s="20"/>
-    </row>
-    <row r="7" spans="1:13" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="21"/>
-      <c r="B7" s="205"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="205"/>
-      <c r="E7" s="206"/>
-      <c r="F7" s="205"/>
-      <c r="G7" s="205"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="211"/>
-      <c r="M7" s="20"/>
-    </row>
-    <row r="8" spans="1:13" s="27" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="22"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="2" t="s">
+      <c r="N5" s="378"/>
+      <c r="O5" s="379" t="s">
+        <v>168</v>
+      </c>
+      <c r="P5" s="379"/>
+    </row>
+    <row r="6" spans="1:16" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="10"/>
+      <c r="B6" s="201"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="201"/>
+      <c r="E6" s="202"/>
+      <c r="F6" s="201"/>
+      <c r="G6" s="201"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="372"/>
+      <c r="L6" s="372"/>
+      <c r="M6" s="378"/>
+      <c r="N6" s="378"/>
+      <c r="O6" s="390"/>
+      <c r="P6" s="390"/>
+    </row>
+    <row r="7" spans="1:16" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="18"/>
+      <c r="B7" s="201"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="201"/>
+      <c r="E7" s="202"/>
+      <c r="F7" s="201"/>
+      <c r="G7" s="201"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="372"/>
+      <c r="L7" s="372"/>
+      <c r="M7" s="378"/>
+      <c r="N7" s="378"/>
+      <c r="O7" s="390"/>
+      <c r="P7" s="390"/>
+    </row>
+    <row r="8" spans="1:16" s="23" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="16">
         <f>SUM(J4:J7)</f>
         <v>0</v>
       </c>
-      <c r="K8" s="18">
+      <c r="K8" s="372">
         <f>SUM(K4:K7)</f>
         <v>0</v>
       </c>
-      <c r="L8" s="211" t="e">
-        <f>SUM(L4:L7)</f>
+      <c r="L8" s="372"/>
+      <c r="M8" s="378" t="e">
+        <f>SUM(M4:M7)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M8" s="26"/>
-    </row>
+      <c r="N8" s="378"/>
+      <c r="O8" s="380"/>
+      <c r="P8" s="380"/>
+    </row>
+    <row r="9" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="10" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="11" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="L11" s="373" t="s">
+        <v>202</v>
+      </c>
+      <c r="M11" s="373" t="s">
+        <v>203</v>
+      </c>
+      <c r="N11" s="382"/>
+      <c r="O11" s="383"/>
+    </row>
+    <row r="12" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="L12" s="374"/>
+      <c r="M12" s="374"/>
+      <c r="N12" s="384"/>
+      <c r="O12" s="385"/>
+    </row>
+    <row r="13" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="L13" s="375"/>
+      <c r="M13" s="375"/>
+      <c r="N13" s="381"/>
+      <c r="O13" s="386"/>
+    </row>
+    <row r="14" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="L14" s="375"/>
+      <c r="M14" s="375"/>
+      <c r="N14" s="381"/>
+      <c r="O14" s="386"/>
+    </row>
+    <row r="15" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="L15" s="376"/>
+      <c r="M15" s="376"/>
+      <c r="N15" s="387"/>
+      <c r="O15" s="388"/>
+    </row>
+    <row r="16" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="27">
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N12:O15"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="L12:L15"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M12:M15"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -5967,335 +6299,335 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="6.08203125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="11" style="29" customWidth="1"/>
-    <col min="3" max="3" width="9" style="29"/>
-    <col min="4" max="4" width="11.5" style="29" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="29"/>
+    <col min="1" max="1" width="6.08203125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="11" style="25" customWidth="1"/>
+    <col min="3" max="3" width="9" style="25"/>
+    <col min="4" max="4" width="11.5" style="25" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="H1" s="218" t="s">
+      <c r="H1" s="211" t="s">
         <v>107</v>
       </c>
-      <c r="I1" s="218"/>
-      <c r="K1" s="29" t="s">
+      <c r="I1" s="211"/>
+      <c r="K1" s="25" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="227" t="s">
-        <v>190</v>
-      </c>
-      <c r="C2" s="227"/>
-      <c r="D2" s="227"/>
-      <c r="E2" s="29" t="s">
+      <c r="B2" s="220" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="220"/>
+      <c r="D2" s="220"/>
+      <c r="E2" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="K2" s="29" t="s">
-        <v>186</v>
+      <c r="K2" s="25" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="26" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="F4" s="30"/>
-      <c r="G4" s="218" t="s">
+      <c r="F4" s="26"/>
+      <c r="G4" s="211" t="s">
         <v>85</v>
       </c>
-      <c r="H4" s="218"/>
-      <c r="I4" s="218"/>
+      <c r="H4" s="211"/>
+      <c r="I4" s="211"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G5" s="218" t="s">
+      <c r="G5" s="211" t="s">
         <v>71</v>
       </c>
-      <c r="H5" s="218"/>
-      <c r="I5" s="218"/>
+      <c r="H5" s="211"/>
+      <c r="I5" s="211"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="228" t="s">
+      <c r="H6" s="221" t="s">
         <v>72</v>
       </c>
-      <c r="I6" s="228"/>
+      <c r="I6" s="221"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G7" s="218" t="s">
+      <c r="G7" s="211" t="s">
         <v>105</v>
       </c>
-      <c r="H7" s="218"/>
-      <c r="I7" s="218"/>
+      <c r="H7" s="211"/>
+      <c r="I7" s="211"/>
     </row>
     <row r="8" spans="2:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="9" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="223" t="s">
+      <c r="C9" s="216" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="224"/>
-      <c r="E9" s="224"/>
-      <c r="F9" s="225" t="s">
+      <c r="D9" s="217"/>
+      <c r="E9" s="217"/>
+      <c r="F9" s="218" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="225"/>
-      <c r="H9" s="225"/>
+      <c r="G9" s="218"/>
+      <c r="H9" s="218"/>
     </row>
     <row r="10" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="11" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32" t="s">
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="16" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="29" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="226" t="s">
+      <c r="B17" s="219" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="226"/>
-      <c r="D17" s="34" t="s">
+      <c r="C17" s="219"/>
+      <c r="D17" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="E17" s="25" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="29" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="35"/>
+      <c r="B20" s="31"/>
     </row>
     <row r="21" spans="2:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="29" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="221" t="s">
-        <v>193</v>
-      </c>
-      <c r="C23" s="221"/>
-      <c r="D23" s="222" t="s">
-        <v>152</v>
-      </c>
-      <c r="E23" s="222"/>
-      <c r="F23" s="222"/>
-      <c r="G23" s="36" t="s">
+      <c r="B23" s="214" t="s">
+        <v>192</v>
+      </c>
+      <c r="C23" s="214"/>
+      <c r="D23" s="215" t="s">
+        <v>151</v>
+      </c>
+      <c r="E23" s="215"/>
+      <c r="F23" s="215"/>
+      <c r="G23" s="32" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="218" t="s">
+      <c r="B24" s="211" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="218"/>
-      <c r="D24" s="222" t="s">
-        <v>182</v>
-      </c>
-      <c r="E24" s="222"/>
-      <c r="F24" s="222"/>
-      <c r="G24" s="36" t="s">
+      <c r="C24" s="211"/>
+      <c r="D24" s="215" t="s">
+        <v>181</v>
+      </c>
+      <c r="E24" s="215"/>
+      <c r="F24" s="215"/>
+      <c r="G24" s="32" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="218" t="s">
+      <c r="B25" s="211" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="218"/>
-      <c r="D25" s="222" t="s">
+      <c r="C25" s="211"/>
+      <c r="D25" s="215" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="222"/>
-      <c r="F25" s="222"/>
-      <c r="G25" s="36" t="s">
+      <c r="E25" s="215"/>
+      <c r="F25" s="215"/>
+      <c r="G25" s="32" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="218" t="s">
+      <c r="B26" s="211" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="218"/>
-      <c r="D26" s="222" t="s">
+      <c r="C26" s="211"/>
+      <c r="D26" s="215" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="222"/>
-      <c r="F26" s="222"/>
-      <c r="G26" s="36" t="s">
+      <c r="E26" s="215"/>
+      <c r="F26" s="215"/>
+      <c r="G26" s="32" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="G27" s="36"/>
+      <c r="G27" s="32"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="218" t="s">
+      <c r="B28" s="211" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="218"/>
-      <c r="D28" s="219" t="e">
+      <c r="C28" s="211"/>
+      <c r="D28" s="212" t="e">
         <f>D23+D24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E28" s="219"/>
-      <c r="F28" s="219"/>
-      <c r="G28" s="36" t="s">
+      <c r="E28" s="212"/>
+      <c r="F28" s="212"/>
+      <c r="G28" s="32" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="29" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="218" t="s">
+      <c r="B31" s="211" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="218"/>
-      <c r="D31" s="218" t="s">
+      <c r="C31" s="211"/>
+      <c r="D31" s="211" t="s">
         <v>90</v>
       </c>
-      <c r="E31" s="218"/>
+      <c r="E31" s="211"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="218" t="s">
+      <c r="B32" s="211" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="218"/>
-      <c r="D32" s="218" t="s">
+      <c r="C32" s="211"/>
+      <c r="D32" s="211" t="s">
         <v>92</v>
       </c>
-      <c r="E32" s="218"/>
+      <c r="E32" s="211"/>
     </row>
     <row r="33" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="220" t="s">
+      <c r="B33" s="213" t="s">
         <v>88</v>
       </c>
-      <c r="C33" s="218"/>
-      <c r="D33" s="218"/>
-      <c r="E33" s="29" t="s">
+      <c r="C33" s="211"/>
+      <c r="D33" s="211"/>
+      <c r="E33" s="25" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="33" t="s">
+      <c r="B35" s="29" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="25" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="25" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="25" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="25" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="25" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="31" t="s">
+      <c r="A41" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="29" t="s">
+      <c r="B41" s="25" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="31" t="s">
+      <c r="A42" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="29" t="s">
-        <v>187</v>
+      <c r="B42" s="25" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="31" t="s">
+      <c r="A43" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B43" s="29" t="s">
+      <c r="B43" s="25" t="s">
         <v>41</v>
       </c>
     </row>
@@ -6355,399 +6687,399 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="2.25" style="39" customWidth="1"/>
-    <col min="2" max="2" width="4.58203125" style="39" customWidth="1"/>
-    <col min="3" max="3" width="6.58203125" style="39" customWidth="1"/>
-    <col min="4" max="4" width="7.08203125" style="39" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" style="39" customWidth="1"/>
-    <col min="6" max="6" width="5" style="39" customWidth="1"/>
-    <col min="7" max="7" width="2.58203125" style="39" customWidth="1"/>
-    <col min="8" max="8" width="9.75" style="39" customWidth="1"/>
-    <col min="9" max="9" width="9.08203125" style="39" customWidth="1"/>
-    <col min="10" max="10" width="7" style="39" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.83203125" style="39" customWidth="1"/>
-    <col min="12" max="12" width="2.58203125" style="39" customWidth="1"/>
-    <col min="13" max="16384" width="8.58203125" style="39"/>
+    <col min="1" max="1" width="2.25" style="35" customWidth="1"/>
+    <col min="2" max="2" width="4.58203125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="6.58203125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="7.08203125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="5" style="35" customWidth="1"/>
+    <col min="7" max="7" width="2.58203125" style="35" customWidth="1"/>
+    <col min="8" max="8" width="9.75" style="35" customWidth="1"/>
+    <col min="9" max="9" width="9.08203125" style="35" customWidth="1"/>
+    <col min="10" max="10" width="7" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.83203125" style="35" customWidth="1"/>
+    <col min="12" max="12" width="2.58203125" style="35" customWidth="1"/>
+    <col min="13" max="16384" width="8.58203125" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="37"/>
-      <c r="B1" s="233" t="s">
+      <c r="A1" s="33"/>
+      <c r="B1" s="226" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="233"/>
-      <c r="D1" s="233"/>
-      <c r="E1" s="233"/>
-      <c r="F1" s="233"/>
-      <c r="G1" s="233"/>
-      <c r="H1" s="233"/>
-      <c r="I1" s="233"/>
-      <c r="J1" s="233"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="226"/>
+      <c r="H1" s="226"/>
+      <c r="I1" s="226"/>
+      <c r="J1" s="226"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="3" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="234" t="s">
+      <c r="B3" s="227" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="235"/>
-      <c r="D3" s="236" t="s">
+      <c r="C3" s="228"/>
+      <c r="D3" s="229" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="237"/>
-      <c r="F3" s="238"/>
-      <c r="G3" s="250" t="s">
+      <c r="E3" s="230"/>
+      <c r="F3" s="231"/>
+      <c r="G3" s="243" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="251"/>
-      <c r="I3" s="239" t="s">
+      <c r="H3" s="244"/>
+      <c r="I3" s="232" t="s">
         <v>109</v>
       </c>
-      <c r="J3" s="240"/>
-      <c r="K3" s="241"/>
-      <c r="L3" s="41"/>
+      <c r="J3" s="233"/>
+      <c r="K3" s="234"/>
+      <c r="L3" s="37"/>
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="242" t="s">
+      <c r="B4" s="235" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="243"/>
-      <c r="D4" s="244" t="s">
-        <v>190</v>
-      </c>
-      <c r="E4" s="245"/>
-      <c r="F4" s="246"/>
-      <c r="G4" s="252" t="s">
+      <c r="C4" s="236"/>
+      <c r="D4" s="237" t="s">
+        <v>189</v>
+      </c>
+      <c r="E4" s="238"/>
+      <c r="F4" s="239"/>
+      <c r="G4" s="245" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="253"/>
-      <c r="I4" s="247" t="s">
+      <c r="H4" s="246"/>
+      <c r="I4" s="240" t="s">
         <v>95</v>
       </c>
-      <c r="J4" s="248"/>
-      <c r="K4" s="249"/>
-      <c r="L4" s="43"/>
+      <c r="J4" s="241"/>
+      <c r="K4" s="242"/>
+      <c r="L4" s="39"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
     </row>
     <row r="6" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="272" t="s">
+      <c r="B6" s="265" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="250" t="s">
+      <c r="C6" s="36"/>
+      <c r="D6" s="243" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="251"/>
-      <c r="F6" s="250" t="s">
+      <c r="E6" s="244"/>
+      <c r="F6" s="243" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="275"/>
-      <c r="H6" s="275"/>
-      <c r="I6" s="250" t="s">
+      <c r="G6" s="268"/>
+      <c r="H6" s="268"/>
+      <c r="I6" s="243" t="s">
         <v>51</v>
       </c>
-      <c r="J6" s="275"/>
-      <c r="K6" s="276"/>
-      <c r="L6" s="45"/>
+      <c r="J6" s="268"/>
+      <c r="K6" s="269"/>
+      <c r="L6" s="41"/>
     </row>
     <row r="7" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="273"/>
-      <c r="C7" s="46" t="s">
+      <c r="B7" s="266"/>
+      <c r="C7" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="229" t="s">
+      <c r="D7" s="222" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="231"/>
-      <c r="F7" s="229" t="s">
+      <c r="E7" s="224"/>
+      <c r="F7" s="222" t="s">
         <v>111</v>
       </c>
-      <c r="G7" s="232"/>
-      <c r="H7" s="231"/>
-      <c r="I7" s="47" t="s">
+      <c r="G7" s="225"/>
+      <c r="H7" s="224"/>
+      <c r="I7" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="J7" s="229" t="e">
+      <c r="J7" s="222" t="e">
         <f>D7+F7</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K7" s="230"/>
-      <c r="L7" s="48"/>
+      <c r="K7" s="223"/>
+      <c r="L7" s="44"/>
     </row>
     <row r="8" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="273"/>
-      <c r="C8" s="46" t="s">
+      <c r="B8" s="266"/>
+      <c r="C8" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="229" t="s">
+      <c r="D8" s="222" t="s">
         <v>114</v>
       </c>
-      <c r="E8" s="231"/>
-      <c r="F8" s="229" t="s">
+      <c r="E8" s="224"/>
+      <c r="F8" s="222" t="s">
         <v>115</v>
       </c>
-      <c r="G8" s="232"/>
-      <c r="H8" s="232"/>
-      <c r="I8" s="49" t="s">
+      <c r="G8" s="225"/>
+      <c r="H8" s="225"/>
+      <c r="I8" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="J8" s="229" t="e">
+      <c r="J8" s="222" t="e">
         <f>D8+F8</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K8" s="230"/>
-      <c r="L8" s="48"/>
+      <c r="K8" s="223"/>
+      <c r="L8" s="44"/>
     </row>
     <row r="9" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="274"/>
-      <c r="C9" s="42" t="s">
+      <c r="B9" s="267"/>
+      <c r="C9" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="254">
+      <c r="D9" s="247">
         <f>SUM(D7:E8)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="255"/>
-      <c r="F9" s="254">
+      <c r="E9" s="248"/>
+      <c r="F9" s="247">
         <f>SUM(F7:H8)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="256"/>
-      <c r="H9" s="256"/>
-      <c r="I9" s="50" t="s">
+      <c r="G9" s="249"/>
+      <c r="H9" s="249"/>
+      <c r="I9" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="J9" s="254">
+      <c r="J9" s="247">
         <f>D9+F9</f>
         <v>0</v>
       </c>
-      <c r="K9" s="257"/>
-      <c r="L9" s="48"/>
+      <c r="K9" s="250"/>
+      <c r="L9" s="44"/>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
     </row>
     <row r="11" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="258" t="s">
+      <c r="B11" s="251" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="259"/>
-      <c r="D11" s="51" t="s">
+      <c r="C11" s="252"/>
+      <c r="D11" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="262" t="s">
+      <c r="E11" s="255" t="s">
         <v>112</v>
       </c>
-      <c r="F11" s="263"/>
-      <c r="G11" s="57" t="s">
-        <v>200</v>
-      </c>
-      <c r="H11" s="264" t="s">
+      <c r="F11" s="256"/>
+      <c r="G11" s="53" t="s">
         <v>199</v>
       </c>
-      <c r="I11" s="264"/>
-      <c r="J11" s="265" t="e">
+      <c r="H11" s="257" t="s">
+        <v>198</v>
+      </c>
+      <c r="I11" s="257"/>
+      <c r="J11" s="258" t="e">
         <f>H11-E11+1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K11" s="266"/>
-      <c r="L11" s="52"/>
+      <c r="K11" s="259"/>
+      <c r="L11" s="48"/>
     </row>
     <row r="12" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="260"/>
-      <c r="C12" s="261"/>
-      <c r="D12" s="53" t="s">
+      <c r="B12" s="253"/>
+      <c r="C12" s="254"/>
+      <c r="D12" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="267" t="s">
+      <c r="E12" s="260" t="s">
         <v>113</v>
       </c>
-      <c r="F12" s="268"/>
-      <c r="G12" s="213" t="s">
+      <c r="F12" s="261"/>
+      <c r="G12" s="206" t="s">
+        <v>199</v>
+      </c>
+      <c r="H12" s="262" t="s">
         <v>200</v>
       </c>
-      <c r="H12" s="269" t="s">
-        <v>201</v>
-      </c>
-      <c r="I12" s="269"/>
-      <c r="J12" s="270" t="e">
+      <c r="I12" s="262"/>
+      <c r="J12" s="263" t="e">
         <f>H12-E12+1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K12" s="271"/>
-      <c r="L12" s="52"/>
+      <c r="K12" s="264"/>
+      <c r="L12" s="48"/>
     </row>
     <row r="13" spans="1:12" ht="10" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="14" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="282" t="s">
+      <c r="B14" s="275" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="55" t="s">
+      <c r="C14" s="50"/>
+      <c r="D14" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="56" t="e">
+      <c r="E14" s="52" t="e">
         <f>J12</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F14" s="57" t="s">
+      <c r="F14" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="296" t="e">
+      <c r="G14" s="289" t="e">
         <f>J$11+J$12</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H14" s="296"/>
-      <c r="I14" s="285" t="s">
+      <c r="H14" s="289"/>
+      <c r="I14" s="278" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="285"/>
-      <c r="K14" s="286"/>
-      <c r="L14" s="58"/>
+      <c r="J14" s="278"/>
+      <c r="K14" s="279"/>
+      <c r="L14" s="54"/>
     </row>
     <row r="15" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="283"/>
-      <c r="C15" s="59" t="s">
+      <c r="B15" s="276"/>
+      <c r="C15" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="60" t="s">
+      <c r="D15" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="61" t="e">
+      <c r="E15" s="57" t="e">
         <f>J12</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F15" s="62" t="s">
+      <c r="F15" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="297" t="e">
+      <c r="G15" s="290" t="e">
         <f>J$11+J$12</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H15" s="297"/>
-      <c r="I15" s="287" t="s">
+      <c r="H15" s="290"/>
+      <c r="I15" s="280" t="s">
         <v>97</v>
       </c>
-      <c r="J15" s="287"/>
-      <c r="K15" s="288"/>
-      <c r="L15" s="58"/>
+      <c r="J15" s="280"/>
+      <c r="K15" s="281"/>
+      <c r="L15" s="54"/>
     </row>
     <row r="16" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="283"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="64" t="s">
+      <c r="B16" s="276"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="65"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="298"/>
-      <c r="H16" s="298"/>
-      <c r="I16" s="67" t="s">
+      <c r="E16" s="61"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="291"/>
+      <c r="H16" s="291"/>
+      <c r="I16" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="J16" s="289" t="e">
+      <c r="J16" s="282" t="e">
         <f>I14+I15</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K16" s="290"/>
-      <c r="L16" s="58"/>
+      <c r="K16" s="283"/>
+      <c r="L16" s="54"/>
     </row>
     <row r="17" spans="2:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="284"/>
-      <c r="C17" s="68" t="s">
+      <c r="B17" s="277"/>
+      <c r="C17" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="69"/>
-      <c r="E17" s="70" t="str">
+      <c r="D17" s="65"/>
+      <c r="E17" s="66" t="str">
         <f>I9</f>
         <v>（C）</v>
       </c>
-      <c r="F17" s="71" t="s">
+      <c r="F17" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="299">
+      <c r="G17" s="292">
         <f>H16</f>
         <v>0</v>
       </c>
-      <c r="H17" s="299"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="291" t="e">
+      <c r="H17" s="292"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="284" t="e">
         <f>J9-J16</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K17" s="292"/>
-      <c r="L17" s="58"/>
+      <c r="K17" s="285"/>
+      <c r="L17" s="54"/>
     </row>
     <row r="18" spans="2:12" ht="8.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
     </row>
     <row r="19" spans="2:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="293" t="s">
+      <c r="B19" s="286" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="294"/>
-      <c r="D19" s="295"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="300"/>
-      <c r="H19" s="300"/>
-      <c r="I19" s="75" t="s">
+      <c r="C19" s="287"/>
+      <c r="D19" s="288"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="293"/>
+      <c r="H19" s="293"/>
+      <c r="I19" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="J19" s="280" t="s">
+      <c r="J19" s="273" t="s">
         <v>98</v>
       </c>
-      <c r="K19" s="281"/>
-      <c r="L19" s="58"/>
+      <c r="K19" s="274"/>
+      <c r="L19" s="54"/>
     </row>
     <row r="20" spans="2:12" ht="8.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="76"/>
-      <c r="C20" s="76"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
     </row>
     <row r="21" spans="2:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="277" t="s">
+      <c r="B21" s="270" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="278"/>
-      <c r="D21" s="279"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="300"/>
-      <c r="H21" s="300"/>
-      <c r="I21" s="75" t="s">
+      <c r="C21" s="271"/>
+      <c r="D21" s="272"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="293"/>
+      <c r="H21" s="293"/>
+      <c r="I21" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="J21" s="280" t="s">
-        <v>182</v>
-      </c>
-      <c r="K21" s="281"/>
-      <c r="L21" s="78"/>
+      <c r="J21" s="273" t="s">
+        <v>181</v>
+      </c>
+      <c r="K21" s="274"/>
+      <c r="L21" s="74"/>
     </row>
     <row r="22" spans="2:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="76"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="44">
@@ -6812,274 +7144,274 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="2.58203125" style="39" customWidth="1"/>
-    <col min="2" max="3" width="6.58203125" style="39" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="39" customWidth="1"/>
-    <col min="5" max="5" width="3.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.58203125" style="39" customWidth="1"/>
-    <col min="7" max="8" width="6.58203125" style="39" customWidth="1"/>
-    <col min="9" max="9" width="7" style="39" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.58203125" style="39" customWidth="1"/>
-    <col min="11" max="16384" width="8.58203125" style="39"/>
+    <col min="1" max="1" width="2.58203125" style="35" customWidth="1"/>
+    <col min="2" max="3" width="6.58203125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="35" customWidth="1"/>
+    <col min="5" max="5" width="3.5" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.58203125" style="35" customWidth="1"/>
+    <col min="7" max="8" width="6.58203125" style="35" customWidth="1"/>
+    <col min="9" max="9" width="7" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.58203125" style="35" customWidth="1"/>
+    <col min="11" max="16384" width="8.58203125" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="80"/>
+      <c r="A1" s="76"/>
     </row>
     <row r="2" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="37"/>
-      <c r="B2" s="301" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="294" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="301"/>
-      <c r="D2" s="301"/>
-      <c r="E2" s="301"/>
-      <c r="F2" s="301"/>
-      <c r="G2" s="301"/>
-      <c r="H2" s="301"/>
-      <c r="I2" s="301"/>
-      <c r="J2" s="38"/>
+      <c r="C2" s="294"/>
+      <c r="D2" s="294"/>
+      <c r="E2" s="294"/>
+      <c r="F2" s="294"/>
+      <c r="G2" s="294"/>
+      <c r="H2" s="294"/>
+      <c r="I2" s="294"/>
+      <c r="J2" s="34"/>
     </row>
     <row r="3" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="4" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="95"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="91"/>
     </row>
     <row r="5" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="302" t="s">
+      <c r="B5" s="295" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="302"/>
-      <c r="D5" s="302"/>
-      <c r="E5" s="302"/>
-      <c r="F5" s="82" t="s">
+      <c r="C5" s="295"/>
+      <c r="D5" s="295"/>
+      <c r="E5" s="295"/>
+      <c r="F5" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="96"/>
-      <c r="L5" s="311" t="s">
-        <v>189</v>
+      <c r="I5" s="92"/>
+      <c r="L5" s="304" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L6" s="312"/>
+      <c r="L6" s="305"/>
     </row>
     <row r="7" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" s="303" t="e">
+      <c r="D7" s="296" t="e">
         <f>G13+G14</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E7" s="304"/>
-      <c r="F7" s="304"/>
-      <c r="G7" s="304"/>
-      <c r="H7" s="305"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="83"/>
+      <c r="E7" s="297"/>
+      <c r="F7" s="297"/>
+      <c r="G7" s="297"/>
+      <c r="H7" s="298"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="79"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E8" s="84"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="83"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
     </row>
     <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E9" s="84"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
     </row>
     <row r="10" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="306" t="s">
+      <c r="B10" s="299" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="307"/>
-      <c r="D10" s="308" t="s">
-        <v>150</v>
-      </c>
-      <c r="E10" s="309"/>
-      <c r="F10" s="309"/>
-      <c r="G10" s="309"/>
-      <c r="H10" s="309"/>
-      <c r="I10" s="310"/>
-      <c r="J10" s="83"/>
-      <c r="L10" s="39" t="s">
+      <c r="C10" s="300"/>
+      <c r="D10" s="301" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10" s="302"/>
+      <c r="F10" s="302"/>
+      <c r="G10" s="302"/>
+      <c r="H10" s="302"/>
+      <c r="I10" s="303"/>
+      <c r="J10" s="79"/>
+      <c r="L10" s="35" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J11" s="83"/>
+      <c r="L11" s="35" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="312" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="313"/>
+      <c r="D12" s="313"/>
+      <c r="E12" s="313"/>
+      <c r="F12" s="313"/>
+      <c r="G12" s="313" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="313"/>
+      <c r="I12" s="314"/>
+      <c r="J12" s="83"/>
+      <c r="L12" s="35" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="J11" s="87"/>
-      <c r="L11" s="39" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="319" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="320"/>
-      <c r="D12" s="320"/>
-      <c r="E12" s="320"/>
-      <c r="F12" s="320"/>
-      <c r="G12" s="320" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="320"/>
-      <c r="I12" s="321"/>
-      <c r="J12" s="87"/>
-      <c r="L12" s="39" t="s">
+    <row r="13" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="315" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" s="316"/>
+      <c r="D13" s="316"/>
+      <c r="E13" s="316"/>
+      <c r="F13" s="317"/>
+      <c r="G13" s="318" t="s">
+        <v>180</v>
+      </c>
+      <c r="H13" s="319"/>
+      <c r="I13" s="320"/>
+      <c r="J13" s="83"/>
+      <c r="L13" s="35" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="322" t="s">
-        <v>191</v>
-      </c>
-      <c r="C13" s="323"/>
-      <c r="D13" s="323"/>
-      <c r="E13" s="323"/>
-      <c r="F13" s="324"/>
-      <c r="G13" s="325" t="s">
-        <v>181</v>
-      </c>
-      <c r="H13" s="326"/>
-      <c r="I13" s="327"/>
-      <c r="J13" s="87"/>
-      <c r="L13" s="39" t="s">
-        <v>119</v>
-      </c>
-    </row>
     <row r="14" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="328" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" s="329"/>
-      <c r="D14" s="329"/>
-      <c r="E14" s="329"/>
-      <c r="F14" s="330"/>
-      <c r="G14" s="325" t="s">
-        <v>185</v>
-      </c>
-      <c r="H14" s="326"/>
-      <c r="I14" s="327"/>
-      <c r="J14" s="87"/>
-      <c r="L14" s="39" t="s">
-        <v>188</v>
+      <c r="B14" s="321" t="s">
+        <v>201</v>
+      </c>
+      <c r="C14" s="322"/>
+      <c r="D14" s="322"/>
+      <c r="E14" s="322"/>
+      <c r="F14" s="323"/>
+      <c r="G14" s="318" t="s">
+        <v>184</v>
+      </c>
+      <c r="H14" s="319"/>
+      <c r="I14" s="320"/>
+      <c r="J14" s="83"/>
+      <c r="L14" s="35" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="316" t="s">
+      <c r="B15" s="309" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="317"/>
-      <c r="D15" s="317"/>
-      <c r="E15" s="317"/>
-      <c r="F15" s="318"/>
-      <c r="G15" s="331"/>
-      <c r="H15" s="332"/>
-      <c r="I15" s="333"/>
+      <c r="C15" s="310"/>
+      <c r="D15" s="310"/>
+      <c r="E15" s="310"/>
+      <c r="F15" s="311"/>
+      <c r="G15" s="324"/>
+      <c r="H15" s="325"/>
+      <c r="I15" s="326"/>
     </row>
     <row r="16" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="88"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
     </row>
     <row r="17" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="315" t="s">
+      <c r="B17" s="308" t="s">
         <v>109</v>
       </c>
-      <c r="C17" s="315"/>
-      <c r="D17" s="97" t="s">
+      <c r="C17" s="308"/>
+      <c r="D17" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="83"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
     </row>
     <row r="18" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="98"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="98"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="98"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="98"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="94"/>
     </row>
     <row r="19" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D19" s="91"/>
-      <c r="E19" s="92" t="s">
+      <c r="D19" s="87"/>
+      <c r="E19" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="261"/>
-      <c r="G19" s="261"/>
-      <c r="H19" s="261"/>
-      <c r="I19" s="261"/>
-      <c r="J19" s="261"/>
+      <c r="F19" s="254"/>
+      <c r="G19" s="254"/>
+      <c r="H19" s="254"/>
+      <c r="I19" s="254"/>
+      <c r="J19" s="254"/>
     </row>
     <row r="20" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D20" s="91"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="313"/>
-      <c r="G20" s="313"/>
-      <c r="H20" s="313"/>
-      <c r="I20" s="313"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="306"/>
+      <c r="G20" s="306"/>
+      <c r="H20" s="306"/>
+      <c r="I20" s="306"/>
     </row>
     <row r="21" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E21" s="92" t="s">
+      <c r="E21" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="314" t="s">
+      <c r="F21" s="307" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="314"/>
-      <c r="H21" s="314"/>
-      <c r="I21" s="314"/>
-      <c r="J21" s="314"/>
+      <c r="G21" s="307"/>
+      <c r="H21" s="307"/>
+      <c r="I21" s="307"/>
+      <c r="J21" s="307"/>
     </row>
     <row r="22" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E22" s="92"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="99"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="95"/>
+      <c r="J22" s="95"/>
     </row>
     <row r="23" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E23" s="92"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="96"/>
     </row>
     <row r="24" spans="2:10" ht="12" x14ac:dyDescent="0.55000000000000004">
-      <c r="F24" s="100"/>
-      <c r="G24" s="100"/>
-      <c r="H24" s="100"/>
-      <c r="I24" s="100"/>
-      <c r="J24" s="100"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="96"/>
+      <c r="H24" s="96"/>
+      <c r="I24" s="96"/>
+      <c r="J24" s="96"/>
     </row>
     <row r="25" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="93" t="s">
+      <c r="B25" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="94"/>
+      <c r="F25" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -7118,279 +7450,279 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="2.58203125" style="39" customWidth="1"/>
-    <col min="2" max="3" width="6.58203125" style="39" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="39" customWidth="1"/>
-    <col min="5" max="5" width="3.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.58203125" style="39" customWidth="1"/>
-    <col min="7" max="8" width="6.58203125" style="39" customWidth="1"/>
-    <col min="9" max="9" width="7" style="39" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.58203125" style="39" customWidth="1"/>
-    <col min="11" max="11" width="8.58203125" style="39"/>
-    <col min="12" max="12" width="8.58203125" style="39" customWidth="1"/>
-    <col min="13" max="16384" width="8.58203125" style="39"/>
+    <col min="1" max="1" width="2.58203125" style="35" customWidth="1"/>
+    <col min="2" max="3" width="6.58203125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="35" customWidth="1"/>
+    <col min="5" max="5" width="3.5" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.58203125" style="35" customWidth="1"/>
+    <col min="7" max="8" width="6.58203125" style="35" customWidth="1"/>
+    <col min="9" max="9" width="7" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.58203125" style="35" customWidth="1"/>
+    <col min="11" max="11" width="8.58203125" style="35"/>
+    <col min="12" max="12" width="8.58203125" style="35" customWidth="1"/>
+    <col min="13" max="16384" width="8.58203125" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="80"/>
+      <c r="A1" s="76"/>
     </row>
     <row r="2" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="37"/>
-      <c r="B2" s="301" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="294" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="301"/>
-      <c r="D2" s="301"/>
-      <c r="E2" s="301"/>
-      <c r="F2" s="301"/>
-      <c r="G2" s="301"/>
-      <c r="H2" s="301"/>
-      <c r="I2" s="301"/>
-      <c r="J2" s="207"/>
+      <c r="C2" s="294"/>
+      <c r="D2" s="294"/>
+      <c r="E2" s="294"/>
+      <c r="F2" s="294"/>
+      <c r="G2" s="294"/>
+      <c r="H2" s="294"/>
+      <c r="I2" s="294"/>
+      <c r="J2" s="203"/>
     </row>
     <row r="3" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="4" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="95"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="91"/>
     </row>
     <row r="5" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="302" t="s">
+      <c r="B5" s="295" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="302"/>
-      <c r="D5" s="302"/>
-      <c r="E5" s="302"/>
-      <c r="F5" s="82" t="s">
+      <c r="C5" s="295"/>
+      <c r="D5" s="295"/>
+      <c r="E5" s="295"/>
+      <c r="F5" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="96"/>
+      <c r="I5" s="92"/>
     </row>
     <row r="6" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" s="303" t="e">
+      <c r="D7" s="296" t="e">
         <f>G13+G14</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E7" s="304"/>
-      <c r="F7" s="304"/>
-      <c r="G7" s="304"/>
-      <c r="H7" s="305"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="83"/>
+      <c r="E7" s="297"/>
+      <c r="F7" s="297"/>
+      <c r="G7" s="297"/>
+      <c r="H7" s="298"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="79"/>
     </row>
     <row r="8" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E8" s="84"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="83"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
     </row>
     <row r="9" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E9" s="84"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
     </row>
     <row r="10" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="306" t="s">
+      <c r="B10" s="299" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="307"/>
-      <c r="D10" s="308" t="s">
-        <v>150</v>
-      </c>
-      <c r="E10" s="309"/>
-      <c r="F10" s="309"/>
-      <c r="G10" s="309"/>
-      <c r="H10" s="309"/>
-      <c r="I10" s="310"/>
-      <c r="J10" s="83"/>
-      <c r="L10" s="334">
+      <c r="C10" s="300"/>
+      <c r="D10" s="301" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10" s="302"/>
+      <c r="F10" s="302"/>
+      <c r="G10" s="302"/>
+      <c r="H10" s="302"/>
+      <c r="I10" s="303"/>
+      <c r="J10" s="79"/>
+      <c r="L10" s="327">
         <v>8250000</v>
       </c>
-      <c r="M10" s="334"/>
-      <c r="N10" s="334"/>
-      <c r="O10" s="334"/>
-      <c r="P10" s="334"/>
+      <c r="M10" s="327"/>
+      <c r="N10" s="327"/>
+      <c r="O10" s="327"/>
+      <c r="P10" s="327"/>
     </row>
     <row r="11" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="J11" s="87"/>
-      <c r="L11" s="209" t="s">
+      <c r="J11" s="83"/>
+      <c r="L11" s="205" t="s">
+        <v>172</v>
+      </c>
+      <c r="M11" s="205"/>
+      <c r="N11" s="205"/>
+    </row>
+    <row r="12" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="312" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="313"/>
+      <c r="D12" s="313"/>
+      <c r="E12" s="313"/>
+      <c r="F12" s="313"/>
+      <c r="G12" s="313" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="313"/>
+      <c r="I12" s="314"/>
+      <c r="J12" s="83"/>
+      <c r="L12" s="205" t="s">
         <v>173</v>
       </c>
-      <c r="M11" s="209"/>
-      <c r="N11" s="209"/>
-    </row>
-    <row r="12" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="319" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="320"/>
-      <c r="D12" s="320"/>
-      <c r="E12" s="320"/>
-      <c r="F12" s="320"/>
-      <c r="G12" s="320" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="320"/>
-      <c r="I12" s="321"/>
-      <c r="J12" s="87"/>
-      <c r="L12" s="209" t="s">
+      <c r="M12" s="205"/>
+      <c r="N12" s="205"/>
+    </row>
+    <row r="13" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="315" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="316"/>
+      <c r="D13" s="316"/>
+      <c r="E13" s="316"/>
+      <c r="F13" s="317"/>
+      <c r="G13" s="318" t="s">
+        <v>167</v>
+      </c>
+      <c r="H13" s="319"/>
+      <c r="I13" s="320"/>
+      <c r="J13" s="83"/>
+      <c r="L13" s="205" t="s">
         <v>174</v>
       </c>
-      <c r="M12" s="209"/>
-      <c r="N12" s="209"/>
-    </row>
-    <row r="13" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="322" t="s">
+      <c r="M13" s="205"/>
+      <c r="N13" s="205"/>
+    </row>
+    <row r="14" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="321" t="s">
         <v>171</v>
       </c>
-      <c r="C13" s="323"/>
-      <c r="D13" s="323"/>
-      <c r="E13" s="323"/>
-      <c r="F13" s="324"/>
-      <c r="G13" s="325" t="s">
-        <v>168</v>
-      </c>
-      <c r="H13" s="326"/>
-      <c r="I13" s="327"/>
-      <c r="J13" s="87"/>
-      <c r="L13" s="209" t="s">
+      <c r="C14" s="322"/>
+      <c r="D14" s="322"/>
+      <c r="E14" s="322"/>
+      <c r="F14" s="323"/>
+      <c r="G14" s="318"/>
+      <c r="H14" s="319"/>
+      <c r="I14" s="320"/>
+      <c r="J14" s="83"/>
+      <c r="L14" s="205" t="s">
         <v>175</v>
       </c>
-      <c r="M13" s="209"/>
-      <c r="N13" s="209"/>
-    </row>
-    <row r="14" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="328" t="s">
-        <v>172</v>
-      </c>
-      <c r="C14" s="329"/>
-      <c r="D14" s="329"/>
-      <c r="E14" s="329"/>
-      <c r="F14" s="330"/>
-      <c r="G14" s="325"/>
-      <c r="H14" s="326"/>
-      <c r="I14" s="327"/>
-      <c r="J14" s="87"/>
-      <c r="L14" s="209" t="s">
-        <v>176</v>
-      </c>
-      <c r="M14" s="209"/>
-      <c r="N14" s="209"/>
+      <c r="M14" s="205"/>
+      <c r="N14" s="205"/>
     </row>
     <row r="15" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="316"/>
-      <c r="C15" s="317"/>
-      <c r="D15" s="317"/>
-      <c r="E15" s="317"/>
-      <c r="F15" s="318"/>
-      <c r="G15" s="331"/>
-      <c r="H15" s="332"/>
-      <c r="I15" s="333"/>
+      <c r="B15" s="309"/>
+      <c r="C15" s="310"/>
+      <c r="D15" s="310"/>
+      <c r="E15" s="310"/>
+      <c r="F15" s="311"/>
+      <c r="G15" s="324"/>
+      <c r="H15" s="325"/>
+      <c r="I15" s="326"/>
     </row>
     <row r="16" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="208"/>
-      <c r="C16" s="208"/>
-      <c r="D16" s="208"/>
-      <c r="E16" s="208"/>
-      <c r="F16" s="208"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
+      <c r="B16" s="204"/>
+      <c r="C16" s="204"/>
+      <c r="D16" s="204"/>
+      <c r="E16" s="204"/>
+      <c r="F16" s="204"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
     </row>
     <row r="17" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="315" t="s">
-        <v>198</v>
-      </c>
-      <c r="C17" s="315"/>
-      <c r="D17" s="97" t="s">
+      <c r="B17" s="308" t="s">
+        <v>197</v>
+      </c>
+      <c r="C17" s="308"/>
+      <c r="D17" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="83"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
     </row>
     <row r="18" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="98"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="98"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="98"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="98"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="94"/>
     </row>
     <row r="19" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D19" s="91"/>
-      <c r="E19" s="92" t="s">
+      <c r="D19" s="87"/>
+      <c r="E19" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="261"/>
-      <c r="G19" s="261"/>
-      <c r="H19" s="261"/>
-      <c r="I19" s="261"/>
-      <c r="J19" s="261"/>
+      <c r="F19" s="254"/>
+      <c r="G19" s="254"/>
+      <c r="H19" s="254"/>
+      <c r="I19" s="254"/>
+      <c r="J19" s="254"/>
     </row>
     <row r="20" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D20" s="91"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="313"/>
-      <c r="G20" s="313"/>
-      <c r="H20" s="313"/>
-      <c r="I20" s="313"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="306"/>
+      <c r="G20" s="306"/>
+      <c r="H20" s="306"/>
+      <c r="I20" s="306"/>
     </row>
     <row r="21" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E21" s="92" t="s">
+      <c r="E21" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="314" t="s">
+      <c r="F21" s="307" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="314"/>
-      <c r="H21" s="314"/>
-      <c r="I21" s="314"/>
-      <c r="J21" s="314"/>
+      <c r="G21" s="307"/>
+      <c r="H21" s="307"/>
+      <c r="I21" s="307"/>
+      <c r="J21" s="307"/>
     </row>
     <row r="22" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E22" s="92"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="99"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="95"/>
+      <c r="J22" s="95"/>
     </row>
     <row r="23" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E23" s="92"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="96"/>
     </row>
     <row r="24" spans="2:10" ht="12" x14ac:dyDescent="0.55000000000000004">
-      <c r="F24" s="100"/>
-      <c r="G24" s="100"/>
-      <c r="H24" s="100"/>
-      <c r="I24" s="100"/>
-      <c r="J24" s="100"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="96"/>
+      <c r="H24" s="96"/>
+      <c r="I24" s="96"/>
+      <c r="J24" s="96"/>
     </row>
     <row r="25" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="93" t="s">
+      <c r="B25" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="94"/>
+      <c r="F25" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -7429,711 +7761,711 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="1.75" style="102" customWidth="1"/>
-    <col min="2" max="2" width="17" style="102" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="102" customWidth="1"/>
-    <col min="4" max="4" width="15" style="102" customWidth="1"/>
-    <col min="5" max="5" width="4.25" style="102" customWidth="1"/>
-    <col min="6" max="6" width="12.08203125" style="102" customWidth="1"/>
-    <col min="7" max="7" width="6.25" style="102" customWidth="1"/>
-    <col min="8" max="8" width="6.5" style="102" customWidth="1"/>
-    <col min="9" max="9" width="7.25" style="102" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.25" style="102" customWidth="1"/>
-    <col min="11" max="11" width="13.5" style="102" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.83203125" style="102" customWidth="1"/>
-    <col min="13" max="14" width="15.33203125" style="102" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.75" style="102" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.58203125" style="102"/>
+    <col min="1" max="1" width="1.75" style="98" customWidth="1"/>
+    <col min="2" max="2" width="17" style="98" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="98" customWidth="1"/>
+    <col min="4" max="4" width="15" style="98" customWidth="1"/>
+    <col min="5" max="5" width="4.25" style="98" customWidth="1"/>
+    <col min="6" max="6" width="12.08203125" style="98" customWidth="1"/>
+    <col min="7" max="7" width="6.25" style="98" customWidth="1"/>
+    <col min="8" max="8" width="6.5" style="98" customWidth="1"/>
+    <col min="9" max="9" width="7.25" style="98" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.25" style="98" customWidth="1"/>
+    <col min="11" max="11" width="13.5" style="98" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.83203125" style="98" customWidth="1"/>
+    <col min="13" max="14" width="15.33203125" style="98" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.75" style="98" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.58203125" style="98"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="6.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="101"/>
-      <c r="M1" s="204"/>
-      <c r="N1" s="204"/>
-      <c r="O1" s="204"/>
+      <c r="A1" s="97"/>
+      <c r="M1" s="200"/>
+      <c r="N1" s="200"/>
+      <c r="O1" s="200"/>
     </row>
     <row r="2" spans="1:15" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="103"/>
-      <c r="B2" s="372" t="s">
+      <c r="A2" s="99"/>
+      <c r="B2" s="365" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="365"/>
+      <c r="D2" s="365"/>
+      <c r="E2" s="365"/>
+      <c r="F2" s="365"/>
+      <c r="G2" s="365"/>
+      <c r="H2" s="365"/>
+      <c r="I2" s="365"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="199"/>
+      <c r="N2" s="199"/>
+      <c r="O2" s="199"/>
+    </row>
+    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+    </row>
+    <row r="4" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="103" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="366"/>
+      <c r="D4" s="367"/>
+      <c r="E4" s="368"/>
+      <c r="F4" s="104" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="372"/>
-      <c r="D2" s="372"/>
-      <c r="E2" s="372"/>
-      <c r="F2" s="372"/>
-      <c r="G2" s="372"/>
-      <c r="H2" s="372"/>
-      <c r="I2" s="372"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="203"/>
-      <c r="N2" s="203"/>
-      <c r="O2" s="203"/>
-    </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-    </row>
-    <row r="4" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="107" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="373"/>
-      <c r="D4" s="374"/>
-      <c r="E4" s="375"/>
-      <c r="F4" s="108" t="s">
+      <c r="G4" s="369">
+        <v>43983</v>
+      </c>
+      <c r="H4" s="369"/>
+      <c r="I4" s="370"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="107" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="107" t="s">
         <v>121</v>
       </c>
-      <c r="G4" s="376">
-        <v>43983</v>
-      </c>
-      <c r="H4" s="376"/>
-      <c r="I4" s="377"/>
-      <c r="J4" s="109"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
-      <c r="M4" s="111" t="s">
-        <v>44</v>
-      </c>
-      <c r="N4" s="111" t="s">
+      <c r="O4" s="107" t="s">
         <v>122</v>
       </c>
-      <c r="O4" s="111" t="s">
+    </row>
+    <row r="5" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="108" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="112" t="s">
+      <c r="C5" s="361"/>
+      <c r="D5" s="362"/>
+      <c r="E5" s="362"/>
+      <c r="F5" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="368"/>
-      <c r="D5" s="369"/>
-      <c r="E5" s="369"/>
-      <c r="F5" s="113" t="s">
+      <c r="G5" s="363" t="s">
         <v>125</v>
       </c>
-      <c r="G5" s="370" t="s">
+      <c r="H5" s="363"/>
+      <c r="I5" s="364"/>
+      <c r="J5" s="105"/>
+      <c r="M5" s="110">
+        <v>43516</v>
+      </c>
+      <c r="N5" s="111">
+        <v>43890</v>
+      </c>
+      <c r="O5" s="112">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="114" t="s">
         <v>126</v>
       </c>
-      <c r="H5" s="370"/>
-      <c r="I5" s="371"/>
-      <c r="J5" s="109"/>
-      <c r="M5" s="114">
-        <v>43516</v>
-      </c>
-      <c r="N5" s="115">
-        <v>43890</v>
-      </c>
-      <c r="O5" s="116">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="118" t="s">
+      <c r="C6" s="115"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
+      <c r="M6" s="110"/>
+      <c r="N6" s="117"/>
+      <c r="O6" s="118"/>
+    </row>
+    <row r="7" spans="1:15" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="119"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="M7" s="110"/>
+      <c r="N7" s="117"/>
+      <c r="O7" s="118"/>
+    </row>
+    <row r="8" spans="1:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="116"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="M8" s="110"/>
+      <c r="N8" s="117"/>
+      <c r="O8" s="118"/>
+    </row>
+    <row r="9" spans="1:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="116"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="M9" s="110"/>
+      <c r="N9" s="117"/>
+      <c r="O9" s="118"/>
+    </row>
+    <row r="10" spans="1:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="116"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="105"/>
+      <c r="M10" s="110"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="118"/>
+    </row>
+    <row r="11" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="120" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="119"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="109"/>
-      <c r="J6" s="109"/>
-      <c r="M6" s="114"/>
-      <c r="N6" s="121"/>
-      <c r="O6" s="122"/>
-    </row>
-    <row r="7" spans="1:15" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="123"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="109"/>
-      <c r="H7" s="109"/>
-      <c r="I7" s="109"/>
-      <c r="J7" s="109"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="121"/>
-      <c r="O7" s="122"/>
-    </row>
-    <row r="8" spans="1:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="120"/>
-      <c r="C8" s="119"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="109"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="109"/>
-      <c r="M8" s="114"/>
-      <c r="N8" s="121"/>
-      <c r="O8" s="122"/>
-    </row>
-    <row r="9" spans="1:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="120"/>
-      <c r="C9" s="119"/>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="109"/>
-      <c r="M9" s="114"/>
-      <c r="N9" s="121"/>
-      <c r="O9" s="122"/>
-    </row>
-    <row r="10" spans="1:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="120"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="M10" s="114"/>
-      <c r="N10" s="121"/>
-      <c r="O10" s="122"/>
-    </row>
-    <row r="11" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="124" t="s">
+      <c r="C11" s="338"/>
+      <c r="D11" s="338"/>
+      <c r="E11" s="338"/>
+      <c r="F11" s="116" t="s">
         <v>128</v>
       </c>
-      <c r="C11" s="345"/>
-      <c r="D11" s="345"/>
-      <c r="E11" s="345"/>
-      <c r="F11" s="120" t="s">
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="101"/>
+      <c r="M11" s="107" t="s">
         <v>129</v>
       </c>
-      <c r="G11" s="105"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="105"/>
-      <c r="J11" s="105"/>
-      <c r="M11" s="111" t="s">
+      <c r="N11" s="121"/>
+      <c r="O11" s="121"/>
+    </row>
+    <row r="12" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="101" t="s">
         <v>130</v>
       </c>
-      <c r="N11" s="125"/>
-      <c r="O11" s="125"/>
-    </row>
-    <row r="12" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="105" t="s">
+      <c r="C12" s="101"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="101"/>
+      <c r="M12" s="107" t="s">
+        <v>129</v>
+      </c>
+      <c r="N12" s="121"/>
+      <c r="O12" s="121"/>
+    </row>
+    <row r="13" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="120" t="s">
         <v>131</v>
       </c>
-      <c r="C12" s="105"/>
-      <c r="D12" s="105"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="105"/>
-      <c r="H12" s="105"/>
-      <c r="I12" s="105"/>
-      <c r="J12" s="105"/>
-      <c r="M12" s="111" t="s">
-        <v>130</v>
-      </c>
-      <c r="N12" s="125"/>
-      <c r="O12" s="125"/>
-    </row>
-    <row r="13" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="124" t="s">
+      <c r="C13" s="339" t="s">
         <v>132</v>
       </c>
-      <c r="C13" s="346" t="s">
+      <c r="D13" s="340"/>
+      <c r="E13" s="341" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="342"/>
+      <c r="G13" s="343"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="101"/>
+      <c r="J13" s="101"/>
+      <c r="K13" s="124">
+        <v>6</v>
+      </c>
+      <c r="L13" s="121"/>
+      <c r="M13" s="121"/>
+      <c r="N13" s="122"/>
+      <c r="O13" s="123"/>
+    </row>
+    <row r="14" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="125" t="s">
         <v>133</v>
       </c>
-      <c r="D13" s="347"/>
-      <c r="E13" s="348" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="349"/>
-      <c r="G13" s="350"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="105"/>
-      <c r="J13" s="105"/>
-      <c r="K13" s="128">
-        <v>6</v>
-      </c>
-      <c r="L13" s="125"/>
-      <c r="M13" s="125"/>
-      <c r="N13" s="126"/>
-      <c r="O13" s="127"/>
-    </row>
-    <row r="14" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="129" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" s="351"/>
-      <c r="D14" s="352"/>
-      <c r="E14" s="353">
+      <c r="C14" s="344"/>
+      <c r="D14" s="345"/>
+      <c r="E14" s="346">
         <f>SUM(C14:D14)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="354"/>
-      <c r="G14" s="355"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="120"/>
-      <c r="J14" s="120"/>
-      <c r="K14" s="130"/>
-      <c r="L14" s="131"/>
-      <c r="M14" s="131"/>
+      <c r="F14" s="347"/>
+      <c r="G14" s="348"/>
+      <c r="H14" s="116"/>
+      <c r="I14" s="116"/>
+      <c r="J14" s="116"/>
+      <c r="K14" s="126"/>
+      <c r="L14" s="127"/>
+      <c r="M14" s="127"/>
     </row>
     <row r="15" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="124" t="s">
-        <v>135</v>
-      </c>
-      <c r="C15" s="132"/>
-      <c r="D15" s="133">
+      <c r="B15" s="120" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="128"/>
+      <c r="D15" s="129">
         <f>SUM(C14:D14)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="356">
+      <c r="E15" s="349">
         <f>SUM(C15:D15)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="357"/>
-      <c r="G15" s="358"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="134"/>
-      <c r="L15" s="135"/>
+      <c r="F15" s="350"/>
+      <c r="G15" s="351"/>
+      <c r="H15" s="116"/>
+      <c r="I15" s="116"/>
+      <c r="J15" s="116"/>
+      <c r="K15" s="130"/>
+      <c r="L15" s="131"/>
     </row>
     <row r="16" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="136" t="str">
+      <c r="B16" s="132" t="str">
         <f>""&amp;K13&amp;"月分賃料"</f>
         <v>6月分賃料</v>
       </c>
-      <c r="C16" s="137"/>
-      <c r="D16" s="137"/>
-      <c r="E16" s="138"/>
-      <c r="F16" s="139"/>
-      <c r="G16" s="139"/>
-      <c r="H16" s="140"/>
-      <c r="I16" s="140"/>
-      <c r="J16" s="141"/>
-      <c r="K16" s="135"/>
-      <c r="L16" s="135"/>
-      <c r="N16" s="142"/>
-      <c r="O16" s="130"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="134"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="135"/>
+      <c r="H16" s="136"/>
+      <c r="I16" s="136"/>
+      <c r="J16" s="137"/>
+      <c r="K16" s="131"/>
+      <c r="L16" s="131"/>
+      <c r="N16" s="138"/>
+      <c r="O16" s="126"/>
     </row>
     <row r="17" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="143" t="s">
+      <c r="B17" s="139" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="140"/>
+      <c r="D17" s="352">
+        <v>43983</v>
+      </c>
+      <c r="E17" s="352"/>
+      <c r="F17" s="353">
+        <v>43983</v>
+      </c>
+      <c r="G17" s="353"/>
+      <c r="H17" s="353"/>
+      <c r="I17" s="141"/>
+      <c r="J17" s="142"/>
+      <c r="K17" s="131"/>
+      <c r="L17" s="131"/>
+      <c r="N17" s="127"/>
+      <c r="O17" s="127"/>
+    </row>
+    <row r="18" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="143" t="s">
         <v>136</v>
       </c>
-      <c r="C17" s="144"/>
-      <c r="D17" s="359">
-        <v>43983</v>
-      </c>
-      <c r="E17" s="359"/>
-      <c r="F17" s="360">
-        <v>43983</v>
-      </c>
-      <c r="G17" s="360"/>
-      <c r="H17" s="360"/>
-      <c r="I17" s="145"/>
-      <c r="J17" s="146"/>
-      <c r="K17" s="135"/>
-      <c r="L17" s="135"/>
-      <c r="N17" s="131"/>
-      <c r="O17" s="131"/>
-    </row>
-    <row r="18" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="147" t="s">
+      <c r="C18" s="144"/>
+      <c r="D18" s="145">
+        <v>1</v>
+      </c>
+      <c r="E18" s="146" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="147">
+        <v>30</v>
+      </c>
+      <c r="G18" s="148"/>
+      <c r="H18" s="354"/>
+      <c r="I18" s="355"/>
+      <c r="L18" s="131"/>
+      <c r="N18" s="149"/>
+      <c r="O18" s="149"/>
+    </row>
+    <row r="19" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="150" t="s">
         <v>137</v>
       </c>
-      <c r="C18" s="148"/>
-      <c r="D18" s="149">
-        <v>1</v>
-      </c>
-      <c r="E18" s="150" t="s">
+      <c r="C19" s="151"/>
+      <c r="D19" s="152">
+        <v>29</v>
+      </c>
+      <c r="E19" s="153" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="151">
+      <c r="F19" s="154">
         <v>30</v>
       </c>
-      <c r="G18" s="152"/>
-      <c r="H18" s="361"/>
-      <c r="I18" s="362"/>
-      <c r="L18" s="135"/>
-      <c r="N18" s="153"/>
-      <c r="O18" s="153"/>
-    </row>
-    <row r="19" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="154" t="s">
+      <c r="G19" s="155"/>
+      <c r="H19" s="356"/>
+      <c r="I19" s="357"/>
+      <c r="J19" s="116" t="s">
         <v>138</v>
       </c>
-      <c r="C19" s="155"/>
-      <c r="D19" s="156">
-        <v>29</v>
-      </c>
-      <c r="E19" s="157" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="158">
-        <v>30</v>
-      </c>
-      <c r="G19" s="159"/>
-      <c r="H19" s="363"/>
-      <c r="I19" s="364"/>
-      <c r="J19" s="120" t="s">
+      <c r="L19" s="131"/>
+      <c r="N19" s="149"/>
+      <c r="O19" s="149"/>
+    </row>
+    <row r="20" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="114"/>
+      <c r="C20" s="156"/>
+      <c r="D20" s="157"/>
+      <c r="E20" s="116"/>
+      <c r="F20" s="158"/>
+      <c r="G20" s="137"/>
+      <c r="H20" s="159"/>
+      <c r="I20" s="160"/>
+      <c r="J20" s="160"/>
+      <c r="K20" s="161"/>
+      <c r="L20" s="131"/>
+      <c r="N20" s="162"/>
+      <c r="O20" s="162"/>
+    </row>
+    <row r="21" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="358" t="s">
         <v>139</v>
       </c>
-      <c r="L19" s="135"/>
-      <c r="N19" s="153"/>
-      <c r="O19" s="153"/>
-    </row>
-    <row r="20" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="118"/>
-      <c r="C20" s="160"/>
-      <c r="D20" s="161"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="162"/>
-      <c r="G20" s="141"/>
-      <c r="H20" s="163"/>
-      <c r="I20" s="164"/>
-      <c r="J20" s="164"/>
-      <c r="K20" s="165"/>
-      <c r="L20" s="135"/>
-      <c r="N20" s="166"/>
-      <c r="O20" s="166"/>
-    </row>
-    <row r="21" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="365" t="s">
+      <c r="C21" s="359"/>
+      <c r="D21" s="359"/>
+      <c r="E21" s="359"/>
+      <c r="F21" s="359"/>
+      <c r="G21" s="359"/>
+      <c r="H21" s="359"/>
+      <c r="I21" s="360"/>
+      <c r="J21" s="163"/>
+      <c r="K21" s="164"/>
+      <c r="L21" s="131"/>
+      <c r="N21" s="162"/>
+      <c r="O21" s="162"/>
+    </row>
+    <row r="22" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="143" t="s">
         <v>140</v>
       </c>
-      <c r="C21" s="366"/>
-      <c r="D21" s="366"/>
-      <c r="E21" s="366"/>
-      <c r="F21" s="366"/>
-      <c r="G21" s="366"/>
-      <c r="H21" s="366"/>
-      <c r="I21" s="367"/>
-      <c r="J21" s="167"/>
-      <c r="K21" s="168"/>
-      <c r="L21" s="135"/>
-      <c r="N21" s="166"/>
-      <c r="O21" s="166"/>
-    </row>
-    <row r="22" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="147" t="s">
+      <c r="C22" s="144"/>
+      <c r="D22" s="165" t="s">
         <v>141</v>
       </c>
-      <c r="C22" s="148"/>
-      <c r="D22" s="169" t="s">
-        <v>142</v>
-      </c>
-      <c r="E22" s="150"/>
-      <c r="F22" s="170"/>
-      <c r="G22" s="171"/>
-      <c r="H22" s="343">
+      <c r="E22" s="146"/>
+      <c r="F22" s="166"/>
+      <c r="G22" s="167"/>
+      <c r="H22" s="336">
         <f>C11+H19</f>
         <v>0</v>
       </c>
-      <c r="I22" s="344"/>
-      <c r="J22" s="164"/>
-      <c r="K22" s="168"/>
-      <c r="L22" s="135"/>
-      <c r="N22" s="166"/>
-      <c r="O22" s="166"/>
+      <c r="I22" s="337"/>
+      <c r="J22" s="160"/>
+      <c r="K22" s="164"/>
+      <c r="L22" s="131"/>
+      <c r="N22" s="162"/>
+      <c r="O22" s="162"/>
     </row>
     <row r="23" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="172"/>
-      <c r="C23" s="173"/>
-      <c r="D23" s="174"/>
-      <c r="E23" s="175"/>
-      <c r="F23" s="176"/>
-      <c r="G23" s="177"/>
-      <c r="H23" s="178"/>
-      <c r="I23" s="179"/>
-      <c r="J23" s="164"/>
-      <c r="K23" s="168"/>
-      <c r="L23" s="168"/>
-      <c r="M23" s="168"/>
-      <c r="N23" s="166"/>
-      <c r="O23" s="166"/>
+      <c r="B23" s="168"/>
+      <c r="C23" s="169"/>
+      <c r="D23" s="170"/>
+      <c r="E23" s="171"/>
+      <c r="F23" s="172"/>
+      <c r="G23" s="173"/>
+      <c r="H23" s="174"/>
+      <c r="I23" s="175"/>
+      <c r="J23" s="160"/>
+      <c r="K23" s="164"/>
+      <c r="L23" s="164"/>
+      <c r="M23" s="164"/>
+      <c r="N23" s="162"/>
+      <c r="O23" s="162"/>
     </row>
     <row r="24" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="180"/>
-      <c r="C24" s="160"/>
-      <c r="D24" s="161"/>
-      <c r="E24" s="120"/>
-      <c r="F24" s="162"/>
-      <c r="G24" s="141"/>
-      <c r="H24" s="163"/>
-      <c r="I24" s="164"/>
-      <c r="J24" s="164"/>
-      <c r="K24" s="168"/>
-      <c r="L24" s="168"/>
-      <c r="M24" s="168"/>
-      <c r="N24" s="166"/>
-      <c r="O24" s="166"/>
+      <c r="B24" s="176"/>
+      <c r="C24" s="156"/>
+      <c r="D24" s="157"/>
+      <c r="E24" s="116"/>
+      <c r="F24" s="158"/>
+      <c r="G24" s="137"/>
+      <c r="H24" s="159"/>
+      <c r="I24" s="160"/>
+      <c r="J24" s="160"/>
+      <c r="K24" s="164"/>
+      <c r="L24" s="164"/>
+      <c r="M24" s="164"/>
+      <c r="N24" s="162"/>
+      <c r="O24" s="162"/>
     </row>
     <row r="25" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="120"/>
-      <c r="C25" s="105"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="120"/>
-      <c r="F25" s="120"/>
-      <c r="G25" s="120"/>
-      <c r="H25" s="181"/>
-      <c r="I25" s="181"/>
-      <c r="J25" s="181"/>
-      <c r="K25" s="168"/>
-      <c r="L25" s="168"/>
-      <c r="M25" s="168"/>
-      <c r="N25" s="166"/>
-      <c r="O25" s="166"/>
+      <c r="B25" s="116"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="116"/>
+      <c r="G25" s="116"/>
+      <c r="H25" s="177"/>
+      <c r="I25" s="177"/>
+      <c r="J25" s="177"/>
+      <c r="K25" s="164"/>
+      <c r="L25" s="164"/>
+      <c r="M25" s="164"/>
+      <c r="N25" s="162"/>
+      <c r="O25" s="162"/>
     </row>
     <row r="26" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="337" t="s">
+      <c r="B26" s="330" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="337"/>
-      <c r="D26" s="337"/>
-      <c r="E26" s="337"/>
-      <c r="F26" s="337"/>
-      <c r="G26" s="337"/>
-      <c r="H26" s="337"/>
-      <c r="I26" s="337"/>
-      <c r="J26" s="337"/>
-      <c r="K26" s="168"/>
-      <c r="N26" s="166"/>
-      <c r="O26" s="166"/>
+      <c r="C26" s="330"/>
+      <c r="D26" s="330"/>
+      <c r="E26" s="330"/>
+      <c r="F26" s="330"/>
+      <c r="G26" s="330"/>
+      <c r="H26" s="330"/>
+      <c r="I26" s="330"/>
+      <c r="J26" s="330"/>
+      <c r="K26" s="164"/>
+      <c r="N26" s="162"/>
+      <c r="O26" s="162"/>
     </row>
     <row r="27" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="168"/>
-      <c r="B27" s="338"/>
-      <c r="C27" s="338"/>
-      <c r="D27" s="182"/>
-      <c r="E27" s="183"/>
-      <c r="F27" s="183"/>
-      <c r="G27" s="183"/>
-      <c r="H27" s="184"/>
-      <c r="I27" s="339"/>
-      <c r="J27" s="185"/>
-      <c r="K27" s="168"/>
-      <c r="N27" s="166"/>
-      <c r="O27" s="166"/>
-    </row>
-    <row r="28" spans="1:15" s="168" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="168" t="s">
+      <c r="A27" s="164"/>
+      <c r="B27" s="331"/>
+      <c r="C27" s="331"/>
+      <c r="D27" s="178"/>
+      <c r="E27" s="179"/>
+      <c r="F27" s="179"/>
+      <c r="G27" s="179"/>
+      <c r="H27" s="180"/>
+      <c r="I27" s="332"/>
+      <c r="J27" s="181"/>
+      <c r="K27" s="164"/>
+      <c r="N27" s="162"/>
+      <c r="O27" s="162"/>
+    </row>
+    <row r="28" spans="1:15" s="164" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="164" t="s">
+        <v>142</v>
+      </c>
+      <c r="B28" s="334"/>
+      <c r="C28" s="334"/>
+      <c r="D28" s="178" t="s">
         <v>143</v>
       </c>
-      <c r="B28" s="341"/>
-      <c r="C28" s="341"/>
-      <c r="D28" s="182" t="s">
-        <v>144</v>
-      </c>
-      <c r="E28" s="186"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="105"/>
-      <c r="H28" s="105"/>
-      <c r="I28" s="340"/>
-      <c r="J28" s="187"/>
-      <c r="L28" s="102"/>
-      <c r="M28" s="102"/>
-    </row>
-    <row r="29" spans="1:15" s="168" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="105"/>
-      <c r="C29" s="105"/>
-      <c r="D29" s="105"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="105"/>
-      <c r="H29" s="105"/>
-      <c r="I29" s="105"/>
-      <c r="J29" s="105"/>
-      <c r="K29" s="188"/>
-      <c r="L29" s="102"/>
-      <c r="M29" s="102"/>
-    </row>
-    <row r="30" spans="1:15" s="168" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="105"/>
-      <c r="C30" s="105"/>
-      <c r="D30" s="342">
+      <c r="E28" s="182"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="101"/>
+      <c r="H28" s="101"/>
+      <c r="I28" s="333"/>
+      <c r="J28" s="183"/>
+      <c r="L28" s="98"/>
+      <c r="M28" s="98"/>
+    </row>
+    <row r="29" spans="1:15" s="164" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="101"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="101"/>
+      <c r="H29" s="101"/>
+      <c r="I29" s="101"/>
+      <c r="J29" s="101"/>
+      <c r="K29" s="184"/>
+      <c r="L29" s="98"/>
+      <c r="M29" s="98"/>
+    </row>
+    <row r="30" spans="1:15" s="164" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="101"/>
+      <c r="C30" s="101"/>
+      <c r="D30" s="335">
         <f>H22</f>
         <v>0</v>
       </c>
-      <c r="E30" s="342"/>
-      <c r="F30" s="342"/>
-      <c r="G30" s="189"/>
-      <c r="H30" s="105"/>
-      <c r="I30" s="105"/>
-      <c r="J30" s="105"/>
-      <c r="K30" s="190"/>
-      <c r="L30" s="191"/>
-      <c r="M30" s="102"/>
+      <c r="E30" s="335"/>
+      <c r="F30" s="335"/>
+      <c r="G30" s="185"/>
+      <c r="H30" s="101"/>
+      <c r="I30" s="101"/>
+      <c r="J30" s="101"/>
+      <c r="K30" s="186"/>
+      <c r="L30" s="187"/>
+      <c r="M30" s="98"/>
     </row>
     <row r="31" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="168"/>
-      <c r="B31" s="105"/>
-      <c r="C31" s="105"/>
-      <c r="D31" s="192"/>
-      <c r="E31" s="192"/>
-      <c r="F31" s="192"/>
-      <c r="G31" s="189"/>
-      <c r="H31" s="105"/>
-      <c r="I31" s="105"/>
-      <c r="J31" s="105"/>
-      <c r="K31" s="190"/>
-      <c r="L31" s="191"/>
+      <c r="A31" s="164"/>
+      <c r="B31" s="101"/>
+      <c r="C31" s="101"/>
+      <c r="D31" s="188"/>
+      <c r="E31" s="188"/>
+      <c r="F31" s="188"/>
+      <c r="G31" s="185"/>
+      <c r="H31" s="101"/>
+      <c r="I31" s="101"/>
+      <c r="J31" s="101"/>
+      <c r="K31" s="186"/>
+      <c r="L31" s="187"/>
     </row>
     <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="168"/>
-      <c r="B32" s="193"/>
-      <c r="C32" s="194"/>
-      <c r="D32" s="194"/>
-      <c r="E32" s="194"/>
-      <c r="F32" s="194"/>
-      <c r="G32" s="194"/>
-      <c r="H32" s="194"/>
-      <c r="I32" s="194"/>
-      <c r="J32" s="194"/>
-      <c r="K32" s="190"/>
-      <c r="L32" s="188"/>
-      <c r="M32" s="188"/>
+      <c r="A32" s="164"/>
+      <c r="B32" s="189"/>
+      <c r="C32" s="190"/>
+      <c r="D32" s="190"/>
+      <c r="E32" s="190"/>
+      <c r="F32" s="190"/>
+      <c r="G32" s="190"/>
+      <c r="H32" s="190"/>
+      <c r="I32" s="190"/>
+      <c r="J32" s="190"/>
+      <c r="K32" s="186"/>
+      <c r="L32" s="184"/>
+      <c r="M32" s="184"/>
     </row>
     <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="168"/>
-      <c r="B33" s="193" t="str">
+      <c r="A33" s="164"/>
+      <c r="B33" s="189" t="str">
         <f>"但し、上記所在物件の6月分日割り賃料及び承継保証金として"</f>
         <v>但し、上記所在物件の6月分日割り賃料及び承継保証金として</v>
       </c>
-      <c r="C33" s="194"/>
-      <c r="D33" s="194"/>
-      <c r="E33" s="194"/>
-      <c r="F33" s="194"/>
-      <c r="G33" s="194"/>
-      <c r="H33" s="194"/>
-      <c r="I33" s="194"/>
-      <c r="J33" s="194"/>
-      <c r="K33" s="190"/>
-      <c r="L33" s="188"/>
-      <c r="M33" s="188"/>
+      <c r="C33" s="190"/>
+      <c r="D33" s="190"/>
+      <c r="E33" s="190"/>
+      <c r="F33" s="190"/>
+      <c r="G33" s="190"/>
+      <c r="H33" s="190"/>
+      <c r="I33" s="190"/>
+      <c r="J33" s="190"/>
+      <c r="K33" s="186"/>
+      <c r="L33" s="184"/>
+      <c r="M33" s="184"/>
     </row>
     <row r="34" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="105"/>
-      <c r="C34" s="105"/>
-      <c r="D34" s="105"/>
-      <c r="E34" s="105"/>
-      <c r="F34" s="195"/>
-      <c r="G34" s="335"/>
-      <c r="H34" s="335"/>
-      <c r="I34" s="335"/>
-      <c r="J34" s="196"/>
-      <c r="L34" s="190"/>
-      <c r="M34" s="190"/>
+      <c r="B34" s="101"/>
+      <c r="C34" s="101"/>
+      <c r="D34" s="101"/>
+      <c r="E34" s="101"/>
+      <c r="F34" s="191"/>
+      <c r="G34" s="328"/>
+      <c r="H34" s="328"/>
+      <c r="I34" s="328"/>
+      <c r="J34" s="192"/>
+      <c r="L34" s="186"/>
+      <c r="M34" s="186"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="105"/>
-      <c r="C35" s="105"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="195"/>
-      <c r="G35" s="335">
+      <c r="B35" s="101"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="101"/>
+      <c r="F35" s="191"/>
+      <c r="G35" s="328">
         <v>43983</v>
       </c>
-      <c r="H35" s="335"/>
-      <c r="I35" s="335"/>
-      <c r="J35" s="196"/>
-      <c r="M35" s="197"/>
+      <c r="H35" s="328"/>
+      <c r="I35" s="328"/>
+      <c r="J35" s="192"/>
+      <c r="M35" s="193"/>
     </row>
     <row r="36" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="105"/>
-      <c r="C36" s="105"/>
-      <c r="D36" s="105"/>
-      <c r="E36" s="198"/>
-      <c r="F36" s="199"/>
-      <c r="G36" s="200"/>
-      <c r="H36" s="201"/>
-      <c r="I36" s="201"/>
-      <c r="J36" s="201"/>
+      <c r="B36" s="101"/>
+      <c r="C36" s="101"/>
+      <c r="D36" s="101"/>
+      <c r="E36" s="194"/>
+      <c r="F36" s="195"/>
+      <c r="G36" s="196"/>
+      <c r="H36" s="197"/>
+      <c r="I36" s="197"/>
+      <c r="J36" s="197"/>
     </row>
     <row r="37" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="105"/>
-      <c r="C37" s="105"/>
-      <c r="D37" s="105"/>
-      <c r="E37" s="105"/>
-      <c r="F37" s="105"/>
-      <c r="G37" s="335"/>
-      <c r="H37" s="335"/>
-      <c r="I37" s="335"/>
-      <c r="J37" s="202"/>
-      <c r="L37" s="190"/>
-      <c r="M37" s="190"/>
+      <c r="B37" s="101"/>
+      <c r="C37" s="101"/>
+      <c r="D37" s="101"/>
+      <c r="E37" s="101"/>
+      <c r="F37" s="101"/>
+      <c r="G37" s="328"/>
+      <c r="H37" s="328"/>
+      <c r="I37" s="328"/>
+      <c r="J37" s="198"/>
+      <c r="L37" s="186"/>
+      <c r="M37" s="186"/>
     </row>
     <row r="38" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="195"/>
-      <c r="C38" s="105"/>
-      <c r="D38" s="105"/>
-      <c r="E38" s="105"/>
-      <c r="F38" s="195" t="s">
-        <v>151</v>
-      </c>
-      <c r="G38" s="195"/>
-      <c r="H38" s="196"/>
-      <c r="I38" s="196"/>
-      <c r="J38" s="196"/>
-      <c r="L38" s="190"/>
-      <c r="M38" s="190"/>
-      <c r="N38" s="102" t="s">
+      <c r="B38" s="191"/>
+      <c r="C38" s="101"/>
+      <c r="D38" s="101"/>
+      <c r="E38" s="101"/>
+      <c r="F38" s="191" t="s">
+        <v>150</v>
+      </c>
+      <c r="G38" s="191"/>
+      <c r="H38" s="192"/>
+      <c r="I38" s="192"/>
+      <c r="J38" s="192"/>
+      <c r="L38" s="186"/>
+      <c r="M38" s="186"/>
+      <c r="N38" s="98" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" s="191"/>
+      <c r="C39" s="101"/>
+      <c r="D39" s="101"/>
+      <c r="E39" s="101"/>
+      <c r="F39" s="191" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="195"/>
-      <c r="C39" s="105"/>
-      <c r="D39" s="105"/>
-      <c r="E39" s="105"/>
-      <c r="F39" s="195" t="s">
+      <c r="G39" s="101"/>
+      <c r="H39" s="191"/>
+      <c r="I39" s="192"/>
+      <c r="J39" s="192"/>
+      <c r="M39" s="193"/>
+    </row>
+    <row r="40" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" s="195"/>
+      <c r="C40" s="101"/>
+      <c r="D40" s="101"/>
+      <c r="E40" s="194"/>
+      <c r="F40" s="195" t="s">
         <v>146</v>
       </c>
-      <c r="G39" s="105"/>
-      <c r="H39" s="195"/>
-      <c r="I39" s="196"/>
-      <c r="J39" s="196"/>
-      <c r="M39" s="197"/>
-    </row>
-    <row r="40" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="199"/>
-      <c r="C40" s="105"/>
-      <c r="D40" s="105"/>
-      <c r="E40" s="198"/>
-      <c r="F40" s="199" t="s">
-        <v>147</v>
-      </c>
-      <c r="G40" s="200"/>
-      <c r="H40" s="201"/>
-      <c r="I40" s="201"/>
-      <c r="J40" s="201"/>
+      <c r="G40" s="196"/>
+      <c r="H40" s="197"/>
+      <c r="I40" s="197"/>
+      <c r="J40" s="197"/>
     </row>
     <row r="41" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="O41" s="106"/>
+      <c r="O41" s="102"/>
     </row>
     <row r="42" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="336" t="s">
+      <c r="B42" s="329" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="336"/>
-      <c r="D42" s="336"/>
-      <c r="E42" s="336"/>
-      <c r="F42" s="336"/>
-      <c r="G42" s="336"/>
-      <c r="H42" s="336"/>
-      <c r="I42" s="336"/>
-      <c r="O42" s="117"/>
+      <c r="C42" s="329"/>
+      <c r="D42" s="329"/>
+      <c r="E42" s="329"/>
+      <c r="F42" s="329"/>
+      <c r="G42" s="329"/>
+      <c r="H42" s="329"/>
+      <c r="I42" s="329"/>
+      <c r="O42" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="26">

--- a/template/買取決済.xlsx
+++ b/template/買取決済.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\work\00_Wavesync\24_不動産管理システム\00_source\backend\kbs_backend\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDE78EF-93F4-4158-85D4-E5B9D59216D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10890515-A55D-4AA0-94AE-C9DD74BE7313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3484,8 +3484,62 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="22" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3496,8 +3550,32 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3511,34 +3589,163 @@
     <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="44" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="193" fontId="6" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="193" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="15" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="15" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="15" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="15" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="6" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="6" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="6" fillId="0" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="188" fontId="15" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="15" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="188" fontId="15" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="188" fontId="15" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="15" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3588,157 +3795,79 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="15" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="17" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="17" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="14" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="15" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="14" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="15" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="14" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="15" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="6" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="6" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="6" fillId="0" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="44" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="193" fontId="6" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="193" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="15" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="15" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3774,170 +3903,8 @@
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="186" fontId="17" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="17" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="14" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="14" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="14" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="15" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="15" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="205" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="38" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="38" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="40" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="14" fillId="0" borderId="53" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="54" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="51" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="27" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="14" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="32" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="32" fillId="0" borderId="53" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="54" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="194" fontId="32" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="32" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3965,65 +3932,98 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="194" fontId="14" fillId="0" borderId="53" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="54" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="51" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="27" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="22" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="14" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="32" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="32" fillId="0" borderId="53" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="54" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="194" fontId="32" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="32" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="38" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="38" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="40" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -5756,34 +5756,34 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="207" t="s">
+      <c r="A2" s="208" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="208" t="s">
+      <c r="B2" s="226" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="209" t="s">
+      <c r="C2" s="227" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="207" t="s">
+      <c r="D2" s="208" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="207" t="s">
+      <c r="E2" s="208" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
+      <c r="F2" s="208"/>
+      <c r="G2" s="208"/>
+      <c r="H2" s="208"/>
+      <c r="I2" s="208"/>
       <c r="R2" s="4" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="207"/>
-      <c r="B3" s="207"/>
-      <c r="C3" s="210"/>
-      <c r="D3" s="207"/>
+      <c r="A3" s="208"/>
+      <c r="B3" s="208"/>
+      <c r="C3" s="228"/>
+      <c r="D3" s="208"/>
       <c r="E3" s="7" t="s">
         <v>1</v>
       </c>
@@ -5802,18 +5802,18 @@
       <c r="J3" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K3" s="207" t="s">
+      <c r="K3" s="208" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="207"/>
-      <c r="M3" s="377" t="s">
+      <c r="L3" s="208"/>
+      <c r="M3" s="224" t="s">
         <v>182</v>
       </c>
-      <c r="N3" s="377"/>
-      <c r="O3" s="207" t="s">
+      <c r="N3" s="224"/>
+      <c r="O3" s="208" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="207"/>
+      <c r="P3" s="208"/>
       <c r="R3" s="4" t="s">
         <v>196</v>
       </c>
@@ -5849,16 +5849,16 @@
       <c r="J4" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="K4" s="371" t="s">
+      <c r="K4" s="219" t="s">
         <v>181</v>
       </c>
-      <c r="L4" s="371"/>
-      <c r="M4" s="378" t="s">
+      <c r="L4" s="219"/>
+      <c r="M4" s="225" t="s">
         <v>183</v>
       </c>
-      <c r="N4" s="378"/>
-      <c r="O4" s="379"/>
-      <c r="P4" s="379"/>
+      <c r="N4" s="225"/>
+      <c r="O4" s="209"/>
+      <c r="P4" s="209"/>
     </row>
     <row r="5" spans="1:18" s="23" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="19"/>
@@ -5876,61 +5876,61 @@
         <f>SUM(J4:J4)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="372">
+      <c r="K5" s="220">
         <f>SUM(K4:K4)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="372"/>
-      <c r="M5" s="378">
+      <c r="L5" s="220"/>
+      <c r="M5" s="225">
         <f>SUM(M4:M4)</f>
         <v>0</v>
       </c>
-      <c r="N5" s="378"/>
-      <c r="O5" s="380"/>
-      <c r="P5" s="380"/>
+      <c r="N5" s="225"/>
+      <c r="O5" s="210"/>
+      <c r="P5" s="210"/>
     </row>
     <row r="7" spans="1:18" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="8" spans="1:18" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="L8" s="373" t="s">
+      <c r="L8" s="207" t="s">
         <v>202</v>
       </c>
-      <c r="M8" s="373" t="s">
+      <c r="M8" s="207" t="s">
         <v>203</v>
       </c>
-      <c r="N8" s="382"/>
-      <c r="O8" s="383"/>
+      <c r="N8" s="211"/>
+      <c r="O8" s="212"/>
     </row>
     <row r="9" spans="1:18" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L9" s="374"/>
-      <c r="M9" s="374"/>
-      <c r="N9" s="384"/>
-      <c r="O9" s="385"/>
+      <c r="L9" s="221"/>
+      <c r="M9" s="221"/>
+      <c r="N9" s="213"/>
+      <c r="O9" s="214"/>
     </row>
     <row r="10" spans="1:18" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L10" s="375"/>
-      <c r="M10" s="375"/>
-      <c r="N10" s="381"/>
-      <c r="O10" s="386"/>
+      <c r="L10" s="222"/>
+      <c r="M10" s="222"/>
+      <c r="N10" s="215"/>
+      <c r="O10" s="216"/>
     </row>
     <row r="11" spans="1:18" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L11" s="375"/>
-      <c r="M11" s="375"/>
-      <c r="N11" s="381"/>
-      <c r="O11" s="386"/>
+      <c r="L11" s="222"/>
+      <c r="M11" s="222"/>
+      <c r="N11" s="215"/>
+      <c r="O11" s="216"/>
     </row>
     <row r="12" spans="1:18" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="L12" s="376"/>
-      <c r="M12" s="376"/>
-      <c r="N12" s="387"/>
-      <c r="O12" s="388"/>
+      <c r="L12" s="223"/>
+      <c r="M12" s="223"/>
+      <c r="N12" s="217"/>
+      <c r="O12" s="218"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O12"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:I2"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="K5:L5"/>
@@ -5939,11 +5939,11 @@
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="M9:M12"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -6012,31 +6012,31 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="207" t="s">
+      <c r="A2" s="208" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="208" t="s">
+      <c r="B2" s="226" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="209" t="s">
+      <c r="C2" s="227" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="207" t="s">
+      <c r="D2" s="208" t="s">
         <v>176</v>
       </c>
-      <c r="E2" s="207" t="s">
+      <c r="E2" s="208" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
+      <c r="F2" s="208"/>
+      <c r="G2" s="208"/>
+      <c r="H2" s="208"/>
+      <c r="I2" s="208"/>
     </row>
     <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="207"/>
-      <c r="B3" s="207"/>
-      <c r="C3" s="210"/>
-      <c r="D3" s="207"/>
+      <c r="A3" s="208"/>
+      <c r="B3" s="208"/>
+      <c r="C3" s="228"/>
+      <c r="D3" s="208"/>
       <c r="E3" s="201" t="s">
         <v>1</v>
       </c>
@@ -6055,16 +6055,16 @@
       <c r="J3" s="201" t="s">
         <v>81</v>
       </c>
-      <c r="K3" s="207"/>
-      <c r="L3" s="207"/>
-      <c r="M3" s="377" t="s">
+      <c r="K3" s="208"/>
+      <c r="L3" s="208"/>
+      <c r="M3" s="224" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="377"/>
-      <c r="O3" s="207" t="s">
+      <c r="N3" s="224"/>
+      <c r="O3" s="208" t="s">
         <v>177</v>
       </c>
-      <c r="P3" s="207"/>
+      <c r="P3" s="208"/>
     </row>
     <row r="4" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10" t="s">
@@ -6097,17 +6097,17 @@
       <c r="J4" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="K4" s="389"/>
-      <c r="L4" s="389"/>
-      <c r="M4" s="378" t="e">
+      <c r="K4" s="230"/>
+      <c r="L4" s="230"/>
+      <c r="M4" s="225" t="e">
         <f>J4+K4</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N4" s="378"/>
-      <c r="O4" s="379" t="s">
+      <c r="N4" s="225"/>
+      <c r="O4" s="209" t="s">
         <v>160</v>
       </c>
-      <c r="P4" s="379"/>
+      <c r="P4" s="209"/>
     </row>
     <row r="5" spans="1:16" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10" t="s">
@@ -6140,17 +6140,17 @@
       <c r="J5" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="K5" s="389"/>
-      <c r="L5" s="389"/>
-      <c r="M5" s="378" t="e">
+      <c r="K5" s="230"/>
+      <c r="L5" s="230"/>
+      <c r="M5" s="225" t="e">
         <f>J5+K5</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N5" s="378"/>
-      <c r="O5" s="379" t="s">
+      <c r="N5" s="225"/>
+      <c r="O5" s="209" t="s">
         <v>168</v>
       </c>
-      <c r="P5" s="379"/>
+      <c r="P5" s="209"/>
     </row>
     <row r="6" spans="1:16" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="10"/>
@@ -6163,12 +6163,12 @@
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
       <c r="J6" s="16"/>
-      <c r="K6" s="372"/>
-      <c r="L6" s="372"/>
-      <c r="M6" s="378"/>
-      <c r="N6" s="378"/>
-      <c r="O6" s="390"/>
-      <c r="P6" s="390"/>
+      <c r="K6" s="220"/>
+      <c r="L6" s="220"/>
+      <c r="M6" s="225"/>
+      <c r="N6" s="225"/>
+      <c r="O6" s="229"/>
+      <c r="P6" s="229"/>
     </row>
     <row r="7" spans="1:16" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="18"/>
@@ -6181,12 +6181,12 @@
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
       <c r="J7" s="16"/>
-      <c r="K7" s="372"/>
-      <c r="L7" s="372"/>
-      <c r="M7" s="378"/>
-      <c r="N7" s="378"/>
-      <c r="O7" s="390"/>
-      <c r="P7" s="390"/>
+      <c r="K7" s="220"/>
+      <c r="L7" s="220"/>
+      <c r="M7" s="225"/>
+      <c r="N7" s="225"/>
+      <c r="O7" s="229"/>
+      <c r="P7" s="229"/>
     </row>
     <row r="8" spans="1:16" s="23" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="19"/>
@@ -6204,66 +6204,63 @@
         <f>SUM(J4:J7)</f>
         <v>0</v>
       </c>
-      <c r="K8" s="372">
+      <c r="K8" s="220">
         <f>SUM(K4:K7)</f>
         <v>0</v>
       </c>
-      <c r="L8" s="372"/>
-      <c r="M8" s="378" t="e">
+      <c r="L8" s="220"/>
+      <c r="M8" s="225" t="e">
         <f>SUM(M4:M7)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N8" s="378"/>
-      <c r="O8" s="380"/>
-      <c r="P8" s="380"/>
+      <c r="N8" s="225"/>
+      <c r="O8" s="210"/>
+      <c r="P8" s="210"/>
     </row>
     <row r="9" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="10" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="11" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="L11" s="373" t="s">
+      <c r="L11" s="207" t="s">
         <v>202</v>
       </c>
-      <c r="M11" s="373" t="s">
+      <c r="M11" s="207" t="s">
         <v>203</v>
       </c>
-      <c r="N11" s="382"/>
-      <c r="O11" s="383"/>
+      <c r="N11" s="211"/>
+      <c r="O11" s="212"/>
     </row>
     <row r="12" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L12" s="374"/>
-      <c r="M12" s="374"/>
-      <c r="N12" s="384"/>
-      <c r="O12" s="385"/>
+      <c r="L12" s="221"/>
+      <c r="M12" s="221"/>
+      <c r="N12" s="213"/>
+      <c r="O12" s="214"/>
     </row>
     <row r="13" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L13" s="375"/>
-      <c r="M13" s="375"/>
-      <c r="N13" s="381"/>
-      <c r="O13" s="386"/>
+      <c r="L13" s="222"/>
+      <c r="M13" s="222"/>
+      <c r="N13" s="215"/>
+      <c r="O13" s="216"/>
     </row>
     <row r="14" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L14" s="375"/>
-      <c r="M14" s="375"/>
-      <c r="N14" s="381"/>
-      <c r="O14" s="386"/>
+      <c r="L14" s="222"/>
+      <c r="M14" s="222"/>
+      <c r="N14" s="215"/>
+      <c r="O14" s="216"/>
     </row>
     <row r="15" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="L15" s="376"/>
-      <c r="M15" s="376"/>
-      <c r="N15" s="387"/>
-      <c r="O15" s="388"/>
+      <c r="L15" s="223"/>
+      <c r="M15" s="223"/>
+      <c r="N15" s="217"/>
+      <c r="O15" s="218"/>
     </row>
     <row r="16" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N12:O15"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:I2"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="L12:L15"/>
     <mergeCell ref="M3:N3"/>
@@ -6278,11 +6275,14 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="K7:L7"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N12:O15"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O7:P7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="1.1417322834645669" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6307,20 +6307,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="H1" s="211" t="s">
+      <c r="H1" s="231" t="s">
         <v>107</v>
       </c>
-      <c r="I1" s="211"/>
+      <c r="I1" s="231"/>
       <c r="K1" s="25" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="220" t="s">
+      <c r="B2" s="236" t="s">
         <v>189</v>
       </c>
-      <c r="C2" s="220"/>
-      <c r="D2" s="220"/>
+      <c r="C2" s="236"/>
+      <c r="D2" s="236"/>
       <c r="E2" s="25" t="s">
         <v>83</v>
       </c>
@@ -6335,47 +6335,47 @@
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F4" s="26"/>
-      <c r="G4" s="211" t="s">
+      <c r="G4" s="231" t="s">
         <v>85</v>
       </c>
-      <c r="H4" s="211"/>
-      <c r="I4" s="211"/>
+      <c r="H4" s="231"/>
+      <c r="I4" s="231"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G5" s="211" t="s">
+      <c r="G5" s="231" t="s">
         <v>71</v>
       </c>
-      <c r="H5" s="211"/>
-      <c r="I5" s="211"/>
+      <c r="H5" s="231"/>
+      <c r="I5" s="231"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G6" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="221" t="s">
+      <c r="H6" s="237" t="s">
         <v>72</v>
       </c>
-      <c r="I6" s="221"/>
+      <c r="I6" s="237"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G7" s="211" t="s">
+      <c r="G7" s="231" t="s">
         <v>105</v>
       </c>
-      <c r="H7" s="211"/>
-      <c r="I7" s="211"/>
+      <c r="H7" s="231"/>
+      <c r="I7" s="231"/>
     </row>
     <row r="8" spans="2:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="9" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="216" t="s">
+      <c r="C9" s="232" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="217"/>
-      <c r="E9" s="217"/>
-      <c r="F9" s="218" t="s">
+      <c r="D9" s="233"/>
+      <c r="E9" s="233"/>
+      <c r="F9" s="234" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="218"/>
-      <c r="H9" s="218"/>
+      <c r="G9" s="234"/>
+      <c r="H9" s="234"/>
     </row>
     <row r="10" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="11" spans="2:11" x14ac:dyDescent="0.55000000000000004">
@@ -6425,10 +6425,10 @@
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="219" t="s">
+      <c r="B17" s="235" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="219"/>
+      <c r="C17" s="235"/>
       <c r="D17" s="30" t="s">
         <v>93</v>
       </c>
@@ -6452,57 +6452,57 @@
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="214" t="s">
+      <c r="B23" s="240" t="s">
         <v>192</v>
       </c>
-      <c r="C23" s="214"/>
-      <c r="D23" s="215" t="s">
+      <c r="C23" s="240"/>
+      <c r="D23" s="241" t="s">
         <v>151</v>
       </c>
-      <c r="E23" s="215"/>
-      <c r="F23" s="215"/>
+      <c r="E23" s="241"/>
+      <c r="F23" s="241"/>
       <c r="G23" s="32" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="211" t="s">
+      <c r="B24" s="231" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="211"/>
-      <c r="D24" s="215" t="s">
+      <c r="C24" s="231"/>
+      <c r="D24" s="241" t="s">
         <v>181</v>
       </c>
-      <c r="E24" s="215"/>
-      <c r="F24" s="215"/>
+      <c r="E24" s="241"/>
+      <c r="F24" s="241"/>
       <c r="G24" s="32" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="211" t="s">
+      <c r="B25" s="231" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="211"/>
-      <c r="D25" s="215" t="s">
+      <c r="C25" s="231"/>
+      <c r="D25" s="241" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="215"/>
-      <c r="F25" s="215"/>
+      <c r="E25" s="241"/>
+      <c r="F25" s="241"/>
       <c r="G25" s="32" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="211" t="s">
+      <c r="B26" s="231" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="211"/>
-      <c r="D26" s="215" t="s">
+      <c r="C26" s="231"/>
+      <c r="D26" s="241" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="215"/>
-      <c r="F26" s="215"/>
+      <c r="E26" s="241"/>
+      <c r="F26" s="241"/>
       <c r="G26" s="32" t="s">
         <v>33</v>
       </c>
@@ -6511,16 +6511,16 @@
       <c r="G27" s="32"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="211" t="s">
+      <c r="B28" s="231" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="211"/>
-      <c r="D28" s="212" t="e">
+      <c r="C28" s="231"/>
+      <c r="D28" s="238" t="e">
         <f>D23+D24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E28" s="212"/>
-      <c r="F28" s="212"/>
+      <c r="E28" s="238"/>
+      <c r="F28" s="238"/>
       <c r="G28" s="32" t="s">
         <v>32</v>
       </c>
@@ -6532,31 +6532,31 @@
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="211" t="s">
+      <c r="B31" s="231" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="211"/>
-      <c r="D31" s="211" t="s">
+      <c r="C31" s="231"/>
+      <c r="D31" s="231" t="s">
         <v>90</v>
       </c>
-      <c r="E31" s="211"/>
+      <c r="E31" s="231"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="211" t="s">
+      <c r="B32" s="231" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="211"/>
-      <c r="D32" s="211" t="s">
+      <c r="C32" s="231"/>
+      <c r="D32" s="231" t="s">
         <v>92</v>
       </c>
-      <c r="E32" s="211"/>
+      <c r="E32" s="231"/>
     </row>
     <row r="33" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="213" t="s">
+      <c r="B33" s="239" t="s">
         <v>88</v>
       </c>
-      <c r="C33" s="211"/>
-      <c r="D33" s="211"/>
+      <c r="C33" s="231"/>
+      <c r="D33" s="231"/>
       <c r="E33" s="25" t="s">
         <v>73</v>
       </c>
@@ -6633,15 +6633,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="H6:I6"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="D32:E32"/>
@@ -6657,6 +6648,15 @@
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="H6:I6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -6704,61 +6704,61 @@
   <sheetData>
     <row r="1" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="33"/>
-      <c r="B1" s="226" t="s">
+      <c r="B1" s="295" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="226"/>
-      <c r="D1" s="226"/>
-      <c r="E1" s="226"/>
-      <c r="F1" s="226"/>
-      <c r="G1" s="226"/>
-      <c r="H1" s="226"/>
-      <c r="I1" s="226"/>
-      <c r="J1" s="226"/>
+      <c r="C1" s="295"/>
+      <c r="D1" s="295"/>
+      <c r="E1" s="295"/>
+      <c r="F1" s="295"/>
+      <c r="G1" s="295"/>
+      <c r="H1" s="295"/>
+      <c r="I1" s="295"/>
+      <c r="J1" s="295"/>
       <c r="K1" s="34"/>
       <c r="L1" s="34"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="3" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="227" t="s">
+      <c r="B3" s="296" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="228"/>
-      <c r="D3" s="229" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" s="230"/>
-      <c r="F3" s="231"/>
-      <c r="G3" s="243" t="s">
+      <c r="C3" s="297"/>
+      <c r="D3" s="298" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" s="299"/>
+      <c r="F3" s="300"/>
+      <c r="G3" s="287" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="244"/>
-      <c r="I3" s="232" t="s">
+      <c r="H3" s="288"/>
+      <c r="I3" s="301" t="s">
         <v>109</v>
       </c>
-      <c r="J3" s="233"/>
-      <c r="K3" s="234"/>
+      <c r="J3" s="302"/>
+      <c r="K3" s="303"/>
       <c r="L3" s="37"/>
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="235" t="s">
+      <c r="B4" s="304" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="236"/>
-      <c r="D4" s="237" t="s">
+      <c r="C4" s="305"/>
+      <c r="D4" s="306" t="s">
         <v>189</v>
       </c>
-      <c r="E4" s="238"/>
-      <c r="F4" s="239"/>
-      <c r="G4" s="245" t="s">
+      <c r="E4" s="307"/>
+      <c r="F4" s="308"/>
+      <c r="G4" s="312" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="246"/>
-      <c r="I4" s="240" t="s">
+      <c r="H4" s="313"/>
+      <c r="I4" s="309" t="s">
         <v>95</v>
       </c>
-      <c r="J4" s="241"/>
-      <c r="K4" s="242"/>
+      <c r="J4" s="310"/>
+      <c r="K4" s="311"/>
       <c r="L4" s="39"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -6772,98 +6772,98 @@
       <c r="J5" s="40"/>
     </row>
     <row r="6" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="265" t="s">
+      <c r="B6" s="284" t="s">
         <v>48</v>
       </c>
       <c r="C6" s="36"/>
-      <c r="D6" s="243" t="s">
+      <c r="D6" s="287" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="244"/>
-      <c r="F6" s="243" t="s">
+      <c r="E6" s="288"/>
+      <c r="F6" s="287" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="268"/>
-      <c r="H6" s="268"/>
-      <c r="I6" s="243" t="s">
+      <c r="G6" s="289"/>
+      <c r="H6" s="289"/>
+      <c r="I6" s="287" t="s">
         <v>51</v>
       </c>
-      <c r="J6" s="268"/>
-      <c r="K6" s="269"/>
+      <c r="J6" s="289"/>
+      <c r="K6" s="290"/>
       <c r="L6" s="41"/>
     </row>
     <row r="7" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="266"/>
+      <c r="B7" s="285"/>
       <c r="C7" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="222" t="s">
+      <c r="D7" s="291" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="224"/>
-      <c r="F7" s="222" t="s">
+      <c r="E7" s="292"/>
+      <c r="F7" s="291" t="s">
         <v>111</v>
       </c>
-      <c r="G7" s="225"/>
-      <c r="H7" s="224"/>
+      <c r="G7" s="293"/>
+      <c r="H7" s="292"/>
       <c r="I7" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="J7" s="222" t="e">
+      <c r="J7" s="291" t="e">
         <f>D7+F7</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K7" s="223"/>
+      <c r="K7" s="294"/>
       <c r="L7" s="44"/>
     </row>
     <row r="8" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="266"/>
+      <c r="B8" s="285"/>
       <c r="C8" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="222" t="s">
+      <c r="D8" s="291" t="s">
         <v>114</v>
       </c>
-      <c r="E8" s="224"/>
-      <c r="F8" s="222" t="s">
+      <c r="E8" s="292"/>
+      <c r="F8" s="291" t="s">
         <v>115</v>
       </c>
-      <c r="G8" s="225"/>
-      <c r="H8" s="225"/>
+      <c r="G8" s="293"/>
+      <c r="H8" s="293"/>
       <c r="I8" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="J8" s="222" t="e">
+      <c r="J8" s="291" t="e">
         <f>D8+F8</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K8" s="223"/>
+      <c r="K8" s="294"/>
       <c r="L8" s="44"/>
     </row>
     <row r="9" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="267"/>
+      <c r="B9" s="286"/>
       <c r="C9" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="247">
+      <c r="D9" s="266">
         <f>SUM(D7:E8)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="248"/>
-      <c r="F9" s="247">
+      <c r="E9" s="267"/>
+      <c r="F9" s="266">
         <f>SUM(F7:H8)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="249"/>
-      <c r="H9" s="249"/>
+      <c r="G9" s="268"/>
+      <c r="H9" s="268"/>
       <c r="I9" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="J9" s="247">
+      <c r="J9" s="266">
         <f>D9+F9</f>
         <v>0</v>
       </c>
-      <c r="K9" s="250"/>
+      <c r="K9" s="269"/>
       <c r="L9" s="44"/>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -6877,58 +6877,58 @@
       <c r="J10" s="40"/>
     </row>
     <row r="11" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="251" t="s">
+      <c r="B11" s="270" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="252"/>
+      <c r="C11" s="271"/>
       <c r="D11" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="255" t="s">
+      <c r="E11" s="274" t="s">
         <v>112</v>
       </c>
-      <c r="F11" s="256"/>
+      <c r="F11" s="275"/>
       <c r="G11" s="53" t="s">
         <v>199</v>
       </c>
-      <c r="H11" s="257" t="s">
+      <c r="H11" s="276" t="s">
         <v>198</v>
       </c>
-      <c r="I11" s="257"/>
-      <c r="J11" s="258" t="e">
+      <c r="I11" s="276"/>
+      <c r="J11" s="277" t="e">
         <f>H11-E11+1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K11" s="259"/>
+      <c r="K11" s="278"/>
       <c r="L11" s="48"/>
     </row>
     <row r="12" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="253"/>
-      <c r="C12" s="254"/>
+      <c r="B12" s="272"/>
+      <c r="C12" s="273"/>
       <c r="D12" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="260" t="s">
+      <c r="E12" s="279" t="s">
         <v>113</v>
       </c>
-      <c r="F12" s="261"/>
+      <c r="F12" s="280"/>
       <c r="G12" s="206" t="s">
         <v>199</v>
       </c>
-      <c r="H12" s="262" t="s">
+      <c r="H12" s="281" t="s">
         <v>200</v>
       </c>
-      <c r="I12" s="262"/>
-      <c r="J12" s="263" t="e">
+      <c r="I12" s="281"/>
+      <c r="J12" s="282" t="e">
         <f>H12-E12+1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K12" s="264"/>
+      <c r="K12" s="283"/>
       <c r="L12" s="48"/>
     </row>
     <row r="13" spans="1:12" ht="10" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="14" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="275" t="s">
+      <c r="B14" s="247" t="s">
         <v>60</v>
       </c>
       <c r="C14" s="50"/>
@@ -6942,20 +6942,20 @@
       <c r="F14" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="289" t="e">
+      <c r="G14" s="261" t="e">
         <f>J$11+J$12</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H14" s="289"/>
-      <c r="I14" s="278" t="s">
+      <c r="H14" s="261"/>
+      <c r="I14" s="250" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="278"/>
-      <c r="K14" s="279"/>
+      <c r="J14" s="250"/>
+      <c r="K14" s="251"/>
       <c r="L14" s="54"/>
     </row>
     <row r="15" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="276"/>
+      <c r="B15" s="248"/>
       <c r="C15" s="55" t="s">
         <v>62</v>
       </c>
@@ -6969,40 +6969,40 @@
       <c r="F15" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="290" t="e">
+      <c r="G15" s="262" t="e">
         <f>J$11+J$12</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H15" s="290"/>
-      <c r="I15" s="280" t="s">
+      <c r="H15" s="262"/>
+      <c r="I15" s="252" t="s">
         <v>97</v>
       </c>
-      <c r="J15" s="280"/>
-      <c r="K15" s="281"/>
+      <c r="J15" s="252"/>
+      <c r="K15" s="253"/>
       <c r="L15" s="54"/>
     </row>
     <row r="16" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="276"/>
+      <c r="B16" s="248"/>
       <c r="C16" s="59"/>
       <c r="D16" s="60" t="s">
         <v>51</v>
       </c>
       <c r="E16" s="61"/>
       <c r="F16" s="62"/>
-      <c r="G16" s="291"/>
-      <c r="H16" s="291"/>
+      <c r="G16" s="263"/>
+      <c r="H16" s="263"/>
       <c r="I16" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="J16" s="282" t="e">
+      <c r="J16" s="254" t="e">
         <f>I14+I15</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K16" s="283"/>
+      <c r="K16" s="255"/>
       <c r="L16" s="54"/>
     </row>
     <row r="17" spans="2:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="277"/>
+      <c r="B17" s="249"/>
       <c r="C17" s="64" t="s">
         <v>65</v>
       </c>
@@ -7014,17 +7014,17 @@
       <c r="F17" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="292">
-        <f>H16</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="292"/>
+      <c r="G17" s="264" t="str">
+        <f>I16</f>
+        <v>（Ｄ）</v>
+      </c>
+      <c r="H17" s="264"/>
       <c r="I17" s="68"/>
-      <c r="J17" s="284" t="e">
+      <c r="J17" s="256" t="e">
         <f>J9-J16</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K17" s="285"/>
+      <c r="K17" s="257"/>
       <c r="L17" s="54"/>
     </row>
     <row r="18" spans="2:12" ht="8.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -7032,22 +7032,22 @@
       <c r="J18" s="69"/>
     </row>
     <row r="19" spans="2:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="286" t="s">
+      <c r="B19" s="258" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="287"/>
-      <c r="D19" s="288"/>
+      <c r="C19" s="259"/>
+      <c r="D19" s="260"/>
       <c r="E19" s="70"/>
       <c r="F19" s="70"/>
-      <c r="G19" s="293"/>
-      <c r="H19" s="293"/>
+      <c r="G19" s="265"/>
+      <c r="H19" s="265"/>
       <c r="I19" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="J19" s="273" t="s">
+      <c r="J19" s="245" t="s">
         <v>98</v>
       </c>
-      <c r="K19" s="274"/>
+      <c r="K19" s="246"/>
       <c r="L19" s="54"/>
     </row>
     <row r="20" spans="2:12" ht="8.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -7057,22 +7057,22 @@
       <c r="J20" s="73"/>
     </row>
     <row r="21" spans="2:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="270" t="s">
+      <c r="B21" s="242" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="271"/>
-      <c r="D21" s="272"/>
+      <c r="C21" s="243"/>
+      <c r="D21" s="244"/>
       <c r="E21" s="70"/>
       <c r="F21" s="70"/>
-      <c r="G21" s="293"/>
-      <c r="H21" s="293"/>
+      <c r="G21" s="265"/>
+      <c r="H21" s="265"/>
       <c r="I21" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="J21" s="273" t="s">
+      <c r="J21" s="245" t="s">
         <v>181</v>
       </c>
-      <c r="K21" s="274"/>
+      <c r="K21" s="246"/>
       <c r="L21" s="74"/>
     </row>
     <row r="22" spans="2:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -7083,21 +7083,19 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="J9:K9"/>
@@ -7114,19 +7112,21 @@
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:H7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G21:H21"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -7160,16 +7160,16 @@
     </row>
     <row r="2" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="33"/>
-      <c r="B2" s="294" t="s">
+      <c r="B2" s="337" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="294"/>
-      <c r="D2" s="294"/>
-      <c r="E2" s="294"/>
-      <c r="F2" s="294"/>
-      <c r="G2" s="294"/>
-      <c r="H2" s="294"/>
-      <c r="I2" s="294"/>
+      <c r="C2" s="337"/>
+      <c r="D2" s="337"/>
+      <c r="E2" s="337"/>
+      <c r="F2" s="337"/>
+      <c r="G2" s="337"/>
+      <c r="H2" s="337"/>
+      <c r="I2" s="337"/>
       <c r="J2" s="34"/>
     </row>
     <row r="3" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -7184,32 +7184,32 @@
       <c r="I4" s="91"/>
     </row>
     <row r="5" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="295" t="s">
+      <c r="B5" s="338" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="295"/>
-      <c r="D5" s="295"/>
-      <c r="E5" s="295"/>
+      <c r="C5" s="338"/>
+      <c r="D5" s="338"/>
+      <c r="E5" s="338"/>
       <c r="F5" s="78" t="s">
         <v>8</v>
       </c>
       <c r="I5" s="92"/>
-      <c r="L5" s="304" t="s">
+      <c r="L5" s="314" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L6" s="305"/>
+      <c r="L6" s="315"/>
     </row>
     <row r="7" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" s="296" t="e">
+      <c r="D7" s="339" t="e">
         <f>G13+G14</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E7" s="297"/>
-      <c r="F7" s="297"/>
-      <c r="G7" s="297"/>
-      <c r="H7" s="298"/>
+      <c r="E7" s="340"/>
+      <c r="F7" s="340"/>
+      <c r="G7" s="340"/>
+      <c r="H7" s="341"/>
       <c r="I7" s="41"/>
       <c r="J7" s="79"/>
     </row>
@@ -7230,18 +7230,18 @@
       <c r="J9" s="79"/>
     </row>
     <row r="10" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="299" t="s">
+      <c r="B10" s="342" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="300"/>
-      <c r="D10" s="301" t="s">
+      <c r="C10" s="343"/>
+      <c r="D10" s="344" t="s">
         <v>149</v>
       </c>
-      <c r="E10" s="302"/>
-      <c r="F10" s="302"/>
-      <c r="G10" s="302"/>
-      <c r="H10" s="302"/>
-      <c r="I10" s="303"/>
+      <c r="E10" s="345"/>
+      <c r="F10" s="345"/>
+      <c r="G10" s="345"/>
+      <c r="H10" s="345"/>
+      <c r="I10" s="346"/>
       <c r="J10" s="79"/>
       <c r="L10" s="35" t="s">
         <v>116</v>
@@ -7254,70 +7254,70 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="312" t="s">
+      <c r="B12" s="322" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="313"/>
-      <c r="D12" s="313"/>
-      <c r="E12" s="313"/>
-      <c r="F12" s="313"/>
-      <c r="G12" s="313" t="s">
+      <c r="C12" s="323"/>
+      <c r="D12" s="323"/>
+      <c r="E12" s="323"/>
+      <c r="F12" s="323"/>
+      <c r="G12" s="323" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="313"/>
-      <c r="I12" s="314"/>
+      <c r="H12" s="323"/>
+      <c r="I12" s="324"/>
       <c r="J12" s="83"/>
       <c r="L12" s="35" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="315" t="s">
+      <c r="B13" s="325" t="s">
         <v>190</v>
       </c>
-      <c r="C13" s="316"/>
-      <c r="D13" s="316"/>
-      <c r="E13" s="316"/>
-      <c r="F13" s="317"/>
-      <c r="G13" s="318" t="s">
+      <c r="C13" s="326"/>
+      <c r="D13" s="326"/>
+      <c r="E13" s="326"/>
+      <c r="F13" s="327"/>
+      <c r="G13" s="328" t="s">
         <v>180</v>
       </c>
-      <c r="H13" s="319"/>
-      <c r="I13" s="320"/>
+      <c r="H13" s="329"/>
+      <c r="I13" s="330"/>
       <c r="J13" s="83"/>
       <c r="L13" s="35" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="321" t="s">
+      <c r="B14" s="331" t="s">
         <v>201</v>
       </c>
-      <c r="C14" s="322"/>
-      <c r="D14" s="322"/>
-      <c r="E14" s="322"/>
-      <c r="F14" s="323"/>
-      <c r="G14" s="318" t="s">
+      <c r="C14" s="332"/>
+      <c r="D14" s="332"/>
+      <c r="E14" s="332"/>
+      <c r="F14" s="333"/>
+      <c r="G14" s="328" t="s">
         <v>184</v>
       </c>
-      <c r="H14" s="319"/>
-      <c r="I14" s="320"/>
+      <c r="H14" s="329"/>
+      <c r="I14" s="330"/>
       <c r="J14" s="83"/>
       <c r="L14" s="35" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="309" t="s">
+      <c r="B15" s="319" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="310"/>
-      <c r="D15" s="310"/>
-      <c r="E15" s="310"/>
-      <c r="F15" s="311"/>
-      <c r="G15" s="324"/>
-      <c r="H15" s="325"/>
-      <c r="I15" s="326"/>
+      <c r="C15" s="320"/>
+      <c r="D15" s="320"/>
+      <c r="E15" s="320"/>
+      <c r="F15" s="321"/>
+      <c r="G15" s="334"/>
+      <c r="H15" s="335"/>
+      <c r="I15" s="336"/>
     </row>
     <row r="16" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="84"/>
@@ -7330,10 +7330,10 @@
       <c r="I16" s="86"/>
     </row>
     <row r="17" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="308" t="s">
+      <c r="B17" s="318" t="s">
         <v>109</v>
       </c>
-      <c r="C17" s="308"/>
+      <c r="C17" s="318"/>
       <c r="D17" s="93" t="s">
         <v>17</v>
       </c>
@@ -7358,31 +7358,31 @@
       <c r="E19" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="254"/>
-      <c r="G19" s="254"/>
-      <c r="H19" s="254"/>
-      <c r="I19" s="254"/>
-      <c r="J19" s="254"/>
+      <c r="F19" s="273"/>
+      <c r="G19" s="273"/>
+      <c r="H19" s="273"/>
+      <c r="I19" s="273"/>
+      <c r="J19" s="273"/>
     </row>
     <row r="20" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" s="87"/>
       <c r="E20" s="88"/>
-      <c r="F20" s="306"/>
-      <c r="G20" s="306"/>
-      <c r="H20" s="306"/>
-      <c r="I20" s="306"/>
+      <c r="F20" s="316"/>
+      <c r="G20" s="316"/>
+      <c r="H20" s="316"/>
+      <c r="I20" s="316"/>
     </row>
     <row r="21" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="307" t="s">
+      <c r="F21" s="317" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="307"/>
-      <c r="H21" s="307"/>
-      <c r="I21" s="307"/>
-      <c r="J21" s="307"/>
+      <c r="G21" s="317"/>
+      <c r="H21" s="317"/>
+      <c r="I21" s="317"/>
+      <c r="J21" s="317"/>
     </row>
     <row r="22" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E22" s="88"/>
@@ -7415,6 +7415,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:I10"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="F19:J19"/>
     <mergeCell ref="F20:I20"/>
@@ -7428,11 +7433,6 @@
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:I10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -7468,16 +7468,16 @@
     </row>
     <row r="2" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="33"/>
-      <c r="B2" s="294" t="s">
+      <c r="B2" s="337" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="294"/>
-      <c r="D2" s="294"/>
-      <c r="E2" s="294"/>
-      <c r="F2" s="294"/>
-      <c r="G2" s="294"/>
-      <c r="H2" s="294"/>
-      <c r="I2" s="294"/>
+      <c r="C2" s="337"/>
+      <c r="D2" s="337"/>
+      <c r="E2" s="337"/>
+      <c r="F2" s="337"/>
+      <c r="G2" s="337"/>
+      <c r="H2" s="337"/>
+      <c r="I2" s="337"/>
       <c r="J2" s="203"/>
     </row>
     <row r="3" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -7492,12 +7492,12 @@
       <c r="I4" s="91"/>
     </row>
     <row r="5" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="295" t="s">
+      <c r="B5" s="338" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="295"/>
-      <c r="D5" s="295"/>
-      <c r="E5" s="295"/>
+      <c r="C5" s="338"/>
+      <c r="D5" s="338"/>
+      <c r="E5" s="338"/>
       <c r="F5" s="78" t="s">
         <v>8</v>
       </c>
@@ -7505,14 +7505,14 @@
     </row>
     <row r="6" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" s="296" t="e">
+      <c r="D7" s="339" t="e">
         <f>G13+G14</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E7" s="297"/>
-      <c r="F7" s="297"/>
-      <c r="G7" s="297"/>
-      <c r="H7" s="298"/>
+      <c r="E7" s="340"/>
+      <c r="F7" s="340"/>
+      <c r="G7" s="340"/>
+      <c r="H7" s="341"/>
       <c r="I7" s="41"/>
       <c r="J7" s="79"/>
     </row>
@@ -7533,26 +7533,26 @@
       <c r="J9" s="79"/>
     </row>
     <row r="10" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="299" t="s">
+      <c r="B10" s="342" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="300"/>
-      <c r="D10" s="301" t="s">
+      <c r="C10" s="343"/>
+      <c r="D10" s="344" t="s">
         <v>149</v>
       </c>
-      <c r="E10" s="302"/>
-      <c r="F10" s="302"/>
-      <c r="G10" s="302"/>
-      <c r="H10" s="302"/>
-      <c r="I10" s="303"/>
+      <c r="E10" s="345"/>
+      <c r="F10" s="345"/>
+      <c r="G10" s="345"/>
+      <c r="H10" s="345"/>
+      <c r="I10" s="346"/>
       <c r="J10" s="79"/>
-      <c r="L10" s="327">
+      <c r="L10" s="347">
         <v>8250000</v>
       </c>
-      <c r="M10" s="327"/>
-      <c r="N10" s="327"/>
-      <c r="O10" s="327"/>
-      <c r="P10" s="327"/>
+      <c r="M10" s="347"/>
+      <c r="N10" s="347"/>
+      <c r="O10" s="347"/>
+      <c r="P10" s="347"/>
     </row>
     <row r="11" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J11" s="83"/>
@@ -7563,18 +7563,18 @@
       <c r="N11" s="205"/>
     </row>
     <row r="12" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="312" t="s">
+      <c r="B12" s="322" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="313"/>
-      <c r="D12" s="313"/>
-      <c r="E12" s="313"/>
-      <c r="F12" s="313"/>
-      <c r="G12" s="313" t="s">
+      <c r="C12" s="323"/>
+      <c r="D12" s="323"/>
+      <c r="E12" s="323"/>
+      <c r="F12" s="323"/>
+      <c r="G12" s="323" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="313"/>
-      <c r="I12" s="314"/>
+      <c r="H12" s="323"/>
+      <c r="I12" s="324"/>
       <c r="J12" s="83"/>
       <c r="L12" s="205" t="s">
         <v>173</v>
@@ -7583,18 +7583,18 @@
       <c r="N12" s="205"/>
     </row>
     <row r="13" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="315" t="s">
+      <c r="B13" s="325" t="s">
         <v>170</v>
       </c>
-      <c r="C13" s="316"/>
-      <c r="D13" s="316"/>
-      <c r="E13" s="316"/>
-      <c r="F13" s="317"/>
-      <c r="G13" s="318" t="s">
+      <c r="C13" s="326"/>
+      <c r="D13" s="326"/>
+      <c r="E13" s="326"/>
+      <c r="F13" s="327"/>
+      <c r="G13" s="328" t="s">
         <v>167</v>
       </c>
-      <c r="H13" s="319"/>
-      <c r="I13" s="320"/>
+      <c r="H13" s="329"/>
+      <c r="I13" s="330"/>
       <c r="J13" s="83"/>
       <c r="L13" s="205" t="s">
         <v>174</v>
@@ -7603,16 +7603,16 @@
       <c r="N13" s="205"/>
     </row>
     <row r="14" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="321" t="s">
+      <c r="B14" s="331" t="s">
         <v>171</v>
       </c>
-      <c r="C14" s="322"/>
-      <c r="D14" s="322"/>
-      <c r="E14" s="322"/>
-      <c r="F14" s="323"/>
-      <c r="G14" s="318"/>
-      <c r="H14" s="319"/>
-      <c r="I14" s="320"/>
+      <c r="C14" s="332"/>
+      <c r="D14" s="332"/>
+      <c r="E14" s="332"/>
+      <c r="F14" s="333"/>
+      <c r="G14" s="328"/>
+      <c r="H14" s="329"/>
+      <c r="I14" s="330"/>
       <c r="J14" s="83"/>
       <c r="L14" s="205" t="s">
         <v>175</v>
@@ -7621,14 +7621,14 @@
       <c r="N14" s="205"/>
     </row>
     <row r="15" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="309"/>
-      <c r="C15" s="310"/>
-      <c r="D15" s="310"/>
-      <c r="E15" s="310"/>
-      <c r="F15" s="311"/>
-      <c r="G15" s="324"/>
-      <c r="H15" s="325"/>
-      <c r="I15" s="326"/>
+      <c r="B15" s="319"/>
+      <c r="C15" s="320"/>
+      <c r="D15" s="320"/>
+      <c r="E15" s="320"/>
+      <c r="F15" s="321"/>
+      <c r="G15" s="334"/>
+      <c r="H15" s="335"/>
+      <c r="I15" s="336"/>
     </row>
     <row r="16" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="204"/>
@@ -7641,10 +7641,10 @@
       <c r="I16" s="86"/>
     </row>
     <row r="17" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="308" t="s">
+      <c r="B17" s="318" t="s">
         <v>197</v>
       </c>
-      <c r="C17" s="308"/>
+      <c r="C17" s="318"/>
       <c r="D17" s="93" t="s">
         <v>17</v>
       </c>
@@ -7669,31 +7669,31 @@
       <c r="E19" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="254"/>
-      <c r="G19" s="254"/>
-      <c r="H19" s="254"/>
-      <c r="I19" s="254"/>
-      <c r="J19" s="254"/>
+      <c r="F19" s="273"/>
+      <c r="G19" s="273"/>
+      <c r="H19" s="273"/>
+      <c r="I19" s="273"/>
+      <c r="J19" s="273"/>
     </row>
     <row r="20" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" s="87"/>
       <c r="E20" s="88"/>
-      <c r="F20" s="306"/>
-      <c r="G20" s="306"/>
-      <c r="H20" s="306"/>
-      <c r="I20" s="306"/>
+      <c r="F20" s="316"/>
+      <c r="G20" s="316"/>
+      <c r="H20" s="316"/>
+      <c r="I20" s="316"/>
     </row>
     <row r="21" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="307" t="s">
+      <c r="F21" s="317" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="307"/>
-      <c r="H21" s="307"/>
-      <c r="I21" s="307"/>
-      <c r="J21" s="307"/>
+      <c r="G21" s="317"/>
+      <c r="H21" s="317"/>
+      <c r="I21" s="317"/>
+      <c r="J21" s="317"/>
     </row>
     <row r="22" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E22" s="88"/>
@@ -7726,11 +7726,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:I10"/>
     <mergeCell ref="L10:P10"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="F19:J19"/>
@@ -7744,6 +7739,11 @@
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:I10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -7786,16 +7786,16 @@
     </row>
     <row r="2" spans="1:15" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="99"/>
-      <c r="B2" s="365" t="s">
+      <c r="B2" s="352" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="365"/>
-      <c r="D2" s="365"/>
-      <c r="E2" s="365"/>
-      <c r="F2" s="365"/>
-      <c r="G2" s="365"/>
-      <c r="H2" s="365"/>
-      <c r="I2" s="365"/>
+      <c r="C2" s="352"/>
+      <c r="D2" s="352"/>
+      <c r="E2" s="352"/>
+      <c r="F2" s="352"/>
+      <c r="G2" s="352"/>
+      <c r="H2" s="352"/>
+      <c r="I2" s="352"/>
       <c r="J2" s="100"/>
       <c r="K2" s="100"/>
       <c r="L2" s="100"/>
@@ -7818,17 +7818,17 @@
       <c r="B4" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="366"/>
-      <c r="D4" s="367"/>
-      <c r="E4" s="368"/>
+      <c r="C4" s="353"/>
+      <c r="D4" s="354"/>
+      <c r="E4" s="355"/>
       <c r="F4" s="104" t="s">
         <v>120</v>
       </c>
-      <c r="G4" s="369">
+      <c r="G4" s="356">
         <v>43983</v>
       </c>
-      <c r="H4" s="369"/>
-      <c r="I4" s="370"/>
+      <c r="H4" s="356"/>
+      <c r="I4" s="357"/>
       <c r="J4" s="105"/>
       <c r="K4" s="106"/>
       <c r="L4" s="106"/>
@@ -7846,17 +7846,17 @@
       <c r="B5" s="108" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="361"/>
-      <c r="D5" s="362"/>
-      <c r="E5" s="362"/>
+      <c r="C5" s="348"/>
+      <c r="D5" s="349"/>
+      <c r="E5" s="349"/>
       <c r="F5" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="G5" s="363" t="s">
+      <c r="G5" s="350" t="s">
         <v>125</v>
       </c>
-      <c r="H5" s="363"/>
-      <c r="I5" s="364"/>
+      <c r="H5" s="350"/>
+      <c r="I5" s="351"/>
       <c r="J5" s="105"/>
       <c r="M5" s="110">
         <v>43516</v>
@@ -7944,9 +7944,9 @@
       <c r="B11" s="120" t="s">
         <v>127</v>
       </c>
-      <c r="C11" s="338"/>
-      <c r="D11" s="338"/>
-      <c r="E11" s="338"/>
+      <c r="C11" s="360"/>
+      <c r="D11" s="360"/>
+      <c r="E11" s="360"/>
       <c r="F11" s="116" t="s">
         <v>128</v>
       </c>
@@ -7982,15 +7982,15 @@
       <c r="B13" s="120" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="339" t="s">
+      <c r="C13" s="361" t="s">
         <v>132</v>
       </c>
-      <c r="D13" s="340"/>
-      <c r="E13" s="341" t="s">
+      <c r="D13" s="362"/>
+      <c r="E13" s="363" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="342"/>
-      <c r="G13" s="343"/>
+      <c r="F13" s="364"/>
+      <c r="G13" s="365"/>
       <c r="H13" s="101"/>
       <c r="I13" s="101"/>
       <c r="J13" s="101"/>
@@ -8006,14 +8006,14 @@
       <c r="B14" s="125" t="s">
         <v>133</v>
       </c>
-      <c r="C14" s="344"/>
-      <c r="D14" s="345"/>
-      <c r="E14" s="346">
+      <c r="C14" s="366"/>
+      <c r="D14" s="367"/>
+      <c r="E14" s="368">
         <f>SUM(C14:D14)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="347"/>
-      <c r="G14" s="348"/>
+      <c r="F14" s="369"/>
+      <c r="G14" s="370"/>
       <c r="H14" s="116"/>
       <c r="I14" s="116"/>
       <c r="J14" s="116"/>
@@ -8030,12 +8030,12 @@
         <f>SUM(C14:D14)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="349">
+      <c r="E15" s="371">
         <f>SUM(C15:D15)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="350"/>
-      <c r="G15" s="351"/>
+      <c r="F15" s="372"/>
+      <c r="G15" s="373"/>
       <c r="H15" s="116"/>
       <c r="I15" s="116"/>
       <c r="J15" s="116"/>
@@ -8065,15 +8065,15 @@
         <v>135</v>
       </c>
       <c r="C17" s="140"/>
-      <c r="D17" s="352">
+      <c r="D17" s="374">
         <v>43983</v>
       </c>
-      <c r="E17" s="352"/>
-      <c r="F17" s="353">
+      <c r="E17" s="374"/>
+      <c r="F17" s="375">
         <v>43983</v>
       </c>
-      <c r="G17" s="353"/>
-      <c r="H17" s="353"/>
+      <c r="G17" s="375"/>
+      <c r="H17" s="375"/>
       <c r="I17" s="141"/>
       <c r="J17" s="142"/>
       <c r="K17" s="131"/>
@@ -8096,8 +8096,8 @@
         <v>30</v>
       </c>
       <c r="G18" s="148"/>
-      <c r="H18" s="354"/>
-      <c r="I18" s="355"/>
+      <c r="H18" s="376"/>
+      <c r="I18" s="377"/>
       <c r="L18" s="131"/>
       <c r="N18" s="149"/>
       <c r="O18" s="149"/>
@@ -8117,8 +8117,8 @@
         <v>30</v>
       </c>
       <c r="G19" s="155"/>
-      <c r="H19" s="356"/>
-      <c r="I19" s="357"/>
+      <c r="H19" s="378"/>
+      <c r="I19" s="379"/>
       <c r="J19" s="116" t="s">
         <v>138</v>
       </c>
@@ -8142,16 +8142,16 @@
       <c r="O20" s="162"/>
     </row>
     <row r="21" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="358" t="s">
+      <c r="B21" s="380" t="s">
         <v>139</v>
       </c>
-      <c r="C21" s="359"/>
-      <c r="D21" s="359"/>
-      <c r="E21" s="359"/>
-      <c r="F21" s="359"/>
-      <c r="G21" s="359"/>
-      <c r="H21" s="359"/>
-      <c r="I21" s="360"/>
+      <c r="C21" s="381"/>
+      <c r="D21" s="381"/>
+      <c r="E21" s="381"/>
+      <c r="F21" s="381"/>
+      <c r="G21" s="381"/>
+      <c r="H21" s="381"/>
+      <c r="I21" s="382"/>
       <c r="J21" s="163"/>
       <c r="K21" s="164"/>
       <c r="L21" s="131"/>
@@ -8169,11 +8169,11 @@
       <c r="E22" s="146"/>
       <c r="F22" s="166"/>
       <c r="G22" s="167"/>
-      <c r="H22" s="336">
+      <c r="H22" s="358">
         <f>C11+H19</f>
         <v>0</v>
       </c>
-      <c r="I22" s="337"/>
+      <c r="I22" s="359"/>
       <c r="J22" s="160"/>
       <c r="K22" s="164"/>
       <c r="L22" s="131"/>
@@ -8229,31 +8229,31 @@
       <c r="O25" s="162"/>
     </row>
     <row r="26" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="330" t="s">
+      <c r="B26" s="385" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="330"/>
-      <c r="D26" s="330"/>
-      <c r="E26" s="330"/>
-      <c r="F26" s="330"/>
-      <c r="G26" s="330"/>
-      <c r="H26" s="330"/>
-      <c r="I26" s="330"/>
-      <c r="J26" s="330"/>
+      <c r="C26" s="385"/>
+      <c r="D26" s="385"/>
+      <c r="E26" s="385"/>
+      <c r="F26" s="385"/>
+      <c r="G26" s="385"/>
+      <c r="H26" s="385"/>
+      <c r="I26" s="385"/>
+      <c r="J26" s="385"/>
       <c r="K26" s="164"/>
       <c r="N26" s="162"/>
       <c r="O26" s="162"/>
     </row>
     <row r="27" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="164"/>
-      <c r="B27" s="331"/>
-      <c r="C27" s="331"/>
+      <c r="B27" s="386"/>
+      <c r="C27" s="386"/>
       <c r="D27" s="178"/>
       <c r="E27" s="179"/>
       <c r="F27" s="179"/>
       <c r="G27" s="179"/>
       <c r="H27" s="180"/>
-      <c r="I27" s="332"/>
+      <c r="I27" s="387"/>
       <c r="J27" s="181"/>
       <c r="K27" s="164"/>
       <c r="N27" s="162"/>
@@ -8263,8 +8263,8 @@
       <c r="A28" s="164" t="s">
         <v>142</v>
       </c>
-      <c r="B28" s="334"/>
-      <c r="C28" s="334"/>
+      <c r="B28" s="389"/>
+      <c r="C28" s="389"/>
       <c r="D28" s="178" t="s">
         <v>143</v>
       </c>
@@ -8272,7 +8272,7 @@
       <c r="F28" s="101"/>
       <c r="G28" s="101"/>
       <c r="H28" s="101"/>
-      <c r="I28" s="333"/>
+      <c r="I28" s="388"/>
       <c r="J28" s="183"/>
       <c r="L28" s="98"/>
       <c r="M28" s="98"/>
@@ -8294,12 +8294,12 @@
     <row r="30" spans="1:15" s="164" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="101"/>
       <c r="C30" s="101"/>
-      <c r="D30" s="335">
+      <c r="D30" s="390">
         <f>H22</f>
         <v>0</v>
       </c>
-      <c r="E30" s="335"/>
-      <c r="F30" s="335"/>
+      <c r="E30" s="390"/>
+      <c r="F30" s="390"/>
       <c r="G30" s="185"/>
       <c r="H30" s="101"/>
       <c r="I30" s="101"/>
@@ -8361,9 +8361,9 @@
       <c r="D34" s="101"/>
       <c r="E34" s="101"/>
       <c r="F34" s="191"/>
-      <c r="G34" s="328"/>
-      <c r="H34" s="328"/>
-      <c r="I34" s="328"/>
+      <c r="G34" s="383"/>
+      <c r="H34" s="383"/>
+      <c r="I34" s="383"/>
       <c r="J34" s="192"/>
       <c r="L34" s="186"/>
       <c r="M34" s="186"/>
@@ -8374,11 +8374,11 @@
       <c r="D35" s="101"/>
       <c r="E35" s="101"/>
       <c r="F35" s="191"/>
-      <c r="G35" s="328">
+      <c r="G35" s="383">
         <v>43983</v>
       </c>
-      <c r="H35" s="328"/>
-      <c r="I35" s="328"/>
+      <c r="H35" s="383"/>
+      <c r="I35" s="383"/>
       <c r="J35" s="192"/>
       <c r="M35" s="193"/>
     </row>
@@ -8399,9 +8399,9 @@
       <c r="D37" s="101"/>
       <c r="E37" s="101"/>
       <c r="F37" s="101"/>
-      <c r="G37" s="328"/>
-      <c r="H37" s="328"/>
-      <c r="I37" s="328"/>
+      <c r="G37" s="383"/>
+      <c r="H37" s="383"/>
+      <c r="I37" s="383"/>
       <c r="J37" s="198"/>
       <c r="L37" s="186"/>
       <c r="M37" s="186"/>
@@ -8455,25 +8455,29 @@
       <c r="O41" s="102"/>
     </row>
     <row r="42" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="329" t="s">
+      <c r="B42" s="384" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="329"/>
-      <c r="D42" s="329"/>
-      <c r="E42" s="329"/>
-      <c r="F42" s="329"/>
-      <c r="G42" s="329"/>
-      <c r="H42" s="329"/>
-      <c r="I42" s="329"/>
+      <c r="C42" s="384"/>
+      <c r="D42" s="384"/>
+      <c r="E42" s="384"/>
+      <c r="F42" s="384"/>
+      <c r="G42" s="384"/>
+      <c r="H42" s="384"/>
+      <c r="I42" s="384"/>
       <c r="O42" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="B42:I42"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G34:I34"/>
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C13:D13"/>
@@ -8486,15 +8490,11 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="B21:I21"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="B42:I42"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:I4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/template/買取決済.xlsx
+++ b/template/買取決済.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\work\00_Wavesync\24_不動産管理システム\00_source\backend\kbs_backend\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10890515-A55D-4AA0-94AE-C9DD74BE7313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2EE57D-D5E4-4046-87CD-7EC7975D8855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,15 +77,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -430,19 +421,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>残代金合計：</t>
-    <rPh sb="0" eb="1">
-      <t>ザン</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ダイキン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ゴウケイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>＜振込先＞</t>
     <rPh sb="1" eb="4">
       <t>フリコミサキ</t>
@@ -1655,6 +1633,16 @@
     <t>作成者</t>
     <rPh sb="0" eb="3">
       <t>サクセイシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>代金合計：　</t>
+    <rPh sb="0" eb="2">
+      <t>ダイキン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゴウケイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2870,140 +2858,140 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="391">
+  <cellXfs count="385">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="197" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="197" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="178" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="178" fontId="15" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="178" fontId="18" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="178" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="15" fillId="0" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="189" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="189" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="15" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3012,82 +3000,82 @@
     <xf numFmtId="181" fontId="15" fillId="0" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="194" fontId="15" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="195" fontId="6" fillId="0" borderId="43" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="195" fontId="6" fillId="0" borderId="43" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="196" fontId="6" fillId="0" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="196" fontId="6" fillId="0" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="194" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3099,65 +3087,65 @@
     <xf numFmtId="194" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="181" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="58" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
@@ -3451,9 +3439,6 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3466,136 +3451,261 @@
     <xf numFmtId="58" fontId="28" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="22" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="64" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="66" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="67" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="22" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="15" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="15" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="15" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="15" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="2" applyBorder="1"/>
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="15" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="15" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="15" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="15" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="6" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="6" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="6" fillId="0" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="194" fontId="6" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3604,13 +3714,13 @@
     <xf numFmtId="194" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="194" fontId="6" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3637,274 +3747,227 @@
     <xf numFmtId="194" fontId="6" fillId="0" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="193" fontId="6" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="193" fontId="6" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="193" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="193" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="15" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="15" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="15" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="15" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="6" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="6" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="6" fillId="0" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="15" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="15" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="15" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="15" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="17" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="17" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="14" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="14" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="14" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="10" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="10" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="15" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="10" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="15" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="10" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="10" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="10" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="186" fontId="17" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="17" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="14" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="14" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="14" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="15" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="15" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="205" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="38" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="38" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="40" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="14" fillId="0" borderId="53" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="54" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="51" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="27" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="14" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="14" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="32" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="32" fillId="0" borderId="53" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="54" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="194" fontId="32" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="32" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3931,99 +3994,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="194" fontId="14" fillId="0" borderId="53" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="54" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="51" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="27" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="14" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="32" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="32" fillId="0" borderId="53" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="54" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="194" fontId="32" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="32" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="38" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="38" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="40" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -4048,7 +4018,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="概要"/>
@@ -5729,136 +5699,136 @@
   <sheetData>
     <row r="1" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="R1" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="R1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="202" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="203" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="204" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="202" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="202" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="202"/>
+      <c r="G2" s="202"/>
+      <c r="H2" s="202"/>
+      <c r="I2" s="202"/>
+      <c r="R2" s="4" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="208" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="226" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="227" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="208" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" s="208" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="208"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="208"/>
-      <c r="I2" s="208"/>
-      <c r="R2" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
     <row r="3" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="208"/>
-      <c r="B3" s="208"/>
-      <c r="C3" s="228"/>
-      <c r="D3" s="208"/>
+      <c r="A3" s="202"/>
+      <c r="B3" s="202"/>
+      <c r="C3" s="205"/>
+      <c r="D3" s="202"/>
       <c r="E3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="J3" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K3" s="208" t="s">
+        <v>80</v>
+      </c>
+      <c r="K3" s="202" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="208"/>
-      <c r="M3" s="224" t="s">
-        <v>182</v>
-      </c>
-      <c r="N3" s="224"/>
-      <c r="O3" s="208" t="s">
+      <c r="L3" s="202"/>
+      <c r="M3" s="211" t="s">
+        <v>181</v>
+      </c>
+      <c r="N3" s="211"/>
+      <c r="O3" s="202" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="208"/>
+      <c r="P3" s="202"/>
       <c r="R3" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="E4" s="13" t="s">
+      <c r="F4" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="G4" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="H4" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="I4" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="I4" s="13" t="s">
-        <v>92</v>
-      </c>
       <c r="J4" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="K4" s="219" t="s">
-        <v>181</v>
-      </c>
-      <c r="L4" s="219"/>
-      <c r="M4" s="225" t="s">
-        <v>183</v>
-      </c>
-      <c r="N4" s="225"/>
-      <c r="O4" s="209"/>
-      <c r="P4" s="209"/>
+        <v>150</v>
+      </c>
+      <c r="K4" s="206" t="s">
+        <v>180</v>
+      </c>
+      <c r="L4" s="206"/>
+      <c r="M4" s="212" t="s">
+        <v>182</v>
+      </c>
+      <c r="N4" s="212"/>
+      <c r="O4" s="213"/>
+      <c r="P4" s="213"/>
     </row>
     <row r="5" spans="1:18" s="23" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="19"/>
@@ -5876,61 +5846,61 @@
         <f>SUM(J4:J4)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="220">
+      <c r="K5" s="207">
         <f>SUM(K4:K4)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="220"/>
-      <c r="M5" s="225">
+      <c r="L5" s="207"/>
+      <c r="M5" s="212">
         <f>SUM(M4:M4)</f>
         <v>0</v>
       </c>
-      <c r="N5" s="225"/>
-      <c r="O5" s="210"/>
-      <c r="P5" s="210"/>
+      <c r="N5" s="212"/>
+      <c r="O5" s="214"/>
+      <c r="P5" s="214"/>
     </row>
     <row r="7" spans="1:18" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="8" spans="1:18" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="L8" s="207" t="s">
+      <c r="L8" s="201" t="s">
+        <v>201</v>
+      </c>
+      <c r="M8" s="201" t="s">
         <v>202</v>
       </c>
-      <c r="M8" s="207" t="s">
-        <v>203</v>
-      </c>
-      <c r="N8" s="211"/>
-      <c r="O8" s="212"/>
+      <c r="N8" s="215"/>
+      <c r="O8" s="216"/>
     </row>
     <row r="9" spans="1:18" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L9" s="221"/>
-      <c r="M9" s="221"/>
-      <c r="N9" s="213"/>
-      <c r="O9" s="214"/>
+      <c r="L9" s="208"/>
+      <c r="M9" s="208"/>
+      <c r="N9" s="217"/>
+      <c r="O9" s="218"/>
     </row>
     <row r="10" spans="1:18" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L10" s="222"/>
-      <c r="M10" s="222"/>
-      <c r="N10" s="215"/>
-      <c r="O10" s="216"/>
+      <c r="L10" s="209"/>
+      <c r="M10" s="209"/>
+      <c r="N10" s="219"/>
+      <c r="O10" s="220"/>
     </row>
     <row r="11" spans="1:18" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L11" s="222"/>
-      <c r="M11" s="222"/>
-      <c r="N11" s="215"/>
-      <c r="O11" s="216"/>
+      <c r="L11" s="209"/>
+      <c r="M11" s="209"/>
+      <c r="N11" s="219"/>
+      <c r="O11" s="220"/>
     </row>
     <row r="12" spans="1:18" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="L12" s="223"/>
-      <c r="M12" s="223"/>
-      <c r="N12" s="217"/>
-      <c r="O12" s="218"/>
+      <c r="L12" s="210"/>
+      <c r="M12" s="210"/>
+      <c r="N12" s="221"/>
+      <c r="O12" s="222"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O12"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="K5:L5"/>
@@ -5939,11 +5909,11 @@
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="M9:M12"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O12"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:I2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -5988,205 +5958,205 @@
   <sheetData>
     <row r="1" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="202" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="203" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="204" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="202" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2" s="202" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="208" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="226" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="227" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="208" t="s">
+      <c r="F2" s="202"/>
+      <c r="G2" s="202"/>
+      <c r="H2" s="202"/>
+      <c r="I2" s="202"/>
+    </row>
+    <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="202"/>
+      <c r="B3" s="202"/>
+      <c r="C3" s="205"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K3" s="202"/>
+      <c r="L3" s="202"/>
+      <c r="M3" s="211" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="211"/>
+      <c r="O3" s="202" t="s">
         <v>176</v>
       </c>
-      <c r="E2" s="208" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="208"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="208"/>
-      <c r="I2" s="208"/>
-    </row>
-    <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="208"/>
-      <c r="B3" s="208"/>
-      <c r="C3" s="228"/>
-      <c r="D3" s="208"/>
-      <c r="E3" s="201" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="G3" s="201" t="s">
-        <v>101</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="I3" s="201" t="s">
-        <v>103</v>
-      </c>
-      <c r="J3" s="201" t="s">
-        <v>81</v>
-      </c>
-      <c r="K3" s="208"/>
-      <c r="L3" s="208"/>
-      <c r="M3" s="224" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="224"/>
-      <c r="O3" s="208" t="s">
-        <v>177</v>
-      </c>
-      <c r="P3" s="208"/>
+      <c r="P3" s="202"/>
     </row>
     <row r="4" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="B4" s="201" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="E4" s="202" t="s">
+      <c r="F4" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="F4" s="202" t="s">
+      <c r="G4" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="G4" s="202" t="s">
+      <c r="H4" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="H4" s="202" t="s">
+      <c r="I4" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="I4" s="202" t="s">
+      <c r="J4" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="J4" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="K4" s="230"/>
-      <c r="L4" s="230"/>
-      <c r="M4" s="225" t="e">
+      <c r="K4" s="223"/>
+      <c r="L4" s="223"/>
+      <c r="M4" s="212" t="e">
         <f>J4+K4</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N4" s="225"/>
-      <c r="O4" s="209" t="s">
-        <v>160</v>
-      </c>
-      <c r="P4" s="209"/>
+      <c r="N4" s="212"/>
+      <c r="O4" s="213" t="s">
+        <v>159</v>
+      </c>
+      <c r="P4" s="213"/>
     </row>
     <row r="5" spans="1:16" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="B5" s="201" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="E5" s="202" t="s">
+      <c r="F5" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="F5" s="202" t="s">
+      <c r="G5" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="G5" s="202" t="s">
+      <c r="H5" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="H5" s="202" t="s">
+      <c r="I5" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="I5" s="202" t="s">
+      <c r="J5" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="J5" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="K5" s="230"/>
-      <c r="L5" s="230"/>
-      <c r="M5" s="225" t="e">
+      <c r="K5" s="223"/>
+      <c r="L5" s="223"/>
+      <c r="M5" s="212" t="e">
         <f>J5+K5</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N5" s="225"/>
-      <c r="O5" s="209" t="s">
-        <v>168</v>
-      </c>
-      <c r="P5" s="209"/>
+      <c r="N5" s="212"/>
+      <c r="O5" s="213" t="s">
+        <v>167</v>
+      </c>
+      <c r="P5" s="213"/>
     </row>
     <row r="6" spans="1:16" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="10"/>
-      <c r="B6" s="201"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="17"/>
-      <c r="D6" s="201"/>
-      <c r="E6" s="202"/>
-      <c r="F6" s="201"/>
-      <c r="G6" s="201"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
       <c r="J6" s="16"/>
-      <c r="K6" s="220"/>
-      <c r="L6" s="220"/>
-      <c r="M6" s="225"/>
-      <c r="N6" s="225"/>
-      <c r="O6" s="229"/>
-      <c r="P6" s="229"/>
+      <c r="K6" s="207"/>
+      <c r="L6" s="207"/>
+      <c r="M6" s="212"/>
+      <c r="N6" s="212"/>
+      <c r="O6" s="224"/>
+      <c r="P6" s="224"/>
     </row>
     <row r="7" spans="1:16" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="18"/>
-      <c r="B7" s="201"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="17"/>
-      <c r="D7" s="201"/>
-      <c r="E7" s="202"/>
-      <c r="F7" s="201"/>
-      <c r="G7" s="201"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
       <c r="J7" s="16"/>
-      <c r="K7" s="220"/>
-      <c r="L7" s="220"/>
-      <c r="M7" s="225"/>
-      <c r="N7" s="225"/>
-      <c r="O7" s="229"/>
-      <c r="P7" s="229"/>
+      <c r="K7" s="207"/>
+      <c r="L7" s="207"/>
+      <c r="M7" s="212"/>
+      <c r="N7" s="212"/>
+      <c r="O7" s="224"/>
+      <c r="P7" s="224"/>
     </row>
     <row r="8" spans="1:16" s="23" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="19"/>
@@ -6204,63 +6174,66 @@
         <f>SUM(J4:J7)</f>
         <v>0</v>
       </c>
-      <c r="K8" s="220">
+      <c r="K8" s="207">
         <f>SUM(K4:K7)</f>
         <v>0</v>
       </c>
-      <c r="L8" s="220"/>
-      <c r="M8" s="225" t="e">
+      <c r="L8" s="207"/>
+      <c r="M8" s="212" t="e">
         <f>SUM(M4:M7)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N8" s="225"/>
-      <c r="O8" s="210"/>
-      <c r="P8" s="210"/>
+      <c r="N8" s="212"/>
+      <c r="O8" s="214"/>
+      <c r="P8" s="214"/>
     </row>
     <row r="9" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="10" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="11" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="L11" s="207" t="s">
+      <c r="L11" s="201" t="s">
+        <v>201</v>
+      </c>
+      <c r="M11" s="201" t="s">
         <v>202</v>
       </c>
-      <c r="M11" s="207" t="s">
-        <v>203</v>
-      </c>
-      <c r="N11" s="211"/>
-      <c r="O11" s="212"/>
+      <c r="N11" s="215"/>
+      <c r="O11" s="216"/>
     </row>
     <row r="12" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L12" s="221"/>
-      <c r="M12" s="221"/>
-      <c r="N12" s="213"/>
-      <c r="O12" s="214"/>
+      <c r="L12" s="208"/>
+      <c r="M12" s="208"/>
+      <c r="N12" s="217"/>
+      <c r="O12" s="218"/>
     </row>
     <row r="13" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L13" s="222"/>
-      <c r="M13" s="222"/>
-      <c r="N13" s="215"/>
-      <c r="O13" s="216"/>
+      <c r="L13" s="209"/>
+      <c r="M13" s="209"/>
+      <c r="N13" s="219"/>
+      <c r="O13" s="220"/>
     </row>
     <row r="14" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L14" s="222"/>
-      <c r="M14" s="222"/>
-      <c r="N14" s="215"/>
-      <c r="O14" s="216"/>
+      <c r="L14" s="209"/>
+      <c r="M14" s="209"/>
+      <c r="N14" s="219"/>
+      <c r="O14" s="220"/>
     </row>
     <row r="15" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="L15" s="223"/>
-      <c r="M15" s="223"/>
-      <c r="N15" s="217"/>
-      <c r="O15" s="218"/>
+      <c r="L15" s="210"/>
+      <c r="M15" s="210"/>
+      <c r="N15" s="221"/>
+      <c r="O15" s="222"/>
     </row>
     <row r="16" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N12:O15"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O7:P7"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="L12:L15"/>
     <mergeCell ref="M3:N3"/>
@@ -6275,14 +6248,11 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="K7:L7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N12:O15"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:I2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="1.1417322834645669" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6307,75 +6277,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="H1" s="231" t="s">
-        <v>107</v>
-      </c>
-      <c r="I1" s="231"/>
+      <c r="H1" s="225" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" s="225"/>
       <c r="K1" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="236" t="s">
-        <v>189</v>
-      </c>
-      <c r="C2" s="236"/>
-      <c r="D2" s="236"/>
+      <c r="B2" s="234" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="234"/>
+      <c r="D2" s="234"/>
       <c r="E2" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K2" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G3" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F4" s="26"/>
-      <c r="G4" s="231" t="s">
-        <v>85</v>
-      </c>
-      <c r="H4" s="231"/>
-      <c r="I4" s="231"/>
+      <c r="G4" s="225" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" s="225"/>
+      <c r="I4" s="225"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G5" s="231" t="s">
-        <v>71</v>
-      </c>
-      <c r="H5" s="231"/>
-      <c r="I5" s="231"/>
+      <c r="G5" s="225" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="225"/>
+      <c r="I5" s="225"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G6" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="237" t="s">
-        <v>72</v>
-      </c>
-      <c r="I6" s="237"/>
+      <c r="H6" s="235" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="235"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G7" s="231" t="s">
-        <v>105</v>
-      </c>
-      <c r="H7" s="231"/>
-      <c r="I7" s="231"/>
+      <c r="G7" s="225" t="s">
+        <v>104</v>
+      </c>
+      <c r="H7" s="225"/>
+      <c r="I7" s="225"/>
     </row>
     <row r="8" spans="2:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="9" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="232" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="233"/>
-      <c r="E9" s="233"/>
-      <c r="F9" s="234" t="s">
+      <c r="C9" s="230" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="231"/>
+      <c r="E9" s="231"/>
+      <c r="F9" s="232" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="234"/>
-      <c r="H9" s="234"/>
+      <c r="G9" s="232"/>
+      <c r="H9" s="232"/>
     </row>
     <row r="10" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="11" spans="2:11" x14ac:dyDescent="0.55000000000000004">
@@ -6425,12 +6395,12 @@
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="235" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" s="235"/>
+      <c r="B17" s="233" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="233"/>
       <c r="D17" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E17" s="25" t="s">
         <v>26</v>
@@ -6452,57 +6422,57 @@
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="240" t="s">
-        <v>192</v>
-      </c>
-      <c r="C23" s="240"/>
-      <c r="D23" s="241" t="s">
-        <v>151</v>
-      </c>
-      <c r="E23" s="241"/>
-      <c r="F23" s="241"/>
+      <c r="B23" s="228" t="s">
+        <v>191</v>
+      </c>
+      <c r="C23" s="228"/>
+      <c r="D23" s="229" t="s">
+        <v>150</v>
+      </c>
+      <c r="E23" s="229"/>
+      <c r="F23" s="229"/>
       <c r="G23" s="32" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="231" t="s">
+      <c r="B24" s="225" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="231"/>
-      <c r="D24" s="241" t="s">
-        <v>181</v>
-      </c>
-      <c r="E24" s="241"/>
-      <c r="F24" s="241"/>
+      <c r="C24" s="225"/>
+      <c r="D24" s="229" t="s">
+        <v>180</v>
+      </c>
+      <c r="E24" s="229"/>
+      <c r="F24" s="229"/>
       <c r="G24" s="32" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="231" t="s">
+      <c r="B25" s="225" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="231"/>
-      <c r="D25" s="241" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="241"/>
-      <c r="F25" s="241"/>
+      <c r="C25" s="225"/>
+      <c r="D25" s="229" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="229"/>
+      <c r="F25" s="229"/>
       <c r="G25" s="32" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="231" t="s">
+      <c r="B26" s="225" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="231"/>
-      <c r="D26" s="241" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="241"/>
-      <c r="F26" s="241"/>
+      <c r="C26" s="225"/>
+      <c r="D26" s="229" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="229"/>
+      <c r="F26" s="229"/>
       <c r="G26" s="32" t="s">
         <v>33</v>
       </c>
@@ -6511,16 +6481,16 @@
       <c r="G27" s="32"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="231" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="231"/>
-      <c r="D28" s="238" t="e">
+      <c r="B28" s="225" t="s">
+        <v>203</v>
+      </c>
+      <c r="C28" s="225"/>
+      <c r="D28" s="226" t="e">
         <f>D23+D24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E28" s="238"/>
-      <c r="F28" s="238"/>
+      <c r="E28" s="226"/>
+      <c r="F28" s="226"/>
       <c r="G28" s="32" t="s">
         <v>32</v>
       </c>
@@ -6528,111 +6498,120 @@
     <row r="29" spans="2:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="231" t="s">
+      <c r="B31" s="225" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="225"/>
+      <c r="D31" s="225" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="231"/>
-      <c r="D31" s="231" t="s">
+      <c r="E31" s="225"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="225" t="s">
         <v>90</v>
       </c>
-      <c r="E31" s="231"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="231" t="s">
+      <c r="C32" s="225"/>
+      <c r="D32" s="225" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="231"/>
-      <c r="D32" s="231" t="s">
-        <v>92</v>
-      </c>
-      <c r="E32" s="231"/>
+      <c r="E32" s="225"/>
     </row>
     <row r="33" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="239" t="s">
-        <v>88</v>
-      </c>
-      <c r="C33" s="231"/>
-      <c r="D33" s="231"/>
+      <c r="B33" s="227" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="225"/>
+      <c r="D33" s="225"/>
       <c r="E33" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="25" t="s">
         <v>37</v>
-      </c>
-      <c r="B37" s="25" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="H6:I6"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="D32:E32"/>
@@ -6648,15 +6627,6 @@
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="H6:I6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -6704,61 +6674,61 @@
   <sheetData>
     <row r="1" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="33"/>
-      <c r="B1" s="295" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="295"/>
-      <c r="D1" s="295"/>
-      <c r="E1" s="295"/>
-      <c r="F1" s="295"/>
-      <c r="G1" s="295"/>
-      <c r="H1" s="295"/>
-      <c r="I1" s="295"/>
-      <c r="J1" s="295"/>
+      <c r="B1" s="240" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="240"/>
+      <c r="D1" s="240"/>
+      <c r="E1" s="240"/>
+      <c r="F1" s="240"/>
+      <c r="G1" s="240"/>
+      <c r="H1" s="240"/>
+      <c r="I1" s="240"/>
+      <c r="J1" s="240"/>
       <c r="K1" s="34"/>
       <c r="L1" s="34"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="3" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="296" t="s">
+      <c r="B3" s="241" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="242"/>
+      <c r="D3" s="243" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" s="244"/>
+      <c r="F3" s="245"/>
+      <c r="G3" s="257" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="258"/>
+      <c r="I3" s="246" t="s">
+        <v>108</v>
+      </c>
+      <c r="J3" s="247"/>
+      <c r="K3" s="248"/>
+      <c r="L3" s="37"/>
+    </row>
+    <row r="4" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="249" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="297"/>
-      <c r="D3" s="298" t="s">
-        <v>149</v>
-      </c>
-      <c r="E3" s="299"/>
-      <c r="F3" s="300"/>
-      <c r="G3" s="287" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="288"/>
-      <c r="I3" s="301" t="s">
-        <v>109</v>
-      </c>
-      <c r="J3" s="302"/>
-      <c r="K3" s="303"/>
-      <c r="L3" s="37"/>
-    </row>
-    <row r="4" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="304" t="s">
+      <c r="C4" s="250"/>
+      <c r="D4" s="251" t="s">
+        <v>188</v>
+      </c>
+      <c r="E4" s="252"/>
+      <c r="F4" s="253"/>
+      <c r="G4" s="259" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="305"/>
-      <c r="D4" s="306" t="s">
-        <v>189</v>
-      </c>
-      <c r="E4" s="307"/>
-      <c r="F4" s="308"/>
-      <c r="G4" s="312" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="313"/>
-      <c r="I4" s="309" t="s">
-        <v>95</v>
-      </c>
-      <c r="J4" s="310"/>
-      <c r="K4" s="311"/>
+      <c r="H4" s="260"/>
+      <c r="I4" s="254" t="s">
+        <v>94</v>
+      </c>
+      <c r="J4" s="255"/>
+      <c r="K4" s="256"/>
       <c r="L4" s="39"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -6772,98 +6742,98 @@
       <c r="J5" s="40"/>
     </row>
     <row r="6" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="284" t="s">
+      <c r="B6" s="279" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="36"/>
+      <c r="D6" s="257" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="287" t="s">
+      <c r="E6" s="258"/>
+      <c r="F6" s="257" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="288"/>
-      <c r="F6" s="287" t="s">
+      <c r="G6" s="282"/>
+      <c r="H6" s="282"/>
+      <c r="I6" s="257" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="289"/>
-      <c r="H6" s="289"/>
-      <c r="I6" s="287" t="s">
+      <c r="J6" s="282"/>
+      <c r="K6" s="283"/>
+      <c r="L6" s="41"/>
+    </row>
+    <row r="7" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="280"/>
+      <c r="C7" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="J6" s="289"/>
-      <c r="K6" s="290"/>
-      <c r="L6" s="41"/>
-    </row>
-    <row r="7" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="285"/>
-      <c r="C7" s="42" t="s">
+      <c r="D7" s="236" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="238"/>
+      <c r="F7" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="G7" s="239"/>
+      <c r="H7" s="238"/>
+      <c r="I7" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="291" t="s">
-        <v>110</v>
-      </c>
-      <c r="E7" s="292"/>
-      <c r="F7" s="291" t="s">
-        <v>111</v>
-      </c>
-      <c r="G7" s="293"/>
-      <c r="H7" s="292"/>
-      <c r="I7" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" s="291" t="e">
+      <c r="J7" s="236" t="e">
         <f>D7+F7</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K7" s="294"/>
+      <c r="K7" s="237"/>
       <c r="L7" s="44"/>
     </row>
     <row r="8" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="285"/>
+      <c r="B8" s="280"/>
       <c r="C8" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="236" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" s="238"/>
+      <c r="F8" s="236" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" s="239"/>
+      <c r="H8" s="239"/>
+      <c r="I8" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="291" t="s">
-        <v>114</v>
-      </c>
-      <c r="E8" s="292"/>
-      <c r="F8" s="291" t="s">
-        <v>115</v>
-      </c>
-      <c r="G8" s="293"/>
-      <c r="H8" s="293"/>
-      <c r="I8" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="J8" s="291" t="e">
+      <c r="J8" s="236" t="e">
         <f>D8+F8</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K8" s="294"/>
+      <c r="K8" s="237"/>
       <c r="L8" s="44"/>
     </row>
     <row r="9" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="286"/>
+      <c r="B9" s="281"/>
       <c r="C9" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="266">
+        <v>50</v>
+      </c>
+      <c r="D9" s="261">
         <f>SUM(D7:E8)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="267"/>
-      <c r="F9" s="266">
+      <c r="E9" s="262"/>
+      <c r="F9" s="261">
         <f>SUM(F7:H8)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="268"/>
-      <c r="H9" s="268"/>
+      <c r="G9" s="263"/>
+      <c r="H9" s="263"/>
       <c r="I9" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="J9" s="266">
+        <v>55</v>
+      </c>
+      <c r="J9" s="261">
         <f>D9+F9</f>
         <v>0</v>
       </c>
-      <c r="K9" s="269"/>
+      <c r="K9" s="264"/>
       <c r="L9" s="44"/>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -6877,134 +6847,134 @@
       <c r="J10" s="40"/>
     </row>
     <row r="11" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="270" t="s">
+      <c r="B11" s="265" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="266"/>
+      <c r="D11" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="271"/>
-      <c r="D11" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="274" t="s">
-        <v>112</v>
-      </c>
-      <c r="F11" s="275"/>
+      <c r="E11" s="269" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" s="270"/>
       <c r="G11" s="53" t="s">
-        <v>199</v>
-      </c>
-      <c r="H11" s="276" t="s">
         <v>198</v>
       </c>
-      <c r="I11" s="276"/>
-      <c r="J11" s="277" t="e">
+      <c r="H11" s="271" t="s">
+        <v>197</v>
+      </c>
+      <c r="I11" s="271"/>
+      <c r="J11" s="272" t="e">
         <f>H11-E11+1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K11" s="278"/>
+      <c r="K11" s="273"/>
       <c r="L11" s="48"/>
     </row>
     <row r="12" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="272"/>
-      <c r="C12" s="273"/>
+      <c r="B12" s="267"/>
+      <c r="C12" s="268"/>
       <c r="D12" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="279" t="s">
-        <v>113</v>
-      </c>
-      <c r="F12" s="280"/>
-      <c r="G12" s="206" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="274" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" s="275"/>
+      <c r="G12" s="200" t="s">
+        <v>198</v>
+      </c>
+      <c r="H12" s="276" t="s">
         <v>199</v>
       </c>
-      <c r="H12" s="281" t="s">
-        <v>200</v>
-      </c>
-      <c r="I12" s="281"/>
-      <c r="J12" s="282" t="e">
+      <c r="I12" s="276"/>
+      <c r="J12" s="277" t="e">
         <f>H12-E12+1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K12" s="283"/>
+      <c r="K12" s="278"/>
       <c r="L12" s="48"/>
     </row>
     <row r="13" spans="1:12" ht="10" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="14" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="247" t="s">
-        <v>60</v>
+      <c r="B14" s="289" t="s">
+        <v>59</v>
       </c>
       <c r="C14" s="50"/>
       <c r="D14" s="51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E14" s="52" t="e">
         <f>J12</f>
         <v>#VALUE!</v>
       </c>
       <c r="F14" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="261" t="e">
+        <v>60</v>
+      </c>
+      <c r="G14" s="303" t="e">
         <f>J$11+J$12</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H14" s="261"/>
-      <c r="I14" s="250" t="s">
-        <v>96</v>
-      </c>
-      <c r="J14" s="250"/>
-      <c r="K14" s="251"/>
+      <c r="H14" s="303"/>
+      <c r="I14" s="292" t="s">
+        <v>95</v>
+      </c>
+      <c r="J14" s="292"/>
+      <c r="K14" s="293"/>
       <c r="L14" s="54"/>
     </row>
     <row r="15" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="248"/>
+      <c r="B15" s="290"/>
       <c r="C15" s="55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15" s="56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E15" s="57" t="e">
         <f>J12</f>
         <v>#VALUE!</v>
       </c>
       <c r="F15" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="262" t="e">
+        <v>62</v>
+      </c>
+      <c r="G15" s="304" t="e">
         <f>J$11+J$12</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H15" s="262"/>
-      <c r="I15" s="252" t="s">
-        <v>97</v>
-      </c>
-      <c r="J15" s="252"/>
-      <c r="K15" s="253"/>
+      <c r="H15" s="304"/>
+      <c r="I15" s="294" t="s">
+        <v>96</v>
+      </c>
+      <c r="J15" s="294"/>
+      <c r="K15" s="295"/>
       <c r="L15" s="54"/>
     </row>
     <row r="16" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="248"/>
+      <c r="B16" s="290"/>
       <c r="C16" s="59"/>
       <c r="D16" s="60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E16" s="61"/>
       <c r="F16" s="62"/>
-      <c r="G16" s="263"/>
-      <c r="H16" s="263"/>
+      <c r="G16" s="305"/>
+      <c r="H16" s="305"/>
       <c r="I16" s="63" t="s">
-        <v>64</v>
-      </c>
-      <c r="J16" s="254" t="e">
+        <v>63</v>
+      </c>
+      <c r="J16" s="296" t="e">
         <f>I14+I15</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K16" s="255"/>
+      <c r="K16" s="297"/>
       <c r="L16" s="54"/>
     </row>
     <row r="17" spans="2:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="249"/>
+      <c r="B17" s="291"/>
       <c r="C17" s="64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D17" s="65"/>
       <c r="E17" s="66" t="str">
@@ -7012,19 +6982,19 @@
         <v>（C）</v>
       </c>
       <c r="F17" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="G17" s="264" t="str">
+        <v>65</v>
+      </c>
+      <c r="G17" s="306" t="str">
         <f>I16</f>
         <v>（Ｄ）</v>
       </c>
-      <c r="H17" s="264"/>
+      <c r="H17" s="306"/>
       <c r="I17" s="68"/>
-      <c r="J17" s="256" t="e">
+      <c r="J17" s="298" t="e">
         <f>J9-J16</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K17" s="257"/>
+      <c r="K17" s="299"/>
       <c r="L17" s="54"/>
     </row>
     <row r="18" spans="2:12" ht="8.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -7032,22 +7002,22 @@
       <c r="J18" s="69"/>
     </row>
     <row r="19" spans="2:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="258" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="259"/>
-      <c r="D19" s="260"/>
+      <c r="B19" s="300" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="301"/>
+      <c r="D19" s="302"/>
       <c r="E19" s="70"/>
       <c r="F19" s="70"/>
-      <c r="G19" s="265"/>
-      <c r="H19" s="265"/>
+      <c r="G19" s="307"/>
+      <c r="H19" s="307"/>
       <c r="I19" s="71" t="s">
-        <v>68</v>
-      </c>
-      <c r="J19" s="245" t="s">
-        <v>98</v>
-      </c>
-      <c r="K19" s="246"/>
+        <v>67</v>
+      </c>
+      <c r="J19" s="287" t="s">
+        <v>97</v>
+      </c>
+      <c r="K19" s="288"/>
       <c r="L19" s="54"/>
     </row>
     <row r="20" spans="2:12" ht="8.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -7057,22 +7027,22 @@
       <c r="J20" s="73"/>
     </row>
     <row r="21" spans="2:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="242" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="243"/>
-      <c r="D21" s="244"/>
+      <c r="B21" s="284" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="285"/>
+      <c r="D21" s="286"/>
       <c r="E21" s="70"/>
       <c r="F21" s="70"/>
-      <c r="G21" s="265"/>
-      <c r="H21" s="265"/>
+      <c r="G21" s="307"/>
+      <c r="H21" s="307"/>
       <c r="I21" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="J21" s="245" t="s">
-        <v>181</v>
-      </c>
-      <c r="K21" s="246"/>
+        <v>69</v>
+      </c>
+      <c r="J21" s="287" t="s">
+        <v>180</v>
+      </c>
+      <c r="K21" s="288"/>
       <c r="L21" s="74"/>
     </row>
     <row r="22" spans="2:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -7083,19 +7053,21 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G21:H21"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="J9:K9"/>
@@ -7112,21 +7084,19 @@
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -7160,16 +7130,16 @@
     </row>
     <row r="2" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="33"/>
-      <c r="B2" s="337" t="s">
+      <c r="B2" s="308" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="337"/>
-      <c r="D2" s="337"/>
-      <c r="E2" s="337"/>
-      <c r="F2" s="337"/>
-      <c r="G2" s="337"/>
-      <c r="H2" s="337"/>
-      <c r="I2" s="337"/>
+      <c r="C2" s="308"/>
+      <c r="D2" s="308"/>
+      <c r="E2" s="308"/>
+      <c r="F2" s="308"/>
+      <c r="G2" s="308"/>
+      <c r="H2" s="308"/>
+      <c r="I2" s="308"/>
       <c r="J2" s="34"/>
     </row>
     <row r="3" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -7184,32 +7154,32 @@
       <c r="I4" s="91"/>
     </row>
     <row r="5" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="338" t="s">
+      <c r="B5" s="309" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="338"/>
-      <c r="D5" s="338"/>
-      <c r="E5" s="338"/>
+      <c r="C5" s="309"/>
+      <c r="D5" s="309"/>
+      <c r="E5" s="309"/>
       <c r="F5" s="78" t="s">
         <v>8</v>
       </c>
       <c r="I5" s="92"/>
-      <c r="L5" s="314" t="s">
-        <v>188</v>
+      <c r="L5" s="318" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L6" s="315"/>
+      <c r="L6" s="319"/>
     </row>
     <row r="7" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" s="339" t="e">
+      <c r="D7" s="310" t="e">
         <f>G13+G14</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E7" s="340"/>
-      <c r="F7" s="340"/>
-      <c r="G7" s="340"/>
-      <c r="H7" s="341"/>
+      <c r="E7" s="311"/>
+      <c r="F7" s="311"/>
+      <c r="G7" s="311"/>
+      <c r="H7" s="312"/>
       <c r="I7" s="41"/>
       <c r="J7" s="79"/>
     </row>
@@ -7230,94 +7200,94 @@
       <c r="J9" s="79"/>
     </row>
     <row r="10" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="342" t="s">
+      <c r="B10" s="313" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="343"/>
-      <c r="D10" s="344" t="s">
-        <v>149</v>
-      </c>
-      <c r="E10" s="345"/>
-      <c r="F10" s="345"/>
-      <c r="G10" s="345"/>
-      <c r="H10" s="345"/>
-      <c r="I10" s="346"/>
+      <c r="C10" s="314"/>
+      <c r="D10" s="315" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" s="316"/>
+      <c r="F10" s="316"/>
+      <c r="G10" s="316"/>
+      <c r="H10" s="316"/>
+      <c r="I10" s="317"/>
       <c r="J10" s="79"/>
       <c r="L10" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J11" s="83"/>
       <c r="L11" s="35" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="322" t="s">
+      <c r="B12" s="326" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="323"/>
-      <c r="D12" s="323"/>
-      <c r="E12" s="323"/>
-      <c r="F12" s="323"/>
-      <c r="G12" s="323" t="s">
+      <c r="C12" s="327"/>
+      <c r="D12" s="327"/>
+      <c r="E12" s="327"/>
+      <c r="F12" s="327"/>
+      <c r="G12" s="327" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="323"/>
-      <c r="I12" s="324"/>
+      <c r="H12" s="327"/>
+      <c r="I12" s="328"/>
       <c r="J12" s="83"/>
       <c r="L12" s="35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="325" t="s">
-        <v>190</v>
-      </c>
-      <c r="C13" s="326"/>
-      <c r="D13" s="326"/>
-      <c r="E13" s="326"/>
-      <c r="F13" s="327"/>
-      <c r="G13" s="328" t="s">
-        <v>180</v>
-      </c>
-      <c r="H13" s="329"/>
-      <c r="I13" s="330"/>
+      <c r="B13" s="329" t="s">
+        <v>189</v>
+      </c>
+      <c r="C13" s="330"/>
+      <c r="D13" s="330"/>
+      <c r="E13" s="330"/>
+      <c r="F13" s="331"/>
+      <c r="G13" s="332" t="s">
+        <v>179</v>
+      </c>
+      <c r="H13" s="333"/>
+      <c r="I13" s="334"/>
       <c r="J13" s="83"/>
       <c r="L13" s="35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="331" t="s">
-        <v>201</v>
-      </c>
-      <c r="C14" s="332"/>
-      <c r="D14" s="332"/>
-      <c r="E14" s="332"/>
-      <c r="F14" s="333"/>
-      <c r="G14" s="328" t="s">
-        <v>184</v>
-      </c>
-      <c r="H14" s="329"/>
-      <c r="I14" s="330"/>
+      <c r="B14" s="335" t="s">
+        <v>200</v>
+      </c>
+      <c r="C14" s="336"/>
+      <c r="D14" s="336"/>
+      <c r="E14" s="336"/>
+      <c r="F14" s="337"/>
+      <c r="G14" s="332" t="s">
+        <v>183</v>
+      </c>
+      <c r="H14" s="333"/>
+      <c r="I14" s="334"/>
       <c r="J14" s="83"/>
       <c r="L14" s="35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="319" t="s">
+      <c r="B15" s="323" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="320"/>
-      <c r="D15" s="320"/>
-      <c r="E15" s="320"/>
-      <c r="F15" s="321"/>
-      <c r="G15" s="334"/>
-      <c r="H15" s="335"/>
-      <c r="I15" s="336"/>
+      <c r="C15" s="324"/>
+      <c r="D15" s="324"/>
+      <c r="E15" s="324"/>
+      <c r="F15" s="325"/>
+      <c r="G15" s="338"/>
+      <c r="H15" s="339"/>
+      <c r="I15" s="340"/>
     </row>
     <row r="16" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="84"/>
@@ -7330,10 +7300,10 @@
       <c r="I16" s="86"/>
     </row>
     <row r="17" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="318" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="318"/>
+      <c r="B17" s="322" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="322"/>
       <c r="D17" s="93" t="s">
         <v>17</v>
       </c>
@@ -7358,31 +7328,31 @@
       <c r="E19" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="273"/>
-      <c r="G19" s="273"/>
-      <c r="H19" s="273"/>
-      <c r="I19" s="273"/>
-      <c r="J19" s="273"/>
+      <c r="F19" s="268"/>
+      <c r="G19" s="268"/>
+      <c r="H19" s="268"/>
+      <c r="I19" s="268"/>
+      <c r="J19" s="268"/>
     </row>
     <row r="20" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" s="87"/>
       <c r="E20" s="88"/>
-      <c r="F20" s="316"/>
-      <c r="G20" s="316"/>
-      <c r="H20" s="316"/>
-      <c r="I20" s="316"/>
+      <c r="F20" s="320"/>
+      <c r="G20" s="320"/>
+      <c r="H20" s="320"/>
+      <c r="I20" s="320"/>
     </row>
     <row r="21" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="317" t="s">
+      <c r="F21" s="321" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="317"/>
-      <c r="H21" s="317"/>
-      <c r="I21" s="317"/>
-      <c r="J21" s="317"/>
+      <c r="G21" s="321"/>
+      <c r="H21" s="321"/>
+      <c r="I21" s="321"/>
+      <c r="J21" s="321"/>
     </row>
     <row r="22" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E22" s="88"/>
@@ -7415,11 +7385,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:I10"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="F19:J19"/>
     <mergeCell ref="F20:I20"/>
@@ -7433,6 +7398,11 @@
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:I10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -7468,17 +7438,17 @@
     </row>
     <row r="2" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="33"/>
-      <c r="B2" s="337" t="s">
+      <c r="B2" s="308" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="337"/>
-      <c r="D2" s="337"/>
-      <c r="E2" s="337"/>
-      <c r="F2" s="337"/>
-      <c r="G2" s="337"/>
-      <c r="H2" s="337"/>
-      <c r="I2" s="337"/>
-      <c r="J2" s="203"/>
+      <c r="C2" s="308"/>
+      <c r="D2" s="308"/>
+      <c r="E2" s="308"/>
+      <c r="F2" s="308"/>
+      <c r="G2" s="308"/>
+      <c r="H2" s="308"/>
+      <c r="I2" s="308"/>
+      <c r="J2" s="34"/>
     </row>
     <row r="3" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="4" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -7492,12 +7462,12 @@
       <c r="I4" s="91"/>
     </row>
     <row r="5" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="338" t="s">
+      <c r="B5" s="309" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="338"/>
-      <c r="D5" s="338"/>
-      <c r="E5" s="338"/>
+      <c r="C5" s="309"/>
+      <c r="D5" s="309"/>
+      <c r="E5" s="309"/>
       <c r="F5" s="78" t="s">
         <v>8</v>
       </c>
@@ -7505,14 +7475,14 @@
     </row>
     <row r="6" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" s="339" t="e">
+      <c r="D7" s="310" t="e">
         <f>G13+G14</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E7" s="340"/>
-      <c r="F7" s="340"/>
-      <c r="G7" s="340"/>
-      <c r="H7" s="341"/>
+      <c r="E7" s="311"/>
+      <c r="F7" s="311"/>
+      <c r="G7" s="311"/>
+      <c r="H7" s="312"/>
       <c r="I7" s="41"/>
       <c r="J7" s="79"/>
     </row>
@@ -7533,118 +7503,110 @@
       <c r="J9" s="79"/>
     </row>
     <row r="10" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="342" t="s">
+      <c r="B10" s="313" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="343"/>
-      <c r="D10" s="344" t="s">
-        <v>149</v>
-      </c>
-      <c r="E10" s="345"/>
-      <c r="F10" s="345"/>
-      <c r="G10" s="345"/>
-      <c r="H10" s="345"/>
-      <c r="I10" s="346"/>
+      <c r="C10" s="314"/>
+      <c r="D10" s="315" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" s="316"/>
+      <c r="F10" s="316"/>
+      <c r="G10" s="316"/>
+      <c r="H10" s="316"/>
+      <c r="I10" s="317"/>
       <c r="J10" s="79"/>
-      <c r="L10" s="347">
+      <c r="L10" s="341">
         <v>8250000</v>
       </c>
-      <c r="M10" s="347"/>
-      <c r="N10" s="347"/>
-      <c r="O10" s="347"/>
-      <c r="P10" s="347"/>
+      <c r="M10" s="341"/>
+      <c r="N10" s="341"/>
+      <c r="O10" s="341"/>
+      <c r="P10" s="341"/>
     </row>
     <row r="11" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J11" s="83"/>
-      <c r="L11" s="205" t="s">
+      <c r="L11" s="35" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="326" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="327"/>
+      <c r="D12" s="327"/>
+      <c r="E12" s="327"/>
+      <c r="F12" s="327"/>
+      <c r="G12" s="327" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="327"/>
+      <c r="I12" s="328"/>
+      <c r="J12" s="83"/>
+      <c r="L12" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="M11" s="205"/>
-      <c r="N11" s="205"/>
-    </row>
-    <row r="12" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="322" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="323"/>
-      <c r="D12" s="323"/>
-      <c r="E12" s="323"/>
-      <c r="F12" s="323"/>
-      <c r="G12" s="323" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="323"/>
-      <c r="I12" s="324"/>
-      <c r="J12" s="83"/>
-      <c r="L12" s="205" t="s">
+    </row>
+    <row r="13" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="329" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" s="330"/>
+      <c r="D13" s="330"/>
+      <c r="E13" s="330"/>
+      <c r="F13" s="331"/>
+      <c r="G13" s="332" t="s">
+        <v>166</v>
+      </c>
+      <c r="H13" s="333"/>
+      <c r="I13" s="334"/>
+      <c r="J13" s="83"/>
+      <c r="L13" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="M12" s="205"/>
-      <c r="N12" s="205"/>
-    </row>
-    <row r="13" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="325" t="s">
+    </row>
+    <row r="14" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="335" t="s">
         <v>170</v>
       </c>
-      <c r="C13" s="326"/>
-      <c r="D13" s="326"/>
-      <c r="E13" s="326"/>
-      <c r="F13" s="327"/>
-      <c r="G13" s="328" t="s">
-        <v>167</v>
-      </c>
-      <c r="H13" s="329"/>
-      <c r="I13" s="330"/>
-      <c r="J13" s="83"/>
-      <c r="L13" s="205" t="s">
+      <c r="C14" s="336"/>
+      <c r="D14" s="336"/>
+      <c r="E14" s="336"/>
+      <c r="F14" s="337"/>
+      <c r="G14" s="332"/>
+      <c r="H14" s="333"/>
+      <c r="I14" s="334"/>
+      <c r="J14" s="83"/>
+      <c r="L14" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="M13" s="205"/>
-      <c r="N13" s="205"/>
-    </row>
-    <row r="14" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="331" t="s">
-        <v>171</v>
-      </c>
-      <c r="C14" s="332"/>
-      <c r="D14" s="332"/>
-      <c r="E14" s="332"/>
-      <c r="F14" s="333"/>
-      <c r="G14" s="328"/>
-      <c r="H14" s="329"/>
-      <c r="I14" s="330"/>
-      <c r="J14" s="83"/>
-      <c r="L14" s="205" t="s">
-        <v>175</v>
-      </c>
-      <c r="M14" s="205"/>
-      <c r="N14" s="205"/>
     </row>
     <row r="15" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="319"/>
-      <c r="C15" s="320"/>
-      <c r="D15" s="320"/>
-      <c r="E15" s="320"/>
-      <c r="F15" s="321"/>
-      <c r="G15" s="334"/>
-      <c r="H15" s="335"/>
-      <c r="I15" s="336"/>
+      <c r="B15" s="323"/>
+      <c r="C15" s="324"/>
+      <c r="D15" s="324"/>
+      <c r="E15" s="324"/>
+      <c r="F15" s="325"/>
+      <c r="G15" s="338"/>
+      <c r="H15" s="339"/>
+      <c r="I15" s="340"/>
     </row>
     <row r="16" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="204"/>
-      <c r="C16" s="204"/>
-      <c r="D16" s="204"/>
-      <c r="E16" s="204"/>
-      <c r="F16" s="204"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
       <c r="G16" s="85"/>
       <c r="H16" s="86"/>
       <c r="I16" s="86"/>
     </row>
     <row r="17" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="318" t="s">
-        <v>197</v>
-      </c>
-      <c r="C17" s="318"/>
+      <c r="B17" s="322" t="s">
+        <v>196</v>
+      </c>
+      <c r="C17" s="322"/>
       <c r="D17" s="93" t="s">
         <v>17</v>
       </c>
@@ -7669,31 +7631,31 @@
       <c r="E19" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="273"/>
-      <c r="G19" s="273"/>
-      <c r="H19" s="273"/>
-      <c r="I19" s="273"/>
-      <c r="J19" s="273"/>
+      <c r="F19" s="268"/>
+      <c r="G19" s="268"/>
+      <c r="H19" s="268"/>
+      <c r="I19" s="268"/>
+      <c r="J19" s="268"/>
     </row>
     <row r="20" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" s="87"/>
       <c r="E20" s="88"/>
-      <c r="F20" s="316"/>
-      <c r="G20" s="316"/>
-      <c r="H20" s="316"/>
-      <c r="I20" s="316"/>
+      <c r="F20" s="320"/>
+      <c r="G20" s="320"/>
+      <c r="H20" s="320"/>
+      <c r="I20" s="320"/>
     </row>
     <row r="21" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="317" t="s">
+      <c r="F21" s="321" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="317"/>
-      <c r="H21" s="317"/>
-      <c r="I21" s="317"/>
-      <c r="J21" s="317"/>
+      <c r="G21" s="321"/>
+      <c r="H21" s="321"/>
+      <c r="I21" s="321"/>
+      <c r="J21" s="321"/>
     </row>
     <row r="22" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E22" s="88"/>
@@ -7726,6 +7688,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:I10"/>
     <mergeCell ref="L10:P10"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="F19:J19"/>
@@ -7739,11 +7706,6 @@
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:I10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -7780,28 +7742,28 @@
   <sheetData>
     <row r="1" spans="1:15" ht="6.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="97"/>
-      <c r="M1" s="200"/>
-      <c r="N1" s="200"/>
-      <c r="O1" s="200"/>
+      <c r="M1" s="199"/>
+      <c r="N1" s="199"/>
+      <c r="O1" s="199"/>
     </row>
     <row r="2" spans="1:15" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="99"/>
-      <c r="B2" s="352" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="352"/>
-      <c r="D2" s="352"/>
-      <c r="E2" s="352"/>
-      <c r="F2" s="352"/>
-      <c r="G2" s="352"/>
-      <c r="H2" s="352"/>
-      <c r="I2" s="352"/>
+      <c r="B2" s="379" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="379"/>
+      <c r="D2" s="379"/>
+      <c r="E2" s="379"/>
+      <c r="F2" s="379"/>
+      <c r="G2" s="379"/>
+      <c r="H2" s="379"/>
+      <c r="I2" s="379"/>
       <c r="J2" s="100"/>
       <c r="K2" s="100"/>
       <c r="L2" s="100"/>
-      <c r="M2" s="199"/>
-      <c r="N2" s="199"/>
-      <c r="O2" s="199"/>
+      <c r="M2" s="198"/>
+      <c r="N2" s="198"/>
+      <c r="O2" s="198"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="101"/>
@@ -7816,47 +7778,47 @@
     </row>
     <row r="4" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="103" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="353"/>
-      <c r="D4" s="354"/>
-      <c r="E4" s="355"/>
+        <v>44</v>
+      </c>
+      <c r="C4" s="380"/>
+      <c r="D4" s="381"/>
+      <c r="E4" s="382"/>
       <c r="F4" s="104" t="s">
-        <v>120</v>
-      </c>
-      <c r="G4" s="356">
+        <v>119</v>
+      </c>
+      <c r="G4" s="383">
         <v>43983</v>
       </c>
-      <c r="H4" s="356"/>
-      <c r="I4" s="357"/>
+      <c r="H4" s="383"/>
+      <c r="I4" s="384"/>
       <c r="J4" s="105"/>
       <c r="K4" s="106"/>
       <c r="L4" s="106"/>
       <c r="M4" s="107" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N4" s="107" t="s">
+        <v>120</v>
+      </c>
+      <c r="O4" s="107" t="s">
         <v>121</v>
-      </c>
-      <c r="O4" s="107" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="108" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="375"/>
+      <c r="D5" s="376"/>
+      <c r="E5" s="376"/>
+      <c r="F5" s="109" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="348"/>
-      <c r="D5" s="349"/>
-      <c r="E5" s="349"/>
-      <c r="F5" s="109" t="s">
+      <c r="G5" s="377" t="s">
         <v>124</v>
       </c>
-      <c r="G5" s="350" t="s">
-        <v>125</v>
-      </c>
-      <c r="H5" s="350"/>
-      <c r="I5" s="351"/>
+      <c r="H5" s="377"/>
+      <c r="I5" s="378"/>
       <c r="J5" s="105"/>
       <c r="M5" s="110">
         <v>43516</v>
@@ -7870,7 +7832,7 @@
     </row>
     <row r="6" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="114" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C6" s="115"/>
       <c r="D6" s="105"/>
@@ -7942,27 +7904,27 @@
     </row>
     <row r="11" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="120" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="352"/>
+      <c r="D11" s="352"/>
+      <c r="E11" s="352"/>
+      <c r="F11" s="116" t="s">
         <v>127</v>
-      </c>
-      <c r="C11" s="360"/>
-      <c r="D11" s="360"/>
-      <c r="E11" s="360"/>
-      <c r="F11" s="116" t="s">
-        <v>128</v>
       </c>
       <c r="G11" s="101"/>
       <c r="H11" s="101"/>
       <c r="I11" s="101"/>
       <c r="J11" s="101"/>
       <c r="M11" s="107" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N11" s="121"/>
       <c r="O11" s="121"/>
     </row>
     <row r="12" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="101" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" s="101"/>
       <c r="D12" s="101"/>
@@ -7973,24 +7935,24 @@
       <c r="I12" s="101"/>
       <c r="J12" s="101"/>
       <c r="M12" s="107" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N12" s="121"/>
       <c r="O12" s="121"/>
     </row>
     <row r="13" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="120" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="353" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="361" t="s">
-        <v>132</v>
-      </c>
-      <c r="D13" s="362"/>
-      <c r="E13" s="363" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="364"/>
-      <c r="G13" s="365"/>
+      <c r="D13" s="354"/>
+      <c r="E13" s="355" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="356"/>
+      <c r="G13" s="357"/>
       <c r="H13" s="101"/>
       <c r="I13" s="101"/>
       <c r="J13" s="101"/>
@@ -8004,16 +7966,16 @@
     </row>
     <row r="14" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="125" t="s">
-        <v>133</v>
-      </c>
-      <c r="C14" s="366"/>
-      <c r="D14" s="367"/>
-      <c r="E14" s="368">
+        <v>132</v>
+      </c>
+      <c r="C14" s="358"/>
+      <c r="D14" s="359"/>
+      <c r="E14" s="360">
         <f>SUM(C14:D14)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="369"/>
-      <c r="G14" s="370"/>
+      <c r="F14" s="361"/>
+      <c r="G14" s="362"/>
       <c r="H14" s="116"/>
       <c r="I14" s="116"/>
       <c r="J14" s="116"/>
@@ -8023,19 +7985,19 @@
     </row>
     <row r="15" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="120" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C15" s="128"/>
       <c r="D15" s="129">
         <f>SUM(C14:D14)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="371">
+      <c r="E15" s="363">
         <f>SUM(C15:D15)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="372"/>
-      <c r="G15" s="373"/>
+      <c r="F15" s="364"/>
+      <c r="G15" s="365"/>
       <c r="H15" s="116"/>
       <c r="I15" s="116"/>
       <c r="J15" s="116"/>
@@ -8062,18 +8024,18 @@
     </row>
     <row r="17" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="139" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C17" s="140"/>
-      <c r="D17" s="374">
+      <c r="D17" s="366">
         <v>43983</v>
       </c>
-      <c r="E17" s="374"/>
-      <c r="F17" s="375">
+      <c r="E17" s="366"/>
+      <c r="F17" s="367">
         <v>43983</v>
       </c>
-      <c r="G17" s="375"/>
-      <c r="H17" s="375"/>
+      <c r="G17" s="367"/>
+      <c r="H17" s="367"/>
       <c r="I17" s="141"/>
       <c r="J17" s="142"/>
       <c r="K17" s="131"/>
@@ -8083,44 +8045,44 @@
     </row>
     <row r="18" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="143" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C18" s="144"/>
       <c r="D18" s="145">
         <v>1</v>
       </c>
       <c r="E18" s="146" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F18" s="147">
         <v>30</v>
       </c>
       <c r="G18" s="148"/>
-      <c r="H18" s="376"/>
-      <c r="I18" s="377"/>
+      <c r="H18" s="368"/>
+      <c r="I18" s="369"/>
       <c r="L18" s="131"/>
       <c r="N18" s="149"/>
       <c r="O18" s="149"/>
     </row>
     <row r="19" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="150" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C19" s="151"/>
       <c r="D19" s="152">
         <v>29</v>
       </c>
       <c r="E19" s="153" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F19" s="154">
         <v>30</v>
       </c>
       <c r="G19" s="155"/>
-      <c r="H19" s="378"/>
-      <c r="I19" s="379"/>
+      <c r="H19" s="370"/>
+      <c r="I19" s="371"/>
       <c r="J19" s="116" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L19" s="131"/>
       <c r="N19" s="149"/>
@@ -8142,16 +8104,16 @@
       <c r="O20" s="162"/>
     </row>
     <row r="21" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="380" t="s">
-        <v>139</v>
-      </c>
-      <c r="C21" s="381"/>
-      <c r="D21" s="381"/>
-      <c r="E21" s="381"/>
-      <c r="F21" s="381"/>
-      <c r="G21" s="381"/>
-      <c r="H21" s="381"/>
-      <c r="I21" s="382"/>
+      <c r="B21" s="372" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" s="373"/>
+      <c r="D21" s="373"/>
+      <c r="E21" s="373"/>
+      <c r="F21" s="373"/>
+      <c r="G21" s="373"/>
+      <c r="H21" s="373"/>
+      <c r="I21" s="374"/>
       <c r="J21" s="163"/>
       <c r="K21" s="164"/>
       <c r="L21" s="131"/>
@@ -8160,20 +8122,20 @@
     </row>
     <row r="22" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="143" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C22" s="144"/>
       <c r="D22" s="165" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E22" s="146"/>
       <c r="F22" s="166"/>
       <c r="G22" s="167"/>
-      <c r="H22" s="358">
+      <c r="H22" s="350">
         <f>C11+H19</f>
         <v>0</v>
       </c>
-      <c r="I22" s="359"/>
+      <c r="I22" s="351"/>
       <c r="J22" s="160"/>
       <c r="K22" s="164"/>
       <c r="L22" s="131"/>
@@ -8229,31 +8191,31 @@
       <c r="O25" s="162"/>
     </row>
     <row r="26" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="385" t="s">
+      <c r="B26" s="344" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="385"/>
-      <c r="D26" s="385"/>
-      <c r="E26" s="385"/>
-      <c r="F26" s="385"/>
-      <c r="G26" s="385"/>
-      <c r="H26" s="385"/>
-      <c r="I26" s="385"/>
-      <c r="J26" s="385"/>
+      <c r="C26" s="344"/>
+      <c r="D26" s="344"/>
+      <c r="E26" s="344"/>
+      <c r="F26" s="344"/>
+      <c r="G26" s="344"/>
+      <c r="H26" s="344"/>
+      <c r="I26" s="344"/>
+      <c r="J26" s="344"/>
       <c r="K26" s="164"/>
       <c r="N26" s="162"/>
       <c r="O26" s="162"/>
     </row>
     <row r="27" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="164"/>
-      <c r="B27" s="386"/>
-      <c r="C27" s="386"/>
+      <c r="B27" s="345"/>
+      <c r="C27" s="345"/>
       <c r="D27" s="178"/>
       <c r="E27" s="179"/>
       <c r="F27" s="179"/>
       <c r="G27" s="179"/>
       <c r="H27" s="180"/>
-      <c r="I27" s="387"/>
+      <c r="I27" s="346"/>
       <c r="J27" s="181"/>
       <c r="K27" s="164"/>
       <c r="N27" s="162"/>
@@ -8261,18 +8223,18 @@
     </row>
     <row r="28" spans="1:15" s="164" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="164" t="s">
+        <v>141</v>
+      </c>
+      <c r="B28" s="348"/>
+      <c r="C28" s="348"/>
+      <c r="D28" s="178" t="s">
         <v>142</v>
-      </c>
-      <c r="B28" s="389"/>
-      <c r="C28" s="389"/>
-      <c r="D28" s="178" t="s">
-        <v>143</v>
       </c>
       <c r="E28" s="182"/>
       <c r="F28" s="101"/>
       <c r="G28" s="101"/>
       <c r="H28" s="101"/>
-      <c r="I28" s="388"/>
+      <c r="I28" s="347"/>
       <c r="J28" s="183"/>
       <c r="L28" s="98"/>
       <c r="M28" s="98"/>
@@ -8294,12 +8256,12 @@
     <row r="30" spans="1:15" s="164" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="101"/>
       <c r="C30" s="101"/>
-      <c r="D30" s="390">
+      <c r="D30" s="349">
         <f>H22</f>
         <v>0</v>
       </c>
-      <c r="E30" s="390"/>
-      <c r="F30" s="390"/>
+      <c r="E30" s="349"/>
+      <c r="F30" s="349"/>
       <c r="G30" s="185"/>
       <c r="H30" s="101"/>
       <c r="I30" s="101"/>
@@ -8361,9 +8323,9 @@
       <c r="D34" s="101"/>
       <c r="E34" s="101"/>
       <c r="F34" s="191"/>
-      <c r="G34" s="383"/>
-      <c r="H34" s="383"/>
-      <c r="I34" s="383"/>
+      <c r="G34" s="342"/>
+      <c r="H34" s="342"/>
+      <c r="I34" s="342"/>
       <c r="J34" s="192"/>
       <c r="L34" s="186"/>
       <c r="M34" s="186"/>
@@ -8374,11 +8336,11 @@
       <c r="D35" s="101"/>
       <c r="E35" s="101"/>
       <c r="F35" s="191"/>
-      <c r="G35" s="383">
+      <c r="G35" s="342">
         <v>43983</v>
       </c>
-      <c r="H35" s="383"/>
-      <c r="I35" s="383"/>
+      <c r="H35" s="342"/>
+      <c r="I35" s="342"/>
       <c r="J35" s="192"/>
       <c r="M35" s="193"/>
     </row>
@@ -8388,10 +8350,10 @@
       <c r="D36" s="101"/>
       <c r="E36" s="194"/>
       <c r="F36" s="195"/>
-      <c r="G36" s="196"/>
-      <c r="H36" s="197"/>
-      <c r="I36" s="197"/>
-      <c r="J36" s="197"/>
+      <c r="G36" s="90"/>
+      <c r="H36" s="196"/>
+      <c r="I36" s="196"/>
+      <c r="J36" s="196"/>
     </row>
     <row r="37" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="101"/>
@@ -8399,10 +8361,10 @@
       <c r="D37" s="101"/>
       <c r="E37" s="101"/>
       <c r="F37" s="101"/>
-      <c r="G37" s="383"/>
-      <c r="H37" s="383"/>
-      <c r="I37" s="383"/>
-      <c r="J37" s="198"/>
+      <c r="G37" s="342"/>
+      <c r="H37" s="342"/>
+      <c r="I37" s="342"/>
+      <c r="J37" s="197"/>
       <c r="L37" s="186"/>
       <c r="M37" s="186"/>
     </row>
@@ -8412,7 +8374,7 @@
       <c r="D38" s="101"/>
       <c r="E38" s="101"/>
       <c r="F38" s="191" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G38" s="191"/>
       <c r="H38" s="192"/>
@@ -8421,7 +8383,7 @@
       <c r="L38" s="186"/>
       <c r="M38" s="186"/>
       <c r="N38" s="98" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -8430,7 +8392,7 @@
       <c r="D39" s="101"/>
       <c r="E39" s="101"/>
       <c r="F39" s="191" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G39" s="101"/>
       <c r="H39" s="191"/>
@@ -8444,40 +8406,36 @@
       <c r="D40" s="101"/>
       <c r="E40" s="194"/>
       <c r="F40" s="195" t="s">
-        <v>146</v>
-      </c>
-      <c r="G40" s="196"/>
-      <c r="H40" s="197"/>
-      <c r="I40" s="197"/>
-      <c r="J40" s="197"/>
+        <v>145</v>
+      </c>
+      <c r="G40" s="90"/>
+      <c r="H40" s="196"/>
+      <c r="I40" s="196"/>
+      <c r="J40" s="196"/>
     </row>
     <row r="41" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="O41" s="102"/>
     </row>
     <row r="42" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="384" t="s">
+      <c r="B42" s="343" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="384"/>
-      <c r="D42" s="384"/>
-      <c r="E42" s="384"/>
-      <c r="F42" s="384"/>
-      <c r="G42" s="384"/>
-      <c r="H42" s="384"/>
-      <c r="I42" s="384"/>
+      <c r="C42" s="343"/>
+      <c r="D42" s="343"/>
+      <c r="E42" s="343"/>
+      <c r="F42" s="343"/>
+      <c r="G42" s="343"/>
+      <c r="H42" s="343"/>
+      <c r="I42" s="343"/>
       <c r="O42" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="B42:I42"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:I4"/>
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C13:D13"/>
@@ -8490,11 +8448,15 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="B21:I21"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="B42:I42"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G34:I34"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/template/買取決済.xlsx
+++ b/template/買取決済.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\work\00_Wavesync\24_不動産管理システム\00_source\backend\kbs_backend\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayane\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2EE57D-D5E4-4046-87CD-7EC7975D8855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFBBE6D-5FCC-447B-9848-D02E1982B883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="地権者振込一覧" sheetId="15" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="固都税精算" sheetId="5" r:id="rId4"/>
     <sheet name="受領書" sheetId="3" r:id="rId5"/>
     <sheet name="領収証" sheetId="18" r:id="rId6"/>
-    <sheet name="R-A　PK精算" sheetId="16" r:id="rId7"/>
+    <sheet name="R-A　PK精算" sheetId="19" r:id="rId7"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId8"/>
@@ -29,42 +29,35 @@
     <definedName name="___ALL3">[1]仲介業者ﾘｽﾄ!$1:$1048576</definedName>
     <definedName name="__ALL3">[1]仲介業者ﾘｽﾄ!$1:$1048576</definedName>
     <definedName name="_ALL3">[1]仲介業者ﾘｽﾄ!$1:$1048576</definedName>
-    <definedName name="ALL" localSheetId="6">[1]台帳!$1:$1048576</definedName>
     <definedName name="ALL" localSheetId="3">[1]台帳!$1:$1048576</definedName>
     <definedName name="ALL" localSheetId="4">[1]台帳!$1:$1048576</definedName>
     <definedName name="ALL" localSheetId="5">[1]台帳!$1:$1048576</definedName>
     <definedName name="ALL">[1]台帳!$1:$1048576</definedName>
-    <definedName name="Data" localSheetId="6">#REF!</definedName>
     <definedName name="Data" localSheetId="3">#REF!</definedName>
     <definedName name="Data">#REF!</definedName>
-    <definedName name="DB" localSheetId="6">#REF!</definedName>
     <definedName name="DB" localSheetId="3">#REF!</definedName>
     <definedName name="DB">#REF!</definedName>
-    <definedName name="japan" localSheetId="6">#REF!</definedName>
     <definedName name="japan" localSheetId="3">#REF!</definedName>
     <definedName name="japan">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'R-A　PK精算'!$A$1:$J$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'R-A　PK精算'!$A$1:$J$46</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">決済案内!$A$1:$I$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">固都税精算!$A$1:$L$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">支払依頼書帳票!$A$1:$P$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">受領書!$A$1:$J$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">地権者振込一覧!$A$1:$P$13</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">領収証!$A$1:$J$25</definedName>
-    <definedName name="ProjectName" localSheetId="6">{"Client Name or Project Name"}</definedName>
     <definedName name="ProjectName" localSheetId="3">{"Client Name or Project Name"}</definedName>
     <definedName name="ProjectName" localSheetId="1">{"Client Name or Project Name"}</definedName>
     <definedName name="ProjectName" localSheetId="4">{"Client Name or Project Name"}</definedName>
     <definedName name="ProjectName" localSheetId="0">{"Client Name or Project Name"}</definedName>
     <definedName name="ProjectName" localSheetId="5">{"Client Name or Project Name"}</definedName>
     <definedName name="ProjectName">{"Client Name or Project Name"}</definedName>
-    <definedName name="富永リクエスト" localSheetId="6">{"Client Name or Project Name"}</definedName>
     <definedName name="富永リクエスト" localSheetId="3">{"Client Name or Project Name"}</definedName>
     <definedName name="富永リクエスト" localSheetId="1">{"Client Name or Project Name"}</definedName>
     <definedName name="富永リクエスト" localSheetId="4">{"Client Name or Project Name"}</definedName>
     <definedName name="富永リクエスト" localSheetId="0">{"Client Name or Project Name"}</definedName>
     <definedName name="富永リクエスト" localSheetId="5">{"Client Name or Project Name"}</definedName>
     <definedName name="富永リクエスト">{"Client Name or Project Name"}</definedName>
-    <definedName name="分析" localSheetId="6">{"Client Name or Project Name"}</definedName>
     <definedName name="分析" localSheetId="3">{"Client Name or Project Name"}</definedName>
     <definedName name="分析" localSheetId="1">{"Client Name or Project Name"}</definedName>
     <definedName name="分析" localSheetId="4">{"Client Name or Project Name"}</definedName>
@@ -72,7 +65,7 @@
     <definedName name="分析" localSheetId="5">{"Client Name or Project Name"}</definedName>
     <definedName name="分析">{"Client Name or Project Name"}</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -82,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="223">
   <si>
     <t>地　番
 家屋番号</t>
@@ -994,274 +987,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>賃料・管理費精算明細書</t>
-    <rPh sb="0" eb="2">
-      <t>チンリョウ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>カンリヒ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>メイサイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ショ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>精算起算日</t>
-    <rPh sb="0" eb="2">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>キサンビ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>引渡月の月末日</t>
-    <rPh sb="0" eb="2">
-      <t>ヒキワタ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ゲッショ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>マツ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ビ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>日数</t>
-    <rPh sb="0" eb="2">
-      <t>ニッスウ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>売主</t>
-    <rPh sb="0" eb="2">
-      <t>ウリヌシ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>買主</t>
-    <rPh sb="0" eb="2">
-      <t>カイヌシ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>株式会社メトロス開発</t>
-    <rPh sb="0" eb="4">
-      <t>カブシキガイシャ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カイハツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>敷金合計</t>
-    <rPh sb="0" eb="2">
-      <t>シキキン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ゴウケイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>保証金</t>
-    <rPh sb="0" eb="3">
-      <t>ホショウキン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>（A)</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>賃料支払月</t>
-    <rPh sb="0" eb="2">
-      <t>チンリョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シハライ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>賃料</t>
-    <rPh sb="0" eb="2">
-      <t>チンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>項目</t>
-    <rPh sb="0" eb="2">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>月額</t>
-    <rPh sb="0" eb="2">
-      <t>ゲツガク</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>１階店舗</t>
-    <rPh sb="1" eb="2">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>テンポ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>合　　計</t>
-    <rPh sb="0" eb="1">
-      <t>ゴウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ケイ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>賃貸期間</t>
-    <rPh sb="0" eb="2">
-      <t>チンタイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キカン</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>売主収益分</t>
-    <rPh sb="0" eb="2">
-      <t>ウリヌシ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シュウエキ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ブン</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>買主収益分</t>
-    <rPh sb="0" eb="2">
-      <t>カイヌシ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シュウエキ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ブン</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>（B)</t>
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>6月分日割り賃料、敷金</t>
-    <rPh sb="1" eb="2">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒワ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>チンリョウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シキキン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>精算金額（税込）</t>
-    <rPh sb="0" eb="2">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キンガク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ゼイコミ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>（Ａ）+（B)</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>　</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>様</t>
-    <rPh sb="0" eb="1">
-      <t>サマ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>　</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>　　　　　株式会社メトロス開発</t>
-    <rPh sb="5" eb="9">
-      <t>カブシキガイシャ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カイハツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>氏名　　代表取締役　小柴義弘</t>
-    <rPh sb="4" eb="9">
-      <t>ダイヒョウトリシマリヤク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>コシバ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヨシヒロ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>$list_contractorName$</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1272,19 +1001,6 @@
   <si>
     <t>$addressAndBlockOrBuildingNumber$</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>住所　東京都中央区銀座4-10-10</t>
-    <rPh sb="3" eb="6">
-      <t>トウキョウト</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>チュウオウク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ギンザ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>$payPriceTax$</t>
@@ -1375,7 +1091,7 @@
     <rPh sb="18" eb="23">
       <t>ギョウムイタクリョウ</t>
     </rPh>
-    <phoneticPr fontId="42"/>
+    <phoneticPr fontId="28"/>
   </si>
   <si>
     <t>以下余白</t>
@@ -1644,6 +1360,246 @@
     <rPh sb="2" eb="4">
       <t>ゴウケイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>賃料・管理費精算明細書</t>
+  </si>
+  <si>
+    <t>物件所在地</t>
+  </si>
+  <si>
+    <t>精算起算日</t>
+  </si>
+  <si>
+    <t>売主</t>
+  </si>
+  <si>
+    <t>買主</t>
+  </si>
+  <si>
+    <t>株式会社メトロス開発</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>敷金合計</t>
+  </si>
+  <si>
+    <t>敷金・保証金</t>
+    <rPh sb="0" eb="2">
+      <t>シキキン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ホショウキン</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>号室</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウシツ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>（A)</t>
+  </si>
+  <si>
+    <t>月額賃料等</t>
+    <rPh sb="0" eb="2">
+      <t>ゲツガク</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>チンリョウトウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>項目</t>
+  </si>
+  <si>
+    <t>賃料（消費税込）</t>
+    <rPh sb="0" eb="2">
+      <t>チンリョウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ショウヒゼイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>管理費等（消費税込）</t>
+    <rPh sb="0" eb="4">
+      <t>カンリヒトウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ショウヒゼイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>合　　計</t>
+  </si>
+  <si>
+    <t>賃貸期間</t>
+    <rPh sb="0" eb="4">
+      <t>チンタイキカン</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>～</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>買主収益分</t>
+  </si>
+  <si>
+    <t>精算金額（税込）</t>
+  </si>
+  <si>
+    <t>（A）+（C)</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>受　領　書</t>
+  </si>
+  <si>
+    <t>　</t>
+  </si>
+  <si>
+    <t>様</t>
+  </si>
+  <si>
+    <t>住所　　東京都中央区銀座3丁目9番7号</t>
+    <rPh sb="13" eb="15">
+      <t>チョウメ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ゴウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>　　　　　株式会社メトロス開発</t>
+  </si>
+  <si>
+    <t>氏名　　代表取締役　小柴義弘</t>
+  </si>
+  <si>
+    <t>領収金額を訂正した場合または、領収印なき場合は無効となります。</t>
+  </si>
+  <si>
+    <t>$roomNo$</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>$SuccessionDepositAndSecurity$</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>$rentPriceInTax$</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>$managementFeeAndCondoFeeInTax$</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>決済日</t>
+    <rPh sb="0" eb="3">
+      <t>ケッサイビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>決済月の日数</t>
+    <rPh sb="0" eb="3">
+      <t>ケッサイツキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニッスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>決済月の最終日</t>
+    <rPh sb="0" eb="3">
+      <t>ケッサイヅキ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>サイシュウビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>売主収益分</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>決済月の初日</t>
+    <rPh sb="0" eb="3">
+      <t>ケッサイヅキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショニチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>買主収益分</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>月分</t>
+    <rPh sb="0" eb="2">
+      <t>ガツブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$addressAndBlockOrBuildingNumber$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$contractFixDay_jpdt_kanji$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$list_contractorNameDot$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$decisionDay$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$sumPriceAndFeeAll$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$sumPriceAndFeeRow$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$sumSuccessionDepositAndSecurity$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$sumRentPriceInTax$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$sumManagementFeeAndCondoFeeInTax$</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1651,7 +1607,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="31">
+  <numFmts count="30">
     <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="[$-411]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
@@ -1667,24 +1623,23 @@
     <numFmt numFmtId="187" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="188" formatCode="###,###,##0&quot;円&quot;"/>
     <numFmt numFmtId="189" formatCode="###,###,###&quot;円&quot;"/>
-    <numFmt numFmtId="190" formatCode="[$-411]&quot;　～　　&quot;ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="191" formatCode="0&quot;日&quot;&quot;分&quot;"/>
-    <numFmt numFmtId="192" formatCode="&quot;（Ａ）×&quot;0&quot;日&quot;"/>
-    <numFmt numFmtId="193" formatCode="0&quot;日&quot;"/>
-    <numFmt numFmtId="194" formatCode="&quot;金 &quot;#,##0&quot;円&quot;"/>
-    <numFmt numFmtId="195" formatCode="&quot;（Ｂ）×&quot;0&quot;日&quot;"/>
-    <numFmt numFmtId="196" formatCode="&quot;（C）×&quot;0&quot;日&quot;"/>
-    <numFmt numFmtId="197" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="198" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="199" formatCode="&quot;金&quot;###,###,###,##0&quot;円&quot;"/>
-    <numFmt numFmtId="200" formatCode="0&quot;月&quot;&quot;分&quot;"/>
-    <numFmt numFmtId="201" formatCode="&quot;金&quot;###,###,###,###&quot;円&quot;"/>
-    <numFmt numFmtId="202" formatCode="##&quot;月&quot;&quot;分&quot;"/>
-    <numFmt numFmtId="203" formatCode="&quot;（Ａ）&quot;&quot;×&quot;0&quot;日&quot;"/>
-    <numFmt numFmtId="204" formatCode="&quot;（D）&quot;&quot;×&quot;0&quot;日&quot;"/>
-    <numFmt numFmtId="205" formatCode="\(&quot;消&quot;&quot;費&quot;&quot;税&quot;&quot;お&quot;&quot;よ&quot;&quot;び&quot;&quot;地&quot;&quot;方&quot;&quot;消&quot;&quot;費&quot;&quot;税&quot;\ &quot;金&quot;###,###,###,###&quot;円&quot;&quot;を&quot;&quot;含&quot;&quot;む&quot;\)"/>
+    <numFmt numFmtId="190" formatCode="0&quot;日&quot;&quot;分&quot;"/>
+    <numFmt numFmtId="191" formatCode="&quot;（Ａ）×&quot;0&quot;日&quot;"/>
+    <numFmt numFmtId="192" formatCode="0&quot;日&quot;"/>
+    <numFmt numFmtId="193" formatCode="&quot;金 &quot;#,##0&quot;円&quot;"/>
+    <numFmt numFmtId="194" formatCode="&quot;（Ｂ）×&quot;0&quot;日&quot;"/>
+    <numFmt numFmtId="195" formatCode="&quot;（C）×&quot;0&quot;日&quot;"/>
+    <numFmt numFmtId="196" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="197" formatCode="&quot;金&quot;###,###,###,##0&quot;円&quot;"/>
+    <numFmt numFmtId="198" formatCode="0&quot;月&quot;&quot;分&quot;"/>
+    <numFmt numFmtId="199" formatCode="&quot;金&quot;###,###,###,###&quot;円&quot;"/>
+    <numFmt numFmtId="200" formatCode="##&quot;月&quot;&quot;分&quot;"/>
+    <numFmt numFmtId="201" formatCode="&quot;（Ａ）&quot;&quot;×&quot;0&quot;日&quot;"/>
+    <numFmt numFmtId="202" formatCode="&quot;（D）&quot;&quot;×&quot;0&quot;日&quot;"/>
+    <numFmt numFmtId="203" formatCode="\(&quot;消&quot;&quot;費&quot;&quot;税&quot;&quot;お&quot;&quot;よ&quot;&quot;び&quot;&quot;地&quot;&quot;方&quot;&quot;消&quot;&quot;費&quot;&quot;税&quot;\ &quot;金&quot;###,###,###,###&quot;円&quot;&quot;を&quot;&quot;含&quot;&quot;む&quot;\)"/>
+    <numFmt numFmtId="204" formatCode="&quot;（B）&quot;&quot;×&quot;0&quot;日&quot;"/>
   </numFmts>
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="50" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1870,103 +1825,6 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color indexed="10"/>
-      <name val="ＭＳ Ｐ明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="23"/>
-      <name val="ＭＳ Ｐ明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="23"/>
-      <name val="ＭＳ Ｐ明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <name val="ＭＳ Ｐ明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="ＭＳ Ｐ明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="ＭＳ Ｐ明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <name val="ＭＳ Ｐ明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="22"/>
-      <name val="ＭＳ Ｐ明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="0" tint="-0.249977111117893"/>
-      <name val="ＭＳ Ｐ明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="ＭＳ Ｐ明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <name val="ＭＳ Ｐ明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="10"/>
-      <name val="ＭＳ Ｐ明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="游ゴシック"/>
@@ -1978,6 +1836,150 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐ明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐ明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐ明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐ明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐ明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐ明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐ明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐ明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐ明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐ明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC0C0C0"/>
+      <name val="ＭＳ Ｐ明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFBFBFBF"/>
+      <name val="ＭＳ Ｐ明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐ明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐ明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐ明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐ明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -1996,7 +1998,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="68">
+  <borders count="78">
     <border>
       <left/>
       <right/>
@@ -2023,19 +2025,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -2566,100 +2555,321 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="hair">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="hair">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
-      <right style="hair">
-        <color indexed="64"/>
+      <right style="thin">
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
-      <top style="hair">
-        <color indexed="64"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="hair">
-        <color indexed="64"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="hair">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="hair">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -2668,7 +2878,7 @@
       <left/>
       <right/>
       <top style="hair">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -2676,177 +2886,79 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="hair">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="hair">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
+      <right/>
+      <top style="hair">
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
+      <right style="thin">
+        <color rgb="FF000000"/>
       </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2855,20 +2967,19 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="38" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="385">
+  <cellXfs count="367">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1">
@@ -2877,7 +2988,7 @@
     <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="197" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="196" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2919,13 +3030,13 @@
     <xf numFmtId="178" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="178" fontId="15" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="178" fontId="18" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="178" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2967,13 +3078,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -2985,106 +3096,106 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="189" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="6" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="193" fontId="15" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="42" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="15" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="195" fontId="6" fillId="0" borderId="43" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="196" fontId="6" fillId="0" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="195" fontId="6" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="193" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="193" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="194" fontId="15" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="193" fontId="15" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="193" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -3142,320 +3253,275 @@
     <xf numFmtId="58" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="29" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="29" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="198" fontId="29" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="29" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="198" fontId="29" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="14" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="200" fontId="29" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="57" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="34" fillId="0" borderId="64" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="65" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="197" fontId="34" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="64" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="59" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="66" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="61" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="201" fontId="14" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="199" fontId="34" fillId="0" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="61" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="61" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="46" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="65" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="202" fontId="14" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="32" fillId="0" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="190" fontId="34" fillId="0" borderId="69" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="32" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="190" fontId="34" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="70" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="202" fontId="14" fillId="0" borderId="53" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="203" fontId="14" fillId="0" borderId="53" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="200" fontId="34" fillId="0" borderId="71" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="71" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="71" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="193" fontId="32" fillId="0" borderId="53" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="73" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="200" fontId="34" fillId="0" borderId="74" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="74" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="74" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="200" fontId="34" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="201" fontId="34" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="192" fontId="34" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="53" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="193" fontId="34" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="55" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="202" fontId="34" fillId="0" borderId="71" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="192" fontId="34" fillId="0" borderId="71" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="59" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="202" fontId="14" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="203" fontId="14" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="200" fontId="34" fillId="0" borderId="59" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="201" fontId="34" fillId="0" borderId="59" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="193" fontId="32" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="192" fontId="34" fillId="0" borderId="59" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="59" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="202" fontId="14" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="203" fontId="14" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="193" fontId="34" fillId="0" borderId="59" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="193" fontId="14" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="59" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="34" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="181" fontId="41" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="41" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="58" fontId="34" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="194" fontId="14" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="182" fontId="34" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="58" fontId="34" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="204" fontId="14" fillId="0" borderId="53" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="193" fontId="14" fillId="0" borderId="53" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="37" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="46" fillId="0" borderId="68" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="192" fontId="35" fillId="0" borderId="71" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="204" fontId="35" fillId="0" borderId="74" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="202" fontId="14" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="203" fontId="14" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="192" fontId="35" fillId="0" borderId="74" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="204" fontId="35" fillId="0" borderId="71" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="193" fontId="14" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="198" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="49" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="48" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="14" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="181" fontId="37" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="37" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="58" fontId="14" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="14" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="28" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3475,13 +3541,13 @@
     <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3496,28 +3562,28 @@
     <xf numFmtId="178" fontId="22" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="64" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="66" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="67" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3553,246 +3619,250 @@
     <xf numFmtId="187" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="188" fontId="15" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="188" fontId="15" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="15" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="15" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="188" fontId="15" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="188" fontId="15" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="2" applyBorder="1"/>
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="58" fontId="6" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="15" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="15" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="15" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="188" fontId="15" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="15" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="15" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="15" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="6" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="190" fontId="6" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="6" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="190" fontId="6" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="6" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="190" fontId="6" fillId="0" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="6" fillId="0" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="193" fontId="6" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="193" fontId="6" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="193" fontId="6" fillId="0" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="193" fontId="6" fillId="0" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="193" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="44" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="193" fontId="6" fillId="0" borderId="43" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="193" fontId="6" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="193" fontId="6" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="193" fontId="6" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="193" fontId="6" fillId="0" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="193" fontId="6" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="193" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="192" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="182" fontId="10" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="182" fontId="10" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="10" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="10" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
@@ -3800,42 +3870,41 @@
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="186" fontId="17" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="17" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="186" fontId="17" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="17" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="58" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="185" fontId="6" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="185" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -3843,17 +3912,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="184" fontId="14" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="14" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="184" fontId="14" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="14" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="14" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="185" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -3861,148 +3930,139 @@
     <xf numFmtId="185" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="15" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="184" fontId="15" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="15" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="205" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="203" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="44" fillId="0" borderId="76" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="34" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="193" fontId="35" fillId="0" borderId="74" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="75" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="67" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="68" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="69" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="193" fontId="34" fillId="0" borderId="71" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="72" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="38" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="42" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="186" fontId="38" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="42" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="76" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="40" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="14" fillId="0" borderId="53" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="76" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="193" fontId="35" fillId="0" borderId="71" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="54" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="51" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="72" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="197" fontId="35" fillId="0" borderId="58" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="27" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="197" fontId="35" fillId="0" borderId="59" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="14" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="14" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="32" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="197" fontId="35" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="197" fontId="34" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="197" fontId="34" fillId="0" borderId="58" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="197" fontId="34" fillId="0" borderId="59" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="35" fillId="0" borderId="67" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="35" fillId="0" borderId="68" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="35" fillId="0" borderId="68" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="194" fontId="32" fillId="0" borderId="53" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="197" fontId="35" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="54" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="194" fontId="32" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="32" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="58" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="59" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="46" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="46" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="46" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="62" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="63" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyBorder="1"/>
-    <xf numFmtId="58" fontId="14" fillId="0" borderId="47" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="197" fontId="34" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="5">
     <cellStyle name="桁区切り 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="標準 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="標準 4" xfId="5" xr:uid="{1F671C00-0509-4DC5-9936-F7DFE3367C9D}"/>
-    <cellStyle name="標準_【六甲3物件bulk精算明細書】07.08.17" xfId="4" xr:uid="{7CEE74E9-A271-4514-BF97-6A1A3CDEF000}"/>
+    <cellStyle name="標準 4" xfId="4" xr:uid="{1F671C00-0509-4DC5-9936-F7DFE3367C9D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5677,27 +5737,27 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="24" customWidth="1"/>
+    <col min="1" max="1" width="12.875" style="24" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="27.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="21.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="27.375" style="4" customWidth="1"/>
     <col min="6" max="6" width="12" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.58203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.58203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.625" style="4" customWidth="1"/>
     <col min="9" max="9" width="12.75" style="4" customWidth="1"/>
-    <col min="10" max="10" width="12.08203125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="6.1640625" style="4" customWidth="1"/>
-    <col min="12" max="13" width="8.6640625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="5.33203125" style="4" customWidth="1"/>
-    <col min="15" max="15" width="3.33203125" style="4" customWidth="1"/>
-    <col min="16" max="16" width="12.4140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="6.125" style="4" customWidth="1"/>
+    <col min="12" max="13" width="8.625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="5.375" style="4" customWidth="1"/>
+    <col min="15" max="15" width="3.375" style="4" customWidth="1"/>
+    <col min="16" max="16" width="12.375" style="4" customWidth="1"/>
     <col min="17" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>93</v>
       </c>
@@ -5713,7 +5773,7 @@
         <v>107</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>85</v>
@@ -5722,38 +5782,38 @@
         <v>104</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="202" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="187" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="203" t="s">
+      <c r="B2" s="188" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="204" t="s">
+      <c r="C2" s="189" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="202" t="s">
+      <c r="D2" s="187" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="202" t="s">
+      <c r="E2" s="187" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
-      <c r="I2" s="202"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="187"/>
       <c r="R2" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="202"/>
-      <c r="B3" s="202"/>
-      <c r="C3" s="205"/>
-      <c r="D3" s="202"/>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="187"/>
+      <c r="B3" s="187"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="187"/>
       <c r="E3" s="7" t="s">
         <v>1</v>
       </c>
@@ -5772,23 +5832,23 @@
       <c r="J3" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K3" s="202" t="s">
+      <c r="K3" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="202"/>
-      <c r="M3" s="211" t="s">
-        <v>181</v>
-      </c>
-      <c r="N3" s="211"/>
-      <c r="O3" s="202" t="s">
+      <c r="L3" s="187"/>
+      <c r="M3" s="196" t="s">
+        <v>153</v>
+      </c>
+      <c r="N3" s="196"/>
+      <c r="O3" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="202"/>
+      <c r="P3" s="187"/>
       <c r="R3" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>103</v>
       </c>
@@ -5796,10 +5856,10 @@
         <v>86</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>87</v>
@@ -5817,20 +5877,20 @@
         <v>91</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="K4" s="206" t="s">
-        <v>180</v>
-      </c>
-      <c r="L4" s="206"/>
-      <c r="M4" s="212" t="s">
-        <v>182</v>
-      </c>
-      <c r="N4" s="212"/>
-      <c r="O4" s="213"/>
-      <c r="P4" s="213"/>
-    </row>
-    <row r="5" spans="1:18" s="23" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>122</v>
+      </c>
+      <c r="K4" s="191" t="s">
+        <v>152</v>
+      </c>
+      <c r="L4" s="191"/>
+      <c r="M4" s="197" t="s">
+        <v>154</v>
+      </c>
+      <c r="N4" s="197"/>
+      <c r="O4" s="198"/>
+      <c r="P4" s="198"/>
+    </row>
+    <row r="5" spans="1:18" s="23" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="19"/>
       <c r="B5" s="20"/>
       <c r="C5" s="21"/>
@@ -5846,53 +5906,53 @@
         <f>SUM(J4:J4)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="207">
+      <c r="K5" s="192">
         <f>SUM(K4:K4)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="207"/>
-      <c r="M5" s="212">
+      <c r="L5" s="192"/>
+      <c r="M5" s="197">
         <f>SUM(M4:M4)</f>
         <v>0</v>
       </c>
-      <c r="N5" s="212"/>
-      <c r="O5" s="214"/>
-      <c r="P5" s="214"/>
-    </row>
-    <row r="7" spans="1:18" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="8" spans="1:18" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="L8" s="201" t="s">
-        <v>201</v>
-      </c>
-      <c r="M8" s="201" t="s">
-        <v>202</v>
-      </c>
-      <c r="N8" s="215"/>
-      <c r="O8" s="216"/>
-    </row>
-    <row r="9" spans="1:18" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L9" s="208"/>
-      <c r="M9" s="208"/>
-      <c r="N9" s="217"/>
-      <c r="O9" s="218"/>
-    </row>
-    <row r="10" spans="1:18" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L10" s="209"/>
-      <c r="M10" s="209"/>
-      <c r="N10" s="219"/>
-      <c r="O10" s="220"/>
-    </row>
-    <row r="11" spans="1:18" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L11" s="209"/>
-      <c r="M11" s="209"/>
-      <c r="N11" s="219"/>
-      <c r="O11" s="220"/>
-    </row>
-    <row r="12" spans="1:18" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="L12" s="210"/>
-      <c r="M12" s="210"/>
-      <c r="N12" s="221"/>
-      <c r="O12" s="222"/>
+      <c r="N5" s="197"/>
+      <c r="O5" s="199"/>
+      <c r="P5" s="199"/>
+    </row>
+    <row r="7" spans="1:18" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="1:18" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="L8" s="98" t="s">
+        <v>173</v>
+      </c>
+      <c r="M8" s="98" t="s">
+        <v>174</v>
+      </c>
+      <c r="N8" s="200"/>
+      <c r="O8" s="201"/>
+    </row>
+    <row r="9" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L9" s="193"/>
+      <c r="M9" s="193"/>
+      <c r="N9" s="202"/>
+      <c r="O9" s="203"/>
+    </row>
+    <row r="10" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L10" s="194"/>
+      <c r="M10" s="194"/>
+      <c r="N10" s="204"/>
+      <c r="O10" s="205"/>
+    </row>
+    <row r="11" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L11" s="194"/>
+      <c r="M11" s="194"/>
+      <c r="N11" s="204"/>
+      <c r="O11" s="205"/>
+    </row>
+    <row r="12" spans="1:18" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="L12" s="195"/>
+      <c r="M12" s="195"/>
+      <c r="N12" s="206"/>
+      <c r="O12" s="207"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -5936,27 +5996,27 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="24" customWidth="1"/>
+    <col min="1" max="1" width="12.875" style="24" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="27.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="21.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="27.375" style="4" customWidth="1"/>
     <col min="6" max="6" width="12" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.58203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.58203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.625" style="4" customWidth="1"/>
     <col min="9" max="9" width="12.75" style="4" customWidth="1"/>
-    <col min="10" max="10" width="12.08203125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="6.1640625" style="4" customWidth="1"/>
-    <col min="12" max="13" width="8.6640625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="5.33203125" style="4" customWidth="1"/>
-    <col min="15" max="15" width="3.33203125" style="4" customWidth="1"/>
-    <col min="16" max="16" width="12.4140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="6.125" style="4" customWidth="1"/>
+    <col min="12" max="13" width="8.625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="5.375" style="4" customWidth="1"/>
+    <col min="15" max="15" width="3.375" style="4" customWidth="1"/>
+    <col min="16" max="16" width="12.375" style="4" customWidth="1"/>
     <col min="17" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>93</v>
       </c>
@@ -5969,44 +6029,44 @@
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="6" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>76</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="202" t="s">
+    <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="187" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="203" t="s">
+      <c r="B2" s="188" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="204" t="s">
+      <c r="C2" s="189" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="202" t="s">
-        <v>175</v>
-      </c>
-      <c r="E2" s="202" t="s">
+      <c r="D2" s="187" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" s="187" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
-      <c r="I2" s="202"/>
-    </row>
-    <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="202"/>
-      <c r="B3" s="202"/>
-      <c r="C3" s="205"/>
-      <c r="D3" s="202"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="187"/>
+    </row>
+    <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="187"/>
+      <c r="B3" s="187"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="187"/>
       <c r="E3" s="7" t="s">
         <v>1</v>
       </c>
@@ -6025,104 +6085,104 @@
       <c r="J3" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K3" s="202"/>
-      <c r="L3" s="202"/>
-      <c r="M3" s="211" t="s">
+      <c r="K3" s="187"/>
+      <c r="L3" s="187"/>
+      <c r="M3" s="196" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="211"/>
-      <c r="O3" s="202" t="s">
-        <v>176</v>
-      </c>
-      <c r="P3" s="202"/>
-    </row>
-    <row r="4" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="N3" s="196"/>
+      <c r="O3" s="187" t="s">
+        <v>148</v>
+      </c>
+      <c r="P3" s="187"/>
+    </row>
+    <row r="4" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>86</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="K4" s="223"/>
-      <c r="L4" s="223"/>
-      <c r="M4" s="212" t="e">
+        <v>130</v>
+      </c>
+      <c r="K4" s="208"/>
+      <c r="L4" s="208"/>
+      <c r="M4" s="197" t="e">
         <f>J4+K4</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N4" s="212"/>
-      <c r="O4" s="213" t="s">
-        <v>159</v>
-      </c>
-      <c r="P4" s="213"/>
-    </row>
-    <row r="5" spans="1:16" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="N4" s="197"/>
+      <c r="O4" s="198" t="s">
+        <v>131</v>
+      </c>
+      <c r="P4" s="198"/>
+    </row>
+    <row r="5" spans="1:16" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>86</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="K5" s="223"/>
-      <c r="L5" s="223"/>
-      <c r="M5" s="212" t="e">
+        <v>138</v>
+      </c>
+      <c r="K5" s="208"/>
+      <c r="L5" s="208"/>
+      <c r="M5" s="197" t="e">
         <f>J5+K5</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N5" s="212"/>
-      <c r="O5" s="213" t="s">
-        <v>167</v>
-      </c>
-      <c r="P5" s="213"/>
-    </row>
-    <row r="6" spans="1:16" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="N5" s="197"/>
+      <c r="O5" s="198" t="s">
+        <v>139</v>
+      </c>
+      <c r="P5" s="198"/>
+    </row>
+    <row r="6" spans="1:16" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="10"/>
       <c r="B6" s="7"/>
       <c r="C6" s="17"/>
@@ -6133,14 +6193,14 @@
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
       <c r="J6" s="16"/>
-      <c r="K6" s="207"/>
-      <c r="L6" s="207"/>
-      <c r="M6" s="212"/>
-      <c r="N6" s="212"/>
-      <c r="O6" s="224"/>
-      <c r="P6" s="224"/>
-    </row>
-    <row r="7" spans="1:16" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K6" s="192"/>
+      <c r="L6" s="192"/>
+      <c r="M6" s="197"/>
+      <c r="N6" s="197"/>
+      <c r="O6" s="209"/>
+      <c r="P6" s="209"/>
+    </row>
+    <row r="7" spans="1:16" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="18"/>
       <c r="B7" s="7"/>
       <c r="C7" s="17"/>
@@ -6151,14 +6211,14 @@
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
       <c r="J7" s="16"/>
-      <c r="K7" s="207"/>
-      <c r="L7" s="207"/>
-      <c r="M7" s="212"/>
-      <c r="N7" s="212"/>
-      <c r="O7" s="224"/>
-      <c r="P7" s="224"/>
-    </row>
-    <row r="8" spans="1:16" s="23" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K7" s="192"/>
+      <c r="L7" s="192"/>
+      <c r="M7" s="197"/>
+      <c r="N7" s="197"/>
+      <c r="O7" s="209"/>
+      <c r="P7" s="209"/>
+    </row>
+    <row r="8" spans="1:16" s="23" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="19"/>
       <c r="B8" s="20"/>
       <c r="C8" s="21"/>
@@ -6174,56 +6234,56 @@
         <f>SUM(J4:J7)</f>
         <v>0</v>
       </c>
-      <c r="K8" s="207">
+      <c r="K8" s="192">
         <f>SUM(K4:K7)</f>
         <v>0</v>
       </c>
-      <c r="L8" s="207"/>
-      <c r="M8" s="212" t="e">
+      <c r="L8" s="192"/>
+      <c r="M8" s="197" t="e">
         <f>SUM(M4:M7)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N8" s="212"/>
-      <c r="O8" s="214"/>
-      <c r="P8" s="214"/>
-    </row>
-    <row r="9" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="10" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="11" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="L11" s="201" t="s">
-        <v>201</v>
-      </c>
-      <c r="M11" s="201" t="s">
-        <v>202</v>
-      </c>
-      <c r="N11" s="215"/>
-      <c r="O11" s="216"/>
-    </row>
-    <row r="12" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L12" s="208"/>
-      <c r="M12" s="208"/>
-      <c r="N12" s="217"/>
-      <c r="O12" s="218"/>
-    </row>
-    <row r="13" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L13" s="209"/>
-      <c r="M13" s="209"/>
-      <c r="N13" s="219"/>
-      <c r="O13" s="220"/>
-    </row>
-    <row r="14" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L14" s="209"/>
-      <c r="M14" s="209"/>
-      <c r="N14" s="219"/>
-      <c r="O14" s="220"/>
-    </row>
-    <row r="15" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="L15" s="210"/>
-      <c r="M15" s="210"/>
-      <c r="N15" s="221"/>
-      <c r="O15" s="222"/>
-    </row>
-    <row r="16" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+      <c r="N8" s="197"/>
+      <c r="O8" s="199"/>
+      <c r="P8" s="199"/>
+    </row>
+    <row r="9" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:16" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="11" spans="1:16" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="L11" s="98" t="s">
+        <v>173</v>
+      </c>
+      <c r="M11" s="98" t="s">
+        <v>174</v>
+      </c>
+      <c r="N11" s="200"/>
+      <c r="O11" s="201"/>
+    </row>
+    <row r="12" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L12" s="193"/>
+      <c r="M12" s="193"/>
+      <c r="N12" s="202"/>
+      <c r="O12" s="203"/>
+    </row>
+    <row r="13" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L13" s="194"/>
+      <c r="M13" s="194"/>
+      <c r="N13" s="204"/>
+      <c r="O13" s="205"/>
+    </row>
+    <row r="14" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L14" s="194"/>
+      <c r="M14" s="194"/>
+      <c r="N14" s="204"/>
+      <c r="O14" s="205"/>
+    </row>
+    <row r="15" spans="1:16" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="L15" s="195"/>
+      <c r="M15" s="195"/>
+      <c r="N15" s="206"/>
+      <c r="O15" s="207"/>
+    </row>
+    <row r="16" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="27">
     <mergeCell ref="O8:P8"/>
@@ -6267,88 +6327,88 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.08203125" style="25" customWidth="1"/>
+    <col min="1" max="1" width="6.125" style="25" customWidth="1"/>
     <col min="2" max="2" width="11" style="25" customWidth="1"/>
     <col min="3" max="3" width="9" style="25"/>
     <col min="4" max="4" width="11.5" style="25" customWidth="1"/>
     <col min="5" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="H1" s="225" t="s">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="H1" s="210" t="s">
         <v>106</v>
       </c>
-      <c r="I1" s="225"/>
+      <c r="I1" s="210"/>
       <c r="K1" s="25" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="234" t="s">
-        <v>188</v>
-      </c>
-      <c r="C2" s="234"/>
-      <c r="D2" s="234"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B2" s="219" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="219"/>
+      <c r="D2" s="219"/>
       <c r="E2" s="25" t="s">
         <v>82</v>
       </c>
       <c r="K2" s="25" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G3" s="26" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
       <c r="F4" s="26"/>
-      <c r="G4" s="225" t="s">
+      <c r="G4" s="210" t="s">
         <v>84</v>
       </c>
-      <c r="H4" s="225"/>
-      <c r="I4" s="225"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G5" s="225" t="s">
+      <c r="H4" s="210"/>
+      <c r="I4" s="210"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="G5" s="210" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="225"/>
-      <c r="I5" s="225"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="H5" s="210"/>
+      <c r="I5" s="210"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
       <c r="G6" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="235" t="s">
+      <c r="H6" s="220" t="s">
         <v>71</v>
       </c>
-      <c r="I6" s="235"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G7" s="225" t="s">
+      <c r="I6" s="220"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="G7" s="210" t="s">
         <v>104</v>
       </c>
-      <c r="H7" s="225"/>
-      <c r="I7" s="225"/>
-    </row>
-    <row r="8" spans="2:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="230" t="s">
+      <c r="H7" s="210"/>
+      <c r="I7" s="210"/>
+    </row>
+    <row r="8" spans="2:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C9" s="215" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="231"/>
-      <c r="E9" s="231"/>
-      <c r="F9" s="232" t="s">
+      <c r="D9" s="216"/>
+      <c r="E9" s="216"/>
+      <c r="F9" s="217" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="232"/>
-      <c r="H9" s="232"/>
-    </row>
-    <row r="10" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G9" s="217"/>
+      <c r="H9" s="217"/>
+    </row>
+    <row r="10" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C11" s="28" t="s">
         <v>23</v>
       </c>
@@ -6358,7 +6418,7 @@
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C12" s="28" t="s">
         <v>21</v>
       </c>
@@ -6368,7 +6428,7 @@
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C13" s="28" t="s">
         <v>22</v>
       </c>
@@ -6378,7 +6438,7 @@
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
@@ -6388,17 +6448,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B16" s="29" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="233" t="s">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B17" s="218" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="233"/>
+      <c r="C17" s="218"/>
       <c r="D17" s="30" t="s">
         <v>92</v>
       </c>
@@ -6406,138 +6466,138 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="31"/>
     </row>
-    <row r="21" spans="2:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="228" t="s">
-        <v>191</v>
-      </c>
-      <c r="C23" s="228"/>
-      <c r="D23" s="229" t="s">
-        <v>150</v>
-      </c>
-      <c r="E23" s="229"/>
-      <c r="F23" s="229"/>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B23" s="213" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" s="213"/>
+      <c r="D23" s="214" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" s="214"/>
+      <c r="F23" s="214"/>
       <c r="G23" s="32" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="225" t="s">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B24" s="210" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="225"/>
-      <c r="D24" s="229" t="s">
-        <v>180</v>
-      </c>
-      <c r="E24" s="229"/>
-      <c r="F24" s="229"/>
+      <c r="C24" s="210"/>
+      <c r="D24" s="214" t="s">
+        <v>152</v>
+      </c>
+      <c r="E24" s="214"/>
+      <c r="F24" s="214"/>
       <c r="G24" s="32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="225" t="s">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B25" s="210" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="225"/>
-      <c r="D25" s="229" t="s">
+      <c r="C25" s="210"/>
+      <c r="D25" s="214" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="229"/>
-      <c r="F25" s="229"/>
+      <c r="E25" s="214"/>
+      <c r="F25" s="214"/>
       <c r="G25" s="32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="225" t="s">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B26" s="210" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="225"/>
-      <c r="D26" s="229" t="s">
+      <c r="C26" s="210"/>
+      <c r="D26" s="214" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="229"/>
-      <c r="F26" s="229"/>
+      <c r="E26" s="214"/>
+      <c r="F26" s="214"/>
       <c r="G26" s="32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G27" s="32"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="225" t="s">
-        <v>203</v>
-      </c>
-      <c r="C28" s="225"/>
-      <c r="D28" s="226" t="e">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B28" s="210" t="s">
+        <v>175</v>
+      </c>
+      <c r="C28" s="210"/>
+      <c r="D28" s="211" t="e">
         <f>D23+D24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E28" s="226"/>
-      <c r="F28" s="226"/>
+      <c r="E28" s="211"/>
+      <c r="F28" s="211"/>
       <c r="G28" s="32" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B30" s="29" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="225" t="s">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B31" s="210" t="s">
         <v>88</v>
       </c>
-      <c r="C31" s="225"/>
-      <c r="D31" s="225" t="s">
+      <c r="C31" s="210"/>
+      <c r="D31" s="210" t="s">
         <v>89</v>
       </c>
-      <c r="E31" s="225"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="225" t="s">
+      <c r="E31" s="210"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B32" s="210" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="225"/>
-      <c r="D32" s="225" t="s">
+      <c r="C32" s="210"/>
+      <c r="D32" s="210" t="s">
         <v>91</v>
       </c>
-      <c r="E32" s="225"/>
-    </row>
-    <row r="33" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="227" t="s">
+      <c r="E32" s="210"/>
+    </row>
+    <row r="33" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="212" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="225"/>
-      <c r="D33" s="225"/>
+      <c r="C33" s="210"/>
+      <c r="D33" s="210"/>
       <c r="E33" s="25" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B35" s="29" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="27" t="s">
         <v>36</v>
       </c>
@@ -6545,7 +6605,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="27" t="s">
         <v>36</v>
       </c>
@@ -6553,7 +6613,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="27" t="s">
         <v>36</v>
       </c>
@@ -6561,7 +6621,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="27" t="s">
         <v>36</v>
       </c>
@@ -6569,7 +6629,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="27" t="s">
         <v>36</v>
       </c>
@@ -6577,7 +6637,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="27" t="s">
         <v>36</v>
       </c>
@@ -6585,15 +6645,15 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="27" t="s">
         <v>36</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="27" t="s">
         <v>36</v>
       </c>
@@ -6655,83 +6715,83 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.25" style="35" customWidth="1"/>
-    <col min="2" max="2" width="4.58203125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="6.58203125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="7.08203125" style="35" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="4.625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="6.625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="7.125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="35" customWidth="1"/>
     <col min="6" max="6" width="5" style="35" customWidth="1"/>
-    <col min="7" max="7" width="2.58203125" style="35" customWidth="1"/>
+    <col min="7" max="7" width="2.625" style="35" customWidth="1"/>
     <col min="8" max="8" width="9.75" style="35" customWidth="1"/>
-    <col min="9" max="9" width="9.08203125" style="35" customWidth="1"/>
+    <col min="9" max="9" width="9.125" style="35" customWidth="1"/>
     <col min="10" max="10" width="7" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.83203125" style="35" customWidth="1"/>
-    <col min="12" max="12" width="2.58203125" style="35" customWidth="1"/>
-    <col min="13" max="16384" width="8.58203125" style="35"/>
+    <col min="11" max="11" width="6.875" style="35" customWidth="1"/>
+    <col min="12" max="12" width="2.625" style="35" customWidth="1"/>
+    <col min="13" max="16384" width="8.625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="33"/>
-      <c r="B1" s="240" t="s">
+      <c r="B1" s="225" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="240"/>
-      <c r="D1" s="240"/>
-      <c r="E1" s="240"/>
-      <c r="F1" s="240"/>
-      <c r="G1" s="240"/>
-      <c r="H1" s="240"/>
-      <c r="I1" s="240"/>
-      <c r="J1" s="240"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="225"/>
+      <c r="E1" s="225"/>
+      <c r="F1" s="225"/>
+      <c r="G1" s="225"/>
+      <c r="H1" s="225"/>
+      <c r="I1" s="225"/>
+      <c r="J1" s="225"/>
       <c r="K1" s="34"/>
       <c r="L1" s="34"/>
     </row>
-    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="3" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="241" t="s">
+    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="226" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="242"/>
-      <c r="D3" s="243" t="s">
-        <v>148</v>
-      </c>
-      <c r="E3" s="244"/>
-      <c r="F3" s="245"/>
-      <c r="G3" s="257" t="s">
+      <c r="C3" s="227"/>
+      <c r="D3" s="228" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" s="229"/>
+      <c r="F3" s="230"/>
+      <c r="G3" s="242" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="258"/>
-      <c r="I3" s="246" t="s">
+      <c r="H3" s="243"/>
+      <c r="I3" s="231" t="s">
         <v>108</v>
       </c>
-      <c r="J3" s="247"/>
-      <c r="K3" s="248"/>
+      <c r="J3" s="232"/>
+      <c r="K3" s="233"/>
       <c r="L3" s="37"/>
     </row>
-    <row r="4" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="249" t="s">
+    <row r="4" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="234" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="250"/>
-      <c r="D4" s="251" t="s">
-        <v>188</v>
-      </c>
-      <c r="E4" s="252"/>
-      <c r="F4" s="253"/>
-      <c r="G4" s="259" t="s">
+      <c r="C4" s="235"/>
+      <c r="D4" s="236" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" s="237"/>
+      <c r="F4" s="238"/>
+      <c r="G4" s="244" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="260"/>
-      <c r="I4" s="254" t="s">
+      <c r="H4" s="245"/>
+      <c r="I4" s="239" t="s">
         <v>94</v>
       </c>
-      <c r="J4" s="255"/>
-      <c r="K4" s="256"/>
+      <c r="J4" s="240"/>
+      <c r="K4" s="241"/>
       <c r="L4" s="39"/>
     </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="40"/>
       <c r="C5" s="40"/>
       <c r="D5" s="40"/>
@@ -6741,102 +6801,102 @@
       <c r="I5" s="40"/>
       <c r="J5" s="40"/>
     </row>
-    <row r="6" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="279" t="s">
+    <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="264" t="s">
         <v>47</v>
       </c>
       <c r="C6" s="36"/>
-      <c r="D6" s="257" t="s">
+      <c r="D6" s="242" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="258"/>
-      <c r="F6" s="257" t="s">
+      <c r="E6" s="243"/>
+      <c r="F6" s="242" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="282"/>
-      <c r="H6" s="282"/>
-      <c r="I6" s="257" t="s">
+      <c r="G6" s="267"/>
+      <c r="H6" s="267"/>
+      <c r="I6" s="242" t="s">
         <v>50</v>
       </c>
-      <c r="J6" s="282"/>
-      <c r="K6" s="283"/>
+      <c r="J6" s="267"/>
+      <c r="K6" s="268"/>
       <c r="L6" s="41"/>
     </row>
-    <row r="7" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="280"/>
+    <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="265"/>
       <c r="C7" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="236" t="s">
+      <c r="D7" s="221" t="s">
         <v>109</v>
       </c>
-      <c r="E7" s="238"/>
-      <c r="F7" s="236" t="s">
+      <c r="E7" s="223"/>
+      <c r="F7" s="221" t="s">
         <v>110</v>
       </c>
-      <c r="G7" s="239"/>
-      <c r="H7" s="238"/>
+      <c r="G7" s="224"/>
+      <c r="H7" s="223"/>
       <c r="I7" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="236" t="e">
+      <c r="J7" s="221" t="e">
         <f>D7+F7</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K7" s="237"/>
+      <c r="K7" s="222"/>
       <c r="L7" s="44"/>
     </row>
-    <row r="8" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="280"/>
+    <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="265"/>
       <c r="C8" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="236" t="s">
+      <c r="D8" s="221" t="s">
         <v>113</v>
       </c>
-      <c r="E8" s="238"/>
-      <c r="F8" s="236" t="s">
+      <c r="E8" s="223"/>
+      <c r="F8" s="221" t="s">
         <v>114</v>
       </c>
-      <c r="G8" s="239"/>
-      <c r="H8" s="239"/>
+      <c r="G8" s="224"/>
+      <c r="H8" s="224"/>
       <c r="I8" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="236" t="e">
+      <c r="J8" s="221" t="e">
         <f>D8+F8</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K8" s="237"/>
+      <c r="K8" s="222"/>
       <c r="L8" s="44"/>
     </row>
-    <row r="9" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="281"/>
+    <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="266"/>
       <c r="C9" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="261">
+      <c r="D9" s="246">
         <f>SUM(D7:E8)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="262"/>
-      <c r="F9" s="261">
+      <c r="E9" s="247"/>
+      <c r="F9" s="246">
         <f>SUM(F7:H8)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="263"/>
-      <c r="H9" s="263"/>
+      <c r="G9" s="248"/>
+      <c r="H9" s="248"/>
       <c r="I9" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="J9" s="261">
+      <c r="J9" s="246">
         <f>D9+F9</f>
         <v>0</v>
       </c>
-      <c r="K9" s="264"/>
+      <c r="K9" s="249"/>
       <c r="L9" s="44"/>
     </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="40"/>
       <c r="C10" s="40"/>
       <c r="D10" s="40"/>
@@ -6846,59 +6906,59 @@
       <c r="I10" s="40"/>
       <c r="J10" s="40"/>
     </row>
-    <row r="11" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="265" t="s">
+    <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="250" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="266"/>
+      <c r="C11" s="251"/>
       <c r="D11" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="269" t="s">
+      <c r="E11" s="254" t="s">
         <v>111</v>
       </c>
-      <c r="F11" s="270"/>
+      <c r="F11" s="255"/>
       <c r="G11" s="53" t="s">
-        <v>198</v>
-      </c>
-      <c r="H11" s="271" t="s">
-        <v>197</v>
-      </c>
-      <c r="I11" s="271"/>
-      <c r="J11" s="272" t="e">
+        <v>170</v>
+      </c>
+      <c r="H11" s="256" t="s">
+        <v>169</v>
+      </c>
+      <c r="I11" s="256"/>
+      <c r="J11" s="257" t="e">
         <f>H11-E11+1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K11" s="273"/>
+      <c r="K11" s="258"/>
       <c r="L11" s="48"/>
     </row>
-    <row r="12" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="267"/>
-      <c r="C12" s="268"/>
+    <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="252"/>
+      <c r="C12" s="253"/>
       <c r="D12" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="274" t="s">
+      <c r="E12" s="259" t="s">
         <v>112</v>
       </c>
-      <c r="F12" s="275"/>
-      <c r="G12" s="200" t="s">
-        <v>198</v>
-      </c>
-      <c r="H12" s="276" t="s">
-        <v>199</v>
-      </c>
-      <c r="I12" s="276"/>
-      <c r="J12" s="277" t="e">
+      <c r="F12" s="260"/>
+      <c r="G12" s="97" t="s">
+        <v>170</v>
+      </c>
+      <c r="H12" s="261" t="s">
+        <v>171</v>
+      </c>
+      <c r="I12" s="261"/>
+      <c r="J12" s="262" t="e">
         <f>H12-E12+1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K12" s="278"/>
+      <c r="K12" s="263"/>
       <c r="L12" s="48"/>
     </row>
-    <row r="13" spans="1:12" ht="10" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="14" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="289" t="s">
+    <row r="13" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="274" t="s">
         <v>59</v>
       </c>
       <c r="C14" s="50"/>
@@ -6912,20 +6972,20 @@
       <c r="F14" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="303" t="e">
+      <c r="G14" s="288" t="e">
         <f>J$11+J$12</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H14" s="303"/>
-      <c r="I14" s="292" t="s">
+      <c r="H14" s="288"/>
+      <c r="I14" s="277" t="s">
         <v>95</v>
       </c>
-      <c r="J14" s="292"/>
-      <c r="K14" s="293"/>
+      <c r="J14" s="277"/>
+      <c r="K14" s="278"/>
       <c r="L14" s="54"/>
     </row>
-    <row r="15" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="290"/>
+    <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="275"/>
       <c r="C15" s="55" t="s">
         <v>61</v>
       </c>
@@ -6939,40 +6999,40 @@
       <c r="F15" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="304" t="e">
+      <c r="G15" s="289" t="e">
         <f>J$11+J$12</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H15" s="304"/>
-      <c r="I15" s="294" t="s">
+      <c r="H15" s="289"/>
+      <c r="I15" s="279" t="s">
         <v>96</v>
       </c>
-      <c r="J15" s="294"/>
-      <c r="K15" s="295"/>
+      <c r="J15" s="279"/>
+      <c r="K15" s="280"/>
       <c r="L15" s="54"/>
     </row>
-    <row r="16" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="290"/>
+    <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="275"/>
       <c r="C16" s="59"/>
       <c r="D16" s="60" t="s">
         <v>50</v>
       </c>
       <c r="E16" s="61"/>
       <c r="F16" s="62"/>
-      <c r="G16" s="305"/>
-      <c r="H16" s="305"/>
+      <c r="G16" s="290"/>
+      <c r="H16" s="290"/>
       <c r="I16" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="J16" s="296" t="e">
+      <c r="J16" s="281" t="e">
         <f>I14+I15</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K16" s="297"/>
+      <c r="K16" s="282"/>
       <c r="L16" s="54"/>
     </row>
-    <row r="17" spans="2:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="291"/>
+    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="276"/>
       <c r="C17" s="64" t="s">
         <v>64</v>
       </c>
@@ -6984,68 +7044,68 @@
       <c r="F17" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="G17" s="306" t="str">
+      <c r="G17" s="291" t="str">
         <f>I16</f>
         <v>（Ｄ）</v>
       </c>
-      <c r="H17" s="306"/>
+      <c r="H17" s="291"/>
       <c r="I17" s="68"/>
-      <c r="J17" s="298" t="e">
+      <c r="J17" s="283" t="e">
         <f>J9-J16</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K17" s="299"/>
+      <c r="K17" s="284"/>
       <c r="L17" s="54"/>
     </row>
-    <row r="18" spans="2:12" ht="8.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:12" ht="8.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="I18" s="69"/>
       <c r="J18" s="69"/>
     </row>
-    <row r="19" spans="2:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="300" t="s">
+    <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="285" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="301"/>
-      <c r="D19" s="302"/>
+      <c r="C19" s="286"/>
+      <c r="D19" s="287"/>
       <c r="E19" s="70"/>
       <c r="F19" s="70"/>
-      <c r="G19" s="307"/>
-      <c r="H19" s="307"/>
+      <c r="G19" s="292"/>
+      <c r="H19" s="292"/>
       <c r="I19" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="J19" s="287" t="s">
+      <c r="J19" s="272" t="s">
         <v>97</v>
       </c>
-      <c r="K19" s="288"/>
+      <c r="K19" s="273"/>
       <c r="L19" s="54"/>
     </row>
-    <row r="20" spans="2:12" ht="8.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:12" ht="8.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="72"/>
       <c r="C20" s="72"/>
       <c r="I20" s="73"/>
       <c r="J20" s="73"/>
     </row>
-    <row r="21" spans="2:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="284" t="s">
+    <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="269" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="285"/>
-      <c r="D21" s="286"/>
+      <c r="C21" s="270"/>
+      <c r="D21" s="271"/>
       <c r="E21" s="70"/>
       <c r="F21" s="70"/>
-      <c r="G21" s="307"/>
-      <c r="H21" s="307"/>
+      <c r="G21" s="292"/>
+      <c r="H21" s="292"/>
       <c r="I21" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="J21" s="287" t="s">
-        <v>180</v>
-      </c>
-      <c r="K21" s="288"/>
+      <c r="J21" s="272" t="s">
+        <v>152</v>
+      </c>
+      <c r="K21" s="273"/>
       <c r="L21" s="74"/>
     </row>
-    <row r="22" spans="2:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="72"/>
       <c r="C22" s="72"/>
       <c r="D22" s="75"/>
@@ -7112,38 +7172,38 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.58203125" style="35" customWidth="1"/>
-    <col min="2" max="3" width="6.58203125" style="35" customWidth="1"/>
+    <col min="1" max="1" width="2.625" style="35" customWidth="1"/>
+    <col min="2" max="3" width="6.625" style="35" customWidth="1"/>
     <col min="4" max="4" width="13.75" style="35" customWidth="1"/>
     <col min="5" max="5" width="3.5" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.58203125" style="35" customWidth="1"/>
-    <col min="7" max="8" width="6.58203125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="35" customWidth="1"/>
+    <col min="7" max="8" width="6.625" style="35" customWidth="1"/>
     <col min="9" max="9" width="7" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.58203125" style="35" customWidth="1"/>
-    <col min="11" max="16384" width="8.58203125" style="35"/>
+    <col min="10" max="10" width="2.625" style="35" customWidth="1"/>
+    <col min="11" max="16384" width="8.625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="76"/>
     </row>
-    <row r="2" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="33"/>
-      <c r="B2" s="308" t="s">
+      <c r="B2" s="293" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="308"/>
-      <c r="D2" s="308"/>
-      <c r="E2" s="308"/>
-      <c r="F2" s="308"/>
-      <c r="G2" s="308"/>
-      <c r="H2" s="308"/>
-      <c r="I2" s="308"/>
+      <c r="C2" s="293"/>
+      <c r="D2" s="293"/>
+      <c r="E2" s="293"/>
+      <c r="F2" s="293"/>
+      <c r="G2" s="293"/>
+      <c r="H2" s="293"/>
+      <c r="I2" s="293"/>
       <c r="J2" s="34"/>
     </row>
-    <row r="3" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="4" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="77"/>
       <c r="C4" s="77"/>
       <c r="D4" s="77"/>
@@ -7153,37 +7213,37 @@
       <c r="H4" s="77"/>
       <c r="I4" s="91"/>
     </row>
-    <row r="5" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="309" t="s">
+    <row r="5" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="294" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="309"/>
-      <c r="D5" s="309"/>
-      <c r="E5" s="309"/>
+      <c r="C5" s="294"/>
+      <c r="D5" s="294"/>
+      <c r="E5" s="294"/>
       <c r="F5" s="78" t="s">
         <v>8</v>
       </c>
       <c r="I5" s="92"/>
-      <c r="L5" s="318" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L6" s="319"/>
-    </row>
-    <row r="7" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" s="310" t="e">
+      <c r="L5" s="303" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L6" s="304"/>
+    </row>
+    <row r="7" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D7" s="295" t="e">
         <f>G13+G14</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E7" s="311"/>
-      <c r="F7" s="311"/>
-      <c r="G7" s="311"/>
-      <c r="H7" s="312"/>
+      <c r="E7" s="296"/>
+      <c r="F7" s="296"/>
+      <c r="G7" s="296"/>
+      <c r="H7" s="297"/>
       <c r="I7" s="41"/>
       <c r="J7" s="79"/>
     </row>
-    <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E8" s="80"/>
       <c r="F8" s="81"/>
       <c r="G8" s="82"/>
@@ -7191,7 +7251,7 @@
       <c r="I8" s="79"/>
       <c r="J8" s="79"/>
     </row>
-    <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E9" s="80"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
@@ -7199,97 +7259,97 @@
       <c r="I9" s="79"/>
       <c r="J9" s="79"/>
     </row>
-    <row r="10" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="313" t="s">
+    <row r="10" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="298" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="314"/>
-      <c r="D10" s="315" t="s">
-        <v>148</v>
-      </c>
-      <c r="E10" s="316"/>
-      <c r="F10" s="316"/>
-      <c r="G10" s="316"/>
-      <c r="H10" s="316"/>
-      <c r="I10" s="317"/>
+      <c r="C10" s="299"/>
+      <c r="D10" s="300" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="301"/>
+      <c r="F10" s="301"/>
+      <c r="G10" s="301"/>
+      <c r="H10" s="301"/>
+      <c r="I10" s="302"/>
       <c r="J10" s="79"/>
       <c r="L10" s="35" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="J11" s="83"/>
       <c r="L11" s="35" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="326" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="311" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="327"/>
-      <c r="D12" s="327"/>
-      <c r="E12" s="327"/>
-      <c r="F12" s="327"/>
-      <c r="G12" s="327" t="s">
+      <c r="C12" s="312"/>
+      <c r="D12" s="312"/>
+      <c r="E12" s="312"/>
+      <c r="F12" s="312"/>
+      <c r="G12" s="312" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="327"/>
-      <c r="I12" s="328"/>
+      <c r="H12" s="312"/>
+      <c r="I12" s="313"/>
       <c r="J12" s="83"/>
       <c r="L12" s="35" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="329" t="s">
-        <v>189</v>
-      </c>
-      <c r="C13" s="330"/>
-      <c r="D13" s="330"/>
-      <c r="E13" s="330"/>
-      <c r="F13" s="331"/>
-      <c r="G13" s="332" t="s">
-        <v>179</v>
-      </c>
-      <c r="H13" s="333"/>
-      <c r="I13" s="334"/>
+    <row r="13" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="314" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="315"/>
+      <c r="D13" s="315"/>
+      <c r="E13" s="315"/>
+      <c r="F13" s="316"/>
+      <c r="G13" s="317" t="s">
+        <v>151</v>
+      </c>
+      <c r="H13" s="318"/>
+      <c r="I13" s="319"/>
       <c r="J13" s="83"/>
       <c r="L13" s="35" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="335" t="s">
-        <v>200</v>
-      </c>
-      <c r="C14" s="336"/>
-      <c r="D14" s="336"/>
-      <c r="E14" s="336"/>
-      <c r="F14" s="337"/>
-      <c r="G14" s="332" t="s">
-        <v>183</v>
-      </c>
-      <c r="H14" s="333"/>
-      <c r="I14" s="334"/>
+    <row r="14" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="320" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="321"/>
+      <c r="D14" s="321"/>
+      <c r="E14" s="321"/>
+      <c r="F14" s="322"/>
+      <c r="G14" s="317" t="s">
+        <v>155</v>
+      </c>
+      <c r="H14" s="318"/>
+      <c r="I14" s="319"/>
       <c r="J14" s="83"/>
       <c r="L14" s="35" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="323" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="308" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="324"/>
-      <c r="D15" s="324"/>
-      <c r="E15" s="324"/>
-      <c r="F15" s="325"/>
-      <c r="G15" s="338"/>
-      <c r="H15" s="339"/>
-      <c r="I15" s="340"/>
-    </row>
-    <row r="16" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" s="309"/>
+      <c r="D15" s="309"/>
+      <c r="E15" s="309"/>
+      <c r="F15" s="310"/>
+      <c r="G15" s="323"/>
+      <c r="H15" s="324"/>
+      <c r="I15" s="325"/>
+    </row>
+    <row r="16" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="84"/>
       <c r="C16" s="84"/>
       <c r="D16" s="84"/>
@@ -7299,11 +7359,11 @@
       <c r="H16" s="86"/>
       <c r="I16" s="86"/>
     </row>
-    <row r="17" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="322" t="s">
+    <row r="17" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="307" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="322"/>
+      <c r="C17" s="307"/>
       <c r="D17" s="93" t="s">
         <v>17</v>
       </c>
@@ -7313,7 +7373,7 @@
       <c r="H17" s="79"/>
       <c r="I17" s="79"/>
     </row>
-    <row r="18" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="94"/>
       <c r="C18" s="94"/>
       <c r="D18" s="94"/>
@@ -7323,38 +7383,38 @@
       <c r="H18" s="94"/>
       <c r="I18" s="94"/>
     </row>
-    <row r="19" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D19" s="87"/>
       <c r="E19" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="268"/>
-      <c r="G19" s="268"/>
-      <c r="H19" s="268"/>
-      <c r="I19" s="268"/>
-      <c r="J19" s="268"/>
-    </row>
-    <row r="20" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F19" s="253"/>
+      <c r="G19" s="253"/>
+      <c r="H19" s="253"/>
+      <c r="I19" s="253"/>
+      <c r="J19" s="253"/>
+    </row>
+    <row r="20" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D20" s="87"/>
       <c r="E20" s="88"/>
-      <c r="F20" s="320"/>
-      <c r="G20" s="320"/>
-      <c r="H20" s="320"/>
-      <c r="I20" s="320"/>
-    </row>
-    <row r="21" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F20" s="305"/>
+      <c r="G20" s="305"/>
+      <c r="H20" s="305"/>
+      <c r="I20" s="305"/>
+    </row>
+    <row r="21" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E21" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="321" t="s">
+      <c r="F21" s="306" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="321"/>
-      <c r="H21" s="321"/>
-      <c r="I21" s="321"/>
-      <c r="J21" s="321"/>
-    </row>
-    <row r="22" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G21" s="306"/>
+      <c r="H21" s="306"/>
+      <c r="I21" s="306"/>
+      <c r="J21" s="306"/>
+    </row>
+    <row r="22" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E22" s="88"/>
       <c r="F22" s="95"/>
       <c r="G22" s="95"/>
@@ -7362,7 +7422,7 @@
       <c r="I22" s="95"/>
       <c r="J22" s="95"/>
     </row>
-    <row r="23" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E23" s="88"/>
       <c r="F23" s="96"/>
       <c r="G23" s="96"/>
@@ -7370,7 +7430,7 @@
       <c r="I23" s="96"/>
       <c r="J23" s="96"/>
     </row>
-    <row r="24" spans="2:10" ht="12" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:10" ht="12" x14ac:dyDescent="0.4">
       <c r="F24" s="96"/>
       <c r="G24" s="96"/>
       <c r="H24" s="96"/>
@@ -7418,40 +7478,40 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.58203125" style="35" customWidth="1"/>
-    <col min="2" max="3" width="6.58203125" style="35" customWidth="1"/>
+    <col min="1" max="1" width="2.625" style="35" customWidth="1"/>
+    <col min="2" max="3" width="6.625" style="35" customWidth="1"/>
     <col min="4" max="4" width="13.75" style="35" customWidth="1"/>
     <col min="5" max="5" width="3.5" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.58203125" style="35" customWidth="1"/>
-    <col min="7" max="8" width="6.58203125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="35" customWidth="1"/>
+    <col min="7" max="8" width="6.625" style="35" customWidth="1"/>
     <col min="9" max="9" width="7" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.58203125" style="35" customWidth="1"/>
-    <col min="11" max="11" width="8.58203125" style="35"/>
-    <col min="12" max="12" width="8.58203125" style="35" customWidth="1"/>
-    <col min="13" max="16384" width="8.58203125" style="35"/>
+    <col min="10" max="10" width="2.625" style="35" customWidth="1"/>
+    <col min="11" max="11" width="8.625" style="35"/>
+    <col min="12" max="12" width="8.625" style="35" customWidth="1"/>
+    <col min="13" max="16384" width="8.625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="76"/>
     </row>
-    <row r="2" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="33"/>
-      <c r="B2" s="308" t="s">
+      <c r="B2" s="293" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="308"/>
-      <c r="D2" s="308"/>
-      <c r="E2" s="308"/>
-      <c r="F2" s="308"/>
-      <c r="G2" s="308"/>
-      <c r="H2" s="308"/>
-      <c r="I2" s="308"/>
+      <c r="C2" s="293"/>
+      <c r="D2" s="293"/>
+      <c r="E2" s="293"/>
+      <c r="F2" s="293"/>
+      <c r="G2" s="293"/>
+      <c r="H2" s="293"/>
+      <c r="I2" s="293"/>
       <c r="J2" s="34"/>
     </row>
-    <row r="3" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="4" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="77"/>
       <c r="C4" s="77"/>
       <c r="D4" s="77"/>
@@ -7461,32 +7521,32 @@
       <c r="H4" s="77"/>
       <c r="I4" s="91"/>
     </row>
-    <row r="5" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="309" t="s">
+    <row r="5" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="294" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="309"/>
-      <c r="D5" s="309"/>
-      <c r="E5" s="309"/>
+      <c r="C5" s="294"/>
+      <c r="D5" s="294"/>
+      <c r="E5" s="294"/>
       <c r="F5" s="78" t="s">
         <v>8</v>
       </c>
       <c r="I5" s="92"/>
     </row>
-    <row r="6" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" s="310" t="e">
+    <row r="6" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D7" s="295" t="e">
         <f>G13+G14</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E7" s="311"/>
-      <c r="F7" s="311"/>
-      <c r="G7" s="311"/>
-      <c r="H7" s="312"/>
+      <c r="E7" s="296"/>
+      <c r="F7" s="296"/>
+      <c r="G7" s="296"/>
+      <c r="H7" s="297"/>
       <c r="I7" s="41"/>
       <c r="J7" s="79"/>
     </row>
-    <row r="8" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E8" s="80"/>
       <c r="F8" s="81"/>
       <c r="G8" s="82"/>
@@ -7494,7 +7554,7 @@
       <c r="I8" s="79"/>
       <c r="J8" s="79"/>
     </row>
-    <row r="9" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E9" s="80"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
@@ -7502,97 +7562,97 @@
       <c r="I9" s="79"/>
       <c r="J9" s="79"/>
     </row>
-    <row r="10" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="313" t="s">
+    <row r="10" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="298" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="314"/>
-      <c r="D10" s="315" t="s">
-        <v>148</v>
-      </c>
-      <c r="E10" s="316"/>
-      <c r="F10" s="316"/>
-      <c r="G10" s="316"/>
-      <c r="H10" s="316"/>
-      <c r="I10" s="317"/>
+      <c r="C10" s="299"/>
+      <c r="D10" s="300" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="301"/>
+      <c r="F10" s="301"/>
+      <c r="G10" s="301"/>
+      <c r="H10" s="301"/>
+      <c r="I10" s="302"/>
       <c r="J10" s="79"/>
-      <c r="L10" s="341">
+      <c r="L10" s="326">
         <v>8250000</v>
       </c>
-      <c r="M10" s="341"/>
-      <c r="N10" s="341"/>
-      <c r="O10" s="341"/>
-      <c r="P10" s="341"/>
-    </row>
-    <row r="11" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="M10" s="326"/>
+      <c r="N10" s="326"/>
+      <c r="O10" s="326"/>
+      <c r="P10" s="326"/>
+    </row>
+    <row r="11" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="J11" s="83"/>
       <c r="L11" s="35" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="326" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="311" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="327"/>
-      <c r="D12" s="327"/>
-      <c r="E12" s="327"/>
-      <c r="F12" s="327"/>
-      <c r="G12" s="327" t="s">
+      <c r="C12" s="312"/>
+      <c r="D12" s="312"/>
+      <c r="E12" s="312"/>
+      <c r="F12" s="312"/>
+      <c r="G12" s="312" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="327"/>
-      <c r="I12" s="328"/>
+      <c r="H12" s="312"/>
+      <c r="I12" s="313"/>
       <c r="J12" s="83"/>
       <c r="L12" s="35" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="329" t="s">
-        <v>169</v>
-      </c>
-      <c r="C13" s="330"/>
-      <c r="D13" s="330"/>
-      <c r="E13" s="330"/>
-      <c r="F13" s="331"/>
-      <c r="G13" s="332" t="s">
-        <v>166</v>
-      </c>
-      <c r="H13" s="333"/>
-      <c r="I13" s="334"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="314" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="315"/>
+      <c r="D13" s="315"/>
+      <c r="E13" s="315"/>
+      <c r="F13" s="316"/>
+      <c r="G13" s="317" t="s">
+        <v>138</v>
+      </c>
+      <c r="H13" s="318"/>
+      <c r="I13" s="319"/>
       <c r="J13" s="83"/>
       <c r="L13" s="35" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="335" t="s">
-        <v>170</v>
-      </c>
-      <c r="C14" s="336"/>
-      <c r="D14" s="336"/>
-      <c r="E14" s="336"/>
-      <c r="F14" s="337"/>
-      <c r="G14" s="332"/>
-      <c r="H14" s="333"/>
-      <c r="I14" s="334"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="320" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" s="321"/>
+      <c r="D14" s="321"/>
+      <c r="E14" s="321"/>
+      <c r="F14" s="322"/>
+      <c r="G14" s="317"/>
+      <c r="H14" s="318"/>
+      <c r="I14" s="319"/>
       <c r="J14" s="83"/>
       <c r="L14" s="35" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="323"/>
-      <c r="C15" s="324"/>
-      <c r="D15" s="324"/>
-      <c r="E15" s="324"/>
-      <c r="F15" s="325"/>
-      <c r="G15" s="338"/>
-      <c r="H15" s="339"/>
-      <c r="I15" s="340"/>
-    </row>
-    <row r="16" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="308"/>
+      <c r="C15" s="309"/>
+      <c r="D15" s="309"/>
+      <c r="E15" s="309"/>
+      <c r="F15" s="310"/>
+      <c r="G15" s="323"/>
+      <c r="H15" s="324"/>
+      <c r="I15" s="325"/>
+    </row>
+    <row r="16" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="84"/>
       <c r="C16" s="84"/>
       <c r="D16" s="84"/>
@@ -7602,11 +7662,11 @@
       <c r="H16" s="86"/>
       <c r="I16" s="86"/>
     </row>
-    <row r="17" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="322" t="s">
-        <v>196</v>
-      </c>
-      <c r="C17" s="322"/>
+    <row r="17" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="307" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" s="307"/>
       <c r="D17" s="93" t="s">
         <v>17</v>
       </c>
@@ -7616,7 +7676,7 @@
       <c r="H17" s="79"/>
       <c r="I17" s="79"/>
     </row>
-    <row r="18" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="94"/>
       <c r="C18" s="94"/>
       <c r="D18" s="94"/>
@@ -7626,38 +7686,38 @@
       <c r="H18" s="94"/>
       <c r="I18" s="94"/>
     </row>
-    <row r="19" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D19" s="87"/>
       <c r="E19" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="268"/>
-      <c r="G19" s="268"/>
-      <c r="H19" s="268"/>
-      <c r="I19" s="268"/>
-      <c r="J19" s="268"/>
-    </row>
-    <row r="20" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F19" s="253"/>
+      <c r="G19" s="253"/>
+      <c r="H19" s="253"/>
+      <c r="I19" s="253"/>
+      <c r="J19" s="253"/>
+    </row>
+    <row r="20" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D20" s="87"/>
       <c r="E20" s="88"/>
-      <c r="F20" s="320"/>
-      <c r="G20" s="320"/>
-      <c r="H20" s="320"/>
-      <c r="I20" s="320"/>
-    </row>
-    <row r="21" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F20" s="305"/>
+      <c r="G20" s="305"/>
+      <c r="H20" s="305"/>
+      <c r="I20" s="305"/>
+    </row>
+    <row r="21" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E21" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="321" t="s">
+      <c r="F21" s="306" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="321"/>
-      <c r="H21" s="321"/>
-      <c r="I21" s="321"/>
-      <c r="J21" s="321"/>
-    </row>
-    <row r="22" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G21" s="306"/>
+      <c r="H21" s="306"/>
+      <c r="I21" s="306"/>
+      <c r="J21" s="306"/>
+    </row>
+    <row r="22" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E22" s="88"/>
       <c r="F22" s="95"/>
       <c r="G22" s="95"/>
@@ -7665,7 +7725,7 @@
       <c r="I22" s="95"/>
       <c r="J22" s="95"/>
     </row>
-    <row r="23" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E23" s="88"/>
       <c r="F23" s="96"/>
       <c r="G23" s="96"/>
@@ -7673,7 +7733,7 @@
       <c r="I23" s="96"/>
       <c r="J23" s="96"/>
     </row>
-    <row r="24" spans="2:10" ht="12" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:10" ht="12" x14ac:dyDescent="0.4">
       <c r="F24" s="96"/>
       <c r="G24" s="96"/>
       <c r="H24" s="96"/>
@@ -7716,752 +7776,804 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C237738-5F1B-4E48-B767-B31D9052324F}">
-  <dimension ref="A1:O42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{664FECCD-EDBB-4B69-8616-E3DCD69289A2}">
+  <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="1.75" style="98" customWidth="1"/>
-    <col min="2" max="2" width="17" style="98" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="98" customWidth="1"/>
-    <col min="4" max="4" width="15" style="98" customWidth="1"/>
-    <col min="5" max="5" width="4.25" style="98" customWidth="1"/>
-    <col min="6" max="6" width="12.08203125" style="98" customWidth="1"/>
-    <col min="7" max="7" width="6.25" style="98" customWidth="1"/>
-    <col min="8" max="8" width="6.5" style="98" customWidth="1"/>
-    <col min="9" max="9" width="7.25" style="98" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.25" style="98" customWidth="1"/>
-    <col min="11" max="11" width="13.5" style="98" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.83203125" style="98" customWidth="1"/>
-    <col min="13" max="14" width="15.33203125" style="98" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.75" style="98" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.58203125" style="98"/>
+    <col min="1" max="1" width="1.75" style="100" customWidth="1"/>
+    <col min="2" max="2" width="17" style="100" customWidth="1"/>
+    <col min="3" max="3" width="7.375" style="100" customWidth="1"/>
+    <col min="4" max="4" width="13.25" style="100" customWidth="1"/>
+    <col min="5" max="5" width="4.25" style="100" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="100" customWidth="1"/>
+    <col min="7" max="7" width="6.25" style="100" customWidth="1"/>
+    <col min="8" max="8" width="6.5" style="100" customWidth="1"/>
+    <col min="9" max="10" width="7.25" style="100" customWidth="1"/>
+    <col min="11" max="11" width="13.5" style="100" customWidth="1"/>
+    <col min="12" max="12" width="14.75" style="100" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.125" style="100" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.125" style="101" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" style="101" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11" style="101" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9" style="101" customWidth="1"/>
+    <col min="19" max="16384" width="8.625" style="101"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="6.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="97"/>
-      <c r="M1" s="199"/>
-      <c r="N1" s="199"/>
-      <c r="O1" s="199"/>
-    </row>
-    <row r="2" spans="1:15" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="99"/>
-      <c r="B2" s="379" t="s">
+    <row r="1" spans="1:17" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="99"/>
+    </row>
+    <row r="2" spans="1:17" ht="23.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="102"/>
+      <c r="B2" s="359" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="359"/>
+      <c r="D2" s="359"/>
+      <c r="E2" s="359"/>
+      <c r="F2" s="359"/>
+      <c r="G2" s="359"/>
+      <c r="H2" s="359"/>
+      <c r="I2" s="359"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+    </row>
+    <row r="4" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="105" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="360" t="s">
+        <v>214</v>
+      </c>
+      <c r="D4" s="360"/>
+      <c r="E4" s="360"/>
+      <c r="F4" s="117" t="s">
+        <v>178</v>
+      </c>
+      <c r="G4" s="361" t="s">
+        <v>215</v>
+      </c>
+      <c r="H4" s="362"/>
+      <c r="I4" s="362"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="108"/>
+      <c r="L4" s="108"/>
+      <c r="M4" s="108"/>
+    </row>
+    <row r="5" spans="1:17" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" s="363" t="s">
+        <v>216</v>
+      </c>
+      <c r="D5" s="363"/>
+      <c r="E5" s="363"/>
+      <c r="F5" s="106" t="s">
+        <v>180</v>
+      </c>
+      <c r="G5" s="364" t="s">
+        <v>181</v>
+      </c>
+      <c r="H5" s="364"/>
+      <c r="I5" s="365"/>
+      <c r="J5" s="107"/>
+    </row>
+    <row r="6" spans="1:17" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="110" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="111"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="107"/>
+    </row>
+    <row r="7" spans="1:17" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="113"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="107"/>
+    </row>
+    <row r="8" spans="1:17" ht="4.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="112"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+    </row>
+    <row r="9" spans="1:17" ht="4.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="112"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="107"/>
+    </row>
+    <row r="10" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="110" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" s="111"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="107"/>
+    </row>
+    <row r="11" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="114" t="s">
+        <v>184</v>
+      </c>
+      <c r="C11" s="366" t="s">
+        <v>183</v>
+      </c>
+      <c r="D11" s="366"/>
+      <c r="E11" s="366"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="104"/>
+    </row>
+    <row r="12" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="176" t="s">
+        <v>203</v>
+      </c>
+      <c r="C12" s="356" t="s">
+        <v>204</v>
+      </c>
+      <c r="D12" s="356"/>
+      <c r="E12" s="356"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="104"/>
+    </row>
+    <row r="13" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="109" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="349" t="s">
+        <v>220</v>
+      </c>
+      <c r="D13" s="349"/>
+      <c r="E13" s="349"/>
+      <c r="F13" s="112" t="s">
+        <v>185</v>
+      </c>
+      <c r="G13" s="104"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="104"/>
+      <c r="L13" s="173"/>
+    </row>
+    <row r="14" spans="1:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="112"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="104"/>
+    </row>
+    <row r="15" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="104" t="s">
+        <v>186</v>
+      </c>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="104"/>
+      <c r="J15" s="104"/>
+      <c r="K15" s="181" t="s">
+        <v>213</v>
+      </c>
+      <c r="L15" s="181" t="s">
+        <v>207</v>
+      </c>
+      <c r="M15" s="182" t="s">
+        <v>211</v>
+      </c>
+      <c r="N15" s="182" t="s">
+        <v>209</v>
+      </c>
+      <c r="O15" s="181" t="s">
+        <v>208</v>
+      </c>
+      <c r="P15" s="181" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q15" s="182" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="116" t="s">
+        <v>187</v>
+      </c>
+      <c r="C16" s="357" t="s">
+        <v>188</v>
+      </c>
+      <c r="D16" s="358"/>
+      <c r="E16" s="345" t="s">
+        <v>189</v>
+      </c>
+      <c r="F16" s="345"/>
+      <c r="G16" s="345" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="345"/>
+      <c r="I16" s="345"/>
+      <c r="J16" s="104"/>
+      <c r="K16" s="183" t="e">
+        <f>IF(L16 = "","",MONTH(L16))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L16" s="184" t="s">
+        <v>217</v>
+      </c>
+      <c r="M16" s="185" t="e">
+        <f>IF(L16 = "", "", L16-DAY(L16)+1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N16" s="185" t="e">
+        <f>IF(L16 = "", "", EOMONTH(L16,0))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O16" s="186" t="e">
+        <f>IF(L16 = "", "", DAY(EOMONTH(L16,0)))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P16" s="186" t="e">
+        <f>IF(L16 = "","", (N16-L16)+1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q16" s="182" t="e">
+        <f>IF(L16 = "","", O16-P16)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="176" t="s">
+        <v>203</v>
+      </c>
+      <c r="C17" s="346" t="s">
+        <v>205</v>
+      </c>
+      <c r="D17" s="347"/>
+      <c r="E17" s="348" t="s">
+        <v>206</v>
+      </c>
+      <c r="F17" s="348"/>
+      <c r="G17" s="349" t="s">
+        <v>219</v>
+      </c>
+      <c r="H17" s="349"/>
+      <c r="I17" s="349"/>
+      <c r="J17" s="112"/>
+    </row>
+    <row r="18" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="118" t="s">
+        <v>190</v>
+      </c>
+      <c r="C18" s="350" t="s">
+        <v>221</v>
+      </c>
+      <c r="D18" s="351"/>
+      <c r="E18" s="350" t="s">
+        <v>222</v>
+      </c>
+      <c r="F18" s="351"/>
+      <c r="G18" s="349" t="s">
+        <v>218</v>
+      </c>
+      <c r="H18" s="352"/>
+      <c r="I18" s="352"/>
+      <c r="J18" s="112" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="379"/>
-      <c r="D2" s="379"/>
-      <c r="E2" s="379"/>
-      <c r="F2" s="379"/>
-      <c r="G2" s="379"/>
-      <c r="H2" s="379"/>
-      <c r="I2" s="379"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="198"/>
-      <c r="N2" s="198"/>
-      <c r="O2" s="198"/>
-    </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-    </row>
-    <row r="4" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="103" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="380"/>
-      <c r="D4" s="381"/>
-      <c r="E4" s="382"/>
-      <c r="F4" s="104" t="s">
-        <v>119</v>
-      </c>
-      <c r="G4" s="383">
-        <v>43983</v>
-      </c>
-      <c r="H4" s="383"/>
-      <c r="I4" s="384"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="106"/>
-      <c r="L4" s="106"/>
-      <c r="M4" s="107" t="s">
-        <v>43</v>
-      </c>
-      <c r="N4" s="107" t="s">
-        <v>120</v>
-      </c>
-      <c r="O4" s="107" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="108" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" s="375"/>
-      <c r="D5" s="376"/>
-      <c r="E5" s="376"/>
-      <c r="F5" s="109" t="s">
-        <v>123</v>
-      </c>
-      <c r="G5" s="377" t="s">
-        <v>124</v>
-      </c>
-      <c r="H5" s="377"/>
-      <c r="I5" s="378"/>
-      <c r="J5" s="105"/>
-      <c r="M5" s="110">
-        <v>43516</v>
-      </c>
-      <c r="N5" s="111">
-        <v>43890</v>
-      </c>
-      <c r="O5" s="112">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="114" t="s">
-        <v>125</v>
-      </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
-      <c r="J6" s="105"/>
-      <c r="M6" s="110"/>
-      <c r="N6" s="117"/>
-      <c r="O6" s="118"/>
-    </row>
-    <row r="7" spans="1:15" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="119"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="M7" s="110"/>
-      <c r="N7" s="117"/>
-      <c r="O7" s="118"/>
-    </row>
-    <row r="8" spans="1:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="116"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="M8" s="110"/>
-      <c r="N8" s="117"/>
-      <c r="O8" s="118"/>
-    </row>
-    <row r="9" spans="1:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="116"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="M9" s="110"/>
-      <c r="N9" s="117"/>
-      <c r="O9" s="118"/>
-    </row>
-    <row r="10" spans="1:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="116"/>
-      <c r="C10" s="115"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="M10" s="110"/>
-      <c r="N10" s="117"/>
-      <c r="O10" s="118"/>
-    </row>
-    <row r="11" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="120" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="352"/>
-      <c r="D11" s="352"/>
-      <c r="E11" s="352"/>
-      <c r="F11" s="116" t="s">
-        <v>127</v>
-      </c>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="101"/>
-      <c r="M11" s="107" t="s">
-        <v>128</v>
-      </c>
-      <c r="N11" s="121"/>
-      <c r="O11" s="121"/>
-    </row>
-    <row r="12" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="101" t="s">
-        <v>129</v>
-      </c>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="101"/>
-      <c r="M12" s="107" t="s">
-        <v>128</v>
-      </c>
-      <c r="N12" s="121"/>
-      <c r="O12" s="121"/>
-    </row>
-    <row r="13" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="120" t="s">
-        <v>130</v>
-      </c>
-      <c r="C13" s="353" t="s">
-        <v>131</v>
-      </c>
-      <c r="D13" s="354"/>
-      <c r="E13" s="355" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="356"/>
-      <c r="G13" s="357"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="101"/>
-      <c r="K13" s="124">
-        <v>6</v>
-      </c>
-      <c r="L13" s="121"/>
-      <c r="M13" s="121"/>
-      <c r="N13" s="122"/>
-      <c r="O13" s="123"/>
-    </row>
-    <row r="14" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="125" t="s">
-        <v>132</v>
-      </c>
-      <c r="C14" s="358"/>
-      <c r="D14" s="359"/>
-      <c r="E14" s="360">
-        <f>SUM(C14:D14)</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="361"/>
-      <c r="G14" s="362"/>
-      <c r="H14" s="116"/>
-      <c r="I14" s="116"/>
-      <c r="J14" s="116"/>
-      <c r="K14" s="126"/>
-      <c r="L14" s="127"/>
-      <c r="M14" s="127"/>
-    </row>
-    <row r="15" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="120" t="s">
-        <v>133</v>
-      </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="129">
-        <f>SUM(C14:D14)</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="363">
-        <f>SUM(C15:D15)</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="364"/>
-      <c r="G15" s="365"/>
-      <c r="H15" s="116"/>
-      <c r="I15" s="116"/>
-      <c r="J15" s="116"/>
-      <c r="K15" s="130"/>
-      <c r="L15" s="131"/>
-    </row>
-    <row r="16" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="132" t="str">
-        <f>""&amp;K13&amp;"月分賃料"</f>
-        <v>6月分賃料</v>
-      </c>
-      <c r="C16" s="133"/>
-      <c r="D16" s="133"/>
-      <c r="E16" s="134"/>
-      <c r="F16" s="135"/>
-      <c r="G16" s="135"/>
-      <c r="H16" s="136"/>
-      <c r="I16" s="136"/>
-      <c r="J16" s="137"/>
-      <c r="K16" s="131"/>
-      <c r="L16" s="131"/>
-      <c r="N16" s="138"/>
-      <c r="O16" s="126"/>
-    </row>
-    <row r="17" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="139" t="s">
-        <v>134</v>
-      </c>
-      <c r="C17" s="140"/>
-      <c r="D17" s="366">
-        <v>43983</v>
-      </c>
-      <c r="E17" s="366"/>
-      <c r="F17" s="367">
-        <v>43983</v>
-      </c>
-      <c r="G17" s="367"/>
-      <c r="H17" s="367"/>
-      <c r="I17" s="141"/>
-      <c r="J17" s="142"/>
-      <c r="K17" s="131"/>
-      <c r="L17" s="131"/>
-      <c r="N17" s="127"/>
-      <c r="O17" s="127"/>
-    </row>
-    <row r="18" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="143" t="s">
-        <v>135</v>
-      </c>
-      <c r="C18" s="144"/>
-      <c r="D18" s="145">
-        <v>1</v>
-      </c>
-      <c r="E18" s="146" t="s">
+      <c r="L18" s="119"/>
+      <c r="M18" s="119"/>
+    </row>
+    <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="120" t="e">
+        <f>""&amp;K16&amp;"月分賃料"</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C19" s="121"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="123"/>
+      <c r="H19" s="124"/>
+      <c r="I19" s="124"/>
+      <c r="J19" s="125"/>
+      <c r="L19" s="119"/>
+      <c r="M19" s="119"/>
+    </row>
+    <row r="20" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="126" t="s">
+        <v>191</v>
+      </c>
+      <c r="C20" s="353" t="e">
+        <f>M16</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D20" s="354"/>
+      <c r="E20" s="175" t="s">
+        <v>192</v>
+      </c>
+      <c r="F20" s="355" t="e">
+        <f>N16</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G20" s="355"/>
+      <c r="H20" s="355"/>
+      <c r="I20" s="127"/>
+      <c r="J20" s="128"/>
+      <c r="K20" s="119"/>
+      <c r="L20" s="174"/>
+      <c r="M20" s="119"/>
+    </row>
+    <row r="21" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="129" t="s">
+        <v>210</v>
+      </c>
+      <c r="C21" s="130"/>
+      <c r="D21" s="180" t="e">
+        <f>IF(L16 = "", "", "(B)×" &amp; Q16 &amp; "日")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E21" s="131" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="147">
-        <v>30</v>
-      </c>
-      <c r="G18" s="148"/>
-      <c r="H18" s="368"/>
-      <c r="I18" s="369"/>
-      <c r="L18" s="131"/>
-      <c r="N18" s="149"/>
-      <c r="O18" s="149"/>
-    </row>
-    <row r="19" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="150" t="s">
-        <v>136</v>
-      </c>
-      <c r="C19" s="151"/>
-      <c r="D19" s="152">
-        <v>29</v>
-      </c>
-      <c r="E19" s="153" t="s">
+      <c r="F21" s="177" t="e">
+        <f>O16</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G21" s="132"/>
+      <c r="H21" s="343" t="e">
+        <f>IF(L16 = "", "", G18-H22)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I21" s="344"/>
+      <c r="L21" s="119"/>
+      <c r="M21" s="119"/>
+    </row>
+    <row r="22" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="133" t="s">
+        <v>193</v>
+      </c>
+      <c r="C22" s="134"/>
+      <c r="D22" s="178" t="e">
+        <f>IF(L16 ="","", "(B)×" &amp; P16 &amp; "日")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E22" s="135" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="154">
-        <v>30</v>
-      </c>
-      <c r="G19" s="155"/>
-      <c r="H19" s="370"/>
-      <c r="I19" s="371"/>
-      <c r="J19" s="116" t="s">
-        <v>137</v>
-      </c>
-      <c r="L19" s="131"/>
-      <c r="N19" s="149"/>
-      <c r="O19" s="149"/>
-    </row>
-    <row r="20" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="114"/>
-      <c r="C20" s="156"/>
-      <c r="D20" s="157"/>
-      <c r="E20" s="116"/>
-      <c r="F20" s="158"/>
-      <c r="G20" s="137"/>
-      <c r="H20" s="159"/>
-      <c r="I20" s="160"/>
-      <c r="J20" s="160"/>
-      <c r="K20" s="161"/>
-      <c r="L20" s="131"/>
-      <c r="N20" s="162"/>
-      <c r="O20" s="162"/>
-    </row>
-    <row r="21" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="372" t="s">
-        <v>138</v>
-      </c>
-      <c r="C21" s="373"/>
-      <c r="D21" s="373"/>
-      <c r="E21" s="373"/>
-      <c r="F21" s="373"/>
-      <c r="G21" s="373"/>
-      <c r="H21" s="373"/>
-      <c r="I21" s="374"/>
-      <c r="J21" s="163"/>
-      <c r="K21" s="164"/>
-      <c r="L21" s="131"/>
-      <c r="N21" s="162"/>
-      <c r="O21" s="162"/>
-    </row>
-    <row r="22" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="143" t="s">
-        <v>139</v>
-      </c>
-      <c r="C22" s="144"/>
-      <c r="D22" s="165" t="s">
-        <v>140</v>
-      </c>
-      <c r="E22" s="146"/>
-      <c r="F22" s="166"/>
-      <c r="G22" s="167"/>
-      <c r="H22" s="350">
-        <f>C11+H19</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="351"/>
-      <c r="J22" s="160"/>
-      <c r="K22" s="164"/>
-      <c r="L22" s="131"/>
-      <c r="N22" s="162"/>
-      <c r="O22" s="162"/>
-    </row>
-    <row r="23" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="168"/>
-      <c r="C23" s="169"/>
-      <c r="D23" s="170"/>
-      <c r="E23" s="171"/>
-      <c r="F23" s="172"/>
-      <c r="G23" s="173"/>
-      <c r="H23" s="174"/>
-      <c r="I23" s="175"/>
-      <c r="J23" s="160"/>
-      <c r="K23" s="164"/>
-      <c r="L23" s="164"/>
-      <c r="M23" s="164"/>
-      <c r="N23" s="162"/>
-      <c r="O23" s="162"/>
-    </row>
-    <row r="24" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="176"/>
-      <c r="C24" s="156"/>
-      <c r="D24" s="157"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="158"/>
-      <c r="G24" s="137"/>
-      <c r="H24" s="159"/>
-      <c r="I24" s="160"/>
-      <c r="J24" s="160"/>
-      <c r="K24" s="164"/>
-      <c r="L24" s="164"/>
-      <c r="M24" s="164"/>
-      <c r="N24" s="162"/>
-      <c r="O24" s="162"/>
-    </row>
-    <row r="25" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="116"/>
-      <c r="C25" s="101"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="116"/>
-      <c r="F25" s="116"/>
-      <c r="G25" s="116"/>
-      <c r="H25" s="177"/>
-      <c r="I25" s="177"/>
-      <c r="J25" s="177"/>
-      <c r="K25" s="164"/>
-      <c r="L25" s="164"/>
-      <c r="M25" s="164"/>
-      <c r="N25" s="162"/>
-      <c r="O25" s="162"/>
-    </row>
-    <row r="26" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="344" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="344"/>
-      <c r="D26" s="344"/>
-      <c r="E26" s="344"/>
-      <c r="F26" s="344"/>
-      <c r="G26" s="344"/>
-      <c r="H26" s="344"/>
-      <c r="I26" s="344"/>
-      <c r="J26" s="344"/>
-      <c r="K26" s="164"/>
-      <c r="N26" s="162"/>
-      <c r="O26" s="162"/>
-    </row>
-    <row r="27" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="164"/>
-      <c r="B27" s="345"/>
-      <c r="C27" s="345"/>
-      <c r="D27" s="178"/>
-      <c r="E27" s="179"/>
-      <c r="F27" s="179"/>
-      <c r="G27" s="179"/>
-      <c r="H27" s="180"/>
-      <c r="I27" s="346"/>
-      <c r="J27" s="181"/>
-      <c r="K27" s="164"/>
-      <c r="N27" s="162"/>
-      <c r="O27" s="162"/>
-    </row>
-    <row r="28" spans="1:15" s="164" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="164" t="s">
-        <v>141</v>
-      </c>
-      <c r="B28" s="348"/>
-      <c r="C28" s="348"/>
-      <c r="D28" s="178" t="s">
-        <v>142</v>
-      </c>
-      <c r="E28" s="182"/>
-      <c r="F28" s="101"/>
-      <c r="G28" s="101"/>
-      <c r="H28" s="101"/>
-      <c r="I28" s="347"/>
-      <c r="J28" s="183"/>
-      <c r="L28" s="98"/>
-      <c r="M28" s="98"/>
-    </row>
-    <row r="29" spans="1:15" s="164" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="101"/>
-      <c r="C29" s="101"/>
-      <c r="D29" s="101"/>
-      <c r="E29" s="101"/>
-      <c r="F29" s="101"/>
-      <c r="G29" s="101"/>
-      <c r="H29" s="101"/>
-      <c r="I29" s="101"/>
-      <c r="J29" s="101"/>
-      <c r="K29" s="184"/>
-      <c r="L29" s="98"/>
-      <c r="M29" s="98"/>
-    </row>
-    <row r="30" spans="1:15" s="164" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="101"/>
-      <c r="C30" s="101"/>
-      <c r="D30" s="349">
-        <f>H22</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="349"/>
-      <c r="F30" s="349"/>
-      <c r="G30" s="185"/>
-      <c r="H30" s="101"/>
-      <c r="I30" s="101"/>
-      <c r="J30" s="101"/>
-      <c r="K30" s="186"/>
-      <c r="L30" s="187"/>
-      <c r="M30" s="98"/>
-    </row>
-    <row r="31" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="164"/>
-      <c r="B31" s="101"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="188"/>
-      <c r="E31" s="188"/>
-      <c r="F31" s="188"/>
-      <c r="G31" s="185"/>
-      <c r="H31" s="101"/>
-      <c r="I31" s="101"/>
-      <c r="J31" s="101"/>
-      <c r="K31" s="186"/>
-      <c r="L31" s="187"/>
-    </row>
-    <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="164"/>
-      <c r="B32" s="189"/>
-      <c r="C32" s="190"/>
-      <c r="D32" s="190"/>
-      <c r="E32" s="190"/>
-      <c r="F32" s="190"/>
-      <c r="G32" s="190"/>
-      <c r="H32" s="190"/>
-      <c r="I32" s="190"/>
-      <c r="J32" s="190"/>
-      <c r="K32" s="186"/>
-      <c r="L32" s="184"/>
-      <c r="M32" s="184"/>
-    </row>
-    <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="164"/>
-      <c r="B33" s="189" t="str">
-        <f>"但し、上記所在物件の6月分日割り賃料及び承継保証金として"</f>
-        <v>但し、上記所在物件の6月分日割り賃料及び承継保証金として</v>
-      </c>
-      <c r="C33" s="190"/>
-      <c r="D33" s="190"/>
-      <c r="E33" s="190"/>
-      <c r="F33" s="190"/>
-      <c r="G33" s="190"/>
-      <c r="H33" s="190"/>
-      <c r="I33" s="190"/>
-      <c r="J33" s="190"/>
-      <c r="K33" s="186"/>
-      <c r="L33" s="184"/>
-      <c r="M33" s="184"/>
-    </row>
-    <row r="34" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="101"/>
-      <c r="C34" s="101"/>
-      <c r="D34" s="101"/>
-      <c r="E34" s="101"/>
-      <c r="F34" s="191"/>
-      <c r="G34" s="342"/>
-      <c r="H34" s="342"/>
-      <c r="I34" s="342"/>
-      <c r="J34" s="192"/>
-      <c r="L34" s="186"/>
-      <c r="M34" s="186"/>
-    </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="101"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="101"/>
-      <c r="E35" s="101"/>
-      <c r="F35" s="191"/>
-      <c r="G35" s="342">
-        <v>43983</v>
-      </c>
-      <c r="H35" s="342"/>
-      <c r="I35" s="342"/>
-      <c r="J35" s="192"/>
-      <c r="M35" s="193"/>
-    </row>
-    <row r="36" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="101"/>
-      <c r="C36" s="101"/>
-      <c r="D36" s="101"/>
-      <c r="E36" s="194"/>
-      <c r="F36" s="195"/>
-      <c r="G36" s="90"/>
-      <c r="H36" s="196"/>
-      <c r="I36" s="196"/>
-      <c r="J36" s="196"/>
-    </row>
-    <row r="37" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="101"/>
-      <c r="C37" s="101"/>
-      <c r="D37" s="101"/>
-      <c r="E37" s="101"/>
-      <c r="F37" s="101"/>
-      <c r="G37" s="342"/>
-      <c r="H37" s="342"/>
-      <c r="I37" s="342"/>
-      <c r="J37" s="197"/>
-      <c r="L37" s="186"/>
-      <c r="M37" s="186"/>
-    </row>
-    <row r="38" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="191"/>
-      <c r="C38" s="101"/>
-      <c r="D38" s="101"/>
-      <c r="E38" s="101"/>
-      <c r="F38" s="191" t="s">
-        <v>149</v>
-      </c>
-      <c r="G38" s="191"/>
-      <c r="H38" s="192"/>
-      <c r="I38" s="192"/>
-      <c r="J38" s="192"/>
-      <c r="L38" s="186"/>
-      <c r="M38" s="186"/>
-      <c r="N38" s="98" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="191"/>
-      <c r="C39" s="101"/>
-      <c r="D39" s="101"/>
-      <c r="E39" s="101"/>
-      <c r="F39" s="191" t="s">
-        <v>144</v>
-      </c>
-      <c r="G39" s="101"/>
-      <c r="H39" s="191"/>
-      <c r="I39" s="192"/>
-      <c r="J39" s="192"/>
-      <c r="M39" s="193"/>
-    </row>
-    <row r="40" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="195"/>
-      <c r="C40" s="101"/>
-      <c r="D40" s="101"/>
-      <c r="E40" s="194"/>
-      <c r="F40" s="195" t="s">
-        <v>145</v>
-      </c>
-      <c r="G40" s="90"/>
-      <c r="H40" s="196"/>
-      <c r="I40" s="196"/>
-      <c r="J40" s="196"/>
-    </row>
-    <row r="41" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="O41" s="102"/>
-    </row>
-    <row r="42" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="343" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42" s="343"/>
-      <c r="D42" s="343"/>
-      <c r="E42" s="343"/>
-      <c r="F42" s="343"/>
-      <c r="G42" s="343"/>
-      <c r="H42" s="343"/>
-      <c r="I42" s="343"/>
-      <c r="O42" s="113"/>
+      <c r="F22" s="179" t="e">
+        <f>O16</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G22" s="136"/>
+      <c r="H22" s="330" t="e">
+        <f>IF(L16 = "","", G18/O16*P16)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I22" s="331"/>
+      <c r="J22" s="112" t="s">
+        <v>55</v>
+      </c>
+      <c r="L22" s="119"/>
+      <c r="M22" s="119"/>
+    </row>
+    <row r="23" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="110"/>
+      <c r="C23" s="137"/>
+      <c r="D23" s="138"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="139"/>
+      <c r="G23" s="125"/>
+      <c r="H23" s="140"/>
+      <c r="I23" s="141"/>
+      <c r="J23" s="141"/>
+      <c r="K23" s="142"/>
+      <c r="L23" s="119"/>
+      <c r="M23" s="119"/>
+    </row>
+    <row r="24" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="332" t="e">
+        <f>""&amp;K16&amp;"月分日割り賃料、敷金"</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C24" s="333"/>
+      <c r="D24" s="333"/>
+      <c r="E24" s="333"/>
+      <c r="F24" s="333"/>
+      <c r="G24" s="333"/>
+      <c r="H24" s="333"/>
+      <c r="I24" s="334"/>
+      <c r="J24" s="143"/>
+      <c r="K24" s="144"/>
+      <c r="L24" s="119"/>
+      <c r="M24" s="119"/>
+    </row>
+    <row r="25" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="129" t="s">
+        <v>194</v>
+      </c>
+      <c r="C25" s="130"/>
+      <c r="D25" s="145" t="s">
+        <v>195</v>
+      </c>
+      <c r="E25" s="131"/>
+      <c r="F25" s="146"/>
+      <c r="G25" s="132"/>
+      <c r="H25" s="335" t="e">
+        <f>C13+H22</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I25" s="336"/>
+      <c r="J25" s="141"/>
+      <c r="K25" s="144"/>
+      <c r="L25" s="119"/>
+      <c r="M25" s="119"/>
+    </row>
+    <row r="26" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="147"/>
+      <c r="C26" s="148"/>
+      <c r="D26" s="149"/>
+      <c r="E26" s="117"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="151"/>
+      <c r="H26" s="152"/>
+      <c r="I26" s="153"/>
+      <c r="J26" s="141"/>
+      <c r="K26" s="144"/>
+      <c r="L26" s="144"/>
+      <c r="M26" s="144"/>
+    </row>
+    <row r="27" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="154"/>
+      <c r="C27" s="137"/>
+      <c r="D27" s="138"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="139"/>
+      <c r="G27" s="125"/>
+      <c r="H27" s="140"/>
+      <c r="I27" s="141"/>
+      <c r="J27" s="141"/>
+      <c r="K27" s="144"/>
+      <c r="L27" s="144"/>
+      <c r="M27" s="144"/>
+    </row>
+    <row r="28" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="112"/>
+      <c r="C28" s="104"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="112"/>
+      <c r="G28" s="112"/>
+      <c r="H28" s="155"/>
+      <c r="I28" s="155"/>
+      <c r="J28" s="155"/>
+      <c r="K28" s="144"/>
+      <c r="L28" s="144"/>
+      <c r="M28" s="144"/>
+    </row>
+    <row r="29" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="337" t="s">
+        <v>196</v>
+      </c>
+      <c r="C29" s="337"/>
+      <c r="D29" s="337"/>
+      <c r="E29" s="337"/>
+      <c r="F29" s="337"/>
+      <c r="G29" s="337"/>
+      <c r="H29" s="337"/>
+      <c r="I29" s="337"/>
+      <c r="J29" s="337"/>
+      <c r="K29" s="144"/>
+    </row>
+    <row r="30" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="144"/>
+      <c r="B30" s="338"/>
+      <c r="C30" s="338"/>
+      <c r="D30" s="157"/>
+      <c r="E30" s="158"/>
+      <c r="F30" s="158"/>
+      <c r="G30" s="158"/>
+      <c r="H30" s="159"/>
+      <c r="I30" s="339"/>
+      <c r="J30" s="160"/>
+      <c r="K30" s="144"/>
+    </row>
+    <row r="31" spans="1:13" s="144" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="144" t="s">
+        <v>197</v>
+      </c>
+      <c r="B31" s="341" t="str">
+        <f>C5</f>
+        <v>$list_contractorNameDot$</v>
+      </c>
+      <c r="C31" s="342"/>
+      <c r="D31" s="157" t="s">
+        <v>198</v>
+      </c>
+      <c r="E31" s="161"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="340"/>
+      <c r="J31" s="162"/>
+      <c r="L31" s="100"/>
+      <c r="M31" s="100"/>
+    </row>
+    <row r="32" spans="1:13" s="144" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="104"/>
+      <c r="C32" s="104"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="104"/>
+      <c r="F32" s="104"/>
+      <c r="G32" s="104"/>
+      <c r="H32" s="104"/>
+      <c r="I32" s="104"/>
+      <c r="J32" s="104"/>
+      <c r="K32" s="163"/>
+      <c r="L32" s="100"/>
+      <c r="M32" s="100"/>
+    </row>
+    <row r="33" spans="1:13" s="144" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="104"/>
+      <c r="C33" s="104"/>
+      <c r="D33" s="327" t="e">
+        <f>H25</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E33" s="327"/>
+      <c r="F33" s="327"/>
+      <c r="G33" s="164"/>
+      <c r="H33" s="104"/>
+      <c r="I33" s="104"/>
+      <c r="J33" s="104"/>
+      <c r="K33" s="165"/>
+      <c r="L33" s="166"/>
+      <c r="M33" s="166"/>
+    </row>
+    <row r="34" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="144"/>
+      <c r="B34" s="104"/>
+      <c r="C34" s="104"/>
+      <c r="D34" s="167"/>
+      <c r="E34" s="167"/>
+      <c r="F34" s="167"/>
+      <c r="G34" s="164"/>
+      <c r="H34" s="104"/>
+      <c r="I34" s="104"/>
+      <c r="J34" s="104"/>
+      <c r="K34" s="165"/>
+      <c r="L34" s="166"/>
+      <c r="M34" s="166"/>
+    </row>
+    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="144"/>
+      <c r="B35" s="168"/>
+      <c r="C35" s="156"/>
+      <c r="D35" s="156"/>
+      <c r="E35" s="156"/>
+      <c r="F35" s="156"/>
+      <c r="G35" s="156"/>
+      <c r="H35" s="156"/>
+      <c r="I35" s="156"/>
+      <c r="J35" s="156"/>
+      <c r="K35" s="165"/>
+      <c r="L35" s="163"/>
+      <c r="M35" s="163"/>
+    </row>
+    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="144"/>
+      <c r="B36" s="168" t="str">
+        <f>"但し、上記所在物件の賃料等精算金として"</f>
+        <v>但し、上記所在物件の賃料等精算金として</v>
+      </c>
+      <c r="C36" s="156"/>
+      <c r="D36" s="156"/>
+      <c r="E36" s="156"/>
+      <c r="F36" s="156"/>
+      <c r="G36" s="156"/>
+      <c r="H36" s="156"/>
+      <c r="I36" s="156"/>
+      <c r="J36" s="156"/>
+      <c r="K36" s="165"/>
+      <c r="L36" s="163"/>
+      <c r="M36" s="163"/>
+    </row>
+    <row r="37" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="104"/>
+      <c r="C37" s="104"/>
+      <c r="D37" s="104"/>
+      <c r="E37" s="104"/>
+      <c r="F37" s="110"/>
+      <c r="G37" s="328"/>
+      <c r="H37" s="328"/>
+      <c r="I37" s="328"/>
+      <c r="J37" s="170"/>
+      <c r="L37" s="165"/>
+      <c r="M37" s="165"/>
+    </row>
+    <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="104"/>
+      <c r="C38" s="104"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="110"/>
+      <c r="G38" s="328" t="str">
+        <f>G4</f>
+        <v>$contractFixDay_jpdt_kanji$</v>
+      </c>
+      <c r="H38" s="328"/>
+      <c r="I38" s="328"/>
+      <c r="J38" s="170"/>
+    </row>
+    <row r="39" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B39" s="104"/>
+      <c r="C39" s="104"/>
+      <c r="D39" s="104"/>
+      <c r="E39" s="171"/>
+      <c r="F39" s="110"/>
+      <c r="G39" s="104"/>
+      <c r="H39" s="172"/>
+      <c r="I39" s="172"/>
+      <c r="J39" s="172"/>
+    </row>
+    <row r="40" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="104"/>
+      <c r="C40" s="104"/>
+      <c r="D40" s="104"/>
+      <c r="E40" s="104"/>
+      <c r="F40" s="104"/>
+      <c r="G40" s="328"/>
+      <c r="H40" s="328"/>
+      <c r="I40" s="328"/>
+      <c r="J40" s="169"/>
+      <c r="L40" s="165"/>
+      <c r="M40" s="165"/>
+    </row>
+    <row r="41" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="110"/>
+      <c r="C41" s="104"/>
+      <c r="D41" s="104"/>
+      <c r="E41" s="104"/>
+      <c r="F41" s="110" t="s">
+        <v>199</v>
+      </c>
+      <c r="G41" s="110"/>
+      <c r="H41" s="170"/>
+      <c r="I41" s="170"/>
+      <c r="J41" s="170"/>
+      <c r="L41" s="165"/>
+      <c r="M41" s="165"/>
+    </row>
+    <row r="42" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="110"/>
+      <c r="C42" s="104"/>
+      <c r="D42" s="104"/>
+      <c r="E42" s="104"/>
+      <c r="F42" s="110" t="s">
+        <v>200</v>
+      </c>
+      <c r="G42" s="104"/>
+      <c r="H42" s="110"/>
+      <c r="I42" s="170"/>
+      <c r="J42" s="170"/>
+    </row>
+    <row r="43" spans="1:13" s="100" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="110"/>
+      <c r="C43" s="104"/>
+      <c r="D43" s="104"/>
+      <c r="E43" s="171"/>
+      <c r="F43" s="110" t="s">
+        <v>201</v>
+      </c>
+      <c r="G43" s="104"/>
+      <c r="H43" s="172"/>
+      <c r="I43" s="172"/>
+      <c r="J43" s="172"/>
+    </row>
+    <row r="45" spans="1:13" s="100" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="329" t="s">
+        <v>202</v>
+      </c>
+      <c r="C45" s="329"/>
+      <c r="D45" s="329"/>
+      <c r="E45" s="329"/>
+      <c r="F45" s="329"/>
+      <c r="G45" s="329"/>
+      <c r="H45" s="329"/>
+      <c r="I45" s="329"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="32">
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="G4:I4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:H20"/>
     <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D33:F33"/>
     <mergeCell ref="G37:I37"/>
-    <mergeCell ref="B42:I42"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="B45:I45"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.78740157480314998" right="0.78740157480314998" top="0.98425196850394003" bottom="0.98425196850394003" header="0.51181102362205" footer="0.51181102362205"/>
+  <pageSetup paperSize="9" scale="71" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/template/買取決済.xlsx
+++ b/template/買取決済.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayane\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\work\00_Wavesync\24_不動産管理システム\00_source\backend\kbs_backend\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFBBE6D-5FCC-447B-9848-D02E1982B883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A9690B-1C8F-42ED-A4B0-4B2C863BD489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="地権者振込一覧" sheetId="15" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <definedName name="分析" localSheetId="5">{"Client Name or Project Name"}</definedName>
     <definedName name="分析">{"Client Name or Project Name"}</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1963,13 +1963,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1979,6 +1972,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -2969,7 +2968,7 @@
     <xf numFmtId="38" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="367">
+  <cellXfs count="370">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3349,9 +3348,6 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="65" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="190" fontId="34" fillId="0" borderId="69" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="190" fontId="34" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -3369,15 +3365,6 @@
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="73" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="200" fontId="34" fillId="0" borderId="74" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="74" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="74" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="200" fontId="34" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3487,44 +3474,77 @@
     <xf numFmtId="14" fontId="37" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="46" fillId="0" borderId="68" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="192" fontId="35" fillId="0" borderId="71" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="204" fontId="35" fillId="0" borderId="74" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="192" fontId="35" fillId="0" borderId="74" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="204" fontId="35" fillId="0" borderId="71" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="198" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="49" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="198" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="48" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="47" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="22" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3535,65 +3555,32 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="22" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3607,34 +3594,163 @@
     <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="193" fontId="6" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="193" fontId="6" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="193" fontId="6" fillId="0" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="193" fontId="6" fillId="0" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="193" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="193" fontId="6" fillId="0" borderId="43" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="193" fontId="6" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="193" fontId="6" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="193" fontId="6" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="193" fontId="6" fillId="0" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="15" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="15" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="15" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="15" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="6" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="6" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="6" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="6" fillId="0" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="188" fontId="15" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="15" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="188" fontId="15" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="188" fontId="15" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="15" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -3684,157 +3800,79 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="15" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="17" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="17" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="14" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="15" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="14" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="15" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="14" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="15" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="6" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="6" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="6" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="6" fillId="0" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="193" fontId="6" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="193" fontId="6" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="193" fontId="6" fillId="0" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="193" fontId="6" fillId="0" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="193" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="193" fontId="6" fillId="0" borderId="43" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="193" fontId="6" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="193" fontId="6" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="193" fontId="6" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="193" fontId="6" fillId="0" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="15" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="15" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -3870,91 +3908,54 @@
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="186" fontId="17" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="17" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="14" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="14" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="14" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="15" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="15" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="203" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="44" fillId="0" borderId="76" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="34" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="193" fontId="35" fillId="0" borderId="74" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="197" fontId="34" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="75" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="58" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="59" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="46" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="46" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="46" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="62" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="63" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="197" fontId="34" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="197" fontId="34" fillId="0" borderId="58" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="197" fontId="34" fillId="0" borderId="59" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="67" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3986,76 +3987,83 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="76" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="193" fontId="35" fillId="0" borderId="71" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="44" fillId="0" borderId="76" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="34" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="197" fontId="14" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="72" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="197" fontId="35" fillId="0" borderId="58" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="197" fontId="14" fillId="0" borderId="58" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="197" fontId="35" fillId="0" borderId="59" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="197" fontId="14" fillId="0" borderId="59" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="197" fontId="35" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="197" fontId="14" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="197" fontId="34" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="14" fillId="0" borderId="67" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="14" fillId="0" borderId="68" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="14" fillId="0" borderId="68" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="14" fillId="0" borderId="68" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="14" fillId="0" borderId="69" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="197" fontId="34" fillId="0" borderId="58" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="200" fontId="14" fillId="0" borderId="71" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="204" fontId="14" fillId="0" borderId="71" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="197" fontId="34" fillId="0" borderId="59" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="71" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="192" fontId="14" fillId="0" borderId="71" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="71" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="193" fontId="14" fillId="0" borderId="71" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="35" fillId="0" borderId="67" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="35" fillId="0" borderId="68" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="35" fillId="0" borderId="68" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="72" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="200" fontId="14" fillId="0" borderId="74" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="204" fontId="14" fillId="0" borderId="74" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="74" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="192" fontId="14" fillId="0" borderId="74" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="197" fontId="35" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="74" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="58" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="59" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="46" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="46" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="46" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="62" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="63" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="197" fontId="34" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="193" fontId="14" fillId="0" borderId="74" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="75" xfId="4" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="桁区切り 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -5737,27 +5745,27 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="24" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" style="24" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="21.375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="27.375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" style="4" customWidth="1"/>
     <col min="6" max="6" width="12" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.58203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.58203125" style="4" customWidth="1"/>
     <col min="9" max="9" width="12.75" style="4" customWidth="1"/>
-    <col min="10" max="10" width="12.125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="6.125" style="4" customWidth="1"/>
-    <col min="12" max="13" width="8.625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="5.375" style="4" customWidth="1"/>
-    <col min="15" max="15" width="3.375" style="4" customWidth="1"/>
-    <col min="16" max="16" width="12.375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.08203125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="6.08203125" style="4" customWidth="1"/>
+    <col min="12" max="13" width="8.58203125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="5.33203125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="3.33203125" style="4" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="4" customWidth="1"/>
     <col min="17" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>93</v>
       </c>
@@ -5785,35 +5793,35 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="187" t="s">
+    <row r="2" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="177" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="188" t="s">
+      <c r="B2" s="195" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="189" t="s">
+      <c r="C2" s="196" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="187" t="s">
+      <c r="D2" s="177" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="187" t="s">
+      <c r="E2" s="177" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="187"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="177"/>
+      <c r="H2" s="177"/>
+      <c r="I2" s="177"/>
       <c r="R2" s="4" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="187"/>
-      <c r="B3" s="187"/>
-      <c r="C3" s="190"/>
-      <c r="D3" s="187"/>
+    <row r="3" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="177"/>
+      <c r="B3" s="177"/>
+      <c r="C3" s="197"/>
+      <c r="D3" s="177"/>
       <c r="E3" s="7" t="s">
         <v>1</v>
       </c>
@@ -5832,23 +5840,23 @@
       <c r="J3" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K3" s="187" t="s">
+      <c r="K3" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="187"/>
-      <c r="M3" s="196" t="s">
+      <c r="L3" s="177"/>
+      <c r="M3" s="193" t="s">
         <v>153</v>
       </c>
-      <c r="N3" s="196"/>
-      <c r="O3" s="187" t="s">
+      <c r="N3" s="193"/>
+      <c r="O3" s="177" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="187"/>
+      <c r="P3" s="177"/>
       <c r="R3" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10" t="s">
         <v>103</v>
       </c>
@@ -5879,18 +5887,18 @@
       <c r="J4" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="K4" s="191" t="s">
+      <c r="K4" s="188" t="s">
         <v>152</v>
       </c>
-      <c r="L4" s="191"/>
-      <c r="M4" s="197" t="s">
+      <c r="L4" s="188"/>
+      <c r="M4" s="194" t="s">
         <v>154</v>
       </c>
-      <c r="N4" s="197"/>
-      <c r="O4" s="198"/>
-      <c r="P4" s="198"/>
-    </row>
-    <row r="5" spans="1:18" s="23" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="N4" s="194"/>
+      <c r="O4" s="178"/>
+      <c r="P4" s="178"/>
+    </row>
+    <row r="5" spans="1:18" s="23" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="19"/>
       <c r="B5" s="20"/>
       <c r="C5" s="21"/>
@@ -5906,61 +5914,61 @@
         <f>SUM(J4:J4)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="192">
+      <c r="K5" s="189">
         <f>SUM(K4:K4)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="192"/>
-      <c r="M5" s="197">
+      <c r="L5" s="189"/>
+      <c r="M5" s="194">
         <f>SUM(M4:M4)</f>
         <v>0</v>
       </c>
-      <c r="N5" s="197"/>
-      <c r="O5" s="199"/>
-      <c r="P5" s="199"/>
-    </row>
-    <row r="7" spans="1:18" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="1:18" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="N5" s="194"/>
+      <c r="O5" s="179"/>
+      <c r="P5" s="179"/>
+    </row>
+    <row r="7" spans="1:18" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="8" spans="1:18" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="L8" s="98" t="s">
         <v>173</v>
       </c>
       <c r="M8" s="98" t="s">
         <v>174</v>
       </c>
-      <c r="N8" s="200"/>
-      <c r="O8" s="201"/>
-    </row>
-    <row r="9" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L9" s="193"/>
-      <c r="M9" s="193"/>
-      <c r="N9" s="202"/>
-      <c r="O9" s="203"/>
-    </row>
-    <row r="10" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L10" s="194"/>
-      <c r="M10" s="194"/>
-      <c r="N10" s="204"/>
-      <c r="O10" s="205"/>
-    </row>
-    <row r="11" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L11" s="194"/>
-      <c r="M11" s="194"/>
-      <c r="N11" s="204"/>
-      <c r="O11" s="205"/>
-    </row>
-    <row r="12" spans="1:18" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L12" s="195"/>
-      <c r="M12" s="195"/>
-      <c r="N12" s="206"/>
-      <c r="O12" s="207"/>
+      <c r="N8" s="180"/>
+      <c r="O8" s="181"/>
+    </row>
+    <row r="9" spans="1:18" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="L9" s="190"/>
+      <c r="M9" s="190"/>
+      <c r="N9" s="182"/>
+      <c r="O9" s="183"/>
+    </row>
+    <row r="10" spans="1:18" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="L10" s="191"/>
+      <c r="M10" s="191"/>
+      <c r="N10" s="184"/>
+      <c r="O10" s="185"/>
+    </row>
+    <row r="11" spans="1:18" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="L11" s="191"/>
+      <c r="M11" s="191"/>
+      <c r="N11" s="184"/>
+      <c r="O11" s="185"/>
+    </row>
+    <row r="12" spans="1:18" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="L12" s="192"/>
+      <c r="M12" s="192"/>
+      <c r="N12" s="186"/>
+      <c r="O12" s="187"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O12"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:I2"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="K5:L5"/>
@@ -5969,11 +5977,11 @@
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="M9:M12"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -5996,27 +6004,27 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="24" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" style="24" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="21.375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="27.375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" style="4" customWidth="1"/>
     <col min="6" max="6" width="12" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.58203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.58203125" style="4" customWidth="1"/>
     <col min="9" max="9" width="12.75" style="4" customWidth="1"/>
-    <col min="10" max="10" width="12.125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="6.125" style="4" customWidth="1"/>
-    <col min="12" max="13" width="8.625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="5.375" style="4" customWidth="1"/>
-    <col min="15" max="15" width="3.375" style="4" customWidth="1"/>
-    <col min="16" max="16" width="12.375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.08203125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="6.08203125" style="4" customWidth="1"/>
+    <col min="12" max="13" width="8.58203125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="5.33203125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="3.33203125" style="4" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="4" customWidth="1"/>
     <col min="17" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>93</v>
       </c>
@@ -6041,32 +6049,32 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="187" t="s">
+    <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="177" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="188" t="s">
+      <c r="B2" s="195" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="189" t="s">
+      <c r="C2" s="196" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="187" t="s">
+      <c r="D2" s="177" t="s">
         <v>147</v>
       </c>
-      <c r="E2" s="187" t="s">
+      <c r="E2" s="177" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="187"/>
-    </row>
-    <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="187"/>
-      <c r="B3" s="187"/>
-      <c r="C3" s="190"/>
-      <c r="D3" s="187"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="177"/>
+      <c r="H2" s="177"/>
+      <c r="I2" s="177"/>
+    </row>
+    <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="177"/>
+      <c r="B3" s="177"/>
+      <c r="C3" s="197"/>
+      <c r="D3" s="177"/>
       <c r="E3" s="7" t="s">
         <v>1</v>
       </c>
@@ -6085,18 +6093,18 @@
       <c r="J3" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K3" s="187"/>
-      <c r="L3" s="187"/>
-      <c r="M3" s="196" t="s">
+      <c r="K3" s="177"/>
+      <c r="L3" s="177"/>
+      <c r="M3" s="193" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="196"/>
-      <c r="O3" s="187" t="s">
+      <c r="N3" s="193"/>
+      <c r="O3" s="177" t="s">
         <v>148</v>
       </c>
-      <c r="P3" s="187"/>
-    </row>
-    <row r="4" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="P3" s="177"/>
+    </row>
+    <row r="4" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10" t="s">
         <v>124</v>
       </c>
@@ -6127,19 +6135,19 @@
       <c r="J4" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="K4" s="208"/>
-      <c r="L4" s="208"/>
-      <c r="M4" s="197" t="e">
+      <c r="K4" s="199"/>
+      <c r="L4" s="199"/>
+      <c r="M4" s="194" t="e">
         <f>J4+K4</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N4" s="197"/>
-      <c r="O4" s="198" t="s">
+      <c r="N4" s="194"/>
+      <c r="O4" s="178" t="s">
         <v>131</v>
       </c>
-      <c r="P4" s="198"/>
-    </row>
-    <row r="5" spans="1:16" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="P4" s="178"/>
+    </row>
+    <row r="5" spans="1:16" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10" t="s">
         <v>132</v>
       </c>
@@ -6170,19 +6178,19 @@
       <c r="J5" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="K5" s="208"/>
-      <c r="L5" s="208"/>
-      <c r="M5" s="197" t="e">
+      <c r="K5" s="199"/>
+      <c r="L5" s="199"/>
+      <c r="M5" s="194" t="e">
         <f>J5+K5</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N5" s="197"/>
-      <c r="O5" s="198" t="s">
+      <c r="N5" s="194"/>
+      <c r="O5" s="178" t="s">
         <v>139</v>
       </c>
-      <c r="P5" s="198"/>
-    </row>
-    <row r="6" spans="1:16" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="P5" s="178"/>
+    </row>
+    <row r="6" spans="1:16" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="10"/>
       <c r="B6" s="7"/>
       <c r="C6" s="17"/>
@@ -6193,14 +6201,14 @@
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
       <c r="J6" s="16"/>
-      <c r="K6" s="192"/>
-      <c r="L6" s="192"/>
-      <c r="M6" s="197"/>
-      <c r="N6" s="197"/>
-      <c r="O6" s="209"/>
-      <c r="P6" s="209"/>
-    </row>
-    <row r="7" spans="1:16" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K6" s="189"/>
+      <c r="L6" s="189"/>
+      <c r="M6" s="194"/>
+      <c r="N6" s="194"/>
+      <c r="O6" s="198"/>
+      <c r="P6" s="198"/>
+    </row>
+    <row r="7" spans="1:16" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="18"/>
       <c r="B7" s="7"/>
       <c r="C7" s="17"/>
@@ -6211,14 +6219,14 @@
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
       <c r="J7" s="16"/>
-      <c r="K7" s="192"/>
-      <c r="L7" s="192"/>
-      <c r="M7" s="197"/>
-      <c r="N7" s="197"/>
-      <c r="O7" s="209"/>
-      <c r="P7" s="209"/>
-    </row>
-    <row r="8" spans="1:16" s="23" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K7" s="189"/>
+      <c r="L7" s="189"/>
+      <c r="M7" s="194"/>
+      <c r="N7" s="194"/>
+      <c r="O7" s="198"/>
+      <c r="P7" s="198"/>
+    </row>
+    <row r="8" spans="1:16" s="23" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="19"/>
       <c r="B8" s="20"/>
       <c r="C8" s="21"/>
@@ -6234,66 +6242,63 @@
         <f>SUM(J4:J7)</f>
         <v>0</v>
       </c>
-      <c r="K8" s="192">
+      <c r="K8" s="189">
         <f>SUM(K4:K7)</f>
         <v>0</v>
       </c>
-      <c r="L8" s="192"/>
-      <c r="M8" s="197" t="e">
+      <c r="L8" s="189"/>
+      <c r="M8" s="194" t="e">
         <f>SUM(M4:M7)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N8" s="197"/>
-      <c r="O8" s="199"/>
-      <c r="P8" s="199"/>
-    </row>
-    <row r="9" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="10" spans="1:16" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="11" spans="1:16" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="N8" s="194"/>
+      <c r="O8" s="179"/>
+      <c r="P8" s="179"/>
+    </row>
+    <row r="9" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="10" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="11" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="L11" s="98" t="s">
         <v>173</v>
       </c>
       <c r="M11" s="98" t="s">
         <v>174</v>
       </c>
-      <c r="N11" s="200"/>
-      <c r="O11" s="201"/>
-    </row>
-    <row r="12" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L12" s="193"/>
-      <c r="M12" s="193"/>
-      <c r="N12" s="202"/>
-      <c r="O12" s="203"/>
-    </row>
-    <row r="13" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L13" s="194"/>
-      <c r="M13" s="194"/>
-      <c r="N13" s="204"/>
-      <c r="O13" s="205"/>
-    </row>
-    <row r="14" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L14" s="194"/>
-      <c r="M14" s="194"/>
-      <c r="N14" s="204"/>
-      <c r="O14" s="205"/>
-    </row>
-    <row r="15" spans="1:16" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L15" s="195"/>
-      <c r="M15" s="195"/>
-      <c r="N15" s="206"/>
-      <c r="O15" s="207"/>
-    </row>
-    <row r="16" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="N11" s="180"/>
+      <c r="O11" s="181"/>
+    </row>
+    <row r="12" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="L12" s="190"/>
+      <c r="M12" s="190"/>
+      <c r="N12" s="182"/>
+      <c r="O12" s="183"/>
+    </row>
+    <row r="13" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="L13" s="191"/>
+      <c r="M13" s="191"/>
+      <c r="N13" s="184"/>
+      <c r="O13" s="185"/>
+    </row>
+    <row r="14" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="L14" s="191"/>
+      <c r="M14" s="191"/>
+      <c r="N14" s="184"/>
+      <c r="O14" s="185"/>
+    </row>
+    <row r="15" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="L15" s="192"/>
+      <c r="M15" s="192"/>
+      <c r="N15" s="186"/>
+      <c r="O15" s="187"/>
+    </row>
+    <row r="16" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N12:O15"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:I2"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="L12:L15"/>
     <mergeCell ref="M3:N3"/>
@@ -6308,11 +6313,14 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="K7:L7"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N12:O15"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O7:P7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="1.1417322834645669" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6327,30 +6335,30 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="6.125" style="25" customWidth="1"/>
+    <col min="1" max="1" width="6.08203125" style="25" customWidth="1"/>
     <col min="2" max="2" width="11" style="25" customWidth="1"/>
     <col min="3" max="3" width="9" style="25"/>
     <col min="4" max="4" width="11.5" style="25" customWidth="1"/>
     <col min="5" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="H1" s="210" t="s">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="H1" s="200" t="s">
         <v>106</v>
       </c>
-      <c r="I1" s="210"/>
+      <c r="I1" s="200"/>
       <c r="K1" s="25" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B2" s="219" t="s">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="205" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="219"/>
-      <c r="D2" s="219"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
       <c r="E2" s="25" t="s">
         <v>82</v>
       </c>
@@ -6358,57 +6366,57 @@
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G3" s="26" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F4" s="26"/>
-      <c r="G4" s="210" t="s">
+      <c r="G4" s="200" t="s">
         <v>84</v>
       </c>
-      <c r="H4" s="210"/>
-      <c r="I4" s="210"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="G5" s="210" t="s">
+      <c r="H4" s="200"/>
+      <c r="I4" s="200"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G5" s="200" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="210"/>
-      <c r="I5" s="210"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="H5" s="200"/>
+      <c r="I5" s="200"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G6" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="220" t="s">
+      <c r="H6" s="206" t="s">
         <v>71</v>
       </c>
-      <c r="I6" s="220"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="G7" s="210" t="s">
+      <c r="I6" s="206"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G7" s="200" t="s">
         <v>104</v>
       </c>
-      <c r="H7" s="210"/>
-      <c r="I7" s="210"/>
-    </row>
-    <row r="8" spans="2:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C9" s="215" t="s">
+      <c r="H7" s="200"/>
+      <c r="I7" s="200"/>
+    </row>
+    <row r="8" spans="2:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="C9" s="201" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="216"/>
-      <c r="E9" s="216"/>
-      <c r="F9" s="217" t="s">
+      <c r="D9" s="202"/>
+      <c r="E9" s="202"/>
+      <c r="F9" s="203" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="217"/>
-      <c r="H9" s="217"/>
-    </row>
-    <row r="10" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="G9" s="203"/>
+      <c r="H9" s="203"/>
+    </row>
+    <row r="10" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" s="28" t="s">
         <v>23</v>
       </c>
@@ -6418,7 +6426,7 @@
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" s="28" t="s">
         <v>21</v>
       </c>
@@ -6428,7 +6436,7 @@
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" s="28" t="s">
         <v>22</v>
       </c>
@@ -6438,7 +6446,7 @@
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
@@ -6448,17 +6456,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="29" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B17" s="218" t="s">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="204" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="218"/>
+      <c r="C17" s="204"/>
       <c r="D17" s="30" t="s">
         <v>92</v>
       </c>
@@ -6466,138 +6474,138 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="31"/>
     </row>
-    <row r="21" spans="2:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B23" s="213" t="s">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="209" t="s">
         <v>163</v>
       </c>
-      <c r="C23" s="213"/>
-      <c r="D23" s="214" t="s">
+      <c r="C23" s="209"/>
+      <c r="D23" s="210" t="s">
         <v>122</v>
       </c>
-      <c r="E23" s="214"/>
-      <c r="F23" s="214"/>
+      <c r="E23" s="210"/>
+      <c r="F23" s="210"/>
       <c r="G23" s="32" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B24" s="210" t="s">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="200" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="210"/>
-      <c r="D24" s="214" t="s">
+      <c r="C24" s="200"/>
+      <c r="D24" s="210" t="s">
         <v>152</v>
       </c>
-      <c r="E24" s="214"/>
-      <c r="F24" s="214"/>
+      <c r="E24" s="210"/>
+      <c r="F24" s="210"/>
       <c r="G24" s="32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B25" s="210" t="s">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="200" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="210"/>
-      <c r="D25" s="214" t="s">
+      <c r="C25" s="200"/>
+      <c r="D25" s="210" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="214"/>
-      <c r="F25" s="214"/>
+      <c r="E25" s="210"/>
+      <c r="F25" s="210"/>
       <c r="G25" s="32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B26" s="210" t="s">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="200" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="210"/>
-      <c r="D26" s="214" t="s">
+      <c r="C26" s="200"/>
+      <c r="D26" s="210" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="214"/>
-      <c r="F26" s="214"/>
+      <c r="E26" s="210"/>
+      <c r="F26" s="210"/>
       <c r="G26" s="32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G27" s="32"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B28" s="210" t="s">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="200" t="s">
         <v>175</v>
       </c>
-      <c r="C28" s="210"/>
-      <c r="D28" s="211" t="e">
+      <c r="C28" s="200"/>
+      <c r="D28" s="207" t="e">
         <f>D23+D24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E28" s="211"/>
-      <c r="F28" s="211"/>
+      <c r="E28" s="207"/>
+      <c r="F28" s="207"/>
       <c r="G28" s="32" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="29" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B31" s="210" t="s">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="200" t="s">
         <v>88</v>
       </c>
-      <c r="C31" s="210"/>
-      <c r="D31" s="210" t="s">
+      <c r="C31" s="200"/>
+      <c r="D31" s="200" t="s">
         <v>89</v>
       </c>
-      <c r="E31" s="210"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B32" s="210" t="s">
+      <c r="E31" s="200"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="200" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="210"/>
-      <c r="D32" s="210" t="s">
+      <c r="C32" s="200"/>
+      <c r="D32" s="200" t="s">
         <v>91</v>
       </c>
-      <c r="E32" s="210"/>
-    </row>
-    <row r="33" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="212" t="s">
+      <c r="E32" s="200"/>
+    </row>
+    <row r="33" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="208" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="210"/>
-      <c r="D33" s="210"/>
+      <c r="C33" s="200"/>
+      <c r="D33" s="200"/>
       <c r="E33" s="25" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="29" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="27" t="s">
         <v>36</v>
       </c>
@@ -6605,7 +6613,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="27" t="s">
         <v>36</v>
       </c>
@@ -6613,7 +6621,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="27" t="s">
         <v>36</v>
       </c>
@@ -6621,7 +6629,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="27" t="s">
         <v>36</v>
       </c>
@@ -6629,7 +6637,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="27" t="s">
         <v>36</v>
       </c>
@@ -6637,7 +6645,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="27" t="s">
         <v>36</v>
       </c>
@@ -6645,7 +6653,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="27" t="s">
         <v>36</v>
       </c>
@@ -6653,7 +6661,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="27" t="s">
         <v>36</v>
       </c>
@@ -6663,15 +6671,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="H6:I6"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="D32:E32"/>
@@ -6687,6 +6686,15 @@
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="H6:I6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -6715,83 +6723,83 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="2.25" style="35" customWidth="1"/>
-    <col min="2" max="2" width="4.625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="6.625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="7.125" style="35" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="4.58203125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="6.58203125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="7.08203125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" style="35" customWidth="1"/>
     <col min="6" max="6" width="5" style="35" customWidth="1"/>
-    <col min="7" max="7" width="2.625" style="35" customWidth="1"/>
+    <col min="7" max="7" width="2.58203125" style="35" customWidth="1"/>
     <col min="8" max="8" width="9.75" style="35" customWidth="1"/>
-    <col min="9" max="9" width="9.125" style="35" customWidth="1"/>
+    <col min="9" max="9" width="9.08203125" style="35" customWidth="1"/>
     <col min="10" max="10" width="7" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.875" style="35" customWidth="1"/>
-    <col min="12" max="12" width="2.625" style="35" customWidth="1"/>
-    <col min="13" max="16384" width="8.625" style="35"/>
+    <col min="11" max="11" width="6.83203125" style="35" customWidth="1"/>
+    <col min="12" max="12" width="2.58203125" style="35" customWidth="1"/>
+    <col min="13" max="16384" width="8.58203125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="33"/>
-      <c r="B1" s="225" t="s">
+      <c r="B1" s="264" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="225"/>
-      <c r="D1" s="225"/>
-      <c r="E1" s="225"/>
-      <c r="F1" s="225"/>
-      <c r="G1" s="225"/>
-      <c r="H1" s="225"/>
-      <c r="I1" s="225"/>
-      <c r="J1" s="225"/>
+      <c r="C1" s="264"/>
+      <c r="D1" s="264"/>
+      <c r="E1" s="264"/>
+      <c r="F1" s="264"/>
+      <c r="G1" s="264"/>
+      <c r="H1" s="264"/>
+      <c r="I1" s="264"/>
+      <c r="J1" s="264"/>
       <c r="K1" s="34"/>
       <c r="L1" s="34"/>
     </row>
-    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="226" t="s">
+    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="3" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="265" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="227"/>
-      <c r="D3" s="228" t="s">
+      <c r="C3" s="266"/>
+      <c r="D3" s="267" t="s">
         <v>121</v>
       </c>
-      <c r="E3" s="229"/>
-      <c r="F3" s="230"/>
-      <c r="G3" s="242" t="s">
+      <c r="E3" s="268"/>
+      <c r="F3" s="269"/>
+      <c r="G3" s="256" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="243"/>
-      <c r="I3" s="231" t="s">
+      <c r="H3" s="257"/>
+      <c r="I3" s="270" t="s">
         <v>108</v>
       </c>
-      <c r="J3" s="232"/>
-      <c r="K3" s="233"/>
+      <c r="J3" s="271"/>
+      <c r="K3" s="272"/>
       <c r="L3" s="37"/>
     </row>
-    <row r="4" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="234" t="s">
+    <row r="4" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="273" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="235"/>
-      <c r="D4" s="236" t="s">
+      <c r="C4" s="274"/>
+      <c r="D4" s="275" t="s">
         <v>160</v>
       </c>
-      <c r="E4" s="237"/>
-      <c r="F4" s="238"/>
-      <c r="G4" s="244" t="s">
+      <c r="E4" s="276"/>
+      <c r="F4" s="277"/>
+      <c r="G4" s="281" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="245"/>
-      <c r="I4" s="239" t="s">
+      <c r="H4" s="282"/>
+      <c r="I4" s="278" t="s">
         <v>94</v>
       </c>
-      <c r="J4" s="240"/>
-      <c r="K4" s="241"/>
+      <c r="J4" s="279"/>
+      <c r="K4" s="280"/>
       <c r="L4" s="39"/>
     </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="40"/>
       <c r="C5" s="40"/>
       <c r="D5" s="40"/>
@@ -6801,102 +6809,102 @@
       <c r="I5" s="40"/>
       <c r="J5" s="40"/>
     </row>
-    <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="264" t="s">
+    <row r="6" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="253" t="s">
         <v>47</v>
       </c>
       <c r="C6" s="36"/>
-      <c r="D6" s="242" t="s">
+      <c r="D6" s="256" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="243"/>
-      <c r="F6" s="242" t="s">
+      <c r="E6" s="257"/>
+      <c r="F6" s="256" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="267"/>
-      <c r="H6" s="267"/>
-      <c r="I6" s="242" t="s">
+      <c r="G6" s="258"/>
+      <c r="H6" s="258"/>
+      <c r="I6" s="256" t="s">
         <v>50</v>
       </c>
-      <c r="J6" s="267"/>
-      <c r="K6" s="268"/>
+      <c r="J6" s="258"/>
+      <c r="K6" s="259"/>
       <c r="L6" s="41"/>
     </row>
-    <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="265"/>
+    <row r="7" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="254"/>
       <c r="C7" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="221" t="s">
+      <c r="D7" s="260" t="s">
         <v>109</v>
       </c>
-      <c r="E7" s="223"/>
-      <c r="F7" s="221" t="s">
+      <c r="E7" s="261"/>
+      <c r="F7" s="260" t="s">
         <v>110</v>
       </c>
-      <c r="G7" s="224"/>
-      <c r="H7" s="223"/>
+      <c r="G7" s="262"/>
+      <c r="H7" s="261"/>
       <c r="I7" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="221" t="e">
+      <c r="J7" s="260" t="e">
         <f>D7+F7</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K7" s="222"/>
+      <c r="K7" s="263"/>
       <c r="L7" s="44"/>
     </row>
-    <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="265"/>
+    <row r="8" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="254"/>
       <c r="C8" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="221" t="s">
+      <c r="D8" s="260" t="s">
         <v>113</v>
       </c>
-      <c r="E8" s="223"/>
-      <c r="F8" s="221" t="s">
+      <c r="E8" s="261"/>
+      <c r="F8" s="260" t="s">
         <v>114</v>
       </c>
-      <c r="G8" s="224"/>
-      <c r="H8" s="224"/>
+      <c r="G8" s="262"/>
+      <c r="H8" s="262"/>
       <c r="I8" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="221" t="e">
+      <c r="J8" s="260" t="e">
         <f>D8+F8</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K8" s="222"/>
+      <c r="K8" s="263"/>
       <c r="L8" s="44"/>
     </row>
-    <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="266"/>
+    <row r="9" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="255"/>
       <c r="C9" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="246">
+      <c r="D9" s="235">
         <f>SUM(D7:E8)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="247"/>
-      <c r="F9" s="246">
+      <c r="E9" s="236"/>
+      <c r="F9" s="235">
         <f>SUM(F7:H8)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="248"/>
-      <c r="H9" s="248"/>
+      <c r="G9" s="237"/>
+      <c r="H9" s="237"/>
       <c r="I9" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="J9" s="246">
+      <c r="J9" s="235">
         <f>D9+F9</f>
         <v>0</v>
       </c>
-      <c r="K9" s="249"/>
+      <c r="K9" s="238"/>
       <c r="L9" s="44"/>
     </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="40"/>
       <c r="C10" s="40"/>
       <c r="D10" s="40"/>
@@ -6906,59 +6914,59 @@
       <c r="I10" s="40"/>
       <c r="J10" s="40"/>
     </row>
-    <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="250" t="s">
+    <row r="11" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="239" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="251"/>
+      <c r="C11" s="240"/>
       <c r="D11" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="254" t="s">
+      <c r="E11" s="243" t="s">
         <v>111</v>
       </c>
-      <c r="F11" s="255"/>
+      <c r="F11" s="244"/>
       <c r="G11" s="53" t="s">
         <v>170</v>
       </c>
-      <c r="H11" s="256" t="s">
+      <c r="H11" s="245" t="s">
         <v>169</v>
       </c>
-      <c r="I11" s="256"/>
-      <c r="J11" s="257" t="e">
+      <c r="I11" s="245"/>
+      <c r="J11" s="246" t="e">
         <f>H11-E11+1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K11" s="258"/>
+      <c r="K11" s="247"/>
       <c r="L11" s="48"/>
     </row>
-    <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="252"/>
-      <c r="C12" s="253"/>
+    <row r="12" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="241"/>
+      <c r="C12" s="242"/>
       <c r="D12" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="259" t="s">
+      <c r="E12" s="248" t="s">
         <v>112</v>
       </c>
-      <c r="F12" s="260"/>
+      <c r="F12" s="249"/>
       <c r="G12" s="97" t="s">
         <v>170</v>
       </c>
-      <c r="H12" s="261" t="s">
+      <c r="H12" s="250" t="s">
         <v>171</v>
       </c>
-      <c r="I12" s="261"/>
-      <c r="J12" s="262" t="e">
+      <c r="I12" s="250"/>
+      <c r="J12" s="251" t="e">
         <f>H12-E12+1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K12" s="263"/>
+      <c r="K12" s="252"/>
       <c r="L12" s="48"/>
     </row>
-    <row r="13" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="274" t="s">
+    <row r="13" spans="1:12" ht="10" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="14" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="216" t="s">
         <v>59</v>
       </c>
       <c r="C14" s="50"/>
@@ -6972,20 +6980,20 @@
       <c r="F14" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="288" t="e">
+      <c r="G14" s="230" t="e">
         <f>J$11+J$12</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H14" s="288"/>
-      <c r="I14" s="277" t="s">
+      <c r="H14" s="230"/>
+      <c r="I14" s="219" t="s">
         <v>95</v>
       </c>
-      <c r="J14" s="277"/>
-      <c r="K14" s="278"/>
+      <c r="J14" s="219"/>
+      <c r="K14" s="220"/>
       <c r="L14" s="54"/>
     </row>
-    <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="275"/>
+    <row r="15" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="217"/>
       <c r="C15" s="55" t="s">
         <v>61</v>
       </c>
@@ -6999,40 +7007,40 @@
       <c r="F15" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="289" t="e">
+      <c r="G15" s="231" t="e">
         <f>J$11+J$12</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H15" s="289"/>
-      <c r="I15" s="279" t="s">
+      <c r="H15" s="231"/>
+      <c r="I15" s="221" t="s">
         <v>96</v>
       </c>
-      <c r="J15" s="279"/>
-      <c r="K15" s="280"/>
+      <c r="J15" s="221"/>
+      <c r="K15" s="222"/>
       <c r="L15" s="54"/>
     </row>
-    <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="275"/>
+    <row r="16" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="217"/>
       <c r="C16" s="59"/>
       <c r="D16" s="60" t="s">
         <v>50</v>
       </c>
       <c r="E16" s="61"/>
       <c r="F16" s="62"/>
-      <c r="G16" s="290"/>
-      <c r="H16" s="290"/>
+      <c r="G16" s="232"/>
+      <c r="H16" s="232"/>
       <c r="I16" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="J16" s="281" t="e">
+      <c r="J16" s="223" t="e">
         <f>I14+I15</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K16" s="282"/>
+      <c r="K16" s="224"/>
       <c r="L16" s="54"/>
     </row>
-    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="276"/>
+    <row r="17" spans="2:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="218"/>
       <c r="C17" s="64" t="s">
         <v>64</v>
       </c>
@@ -7044,68 +7052,68 @@
       <c r="F17" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="G17" s="291" t="str">
+      <c r="G17" s="233" t="str">
         <f>I16</f>
         <v>（Ｄ）</v>
       </c>
-      <c r="H17" s="291"/>
+      <c r="H17" s="233"/>
       <c r="I17" s="68"/>
-      <c r="J17" s="283" t="e">
+      <c r="J17" s="225" t="e">
         <f>J9-J16</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K17" s="284"/>
+      <c r="K17" s="226"/>
       <c r="L17" s="54"/>
     </row>
-    <row r="18" spans="2:12" ht="8.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:12" ht="8.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I18" s="69"/>
       <c r="J18" s="69"/>
     </row>
-    <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="285" t="s">
+    <row r="19" spans="2:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="227" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="286"/>
-      <c r="D19" s="287"/>
+      <c r="C19" s="228"/>
+      <c r="D19" s="229"/>
       <c r="E19" s="70"/>
       <c r="F19" s="70"/>
-      <c r="G19" s="292"/>
-      <c r="H19" s="292"/>
+      <c r="G19" s="234"/>
+      <c r="H19" s="234"/>
       <c r="I19" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="J19" s="272" t="s">
+      <c r="J19" s="214" t="s">
         <v>97</v>
       </c>
-      <c r="K19" s="273"/>
+      <c r="K19" s="215"/>
       <c r="L19" s="54"/>
     </row>
-    <row r="20" spans="2:12" ht="8.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:12" ht="8.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="72"/>
       <c r="C20" s="72"/>
       <c r="I20" s="73"/>
       <c r="J20" s="73"/>
     </row>
-    <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="269" t="s">
+    <row r="21" spans="2:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="211" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="270"/>
-      <c r="D21" s="271"/>
+      <c r="C21" s="212"/>
+      <c r="D21" s="213"/>
       <c r="E21" s="70"/>
       <c r="F21" s="70"/>
-      <c r="G21" s="292"/>
-      <c r="H21" s="292"/>
+      <c r="G21" s="234"/>
+      <c r="H21" s="234"/>
       <c r="I21" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="J21" s="272" t="s">
+      <c r="J21" s="214" t="s">
         <v>152</v>
       </c>
-      <c r="K21" s="273"/>
+      <c r="K21" s="215"/>
       <c r="L21" s="74"/>
     </row>
-    <row r="22" spans="2:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="72"/>
       <c r="C22" s="72"/>
       <c r="D22" s="75"/>
@@ -7113,21 +7121,19 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="J9:K9"/>
@@ -7144,19 +7150,21 @@
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:H7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G21:H21"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -7172,38 +7180,38 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="35" customWidth="1"/>
-    <col min="2" max="3" width="6.625" style="35" customWidth="1"/>
+    <col min="1" max="1" width="2.58203125" style="35" customWidth="1"/>
+    <col min="2" max="3" width="6.58203125" style="35" customWidth="1"/>
     <col min="4" max="4" width="13.75" style="35" customWidth="1"/>
     <col min="5" max="5" width="3.5" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.625" style="35" customWidth="1"/>
-    <col min="7" max="8" width="6.625" style="35" customWidth="1"/>
+    <col min="6" max="6" width="10.58203125" style="35" customWidth="1"/>
+    <col min="7" max="8" width="6.58203125" style="35" customWidth="1"/>
     <col min="9" max="9" width="7" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.625" style="35" customWidth="1"/>
-    <col min="11" max="16384" width="8.625" style="35"/>
+    <col min="10" max="10" width="2.58203125" style="35" customWidth="1"/>
+    <col min="11" max="16384" width="8.58203125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="76"/>
     </row>
-    <row r="2" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="33"/>
-      <c r="B2" s="293" t="s">
+      <c r="B2" s="306" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="293"/>
-      <c r="D2" s="293"/>
-      <c r="E2" s="293"/>
-      <c r="F2" s="293"/>
-      <c r="G2" s="293"/>
-      <c r="H2" s="293"/>
-      <c r="I2" s="293"/>
+      <c r="C2" s="306"/>
+      <c r="D2" s="306"/>
+      <c r="E2" s="306"/>
+      <c r="F2" s="306"/>
+      <c r="G2" s="306"/>
+      <c r="H2" s="306"/>
+      <c r="I2" s="306"/>
       <c r="J2" s="34"/>
     </row>
-    <row r="3" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="4" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="77"/>
       <c r="C4" s="77"/>
       <c r="D4" s="77"/>
@@ -7213,37 +7221,37 @@
       <c r="H4" s="77"/>
       <c r="I4" s="91"/>
     </row>
-    <row r="5" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="294" t="s">
+    <row r="5" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="307" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="294"/>
-      <c r="D5" s="294"/>
-      <c r="E5" s="294"/>
+      <c r="C5" s="307"/>
+      <c r="D5" s="307"/>
+      <c r="E5" s="307"/>
       <c r="F5" s="78" t="s">
         <v>8</v>
       </c>
       <c r="I5" s="92"/>
-      <c r="L5" s="303" t="s">
+      <c r="L5" s="283" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L6" s="304"/>
-    </row>
-    <row r="7" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D7" s="295" t="e">
+    <row r="6" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="L6" s="284"/>
+    </row>
+    <row r="7" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" s="308" t="e">
         <f>G13+G14</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E7" s="296"/>
-      <c r="F7" s="296"/>
-      <c r="G7" s="296"/>
-      <c r="H7" s="297"/>
+      <c r="E7" s="309"/>
+      <c r="F7" s="309"/>
+      <c r="G7" s="309"/>
+      <c r="H7" s="310"/>
       <c r="I7" s="41"/>
       <c r="J7" s="79"/>
     </row>
-    <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E8" s="80"/>
       <c r="F8" s="81"/>
       <c r="G8" s="82"/>
@@ -7251,7 +7259,7 @@
       <c r="I8" s="79"/>
       <c r="J8" s="79"/>
     </row>
-    <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E9" s="80"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
@@ -7259,97 +7267,97 @@
       <c r="I9" s="79"/>
       <c r="J9" s="79"/>
     </row>
-    <row r="10" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="298" t="s">
+    <row r="10" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="311" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="299"/>
-      <c r="D10" s="300" t="s">
+      <c r="C10" s="312"/>
+      <c r="D10" s="313" t="s">
         <v>121</v>
       </c>
-      <c r="E10" s="301"/>
-      <c r="F10" s="301"/>
-      <c r="G10" s="301"/>
-      <c r="H10" s="301"/>
-      <c r="I10" s="302"/>
+      <c r="E10" s="314"/>
+      <c r="F10" s="314"/>
+      <c r="G10" s="314"/>
+      <c r="H10" s="314"/>
+      <c r="I10" s="315"/>
       <c r="J10" s="79"/>
       <c r="L10" s="35" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J11" s="83"/>
       <c r="L11" s="35" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="311" t="s">
+    <row r="12" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="291" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="312"/>
-      <c r="D12" s="312"/>
-      <c r="E12" s="312"/>
-      <c r="F12" s="312"/>
-      <c r="G12" s="312" t="s">
+      <c r="C12" s="292"/>
+      <c r="D12" s="292"/>
+      <c r="E12" s="292"/>
+      <c r="F12" s="292"/>
+      <c r="G12" s="292" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="312"/>
-      <c r="I12" s="313"/>
+      <c r="H12" s="292"/>
+      <c r="I12" s="293"/>
       <c r="J12" s="83"/>
       <c r="L12" s="35" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="314" t="s">
+    <row r="13" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="294" t="s">
         <v>161</v>
       </c>
-      <c r="C13" s="315"/>
-      <c r="D13" s="315"/>
-      <c r="E13" s="315"/>
-      <c r="F13" s="316"/>
-      <c r="G13" s="317" t="s">
+      <c r="C13" s="295"/>
+      <c r="D13" s="295"/>
+      <c r="E13" s="295"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="297" t="s">
         <v>151</v>
       </c>
-      <c r="H13" s="318"/>
-      <c r="I13" s="319"/>
+      <c r="H13" s="298"/>
+      <c r="I13" s="299"/>
       <c r="J13" s="83"/>
       <c r="L13" s="35" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="320" t="s">
+    <row r="14" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="300" t="s">
         <v>172</v>
       </c>
-      <c r="C14" s="321"/>
-      <c r="D14" s="321"/>
-      <c r="E14" s="321"/>
-      <c r="F14" s="322"/>
-      <c r="G14" s="317" t="s">
+      <c r="C14" s="301"/>
+      <c r="D14" s="301"/>
+      <c r="E14" s="301"/>
+      <c r="F14" s="302"/>
+      <c r="G14" s="297" t="s">
         <v>155</v>
       </c>
-      <c r="H14" s="318"/>
-      <c r="I14" s="319"/>
+      <c r="H14" s="298"/>
+      <c r="I14" s="299"/>
       <c r="J14" s="83"/>
       <c r="L14" s="35" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="308" t="s">
+    <row r="15" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="288" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="309"/>
-      <c r="D15" s="309"/>
-      <c r="E15" s="309"/>
-      <c r="F15" s="310"/>
-      <c r="G15" s="323"/>
-      <c r="H15" s="324"/>
-      <c r="I15" s="325"/>
-    </row>
-    <row r="16" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C15" s="289"/>
+      <c r="D15" s="289"/>
+      <c r="E15" s="289"/>
+      <c r="F15" s="290"/>
+      <c r="G15" s="303"/>
+      <c r="H15" s="304"/>
+      <c r="I15" s="305"/>
+    </row>
+    <row r="16" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="84"/>
       <c r="C16" s="84"/>
       <c r="D16" s="84"/>
@@ -7359,11 +7367,11 @@
       <c r="H16" s="86"/>
       <c r="I16" s="86"/>
     </row>
-    <row r="17" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="307" t="s">
+    <row r="17" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="287" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="307"/>
+      <c r="C17" s="287"/>
       <c r="D17" s="93" t="s">
         <v>17</v>
       </c>
@@ -7373,7 +7381,7 @@
       <c r="H17" s="79"/>
       <c r="I17" s="79"/>
     </row>
-    <row r="18" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="94"/>
       <c r="C18" s="94"/>
       <c r="D18" s="94"/>
@@ -7383,38 +7391,38 @@
       <c r="H18" s="94"/>
       <c r="I18" s="94"/>
     </row>
-    <row r="19" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D19" s="87"/>
       <c r="E19" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="253"/>
-      <c r="G19" s="253"/>
-      <c r="H19" s="253"/>
-      <c r="I19" s="253"/>
-      <c r="J19" s="253"/>
-    </row>
-    <row r="20" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F19" s="242"/>
+      <c r="G19" s="242"/>
+      <c r="H19" s="242"/>
+      <c r="I19" s="242"/>
+      <c r="J19" s="242"/>
+    </row>
+    <row r="20" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" s="87"/>
       <c r="E20" s="88"/>
-      <c r="F20" s="305"/>
-      <c r="G20" s="305"/>
-      <c r="H20" s="305"/>
-      <c r="I20" s="305"/>
-    </row>
-    <row r="21" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F20" s="285"/>
+      <c r="G20" s="285"/>
+      <c r="H20" s="285"/>
+      <c r="I20" s="285"/>
+    </row>
+    <row r="21" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="306" t="s">
+      <c r="F21" s="286" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="306"/>
-      <c r="H21" s="306"/>
-      <c r="I21" s="306"/>
-      <c r="J21" s="306"/>
-    </row>
-    <row r="22" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G21" s="286"/>
+      <c r="H21" s="286"/>
+      <c r="I21" s="286"/>
+      <c r="J21" s="286"/>
+    </row>
+    <row r="22" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E22" s="88"/>
       <c r="F22" s="95"/>
       <c r="G22" s="95"/>
@@ -7422,7 +7430,7 @@
       <c r="I22" s="95"/>
       <c r="J22" s="95"/>
     </row>
-    <row r="23" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E23" s="88"/>
       <c r="F23" s="96"/>
       <c r="G23" s="96"/>
@@ -7430,7 +7438,7 @@
       <c r="I23" s="96"/>
       <c r="J23" s="96"/>
     </row>
-    <row r="24" spans="2:10" ht="12" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10" ht="12" x14ac:dyDescent="0.55000000000000004">
       <c r="F24" s="96"/>
       <c r="G24" s="96"/>
       <c r="H24" s="96"/>
@@ -7445,6 +7453,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:I10"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="F19:J19"/>
     <mergeCell ref="F20:I20"/>
@@ -7458,11 +7471,6 @@
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:I10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -7478,40 +7486,40 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="35" customWidth="1"/>
-    <col min="2" max="3" width="6.625" style="35" customWidth="1"/>
+    <col min="1" max="1" width="2.58203125" style="35" customWidth="1"/>
+    <col min="2" max="3" width="6.58203125" style="35" customWidth="1"/>
     <col min="4" max="4" width="13.75" style="35" customWidth="1"/>
     <col min="5" max="5" width="3.5" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.625" style="35" customWidth="1"/>
-    <col min="7" max="8" width="6.625" style="35" customWidth="1"/>
+    <col min="6" max="6" width="10.58203125" style="35" customWidth="1"/>
+    <col min="7" max="8" width="6.58203125" style="35" customWidth="1"/>
     <col min="9" max="9" width="7" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.625" style="35" customWidth="1"/>
-    <col min="11" max="11" width="8.625" style="35"/>
-    <col min="12" max="12" width="8.625" style="35" customWidth="1"/>
-    <col min="13" max="16384" width="8.625" style="35"/>
+    <col min="10" max="10" width="2.58203125" style="35" customWidth="1"/>
+    <col min="11" max="11" width="8.58203125" style="35"/>
+    <col min="12" max="12" width="8.58203125" style="35" customWidth="1"/>
+    <col min="13" max="16384" width="8.58203125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="76"/>
     </row>
-    <row r="2" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="33"/>
-      <c r="B2" s="293" t="s">
+      <c r="B2" s="306" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="293"/>
-      <c r="D2" s="293"/>
-      <c r="E2" s="293"/>
-      <c r="F2" s="293"/>
-      <c r="G2" s="293"/>
-      <c r="H2" s="293"/>
-      <c r="I2" s="293"/>
+      <c r="C2" s="306"/>
+      <c r="D2" s="306"/>
+      <c r="E2" s="306"/>
+      <c r="F2" s="306"/>
+      <c r="G2" s="306"/>
+      <c r="H2" s="306"/>
+      <c r="I2" s="306"/>
       <c r="J2" s="34"/>
     </row>
-    <row r="3" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="4" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="77"/>
       <c r="C4" s="77"/>
       <c r="D4" s="77"/>
@@ -7521,32 +7529,32 @@
       <c r="H4" s="77"/>
       <c r="I4" s="91"/>
     </row>
-    <row r="5" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="294" t="s">
+    <row r="5" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="307" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="294"/>
-      <c r="D5" s="294"/>
-      <c r="E5" s="294"/>
+      <c r="C5" s="307"/>
+      <c r="D5" s="307"/>
+      <c r="E5" s="307"/>
       <c r="F5" s="78" t="s">
         <v>8</v>
       </c>
       <c r="I5" s="92"/>
     </row>
-    <row r="6" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D7" s="295" t="e">
+    <row r="6" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" s="308" t="e">
         <f>G13+G14</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E7" s="296"/>
-      <c r="F7" s="296"/>
-      <c r="G7" s="296"/>
-      <c r="H7" s="297"/>
+      <c r="E7" s="309"/>
+      <c r="F7" s="309"/>
+      <c r="G7" s="309"/>
+      <c r="H7" s="310"/>
       <c r="I7" s="41"/>
       <c r="J7" s="79"/>
     </row>
-    <row r="8" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E8" s="80"/>
       <c r="F8" s="81"/>
       <c r="G8" s="82"/>
@@ -7554,7 +7562,7 @@
       <c r="I8" s="79"/>
       <c r="J8" s="79"/>
     </row>
-    <row r="9" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E9" s="80"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
@@ -7562,97 +7570,97 @@
       <c r="I9" s="79"/>
       <c r="J9" s="79"/>
     </row>
-    <row r="10" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="298" t="s">
+    <row r="10" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="311" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="299"/>
-      <c r="D10" s="300" t="s">
+      <c r="C10" s="312"/>
+      <c r="D10" s="313" t="s">
         <v>121</v>
       </c>
-      <c r="E10" s="301"/>
-      <c r="F10" s="301"/>
-      <c r="G10" s="301"/>
-      <c r="H10" s="301"/>
-      <c r="I10" s="302"/>
+      <c r="E10" s="314"/>
+      <c r="F10" s="314"/>
+      <c r="G10" s="314"/>
+      <c r="H10" s="314"/>
+      <c r="I10" s="315"/>
       <c r="J10" s="79"/>
-      <c r="L10" s="326">
+      <c r="L10" s="316">
         <v>8250000</v>
       </c>
-      <c r="M10" s="326"/>
-      <c r="N10" s="326"/>
-      <c r="O10" s="326"/>
-      <c r="P10" s="326"/>
-    </row>
-    <row r="11" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M10" s="316"/>
+      <c r="N10" s="316"/>
+      <c r="O10" s="316"/>
+      <c r="P10" s="316"/>
+    </row>
+    <row r="11" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J11" s="83"/>
       <c r="L11" s="35" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="311" t="s">
+    <row r="12" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="291" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="312"/>
-      <c r="D12" s="312"/>
-      <c r="E12" s="312"/>
-      <c r="F12" s="312"/>
-      <c r="G12" s="312" t="s">
+      <c r="C12" s="292"/>
+      <c r="D12" s="292"/>
+      <c r="E12" s="292"/>
+      <c r="F12" s="292"/>
+      <c r="G12" s="292" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="312"/>
-      <c r="I12" s="313"/>
+      <c r="H12" s="292"/>
+      <c r="I12" s="293"/>
       <c r="J12" s="83"/>
       <c r="L12" s="35" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="314" t="s">
+    <row r="13" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="294" t="s">
         <v>141</v>
       </c>
-      <c r="C13" s="315"/>
-      <c r="D13" s="315"/>
-      <c r="E13" s="315"/>
-      <c r="F13" s="316"/>
-      <c r="G13" s="317" t="s">
+      <c r="C13" s="295"/>
+      <c r="D13" s="295"/>
+      <c r="E13" s="295"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="297" t="s">
         <v>138</v>
       </c>
-      <c r="H13" s="318"/>
-      <c r="I13" s="319"/>
+      <c r="H13" s="298"/>
+      <c r="I13" s="299"/>
       <c r="J13" s="83"/>
       <c r="L13" s="35" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="320" t="s">
+    <row r="14" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="300" t="s">
         <v>142</v>
       </c>
-      <c r="C14" s="321"/>
-      <c r="D14" s="321"/>
-      <c r="E14" s="321"/>
-      <c r="F14" s="322"/>
-      <c r="G14" s="317"/>
-      <c r="H14" s="318"/>
-      <c r="I14" s="319"/>
+      <c r="C14" s="301"/>
+      <c r="D14" s="301"/>
+      <c r="E14" s="301"/>
+      <c r="F14" s="302"/>
+      <c r="G14" s="297"/>
+      <c r="H14" s="298"/>
+      <c r="I14" s="299"/>
       <c r="J14" s="83"/>
       <c r="L14" s="35" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="308"/>
-      <c r="C15" s="309"/>
-      <c r="D15" s="309"/>
-      <c r="E15" s="309"/>
-      <c r="F15" s="310"/>
-      <c r="G15" s="323"/>
-      <c r="H15" s="324"/>
-      <c r="I15" s="325"/>
-    </row>
-    <row r="16" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="288"/>
+      <c r="C15" s="289"/>
+      <c r="D15" s="289"/>
+      <c r="E15" s="289"/>
+      <c r="F15" s="290"/>
+      <c r="G15" s="303"/>
+      <c r="H15" s="304"/>
+      <c r="I15" s="305"/>
+    </row>
+    <row r="16" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="84"/>
       <c r="C16" s="84"/>
       <c r="D16" s="84"/>
@@ -7662,11 +7670,11 @@
       <c r="H16" s="86"/>
       <c r="I16" s="86"/>
     </row>
-    <row r="17" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="307" t="s">
+    <row r="17" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="287" t="s">
         <v>168</v>
       </c>
-      <c r="C17" s="307"/>
+      <c r="C17" s="287"/>
       <c r="D17" s="93" t="s">
         <v>17</v>
       </c>
@@ -7676,7 +7684,7 @@
       <c r="H17" s="79"/>
       <c r="I17" s="79"/>
     </row>
-    <row r="18" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="94"/>
       <c r="C18" s="94"/>
       <c r="D18" s="94"/>
@@ -7686,38 +7694,38 @@
       <c r="H18" s="94"/>
       <c r="I18" s="94"/>
     </row>
-    <row r="19" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D19" s="87"/>
       <c r="E19" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="253"/>
-      <c r="G19" s="253"/>
-      <c r="H19" s="253"/>
-      <c r="I19" s="253"/>
-      <c r="J19" s="253"/>
-    </row>
-    <row r="20" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F19" s="242"/>
+      <c r="G19" s="242"/>
+      <c r="H19" s="242"/>
+      <c r="I19" s="242"/>
+      <c r="J19" s="242"/>
+    </row>
+    <row r="20" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" s="87"/>
       <c r="E20" s="88"/>
-      <c r="F20" s="305"/>
-      <c r="G20" s="305"/>
-      <c r="H20" s="305"/>
-      <c r="I20" s="305"/>
-    </row>
-    <row r="21" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F20" s="285"/>
+      <c r="G20" s="285"/>
+      <c r="H20" s="285"/>
+      <c r="I20" s="285"/>
+    </row>
+    <row r="21" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="306" t="s">
+      <c r="F21" s="286" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="306"/>
-      <c r="H21" s="306"/>
-      <c r="I21" s="306"/>
-      <c r="J21" s="306"/>
-    </row>
-    <row r="22" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G21" s="286"/>
+      <c r="H21" s="286"/>
+      <c r="I21" s="286"/>
+      <c r="J21" s="286"/>
+    </row>
+    <row r="22" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E22" s="88"/>
       <c r="F22" s="95"/>
       <c r="G22" s="95"/>
@@ -7725,7 +7733,7 @@
       <c r="I22" s="95"/>
       <c r="J22" s="95"/>
     </row>
-    <row r="23" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E23" s="88"/>
       <c r="F23" s="96"/>
       <c r="G23" s="96"/>
@@ -7733,7 +7741,7 @@
       <c r="I23" s="96"/>
       <c r="J23" s="96"/>
     </row>
-    <row r="24" spans="2:10" ht="12" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10" ht="12" x14ac:dyDescent="0.55000000000000004">
       <c r="F24" s="96"/>
       <c r="G24" s="96"/>
       <c r="H24" s="96"/>
@@ -7748,11 +7756,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:I10"/>
     <mergeCell ref="L10:P10"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="F19:J19"/>
@@ -7766,6 +7769,11 @@
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:I10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -7779,52 +7787,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{664FECCD-EDBB-4B69-8616-E3DCD69289A2}">
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="1.75" style="100" customWidth="1"/>
     <col min="2" max="2" width="17" style="100" customWidth="1"/>
-    <col min="3" max="3" width="7.375" style="100" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="100" customWidth="1"/>
     <col min="4" max="4" width="13.25" style="100" customWidth="1"/>
     <col min="5" max="5" width="4.25" style="100" customWidth="1"/>
-    <col min="6" max="6" width="15.125" style="100" customWidth="1"/>
+    <col min="6" max="6" width="15.08203125" style="100" customWidth="1"/>
     <col min="7" max="7" width="6.25" style="100" customWidth="1"/>
     <col min="8" max="8" width="6.5" style="100" customWidth="1"/>
     <col min="9" max="10" width="7.25" style="100" customWidth="1"/>
     <col min="11" max="11" width="13.5" style="100" customWidth="1"/>
     <col min="12" max="12" width="14.75" style="100" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.125" style="100" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.125" style="101" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.08203125" style="100" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.08203125" style="101" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13" style="101" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="11" style="101" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9" style="101" customWidth="1"/>
-    <col min="19" max="16384" width="8.625" style="101"/>
+    <col min="19" max="16384" width="8.58203125" style="101"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" ht="6.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="99"/>
     </row>
-    <row r="2" spans="1:17" ht="23.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" ht="23.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="102"/>
-      <c r="B2" s="359" t="s">
+      <c r="B2" s="321" t="s">
         <v>176</v>
       </c>
-      <c r="C2" s="359"/>
-      <c r="D2" s="359"/>
-      <c r="E2" s="359"/>
-      <c r="F2" s="359"/>
-      <c r="G2" s="359"/>
-      <c r="H2" s="359"/>
-      <c r="I2" s="359"/>
+      <c r="C2" s="321"/>
+      <c r="D2" s="321"/>
+      <c r="E2" s="321"/>
+      <c r="F2" s="321"/>
+      <c r="G2" s="321"/>
+      <c r="H2" s="321"/>
+      <c r="I2" s="321"/>
       <c r="J2" s="103"/>
       <c r="K2" s="103"/>
       <c r="L2" s="103"/>
       <c r="M2" s="103"/>
     </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="104"/>
       <c r="C3" s="104"/>
       <c r="D3" s="104"/>
@@ -7835,48 +7841,48 @@
       <c r="I3" s="104"/>
       <c r="J3" s="104"/>
     </row>
-    <row r="4" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="105" t="s">
         <v>177</v>
       </c>
-      <c r="C4" s="360" t="s">
+      <c r="C4" s="322" t="s">
         <v>214</v>
       </c>
-      <c r="D4" s="360"/>
-      <c r="E4" s="360"/>
+      <c r="D4" s="322"/>
+      <c r="E4" s="322"/>
       <c r="F4" s="117" t="s">
         <v>178</v>
       </c>
-      <c r="G4" s="361" t="s">
+      <c r="G4" s="323" t="s">
         <v>215</v>
       </c>
-      <c r="H4" s="362"/>
-      <c r="I4" s="362"/>
+      <c r="H4" s="324"/>
+      <c r="I4" s="324"/>
       <c r="J4" s="107"/>
       <c r="K4" s="108"/>
       <c r="L4" s="108"/>
       <c r="M4" s="108"/>
     </row>
-    <row r="5" spans="1:17" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:17" ht="45.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="109" t="s">
         <v>179</v>
       </c>
-      <c r="C5" s="363" t="s">
+      <c r="C5" s="325" t="s">
         <v>216</v>
       </c>
-      <c r="D5" s="363"/>
-      <c r="E5" s="363"/>
+      <c r="D5" s="325"/>
+      <c r="E5" s="325"/>
       <c r="F5" s="106" t="s">
         <v>180</v>
       </c>
-      <c r="G5" s="364" t="s">
+      <c r="G5" s="326" t="s">
         <v>181</v>
       </c>
-      <c r="H5" s="364"/>
-      <c r="I5" s="365"/>
+      <c r="H5" s="326"/>
+      <c r="I5" s="327"/>
       <c r="J5" s="107"/>
     </row>
-    <row r="6" spans="1:17" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="110" t="s">
         <v>182</v>
       </c>
@@ -7889,7 +7895,7 @@
       <c r="I6" s="107"/>
       <c r="J6" s="107"/>
     </row>
-    <row r="7" spans="1:17" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:17" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="113"/>
       <c r="C7" s="111"/>
       <c r="D7" s="107"/>
@@ -7900,7 +7906,7 @@
       <c r="I7" s="107"/>
       <c r="J7" s="107"/>
     </row>
-    <row r="8" spans="1:17" ht="4.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:17" ht="4.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="112"/>
       <c r="C8" s="111"/>
       <c r="D8" s="107"/>
@@ -7911,7 +7917,7 @@
       <c r="I8" s="107"/>
       <c r="J8" s="107"/>
     </row>
-    <row r="9" spans="1:17" ht="4.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:17" ht="4.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="112"/>
       <c r="C9" s="111"/>
       <c r="D9" s="107"/>
@@ -7922,7 +7928,7 @@
       <c r="I9" s="107"/>
       <c r="J9" s="107"/>
     </row>
-    <row r="10" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="110" t="s">
         <v>183</v>
       </c>
@@ -7935,45 +7941,45 @@
       <c r="I10" s="107"/>
       <c r="J10" s="107"/>
     </row>
-    <row r="11" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="114" t="s">
         <v>184</v>
       </c>
-      <c r="C11" s="366" t="s">
+      <c r="C11" s="328" t="s">
         <v>183</v>
       </c>
-      <c r="D11" s="366"/>
-      <c r="E11" s="366"/>
+      <c r="D11" s="328"/>
+      <c r="E11" s="328"/>
       <c r="F11" s="112"/>
       <c r="G11" s="104"/>
       <c r="H11" s="104"/>
       <c r="I11" s="104"/>
       <c r="J11" s="104"/>
     </row>
-    <row r="12" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="176" t="s">
+    <row r="12" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="346" t="s">
         <v>203</v>
       </c>
-      <c r="C12" s="356" t="s">
+      <c r="C12" s="347" t="s">
         <v>204</v>
       </c>
-      <c r="D12" s="356"/>
-      <c r="E12" s="356"/>
+      <c r="D12" s="347"/>
+      <c r="E12" s="347"/>
       <c r="F12" s="112"/>
       <c r="G12" s="104"/>
       <c r="H12" s="104"/>
       <c r="I12" s="104"/>
       <c r="J12" s="104"/>
     </row>
-    <row r="13" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="109" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="349" t="s">
+      <c r="C13" s="317" t="s">
         <v>220</v>
       </c>
-      <c r="D13" s="349"/>
-      <c r="E13" s="349"/>
+      <c r="D13" s="317"/>
+      <c r="E13" s="317"/>
       <c r="F13" s="112" t="s">
         <v>185</v>
       </c>
@@ -7981,9 +7987,9 @@
       <c r="H13" s="104"/>
       <c r="I13" s="104"/>
       <c r="J13" s="104"/>
-      <c r="L13" s="173"/>
-    </row>
-    <row r="14" spans="1:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L13" s="169"/>
+    </row>
+    <row r="14" spans="1:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="112"/>
       <c r="C14" s="115"/>
       <c r="D14" s="115"/>
@@ -7994,7 +8000,7 @@
       <c r="I14" s="104"/>
       <c r="J14" s="104"/>
     </row>
-    <row r="15" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="104" t="s">
         <v>186</v>
       </c>
@@ -8006,117 +8012,117 @@
       <c r="H15" s="104"/>
       <c r="I15" s="104"/>
       <c r="J15" s="104"/>
-      <c r="K15" s="181" t="s">
+      <c r="K15" s="171" t="s">
         <v>213</v>
       </c>
-      <c r="L15" s="181" t="s">
+      <c r="L15" s="171" t="s">
         <v>207</v>
       </c>
-      <c r="M15" s="182" t="s">
+      <c r="M15" s="172" t="s">
         <v>211</v>
       </c>
-      <c r="N15" s="182" t="s">
+      <c r="N15" s="172" t="s">
         <v>209</v>
       </c>
-      <c r="O15" s="181" t="s">
+      <c r="O15" s="171" t="s">
         <v>208</v>
       </c>
-      <c r="P15" s="181" t="s">
+      <c r="P15" s="171" t="s">
         <v>212</v>
       </c>
-      <c r="Q15" s="182" t="s">
+      <c r="Q15" s="172" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="116" t="s">
         <v>187</v>
       </c>
-      <c r="C16" s="357" t="s">
+      <c r="C16" s="318" t="s">
         <v>188</v>
       </c>
-      <c r="D16" s="358"/>
-      <c r="E16" s="345" t="s">
+      <c r="D16" s="319"/>
+      <c r="E16" s="320" t="s">
         <v>189</v>
       </c>
-      <c r="F16" s="345"/>
-      <c r="G16" s="345" t="s">
+      <c r="F16" s="320"/>
+      <c r="G16" s="320" t="s">
         <v>50</v>
       </c>
-      <c r="H16" s="345"/>
-      <c r="I16" s="345"/>
+      <c r="H16" s="320"/>
+      <c r="I16" s="320"/>
       <c r="J16" s="104"/>
-      <c r="K16" s="183" t="e">
+      <c r="K16" s="173" t="e">
         <f>IF(L16 = "","",MONTH(L16))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L16" s="184" t="s">
+      <c r="L16" s="174" t="s">
         <v>217</v>
       </c>
-      <c r="M16" s="185" t="e">
+      <c r="M16" s="175" t="e">
         <f>IF(L16 = "", "", L16-DAY(L16)+1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N16" s="185" t="e">
+      <c r="N16" s="175" t="e">
         <f>IF(L16 = "", "", EOMONTH(L16,0))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="O16" s="186" t="e">
+      <c r="O16" s="176" t="e">
         <f>IF(L16 = "", "", DAY(EOMONTH(L16,0)))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P16" s="186" t="e">
+      <c r="P16" s="176" t="e">
         <f>IF(L16 = "","", (N16-L16)+1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q16" s="182" t="e">
+      <c r="Q16" s="172" t="e">
         <f>IF(L16 = "","", O16-P16)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="176" t="s">
+    <row r="17" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="346" t="s">
         <v>203</v>
       </c>
-      <c r="C17" s="346" t="s">
+      <c r="C17" s="348" t="s">
         <v>205</v>
       </c>
-      <c r="D17" s="347"/>
-      <c r="E17" s="348" t="s">
+      <c r="D17" s="349"/>
+      <c r="E17" s="350" t="s">
         <v>206</v>
       </c>
-      <c r="F17" s="348"/>
-      <c r="G17" s="349" t="s">
+      <c r="F17" s="350"/>
+      <c r="G17" s="317" t="s">
         <v>219</v>
       </c>
-      <c r="H17" s="349"/>
-      <c r="I17" s="349"/>
+      <c r="H17" s="317"/>
+      <c r="I17" s="317"/>
       <c r="J17" s="112"/>
     </row>
-    <row r="18" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="118" t="s">
         <v>190</v>
       </c>
-      <c r="C18" s="350" t="s">
+      <c r="C18" s="329" t="s">
         <v>221</v>
       </c>
-      <c r="D18" s="351"/>
-      <c r="E18" s="350" t="s">
+      <c r="D18" s="330"/>
+      <c r="E18" s="329" t="s">
         <v>222</v>
       </c>
-      <c r="F18" s="351"/>
-      <c r="G18" s="349" t="s">
+      <c r="F18" s="330"/>
+      <c r="G18" s="317" t="s">
         <v>218</v>
       </c>
-      <c r="H18" s="352"/>
-      <c r="I18" s="352"/>
+      <c r="H18" s="331"/>
+      <c r="I18" s="331"/>
       <c r="J18" s="112" t="s">
         <v>118</v>
       </c>
       <c r="L18" s="119"/>
       <c r="M18" s="119"/>
     </row>
-    <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="120" t="e">
         <f>""&amp;K16&amp;"月分賃料"</f>
         <v>#VALUE!</v>
@@ -8132,98 +8138,98 @@
       <c r="L19" s="119"/>
       <c r="M19" s="119"/>
     </row>
-    <row r="20" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="126" t="s">
         <v>191</v>
       </c>
-      <c r="C20" s="353" t="e">
+      <c r="C20" s="351" t="e">
         <f>M16</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D20" s="354"/>
-      <c r="E20" s="175" t="s">
+      <c r="D20" s="352"/>
+      <c r="E20" s="353" t="s">
         <v>192</v>
       </c>
-      <c r="F20" s="355" t="e">
+      <c r="F20" s="354" t="e">
         <f>N16</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G20" s="355"/>
-      <c r="H20" s="355"/>
-      <c r="I20" s="127"/>
-      <c r="J20" s="128"/>
+      <c r="G20" s="354"/>
+      <c r="H20" s="354"/>
+      <c r="I20" s="355"/>
+      <c r="J20" s="127"/>
       <c r="K20" s="119"/>
-      <c r="L20" s="174"/>
+      <c r="L20" s="170"/>
       <c r="M20" s="119"/>
     </row>
-    <row r="21" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="129" t="s">
+    <row r="21" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="128" t="s">
         <v>210</v>
       </c>
-      <c r="C21" s="130"/>
-      <c r="D21" s="180" t="e">
+      <c r="C21" s="356"/>
+      <c r="D21" s="357" t="e">
         <f>IF(L16 = "", "", "(B)×" &amp; Q16 &amp; "日")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E21" s="131" t="s">
+      <c r="E21" s="358" t="s">
         <v>60</v>
       </c>
-      <c r="F21" s="177" t="e">
+      <c r="F21" s="359" t="e">
         <f>O16</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G21" s="132"/>
-      <c r="H21" s="343" t="e">
+      <c r="G21" s="360"/>
+      <c r="H21" s="361" t="e">
         <f>IF(L16 = "", "", G18-H22)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I21" s="344"/>
+      <c r="I21" s="362"/>
       <c r="L21" s="119"/>
       <c r="M21" s="119"/>
     </row>
-    <row r="22" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="133" t="s">
+    <row r="22" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="132" t="s">
         <v>193</v>
       </c>
-      <c r="C22" s="134"/>
-      <c r="D22" s="178" t="e">
+      <c r="C22" s="363"/>
+      <c r="D22" s="364" t="e">
         <f>IF(L16 ="","", "(B)×" &amp; P16 &amp; "日")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E22" s="135" t="s">
+      <c r="E22" s="365" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="179" t="e">
+      <c r="F22" s="366" t="e">
         <f>O16</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G22" s="136"/>
-      <c r="H22" s="330" t="e">
+      <c r="G22" s="367"/>
+      <c r="H22" s="368" t="e">
         <f>IF(L16 = "","", G18/O16*P16)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I22" s="331"/>
+      <c r="I22" s="369"/>
       <c r="J22" s="112" t="s">
         <v>55</v>
       </c>
       <c r="L22" s="119"/>
       <c r="M22" s="119"/>
     </row>
-    <row r="23" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="110"/>
-      <c r="C23" s="137"/>
-      <c r="D23" s="138"/>
+      <c r="C23" s="133"/>
+      <c r="D23" s="134"/>
       <c r="E23" s="112"/>
-      <c r="F23" s="139"/>
+      <c r="F23" s="135"/>
       <c r="G23" s="125"/>
-      <c r="H23" s="140"/>
-      <c r="I23" s="141"/>
-      <c r="J23" s="141"/>
-      <c r="K23" s="142"/>
+      <c r="H23" s="136"/>
+      <c r="I23" s="137"/>
+      <c r="J23" s="137"/>
+      <c r="K23" s="138"/>
       <c r="L23" s="119"/>
       <c r="M23" s="119"/>
     </row>
-    <row r="24" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="332" t="e">
         <f>""&amp;K16&amp;"月分日割り賃料、敷金"</f>
         <v>#VALUE!</v>
@@ -8235,75 +8241,75 @@
       <c r="G24" s="333"/>
       <c r="H24" s="333"/>
       <c r="I24" s="334"/>
-      <c r="J24" s="143"/>
-      <c r="K24" s="144"/>
+      <c r="J24" s="139"/>
+      <c r="K24" s="140"/>
       <c r="L24" s="119"/>
       <c r="M24" s="119"/>
     </row>
-    <row r="25" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="129" t="s">
+    <row r="25" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="128" t="s">
         <v>194</v>
       </c>
-      <c r="C25" s="130"/>
-      <c r="D25" s="145" t="s">
+      <c r="C25" s="129"/>
+      <c r="D25" s="141" t="s">
         <v>195</v>
       </c>
-      <c r="E25" s="131"/>
-      <c r="F25" s="146"/>
-      <c r="G25" s="132"/>
+      <c r="E25" s="130"/>
+      <c r="F25" s="142"/>
+      <c r="G25" s="131"/>
       <c r="H25" s="335" t="e">
         <f>C13+H22</f>
         <v>#VALUE!</v>
       </c>
       <c r="I25" s="336"/>
-      <c r="J25" s="141"/>
-      <c r="K25" s="144"/>
+      <c r="J25" s="137"/>
+      <c r="K25" s="140"/>
       <c r="L25" s="119"/>
       <c r="M25" s="119"/>
     </row>
-    <row r="26" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="147"/>
-      <c r="C26" s="148"/>
-      <c r="D26" s="149"/>
+    <row r="26" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="143"/>
+      <c r="C26" s="144"/>
+      <c r="D26" s="145"/>
       <c r="E26" s="117"/>
-      <c r="F26" s="150"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="152"/>
-      <c r="I26" s="153"/>
-      <c r="J26" s="141"/>
-      <c r="K26" s="144"/>
-      <c r="L26" s="144"/>
-      <c r="M26" s="144"/>
-    </row>
-    <row r="27" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="154"/>
-      <c r="C27" s="137"/>
-      <c r="D27" s="138"/>
+      <c r="F26" s="146"/>
+      <c r="G26" s="147"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="137"/>
+      <c r="K26" s="140"/>
+      <c r="L26" s="140"/>
+      <c r="M26" s="140"/>
+    </row>
+    <row r="27" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="150"/>
+      <c r="C27" s="133"/>
+      <c r="D27" s="134"/>
       <c r="E27" s="112"/>
-      <c r="F27" s="139"/>
+      <c r="F27" s="135"/>
       <c r="G27" s="125"/>
-      <c r="H27" s="140"/>
-      <c r="I27" s="141"/>
-      <c r="J27" s="141"/>
-      <c r="K27" s="144"/>
-      <c r="L27" s="144"/>
-      <c r="M27" s="144"/>
-    </row>
-    <row r="28" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H27" s="136"/>
+      <c r="I27" s="137"/>
+      <c r="J27" s="137"/>
+      <c r="K27" s="140"/>
+      <c r="L27" s="140"/>
+      <c r="M27" s="140"/>
+    </row>
+    <row r="28" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="112"/>
       <c r="C28" s="104"/>
       <c r="D28" s="104"/>
       <c r="E28" s="112"/>
       <c r="F28" s="112"/>
       <c r="G28" s="112"/>
-      <c r="H28" s="155"/>
-      <c r="I28" s="155"/>
-      <c r="J28" s="155"/>
-      <c r="K28" s="144"/>
-      <c r="L28" s="144"/>
-      <c r="M28" s="144"/>
-    </row>
-    <row r="29" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H28" s="151"/>
+      <c r="I28" s="151"/>
+      <c r="J28" s="151"/>
+      <c r="K28" s="140"/>
+      <c r="L28" s="140"/>
+      <c r="M28" s="140"/>
+    </row>
+    <row r="29" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="337" t="s">
         <v>196</v>
       </c>
@@ -8315,23 +8321,23 @@
       <c r="H29" s="337"/>
       <c r="I29" s="337"/>
       <c r="J29" s="337"/>
-      <c r="K29" s="144"/>
-    </row>
-    <row r="30" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="144"/>
+      <c r="K29" s="140"/>
+    </row>
+    <row r="30" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="140"/>
       <c r="B30" s="338"/>
       <c r="C30" s="338"/>
-      <c r="D30" s="157"/>
-      <c r="E30" s="158"/>
-      <c r="F30" s="158"/>
-      <c r="G30" s="158"/>
-      <c r="H30" s="159"/>
+      <c r="D30" s="153"/>
+      <c r="E30" s="154"/>
+      <c r="F30" s="154"/>
+      <c r="G30" s="154"/>
+      <c r="H30" s="155"/>
       <c r="I30" s="339"/>
-      <c r="J30" s="160"/>
-      <c r="K30" s="144"/>
-    </row>
-    <row r="31" spans="1:13" s="144" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="144" t="s">
+      <c r="J30" s="156"/>
+      <c r="K30" s="140"/>
+    </row>
+    <row r="31" spans="1:13" s="140" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="140" t="s">
         <v>197</v>
       </c>
       <c r="B31" s="341" t="str">
@@ -8339,19 +8345,19 @@
         <v>$list_contractorNameDot$</v>
       </c>
       <c r="C31" s="342"/>
-      <c r="D31" s="157" t="s">
+      <c r="D31" s="153" t="s">
         <v>198</v>
       </c>
-      <c r="E31" s="161"/>
+      <c r="E31" s="157"/>
       <c r="F31" s="104"/>
       <c r="G31" s="104"/>
       <c r="H31" s="104"/>
       <c r="I31" s="340"/>
-      <c r="J31" s="162"/>
+      <c r="J31" s="158"/>
       <c r="L31" s="100"/>
       <c r="M31" s="100"/>
     </row>
-    <row r="32" spans="1:13" s="144" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:13" s="140" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="104"/>
       <c r="C32" s="104"/>
       <c r="D32" s="104"/>
@@ -8361,127 +8367,127 @@
       <c r="H32" s="104"/>
       <c r="I32" s="104"/>
       <c r="J32" s="104"/>
-      <c r="K32" s="163"/>
+      <c r="K32" s="159"/>
       <c r="L32" s="100"/>
       <c r="M32" s="100"/>
     </row>
-    <row r="33" spans="1:13" s="144" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:13" s="140" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="104"/>
       <c r="C33" s="104"/>
-      <c r="D33" s="327" t="e">
+      <c r="D33" s="343" t="e">
         <f>H25</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E33" s="327"/>
-      <c r="F33" s="327"/>
-      <c r="G33" s="164"/>
+      <c r="E33" s="343"/>
+      <c r="F33" s="343"/>
+      <c r="G33" s="160"/>
       <c r="H33" s="104"/>
       <c r="I33" s="104"/>
       <c r="J33" s="104"/>
-      <c r="K33" s="165"/>
-      <c r="L33" s="166"/>
-      <c r="M33" s="166"/>
-    </row>
-    <row r="34" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="144"/>
+      <c r="K33" s="161"/>
+      <c r="L33" s="162"/>
+      <c r="M33" s="162"/>
+    </row>
+    <row r="34" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="140"/>
       <c r="B34" s="104"/>
       <c r="C34" s="104"/>
-      <c r="D34" s="167"/>
-      <c r="E34" s="167"/>
-      <c r="F34" s="167"/>
-      <c r="G34" s="164"/>
+      <c r="D34" s="163"/>
+      <c r="E34" s="163"/>
+      <c r="F34" s="163"/>
+      <c r="G34" s="160"/>
       <c r="H34" s="104"/>
       <c r="I34" s="104"/>
       <c r="J34" s="104"/>
-      <c r="K34" s="165"/>
-      <c r="L34" s="166"/>
-      <c r="M34" s="166"/>
-    </row>
-    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="144"/>
-      <c r="B35" s="168"/>
-      <c r="C35" s="156"/>
-      <c r="D35" s="156"/>
-      <c r="E35" s="156"/>
-      <c r="F35" s="156"/>
-      <c r="G35" s="156"/>
-      <c r="H35" s="156"/>
-      <c r="I35" s="156"/>
-      <c r="J35" s="156"/>
-      <c r="K35" s="165"/>
-      <c r="L35" s="163"/>
-      <c r="M35" s="163"/>
-    </row>
-    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="144"/>
-      <c r="B36" s="168" t="str">
+      <c r="K34" s="161"/>
+      <c r="L34" s="162"/>
+      <c r="M34" s="162"/>
+    </row>
+    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="140"/>
+      <c r="B35" s="164"/>
+      <c r="C35" s="152"/>
+      <c r="D35" s="152"/>
+      <c r="E35" s="152"/>
+      <c r="F35" s="152"/>
+      <c r="G35" s="152"/>
+      <c r="H35" s="152"/>
+      <c r="I35" s="152"/>
+      <c r="J35" s="152"/>
+      <c r="K35" s="161"/>
+      <c r="L35" s="159"/>
+      <c r="M35" s="159"/>
+    </row>
+    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="140"/>
+      <c r="B36" s="164" t="str">
         <f>"但し、上記所在物件の賃料等精算金として"</f>
         <v>但し、上記所在物件の賃料等精算金として</v>
       </c>
-      <c r="C36" s="156"/>
-      <c r="D36" s="156"/>
-      <c r="E36" s="156"/>
-      <c r="F36" s="156"/>
-      <c r="G36" s="156"/>
-      <c r="H36" s="156"/>
-      <c r="I36" s="156"/>
-      <c r="J36" s="156"/>
-      <c r="K36" s="165"/>
-      <c r="L36" s="163"/>
-      <c r="M36" s="163"/>
-    </row>
-    <row r="37" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C36" s="152"/>
+      <c r="D36" s="152"/>
+      <c r="E36" s="152"/>
+      <c r="F36" s="152"/>
+      <c r="G36" s="152"/>
+      <c r="H36" s="152"/>
+      <c r="I36" s="152"/>
+      <c r="J36" s="152"/>
+      <c r="K36" s="161"/>
+      <c r="L36" s="159"/>
+      <c r="M36" s="159"/>
+    </row>
+    <row r="37" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="104"/>
       <c r="C37" s="104"/>
       <c r="D37" s="104"/>
       <c r="E37" s="104"/>
       <c r="F37" s="110"/>
-      <c r="G37" s="328"/>
-      <c r="H37" s="328"/>
-      <c r="I37" s="328"/>
-      <c r="J37" s="170"/>
-      <c r="L37" s="165"/>
-      <c r="M37" s="165"/>
-    </row>
-    <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G37" s="344"/>
+      <c r="H37" s="344"/>
+      <c r="I37" s="344"/>
+      <c r="J37" s="166"/>
+      <c r="L37" s="161"/>
+      <c r="M37" s="161"/>
+    </row>
+    <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="104"/>
       <c r="C38" s="104"/>
       <c r="D38" s="104"/>
       <c r="E38" s="104"/>
       <c r="F38" s="110"/>
-      <c r="G38" s="328" t="str">
+      <c r="G38" s="344" t="str">
         <f>G4</f>
         <v>$contractFixDay_jpdt_kanji$</v>
       </c>
-      <c r="H38" s="328"/>
-      <c r="I38" s="328"/>
-      <c r="J38" s="170"/>
-    </row>
-    <row r="39" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H38" s="344"/>
+      <c r="I38" s="344"/>
+      <c r="J38" s="166"/>
+    </row>
+    <row r="39" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="104"/>
       <c r="C39" s="104"/>
       <c r="D39" s="104"/>
-      <c r="E39" s="171"/>
+      <c r="E39" s="167"/>
       <c r="F39" s="110"/>
       <c r="G39" s="104"/>
-      <c r="H39" s="172"/>
-      <c r="I39" s="172"/>
-      <c r="J39" s="172"/>
-    </row>
-    <row r="40" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H39" s="168"/>
+      <c r="I39" s="168"/>
+      <c r="J39" s="168"/>
+    </row>
+    <row r="40" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="104"/>
       <c r="C40" s="104"/>
       <c r="D40" s="104"/>
       <c r="E40" s="104"/>
       <c r="F40" s="104"/>
-      <c r="G40" s="328"/>
-      <c r="H40" s="328"/>
-      <c r="I40" s="328"/>
-      <c r="J40" s="169"/>
-      <c r="L40" s="165"/>
-      <c r="M40" s="165"/>
-    </row>
-    <row r="41" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G40" s="344"/>
+      <c r="H40" s="344"/>
+      <c r="I40" s="344"/>
+      <c r="J40" s="165"/>
+      <c r="L40" s="161"/>
+      <c r="M40" s="161"/>
+    </row>
+    <row r="41" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="110"/>
       <c r="C41" s="104"/>
       <c r="D41" s="104"/>
@@ -8490,13 +8496,13 @@
         <v>199</v>
       </c>
       <c r="G41" s="110"/>
-      <c r="H41" s="170"/>
-      <c r="I41" s="170"/>
-      <c r="J41" s="170"/>
-      <c r="L41" s="165"/>
-      <c r="M41" s="165"/>
-    </row>
-    <row r="42" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H41" s="166"/>
+      <c r="I41" s="166"/>
+      <c r="J41" s="166"/>
+      <c r="L41" s="161"/>
+      <c r="M41" s="161"/>
+    </row>
+    <row r="42" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="110"/>
       <c r="C42" s="104"/>
       <c r="D42" s="104"/>
@@ -8506,37 +8512,59 @@
       </c>
       <c r="G42" s="104"/>
       <c r="H42" s="110"/>
-      <c r="I42" s="170"/>
-      <c r="J42" s="170"/>
-    </row>
-    <row r="43" spans="1:13" s="100" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I42" s="166"/>
+      <c r="J42" s="166"/>
+    </row>
+    <row r="43" spans="1:13" s="100" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="110"/>
       <c r="C43" s="104"/>
       <c r="D43" s="104"/>
-      <c r="E43" s="171"/>
+      <c r="E43" s="167"/>
       <c r="F43" s="110" t="s">
         <v>201</v>
       </c>
       <c r="G43" s="104"/>
-      <c r="H43" s="172"/>
-      <c r="I43" s="172"/>
-      <c r="J43" s="172"/>
-    </row>
-    <row r="45" spans="1:13" s="100" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="329" t="s">
+      <c r="H43" s="168"/>
+      <c r="I43" s="168"/>
+      <c r="J43" s="168"/>
+    </row>
+    <row r="45" spans="1:13" s="100" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="345" t="s">
         <v>202</v>
       </c>
-      <c r="C45" s="329"/>
-      <c r="D45" s="329"/>
-      <c r="E45" s="329"/>
-      <c r="F45" s="329"/>
-      <c r="G45" s="329"/>
-      <c r="H45" s="329"/>
-      <c r="I45" s="329"/>
+      <c r="C45" s="345"/>
+      <c r="D45" s="345"/>
+      <c r="E45" s="345"/>
+      <c r="F45" s="345"/>
+      <c r="G45" s="345"/>
+      <c r="H45" s="345"/>
+      <c r="I45" s="345"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="32">
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:H20"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="C16:D16"/>
@@ -8547,28 +8575,6 @@
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="C11:E11"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="B45:I45"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/template/買取決済.xlsx
+++ b/template/買取決済.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\work\00_Wavesync\24_不動産管理システム\00_source\backend\kbs_backend\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A9690B-1C8F-42ED-A4B0-4B2C863BD489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E354442-6EF2-4831-A3FD-5A2E93FC871E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -838,19 +838,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>東京都中央区銀座4-10-10</t>
-    <rPh sb="0" eb="3">
-      <t>トウキョウト</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ギンザ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>$sellerName$</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1600,6 +1587,19 @@
   </si>
   <si>
     <t>$sumManagementFeeAndCondoFeeInTax$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>東京都中央区銀座3-9-7</t>
+    <rPh sb="0" eb="3">
+      <t>トウキョウト</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ギンザ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3492,8 +3492,77 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="14" fillId="0" borderId="68" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="14" fillId="0" borderId="69" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="200" fontId="14" fillId="0" borderId="71" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="204" fontId="14" fillId="0" borderId="71" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="71" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="192" fontId="14" fillId="0" borderId="71" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="71" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="200" fontId="14" fillId="0" borderId="74" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="204" fontId="14" fillId="0" borderId="74" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="74" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="192" fontId="14" fillId="0" borderId="74" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="74" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3526,42 +3595,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3582,175 +3633,16 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="193" fontId="6" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="193" fontId="6" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="193" fontId="6" fillId="0" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="193" fontId="6" fillId="0" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="193" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="193" fontId="6" fillId="0" borderId="43" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="193" fontId="6" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="193" fontId="6" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="193" fontId="6" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="193" fontId="6" fillId="0" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="15" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="15" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="15" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="15" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="6" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="6" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="6" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="6" fillId="0" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="188" fontId="15" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="188" fontId="15" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="188" fontId="15" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="188" fontId="15" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="15" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -3800,79 +3692,157 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal